--- a/メッセージ設計書.xlsx
+++ b/メッセージ設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kensyu005\Desktop\新しいフォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A6E324-0B6F-434F-A65A-EAFDFA20D3B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0582470D-F01C-42F8-874B-2FAE90520754}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{78B42164-E9D9-4973-93DD-29F371AD8A8A}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="95">
   <si>
     <t>ソフトウェア名</t>
     <rPh sb="6" eb="7">
@@ -716,6 +716,57 @@
   </si>
   <si>
     <t>M101</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインに失敗しました。</t>
+    <rPh sb="5" eb="7">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M102</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新に失敗しました。</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M103</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アバターの更新に失敗しました。</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M104</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1026,6 +1077,39 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1035,39 +1119,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1086,6 +1137,78 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1102,78 +1225,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1528,285 +1579,285 @@
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="26" t="str">
+      <c r="B1" s="16" t="str">
         <f>[1]表紙!$Q$8</f>
         <v>人材管理ソフトメッセージ仕様書</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="27"/>
-      <c r="AQ1" s="27"/>
-      <c r="AR1" s="27"/>
-      <c r="AS1" s="27"/>
-      <c r="AT1" s="27"/>
-      <c r="AU1" s="27"/>
-      <c r="AV1" s="27"/>
-      <c r="AW1" s="27"/>
-      <c r="AX1" s="27"/>
-      <c r="AY1" s="27"/>
-      <c r="AZ1" s="27"/>
-      <c r="BA1" s="27"/>
-      <c r="BB1" s="27"/>
-      <c r="BC1" s="27"/>
-      <c r="BD1" s="27"/>
-      <c r="BE1" s="27"/>
-      <c r="BF1" s="27"/>
-      <c r="BG1" s="27"/>
-      <c r="BH1" s="27"/>
-      <c r="BI1" s="27"/>
-      <c r="BJ1" s="27"/>
-      <c r="BK1" s="27"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="17"/>
+      <c r="AR1" s="17"/>
+      <c r="AS1" s="17"/>
+      <c r="AT1" s="17"/>
+      <c r="AU1" s="17"/>
+      <c r="AV1" s="17"/>
+      <c r="AW1" s="17"/>
+      <c r="AX1" s="17"/>
+      <c r="AY1" s="17"/>
+      <c r="AZ1" s="17"/>
+      <c r="BA1" s="17"/>
+      <c r="BB1" s="17"/>
+      <c r="BC1" s="17"/>
+      <c r="BD1" s="17"/>
+      <c r="BE1" s="17"/>
+      <c r="BF1" s="17"/>
+      <c r="BG1" s="17"/>
+      <c r="BH1" s="17"/>
+      <c r="BI1" s="17"/>
+      <c r="BJ1" s="17"/>
+      <c r="BK1" s="17"/>
     </row>
     <row r="2" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="28" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28" t="s">
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="29" t="s">
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="AO2" s="29"/>
-      <c r="AP2" s="29"/>
-      <c r="AQ2" s="29"/>
-      <c r="AR2" s="29"/>
-      <c r="AS2" s="29"/>
-      <c r="AT2" s="28" t="s">
+      <c r="AO2" s="19"/>
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="19"/>
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="19"/>
+      <c r="AT2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="AU2" s="28"/>
-      <c r="AV2" s="28"/>
-      <c r="AW2" s="28"/>
-      <c r="AX2" s="28"/>
-      <c r="AY2" s="28"/>
-      <c r="AZ2" s="28" t="s">
+      <c r="AU2" s="18"/>
+      <c r="AV2" s="18"/>
+      <c r="AW2" s="18"/>
+      <c r="AX2" s="18"/>
+      <c r="AY2" s="18"/>
+      <c r="AZ2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="BA2" s="28"/>
-      <c r="BB2" s="28"/>
-      <c r="BC2" s="28"/>
-      <c r="BD2" s="28"/>
-      <c r="BE2" s="28"/>
-      <c r="BF2" s="28" t="s">
+      <c r="BA2" s="18"/>
+      <c r="BB2" s="18"/>
+      <c r="BC2" s="18"/>
+      <c r="BD2" s="18"/>
+      <c r="BE2" s="18"/>
+      <c r="BF2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="BG2" s="28"/>
-      <c r="BH2" s="28"/>
-      <c r="BI2" s="28"/>
-      <c r="BJ2" s="28"/>
-      <c r="BK2" s="28"/>
+      <c r="BG2" s="18"/>
+      <c r="BH2" s="18"/>
+      <c r="BI2" s="18"/>
+      <c r="BJ2" s="18"/>
+      <c r="BK2" s="18"/>
     </row>
     <row r="3" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24">
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="25">
         <v>1</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="22" t="s">
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="22"/>
-      <c r="AF3" s="22"/>
-      <c r="AG3" s="22"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="22"/>
-      <c r="AJ3" s="22"/>
-      <c r="AK3" s="22"/>
-      <c r="AL3" s="22"/>
-      <c r="AM3" s="22"/>
-      <c r="AN3" s="25"/>
-      <c r="AO3" s="22"/>
-      <c r="AP3" s="22"/>
-      <c r="AQ3" s="22"/>
-      <c r="AR3" s="22"/>
-      <c r="AS3" s="22"/>
-      <c r="AT3" s="25" t="s">
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="20"/>
+      <c r="AM3" s="20"/>
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="20"/>
+      <c r="AP3" s="20"/>
+      <c r="AQ3" s="20"/>
+      <c r="AR3" s="20"/>
+      <c r="AS3" s="20"/>
+      <c r="AT3" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AU3" s="25"/>
-      <c r="AV3" s="25"/>
-      <c r="AW3" s="25"/>
-      <c r="AX3" s="25"/>
-      <c r="AY3" s="25"/>
-      <c r="AZ3" s="22"/>
-      <c r="BA3" s="22"/>
-      <c r="BB3" s="22"/>
-      <c r="BC3" s="22"/>
-      <c r="BD3" s="22"/>
-      <c r="BE3" s="22"/>
-      <c r="BF3" s="22"/>
-      <c r="BG3" s="22"/>
-      <c r="BH3" s="22"/>
-      <c r="BI3" s="22"/>
-      <c r="BJ3" s="22"/>
-      <c r="BK3" s="22"/>
+      <c r="AU3" s="26"/>
+      <c r="AV3" s="26"/>
+      <c r="AW3" s="26"/>
+      <c r="AX3" s="26"/>
+      <c r="AY3" s="26"/>
+      <c r="AZ3" s="20"/>
+      <c r="BA3" s="20"/>
+      <c r="BB3" s="20"/>
+      <c r="BC3" s="20"/>
+      <c r="BD3" s="20"/>
+      <c r="BE3" s="20"/>
+      <c r="BF3" s="20"/>
+      <c r="BG3" s="20"/>
+      <c r="BH3" s="20"/>
+      <c r="BI3" s="20"/>
+      <c r="BJ3" s="20"/>
+      <c r="BK3" s="20"/>
     </row>
     <row r="4" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="22"/>
-      <c r="AJ4" s="22"/>
-      <c r="AK4" s="22"/>
-      <c r="AL4" s="22"/>
-      <c r="AM4" s="22"/>
-      <c r="AN4" s="22"/>
-      <c r="AO4" s="22"/>
-      <c r="AP4" s="22"/>
-      <c r="AQ4" s="22"/>
-      <c r="AR4" s="22"/>
-      <c r="AS4" s="22"/>
-      <c r="AT4" s="25"/>
-      <c r="AU4" s="25"/>
-      <c r="AV4" s="25"/>
-      <c r="AW4" s="25"/>
-      <c r="AX4" s="25"/>
-      <c r="AY4" s="25"/>
-      <c r="AZ4" s="22"/>
-      <c r="BA4" s="22"/>
-      <c r="BB4" s="22"/>
-      <c r="BC4" s="22"/>
-      <c r="BD4" s="22"/>
-      <c r="BE4" s="22"/>
-      <c r="BF4" s="22"/>
-      <c r="BG4" s="22"/>
-      <c r="BH4" s="22"/>
-      <c r="BI4" s="22"/>
-      <c r="BJ4" s="22"/>
-      <c r="BK4" s="22"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="20"/>
+      <c r="AM4" s="20"/>
+      <c r="AN4" s="20"/>
+      <c r="AO4" s="20"/>
+      <c r="AP4" s="20"/>
+      <c r="AQ4" s="20"/>
+      <c r="AR4" s="20"/>
+      <c r="AS4" s="20"/>
+      <c r="AT4" s="26"/>
+      <c r="AU4" s="26"/>
+      <c r="AV4" s="26"/>
+      <c r="AW4" s="26"/>
+      <c r="AX4" s="26"/>
+      <c r="AY4" s="26"/>
+      <c r="AZ4" s="20"/>
+      <c r="BA4" s="20"/>
+      <c r="BB4" s="20"/>
+      <c r="BC4" s="20"/>
+      <c r="BD4" s="20"/>
+      <c r="BE4" s="20"/>
+      <c r="BF4" s="20"/>
+      <c r="BG4" s="20"/>
+      <c r="BH4" s="20"/>
+      <c r="BI4" s="20"/>
+      <c r="BJ4" s="20"/>
+      <c r="BK4" s="20"/>
     </row>
     <row r="5" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3"/>
@@ -1938,510 +1989,510 @@
     </row>
     <row r="7" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="21" t="s">
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="21" t="s">
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="19" t="s">
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AG7" s="19"/>
-      <c r="AH7" s="19"/>
-      <c r="AI7" s="19"/>
-      <c r="AJ7" s="19"/>
-      <c r="AK7" s="19"/>
-      <c r="AL7" s="19"/>
-      <c r="AM7" s="19"/>
-      <c r="AN7" s="19"/>
-      <c r="AO7" s="19"/>
-      <c r="AP7" s="19"/>
-      <c r="AQ7" s="19"/>
-      <c r="AR7" s="19"/>
-      <c r="AS7" s="19"/>
-      <c r="AT7" s="19"/>
-      <c r="AU7" s="19"/>
-      <c r="AV7" s="19"/>
-      <c r="AW7" s="19"/>
-      <c r="AX7" s="19"/>
-      <c r="AY7" s="19"/>
-      <c r="AZ7" s="19"/>
-      <c r="BA7" s="19"/>
-      <c r="BB7" s="19"/>
-      <c r="BC7" s="19"/>
-      <c r="BD7" s="19"/>
-      <c r="BE7" s="19"/>
-      <c r="BF7" s="19"/>
-      <c r="BG7" s="19"/>
-      <c r="BH7" s="19"/>
-      <c r="BI7" s="19"/>
-      <c r="BJ7" s="19"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="21"/>
+      <c r="AJ7" s="21"/>
+      <c r="AK7" s="21"/>
+      <c r="AL7" s="21"/>
+      <c r="AM7" s="21"/>
+      <c r="AN7" s="21"/>
+      <c r="AO7" s="21"/>
+      <c r="AP7" s="21"/>
+      <c r="AQ7" s="21"/>
+      <c r="AR7" s="21"/>
+      <c r="AS7" s="21"/>
+      <c r="AT7" s="21"/>
+      <c r="AU7" s="21"/>
+      <c r="AV7" s="21"/>
+      <c r="AW7" s="21"/>
+      <c r="AX7" s="21"/>
+      <c r="AY7" s="21"/>
+      <c r="AZ7" s="21"/>
+      <c r="BA7" s="21"/>
+      <c r="BB7" s="21"/>
+      <c r="BC7" s="21"/>
+      <c r="BD7" s="21"/>
+      <c r="BE7" s="21"/>
+      <c r="BF7" s="21"/>
+      <c r="BG7" s="21"/>
+      <c r="BH7" s="21"/>
+      <c r="BI7" s="21"/>
+      <c r="BJ7" s="21"/>
       <c r="BK7" s="2"/>
     </row>
     <row r="8" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="19"/>
-      <c r="AH8" s="19"/>
-      <c r="AI8" s="19"/>
-      <c r="AJ8" s="19"/>
-      <c r="AK8" s="19"/>
-      <c r="AL8" s="19"/>
-      <c r="AM8" s="19"/>
-      <c r="AN8" s="19"/>
-      <c r="AO8" s="19"/>
-      <c r="AP8" s="19"/>
-      <c r="AQ8" s="19"/>
-      <c r="AR8" s="19"/>
-      <c r="AS8" s="19"/>
-      <c r="AT8" s="19"/>
-      <c r="AU8" s="19"/>
-      <c r="AV8" s="19"/>
-      <c r="AW8" s="19"/>
-      <c r="AX8" s="19"/>
-      <c r="AY8" s="19"/>
-      <c r="AZ8" s="19"/>
-      <c r="BA8" s="19"/>
-      <c r="BB8" s="19"/>
-      <c r="BC8" s="19"/>
-      <c r="BD8" s="19"/>
-      <c r="BE8" s="19"/>
-      <c r="BF8" s="19"/>
-      <c r="BG8" s="19"/>
-      <c r="BH8" s="19"/>
-      <c r="BI8" s="19"/>
-      <c r="BJ8" s="19"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="21"/>
+      <c r="AJ8" s="21"/>
+      <c r="AK8" s="21"/>
+      <c r="AL8" s="21"/>
+      <c r="AM8" s="21"/>
+      <c r="AN8" s="21"/>
+      <c r="AO8" s="21"/>
+      <c r="AP8" s="21"/>
+      <c r="AQ8" s="21"/>
+      <c r="AR8" s="21"/>
+      <c r="AS8" s="21"/>
+      <c r="AT8" s="21"/>
+      <c r="AU8" s="21"/>
+      <c r="AV8" s="21"/>
+      <c r="AW8" s="21"/>
+      <c r="AX8" s="21"/>
+      <c r="AY8" s="21"/>
+      <c r="AZ8" s="21"/>
+      <c r="BA8" s="21"/>
+      <c r="BB8" s="21"/>
+      <c r="BC8" s="21"/>
+      <c r="BD8" s="21"/>
+      <c r="BE8" s="21"/>
+      <c r="BF8" s="21"/>
+      <c r="BG8" s="21"/>
+      <c r="BH8" s="21"/>
+      <c r="BI8" s="21"/>
+      <c r="BJ8" s="21"/>
       <c r="BK8" s="2"/>
     </row>
     <row r="9" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17" t="s">
+      <c r="D9" s="27"/>
+      <c r="E9" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="16" t="s">
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16" t="s">
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16"/>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="18" t="s">
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AG9" s="18"/>
-      <c r="AH9" s="18"/>
-      <c r="AI9" s="18"/>
-      <c r="AJ9" s="18"/>
-      <c r="AK9" s="18"/>
-      <c r="AL9" s="18"/>
-      <c r="AM9" s="18"/>
-      <c r="AN9" s="18"/>
-      <c r="AO9" s="18"/>
-      <c r="AP9" s="18"/>
-      <c r="AQ9" s="18"/>
-      <c r="AR9" s="18"/>
-      <c r="AS9" s="18"/>
-      <c r="AT9" s="18"/>
-      <c r="AU9" s="18"/>
-      <c r="AV9" s="18"/>
-      <c r="AW9" s="18"/>
-      <c r="AX9" s="18"/>
-      <c r="AY9" s="18"/>
-      <c r="AZ9" s="18"/>
-      <c r="BA9" s="18"/>
-      <c r="BB9" s="18"/>
-      <c r="BC9" s="18"/>
-      <c r="BD9" s="18"/>
-      <c r="BE9" s="18"/>
-      <c r="BF9" s="18"/>
-      <c r="BG9" s="18"/>
-      <c r="BH9" s="18"/>
-      <c r="BI9" s="18"/>
-      <c r="BJ9" s="18"/>
+      <c r="AG9" s="29"/>
+      <c r="AH9" s="29"/>
+      <c r="AI9" s="29"/>
+      <c r="AJ9" s="29"/>
+      <c r="AK9" s="29"/>
+      <c r="AL9" s="29"/>
+      <c r="AM9" s="29"/>
+      <c r="AN9" s="29"/>
+      <c r="AO9" s="29"/>
+      <c r="AP9" s="29"/>
+      <c r="AQ9" s="29"/>
+      <c r="AR9" s="29"/>
+      <c r="AS9" s="29"/>
+      <c r="AT9" s="29"/>
+      <c r="AU9" s="29"/>
+      <c r="AV9" s="29"/>
+      <c r="AW9" s="29"/>
+      <c r="AX9" s="29"/>
+      <c r="AY9" s="29"/>
+      <c r="AZ9" s="29"/>
+      <c r="BA9" s="29"/>
+      <c r="BB9" s="29"/>
+      <c r="BC9" s="29"/>
+      <c r="BD9" s="29"/>
+      <c r="BE9" s="29"/>
+      <c r="BF9" s="29"/>
+      <c r="BG9" s="29"/>
+      <c r="BH9" s="29"/>
+      <c r="BI9" s="29"/>
+      <c r="BJ9" s="29"/>
       <c r="BK9" s="2"/>
     </row>
     <row r="10" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17" t="s">
+      <c r="D10" s="27"/>
+      <c r="E10" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="16" t="s">
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16" t="s">
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="18" t="s">
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="AG10" s="18"/>
-      <c r="AH10" s="18"/>
-      <c r="AI10" s="18"/>
-      <c r="AJ10" s="18"/>
-      <c r="AK10" s="18"/>
-      <c r="AL10" s="18"/>
-      <c r="AM10" s="18"/>
-      <c r="AN10" s="18"/>
-      <c r="AO10" s="18"/>
-      <c r="AP10" s="18"/>
-      <c r="AQ10" s="18"/>
-      <c r="AR10" s="18"/>
-      <c r="AS10" s="18"/>
-      <c r="AT10" s="18"/>
-      <c r="AU10" s="18"/>
-      <c r="AV10" s="18"/>
-      <c r="AW10" s="18"/>
-      <c r="AX10" s="18"/>
-      <c r="AY10" s="18"/>
-      <c r="AZ10" s="18"/>
-      <c r="BA10" s="18"/>
-      <c r="BB10" s="18"/>
-      <c r="BC10" s="18"/>
-      <c r="BD10" s="18"/>
-      <c r="BE10" s="18"/>
-      <c r="BF10" s="18"/>
-      <c r="BG10" s="18"/>
-      <c r="BH10" s="18"/>
-      <c r="BI10" s="18"/>
-      <c r="BJ10" s="18"/>
+      <c r="AG10" s="29"/>
+      <c r="AH10" s="29"/>
+      <c r="AI10" s="29"/>
+      <c r="AJ10" s="29"/>
+      <c r="AK10" s="29"/>
+      <c r="AL10" s="29"/>
+      <c r="AM10" s="29"/>
+      <c r="AN10" s="29"/>
+      <c r="AO10" s="29"/>
+      <c r="AP10" s="29"/>
+      <c r="AQ10" s="29"/>
+      <c r="AR10" s="29"/>
+      <c r="AS10" s="29"/>
+      <c r="AT10" s="29"/>
+      <c r="AU10" s="29"/>
+      <c r="AV10" s="29"/>
+      <c r="AW10" s="29"/>
+      <c r="AX10" s="29"/>
+      <c r="AY10" s="29"/>
+      <c r="AZ10" s="29"/>
+      <c r="BA10" s="29"/>
+      <c r="BB10" s="29"/>
+      <c r="BC10" s="29"/>
+      <c r="BD10" s="29"/>
+      <c r="BE10" s="29"/>
+      <c r="BF10" s="29"/>
+      <c r="BG10" s="29"/>
+      <c r="BH10" s="29"/>
+      <c r="BI10" s="29"/>
+      <c r="BJ10" s="29"/>
       <c r="BK10" s="2"/>
     </row>
     <row r="11" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17" t="s">
+      <c r="D11" s="27"/>
+      <c r="E11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="16" t="s">
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16" t="s">
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="16"/>
-      <c r="AE11" s="16"/>
-      <c r="AF11" s="18" t="s">
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="AG11" s="18"/>
-      <c r="AH11" s="18"/>
-      <c r="AI11" s="18"/>
-      <c r="AJ11" s="18"/>
-      <c r="AK11" s="18"/>
-      <c r="AL11" s="18"/>
-      <c r="AM11" s="18"/>
-      <c r="AN11" s="18"/>
-      <c r="AO11" s="18"/>
-      <c r="AP11" s="18"/>
-      <c r="AQ11" s="18"/>
-      <c r="AR11" s="18"/>
-      <c r="AS11" s="18"/>
-      <c r="AT11" s="18"/>
-      <c r="AU11" s="18"/>
-      <c r="AV11" s="18"/>
-      <c r="AW11" s="18"/>
-      <c r="AX11" s="18"/>
-      <c r="AY11" s="18"/>
-      <c r="AZ11" s="18"/>
-      <c r="BA11" s="18"/>
-      <c r="BB11" s="18"/>
-      <c r="BC11" s="18"/>
-      <c r="BD11" s="18"/>
-      <c r="BE11" s="18"/>
-      <c r="BF11" s="18"/>
-      <c r="BG11" s="18"/>
-      <c r="BH11" s="18"/>
-      <c r="BI11" s="18"/>
-      <c r="BJ11" s="18"/>
+      <c r="AG11" s="29"/>
+      <c r="AH11" s="29"/>
+      <c r="AI11" s="29"/>
+      <c r="AJ11" s="29"/>
+      <c r="AK11" s="29"/>
+      <c r="AL11" s="29"/>
+      <c r="AM11" s="29"/>
+      <c r="AN11" s="29"/>
+      <c r="AO11" s="29"/>
+      <c r="AP11" s="29"/>
+      <c r="AQ11" s="29"/>
+      <c r="AR11" s="29"/>
+      <c r="AS11" s="29"/>
+      <c r="AT11" s="29"/>
+      <c r="AU11" s="29"/>
+      <c r="AV11" s="29"/>
+      <c r="AW11" s="29"/>
+      <c r="AX11" s="29"/>
+      <c r="AY11" s="29"/>
+      <c r="AZ11" s="29"/>
+      <c r="BA11" s="29"/>
+      <c r="BB11" s="29"/>
+      <c r="BC11" s="29"/>
+      <c r="BD11" s="29"/>
+      <c r="BE11" s="29"/>
+      <c r="BF11" s="29"/>
+      <c r="BG11" s="29"/>
+      <c r="BH11" s="29"/>
+      <c r="BI11" s="29"/>
+      <c r="BJ11" s="29"/>
       <c r="BK11" s="2"/>
     </row>
     <row r="12" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17" t="s">
+      <c r="D12" s="27"/>
+      <c r="E12" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="16" t="s">
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16" t="s">
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="16"/>
-      <c r="AE12" s="16"/>
-      <c r="AF12" s="18" t="s">
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="AG12" s="18"/>
-      <c r="AH12" s="18"/>
-      <c r="AI12" s="18"/>
-      <c r="AJ12" s="18"/>
-      <c r="AK12" s="18"/>
-      <c r="AL12" s="18"/>
-      <c r="AM12" s="18"/>
-      <c r="AN12" s="18"/>
-      <c r="AO12" s="18"/>
-      <c r="AP12" s="18"/>
-      <c r="AQ12" s="18"/>
-      <c r="AR12" s="18"/>
-      <c r="AS12" s="18"/>
-      <c r="AT12" s="18"/>
-      <c r="AU12" s="18"/>
-      <c r="AV12" s="18"/>
-      <c r="AW12" s="18"/>
-      <c r="AX12" s="18"/>
-      <c r="AY12" s="18"/>
-      <c r="AZ12" s="18"/>
-      <c r="BA12" s="18"/>
-      <c r="BB12" s="18"/>
-      <c r="BC12" s="18"/>
-      <c r="BD12" s="18"/>
-      <c r="BE12" s="18"/>
-      <c r="BF12" s="18"/>
-      <c r="BG12" s="18"/>
-      <c r="BH12" s="18"/>
-      <c r="BI12" s="18"/>
-      <c r="BJ12" s="18"/>
+      <c r="AG12" s="29"/>
+      <c r="AH12" s="29"/>
+      <c r="AI12" s="29"/>
+      <c r="AJ12" s="29"/>
+      <c r="AK12" s="29"/>
+      <c r="AL12" s="29"/>
+      <c r="AM12" s="29"/>
+      <c r="AN12" s="29"/>
+      <c r="AO12" s="29"/>
+      <c r="AP12" s="29"/>
+      <c r="AQ12" s="29"/>
+      <c r="AR12" s="29"/>
+      <c r="AS12" s="29"/>
+      <c r="AT12" s="29"/>
+      <c r="AU12" s="29"/>
+      <c r="AV12" s="29"/>
+      <c r="AW12" s="29"/>
+      <c r="AX12" s="29"/>
+      <c r="AY12" s="29"/>
+      <c r="AZ12" s="29"/>
+      <c r="BA12" s="29"/>
+      <c r="BB12" s="29"/>
+      <c r="BC12" s="29"/>
+      <c r="BD12" s="29"/>
+      <c r="BE12" s="29"/>
+      <c r="BF12" s="29"/>
+      <c r="BG12" s="29"/>
+      <c r="BH12" s="29"/>
+      <c r="BI12" s="29"/>
+      <c r="BJ12" s="29"/>
       <c r="BK12" s="2"/>
     </row>
     <row r="13" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17" t="s">
+      <c r="D13" s="27"/>
+      <c r="E13" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="16" t="s">
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16" t="s">
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="16"/>
-      <c r="AE13" s="16"/>
-      <c r="AF13" s="18" t="s">
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="27"/>
+      <c r="AF13" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="AG13" s="18"/>
-      <c r="AH13" s="18"/>
-      <c r="AI13" s="18"/>
-      <c r="AJ13" s="18"/>
-      <c r="AK13" s="18"/>
-      <c r="AL13" s="18"/>
-      <c r="AM13" s="18"/>
-      <c r="AN13" s="18"/>
-      <c r="AO13" s="18"/>
-      <c r="AP13" s="18"/>
-      <c r="AQ13" s="18"/>
-      <c r="AR13" s="18"/>
-      <c r="AS13" s="18"/>
-      <c r="AT13" s="18"/>
-      <c r="AU13" s="18"/>
-      <c r="AV13" s="18"/>
-      <c r="AW13" s="18"/>
-      <c r="AX13" s="18"/>
-      <c r="AY13" s="18"/>
-      <c r="AZ13" s="18"/>
-      <c r="BA13" s="18"/>
-      <c r="BB13" s="18"/>
-      <c r="BC13" s="18"/>
-      <c r="BD13" s="18"/>
-      <c r="BE13" s="18"/>
-      <c r="BF13" s="18"/>
-      <c r="BG13" s="18"/>
-      <c r="BH13" s="18"/>
-      <c r="BI13" s="18"/>
-      <c r="BJ13" s="18"/>
+      <c r="AG13" s="29"/>
+      <c r="AH13" s="29"/>
+      <c r="AI13" s="29"/>
+      <c r="AJ13" s="29"/>
+      <c r="AK13" s="29"/>
+      <c r="AL13" s="29"/>
+      <c r="AM13" s="29"/>
+      <c r="AN13" s="29"/>
+      <c r="AO13" s="29"/>
+      <c r="AP13" s="29"/>
+      <c r="AQ13" s="29"/>
+      <c r="AR13" s="29"/>
+      <c r="AS13" s="29"/>
+      <c r="AT13" s="29"/>
+      <c r="AU13" s="29"/>
+      <c r="AV13" s="29"/>
+      <c r="AW13" s="29"/>
+      <c r="AX13" s="29"/>
+      <c r="AY13" s="29"/>
+      <c r="AZ13" s="29"/>
+      <c r="BA13" s="29"/>
+      <c r="BB13" s="29"/>
+      <c r="BC13" s="29"/>
+      <c r="BD13" s="29"/>
+      <c r="BE13" s="29"/>
+      <c r="BF13" s="29"/>
+      <c r="BG13" s="29"/>
+      <c r="BH13" s="29"/>
+      <c r="BI13" s="29"/>
+      <c r="BJ13" s="29"/>
       <c r="BK13" s="2"/>
     </row>
     <row r="14" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2576,510 +2627,510 @@
     </row>
     <row r="16" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20" t="s">
+      <c r="D16" s="21"/>
+      <c r="E16" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="21" t="s">
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="21"/>
-      <c r="AB16" s="21" t="s">
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AC16" s="19"/>
-      <c r="AD16" s="19"/>
-      <c r="AE16" s="19"/>
-      <c r="AF16" s="19" t="s">
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AG16" s="19"/>
-      <c r="AH16" s="19"/>
-      <c r="AI16" s="19"/>
-      <c r="AJ16" s="19"/>
-      <c r="AK16" s="19"/>
-      <c r="AL16" s="19"/>
-      <c r="AM16" s="19"/>
-      <c r="AN16" s="19"/>
-      <c r="AO16" s="19"/>
-      <c r="AP16" s="19"/>
-      <c r="AQ16" s="19"/>
-      <c r="AR16" s="19"/>
-      <c r="AS16" s="19"/>
-      <c r="AT16" s="19"/>
-      <c r="AU16" s="19"/>
-      <c r="AV16" s="19"/>
-      <c r="AW16" s="19"/>
-      <c r="AX16" s="19"/>
-      <c r="AY16" s="19"/>
-      <c r="AZ16" s="19"/>
-      <c r="BA16" s="19"/>
-      <c r="BB16" s="19"/>
-      <c r="BC16" s="19"/>
-      <c r="BD16" s="19"/>
-      <c r="BE16" s="19"/>
-      <c r="BF16" s="19"/>
-      <c r="BG16" s="19"/>
-      <c r="BH16" s="19"/>
-      <c r="BI16" s="19"/>
-      <c r="BJ16" s="19"/>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="21"/>
+      <c r="AI16" s="21"/>
+      <c r="AJ16" s="21"/>
+      <c r="AK16" s="21"/>
+      <c r="AL16" s="21"/>
+      <c r="AM16" s="21"/>
+      <c r="AN16" s="21"/>
+      <c r="AO16" s="21"/>
+      <c r="AP16" s="21"/>
+      <c r="AQ16" s="21"/>
+      <c r="AR16" s="21"/>
+      <c r="AS16" s="21"/>
+      <c r="AT16" s="21"/>
+      <c r="AU16" s="21"/>
+      <c r="AV16" s="21"/>
+      <c r="AW16" s="21"/>
+      <c r="AX16" s="21"/>
+      <c r="AY16" s="21"/>
+      <c r="AZ16" s="21"/>
+      <c r="BA16" s="21"/>
+      <c r="BB16" s="21"/>
+      <c r="BC16" s="21"/>
+      <c r="BD16" s="21"/>
+      <c r="BE16" s="21"/>
+      <c r="BF16" s="21"/>
+      <c r="BG16" s="21"/>
+      <c r="BH16" s="21"/>
+      <c r="BI16" s="21"/>
+      <c r="BJ16" s="21"/>
       <c r="BK16" s="2"/>
     </row>
     <row r="17" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="21"/>
-      <c r="Z17" s="21"/>
-      <c r="AA17" s="21"/>
-      <c r="AB17" s="19"/>
-      <c r="AC17" s="19"/>
-      <c r="AD17" s="19"/>
-      <c r="AE17" s="19"/>
-      <c r="AF17" s="19"/>
-      <c r="AG17" s="19"/>
-      <c r="AH17" s="19"/>
-      <c r="AI17" s="19"/>
-      <c r="AJ17" s="19"/>
-      <c r="AK17" s="19"/>
-      <c r="AL17" s="19"/>
-      <c r="AM17" s="19"/>
-      <c r="AN17" s="19"/>
-      <c r="AO17" s="19"/>
-      <c r="AP17" s="19"/>
-      <c r="AQ17" s="19"/>
-      <c r="AR17" s="19"/>
-      <c r="AS17" s="19"/>
-      <c r="AT17" s="19"/>
-      <c r="AU17" s="19"/>
-      <c r="AV17" s="19"/>
-      <c r="AW17" s="19"/>
-      <c r="AX17" s="19"/>
-      <c r="AY17" s="19"/>
-      <c r="AZ17" s="19"/>
-      <c r="BA17" s="19"/>
-      <c r="BB17" s="19"/>
-      <c r="BC17" s="19"/>
-      <c r="BD17" s="19"/>
-      <c r="BE17" s="19"/>
-      <c r="BF17" s="19"/>
-      <c r="BG17" s="19"/>
-      <c r="BH17" s="19"/>
-      <c r="BI17" s="19"/>
-      <c r="BJ17" s="19"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="21"/>
+      <c r="AJ17" s="21"/>
+      <c r="AK17" s="21"/>
+      <c r="AL17" s="21"/>
+      <c r="AM17" s="21"/>
+      <c r="AN17" s="21"/>
+      <c r="AO17" s="21"/>
+      <c r="AP17" s="21"/>
+      <c r="AQ17" s="21"/>
+      <c r="AR17" s="21"/>
+      <c r="AS17" s="21"/>
+      <c r="AT17" s="21"/>
+      <c r="AU17" s="21"/>
+      <c r="AV17" s="21"/>
+      <c r="AW17" s="21"/>
+      <c r="AX17" s="21"/>
+      <c r="AY17" s="21"/>
+      <c r="AZ17" s="21"/>
+      <c r="BA17" s="21"/>
+      <c r="BB17" s="21"/>
+      <c r="BC17" s="21"/>
+      <c r="BD17" s="21"/>
+      <c r="BE17" s="21"/>
+      <c r="BF17" s="21"/>
+      <c r="BG17" s="21"/>
+      <c r="BH17" s="21"/>
+      <c r="BI17" s="21"/>
+      <c r="BJ17" s="21"/>
       <c r="BK17" s="2"/>
     </row>
     <row r="18" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17" t="s">
+      <c r="D18" s="27"/>
+      <c r="E18" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="16" t="s">
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16" t="s">
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="16"/>
-      <c r="AF18" s="18" t="s">
+      <c r="AC18" s="27"/>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="27"/>
+      <c r="AF18" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="AG18" s="18"/>
-      <c r="AH18" s="18"/>
-      <c r="AI18" s="18"/>
-      <c r="AJ18" s="18"/>
-      <c r="AK18" s="18"/>
-      <c r="AL18" s="18"/>
-      <c r="AM18" s="18"/>
-      <c r="AN18" s="18"/>
-      <c r="AO18" s="18"/>
-      <c r="AP18" s="18"/>
-      <c r="AQ18" s="18"/>
-      <c r="AR18" s="18"/>
-      <c r="AS18" s="18"/>
-      <c r="AT18" s="18"/>
-      <c r="AU18" s="18"/>
-      <c r="AV18" s="18"/>
-      <c r="AW18" s="18"/>
-      <c r="AX18" s="18"/>
-      <c r="AY18" s="18"/>
-      <c r="AZ18" s="18"/>
-      <c r="BA18" s="18"/>
-      <c r="BB18" s="18"/>
-      <c r="BC18" s="18"/>
-      <c r="BD18" s="18"/>
-      <c r="BE18" s="18"/>
-      <c r="BF18" s="18"/>
-      <c r="BG18" s="18"/>
-      <c r="BH18" s="18"/>
-      <c r="BI18" s="18"/>
-      <c r="BJ18" s="18"/>
+      <c r="AG18" s="29"/>
+      <c r="AH18" s="29"/>
+      <c r="AI18" s="29"/>
+      <c r="AJ18" s="29"/>
+      <c r="AK18" s="29"/>
+      <c r="AL18" s="29"/>
+      <c r="AM18" s="29"/>
+      <c r="AN18" s="29"/>
+      <c r="AO18" s="29"/>
+      <c r="AP18" s="29"/>
+      <c r="AQ18" s="29"/>
+      <c r="AR18" s="29"/>
+      <c r="AS18" s="29"/>
+      <c r="AT18" s="29"/>
+      <c r="AU18" s="29"/>
+      <c r="AV18" s="29"/>
+      <c r="AW18" s="29"/>
+      <c r="AX18" s="29"/>
+      <c r="AY18" s="29"/>
+      <c r="AZ18" s="29"/>
+      <c r="BA18" s="29"/>
+      <c r="BB18" s="29"/>
+      <c r="BC18" s="29"/>
+      <c r="BD18" s="29"/>
+      <c r="BE18" s="29"/>
+      <c r="BF18" s="29"/>
+      <c r="BG18" s="29"/>
+      <c r="BH18" s="29"/>
+      <c r="BI18" s="29"/>
+      <c r="BJ18" s="29"/>
       <c r="BK18" s="2"/>
     </row>
     <row r="19" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17" t="s">
+      <c r="D19" s="27"/>
+      <c r="E19" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="16" t="s">
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16" t="s">
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AC19" s="16"/>
-      <c r="AD19" s="16"/>
-      <c r="AE19" s="16"/>
-      <c r="AF19" s="18" t="s">
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="AG19" s="18"/>
-      <c r="AH19" s="18"/>
-      <c r="AI19" s="18"/>
-      <c r="AJ19" s="18"/>
-      <c r="AK19" s="18"/>
-      <c r="AL19" s="18"/>
-      <c r="AM19" s="18"/>
-      <c r="AN19" s="18"/>
-      <c r="AO19" s="18"/>
-      <c r="AP19" s="18"/>
-      <c r="AQ19" s="18"/>
-      <c r="AR19" s="18"/>
-      <c r="AS19" s="18"/>
-      <c r="AT19" s="18"/>
-      <c r="AU19" s="18"/>
-      <c r="AV19" s="18"/>
-      <c r="AW19" s="18"/>
-      <c r="AX19" s="18"/>
-      <c r="AY19" s="18"/>
-      <c r="AZ19" s="18"/>
-      <c r="BA19" s="18"/>
-      <c r="BB19" s="18"/>
-      <c r="BC19" s="18"/>
-      <c r="BD19" s="18"/>
-      <c r="BE19" s="18"/>
-      <c r="BF19" s="18"/>
-      <c r="BG19" s="18"/>
-      <c r="BH19" s="18"/>
-      <c r="BI19" s="18"/>
-      <c r="BJ19" s="18"/>
+      <c r="AG19" s="29"/>
+      <c r="AH19" s="29"/>
+      <c r="AI19" s="29"/>
+      <c r="AJ19" s="29"/>
+      <c r="AK19" s="29"/>
+      <c r="AL19" s="29"/>
+      <c r="AM19" s="29"/>
+      <c r="AN19" s="29"/>
+      <c r="AO19" s="29"/>
+      <c r="AP19" s="29"/>
+      <c r="AQ19" s="29"/>
+      <c r="AR19" s="29"/>
+      <c r="AS19" s="29"/>
+      <c r="AT19" s="29"/>
+      <c r="AU19" s="29"/>
+      <c r="AV19" s="29"/>
+      <c r="AW19" s="29"/>
+      <c r="AX19" s="29"/>
+      <c r="AY19" s="29"/>
+      <c r="AZ19" s="29"/>
+      <c r="BA19" s="29"/>
+      <c r="BB19" s="29"/>
+      <c r="BC19" s="29"/>
+      <c r="BD19" s="29"/>
+      <c r="BE19" s="29"/>
+      <c r="BF19" s="29"/>
+      <c r="BG19" s="29"/>
+      <c r="BH19" s="29"/>
+      <c r="BI19" s="29"/>
+      <c r="BJ19" s="29"/>
       <c r="BK19" s="2"/>
     </row>
     <row r="20" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17" t="s">
+      <c r="D20" s="27"/>
+      <c r="E20" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="16" t="s">
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="16" t="s">
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="AC20" s="16"/>
-      <c r="AD20" s="16"/>
-      <c r="AE20" s="16"/>
-      <c r="AF20" s="18" t="s">
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="AG20" s="18"/>
-      <c r="AH20" s="18"/>
-      <c r="AI20" s="18"/>
-      <c r="AJ20" s="18"/>
-      <c r="AK20" s="18"/>
-      <c r="AL20" s="18"/>
-      <c r="AM20" s="18"/>
-      <c r="AN20" s="18"/>
-      <c r="AO20" s="18"/>
-      <c r="AP20" s="18"/>
-      <c r="AQ20" s="18"/>
-      <c r="AR20" s="18"/>
-      <c r="AS20" s="18"/>
-      <c r="AT20" s="18"/>
-      <c r="AU20" s="18"/>
-      <c r="AV20" s="18"/>
-      <c r="AW20" s="18"/>
-      <c r="AX20" s="18"/>
-      <c r="AY20" s="18"/>
-      <c r="AZ20" s="18"/>
-      <c r="BA20" s="18"/>
-      <c r="BB20" s="18"/>
-      <c r="BC20" s="18"/>
-      <c r="BD20" s="18"/>
-      <c r="BE20" s="18"/>
-      <c r="BF20" s="18"/>
-      <c r="BG20" s="18"/>
-      <c r="BH20" s="18"/>
-      <c r="BI20" s="18"/>
-      <c r="BJ20" s="18"/>
+      <c r="AG20" s="29"/>
+      <c r="AH20" s="29"/>
+      <c r="AI20" s="29"/>
+      <c r="AJ20" s="29"/>
+      <c r="AK20" s="29"/>
+      <c r="AL20" s="29"/>
+      <c r="AM20" s="29"/>
+      <c r="AN20" s="29"/>
+      <c r="AO20" s="29"/>
+      <c r="AP20" s="29"/>
+      <c r="AQ20" s="29"/>
+      <c r="AR20" s="29"/>
+      <c r="AS20" s="29"/>
+      <c r="AT20" s="29"/>
+      <c r="AU20" s="29"/>
+      <c r="AV20" s="29"/>
+      <c r="AW20" s="29"/>
+      <c r="AX20" s="29"/>
+      <c r="AY20" s="29"/>
+      <c r="AZ20" s="29"/>
+      <c r="BA20" s="29"/>
+      <c r="BB20" s="29"/>
+      <c r="BC20" s="29"/>
+      <c r="BD20" s="29"/>
+      <c r="BE20" s="29"/>
+      <c r="BF20" s="29"/>
+      <c r="BG20" s="29"/>
+      <c r="BH20" s="29"/>
+      <c r="BI20" s="29"/>
+      <c r="BJ20" s="29"/>
       <c r="BK20" s="2"/>
     </row>
     <row r="21" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17" t="s">
+      <c r="D21" s="27"/>
+      <c r="E21" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="16" t="s">
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="16"/>
-      <c r="AB21" s="16" t="s">
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="AC21" s="16"/>
-      <c r="AD21" s="16"/>
-      <c r="AE21" s="16"/>
-      <c r="AF21" s="18" t="s">
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AG21" s="18"/>
-      <c r="AH21" s="18"/>
-      <c r="AI21" s="18"/>
-      <c r="AJ21" s="18"/>
-      <c r="AK21" s="18"/>
-      <c r="AL21" s="18"/>
-      <c r="AM21" s="18"/>
-      <c r="AN21" s="18"/>
-      <c r="AO21" s="18"/>
-      <c r="AP21" s="18"/>
-      <c r="AQ21" s="18"/>
-      <c r="AR21" s="18"/>
-      <c r="AS21" s="18"/>
-      <c r="AT21" s="18"/>
-      <c r="AU21" s="18"/>
-      <c r="AV21" s="18"/>
-      <c r="AW21" s="18"/>
-      <c r="AX21" s="18"/>
-      <c r="AY21" s="18"/>
-      <c r="AZ21" s="18"/>
-      <c r="BA21" s="18"/>
-      <c r="BB21" s="18"/>
-      <c r="BC21" s="18"/>
-      <c r="BD21" s="18"/>
-      <c r="BE21" s="18"/>
-      <c r="BF21" s="18"/>
-      <c r="BG21" s="18"/>
-      <c r="BH21" s="18"/>
-      <c r="BI21" s="18"/>
-      <c r="BJ21" s="18"/>
+      <c r="AG21" s="29"/>
+      <c r="AH21" s="29"/>
+      <c r="AI21" s="29"/>
+      <c r="AJ21" s="29"/>
+      <c r="AK21" s="29"/>
+      <c r="AL21" s="29"/>
+      <c r="AM21" s="29"/>
+      <c r="AN21" s="29"/>
+      <c r="AO21" s="29"/>
+      <c r="AP21" s="29"/>
+      <c r="AQ21" s="29"/>
+      <c r="AR21" s="29"/>
+      <c r="AS21" s="29"/>
+      <c r="AT21" s="29"/>
+      <c r="AU21" s="29"/>
+      <c r="AV21" s="29"/>
+      <c r="AW21" s="29"/>
+      <c r="AX21" s="29"/>
+      <c r="AY21" s="29"/>
+      <c r="AZ21" s="29"/>
+      <c r="BA21" s="29"/>
+      <c r="BB21" s="29"/>
+      <c r="BC21" s="29"/>
+      <c r="BD21" s="29"/>
+      <c r="BE21" s="29"/>
+      <c r="BF21" s="29"/>
+      <c r="BG21" s="29"/>
+      <c r="BH21" s="29"/>
+      <c r="BI21" s="29"/>
+      <c r="BJ21" s="29"/>
       <c r="BK21" s="2"/>
     </row>
     <row r="22" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17" t="s">
+      <c r="D22" s="27"/>
+      <c r="E22" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="16" t="s">
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="Z22" s="16"/>
-      <c r="AA22" s="16"/>
-      <c r="AB22" s="16" t="s">
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AC22" s="16"/>
-      <c r="AD22" s="16"/>
-      <c r="AE22" s="16"/>
-      <c r="AF22" s="18" t="s">
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AG22" s="18"/>
-      <c r="AH22" s="18"/>
-      <c r="AI22" s="18"/>
-      <c r="AJ22" s="18"/>
-      <c r="AK22" s="18"/>
-      <c r="AL22" s="18"/>
-      <c r="AM22" s="18"/>
-      <c r="AN22" s="18"/>
-      <c r="AO22" s="18"/>
-      <c r="AP22" s="18"/>
-      <c r="AQ22" s="18"/>
-      <c r="AR22" s="18"/>
-      <c r="AS22" s="18"/>
-      <c r="AT22" s="18"/>
-      <c r="AU22" s="18"/>
-      <c r="AV22" s="18"/>
-      <c r="AW22" s="18"/>
-      <c r="AX22" s="18"/>
-      <c r="AY22" s="18"/>
-      <c r="AZ22" s="18"/>
-      <c r="BA22" s="18"/>
-      <c r="BB22" s="18"/>
-      <c r="BC22" s="18"/>
-      <c r="BD22" s="18"/>
-      <c r="BE22" s="18"/>
-      <c r="BF22" s="18"/>
-      <c r="BG22" s="18"/>
-      <c r="BH22" s="18"/>
-      <c r="BI22" s="18"/>
-      <c r="BJ22" s="18"/>
+      <c r="AG22" s="29"/>
+      <c r="AH22" s="29"/>
+      <c r="AI22" s="29"/>
+      <c r="AJ22" s="29"/>
+      <c r="AK22" s="29"/>
+      <c r="AL22" s="29"/>
+      <c r="AM22" s="29"/>
+      <c r="AN22" s="29"/>
+      <c r="AO22" s="29"/>
+      <c r="AP22" s="29"/>
+      <c r="AQ22" s="29"/>
+      <c r="AR22" s="29"/>
+      <c r="AS22" s="29"/>
+      <c r="AT22" s="29"/>
+      <c r="AU22" s="29"/>
+      <c r="AV22" s="29"/>
+      <c r="AW22" s="29"/>
+      <c r="AX22" s="29"/>
+      <c r="AY22" s="29"/>
+      <c r="AZ22" s="29"/>
+      <c r="BA22" s="29"/>
+      <c r="BB22" s="29"/>
+      <c r="BC22" s="29"/>
+      <c r="BD22" s="29"/>
+      <c r="BE22" s="29"/>
+      <c r="BF22" s="29"/>
+      <c r="BG22" s="29"/>
+      <c r="BH22" s="29"/>
+      <c r="BI22" s="29"/>
+      <c r="BJ22" s="29"/>
       <c r="BK22" s="2"/>
     </row>
     <row r="23" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3148,14 +3199,61 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B1:BK1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="Q2:AM2"/>
-    <mergeCell ref="AN2:AS2"/>
-    <mergeCell ref="AT2:AY2"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="BF2:BK2"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="AB22:AE22"/>
+    <mergeCell ref="AF22:BJ22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AB20:AE20"/>
+    <mergeCell ref="AF20:BJ20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AB21:AE21"/>
+    <mergeCell ref="AF21:BJ21"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB18:AE18"/>
+    <mergeCell ref="AF18:BJ18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="AB19:AE19"/>
+    <mergeCell ref="AF19:BJ19"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="AF13:BJ13"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:X17"/>
+    <mergeCell ref="Y16:AA17"/>
+    <mergeCell ref="AB16:AE17"/>
+    <mergeCell ref="AF16:BJ17"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="AB11:AE11"/>
+    <mergeCell ref="AF11:BJ11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="AF12:BJ12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="AB9:AE9"/>
+    <mergeCell ref="AF9:BJ9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="AF10:BJ10"/>
     <mergeCell ref="BF3:BK4"/>
     <mergeCell ref="C7:D8"/>
     <mergeCell ref="E7:X8"/>
@@ -3168,61 +3266,14 @@
     <mergeCell ref="AN3:AS4"/>
     <mergeCell ref="AT3:AY4"/>
     <mergeCell ref="AZ3:BE4"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="AF10:BJ10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="AB9:AE9"/>
-    <mergeCell ref="AF9:BJ9"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="AB12:AE12"/>
-    <mergeCell ref="AF12:BJ12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="AB11:AE11"/>
-    <mergeCell ref="AF11:BJ11"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:X17"/>
-    <mergeCell ref="Y16:AA17"/>
-    <mergeCell ref="AB16:AE17"/>
-    <mergeCell ref="AF16:BJ17"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:X13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="AB13:AE13"/>
-    <mergeCell ref="AF13:BJ13"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="AB19:AE19"/>
-    <mergeCell ref="AF19:BJ19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="AB18:AE18"/>
-    <mergeCell ref="AF18:BJ18"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="AB21:AE21"/>
-    <mergeCell ref="AF21:BJ21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="AB20:AE20"/>
-    <mergeCell ref="AF20:BJ20"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="AB22:AE22"/>
-    <mergeCell ref="AF22:BJ22"/>
+    <mergeCell ref="B1:BK1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:AM2"/>
+    <mergeCell ref="AN2:AS2"/>
+    <mergeCell ref="AT2:AY2"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="BF2:BK2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3231,432 +3282,432 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36293E3-BB8A-450A-AD90-324CA703073E}">
-  <dimension ref="B1:BK18"/>
+  <dimension ref="B1:BK21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18:AG18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21:AG21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="64"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="64"/>
-      <c r="AO1" s="64"/>
-      <c r="AP1" s="64"/>
-      <c r="AQ1" s="64"/>
-      <c r="AR1" s="64"/>
-      <c r="AS1" s="64"/>
-      <c r="AT1" s="64"/>
-      <c r="AU1" s="64"/>
-      <c r="AV1" s="64"/>
-      <c r="AW1" s="64"/>
-      <c r="AX1" s="64"/>
-      <c r="AY1" s="64"/>
-      <c r="AZ1" s="64"/>
-      <c r="BA1" s="64"/>
-      <c r="BB1" s="64"/>
-      <c r="BC1" s="64"/>
-      <c r="BD1" s="64"/>
-      <c r="BE1" s="64"/>
-      <c r="BF1" s="64"/>
-      <c r="BG1" s="64"/>
-      <c r="BH1" s="64"/>
-      <c r="BI1" s="64"/>
-      <c r="BJ1" s="64"/>
-      <c r="BK1" s="65"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="37"/>
+      <c r="BA1" s="37"/>
+      <c r="BB1" s="37"/>
+      <c r="BC1" s="37"/>
+      <c r="BD1" s="37"/>
+      <c r="BE1" s="37"/>
+      <c r="BF1" s="37"/>
+      <c r="BG1" s="37"/>
+      <c r="BH1" s="37"/>
+      <c r="BI1" s="37"/>
+      <c r="BJ1" s="37"/>
+      <c r="BK1" s="38"/>
     </row>
     <row r="2" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="63" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="63" t="s">
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="65"/>
-      <c r="AN2" s="63" t="s">
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="AO2" s="64"/>
-      <c r="AP2" s="64"/>
-      <c r="AQ2" s="64"/>
-      <c r="AR2" s="64"/>
-      <c r="AS2" s="65"/>
-      <c r="AT2" s="63" t="s">
+      <c r="AO2" s="37"/>
+      <c r="AP2" s="37"/>
+      <c r="AQ2" s="37"/>
+      <c r="AR2" s="37"/>
+      <c r="AS2" s="38"/>
+      <c r="AT2" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="AU2" s="64"/>
-      <c r="AV2" s="64"/>
-      <c r="AW2" s="64"/>
-      <c r="AX2" s="64"/>
-      <c r="AY2" s="65"/>
-      <c r="AZ2" s="63" t="s">
+      <c r="AU2" s="37"/>
+      <c r="AV2" s="37"/>
+      <c r="AW2" s="37"/>
+      <c r="AX2" s="37"/>
+      <c r="AY2" s="38"/>
+      <c r="AZ2" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="BA2" s="64"/>
-      <c r="BB2" s="64"/>
-      <c r="BC2" s="64"/>
-      <c r="BD2" s="64"/>
-      <c r="BE2" s="65"/>
-      <c r="BF2" s="63" t="s">
+      <c r="BA2" s="37"/>
+      <c r="BB2" s="37"/>
+      <c r="BC2" s="37"/>
+      <c r="BD2" s="37"/>
+      <c r="BE2" s="38"/>
+      <c r="BF2" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="BG2" s="64"/>
-      <c r="BH2" s="64"/>
-      <c r="BI2" s="64"/>
-      <c r="BJ2" s="64"/>
-      <c r="BK2" s="65"/>
+      <c r="BG2" s="37"/>
+      <c r="BH2" s="37"/>
+      <c r="BI2" s="37"/>
+      <c r="BJ2" s="37"/>
+      <c r="BK2" s="38"/>
     </row>
     <row r="3" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="44">
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="39">
         <v>1</v>
       </c>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="44" t="s">
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="46"/>
-      <c r="AN3" s="51"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="52"/>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="52"/>
-      <c r="AS3" s="53"/>
-      <c r="AT3" s="57" t="s">
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="40"/>
+      <c r="AJ3" s="40"/>
+      <c r="AK3" s="40"/>
+      <c r="AL3" s="40"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="48"/>
+      <c r="AO3" s="49"/>
+      <c r="AP3" s="49"/>
+      <c r="AQ3" s="49"/>
+      <c r="AR3" s="49"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="AU3" s="58"/>
-      <c r="AV3" s="58"/>
-      <c r="AW3" s="58"/>
-      <c r="AX3" s="58"/>
-      <c r="AY3" s="59"/>
-      <c r="AZ3" s="51"/>
-      <c r="BA3" s="52"/>
-      <c r="BB3" s="52"/>
-      <c r="BC3" s="52"/>
-      <c r="BD3" s="52"/>
-      <c r="BE3" s="53"/>
-      <c r="BF3" s="44"/>
-      <c r="BG3" s="45"/>
-      <c r="BH3" s="45"/>
-      <c r="BI3" s="45"/>
-      <c r="BJ3" s="45"/>
-      <c r="BK3" s="46"/>
+      <c r="AU3" s="55"/>
+      <c r="AV3" s="55"/>
+      <c r="AW3" s="55"/>
+      <c r="AX3" s="55"/>
+      <c r="AY3" s="56"/>
+      <c r="AZ3" s="48"/>
+      <c r="BA3" s="49"/>
+      <c r="BB3" s="49"/>
+      <c r="BC3" s="49"/>
+      <c r="BD3" s="49"/>
+      <c r="BE3" s="50"/>
+      <c r="BF3" s="39"/>
+      <c r="BG3" s="40"/>
+      <c r="BH3" s="40"/>
+      <c r="BI3" s="40"/>
+      <c r="BJ3" s="40"/>
+      <c r="BK3" s="41"/>
     </row>
     <row r="4" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
-      <c r="AH4" s="48"/>
-      <c r="AI4" s="48"/>
-      <c r="AJ4" s="48"/>
-      <c r="AK4" s="48"/>
-      <c r="AL4" s="48"/>
-      <c r="AM4" s="49"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="55"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="55"/>
-      <c r="AR4" s="55"/>
-      <c r="AS4" s="56"/>
-      <c r="AT4" s="60"/>
-      <c r="AU4" s="61"/>
-      <c r="AV4" s="61"/>
-      <c r="AW4" s="61"/>
-      <c r="AX4" s="61"/>
-      <c r="AY4" s="62"/>
-      <c r="AZ4" s="54"/>
-      <c r="BA4" s="55"/>
-      <c r="BB4" s="55"/>
-      <c r="BC4" s="55"/>
-      <c r="BD4" s="55"/>
-      <c r="BE4" s="56"/>
-      <c r="BF4" s="47"/>
-      <c r="BG4" s="48"/>
-      <c r="BH4" s="48"/>
-      <c r="BI4" s="48"/>
-      <c r="BJ4" s="48"/>
-      <c r="BK4" s="49"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="43"/>
+      <c r="AH4" s="43"/>
+      <c r="AI4" s="43"/>
+      <c r="AJ4" s="43"/>
+      <c r="AK4" s="43"/>
+      <c r="AL4" s="43"/>
+      <c r="AM4" s="44"/>
+      <c r="AN4" s="51"/>
+      <c r="AO4" s="52"/>
+      <c r="AP4" s="52"/>
+      <c r="AQ4" s="52"/>
+      <c r="AR4" s="52"/>
+      <c r="AS4" s="53"/>
+      <c r="AT4" s="57"/>
+      <c r="AU4" s="58"/>
+      <c r="AV4" s="58"/>
+      <c r="AW4" s="58"/>
+      <c r="AX4" s="58"/>
+      <c r="AY4" s="59"/>
+      <c r="AZ4" s="51"/>
+      <c r="BA4" s="52"/>
+      <c r="BB4" s="52"/>
+      <c r="BC4" s="52"/>
+      <c r="BD4" s="52"/>
+      <c r="BE4" s="53"/>
+      <c r="BF4" s="42"/>
+      <c r="BG4" s="43"/>
+      <c r="BH4" s="43"/>
+      <c r="BI4" s="43"/>
+      <c r="BJ4" s="43"/>
+      <c r="BK4" s="44"/>
     </row>
     <row r="5" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="50"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="42"/>
-      <c r="AD5" s="42"/>
-      <c r="AE5" s="42"/>
-      <c r="AF5" s="42"/>
-      <c r="AG5" s="42"/>
-      <c r="AH5" s="42"/>
-      <c r="AI5" s="42"/>
-      <c r="AJ5" s="42"/>
-      <c r="AK5" s="42"/>
-      <c r="AL5" s="42"/>
-      <c r="AM5" s="42"/>
-      <c r="AN5" s="42"/>
-      <c r="AO5" s="42"/>
-      <c r="AP5" s="42"/>
-      <c r="AQ5" s="42"/>
-      <c r="AR5" s="42"/>
-      <c r="AS5" s="42"/>
-      <c r="AT5" s="42"/>
-      <c r="AU5" s="42"/>
-      <c r="AV5" s="42"/>
-      <c r="AW5" s="42"/>
-      <c r="AX5" s="42"/>
-      <c r="AY5" s="42"/>
-      <c r="AZ5" s="42"/>
-      <c r="BA5" s="42"/>
-      <c r="BB5" s="42"/>
-      <c r="BC5" s="42"/>
-      <c r="BD5" s="42"/>
-      <c r="BE5" s="42"/>
-      <c r="BF5" s="42"/>
-      <c r="BG5" s="42"/>
-      <c r="BH5" s="42"/>
-      <c r="BI5" s="42"/>
-      <c r="BJ5" s="43"/>
-      <c r="BK5" s="43"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="47"/>
+      <c r="AI5" s="47"/>
+      <c r="AJ5" s="47"/>
+      <c r="AK5" s="47"/>
+      <c r="AL5" s="47"/>
+      <c r="AM5" s="47"/>
+      <c r="AN5" s="47"/>
+      <c r="AO5" s="47"/>
+      <c r="AP5" s="47"/>
+      <c r="AQ5" s="47"/>
+      <c r="AR5" s="47"/>
+      <c r="AS5" s="47"/>
+      <c r="AT5" s="47"/>
+      <c r="AU5" s="47"/>
+      <c r="AV5" s="47"/>
+      <c r="AW5" s="47"/>
+      <c r="AX5" s="47"/>
+      <c r="AY5" s="47"/>
+      <c r="AZ5" s="47"/>
+      <c r="BA5" s="47"/>
+      <c r="BB5" s="47"/>
+      <c r="BC5" s="47"/>
+      <c r="BD5" s="47"/>
+      <c r="BE5" s="47"/>
+      <c r="BF5" s="47"/>
+      <c r="BG5" s="47"/>
+      <c r="BH5" s="47"/>
+      <c r="BI5" s="47"/>
+      <c r="BJ5" s="46"/>
+      <c r="BK5" s="46"/>
     </row>
     <row r="6" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="14"/>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="36" t="s">
+      <c r="D6" s="61"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="36" t="s">
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="37"/>
-      <c r="AB6" s="37"/>
-      <c r="AC6" s="37"/>
-      <c r="AD6" s="37"/>
-      <c r="AE6" s="37"/>
-      <c r="AF6" s="37"/>
-      <c r="AG6" s="38"/>
-      <c r="AH6" s="36" t="s">
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="61"/>
+      <c r="AE6" s="61"/>
+      <c r="AF6" s="61"/>
+      <c r="AG6" s="62"/>
+      <c r="AH6" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="AI6" s="37"/>
-      <c r="AJ6" s="37"/>
-      <c r="AK6" s="37"/>
-      <c r="AL6" s="37"/>
-      <c r="AM6" s="38"/>
-      <c r="AN6" s="36" t="s">
+      <c r="AI6" s="61"/>
+      <c r="AJ6" s="61"/>
+      <c r="AK6" s="61"/>
+      <c r="AL6" s="61"/>
+      <c r="AM6" s="62"/>
+      <c r="AN6" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="AO6" s="37"/>
-      <c r="AP6" s="37"/>
-      <c r="AQ6" s="38"/>
-      <c r="AR6" s="39" t="s">
+      <c r="AO6" s="61"/>
+      <c r="AP6" s="61"/>
+      <c r="AQ6" s="62"/>
+      <c r="AR6" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="AS6" s="40"/>
-      <c r="AT6" s="40"/>
-      <c r="AU6" s="40"/>
-      <c r="AV6" s="40"/>
-      <c r="AW6" s="40"/>
-      <c r="AX6" s="40"/>
-      <c r="AY6" s="40"/>
-      <c r="AZ6" s="40"/>
-      <c r="BA6" s="40"/>
-      <c r="BB6" s="40"/>
-      <c r="BC6" s="40"/>
-      <c r="BD6" s="40"/>
-      <c r="BE6" s="40"/>
-      <c r="BF6" s="40"/>
-      <c r="BG6" s="40"/>
-      <c r="BH6" s="40"/>
-      <c r="BI6" s="40"/>
-      <c r="BJ6" s="41"/>
+      <c r="AS6" s="64"/>
+      <c r="AT6" s="64"/>
+      <c r="AU6" s="64"/>
+      <c r="AV6" s="64"/>
+      <c r="AW6" s="64"/>
+      <c r="AX6" s="64"/>
+      <c r="AY6" s="64"/>
+      <c r="AZ6" s="64"/>
+      <c r="BA6" s="64"/>
+      <c r="BB6" s="64"/>
+      <c r="BC6" s="64"/>
+      <c r="BD6" s="64"/>
+      <c r="BE6" s="64"/>
+      <c r="BF6" s="64"/>
+      <c r="BG6" s="64"/>
+      <c r="BH6" s="64"/>
+      <c r="BI6" s="64"/>
+      <c r="BJ6" s="65"/>
       <c r="BK6" s="15"/>
     </row>
     <row r="7" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -4462,13 +4513,13 @@
       <c r="D18" s="31"/>
       <c r="E18" s="32"/>
       <c r="F18" s="30" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
       <c r="I18" s="32"/>
       <c r="J18" s="33" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
@@ -4494,7 +4545,7 @@
       <c r="AF18" s="34"/>
       <c r="AG18" s="35"/>
       <c r="AH18" s="30" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="AI18" s="31"/>
       <c r="AJ18" s="31"/>
@@ -4502,7 +4553,7 @@
       <c r="AL18" s="31"/>
       <c r="AM18" s="32"/>
       <c r="AN18" s="30" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="AO18" s="31"/>
       <c r="AP18" s="31"/>
@@ -4527,8 +4578,336 @@
       <c r="BI18" s="31"/>
       <c r="BJ18" s="32"/>
     </row>
+    <row r="19" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C19" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="34"/>
+      <c r="AC19" s="34"/>
+      <c r="AD19" s="34"/>
+      <c r="AE19" s="34"/>
+      <c r="AF19" s="34"/>
+      <c r="AG19" s="35"/>
+      <c r="AH19" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI19" s="31"/>
+      <c r="AJ19" s="31"/>
+      <c r="AK19" s="31"/>
+      <c r="AL19" s="31"/>
+      <c r="AM19" s="32"/>
+      <c r="AN19" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO19" s="31"/>
+      <c r="AP19" s="31"/>
+      <c r="AQ19" s="32"/>
+      <c r="AR19" s="30"/>
+      <c r="AS19" s="31"/>
+      <c r="AT19" s="31"/>
+      <c r="AU19" s="31"/>
+      <c r="AV19" s="31"/>
+      <c r="AW19" s="31"/>
+      <c r="AX19" s="31"/>
+      <c r="AY19" s="31"/>
+      <c r="AZ19" s="31"/>
+      <c r="BA19" s="31"/>
+      <c r="BB19" s="31"/>
+      <c r="BC19" s="31"/>
+      <c r="BD19" s="31"/>
+      <c r="BE19" s="31"/>
+      <c r="BF19" s="31"/>
+      <c r="BG19" s="31"/>
+      <c r="BH19" s="31"/>
+      <c r="BI19" s="31"/>
+      <c r="BJ19" s="32"/>
+    </row>
+    <row r="20" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C20" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="34"/>
+      <c r="AB20" s="34"/>
+      <c r="AC20" s="34"/>
+      <c r="AD20" s="34"/>
+      <c r="AE20" s="34"/>
+      <c r="AF20" s="34"/>
+      <c r="AG20" s="35"/>
+      <c r="AH20" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI20" s="31"/>
+      <c r="AJ20" s="31"/>
+      <c r="AK20" s="31"/>
+      <c r="AL20" s="31"/>
+      <c r="AM20" s="32"/>
+      <c r="AN20" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO20" s="31"/>
+      <c r="AP20" s="31"/>
+      <c r="AQ20" s="32"/>
+      <c r="AR20" s="30"/>
+      <c r="AS20" s="31"/>
+      <c r="AT20" s="31"/>
+      <c r="AU20" s="31"/>
+      <c r="AV20" s="31"/>
+      <c r="AW20" s="31"/>
+      <c r="AX20" s="31"/>
+      <c r="AY20" s="31"/>
+      <c r="AZ20" s="31"/>
+      <c r="BA20" s="31"/>
+      <c r="BB20" s="31"/>
+      <c r="BC20" s="31"/>
+      <c r="BD20" s="31"/>
+      <c r="BE20" s="31"/>
+      <c r="BF20" s="31"/>
+      <c r="BG20" s="31"/>
+      <c r="BH20" s="31"/>
+      <c r="BI20" s="31"/>
+      <c r="BJ20" s="32"/>
+    </row>
+    <row r="21" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C21" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="34"/>
+      <c r="AB21" s="34"/>
+      <c r="AC21" s="34"/>
+      <c r="AD21" s="34"/>
+      <c r="AE21" s="34"/>
+      <c r="AF21" s="34"/>
+      <c r="AG21" s="35"/>
+      <c r="AH21" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI21" s="31"/>
+      <c r="AJ21" s="31"/>
+      <c r="AK21" s="31"/>
+      <c r="AL21" s="31"/>
+      <c r="AM21" s="32"/>
+      <c r="AN21" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO21" s="31"/>
+      <c r="AP21" s="31"/>
+      <c r="AQ21" s="32"/>
+      <c r="AR21" s="30"/>
+      <c r="AS21" s="31"/>
+      <c r="AT21" s="31"/>
+      <c r="AU21" s="31"/>
+      <c r="AV21" s="31"/>
+      <c r="AW21" s="31"/>
+      <c r="AX21" s="31"/>
+      <c r="AY21" s="31"/>
+      <c r="AZ21" s="31"/>
+      <c r="BA21" s="31"/>
+      <c r="BB21" s="31"/>
+      <c r="BC21" s="31"/>
+      <c r="BD21" s="31"/>
+      <c r="BE21" s="31"/>
+      <c r="BF21" s="31"/>
+      <c r="BG21" s="31"/>
+      <c r="BH21" s="31"/>
+      <c r="BI21" s="31"/>
+      <c r="BJ21" s="32"/>
+    </row>
   </sheetData>
-  <mergeCells count="114">
+  <mergeCells count="132">
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:AG21"/>
+    <mergeCell ref="AH21:AM21"/>
+    <mergeCell ref="AN21:AQ21"/>
+    <mergeCell ref="AR21:BJ21"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:AG19"/>
+    <mergeCell ref="AH19:AM19"/>
+    <mergeCell ref="AN19:AQ19"/>
+    <mergeCell ref="AR19:BJ19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:AG20"/>
+    <mergeCell ref="AH20:AM20"/>
+    <mergeCell ref="AN20:AQ20"/>
+    <mergeCell ref="AR20:BJ20"/>
+    <mergeCell ref="AR11:BJ11"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:AG10"/>
+    <mergeCell ref="AH10:AM10"/>
+    <mergeCell ref="AN10:AQ10"/>
+    <mergeCell ref="AR10:BJ10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:AG11"/>
+    <mergeCell ref="AH11:AM11"/>
+    <mergeCell ref="AN11:AQ11"/>
+    <mergeCell ref="AR9:BJ9"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:AG8"/>
+    <mergeCell ref="AH8:AM8"/>
+    <mergeCell ref="AN8:AQ8"/>
+    <mergeCell ref="AR8:BJ8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:AG9"/>
+    <mergeCell ref="AH9:AM9"/>
+    <mergeCell ref="AN9:AQ9"/>
+    <mergeCell ref="AR7:BJ7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:AG6"/>
+    <mergeCell ref="AH6:AM6"/>
+    <mergeCell ref="AN6:AQ6"/>
+    <mergeCell ref="AR6:BJ6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:AG7"/>
+    <mergeCell ref="AH7:AM7"/>
+    <mergeCell ref="AN7:AQ7"/>
+    <mergeCell ref="BJ5:BK5"/>
+    <mergeCell ref="AC5:AE5"/>
+    <mergeCell ref="AF5:AH5"/>
+    <mergeCell ref="AI5:AK5"/>
+    <mergeCell ref="AL5:AN5"/>
+    <mergeCell ref="AO5:AQ5"/>
+    <mergeCell ref="AR5:AT5"/>
+    <mergeCell ref="AU5:AW5"/>
+    <mergeCell ref="AX5:AZ5"/>
+    <mergeCell ref="BA5:BC5"/>
+    <mergeCell ref="BD5:BF5"/>
+    <mergeCell ref="BG5:BI5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="Z5:AB5"/>
+    <mergeCell ref="B1:BK1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:AM2"/>
+    <mergeCell ref="AN2:AS2"/>
+    <mergeCell ref="AT2:AY2"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="BF2:BK2"/>
+    <mergeCell ref="BF3:BK4"/>
+    <mergeCell ref="B3:K4"/>
+    <mergeCell ref="L3:P4"/>
+    <mergeCell ref="Q3:AM4"/>
+    <mergeCell ref="AN3:AS4"/>
+    <mergeCell ref="AT3:AY4"/>
+    <mergeCell ref="AZ3:BE4"/>
+    <mergeCell ref="AR12:BJ12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:AG13"/>
+    <mergeCell ref="AH13:AM13"/>
+    <mergeCell ref="AN13:AQ13"/>
+    <mergeCell ref="AR13:BJ13"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:AG12"/>
+    <mergeCell ref="AH12:AM12"/>
+    <mergeCell ref="AN12:AQ12"/>
+    <mergeCell ref="AR14:BJ14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:AG15"/>
+    <mergeCell ref="AH15:AM15"/>
+    <mergeCell ref="AN15:AQ15"/>
+    <mergeCell ref="AR15:BJ15"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:AG14"/>
+    <mergeCell ref="AH14:AM14"/>
+    <mergeCell ref="AN14:AQ14"/>
     <mergeCell ref="AR18:BJ18"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="F18:I18"/>
@@ -4547,105 +4926,10 @@
     <mergeCell ref="J16:AG16"/>
     <mergeCell ref="AH16:AM16"/>
     <mergeCell ref="AN16:AQ16"/>
-    <mergeCell ref="AR14:BJ14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:AG15"/>
-    <mergeCell ref="AH15:AM15"/>
-    <mergeCell ref="AN15:AQ15"/>
-    <mergeCell ref="AR15:BJ15"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:AG14"/>
-    <mergeCell ref="AH14:AM14"/>
-    <mergeCell ref="AN14:AQ14"/>
-    <mergeCell ref="AR12:BJ12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:AG13"/>
-    <mergeCell ref="AH13:AM13"/>
-    <mergeCell ref="AN13:AQ13"/>
-    <mergeCell ref="AR13:BJ13"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:AG12"/>
-    <mergeCell ref="AH12:AM12"/>
-    <mergeCell ref="AN12:AQ12"/>
-    <mergeCell ref="B1:BK1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="Q2:AM2"/>
-    <mergeCell ref="AN2:AS2"/>
-    <mergeCell ref="AT2:AY2"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="BF2:BK2"/>
-    <mergeCell ref="BF3:BK4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="Z5:AB5"/>
-    <mergeCell ref="B3:K4"/>
-    <mergeCell ref="L3:P4"/>
-    <mergeCell ref="Q3:AM4"/>
-    <mergeCell ref="AN3:AS4"/>
-    <mergeCell ref="AT3:AY4"/>
-    <mergeCell ref="AZ3:BE4"/>
-    <mergeCell ref="BJ5:BK5"/>
-    <mergeCell ref="AC5:AE5"/>
-    <mergeCell ref="AF5:AH5"/>
-    <mergeCell ref="AI5:AK5"/>
-    <mergeCell ref="AL5:AN5"/>
-    <mergeCell ref="AO5:AQ5"/>
-    <mergeCell ref="AR5:AT5"/>
-    <mergeCell ref="AU5:AW5"/>
-    <mergeCell ref="AX5:AZ5"/>
-    <mergeCell ref="BA5:BC5"/>
-    <mergeCell ref="BD5:BF5"/>
-    <mergeCell ref="BG5:BI5"/>
-    <mergeCell ref="AR7:BJ7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:AG6"/>
-    <mergeCell ref="AH6:AM6"/>
-    <mergeCell ref="AN6:AQ6"/>
-    <mergeCell ref="AR6:BJ6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:AG7"/>
-    <mergeCell ref="AH7:AM7"/>
-    <mergeCell ref="AN7:AQ7"/>
-    <mergeCell ref="AR9:BJ9"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:AG8"/>
-    <mergeCell ref="AH8:AM8"/>
-    <mergeCell ref="AN8:AQ8"/>
-    <mergeCell ref="AR8:BJ8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:AG9"/>
-    <mergeCell ref="AH9:AM9"/>
-    <mergeCell ref="AN9:AQ9"/>
-    <mergeCell ref="AR11:BJ11"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:AG10"/>
-    <mergeCell ref="AH10:AM10"/>
-    <mergeCell ref="AN10:AQ10"/>
-    <mergeCell ref="AR10:BJ10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:AG11"/>
-    <mergeCell ref="AH11:AM11"/>
-    <mergeCell ref="AN11:AQ11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/メッセージ設計書.xlsx
+++ b/メッセージ設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kensyu005\Desktop\新しいフォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0582470D-F01C-42F8-874B-2FAE90520754}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABCB419-A713-4AEB-8BE2-5F86C01419E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{78B42164-E9D9-4973-93DD-29F371AD8A8A}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="109">
   <si>
     <t>ソフトウェア名</t>
     <rPh sb="6" eb="7">
@@ -767,6 +767,122 @@
   </si>
   <si>
     <t>M104</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明会に参加できませんでした。</t>
+    <rPh sb="0" eb="3">
+      <t>セツメイカイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M105</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休憩室に入れませんでした。</t>
+    <rPh sb="0" eb="3">
+      <t>キュウケイシツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M106</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明会の情報の取得に失敗しました。</t>
+    <rPh sb="0" eb="3">
+      <t>セツメイカイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M107</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動画の投稿に失敗しました。</t>
+    <rPh sb="0" eb="2">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動画の再生に失敗しました。</t>
+    <rPh sb="0" eb="2">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M108</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M109</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音声機器の設定に失敗しました。</t>
+    <rPh sb="0" eb="2">
+      <t>オンセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M110</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録に失敗しました。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M111</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1077,6 +1193,36 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1089,36 +1235,6 @@
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1137,6 +1253,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1164,15 +1307,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1208,24 +1342,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1579,285 +1695,285 @@
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="16" t="str">
+      <c r="B1" s="26" t="str">
         <f>[1]表紙!$Q$8</f>
         <v>人材管理ソフトメッセージ仕様書</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="17"/>
-      <c r="AP1" s="17"/>
-      <c r="AQ1" s="17"/>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="17"/>
-      <c r="AT1" s="17"/>
-      <c r="AU1" s="17"/>
-      <c r="AV1" s="17"/>
-      <c r="AW1" s="17"/>
-      <c r="AX1" s="17"/>
-      <c r="AY1" s="17"/>
-      <c r="AZ1" s="17"/>
-      <c r="BA1" s="17"/>
-      <c r="BB1" s="17"/>
-      <c r="BC1" s="17"/>
-      <c r="BD1" s="17"/>
-      <c r="BE1" s="17"/>
-      <c r="BF1" s="17"/>
-      <c r="BG1" s="17"/>
-      <c r="BH1" s="17"/>
-      <c r="BI1" s="17"/>
-      <c r="BJ1" s="17"/>
-      <c r="BK1" s="17"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="27"/>
+      <c r="AR1" s="27"/>
+      <c r="AS1" s="27"/>
+      <c r="AT1" s="27"/>
+      <c r="AU1" s="27"/>
+      <c r="AV1" s="27"/>
+      <c r="AW1" s="27"/>
+      <c r="AX1" s="27"/>
+      <c r="AY1" s="27"/>
+      <c r="AZ1" s="27"/>
+      <c r="BA1" s="27"/>
+      <c r="BB1" s="27"/>
+      <c r="BC1" s="27"/>
+      <c r="BD1" s="27"/>
+      <c r="BE1" s="27"/>
+      <c r="BF1" s="27"/>
+      <c r="BG1" s="27"/>
+      <c r="BH1" s="27"/>
+      <c r="BI1" s="27"/>
+      <c r="BJ1" s="27"/>
+      <c r="BK1" s="27"/>
     </row>
     <row r="2" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="18" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18" t="s">
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="19" t="s">
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="AO2" s="19"/>
-      <c r="AP2" s="19"/>
-      <c r="AQ2" s="19"/>
-      <c r="AR2" s="19"/>
-      <c r="AS2" s="19"/>
-      <c r="AT2" s="18" t="s">
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="29"/>
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="29"/>
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="AU2" s="18"/>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="18"/>
-      <c r="AX2" s="18"/>
-      <c r="AY2" s="18"/>
-      <c r="AZ2" s="18" t="s">
+      <c r="AU2" s="28"/>
+      <c r="AV2" s="28"/>
+      <c r="AW2" s="28"/>
+      <c r="AX2" s="28"/>
+      <c r="AY2" s="28"/>
+      <c r="AZ2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="BA2" s="18"/>
-      <c r="BB2" s="18"/>
-      <c r="BC2" s="18"/>
-      <c r="BD2" s="18"/>
-      <c r="BE2" s="18"/>
-      <c r="BF2" s="18" t="s">
+      <c r="BA2" s="28"/>
+      <c r="BB2" s="28"/>
+      <c r="BC2" s="28"/>
+      <c r="BD2" s="28"/>
+      <c r="BE2" s="28"/>
+      <c r="BF2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="BG2" s="18"/>
-      <c r="BH2" s="18"/>
-      <c r="BI2" s="18"/>
-      <c r="BJ2" s="18"/>
-      <c r="BK2" s="18"/>
+      <c r="BG2" s="28"/>
+      <c r="BH2" s="28"/>
+      <c r="BI2" s="28"/>
+      <c r="BJ2" s="28"/>
+      <c r="BK2" s="28"/>
     </row>
     <row r="3" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="25">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="24">
         <v>1</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="20" t="s">
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="20"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="20"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="20"/>
-      <c r="AN3" s="26"/>
-      <c r="AO3" s="20"/>
-      <c r="AP3" s="20"/>
-      <c r="AQ3" s="20"/>
-      <c r="AR3" s="20"/>
-      <c r="AS3" s="20"/>
-      <c r="AT3" s="26" t="s">
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="22"/>
+      <c r="AK3" s="22"/>
+      <c r="AL3" s="22"/>
+      <c r="AM3" s="22"/>
+      <c r="AN3" s="25"/>
+      <c r="AO3" s="22"/>
+      <c r="AP3" s="22"/>
+      <c r="AQ3" s="22"/>
+      <c r="AR3" s="22"/>
+      <c r="AS3" s="22"/>
+      <c r="AT3" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="AU3" s="26"/>
-      <c r="AV3" s="26"/>
-      <c r="AW3" s="26"/>
-      <c r="AX3" s="26"/>
-      <c r="AY3" s="26"/>
-      <c r="AZ3" s="20"/>
-      <c r="BA3" s="20"/>
-      <c r="BB3" s="20"/>
-      <c r="BC3" s="20"/>
-      <c r="BD3" s="20"/>
-      <c r="BE3" s="20"/>
-      <c r="BF3" s="20"/>
-      <c r="BG3" s="20"/>
-      <c r="BH3" s="20"/>
-      <c r="BI3" s="20"/>
-      <c r="BJ3" s="20"/>
-      <c r="BK3" s="20"/>
+      <c r="AU3" s="25"/>
+      <c r="AV3" s="25"/>
+      <c r="AW3" s="25"/>
+      <c r="AX3" s="25"/>
+      <c r="AY3" s="25"/>
+      <c r="AZ3" s="22"/>
+      <c r="BA3" s="22"/>
+      <c r="BB3" s="22"/>
+      <c r="BC3" s="22"/>
+      <c r="BD3" s="22"/>
+      <c r="BE3" s="22"/>
+      <c r="BF3" s="22"/>
+      <c r="BG3" s="22"/>
+      <c r="BH3" s="22"/>
+      <c r="BI3" s="22"/>
+      <c r="BJ3" s="22"/>
+      <c r="BK3" s="22"/>
     </row>
     <row r="4" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20"/>
-      <c r="AH4" s="20"/>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="20"/>
-      <c r="AL4" s="20"/>
-      <c r="AM4" s="20"/>
-      <c r="AN4" s="20"/>
-      <c r="AO4" s="20"/>
-      <c r="AP4" s="20"/>
-      <c r="AQ4" s="20"/>
-      <c r="AR4" s="20"/>
-      <c r="AS4" s="20"/>
-      <c r="AT4" s="26"/>
-      <c r="AU4" s="26"/>
-      <c r="AV4" s="26"/>
-      <c r="AW4" s="26"/>
-      <c r="AX4" s="26"/>
-      <c r="AY4" s="26"/>
-      <c r="AZ4" s="20"/>
-      <c r="BA4" s="20"/>
-      <c r="BB4" s="20"/>
-      <c r="BC4" s="20"/>
-      <c r="BD4" s="20"/>
-      <c r="BE4" s="20"/>
-      <c r="BF4" s="20"/>
-      <c r="BG4" s="20"/>
-      <c r="BH4" s="20"/>
-      <c r="BI4" s="20"/>
-      <c r="BJ4" s="20"/>
-      <c r="BK4" s="20"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="22"/>
+      <c r="AL4" s="22"/>
+      <c r="AM4" s="22"/>
+      <c r="AN4" s="22"/>
+      <c r="AO4" s="22"/>
+      <c r="AP4" s="22"/>
+      <c r="AQ4" s="22"/>
+      <c r="AR4" s="22"/>
+      <c r="AS4" s="22"/>
+      <c r="AT4" s="25"/>
+      <c r="AU4" s="25"/>
+      <c r="AV4" s="25"/>
+      <c r="AW4" s="25"/>
+      <c r="AX4" s="25"/>
+      <c r="AY4" s="25"/>
+      <c r="AZ4" s="22"/>
+      <c r="BA4" s="22"/>
+      <c r="BB4" s="22"/>
+      <c r="BC4" s="22"/>
+      <c r="BD4" s="22"/>
+      <c r="BE4" s="22"/>
+      <c r="BF4" s="22"/>
+      <c r="BG4" s="22"/>
+      <c r="BH4" s="22"/>
+      <c r="BI4" s="22"/>
+      <c r="BJ4" s="22"/>
+      <c r="BK4" s="22"/>
     </row>
     <row r="5" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3"/>
@@ -1989,510 +2105,510 @@
     </row>
     <row r="7" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22" t="s">
+      <c r="D7" s="19"/>
+      <c r="E7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="23" t="s">
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23" t="s">
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="21"/>
-      <c r="AE7" s="21"/>
-      <c r="AF7" s="21" t="s">
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="AG7" s="21"/>
-      <c r="AH7" s="21"/>
-      <c r="AI7" s="21"/>
-      <c r="AJ7" s="21"/>
-      <c r="AK7" s="21"/>
-      <c r="AL7" s="21"/>
-      <c r="AM7" s="21"/>
-      <c r="AN7" s="21"/>
-      <c r="AO7" s="21"/>
-      <c r="AP7" s="21"/>
-      <c r="AQ7" s="21"/>
-      <c r="AR7" s="21"/>
-      <c r="AS7" s="21"/>
-      <c r="AT7" s="21"/>
-      <c r="AU7" s="21"/>
-      <c r="AV7" s="21"/>
-      <c r="AW7" s="21"/>
-      <c r="AX7" s="21"/>
-      <c r="AY7" s="21"/>
-      <c r="AZ7" s="21"/>
-      <c r="BA7" s="21"/>
-      <c r="BB7" s="21"/>
-      <c r="BC7" s="21"/>
-      <c r="BD7" s="21"/>
-      <c r="BE7" s="21"/>
-      <c r="BF7" s="21"/>
-      <c r="BG7" s="21"/>
-      <c r="BH7" s="21"/>
-      <c r="BI7" s="21"/>
-      <c r="BJ7" s="21"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
+      <c r="AI7" s="19"/>
+      <c r="AJ7" s="19"/>
+      <c r="AK7" s="19"/>
+      <c r="AL7" s="19"/>
+      <c r="AM7" s="19"/>
+      <c r="AN7" s="19"/>
+      <c r="AO7" s="19"/>
+      <c r="AP7" s="19"/>
+      <c r="AQ7" s="19"/>
+      <c r="AR7" s="19"/>
+      <c r="AS7" s="19"/>
+      <c r="AT7" s="19"/>
+      <c r="AU7" s="19"/>
+      <c r="AV7" s="19"/>
+      <c r="AW7" s="19"/>
+      <c r="AX7" s="19"/>
+      <c r="AY7" s="19"/>
+      <c r="AZ7" s="19"/>
+      <c r="BA7" s="19"/>
+      <c r="BB7" s="19"/>
+      <c r="BC7" s="19"/>
+      <c r="BD7" s="19"/>
+      <c r="BE7" s="19"/>
+      <c r="BF7" s="19"/>
+      <c r="BG7" s="19"/>
+      <c r="BH7" s="19"/>
+      <c r="BI7" s="19"/>
+      <c r="BJ7" s="19"/>
       <c r="BK7" s="2"/>
     </row>
     <row r="8" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="21"/>
-      <c r="AE8" s="21"/>
-      <c r="AF8" s="21"/>
-      <c r="AG8" s="21"/>
-      <c r="AH8" s="21"/>
-      <c r="AI8" s="21"/>
-      <c r="AJ8" s="21"/>
-      <c r="AK8" s="21"/>
-      <c r="AL8" s="21"/>
-      <c r="AM8" s="21"/>
-      <c r="AN8" s="21"/>
-      <c r="AO8" s="21"/>
-      <c r="AP8" s="21"/>
-      <c r="AQ8" s="21"/>
-      <c r="AR8" s="21"/>
-      <c r="AS8" s="21"/>
-      <c r="AT8" s="21"/>
-      <c r="AU8" s="21"/>
-      <c r="AV8" s="21"/>
-      <c r="AW8" s="21"/>
-      <c r="AX8" s="21"/>
-      <c r="AY8" s="21"/>
-      <c r="AZ8" s="21"/>
-      <c r="BA8" s="21"/>
-      <c r="BB8" s="21"/>
-      <c r="BC8" s="21"/>
-      <c r="BD8" s="21"/>
-      <c r="BE8" s="21"/>
-      <c r="BF8" s="21"/>
-      <c r="BG8" s="21"/>
-      <c r="BH8" s="21"/>
-      <c r="BI8" s="21"/>
-      <c r="BJ8" s="21"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="19"/>
+      <c r="AI8" s="19"/>
+      <c r="AJ8" s="19"/>
+      <c r="AK8" s="19"/>
+      <c r="AL8" s="19"/>
+      <c r="AM8" s="19"/>
+      <c r="AN8" s="19"/>
+      <c r="AO8" s="19"/>
+      <c r="AP8" s="19"/>
+      <c r="AQ8" s="19"/>
+      <c r="AR8" s="19"/>
+      <c r="AS8" s="19"/>
+      <c r="AT8" s="19"/>
+      <c r="AU8" s="19"/>
+      <c r="AV8" s="19"/>
+      <c r="AW8" s="19"/>
+      <c r="AX8" s="19"/>
+      <c r="AY8" s="19"/>
+      <c r="AZ8" s="19"/>
+      <c r="BA8" s="19"/>
+      <c r="BB8" s="19"/>
+      <c r="BC8" s="19"/>
+      <c r="BD8" s="19"/>
+      <c r="BE8" s="19"/>
+      <c r="BF8" s="19"/>
+      <c r="BG8" s="19"/>
+      <c r="BH8" s="19"/>
+      <c r="BI8" s="19"/>
+      <c r="BJ8" s="19"/>
       <c r="BK8" s="2"/>
     </row>
     <row r="9" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="27" t="s">
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="27" t="s">
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="27"/>
-      <c r="AE9" s="27"/>
-      <c r="AF9" s="29" t="s">
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="AG9" s="29"/>
-      <c r="AH9" s="29"/>
-      <c r="AI9" s="29"/>
-      <c r="AJ9" s="29"/>
-      <c r="AK9" s="29"/>
-      <c r="AL9" s="29"/>
-      <c r="AM9" s="29"/>
-      <c r="AN9" s="29"/>
-      <c r="AO9" s="29"/>
-      <c r="AP9" s="29"/>
-      <c r="AQ9" s="29"/>
-      <c r="AR9" s="29"/>
-      <c r="AS9" s="29"/>
-      <c r="AT9" s="29"/>
-      <c r="AU9" s="29"/>
-      <c r="AV9" s="29"/>
-      <c r="AW9" s="29"/>
-      <c r="AX9" s="29"/>
-      <c r="AY9" s="29"/>
-      <c r="AZ9" s="29"/>
-      <c r="BA9" s="29"/>
-      <c r="BB9" s="29"/>
-      <c r="BC9" s="29"/>
-      <c r="BD9" s="29"/>
-      <c r="BE9" s="29"/>
-      <c r="BF9" s="29"/>
-      <c r="BG9" s="29"/>
-      <c r="BH9" s="29"/>
-      <c r="BI9" s="29"/>
-      <c r="BJ9" s="29"/>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="18"/>
+      <c r="AJ9" s="18"/>
+      <c r="AK9" s="18"/>
+      <c r="AL9" s="18"/>
+      <c r="AM9" s="18"/>
+      <c r="AN9" s="18"/>
+      <c r="AO9" s="18"/>
+      <c r="AP9" s="18"/>
+      <c r="AQ9" s="18"/>
+      <c r="AR9" s="18"/>
+      <c r="AS9" s="18"/>
+      <c r="AT9" s="18"/>
+      <c r="AU9" s="18"/>
+      <c r="AV9" s="18"/>
+      <c r="AW9" s="18"/>
+      <c r="AX9" s="18"/>
+      <c r="AY9" s="18"/>
+      <c r="AZ9" s="18"/>
+      <c r="BA9" s="18"/>
+      <c r="BB9" s="18"/>
+      <c r="BC9" s="18"/>
+      <c r="BD9" s="18"/>
+      <c r="BE9" s="18"/>
+      <c r="BF9" s="18"/>
+      <c r="BG9" s="18"/>
+      <c r="BH9" s="18"/>
+      <c r="BI9" s="18"/>
+      <c r="BJ9" s="18"/>
       <c r="BK9" s="2"/>
     </row>
     <row r="10" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="27" t="s">
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="27"/>
-      <c r="AB10" s="27" t="s">
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AC10" s="27"/>
-      <c r="AD10" s="27"/>
-      <c r="AE10" s="27"/>
-      <c r="AF10" s="29" t="s">
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="AG10" s="29"/>
-      <c r="AH10" s="29"/>
-      <c r="AI10" s="29"/>
-      <c r="AJ10" s="29"/>
-      <c r="AK10" s="29"/>
-      <c r="AL10" s="29"/>
-      <c r="AM10" s="29"/>
-      <c r="AN10" s="29"/>
-      <c r="AO10" s="29"/>
-      <c r="AP10" s="29"/>
-      <c r="AQ10" s="29"/>
-      <c r="AR10" s="29"/>
-      <c r="AS10" s="29"/>
-      <c r="AT10" s="29"/>
-      <c r="AU10" s="29"/>
-      <c r="AV10" s="29"/>
-      <c r="AW10" s="29"/>
-      <c r="AX10" s="29"/>
-      <c r="AY10" s="29"/>
-      <c r="AZ10" s="29"/>
-      <c r="BA10" s="29"/>
-      <c r="BB10" s="29"/>
-      <c r="BC10" s="29"/>
-      <c r="BD10" s="29"/>
-      <c r="BE10" s="29"/>
-      <c r="BF10" s="29"/>
-      <c r="BG10" s="29"/>
-      <c r="BH10" s="29"/>
-      <c r="BI10" s="29"/>
-      <c r="BJ10" s="29"/>
+      <c r="AG10" s="18"/>
+      <c r="AH10" s="18"/>
+      <c r="AI10" s="18"/>
+      <c r="AJ10" s="18"/>
+      <c r="AK10" s="18"/>
+      <c r="AL10" s="18"/>
+      <c r="AM10" s="18"/>
+      <c r="AN10" s="18"/>
+      <c r="AO10" s="18"/>
+      <c r="AP10" s="18"/>
+      <c r="AQ10" s="18"/>
+      <c r="AR10" s="18"/>
+      <c r="AS10" s="18"/>
+      <c r="AT10" s="18"/>
+      <c r="AU10" s="18"/>
+      <c r="AV10" s="18"/>
+      <c r="AW10" s="18"/>
+      <c r="AX10" s="18"/>
+      <c r="AY10" s="18"/>
+      <c r="AZ10" s="18"/>
+      <c r="BA10" s="18"/>
+      <c r="BB10" s="18"/>
+      <c r="BC10" s="18"/>
+      <c r="BD10" s="18"/>
+      <c r="BE10" s="18"/>
+      <c r="BF10" s="18"/>
+      <c r="BG10" s="18"/>
+      <c r="BH10" s="18"/>
+      <c r="BI10" s="18"/>
+      <c r="BJ10" s="18"/>
       <c r="BK10" s="2"/>
     </row>
     <row r="11" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28" t="s">
+      <c r="D11" s="16"/>
+      <c r="E11" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="27" t="s">
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="27"/>
-      <c r="AB11" s="27" t="s">
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="AC11" s="27"/>
-      <c r="AD11" s="27"/>
-      <c r="AE11" s="27"/>
-      <c r="AF11" s="29" t="s">
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="AG11" s="29"/>
-      <c r="AH11" s="29"/>
-      <c r="AI11" s="29"/>
-      <c r="AJ11" s="29"/>
-      <c r="AK11" s="29"/>
-      <c r="AL11" s="29"/>
-      <c r="AM11" s="29"/>
-      <c r="AN11" s="29"/>
-      <c r="AO11" s="29"/>
-      <c r="AP11" s="29"/>
-      <c r="AQ11" s="29"/>
-      <c r="AR11" s="29"/>
-      <c r="AS11" s="29"/>
-      <c r="AT11" s="29"/>
-      <c r="AU11" s="29"/>
-      <c r="AV11" s="29"/>
-      <c r="AW11" s="29"/>
-      <c r="AX11" s="29"/>
-      <c r="AY11" s="29"/>
-      <c r="AZ11" s="29"/>
-      <c r="BA11" s="29"/>
-      <c r="BB11" s="29"/>
-      <c r="BC11" s="29"/>
-      <c r="BD11" s="29"/>
-      <c r="BE11" s="29"/>
-      <c r="BF11" s="29"/>
-      <c r="BG11" s="29"/>
-      <c r="BH11" s="29"/>
-      <c r="BI11" s="29"/>
-      <c r="BJ11" s="29"/>
+      <c r="AG11" s="18"/>
+      <c r="AH11" s="18"/>
+      <c r="AI11" s="18"/>
+      <c r="AJ11" s="18"/>
+      <c r="AK11" s="18"/>
+      <c r="AL11" s="18"/>
+      <c r="AM11" s="18"/>
+      <c r="AN11" s="18"/>
+      <c r="AO11" s="18"/>
+      <c r="AP11" s="18"/>
+      <c r="AQ11" s="18"/>
+      <c r="AR11" s="18"/>
+      <c r="AS11" s="18"/>
+      <c r="AT11" s="18"/>
+      <c r="AU11" s="18"/>
+      <c r="AV11" s="18"/>
+      <c r="AW11" s="18"/>
+      <c r="AX11" s="18"/>
+      <c r="AY11" s="18"/>
+      <c r="AZ11" s="18"/>
+      <c r="BA11" s="18"/>
+      <c r="BB11" s="18"/>
+      <c r="BC11" s="18"/>
+      <c r="BD11" s="18"/>
+      <c r="BE11" s="18"/>
+      <c r="BF11" s="18"/>
+      <c r="BG11" s="18"/>
+      <c r="BH11" s="18"/>
+      <c r="BI11" s="18"/>
+      <c r="BJ11" s="18"/>
       <c r="BK11" s="2"/>
     </row>
     <row r="12" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="27" t="s">
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="27"/>
-      <c r="AB12" s="27" t="s">
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="AC12" s="27"/>
-      <c r="AD12" s="27"/>
-      <c r="AE12" s="27"/>
-      <c r="AF12" s="29" t="s">
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="AG12" s="29"/>
-      <c r="AH12" s="29"/>
-      <c r="AI12" s="29"/>
-      <c r="AJ12" s="29"/>
-      <c r="AK12" s="29"/>
-      <c r="AL12" s="29"/>
-      <c r="AM12" s="29"/>
-      <c r="AN12" s="29"/>
-      <c r="AO12" s="29"/>
-      <c r="AP12" s="29"/>
-      <c r="AQ12" s="29"/>
-      <c r="AR12" s="29"/>
-      <c r="AS12" s="29"/>
-      <c r="AT12" s="29"/>
-      <c r="AU12" s="29"/>
-      <c r="AV12" s="29"/>
-      <c r="AW12" s="29"/>
-      <c r="AX12" s="29"/>
-      <c r="AY12" s="29"/>
-      <c r="AZ12" s="29"/>
-      <c r="BA12" s="29"/>
-      <c r="BB12" s="29"/>
-      <c r="BC12" s="29"/>
-      <c r="BD12" s="29"/>
-      <c r="BE12" s="29"/>
-      <c r="BF12" s="29"/>
-      <c r="BG12" s="29"/>
-      <c r="BH12" s="29"/>
-      <c r="BI12" s="29"/>
-      <c r="BJ12" s="29"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="18"/>
+      <c r="AJ12" s="18"/>
+      <c r="AK12" s="18"/>
+      <c r="AL12" s="18"/>
+      <c r="AM12" s="18"/>
+      <c r="AN12" s="18"/>
+      <c r="AO12" s="18"/>
+      <c r="AP12" s="18"/>
+      <c r="AQ12" s="18"/>
+      <c r="AR12" s="18"/>
+      <c r="AS12" s="18"/>
+      <c r="AT12" s="18"/>
+      <c r="AU12" s="18"/>
+      <c r="AV12" s="18"/>
+      <c r="AW12" s="18"/>
+      <c r="AX12" s="18"/>
+      <c r="AY12" s="18"/>
+      <c r="AZ12" s="18"/>
+      <c r="BA12" s="18"/>
+      <c r="BB12" s="18"/>
+      <c r="BC12" s="18"/>
+      <c r="BD12" s="18"/>
+      <c r="BE12" s="18"/>
+      <c r="BF12" s="18"/>
+      <c r="BG12" s="18"/>
+      <c r="BH12" s="18"/>
+      <c r="BI12" s="18"/>
+      <c r="BJ12" s="18"/>
       <c r="BK12" s="2"/>
     </row>
     <row r="13" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28" t="s">
+      <c r="D13" s="16"/>
+      <c r="E13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="27" t="s">
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="27" t="s">
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AC13" s="27"/>
-      <c r="AD13" s="27"/>
-      <c r="AE13" s="27"/>
-      <c r="AF13" s="29" t="s">
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="AG13" s="29"/>
-      <c r="AH13" s="29"/>
-      <c r="AI13" s="29"/>
-      <c r="AJ13" s="29"/>
-      <c r="AK13" s="29"/>
-      <c r="AL13" s="29"/>
-      <c r="AM13" s="29"/>
-      <c r="AN13" s="29"/>
-      <c r="AO13" s="29"/>
-      <c r="AP13" s="29"/>
-      <c r="AQ13" s="29"/>
-      <c r="AR13" s="29"/>
-      <c r="AS13" s="29"/>
-      <c r="AT13" s="29"/>
-      <c r="AU13" s="29"/>
-      <c r="AV13" s="29"/>
-      <c r="AW13" s="29"/>
-      <c r="AX13" s="29"/>
-      <c r="AY13" s="29"/>
-      <c r="AZ13" s="29"/>
-      <c r="BA13" s="29"/>
-      <c r="BB13" s="29"/>
-      <c r="BC13" s="29"/>
-      <c r="BD13" s="29"/>
-      <c r="BE13" s="29"/>
-      <c r="BF13" s="29"/>
-      <c r="BG13" s="29"/>
-      <c r="BH13" s="29"/>
-      <c r="BI13" s="29"/>
-      <c r="BJ13" s="29"/>
+      <c r="AG13" s="18"/>
+      <c r="AH13" s="18"/>
+      <c r="AI13" s="18"/>
+      <c r="AJ13" s="18"/>
+      <c r="AK13" s="18"/>
+      <c r="AL13" s="18"/>
+      <c r="AM13" s="18"/>
+      <c r="AN13" s="18"/>
+      <c r="AO13" s="18"/>
+      <c r="AP13" s="18"/>
+      <c r="AQ13" s="18"/>
+      <c r="AR13" s="18"/>
+      <c r="AS13" s="18"/>
+      <c r="AT13" s="18"/>
+      <c r="AU13" s="18"/>
+      <c r="AV13" s="18"/>
+      <c r="AW13" s="18"/>
+      <c r="AX13" s="18"/>
+      <c r="AY13" s="18"/>
+      <c r="AZ13" s="18"/>
+      <c r="BA13" s="18"/>
+      <c r="BB13" s="18"/>
+      <c r="BC13" s="18"/>
+      <c r="BD13" s="18"/>
+      <c r="BE13" s="18"/>
+      <c r="BF13" s="18"/>
+      <c r="BG13" s="18"/>
+      <c r="BH13" s="18"/>
+      <c r="BI13" s="18"/>
+      <c r="BJ13" s="18"/>
       <c r="BK13" s="2"/>
     </row>
     <row r="14" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2627,510 +2743,510 @@
     </row>
     <row r="16" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22" t="s">
+      <c r="D16" s="19"/>
+      <c r="E16" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="23" t="s">
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="23" t="s">
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AC16" s="21"/>
-      <c r="AD16" s="21"/>
-      <c r="AE16" s="21"/>
-      <c r="AF16" s="21" t="s">
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="AG16" s="21"/>
-      <c r="AH16" s="21"/>
-      <c r="AI16" s="21"/>
-      <c r="AJ16" s="21"/>
-      <c r="AK16" s="21"/>
-      <c r="AL16" s="21"/>
-      <c r="AM16" s="21"/>
-      <c r="AN16" s="21"/>
-      <c r="AO16" s="21"/>
-      <c r="AP16" s="21"/>
-      <c r="AQ16" s="21"/>
-      <c r="AR16" s="21"/>
-      <c r="AS16" s="21"/>
-      <c r="AT16" s="21"/>
-      <c r="AU16" s="21"/>
-      <c r="AV16" s="21"/>
-      <c r="AW16" s="21"/>
-      <c r="AX16" s="21"/>
-      <c r="AY16" s="21"/>
-      <c r="AZ16" s="21"/>
-      <c r="BA16" s="21"/>
-      <c r="BB16" s="21"/>
-      <c r="BC16" s="21"/>
-      <c r="BD16" s="21"/>
-      <c r="BE16" s="21"/>
-      <c r="BF16" s="21"/>
-      <c r="BG16" s="21"/>
-      <c r="BH16" s="21"/>
-      <c r="BI16" s="21"/>
-      <c r="BJ16" s="21"/>
+      <c r="AG16" s="19"/>
+      <c r="AH16" s="19"/>
+      <c r="AI16" s="19"/>
+      <c r="AJ16" s="19"/>
+      <c r="AK16" s="19"/>
+      <c r="AL16" s="19"/>
+      <c r="AM16" s="19"/>
+      <c r="AN16" s="19"/>
+      <c r="AO16" s="19"/>
+      <c r="AP16" s="19"/>
+      <c r="AQ16" s="19"/>
+      <c r="AR16" s="19"/>
+      <c r="AS16" s="19"/>
+      <c r="AT16" s="19"/>
+      <c r="AU16" s="19"/>
+      <c r="AV16" s="19"/>
+      <c r="AW16" s="19"/>
+      <c r="AX16" s="19"/>
+      <c r="AY16" s="19"/>
+      <c r="AZ16" s="19"/>
+      <c r="BA16" s="19"/>
+      <c r="BB16" s="19"/>
+      <c r="BC16" s="19"/>
+      <c r="BD16" s="19"/>
+      <c r="BE16" s="19"/>
+      <c r="BF16" s="19"/>
+      <c r="BG16" s="19"/>
+      <c r="BH16" s="19"/>
+      <c r="BI16" s="19"/>
+      <c r="BJ16" s="19"/>
       <c r="BK16" s="2"/>
     </row>
     <row r="17" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="21"/>
-      <c r="AC17" s="21"/>
-      <c r="AD17" s="21"/>
-      <c r="AE17" s="21"/>
-      <c r="AF17" s="21"/>
-      <c r="AG17" s="21"/>
-      <c r="AH17" s="21"/>
-      <c r="AI17" s="21"/>
-      <c r="AJ17" s="21"/>
-      <c r="AK17" s="21"/>
-      <c r="AL17" s="21"/>
-      <c r="AM17" s="21"/>
-      <c r="AN17" s="21"/>
-      <c r="AO17" s="21"/>
-      <c r="AP17" s="21"/>
-      <c r="AQ17" s="21"/>
-      <c r="AR17" s="21"/>
-      <c r="AS17" s="21"/>
-      <c r="AT17" s="21"/>
-      <c r="AU17" s="21"/>
-      <c r="AV17" s="21"/>
-      <c r="AW17" s="21"/>
-      <c r="AX17" s="21"/>
-      <c r="AY17" s="21"/>
-      <c r="AZ17" s="21"/>
-      <c r="BA17" s="21"/>
-      <c r="BB17" s="21"/>
-      <c r="BC17" s="21"/>
-      <c r="BD17" s="21"/>
-      <c r="BE17" s="21"/>
-      <c r="BF17" s="21"/>
-      <c r="BG17" s="21"/>
-      <c r="BH17" s="21"/>
-      <c r="BI17" s="21"/>
-      <c r="BJ17" s="21"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="19"/>
+      <c r="AF17" s="19"/>
+      <c r="AG17" s="19"/>
+      <c r="AH17" s="19"/>
+      <c r="AI17" s="19"/>
+      <c r="AJ17" s="19"/>
+      <c r="AK17" s="19"/>
+      <c r="AL17" s="19"/>
+      <c r="AM17" s="19"/>
+      <c r="AN17" s="19"/>
+      <c r="AO17" s="19"/>
+      <c r="AP17" s="19"/>
+      <c r="AQ17" s="19"/>
+      <c r="AR17" s="19"/>
+      <c r="AS17" s="19"/>
+      <c r="AT17" s="19"/>
+      <c r="AU17" s="19"/>
+      <c r="AV17" s="19"/>
+      <c r="AW17" s="19"/>
+      <c r="AX17" s="19"/>
+      <c r="AY17" s="19"/>
+      <c r="AZ17" s="19"/>
+      <c r="BA17" s="19"/>
+      <c r="BB17" s="19"/>
+      <c r="BC17" s="19"/>
+      <c r="BD17" s="19"/>
+      <c r="BE17" s="19"/>
+      <c r="BF17" s="19"/>
+      <c r="BG17" s="19"/>
+      <c r="BH17" s="19"/>
+      <c r="BI17" s="19"/>
+      <c r="BJ17" s="19"/>
       <c r="BK17" s="2"/>
     </row>
     <row r="18" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="27" t="s">
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="27"/>
-      <c r="AB18" s="27" t="s">
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AC18" s="27"/>
-      <c r="AD18" s="27"/>
-      <c r="AE18" s="27"/>
-      <c r="AF18" s="29" t="s">
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="AG18" s="29"/>
-      <c r="AH18" s="29"/>
-      <c r="AI18" s="29"/>
-      <c r="AJ18" s="29"/>
-      <c r="AK18" s="29"/>
-      <c r="AL18" s="29"/>
-      <c r="AM18" s="29"/>
-      <c r="AN18" s="29"/>
-      <c r="AO18" s="29"/>
-      <c r="AP18" s="29"/>
-      <c r="AQ18" s="29"/>
-      <c r="AR18" s="29"/>
-      <c r="AS18" s="29"/>
-      <c r="AT18" s="29"/>
-      <c r="AU18" s="29"/>
-      <c r="AV18" s="29"/>
-      <c r="AW18" s="29"/>
-      <c r="AX18" s="29"/>
-      <c r="AY18" s="29"/>
-      <c r="AZ18" s="29"/>
-      <c r="BA18" s="29"/>
-      <c r="BB18" s="29"/>
-      <c r="BC18" s="29"/>
-      <c r="BD18" s="29"/>
-      <c r="BE18" s="29"/>
-      <c r="BF18" s="29"/>
-      <c r="BG18" s="29"/>
-      <c r="BH18" s="29"/>
-      <c r="BI18" s="29"/>
-      <c r="BJ18" s="29"/>
+      <c r="AG18" s="18"/>
+      <c r="AH18" s="18"/>
+      <c r="AI18" s="18"/>
+      <c r="AJ18" s="18"/>
+      <c r="AK18" s="18"/>
+      <c r="AL18" s="18"/>
+      <c r="AM18" s="18"/>
+      <c r="AN18" s="18"/>
+      <c r="AO18" s="18"/>
+      <c r="AP18" s="18"/>
+      <c r="AQ18" s="18"/>
+      <c r="AR18" s="18"/>
+      <c r="AS18" s="18"/>
+      <c r="AT18" s="18"/>
+      <c r="AU18" s="18"/>
+      <c r="AV18" s="18"/>
+      <c r="AW18" s="18"/>
+      <c r="AX18" s="18"/>
+      <c r="AY18" s="18"/>
+      <c r="AZ18" s="18"/>
+      <c r="BA18" s="18"/>
+      <c r="BB18" s="18"/>
+      <c r="BC18" s="18"/>
+      <c r="BD18" s="18"/>
+      <c r="BE18" s="18"/>
+      <c r="BF18" s="18"/>
+      <c r="BG18" s="18"/>
+      <c r="BH18" s="18"/>
+      <c r="BI18" s="18"/>
+      <c r="BJ18" s="18"/>
       <c r="BK18" s="2"/>
     </row>
     <row r="19" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="28" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="27" t="s">
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="27"/>
-      <c r="AB19" s="27" t="s">
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AC19" s="27"/>
-      <c r="AD19" s="27"/>
-      <c r="AE19" s="27"/>
-      <c r="AF19" s="29" t="s">
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="16"/>
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="AG19" s="29"/>
-      <c r="AH19" s="29"/>
-      <c r="AI19" s="29"/>
-      <c r="AJ19" s="29"/>
-      <c r="AK19" s="29"/>
-      <c r="AL19" s="29"/>
-      <c r="AM19" s="29"/>
-      <c r="AN19" s="29"/>
-      <c r="AO19" s="29"/>
-      <c r="AP19" s="29"/>
-      <c r="AQ19" s="29"/>
-      <c r="AR19" s="29"/>
-      <c r="AS19" s="29"/>
-      <c r="AT19" s="29"/>
-      <c r="AU19" s="29"/>
-      <c r="AV19" s="29"/>
-      <c r="AW19" s="29"/>
-      <c r="AX19" s="29"/>
-      <c r="AY19" s="29"/>
-      <c r="AZ19" s="29"/>
-      <c r="BA19" s="29"/>
-      <c r="BB19" s="29"/>
-      <c r="BC19" s="29"/>
-      <c r="BD19" s="29"/>
-      <c r="BE19" s="29"/>
-      <c r="BF19" s="29"/>
-      <c r="BG19" s="29"/>
-      <c r="BH19" s="29"/>
-      <c r="BI19" s="29"/>
-      <c r="BJ19" s="29"/>
+      <c r="AG19" s="18"/>
+      <c r="AH19" s="18"/>
+      <c r="AI19" s="18"/>
+      <c r="AJ19" s="18"/>
+      <c r="AK19" s="18"/>
+      <c r="AL19" s="18"/>
+      <c r="AM19" s="18"/>
+      <c r="AN19" s="18"/>
+      <c r="AO19" s="18"/>
+      <c r="AP19" s="18"/>
+      <c r="AQ19" s="18"/>
+      <c r="AR19" s="18"/>
+      <c r="AS19" s="18"/>
+      <c r="AT19" s="18"/>
+      <c r="AU19" s="18"/>
+      <c r="AV19" s="18"/>
+      <c r="AW19" s="18"/>
+      <c r="AX19" s="18"/>
+      <c r="AY19" s="18"/>
+      <c r="AZ19" s="18"/>
+      <c r="BA19" s="18"/>
+      <c r="BB19" s="18"/>
+      <c r="BC19" s="18"/>
+      <c r="BD19" s="18"/>
+      <c r="BE19" s="18"/>
+      <c r="BF19" s="18"/>
+      <c r="BG19" s="18"/>
+      <c r="BH19" s="18"/>
+      <c r="BI19" s="18"/>
+      <c r="BJ19" s="18"/>
       <c r="BK19" s="2"/>
     </row>
     <row r="20" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28" t="s">
+      <c r="D20" s="16"/>
+      <c r="E20" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="27" t="s">
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="27"/>
-      <c r="AB20" s="27" t="s">
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="AC20" s="27"/>
-      <c r="AD20" s="27"/>
-      <c r="AE20" s="27"/>
-      <c r="AF20" s="29" t="s">
+      <c r="AC20" s="16"/>
+      <c r="AD20" s="16"/>
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AG20" s="29"/>
-      <c r="AH20" s="29"/>
-      <c r="AI20" s="29"/>
-      <c r="AJ20" s="29"/>
-      <c r="AK20" s="29"/>
-      <c r="AL20" s="29"/>
-      <c r="AM20" s="29"/>
-      <c r="AN20" s="29"/>
-      <c r="AO20" s="29"/>
-      <c r="AP20" s="29"/>
-      <c r="AQ20" s="29"/>
-      <c r="AR20" s="29"/>
-      <c r="AS20" s="29"/>
-      <c r="AT20" s="29"/>
-      <c r="AU20" s="29"/>
-      <c r="AV20" s="29"/>
-      <c r="AW20" s="29"/>
-      <c r="AX20" s="29"/>
-      <c r="AY20" s="29"/>
-      <c r="AZ20" s="29"/>
-      <c r="BA20" s="29"/>
-      <c r="BB20" s="29"/>
-      <c r="BC20" s="29"/>
-      <c r="BD20" s="29"/>
-      <c r="BE20" s="29"/>
-      <c r="BF20" s="29"/>
-      <c r="BG20" s="29"/>
-      <c r="BH20" s="29"/>
-      <c r="BI20" s="29"/>
-      <c r="BJ20" s="29"/>
+      <c r="AG20" s="18"/>
+      <c r="AH20" s="18"/>
+      <c r="AI20" s="18"/>
+      <c r="AJ20" s="18"/>
+      <c r="AK20" s="18"/>
+      <c r="AL20" s="18"/>
+      <c r="AM20" s="18"/>
+      <c r="AN20" s="18"/>
+      <c r="AO20" s="18"/>
+      <c r="AP20" s="18"/>
+      <c r="AQ20" s="18"/>
+      <c r="AR20" s="18"/>
+      <c r="AS20" s="18"/>
+      <c r="AT20" s="18"/>
+      <c r="AU20" s="18"/>
+      <c r="AV20" s="18"/>
+      <c r="AW20" s="18"/>
+      <c r="AX20" s="18"/>
+      <c r="AY20" s="18"/>
+      <c r="AZ20" s="18"/>
+      <c r="BA20" s="18"/>
+      <c r="BB20" s="18"/>
+      <c r="BC20" s="18"/>
+      <c r="BD20" s="18"/>
+      <c r="BE20" s="18"/>
+      <c r="BF20" s="18"/>
+      <c r="BG20" s="18"/>
+      <c r="BH20" s="18"/>
+      <c r="BI20" s="18"/>
+      <c r="BJ20" s="18"/>
       <c r="BK20" s="2"/>
     </row>
     <row r="21" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="28" t="s">
+      <c r="D21" s="16"/>
+      <c r="E21" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="27" t="s">
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="27"/>
-      <c r="AB21" s="27" t="s">
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="AC21" s="27"/>
-      <c r="AD21" s="27"/>
-      <c r="AE21" s="27"/>
-      <c r="AF21" s="29" t="s">
+      <c r="AC21" s="16"/>
+      <c r="AD21" s="16"/>
+      <c r="AE21" s="16"/>
+      <c r="AF21" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="AG21" s="29"/>
-      <c r="AH21" s="29"/>
-      <c r="AI21" s="29"/>
-      <c r="AJ21" s="29"/>
-      <c r="AK21" s="29"/>
-      <c r="AL21" s="29"/>
-      <c r="AM21" s="29"/>
-      <c r="AN21" s="29"/>
-      <c r="AO21" s="29"/>
-      <c r="AP21" s="29"/>
-      <c r="AQ21" s="29"/>
-      <c r="AR21" s="29"/>
-      <c r="AS21" s="29"/>
-      <c r="AT21" s="29"/>
-      <c r="AU21" s="29"/>
-      <c r="AV21" s="29"/>
-      <c r="AW21" s="29"/>
-      <c r="AX21" s="29"/>
-      <c r="AY21" s="29"/>
-      <c r="AZ21" s="29"/>
-      <c r="BA21" s="29"/>
-      <c r="BB21" s="29"/>
-      <c r="BC21" s="29"/>
-      <c r="BD21" s="29"/>
-      <c r="BE21" s="29"/>
-      <c r="BF21" s="29"/>
-      <c r="BG21" s="29"/>
-      <c r="BH21" s="29"/>
-      <c r="BI21" s="29"/>
-      <c r="BJ21" s="29"/>
+      <c r="AG21" s="18"/>
+      <c r="AH21" s="18"/>
+      <c r="AI21" s="18"/>
+      <c r="AJ21" s="18"/>
+      <c r="AK21" s="18"/>
+      <c r="AL21" s="18"/>
+      <c r="AM21" s="18"/>
+      <c r="AN21" s="18"/>
+      <c r="AO21" s="18"/>
+      <c r="AP21" s="18"/>
+      <c r="AQ21" s="18"/>
+      <c r="AR21" s="18"/>
+      <c r="AS21" s="18"/>
+      <c r="AT21" s="18"/>
+      <c r="AU21" s="18"/>
+      <c r="AV21" s="18"/>
+      <c r="AW21" s="18"/>
+      <c r="AX21" s="18"/>
+      <c r="AY21" s="18"/>
+      <c r="AZ21" s="18"/>
+      <c r="BA21" s="18"/>
+      <c r="BB21" s="18"/>
+      <c r="BC21" s="18"/>
+      <c r="BD21" s="18"/>
+      <c r="BE21" s="18"/>
+      <c r="BF21" s="18"/>
+      <c r="BG21" s="18"/>
+      <c r="BH21" s="18"/>
+      <c r="BI21" s="18"/>
+      <c r="BJ21" s="18"/>
       <c r="BK21" s="2"/>
     </row>
     <row r="22" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="28" t="s">
+      <c r="D22" s="16"/>
+      <c r="E22" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="27" t="s">
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="27"/>
-      <c r="AB22" s="27" t="s">
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="27"/>
-      <c r="AE22" s="27"/>
-      <c r="AF22" s="29" t="s">
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="16"/>
+      <c r="AE22" s="16"/>
+      <c r="AF22" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="AG22" s="29"/>
-      <c r="AH22" s="29"/>
-      <c r="AI22" s="29"/>
-      <c r="AJ22" s="29"/>
-      <c r="AK22" s="29"/>
-      <c r="AL22" s="29"/>
-      <c r="AM22" s="29"/>
-      <c r="AN22" s="29"/>
-      <c r="AO22" s="29"/>
-      <c r="AP22" s="29"/>
-      <c r="AQ22" s="29"/>
-      <c r="AR22" s="29"/>
-      <c r="AS22" s="29"/>
-      <c r="AT22" s="29"/>
-      <c r="AU22" s="29"/>
-      <c r="AV22" s="29"/>
-      <c r="AW22" s="29"/>
-      <c r="AX22" s="29"/>
-      <c r="AY22" s="29"/>
-      <c r="AZ22" s="29"/>
-      <c r="BA22" s="29"/>
-      <c r="BB22" s="29"/>
-      <c r="BC22" s="29"/>
-      <c r="BD22" s="29"/>
-      <c r="BE22" s="29"/>
-      <c r="BF22" s="29"/>
-      <c r="BG22" s="29"/>
-      <c r="BH22" s="29"/>
-      <c r="BI22" s="29"/>
-      <c r="BJ22" s="29"/>
+      <c r="AG22" s="18"/>
+      <c r="AH22" s="18"/>
+      <c r="AI22" s="18"/>
+      <c r="AJ22" s="18"/>
+      <c r="AK22" s="18"/>
+      <c r="AL22" s="18"/>
+      <c r="AM22" s="18"/>
+      <c r="AN22" s="18"/>
+      <c r="AO22" s="18"/>
+      <c r="AP22" s="18"/>
+      <c r="AQ22" s="18"/>
+      <c r="AR22" s="18"/>
+      <c r="AS22" s="18"/>
+      <c r="AT22" s="18"/>
+      <c r="AU22" s="18"/>
+      <c r="AV22" s="18"/>
+      <c r="AW22" s="18"/>
+      <c r="AX22" s="18"/>
+      <c r="AY22" s="18"/>
+      <c r="AZ22" s="18"/>
+      <c r="BA22" s="18"/>
+      <c r="BB22" s="18"/>
+      <c r="BC22" s="18"/>
+      <c r="BD22" s="18"/>
+      <c r="BE22" s="18"/>
+      <c r="BF22" s="18"/>
+      <c r="BG22" s="18"/>
+      <c r="BH22" s="18"/>
+      <c r="BI22" s="18"/>
+      <c r="BJ22" s="18"/>
       <c r="BK22" s="2"/>
     </row>
     <row r="23" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3199,61 +3315,14 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="AB22:AE22"/>
-    <mergeCell ref="AF22:BJ22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="AB20:AE20"/>
-    <mergeCell ref="AF20:BJ20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="AB21:AE21"/>
-    <mergeCell ref="AF21:BJ21"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="AB18:AE18"/>
-    <mergeCell ref="AF18:BJ18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="AB19:AE19"/>
-    <mergeCell ref="AF19:BJ19"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:X13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="AB13:AE13"/>
-    <mergeCell ref="AF13:BJ13"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:X17"/>
-    <mergeCell ref="Y16:AA17"/>
-    <mergeCell ref="AB16:AE17"/>
-    <mergeCell ref="AF16:BJ17"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="AB11:AE11"/>
-    <mergeCell ref="AF11:BJ11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="AB12:AE12"/>
-    <mergeCell ref="AF12:BJ12"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="AB9:AE9"/>
-    <mergeCell ref="AF9:BJ9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="AF10:BJ10"/>
+    <mergeCell ref="B1:BK1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:AM2"/>
+    <mergeCell ref="AN2:AS2"/>
+    <mergeCell ref="AT2:AY2"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="BF2:BK2"/>
     <mergeCell ref="BF3:BK4"/>
     <mergeCell ref="C7:D8"/>
     <mergeCell ref="E7:X8"/>
@@ -3266,14 +3335,61 @@
     <mergeCell ref="AN3:AS4"/>
     <mergeCell ref="AT3:AY4"/>
     <mergeCell ref="AZ3:BE4"/>
-    <mergeCell ref="B1:BK1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="Q2:AM2"/>
-    <mergeCell ref="AN2:AS2"/>
-    <mergeCell ref="AT2:AY2"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="BF2:BK2"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="AF10:BJ10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="AB9:AE9"/>
+    <mergeCell ref="AF9:BJ9"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="AF12:BJ12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="AB11:AE11"/>
+    <mergeCell ref="AF11:BJ11"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:X17"/>
+    <mergeCell ref="Y16:AA17"/>
+    <mergeCell ref="AB16:AE17"/>
+    <mergeCell ref="AF16:BJ17"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="AF13:BJ13"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="AB19:AE19"/>
+    <mergeCell ref="AF19:BJ19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB18:AE18"/>
+    <mergeCell ref="AF18:BJ18"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AB21:AE21"/>
+    <mergeCell ref="AF21:BJ21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AB20:AE20"/>
+    <mergeCell ref="AF20:BJ20"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="AB22:AE22"/>
+    <mergeCell ref="AF22:BJ22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3282,432 +3398,432 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36293E3-BB8A-450A-AD90-324CA703073E}">
-  <dimension ref="B1:BK21"/>
+  <dimension ref="B1:BK28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21:AG21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28:AG28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="37"/>
-      <c r="AR1" s="37"/>
-      <c r="AS1" s="37"/>
-      <c r="AT1" s="37"/>
-      <c r="AU1" s="37"/>
-      <c r="AV1" s="37"/>
-      <c r="AW1" s="37"/>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="37"/>
-      <c r="AZ1" s="37"/>
-      <c r="BA1" s="37"/>
-      <c r="BB1" s="37"/>
-      <c r="BC1" s="37"/>
-      <c r="BD1" s="37"/>
-      <c r="BE1" s="37"/>
-      <c r="BF1" s="37"/>
-      <c r="BG1" s="37"/>
-      <c r="BH1" s="37"/>
-      <c r="BI1" s="37"/>
-      <c r="BJ1" s="37"/>
-      <c r="BK1" s="38"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="46"/>
+      <c r="AO1" s="46"/>
+      <c r="AP1" s="46"/>
+      <c r="AQ1" s="46"/>
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="46"/>
+      <c r="AT1" s="46"/>
+      <c r="AU1" s="46"/>
+      <c r="AV1" s="46"/>
+      <c r="AW1" s="46"/>
+      <c r="AX1" s="46"/>
+      <c r="AY1" s="46"/>
+      <c r="AZ1" s="46"/>
+      <c r="BA1" s="46"/>
+      <c r="BB1" s="46"/>
+      <c r="BC1" s="46"/>
+      <c r="BD1" s="46"/>
+      <c r="BE1" s="46"/>
+      <c r="BF1" s="46"/>
+      <c r="BG1" s="46"/>
+      <c r="BH1" s="46"/>
+      <c r="BI1" s="46"/>
+      <c r="BJ1" s="46"/>
+      <c r="BK1" s="47"/>
     </row>
     <row r="2" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="36" t="s">
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="36" t="s">
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="36" t="s">
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="46"/>
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="46"/>
+      <c r="AK2" s="46"/>
+      <c r="AL2" s="46"/>
+      <c r="AM2" s="47"/>
+      <c r="AN2" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="37"/>
-      <c r="AR2" s="37"/>
-      <c r="AS2" s="38"/>
-      <c r="AT2" s="36" t="s">
+      <c r="AO2" s="46"/>
+      <c r="AP2" s="46"/>
+      <c r="AQ2" s="46"/>
+      <c r="AR2" s="46"/>
+      <c r="AS2" s="47"/>
+      <c r="AT2" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="38"/>
-      <c r="AZ2" s="36" t="s">
+      <c r="AU2" s="46"/>
+      <c r="AV2" s="46"/>
+      <c r="AW2" s="46"/>
+      <c r="AX2" s="46"/>
+      <c r="AY2" s="47"/>
+      <c r="AZ2" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="BA2" s="37"/>
-      <c r="BB2" s="37"/>
-      <c r="BC2" s="37"/>
-      <c r="BD2" s="37"/>
-      <c r="BE2" s="38"/>
-      <c r="BF2" s="36" t="s">
+      <c r="BA2" s="46"/>
+      <c r="BB2" s="46"/>
+      <c r="BC2" s="46"/>
+      <c r="BD2" s="46"/>
+      <c r="BE2" s="47"/>
+      <c r="BF2" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="BG2" s="37"/>
-      <c r="BH2" s="37"/>
-      <c r="BI2" s="37"/>
-      <c r="BJ2" s="37"/>
-      <c r="BK2" s="38"/>
+      <c r="BG2" s="46"/>
+      <c r="BH2" s="46"/>
+      <c r="BI2" s="46"/>
+      <c r="BJ2" s="46"/>
+      <c r="BK2" s="47"/>
     </row>
     <row r="3" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="39">
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="48">
         <v>1</v>
       </c>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="39" t="s">
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="48"/>
-      <c r="AO3" s="49"/>
-      <c r="AP3" s="49"/>
-      <c r="AQ3" s="49"/>
-      <c r="AR3" s="49"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="54" t="s">
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="55"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="55"/>
+      <c r="AR3" s="55"/>
+      <c r="AS3" s="56"/>
+      <c r="AT3" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="AU3" s="55"/>
-      <c r="AV3" s="55"/>
-      <c r="AW3" s="55"/>
-      <c r="AX3" s="55"/>
-      <c r="AY3" s="56"/>
-      <c r="AZ3" s="48"/>
-      <c r="BA3" s="49"/>
-      <c r="BB3" s="49"/>
-      <c r="BC3" s="49"/>
-      <c r="BD3" s="49"/>
-      <c r="BE3" s="50"/>
-      <c r="BF3" s="39"/>
-      <c r="BG3" s="40"/>
-      <c r="BH3" s="40"/>
-      <c r="BI3" s="40"/>
-      <c r="BJ3" s="40"/>
-      <c r="BK3" s="41"/>
+      <c r="AU3" s="61"/>
+      <c r="AV3" s="61"/>
+      <c r="AW3" s="61"/>
+      <c r="AX3" s="61"/>
+      <c r="AY3" s="62"/>
+      <c r="AZ3" s="54"/>
+      <c r="BA3" s="55"/>
+      <c r="BB3" s="55"/>
+      <c r="BC3" s="55"/>
+      <c r="BD3" s="55"/>
+      <c r="BE3" s="56"/>
+      <c r="BF3" s="48"/>
+      <c r="BG3" s="49"/>
+      <c r="BH3" s="49"/>
+      <c r="BI3" s="49"/>
+      <c r="BJ3" s="49"/>
+      <c r="BK3" s="50"/>
     </row>
     <row r="4" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="42"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="43"/>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="44"/>
-      <c r="AN4" s="51"/>
-      <c r="AO4" s="52"/>
-      <c r="AP4" s="52"/>
-      <c r="AQ4" s="52"/>
-      <c r="AR4" s="52"/>
-      <c r="AS4" s="53"/>
-      <c r="AT4" s="57"/>
-      <c r="AU4" s="58"/>
-      <c r="AV4" s="58"/>
-      <c r="AW4" s="58"/>
-      <c r="AX4" s="58"/>
-      <c r="AY4" s="59"/>
-      <c r="AZ4" s="51"/>
-      <c r="BA4" s="52"/>
-      <c r="BB4" s="52"/>
-      <c r="BC4" s="52"/>
-      <c r="BD4" s="52"/>
-      <c r="BE4" s="53"/>
-      <c r="BF4" s="42"/>
-      <c r="BG4" s="43"/>
-      <c r="BH4" s="43"/>
-      <c r="BI4" s="43"/>
-      <c r="BJ4" s="43"/>
-      <c r="BK4" s="44"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
+      <c r="AH4" s="52"/>
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="52"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="53"/>
+      <c r="AN4" s="57"/>
+      <c r="AO4" s="58"/>
+      <c r="AP4" s="58"/>
+      <c r="AQ4" s="58"/>
+      <c r="AR4" s="58"/>
+      <c r="AS4" s="59"/>
+      <c r="AT4" s="63"/>
+      <c r="AU4" s="64"/>
+      <c r="AV4" s="64"/>
+      <c r="AW4" s="64"/>
+      <c r="AX4" s="64"/>
+      <c r="AY4" s="65"/>
+      <c r="AZ4" s="57"/>
+      <c r="BA4" s="58"/>
+      <c r="BB4" s="58"/>
+      <c r="BC4" s="58"/>
+      <c r="BD4" s="58"/>
+      <c r="BE4" s="59"/>
+      <c r="BF4" s="51"/>
+      <c r="BG4" s="52"/>
+      <c r="BH4" s="52"/>
+      <c r="BI4" s="52"/>
+      <c r="BJ4" s="52"/>
+      <c r="BK4" s="53"/>
     </row>
     <row r="5" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="45"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="47"/>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="47"/>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="47"/>
-      <c r="AD5" s="47"/>
-      <c r="AE5" s="47"/>
-      <c r="AF5" s="47"/>
-      <c r="AG5" s="47"/>
-      <c r="AH5" s="47"/>
-      <c r="AI5" s="47"/>
-      <c r="AJ5" s="47"/>
-      <c r="AK5" s="47"/>
-      <c r="AL5" s="47"/>
-      <c r="AM5" s="47"/>
-      <c r="AN5" s="47"/>
-      <c r="AO5" s="47"/>
-      <c r="AP5" s="47"/>
-      <c r="AQ5" s="47"/>
-      <c r="AR5" s="47"/>
-      <c r="AS5" s="47"/>
-      <c r="AT5" s="47"/>
-      <c r="AU5" s="47"/>
-      <c r="AV5" s="47"/>
-      <c r="AW5" s="47"/>
-      <c r="AX5" s="47"/>
-      <c r="AY5" s="47"/>
-      <c r="AZ5" s="47"/>
-      <c r="BA5" s="47"/>
-      <c r="BB5" s="47"/>
-      <c r="BC5" s="47"/>
-      <c r="BD5" s="47"/>
-      <c r="BE5" s="47"/>
-      <c r="BF5" s="47"/>
-      <c r="BG5" s="47"/>
-      <c r="BH5" s="47"/>
-      <c r="BI5" s="47"/>
-      <c r="BJ5" s="46"/>
-      <c r="BK5" s="46"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="43"/>
+      <c r="AJ5" s="43"/>
+      <c r="AK5" s="43"/>
+      <c r="AL5" s="43"/>
+      <c r="AM5" s="43"/>
+      <c r="AN5" s="43"/>
+      <c r="AO5" s="43"/>
+      <c r="AP5" s="43"/>
+      <c r="AQ5" s="43"/>
+      <c r="AR5" s="43"/>
+      <c r="AS5" s="43"/>
+      <c r="AT5" s="43"/>
+      <c r="AU5" s="43"/>
+      <c r="AV5" s="43"/>
+      <c r="AW5" s="43"/>
+      <c r="AX5" s="43"/>
+      <c r="AY5" s="43"/>
+      <c r="AZ5" s="43"/>
+      <c r="BA5" s="43"/>
+      <c r="BB5" s="43"/>
+      <c r="BC5" s="43"/>
+      <c r="BD5" s="43"/>
+      <c r="BE5" s="43"/>
+      <c r="BF5" s="43"/>
+      <c r="BG5" s="43"/>
+      <c r="BH5" s="43"/>
+      <c r="BI5" s="43"/>
+      <c r="BJ5" s="42"/>
+      <c r="BK5" s="42"/>
     </row>
     <row r="6" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="14"/>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="60" t="s">
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="60" t="s">
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="61"/>
-      <c r="Z6" s="61"/>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="61"/>
-      <c r="AC6" s="61"/>
-      <c r="AD6" s="61"/>
-      <c r="AE6" s="61"/>
-      <c r="AF6" s="61"/>
-      <c r="AG6" s="62"/>
-      <c r="AH6" s="60" t="s">
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="37"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="37"/>
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="AI6" s="61"/>
-      <c r="AJ6" s="61"/>
-      <c r="AK6" s="61"/>
-      <c r="AL6" s="61"/>
-      <c r="AM6" s="62"/>
-      <c r="AN6" s="60" t="s">
+      <c r="AI6" s="37"/>
+      <c r="AJ6" s="37"/>
+      <c r="AK6" s="37"/>
+      <c r="AL6" s="37"/>
+      <c r="AM6" s="38"/>
+      <c r="AN6" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="AO6" s="61"/>
-      <c r="AP6" s="61"/>
-      <c r="AQ6" s="62"/>
-      <c r="AR6" s="63" t="s">
+      <c r="AO6" s="37"/>
+      <c r="AP6" s="37"/>
+      <c r="AQ6" s="38"/>
+      <c r="AR6" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="AS6" s="64"/>
-      <c r="AT6" s="64"/>
-      <c r="AU6" s="64"/>
-      <c r="AV6" s="64"/>
-      <c r="AW6" s="64"/>
-      <c r="AX6" s="64"/>
-      <c r="AY6" s="64"/>
-      <c r="AZ6" s="64"/>
-      <c r="BA6" s="64"/>
-      <c r="BB6" s="64"/>
-      <c r="BC6" s="64"/>
-      <c r="BD6" s="64"/>
-      <c r="BE6" s="64"/>
-      <c r="BF6" s="64"/>
-      <c r="BG6" s="64"/>
-      <c r="BH6" s="64"/>
-      <c r="BI6" s="64"/>
-      <c r="BJ6" s="65"/>
+      <c r="AS6" s="40"/>
+      <c r="AT6" s="40"/>
+      <c r="AU6" s="40"/>
+      <c r="AV6" s="40"/>
+      <c r="AW6" s="40"/>
+      <c r="AX6" s="40"/>
+      <c r="AY6" s="40"/>
+      <c r="AZ6" s="40"/>
+      <c r="BA6" s="40"/>
+      <c r="BB6" s="40"/>
+      <c r="BC6" s="40"/>
+      <c r="BD6" s="40"/>
+      <c r="BE6" s="40"/>
+      <c r="BF6" s="40"/>
+      <c r="BG6" s="40"/>
+      <c r="BH6" s="40"/>
+      <c r="BI6" s="40"/>
+      <c r="BJ6" s="41"/>
       <c r="BK6" s="15"/>
     </row>
     <row r="7" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -4734,7 +4850,9 @@
       <c r="G21" s="31"/>
       <c r="H21" s="31"/>
       <c r="I21" s="32"/>
-      <c r="J21" s="33"/>
+      <c r="J21" s="33" t="s">
+        <v>95</v>
+      </c>
       <c r="K21" s="34"/>
       <c r="L21" s="34"/>
       <c r="M21" s="34"/>
@@ -4792,8 +4910,666 @@
       <c r="BI21" s="31"/>
       <c r="BJ21" s="32"/>
     </row>
+    <row r="22" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C22" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="31"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="34"/>
+      <c r="AA22" s="34"/>
+      <c r="AB22" s="34"/>
+      <c r="AC22" s="34"/>
+      <c r="AD22" s="34"/>
+      <c r="AE22" s="34"/>
+      <c r="AF22" s="34"/>
+      <c r="AG22" s="35"/>
+      <c r="AH22" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI22" s="31"/>
+      <c r="AJ22" s="31"/>
+      <c r="AK22" s="31"/>
+      <c r="AL22" s="31"/>
+      <c r="AM22" s="32"/>
+      <c r="AN22" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO22" s="31"/>
+      <c r="AP22" s="31"/>
+      <c r="AQ22" s="32"/>
+      <c r="AR22" s="30"/>
+      <c r="AS22" s="31"/>
+      <c r="AT22" s="31"/>
+      <c r="AU22" s="31"/>
+      <c r="AV22" s="31"/>
+      <c r="AW22" s="31"/>
+      <c r="AX22" s="31"/>
+      <c r="AY22" s="31"/>
+      <c r="AZ22" s="31"/>
+      <c r="BA22" s="31"/>
+      <c r="BB22" s="31"/>
+      <c r="BC22" s="31"/>
+      <c r="BD22" s="31"/>
+      <c r="BE22" s="31"/>
+      <c r="BF22" s="31"/>
+      <c r="BG22" s="31"/>
+      <c r="BH22" s="31"/>
+      <c r="BI22" s="31"/>
+      <c r="BJ22" s="32"/>
+    </row>
+    <row r="23" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C23" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="34"/>
+      <c r="AB23" s="34"/>
+      <c r="AC23" s="34"/>
+      <c r="AD23" s="34"/>
+      <c r="AE23" s="34"/>
+      <c r="AF23" s="34"/>
+      <c r="AG23" s="35"/>
+      <c r="AH23" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI23" s="31"/>
+      <c r="AJ23" s="31"/>
+      <c r="AK23" s="31"/>
+      <c r="AL23" s="31"/>
+      <c r="AM23" s="32"/>
+      <c r="AN23" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO23" s="31"/>
+      <c r="AP23" s="31"/>
+      <c r="AQ23" s="32"/>
+      <c r="AR23" s="30"/>
+      <c r="AS23" s="31"/>
+      <c r="AT23" s="31"/>
+      <c r="AU23" s="31"/>
+      <c r="AV23" s="31"/>
+      <c r="AW23" s="31"/>
+      <c r="AX23" s="31"/>
+      <c r="AY23" s="31"/>
+      <c r="AZ23" s="31"/>
+      <c r="BA23" s="31"/>
+      <c r="BB23" s="31"/>
+      <c r="BC23" s="31"/>
+      <c r="BD23" s="31"/>
+      <c r="BE23" s="31"/>
+      <c r="BF23" s="31"/>
+      <c r="BG23" s="31"/>
+      <c r="BH23" s="31"/>
+      <c r="BI23" s="31"/>
+      <c r="BJ23" s="32"/>
+    </row>
+    <row r="24" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C24" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="31"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="34"/>
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="34"/>
+      <c r="AB24" s="34"/>
+      <c r="AC24" s="34"/>
+      <c r="AD24" s="34"/>
+      <c r="AE24" s="34"/>
+      <c r="AF24" s="34"/>
+      <c r="AG24" s="35"/>
+      <c r="AH24" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI24" s="31"/>
+      <c r="AJ24" s="31"/>
+      <c r="AK24" s="31"/>
+      <c r="AL24" s="31"/>
+      <c r="AM24" s="32"/>
+      <c r="AN24" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO24" s="31"/>
+      <c r="AP24" s="31"/>
+      <c r="AQ24" s="32"/>
+      <c r="AR24" s="30"/>
+      <c r="AS24" s="31"/>
+      <c r="AT24" s="31"/>
+      <c r="AU24" s="31"/>
+      <c r="AV24" s="31"/>
+      <c r="AW24" s="31"/>
+      <c r="AX24" s="31"/>
+      <c r="AY24" s="31"/>
+      <c r="AZ24" s="31"/>
+      <c r="BA24" s="31"/>
+      <c r="BB24" s="31"/>
+      <c r="BC24" s="31"/>
+      <c r="BD24" s="31"/>
+      <c r="BE24" s="31"/>
+      <c r="BF24" s="31"/>
+      <c r="BG24" s="31"/>
+      <c r="BH24" s="31"/>
+      <c r="BI24" s="31"/>
+      <c r="BJ24" s="32"/>
+    </row>
+    <row r="25" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C25" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="31"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="34"/>
+      <c r="AB25" s="34"/>
+      <c r="AC25" s="34"/>
+      <c r="AD25" s="34"/>
+      <c r="AE25" s="34"/>
+      <c r="AF25" s="34"/>
+      <c r="AG25" s="35"/>
+      <c r="AH25" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI25" s="31"/>
+      <c r="AJ25" s="31"/>
+      <c r="AK25" s="31"/>
+      <c r="AL25" s="31"/>
+      <c r="AM25" s="32"/>
+      <c r="AN25" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO25" s="31"/>
+      <c r="AP25" s="31"/>
+      <c r="AQ25" s="32"/>
+      <c r="AR25" s="30"/>
+      <c r="AS25" s="31"/>
+      <c r="AT25" s="31"/>
+      <c r="AU25" s="31"/>
+      <c r="AV25" s="31"/>
+      <c r="AW25" s="31"/>
+      <c r="AX25" s="31"/>
+      <c r="AY25" s="31"/>
+      <c r="AZ25" s="31"/>
+      <c r="BA25" s="31"/>
+      <c r="BB25" s="31"/>
+      <c r="BC25" s="31"/>
+      <c r="BD25" s="31"/>
+      <c r="BE25" s="31"/>
+      <c r="BF25" s="31"/>
+      <c r="BG25" s="31"/>
+      <c r="BH25" s="31"/>
+      <c r="BI25" s="31"/>
+      <c r="BJ25" s="32"/>
+    </row>
+    <row r="26" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C26" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="31"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="34"/>
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="34"/>
+      <c r="AD26" s="34"/>
+      <c r="AE26" s="34"/>
+      <c r="AF26" s="34"/>
+      <c r="AG26" s="35"/>
+      <c r="AH26" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI26" s="31"/>
+      <c r="AJ26" s="31"/>
+      <c r="AK26" s="31"/>
+      <c r="AL26" s="31"/>
+      <c r="AM26" s="32"/>
+      <c r="AN26" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO26" s="31"/>
+      <c r="AP26" s="31"/>
+      <c r="AQ26" s="32"/>
+      <c r="AR26" s="30"/>
+      <c r="AS26" s="31"/>
+      <c r="AT26" s="31"/>
+      <c r="AU26" s="31"/>
+      <c r="AV26" s="31"/>
+      <c r="AW26" s="31"/>
+      <c r="AX26" s="31"/>
+      <c r="AY26" s="31"/>
+      <c r="AZ26" s="31"/>
+      <c r="BA26" s="31"/>
+      <c r="BB26" s="31"/>
+      <c r="BC26" s="31"/>
+      <c r="BD26" s="31"/>
+      <c r="BE26" s="31"/>
+      <c r="BF26" s="31"/>
+      <c r="BG26" s="31"/>
+      <c r="BH26" s="31"/>
+      <c r="BI26" s="31"/>
+      <c r="BJ26" s="32"/>
+    </row>
+    <row r="27" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C27" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="31"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="34"/>
+      <c r="AB27" s="34"/>
+      <c r="AC27" s="34"/>
+      <c r="AD27" s="34"/>
+      <c r="AE27" s="34"/>
+      <c r="AF27" s="34"/>
+      <c r="AG27" s="35"/>
+      <c r="AH27" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI27" s="31"/>
+      <c r="AJ27" s="31"/>
+      <c r="AK27" s="31"/>
+      <c r="AL27" s="31"/>
+      <c r="AM27" s="32"/>
+      <c r="AN27" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO27" s="31"/>
+      <c r="AP27" s="31"/>
+      <c r="AQ27" s="32"/>
+      <c r="AR27" s="30"/>
+      <c r="AS27" s="31"/>
+      <c r="AT27" s="31"/>
+      <c r="AU27" s="31"/>
+      <c r="AV27" s="31"/>
+      <c r="AW27" s="31"/>
+      <c r="AX27" s="31"/>
+      <c r="AY27" s="31"/>
+      <c r="AZ27" s="31"/>
+      <c r="BA27" s="31"/>
+      <c r="BB27" s="31"/>
+      <c r="BC27" s="31"/>
+      <c r="BD27" s="31"/>
+      <c r="BE27" s="31"/>
+      <c r="BF27" s="31"/>
+      <c r="BG27" s="31"/>
+      <c r="BH27" s="31"/>
+      <c r="BI27" s="31"/>
+      <c r="BJ27" s="32"/>
+    </row>
+    <row r="28" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C28" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="31"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="34"/>
+      <c r="W28" s="34"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="34"/>
+      <c r="AB28" s="34"/>
+      <c r="AC28" s="34"/>
+      <c r="AD28" s="34"/>
+      <c r="AE28" s="34"/>
+      <c r="AF28" s="34"/>
+      <c r="AG28" s="35"/>
+      <c r="AH28" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI28" s="31"/>
+      <c r="AJ28" s="31"/>
+      <c r="AK28" s="31"/>
+      <c r="AL28" s="31"/>
+      <c r="AM28" s="32"/>
+      <c r="AN28" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO28" s="31"/>
+      <c r="AP28" s="31"/>
+      <c r="AQ28" s="32"/>
+      <c r="AR28" s="30"/>
+      <c r="AS28" s="31"/>
+      <c r="AT28" s="31"/>
+      <c r="AU28" s="31"/>
+      <c r="AV28" s="31"/>
+      <c r="AW28" s="31"/>
+      <c r="AX28" s="31"/>
+      <c r="AY28" s="31"/>
+      <c r="AZ28" s="31"/>
+      <c r="BA28" s="31"/>
+      <c r="BB28" s="31"/>
+      <c r="BC28" s="31"/>
+      <c r="BD28" s="31"/>
+      <c r="BE28" s="31"/>
+      <c r="BF28" s="31"/>
+      <c r="BG28" s="31"/>
+      <c r="BH28" s="31"/>
+      <c r="BI28" s="31"/>
+      <c r="BJ28" s="32"/>
+    </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="174">
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AG28"/>
+    <mergeCell ref="AH28:AM28"/>
+    <mergeCell ref="AN28:AQ28"/>
+    <mergeCell ref="AR28:BJ28"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AG26"/>
+    <mergeCell ref="AH26:AM26"/>
+    <mergeCell ref="AN26:AQ26"/>
+    <mergeCell ref="AR26:BJ26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AG27"/>
+    <mergeCell ref="AH27:AM27"/>
+    <mergeCell ref="AN27:AQ27"/>
+    <mergeCell ref="AR27:BJ27"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AG24"/>
+    <mergeCell ref="AH24:AM24"/>
+    <mergeCell ref="AN24:AQ24"/>
+    <mergeCell ref="AR24:BJ24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AG25"/>
+    <mergeCell ref="AH25:AM25"/>
+    <mergeCell ref="AN25:AQ25"/>
+    <mergeCell ref="AR25:BJ25"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:AG22"/>
+    <mergeCell ref="AH22:AM22"/>
+    <mergeCell ref="AN22:AQ22"/>
+    <mergeCell ref="AR22:BJ22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AG23"/>
+    <mergeCell ref="AH23:AM23"/>
+    <mergeCell ref="AN23:AQ23"/>
+    <mergeCell ref="AR23:BJ23"/>
+    <mergeCell ref="AR18:BJ18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:AG18"/>
+    <mergeCell ref="AH18:AM18"/>
+    <mergeCell ref="AN18:AQ18"/>
+    <mergeCell ref="AR16:BJ16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:AG17"/>
+    <mergeCell ref="AH17:AM17"/>
+    <mergeCell ref="AN17:AQ17"/>
+    <mergeCell ref="AR17:BJ17"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:AG16"/>
+    <mergeCell ref="AH16:AM16"/>
+    <mergeCell ref="AN16:AQ16"/>
+    <mergeCell ref="AR14:BJ14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:AG15"/>
+    <mergeCell ref="AH15:AM15"/>
+    <mergeCell ref="AN15:AQ15"/>
+    <mergeCell ref="AR15:BJ15"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:AG14"/>
+    <mergeCell ref="AH14:AM14"/>
+    <mergeCell ref="AN14:AQ14"/>
+    <mergeCell ref="AR12:BJ12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:AG13"/>
+    <mergeCell ref="AH13:AM13"/>
+    <mergeCell ref="AN13:AQ13"/>
+    <mergeCell ref="AR13:BJ13"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:AG12"/>
+    <mergeCell ref="AH12:AM12"/>
+    <mergeCell ref="AN12:AQ12"/>
+    <mergeCell ref="B1:BK1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:AM2"/>
+    <mergeCell ref="AN2:AS2"/>
+    <mergeCell ref="AT2:AY2"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="BF2:BK2"/>
+    <mergeCell ref="BF3:BK4"/>
+    <mergeCell ref="B3:K4"/>
+    <mergeCell ref="L3:P4"/>
+    <mergeCell ref="Q3:AM4"/>
+    <mergeCell ref="AN3:AS4"/>
+    <mergeCell ref="AT3:AY4"/>
+    <mergeCell ref="AZ3:BE4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="Z5:AB5"/>
+    <mergeCell ref="BJ5:BK5"/>
+    <mergeCell ref="AC5:AE5"/>
+    <mergeCell ref="AF5:AH5"/>
+    <mergeCell ref="AI5:AK5"/>
+    <mergeCell ref="AL5:AN5"/>
+    <mergeCell ref="AO5:AQ5"/>
+    <mergeCell ref="AR5:AT5"/>
+    <mergeCell ref="AU5:AW5"/>
+    <mergeCell ref="AX5:AZ5"/>
+    <mergeCell ref="BA5:BC5"/>
+    <mergeCell ref="BD5:BF5"/>
+    <mergeCell ref="BG5:BI5"/>
+    <mergeCell ref="AR7:BJ7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:AG6"/>
+    <mergeCell ref="AH6:AM6"/>
+    <mergeCell ref="AN6:AQ6"/>
+    <mergeCell ref="AR6:BJ6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:AG7"/>
+    <mergeCell ref="AH7:AM7"/>
+    <mergeCell ref="AN7:AQ7"/>
+    <mergeCell ref="AR9:BJ9"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:AG8"/>
+    <mergeCell ref="AH8:AM8"/>
+    <mergeCell ref="AN8:AQ8"/>
+    <mergeCell ref="AR8:BJ8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:AG9"/>
+    <mergeCell ref="AH9:AM9"/>
+    <mergeCell ref="AN9:AQ9"/>
+    <mergeCell ref="AR11:BJ11"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:AG10"/>
+    <mergeCell ref="AH10:AM10"/>
+    <mergeCell ref="AN10:AQ10"/>
+    <mergeCell ref="AR10:BJ10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:AG11"/>
+    <mergeCell ref="AH11:AM11"/>
+    <mergeCell ref="AN11:AQ11"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="F21:I21"/>
     <mergeCell ref="J21:AG21"/>
@@ -4812,120 +5588,6 @@
     <mergeCell ref="AH20:AM20"/>
     <mergeCell ref="AN20:AQ20"/>
     <mergeCell ref="AR20:BJ20"/>
-    <mergeCell ref="AR11:BJ11"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:AG10"/>
-    <mergeCell ref="AH10:AM10"/>
-    <mergeCell ref="AN10:AQ10"/>
-    <mergeCell ref="AR10:BJ10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:AG11"/>
-    <mergeCell ref="AH11:AM11"/>
-    <mergeCell ref="AN11:AQ11"/>
-    <mergeCell ref="AR9:BJ9"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:AG8"/>
-    <mergeCell ref="AH8:AM8"/>
-    <mergeCell ref="AN8:AQ8"/>
-    <mergeCell ref="AR8:BJ8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:AG9"/>
-    <mergeCell ref="AH9:AM9"/>
-    <mergeCell ref="AN9:AQ9"/>
-    <mergeCell ref="AR7:BJ7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:AG6"/>
-    <mergeCell ref="AH6:AM6"/>
-    <mergeCell ref="AN6:AQ6"/>
-    <mergeCell ref="AR6:BJ6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:AG7"/>
-    <mergeCell ref="AH7:AM7"/>
-    <mergeCell ref="AN7:AQ7"/>
-    <mergeCell ref="BJ5:BK5"/>
-    <mergeCell ref="AC5:AE5"/>
-    <mergeCell ref="AF5:AH5"/>
-    <mergeCell ref="AI5:AK5"/>
-    <mergeCell ref="AL5:AN5"/>
-    <mergeCell ref="AO5:AQ5"/>
-    <mergeCell ref="AR5:AT5"/>
-    <mergeCell ref="AU5:AW5"/>
-    <mergeCell ref="AX5:AZ5"/>
-    <mergeCell ref="BA5:BC5"/>
-    <mergeCell ref="BD5:BF5"/>
-    <mergeCell ref="BG5:BI5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="Z5:AB5"/>
-    <mergeCell ref="B1:BK1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="Q2:AM2"/>
-    <mergeCell ref="AN2:AS2"/>
-    <mergeCell ref="AT2:AY2"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="BF2:BK2"/>
-    <mergeCell ref="BF3:BK4"/>
-    <mergeCell ref="B3:K4"/>
-    <mergeCell ref="L3:P4"/>
-    <mergeCell ref="Q3:AM4"/>
-    <mergeCell ref="AN3:AS4"/>
-    <mergeCell ref="AT3:AY4"/>
-    <mergeCell ref="AZ3:BE4"/>
-    <mergeCell ref="AR12:BJ12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:AG13"/>
-    <mergeCell ref="AH13:AM13"/>
-    <mergeCell ref="AN13:AQ13"/>
-    <mergeCell ref="AR13:BJ13"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:AG12"/>
-    <mergeCell ref="AH12:AM12"/>
-    <mergeCell ref="AN12:AQ12"/>
-    <mergeCell ref="AR14:BJ14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:AG15"/>
-    <mergeCell ref="AH15:AM15"/>
-    <mergeCell ref="AN15:AQ15"/>
-    <mergeCell ref="AR15:BJ15"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:AG14"/>
-    <mergeCell ref="AH14:AM14"/>
-    <mergeCell ref="AN14:AQ14"/>
-    <mergeCell ref="AR18:BJ18"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:AG18"/>
-    <mergeCell ref="AH18:AM18"/>
-    <mergeCell ref="AN18:AQ18"/>
-    <mergeCell ref="AR16:BJ16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:AG17"/>
-    <mergeCell ref="AH17:AM17"/>
-    <mergeCell ref="AN17:AQ17"/>
-    <mergeCell ref="AR17:BJ17"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:AG16"/>
-    <mergeCell ref="AH16:AM16"/>
-    <mergeCell ref="AN16:AQ16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/メッセージ設計書.xlsx
+++ b/メッセージ設計書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kensyu005\Desktop\新しいフォルダー\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81805\Desktop\新しいフォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABCB419-A713-4AEB-8BE2-5F86C01419E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D916330F-A503-4429-A340-EA04F82A9FA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="1" xr2:uid="{78B42164-E9D9-4973-93DD-29F371AD8A8A}"/>
+    <workbookView xWindow="7440" yWindow="1035" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{78B42164-E9D9-4973-93DD-29F371AD8A8A}"/>
   </bookViews>
   <sheets>
     <sheet name="ツールチップ" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="128">
   <si>
     <t>ソフトウェア名</t>
     <rPh sb="6" eb="7">
@@ -882,7 +882,140 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>注意</t>
+    <rPh sb="0" eb="2">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M201</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M202</t>
+  </si>
+  <si>
+    <t>必須項目が入力されていません。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字数が多すぎます。〇文字以内で入力してください。</t>
+    <rPh sb="0" eb="3">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇はユーザーIDの最大文字数</t>
+    <rPh sb="9" eb="11">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>モジスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M203</t>
+  </si>
+  <si>
+    <t>動画が選択されていません。</t>
+    <rPh sb="0" eb="2">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>M111</t>
+  </si>
+  <si>
+    <t>M112</t>
+  </si>
+  <si>
+    <t>パスワードが正しくありません。</t>
+    <rPh sb="6" eb="7">
+      <t>タダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２つのパスワードが一致しません。</t>
+    <rPh sb="9" eb="11">
+      <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M301</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録が完了しました。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M302</t>
+  </si>
+  <si>
+    <t>更新が完了しました。</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M303</t>
+  </si>
+  <si>
+    <t>動画がアップロードされました。</t>
+    <rPh sb="0" eb="2">
+      <t>ドウガ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1193,6 +1326,39 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1202,39 +1368,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1253,6 +1386,78 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1270,78 +1475,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1380,10 +1513,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1688,292 +1821,292 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429EB542-BC0C-481E-9D52-F74EC05414BC}">
   <dimension ref="B1:BK23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="AB11" sqref="AB11:AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="26" t="str">
+      <c r="B1" s="16" t="str">
         <f>[1]表紙!$Q$8</f>
         <v>人材管理ソフトメッセージ仕様書</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="27"/>
-      <c r="AQ1" s="27"/>
-      <c r="AR1" s="27"/>
-      <c r="AS1" s="27"/>
-      <c r="AT1" s="27"/>
-      <c r="AU1" s="27"/>
-      <c r="AV1" s="27"/>
-      <c r="AW1" s="27"/>
-      <c r="AX1" s="27"/>
-      <c r="AY1" s="27"/>
-      <c r="AZ1" s="27"/>
-      <c r="BA1" s="27"/>
-      <c r="BB1" s="27"/>
-      <c r="BC1" s="27"/>
-      <c r="BD1" s="27"/>
-      <c r="BE1" s="27"/>
-      <c r="BF1" s="27"/>
-      <c r="BG1" s="27"/>
-      <c r="BH1" s="27"/>
-      <c r="BI1" s="27"/>
-      <c r="BJ1" s="27"/>
-      <c r="BK1" s="27"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="17"/>
+      <c r="AR1" s="17"/>
+      <c r="AS1" s="17"/>
+      <c r="AT1" s="17"/>
+      <c r="AU1" s="17"/>
+      <c r="AV1" s="17"/>
+      <c r="AW1" s="17"/>
+      <c r="AX1" s="17"/>
+      <c r="AY1" s="17"/>
+      <c r="AZ1" s="17"/>
+      <c r="BA1" s="17"/>
+      <c r="BB1" s="17"/>
+      <c r="BC1" s="17"/>
+      <c r="BD1" s="17"/>
+      <c r="BE1" s="17"/>
+      <c r="BF1" s="17"/>
+      <c r="BG1" s="17"/>
+      <c r="BH1" s="17"/>
+      <c r="BI1" s="17"/>
+      <c r="BJ1" s="17"/>
+      <c r="BK1" s="17"/>
     </row>
     <row r="2" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="28" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28" t="s">
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="29" t="s">
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="AO2" s="29"/>
-      <c r="AP2" s="29"/>
-      <c r="AQ2" s="29"/>
-      <c r="AR2" s="29"/>
-      <c r="AS2" s="29"/>
-      <c r="AT2" s="28" t="s">
+      <c r="AO2" s="19"/>
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="19"/>
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="19"/>
+      <c r="AT2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="AU2" s="28"/>
-      <c r="AV2" s="28"/>
-      <c r="AW2" s="28"/>
-      <c r="AX2" s="28"/>
-      <c r="AY2" s="28"/>
-      <c r="AZ2" s="28" t="s">
+      <c r="AU2" s="18"/>
+      <c r="AV2" s="18"/>
+      <c r="AW2" s="18"/>
+      <c r="AX2" s="18"/>
+      <c r="AY2" s="18"/>
+      <c r="AZ2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="BA2" s="28"/>
-      <c r="BB2" s="28"/>
-      <c r="BC2" s="28"/>
-      <c r="BD2" s="28"/>
-      <c r="BE2" s="28"/>
-      <c r="BF2" s="28" t="s">
+      <c r="BA2" s="18"/>
+      <c r="BB2" s="18"/>
+      <c r="BC2" s="18"/>
+      <c r="BD2" s="18"/>
+      <c r="BE2" s="18"/>
+      <c r="BF2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="BG2" s="28"/>
-      <c r="BH2" s="28"/>
-      <c r="BI2" s="28"/>
-      <c r="BJ2" s="28"/>
-      <c r="BK2" s="28"/>
+      <c r="BG2" s="18"/>
+      <c r="BH2" s="18"/>
+      <c r="BI2" s="18"/>
+      <c r="BJ2" s="18"/>
+      <c r="BK2" s="18"/>
     </row>
     <row r="3" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24">
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="25">
         <v>1</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="22" t="s">
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="22"/>
-      <c r="AF3" s="22"/>
-      <c r="AG3" s="22"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="22"/>
-      <c r="AJ3" s="22"/>
-      <c r="AK3" s="22"/>
-      <c r="AL3" s="22"/>
-      <c r="AM3" s="22"/>
-      <c r="AN3" s="25"/>
-      <c r="AO3" s="22"/>
-      <c r="AP3" s="22"/>
-      <c r="AQ3" s="22"/>
-      <c r="AR3" s="22"/>
-      <c r="AS3" s="22"/>
-      <c r="AT3" s="25" t="s">
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="20"/>
+      <c r="AM3" s="20"/>
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="20"/>
+      <c r="AP3" s="20"/>
+      <c r="AQ3" s="20"/>
+      <c r="AR3" s="20"/>
+      <c r="AS3" s="20"/>
+      <c r="AT3" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AU3" s="25"/>
-      <c r="AV3" s="25"/>
-      <c r="AW3" s="25"/>
-      <c r="AX3" s="25"/>
-      <c r="AY3" s="25"/>
-      <c r="AZ3" s="22"/>
-      <c r="BA3" s="22"/>
-      <c r="BB3" s="22"/>
-      <c r="BC3" s="22"/>
-      <c r="BD3" s="22"/>
-      <c r="BE3" s="22"/>
-      <c r="BF3" s="22"/>
-      <c r="BG3" s="22"/>
-      <c r="BH3" s="22"/>
-      <c r="BI3" s="22"/>
-      <c r="BJ3" s="22"/>
-      <c r="BK3" s="22"/>
+      <c r="AU3" s="26"/>
+      <c r="AV3" s="26"/>
+      <c r="AW3" s="26"/>
+      <c r="AX3" s="26"/>
+      <c r="AY3" s="26"/>
+      <c r="AZ3" s="20"/>
+      <c r="BA3" s="20"/>
+      <c r="BB3" s="20"/>
+      <c r="BC3" s="20"/>
+      <c r="BD3" s="20"/>
+      <c r="BE3" s="20"/>
+      <c r="BF3" s="20"/>
+      <c r="BG3" s="20"/>
+      <c r="BH3" s="20"/>
+      <c r="BI3" s="20"/>
+      <c r="BJ3" s="20"/>
+      <c r="BK3" s="20"/>
     </row>
     <row r="4" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="22"/>
-      <c r="AJ4" s="22"/>
-      <c r="AK4" s="22"/>
-      <c r="AL4" s="22"/>
-      <c r="AM4" s="22"/>
-      <c r="AN4" s="22"/>
-      <c r="AO4" s="22"/>
-      <c r="AP4" s="22"/>
-      <c r="AQ4" s="22"/>
-      <c r="AR4" s="22"/>
-      <c r="AS4" s="22"/>
-      <c r="AT4" s="25"/>
-      <c r="AU4" s="25"/>
-      <c r="AV4" s="25"/>
-      <c r="AW4" s="25"/>
-      <c r="AX4" s="25"/>
-      <c r="AY4" s="25"/>
-      <c r="AZ4" s="22"/>
-      <c r="BA4" s="22"/>
-      <c r="BB4" s="22"/>
-      <c r="BC4" s="22"/>
-      <c r="BD4" s="22"/>
-      <c r="BE4" s="22"/>
-      <c r="BF4" s="22"/>
-      <c r="BG4" s="22"/>
-      <c r="BH4" s="22"/>
-      <c r="BI4" s="22"/>
-      <c r="BJ4" s="22"/>
-      <c r="BK4" s="22"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="20"/>
+      <c r="AM4" s="20"/>
+      <c r="AN4" s="20"/>
+      <c r="AO4" s="20"/>
+      <c r="AP4" s="20"/>
+      <c r="AQ4" s="20"/>
+      <c r="AR4" s="20"/>
+      <c r="AS4" s="20"/>
+      <c r="AT4" s="26"/>
+      <c r="AU4" s="26"/>
+      <c r="AV4" s="26"/>
+      <c r="AW4" s="26"/>
+      <c r="AX4" s="26"/>
+      <c r="AY4" s="26"/>
+      <c r="AZ4" s="20"/>
+      <c r="BA4" s="20"/>
+      <c r="BB4" s="20"/>
+      <c r="BC4" s="20"/>
+      <c r="BD4" s="20"/>
+      <c r="BE4" s="20"/>
+      <c r="BF4" s="20"/>
+      <c r="BG4" s="20"/>
+      <c r="BH4" s="20"/>
+      <c r="BI4" s="20"/>
+      <c r="BJ4" s="20"/>
+      <c r="BK4" s="20"/>
     </row>
     <row r="5" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3"/>
@@ -2105,510 +2238,510 @@
     </row>
     <row r="7" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="21" t="s">
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="21" t="s">
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="19" t="s">
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AG7" s="19"/>
-      <c r="AH7" s="19"/>
-      <c r="AI7" s="19"/>
-      <c r="AJ7" s="19"/>
-      <c r="AK7" s="19"/>
-      <c r="AL7" s="19"/>
-      <c r="AM7" s="19"/>
-      <c r="AN7" s="19"/>
-      <c r="AO7" s="19"/>
-      <c r="AP7" s="19"/>
-      <c r="AQ7" s="19"/>
-      <c r="AR7" s="19"/>
-      <c r="AS7" s="19"/>
-      <c r="AT7" s="19"/>
-      <c r="AU7" s="19"/>
-      <c r="AV7" s="19"/>
-      <c r="AW7" s="19"/>
-      <c r="AX7" s="19"/>
-      <c r="AY7" s="19"/>
-      <c r="AZ7" s="19"/>
-      <c r="BA7" s="19"/>
-      <c r="BB7" s="19"/>
-      <c r="BC7" s="19"/>
-      <c r="BD7" s="19"/>
-      <c r="BE7" s="19"/>
-      <c r="BF7" s="19"/>
-      <c r="BG7" s="19"/>
-      <c r="BH7" s="19"/>
-      <c r="BI7" s="19"/>
-      <c r="BJ7" s="19"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="21"/>
+      <c r="AJ7" s="21"/>
+      <c r="AK7" s="21"/>
+      <c r="AL7" s="21"/>
+      <c r="AM7" s="21"/>
+      <c r="AN7" s="21"/>
+      <c r="AO7" s="21"/>
+      <c r="AP7" s="21"/>
+      <c r="AQ7" s="21"/>
+      <c r="AR7" s="21"/>
+      <c r="AS7" s="21"/>
+      <c r="AT7" s="21"/>
+      <c r="AU7" s="21"/>
+      <c r="AV7" s="21"/>
+      <c r="AW7" s="21"/>
+      <c r="AX7" s="21"/>
+      <c r="AY7" s="21"/>
+      <c r="AZ7" s="21"/>
+      <c r="BA7" s="21"/>
+      <c r="BB7" s="21"/>
+      <c r="BC7" s="21"/>
+      <c r="BD7" s="21"/>
+      <c r="BE7" s="21"/>
+      <c r="BF7" s="21"/>
+      <c r="BG7" s="21"/>
+      <c r="BH7" s="21"/>
+      <c r="BI7" s="21"/>
+      <c r="BJ7" s="21"/>
       <c r="BK7" s="2"/>
     </row>
     <row r="8" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="19"/>
-      <c r="AH8" s="19"/>
-      <c r="AI8" s="19"/>
-      <c r="AJ8" s="19"/>
-      <c r="AK8" s="19"/>
-      <c r="AL8" s="19"/>
-      <c r="AM8" s="19"/>
-      <c r="AN8" s="19"/>
-      <c r="AO8" s="19"/>
-      <c r="AP8" s="19"/>
-      <c r="AQ8" s="19"/>
-      <c r="AR8" s="19"/>
-      <c r="AS8" s="19"/>
-      <c r="AT8" s="19"/>
-      <c r="AU8" s="19"/>
-      <c r="AV8" s="19"/>
-      <c r="AW8" s="19"/>
-      <c r="AX8" s="19"/>
-      <c r="AY8" s="19"/>
-      <c r="AZ8" s="19"/>
-      <c r="BA8" s="19"/>
-      <c r="BB8" s="19"/>
-      <c r="BC8" s="19"/>
-      <c r="BD8" s="19"/>
-      <c r="BE8" s="19"/>
-      <c r="BF8" s="19"/>
-      <c r="BG8" s="19"/>
-      <c r="BH8" s="19"/>
-      <c r="BI8" s="19"/>
-      <c r="BJ8" s="19"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="21"/>
+      <c r="AJ8" s="21"/>
+      <c r="AK8" s="21"/>
+      <c r="AL8" s="21"/>
+      <c r="AM8" s="21"/>
+      <c r="AN8" s="21"/>
+      <c r="AO8" s="21"/>
+      <c r="AP8" s="21"/>
+      <c r="AQ8" s="21"/>
+      <c r="AR8" s="21"/>
+      <c r="AS8" s="21"/>
+      <c r="AT8" s="21"/>
+      <c r="AU8" s="21"/>
+      <c r="AV8" s="21"/>
+      <c r="AW8" s="21"/>
+      <c r="AX8" s="21"/>
+      <c r="AY8" s="21"/>
+      <c r="AZ8" s="21"/>
+      <c r="BA8" s="21"/>
+      <c r="BB8" s="21"/>
+      <c r="BC8" s="21"/>
+      <c r="BD8" s="21"/>
+      <c r="BE8" s="21"/>
+      <c r="BF8" s="21"/>
+      <c r="BG8" s="21"/>
+      <c r="BH8" s="21"/>
+      <c r="BI8" s="21"/>
+      <c r="BJ8" s="21"/>
       <c r="BK8" s="2"/>
     </row>
     <row r="9" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17" t="s">
+      <c r="D9" s="27"/>
+      <c r="E9" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="16" t="s">
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16" t="s">
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16"/>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="18" t="s">
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AG9" s="18"/>
-      <c r="AH9" s="18"/>
-      <c r="AI9" s="18"/>
-      <c r="AJ9" s="18"/>
-      <c r="AK9" s="18"/>
-      <c r="AL9" s="18"/>
-      <c r="AM9" s="18"/>
-      <c r="AN9" s="18"/>
-      <c r="AO9" s="18"/>
-      <c r="AP9" s="18"/>
-      <c r="AQ9" s="18"/>
-      <c r="AR9" s="18"/>
-      <c r="AS9" s="18"/>
-      <c r="AT9" s="18"/>
-      <c r="AU9" s="18"/>
-      <c r="AV9" s="18"/>
-      <c r="AW9" s="18"/>
-      <c r="AX9" s="18"/>
-      <c r="AY9" s="18"/>
-      <c r="AZ9" s="18"/>
-      <c r="BA9" s="18"/>
-      <c r="BB9" s="18"/>
-      <c r="BC9" s="18"/>
-      <c r="BD9" s="18"/>
-      <c r="BE9" s="18"/>
-      <c r="BF9" s="18"/>
-      <c r="BG9" s="18"/>
-      <c r="BH9" s="18"/>
-      <c r="BI9" s="18"/>
-      <c r="BJ9" s="18"/>
+      <c r="AG9" s="29"/>
+      <c r="AH9" s="29"/>
+      <c r="AI9" s="29"/>
+      <c r="AJ9" s="29"/>
+      <c r="AK9" s="29"/>
+      <c r="AL9" s="29"/>
+      <c r="AM9" s="29"/>
+      <c r="AN9" s="29"/>
+      <c r="AO9" s="29"/>
+      <c r="AP9" s="29"/>
+      <c r="AQ9" s="29"/>
+      <c r="AR9" s="29"/>
+      <c r="AS9" s="29"/>
+      <c r="AT9" s="29"/>
+      <c r="AU9" s="29"/>
+      <c r="AV9" s="29"/>
+      <c r="AW9" s="29"/>
+      <c r="AX9" s="29"/>
+      <c r="AY9" s="29"/>
+      <c r="AZ9" s="29"/>
+      <c r="BA9" s="29"/>
+      <c r="BB9" s="29"/>
+      <c r="BC9" s="29"/>
+      <c r="BD9" s="29"/>
+      <c r="BE9" s="29"/>
+      <c r="BF9" s="29"/>
+      <c r="BG9" s="29"/>
+      <c r="BH9" s="29"/>
+      <c r="BI9" s="29"/>
+      <c r="BJ9" s="29"/>
       <c r="BK9" s="2"/>
     </row>
     <row r="10" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17" t="s">
+      <c r="D10" s="27"/>
+      <c r="E10" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="16" t="s">
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16" t="s">
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="18" t="s">
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="AG10" s="18"/>
-      <c r="AH10" s="18"/>
-      <c r="AI10" s="18"/>
-      <c r="AJ10" s="18"/>
-      <c r="AK10" s="18"/>
-      <c r="AL10" s="18"/>
-      <c r="AM10" s="18"/>
-      <c r="AN10" s="18"/>
-      <c r="AO10" s="18"/>
-      <c r="AP10" s="18"/>
-      <c r="AQ10" s="18"/>
-      <c r="AR10" s="18"/>
-      <c r="AS10" s="18"/>
-      <c r="AT10" s="18"/>
-      <c r="AU10" s="18"/>
-      <c r="AV10" s="18"/>
-      <c r="AW10" s="18"/>
-      <c r="AX10" s="18"/>
-      <c r="AY10" s="18"/>
-      <c r="AZ10" s="18"/>
-      <c r="BA10" s="18"/>
-      <c r="BB10" s="18"/>
-      <c r="BC10" s="18"/>
-      <c r="BD10" s="18"/>
-      <c r="BE10" s="18"/>
-      <c r="BF10" s="18"/>
-      <c r="BG10" s="18"/>
-      <c r="BH10" s="18"/>
-      <c r="BI10" s="18"/>
-      <c r="BJ10" s="18"/>
+      <c r="AG10" s="29"/>
+      <c r="AH10" s="29"/>
+      <c r="AI10" s="29"/>
+      <c r="AJ10" s="29"/>
+      <c r="AK10" s="29"/>
+      <c r="AL10" s="29"/>
+      <c r="AM10" s="29"/>
+      <c r="AN10" s="29"/>
+      <c r="AO10" s="29"/>
+      <c r="AP10" s="29"/>
+      <c r="AQ10" s="29"/>
+      <c r="AR10" s="29"/>
+      <c r="AS10" s="29"/>
+      <c r="AT10" s="29"/>
+      <c r="AU10" s="29"/>
+      <c r="AV10" s="29"/>
+      <c r="AW10" s="29"/>
+      <c r="AX10" s="29"/>
+      <c r="AY10" s="29"/>
+      <c r="AZ10" s="29"/>
+      <c r="BA10" s="29"/>
+      <c r="BB10" s="29"/>
+      <c r="BC10" s="29"/>
+      <c r="BD10" s="29"/>
+      <c r="BE10" s="29"/>
+      <c r="BF10" s="29"/>
+      <c r="BG10" s="29"/>
+      <c r="BH10" s="29"/>
+      <c r="BI10" s="29"/>
+      <c r="BJ10" s="29"/>
       <c r="BK10" s="2"/>
     </row>
     <row r="11" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17" t="s">
+      <c r="D11" s="27"/>
+      <c r="E11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="16" t="s">
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16" t="s">
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="16"/>
-      <c r="AE11" s="16"/>
-      <c r="AF11" s="18" t="s">
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="AG11" s="18"/>
-      <c r="AH11" s="18"/>
-      <c r="AI11" s="18"/>
-      <c r="AJ11" s="18"/>
-      <c r="AK11" s="18"/>
-      <c r="AL11" s="18"/>
-      <c r="AM11" s="18"/>
-      <c r="AN11" s="18"/>
-      <c r="AO11" s="18"/>
-      <c r="AP11" s="18"/>
-      <c r="AQ11" s="18"/>
-      <c r="AR11" s="18"/>
-      <c r="AS11" s="18"/>
-      <c r="AT11" s="18"/>
-      <c r="AU11" s="18"/>
-      <c r="AV11" s="18"/>
-      <c r="AW11" s="18"/>
-      <c r="AX11" s="18"/>
-      <c r="AY11" s="18"/>
-      <c r="AZ11" s="18"/>
-      <c r="BA11" s="18"/>
-      <c r="BB11" s="18"/>
-      <c r="BC11" s="18"/>
-      <c r="BD11" s="18"/>
-      <c r="BE11" s="18"/>
-      <c r="BF11" s="18"/>
-      <c r="BG11" s="18"/>
-      <c r="BH11" s="18"/>
-      <c r="BI11" s="18"/>
-      <c r="BJ11" s="18"/>
+      <c r="AG11" s="29"/>
+      <c r="AH11" s="29"/>
+      <c r="AI11" s="29"/>
+      <c r="AJ11" s="29"/>
+      <c r="AK11" s="29"/>
+      <c r="AL11" s="29"/>
+      <c r="AM11" s="29"/>
+      <c r="AN11" s="29"/>
+      <c r="AO11" s="29"/>
+      <c r="AP11" s="29"/>
+      <c r="AQ11" s="29"/>
+      <c r="AR11" s="29"/>
+      <c r="AS11" s="29"/>
+      <c r="AT11" s="29"/>
+      <c r="AU11" s="29"/>
+      <c r="AV11" s="29"/>
+      <c r="AW11" s="29"/>
+      <c r="AX11" s="29"/>
+      <c r="AY11" s="29"/>
+      <c r="AZ11" s="29"/>
+      <c r="BA11" s="29"/>
+      <c r="BB11" s="29"/>
+      <c r="BC11" s="29"/>
+      <c r="BD11" s="29"/>
+      <c r="BE11" s="29"/>
+      <c r="BF11" s="29"/>
+      <c r="BG11" s="29"/>
+      <c r="BH11" s="29"/>
+      <c r="BI11" s="29"/>
+      <c r="BJ11" s="29"/>
       <c r="BK11" s="2"/>
     </row>
     <row r="12" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17" t="s">
+      <c r="D12" s="27"/>
+      <c r="E12" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="16" t="s">
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16" t="s">
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="16"/>
-      <c r="AE12" s="16"/>
-      <c r="AF12" s="18" t="s">
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="AG12" s="18"/>
-      <c r="AH12" s="18"/>
-      <c r="AI12" s="18"/>
-      <c r="AJ12" s="18"/>
-      <c r="AK12" s="18"/>
-      <c r="AL12" s="18"/>
-      <c r="AM12" s="18"/>
-      <c r="AN12" s="18"/>
-      <c r="AO12" s="18"/>
-      <c r="AP12" s="18"/>
-      <c r="AQ12" s="18"/>
-      <c r="AR12" s="18"/>
-      <c r="AS12" s="18"/>
-      <c r="AT12" s="18"/>
-      <c r="AU12" s="18"/>
-      <c r="AV12" s="18"/>
-      <c r="AW12" s="18"/>
-      <c r="AX12" s="18"/>
-      <c r="AY12" s="18"/>
-      <c r="AZ12" s="18"/>
-      <c r="BA12" s="18"/>
-      <c r="BB12" s="18"/>
-      <c r="BC12" s="18"/>
-      <c r="BD12" s="18"/>
-      <c r="BE12" s="18"/>
-      <c r="BF12" s="18"/>
-      <c r="BG12" s="18"/>
-      <c r="BH12" s="18"/>
-      <c r="BI12" s="18"/>
-      <c r="BJ12" s="18"/>
+      <c r="AG12" s="29"/>
+      <c r="AH12" s="29"/>
+      <c r="AI12" s="29"/>
+      <c r="AJ12" s="29"/>
+      <c r="AK12" s="29"/>
+      <c r="AL12" s="29"/>
+      <c r="AM12" s="29"/>
+      <c r="AN12" s="29"/>
+      <c r="AO12" s="29"/>
+      <c r="AP12" s="29"/>
+      <c r="AQ12" s="29"/>
+      <c r="AR12" s="29"/>
+      <c r="AS12" s="29"/>
+      <c r="AT12" s="29"/>
+      <c r="AU12" s="29"/>
+      <c r="AV12" s="29"/>
+      <c r="AW12" s="29"/>
+      <c r="AX12" s="29"/>
+      <c r="AY12" s="29"/>
+      <c r="AZ12" s="29"/>
+      <c r="BA12" s="29"/>
+      <c r="BB12" s="29"/>
+      <c r="BC12" s="29"/>
+      <c r="BD12" s="29"/>
+      <c r="BE12" s="29"/>
+      <c r="BF12" s="29"/>
+      <c r="BG12" s="29"/>
+      <c r="BH12" s="29"/>
+      <c r="BI12" s="29"/>
+      <c r="BJ12" s="29"/>
       <c r="BK12" s="2"/>
     </row>
     <row r="13" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17" t="s">
+      <c r="D13" s="27"/>
+      <c r="E13" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="16" t="s">
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16" t="s">
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="16"/>
-      <c r="AE13" s="16"/>
-      <c r="AF13" s="18" t="s">
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="27"/>
+      <c r="AF13" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="AG13" s="18"/>
-      <c r="AH13" s="18"/>
-      <c r="AI13" s="18"/>
-      <c r="AJ13" s="18"/>
-      <c r="AK13" s="18"/>
-      <c r="AL13" s="18"/>
-      <c r="AM13" s="18"/>
-      <c r="AN13" s="18"/>
-      <c r="AO13" s="18"/>
-      <c r="AP13" s="18"/>
-      <c r="AQ13" s="18"/>
-      <c r="AR13" s="18"/>
-      <c r="AS13" s="18"/>
-      <c r="AT13" s="18"/>
-      <c r="AU13" s="18"/>
-      <c r="AV13" s="18"/>
-      <c r="AW13" s="18"/>
-      <c r="AX13" s="18"/>
-      <c r="AY13" s="18"/>
-      <c r="AZ13" s="18"/>
-      <c r="BA13" s="18"/>
-      <c r="BB13" s="18"/>
-      <c r="BC13" s="18"/>
-      <c r="BD13" s="18"/>
-      <c r="BE13" s="18"/>
-      <c r="BF13" s="18"/>
-      <c r="BG13" s="18"/>
-      <c r="BH13" s="18"/>
-      <c r="BI13" s="18"/>
-      <c r="BJ13" s="18"/>
+      <c r="AG13" s="29"/>
+      <c r="AH13" s="29"/>
+      <c r="AI13" s="29"/>
+      <c r="AJ13" s="29"/>
+      <c r="AK13" s="29"/>
+      <c r="AL13" s="29"/>
+      <c r="AM13" s="29"/>
+      <c r="AN13" s="29"/>
+      <c r="AO13" s="29"/>
+      <c r="AP13" s="29"/>
+      <c r="AQ13" s="29"/>
+      <c r="AR13" s="29"/>
+      <c r="AS13" s="29"/>
+      <c r="AT13" s="29"/>
+      <c r="AU13" s="29"/>
+      <c r="AV13" s="29"/>
+      <c r="AW13" s="29"/>
+      <c r="AX13" s="29"/>
+      <c r="AY13" s="29"/>
+      <c r="AZ13" s="29"/>
+      <c r="BA13" s="29"/>
+      <c r="BB13" s="29"/>
+      <c r="BC13" s="29"/>
+      <c r="BD13" s="29"/>
+      <c r="BE13" s="29"/>
+      <c r="BF13" s="29"/>
+      <c r="BG13" s="29"/>
+      <c r="BH13" s="29"/>
+      <c r="BI13" s="29"/>
+      <c r="BJ13" s="29"/>
       <c r="BK13" s="2"/>
     </row>
     <row r="14" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2743,510 +2876,510 @@
     </row>
     <row r="16" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20" t="s">
+      <c r="D16" s="21"/>
+      <c r="E16" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="21" t="s">
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="21"/>
-      <c r="AB16" s="21" t="s">
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AC16" s="19"/>
-      <c r="AD16" s="19"/>
-      <c r="AE16" s="19"/>
-      <c r="AF16" s="19" t="s">
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AG16" s="19"/>
-      <c r="AH16" s="19"/>
-      <c r="AI16" s="19"/>
-      <c r="AJ16" s="19"/>
-      <c r="AK16" s="19"/>
-      <c r="AL16" s="19"/>
-      <c r="AM16" s="19"/>
-      <c r="AN16" s="19"/>
-      <c r="AO16" s="19"/>
-      <c r="AP16" s="19"/>
-      <c r="AQ16" s="19"/>
-      <c r="AR16" s="19"/>
-      <c r="AS16" s="19"/>
-      <c r="AT16" s="19"/>
-      <c r="AU16" s="19"/>
-      <c r="AV16" s="19"/>
-      <c r="AW16" s="19"/>
-      <c r="AX16" s="19"/>
-      <c r="AY16" s="19"/>
-      <c r="AZ16" s="19"/>
-      <c r="BA16" s="19"/>
-      <c r="BB16" s="19"/>
-      <c r="BC16" s="19"/>
-      <c r="BD16" s="19"/>
-      <c r="BE16" s="19"/>
-      <c r="BF16" s="19"/>
-      <c r="BG16" s="19"/>
-      <c r="BH16" s="19"/>
-      <c r="BI16" s="19"/>
-      <c r="BJ16" s="19"/>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="21"/>
+      <c r="AI16" s="21"/>
+      <c r="AJ16" s="21"/>
+      <c r="AK16" s="21"/>
+      <c r="AL16" s="21"/>
+      <c r="AM16" s="21"/>
+      <c r="AN16" s="21"/>
+      <c r="AO16" s="21"/>
+      <c r="AP16" s="21"/>
+      <c r="AQ16" s="21"/>
+      <c r="AR16" s="21"/>
+      <c r="AS16" s="21"/>
+      <c r="AT16" s="21"/>
+      <c r="AU16" s="21"/>
+      <c r="AV16" s="21"/>
+      <c r="AW16" s="21"/>
+      <c r="AX16" s="21"/>
+      <c r="AY16" s="21"/>
+      <c r="AZ16" s="21"/>
+      <c r="BA16" s="21"/>
+      <c r="BB16" s="21"/>
+      <c r="BC16" s="21"/>
+      <c r="BD16" s="21"/>
+      <c r="BE16" s="21"/>
+      <c r="BF16" s="21"/>
+      <c r="BG16" s="21"/>
+      <c r="BH16" s="21"/>
+      <c r="BI16" s="21"/>
+      <c r="BJ16" s="21"/>
       <c r="BK16" s="2"/>
     </row>
     <row r="17" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="21"/>
-      <c r="Z17" s="21"/>
-      <c r="AA17" s="21"/>
-      <c r="AB17" s="19"/>
-      <c r="AC17" s="19"/>
-      <c r="AD17" s="19"/>
-      <c r="AE17" s="19"/>
-      <c r="AF17" s="19"/>
-      <c r="AG17" s="19"/>
-      <c r="AH17" s="19"/>
-      <c r="AI17" s="19"/>
-      <c r="AJ17" s="19"/>
-      <c r="AK17" s="19"/>
-      <c r="AL17" s="19"/>
-      <c r="AM17" s="19"/>
-      <c r="AN17" s="19"/>
-      <c r="AO17" s="19"/>
-      <c r="AP17" s="19"/>
-      <c r="AQ17" s="19"/>
-      <c r="AR17" s="19"/>
-      <c r="AS17" s="19"/>
-      <c r="AT17" s="19"/>
-      <c r="AU17" s="19"/>
-      <c r="AV17" s="19"/>
-      <c r="AW17" s="19"/>
-      <c r="AX17" s="19"/>
-      <c r="AY17" s="19"/>
-      <c r="AZ17" s="19"/>
-      <c r="BA17" s="19"/>
-      <c r="BB17" s="19"/>
-      <c r="BC17" s="19"/>
-      <c r="BD17" s="19"/>
-      <c r="BE17" s="19"/>
-      <c r="BF17" s="19"/>
-      <c r="BG17" s="19"/>
-      <c r="BH17" s="19"/>
-      <c r="BI17" s="19"/>
-      <c r="BJ17" s="19"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="21"/>
+      <c r="AJ17" s="21"/>
+      <c r="AK17" s="21"/>
+      <c r="AL17" s="21"/>
+      <c r="AM17" s="21"/>
+      <c r="AN17" s="21"/>
+      <c r="AO17" s="21"/>
+      <c r="AP17" s="21"/>
+      <c r="AQ17" s="21"/>
+      <c r="AR17" s="21"/>
+      <c r="AS17" s="21"/>
+      <c r="AT17" s="21"/>
+      <c r="AU17" s="21"/>
+      <c r="AV17" s="21"/>
+      <c r="AW17" s="21"/>
+      <c r="AX17" s="21"/>
+      <c r="AY17" s="21"/>
+      <c r="AZ17" s="21"/>
+      <c r="BA17" s="21"/>
+      <c r="BB17" s="21"/>
+      <c r="BC17" s="21"/>
+      <c r="BD17" s="21"/>
+      <c r="BE17" s="21"/>
+      <c r="BF17" s="21"/>
+      <c r="BG17" s="21"/>
+      <c r="BH17" s="21"/>
+      <c r="BI17" s="21"/>
+      <c r="BJ17" s="21"/>
       <c r="BK17" s="2"/>
     </row>
     <row r="18" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17" t="s">
+      <c r="D18" s="27"/>
+      <c r="E18" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="16" t="s">
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16" t="s">
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="16"/>
-      <c r="AF18" s="18" t="s">
+      <c r="AC18" s="27"/>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="27"/>
+      <c r="AF18" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="AG18" s="18"/>
-      <c r="AH18" s="18"/>
-      <c r="AI18" s="18"/>
-      <c r="AJ18" s="18"/>
-      <c r="AK18" s="18"/>
-      <c r="AL18" s="18"/>
-      <c r="AM18" s="18"/>
-      <c r="AN18" s="18"/>
-      <c r="AO18" s="18"/>
-      <c r="AP18" s="18"/>
-      <c r="AQ18" s="18"/>
-      <c r="AR18" s="18"/>
-      <c r="AS18" s="18"/>
-      <c r="AT18" s="18"/>
-      <c r="AU18" s="18"/>
-      <c r="AV18" s="18"/>
-      <c r="AW18" s="18"/>
-      <c r="AX18" s="18"/>
-      <c r="AY18" s="18"/>
-      <c r="AZ18" s="18"/>
-      <c r="BA18" s="18"/>
-      <c r="BB18" s="18"/>
-      <c r="BC18" s="18"/>
-      <c r="BD18" s="18"/>
-      <c r="BE18" s="18"/>
-      <c r="BF18" s="18"/>
-      <c r="BG18" s="18"/>
-      <c r="BH18" s="18"/>
-      <c r="BI18" s="18"/>
-      <c r="BJ18" s="18"/>
+      <c r="AG18" s="29"/>
+      <c r="AH18" s="29"/>
+      <c r="AI18" s="29"/>
+      <c r="AJ18" s="29"/>
+      <c r="AK18" s="29"/>
+      <c r="AL18" s="29"/>
+      <c r="AM18" s="29"/>
+      <c r="AN18" s="29"/>
+      <c r="AO18" s="29"/>
+      <c r="AP18" s="29"/>
+      <c r="AQ18" s="29"/>
+      <c r="AR18" s="29"/>
+      <c r="AS18" s="29"/>
+      <c r="AT18" s="29"/>
+      <c r="AU18" s="29"/>
+      <c r="AV18" s="29"/>
+      <c r="AW18" s="29"/>
+      <c r="AX18" s="29"/>
+      <c r="AY18" s="29"/>
+      <c r="AZ18" s="29"/>
+      <c r="BA18" s="29"/>
+      <c r="BB18" s="29"/>
+      <c r="BC18" s="29"/>
+      <c r="BD18" s="29"/>
+      <c r="BE18" s="29"/>
+      <c r="BF18" s="29"/>
+      <c r="BG18" s="29"/>
+      <c r="BH18" s="29"/>
+      <c r="BI18" s="29"/>
+      <c r="BJ18" s="29"/>
       <c r="BK18" s="2"/>
     </row>
     <row r="19" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17" t="s">
+      <c r="D19" s="27"/>
+      <c r="E19" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="16" t="s">
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16" t="s">
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AC19" s="16"/>
-      <c r="AD19" s="16"/>
-      <c r="AE19" s="16"/>
-      <c r="AF19" s="18" t="s">
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="AG19" s="18"/>
-      <c r="AH19" s="18"/>
-      <c r="AI19" s="18"/>
-      <c r="AJ19" s="18"/>
-      <c r="AK19" s="18"/>
-      <c r="AL19" s="18"/>
-      <c r="AM19" s="18"/>
-      <c r="AN19" s="18"/>
-      <c r="AO19" s="18"/>
-      <c r="AP19" s="18"/>
-      <c r="AQ19" s="18"/>
-      <c r="AR19" s="18"/>
-      <c r="AS19" s="18"/>
-      <c r="AT19" s="18"/>
-      <c r="AU19" s="18"/>
-      <c r="AV19" s="18"/>
-      <c r="AW19" s="18"/>
-      <c r="AX19" s="18"/>
-      <c r="AY19" s="18"/>
-      <c r="AZ19" s="18"/>
-      <c r="BA19" s="18"/>
-      <c r="BB19" s="18"/>
-      <c r="BC19" s="18"/>
-      <c r="BD19" s="18"/>
-      <c r="BE19" s="18"/>
-      <c r="BF19" s="18"/>
-      <c r="BG19" s="18"/>
-      <c r="BH19" s="18"/>
-      <c r="BI19" s="18"/>
-      <c r="BJ19" s="18"/>
+      <c r="AG19" s="29"/>
+      <c r="AH19" s="29"/>
+      <c r="AI19" s="29"/>
+      <c r="AJ19" s="29"/>
+      <c r="AK19" s="29"/>
+      <c r="AL19" s="29"/>
+      <c r="AM19" s="29"/>
+      <c r="AN19" s="29"/>
+      <c r="AO19" s="29"/>
+      <c r="AP19" s="29"/>
+      <c r="AQ19" s="29"/>
+      <c r="AR19" s="29"/>
+      <c r="AS19" s="29"/>
+      <c r="AT19" s="29"/>
+      <c r="AU19" s="29"/>
+      <c r="AV19" s="29"/>
+      <c r="AW19" s="29"/>
+      <c r="AX19" s="29"/>
+      <c r="AY19" s="29"/>
+      <c r="AZ19" s="29"/>
+      <c r="BA19" s="29"/>
+      <c r="BB19" s="29"/>
+      <c r="BC19" s="29"/>
+      <c r="BD19" s="29"/>
+      <c r="BE19" s="29"/>
+      <c r="BF19" s="29"/>
+      <c r="BG19" s="29"/>
+      <c r="BH19" s="29"/>
+      <c r="BI19" s="29"/>
+      <c r="BJ19" s="29"/>
       <c r="BK19" s="2"/>
     </row>
     <row r="20" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17" t="s">
+      <c r="D20" s="27"/>
+      <c r="E20" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="16" t="s">
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="16" t="s">
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="AC20" s="16"/>
-      <c r="AD20" s="16"/>
-      <c r="AE20" s="16"/>
-      <c r="AF20" s="18" t="s">
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="AG20" s="18"/>
-      <c r="AH20" s="18"/>
-      <c r="AI20" s="18"/>
-      <c r="AJ20" s="18"/>
-      <c r="AK20" s="18"/>
-      <c r="AL20" s="18"/>
-      <c r="AM20" s="18"/>
-      <c r="AN20" s="18"/>
-      <c r="AO20" s="18"/>
-      <c r="AP20" s="18"/>
-      <c r="AQ20" s="18"/>
-      <c r="AR20" s="18"/>
-      <c r="AS20" s="18"/>
-      <c r="AT20" s="18"/>
-      <c r="AU20" s="18"/>
-      <c r="AV20" s="18"/>
-      <c r="AW20" s="18"/>
-      <c r="AX20" s="18"/>
-      <c r="AY20" s="18"/>
-      <c r="AZ20" s="18"/>
-      <c r="BA20" s="18"/>
-      <c r="BB20" s="18"/>
-      <c r="BC20" s="18"/>
-      <c r="BD20" s="18"/>
-      <c r="BE20" s="18"/>
-      <c r="BF20" s="18"/>
-      <c r="BG20" s="18"/>
-      <c r="BH20" s="18"/>
-      <c r="BI20" s="18"/>
-      <c r="BJ20" s="18"/>
+      <c r="AG20" s="29"/>
+      <c r="AH20" s="29"/>
+      <c r="AI20" s="29"/>
+      <c r="AJ20" s="29"/>
+      <c r="AK20" s="29"/>
+      <c r="AL20" s="29"/>
+      <c r="AM20" s="29"/>
+      <c r="AN20" s="29"/>
+      <c r="AO20" s="29"/>
+      <c r="AP20" s="29"/>
+      <c r="AQ20" s="29"/>
+      <c r="AR20" s="29"/>
+      <c r="AS20" s="29"/>
+      <c r="AT20" s="29"/>
+      <c r="AU20" s="29"/>
+      <c r="AV20" s="29"/>
+      <c r="AW20" s="29"/>
+      <c r="AX20" s="29"/>
+      <c r="AY20" s="29"/>
+      <c r="AZ20" s="29"/>
+      <c r="BA20" s="29"/>
+      <c r="BB20" s="29"/>
+      <c r="BC20" s="29"/>
+      <c r="BD20" s="29"/>
+      <c r="BE20" s="29"/>
+      <c r="BF20" s="29"/>
+      <c r="BG20" s="29"/>
+      <c r="BH20" s="29"/>
+      <c r="BI20" s="29"/>
+      <c r="BJ20" s="29"/>
       <c r="BK20" s="2"/>
     </row>
     <row r="21" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17" t="s">
+      <c r="D21" s="27"/>
+      <c r="E21" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="16" t="s">
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="16"/>
-      <c r="AB21" s="16" t="s">
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="AC21" s="16"/>
-      <c r="AD21" s="16"/>
-      <c r="AE21" s="16"/>
-      <c r="AF21" s="18" t="s">
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AG21" s="18"/>
-      <c r="AH21" s="18"/>
-      <c r="AI21" s="18"/>
-      <c r="AJ21" s="18"/>
-      <c r="AK21" s="18"/>
-      <c r="AL21" s="18"/>
-      <c r="AM21" s="18"/>
-      <c r="AN21" s="18"/>
-      <c r="AO21" s="18"/>
-      <c r="AP21" s="18"/>
-      <c r="AQ21" s="18"/>
-      <c r="AR21" s="18"/>
-      <c r="AS21" s="18"/>
-      <c r="AT21" s="18"/>
-      <c r="AU21" s="18"/>
-      <c r="AV21" s="18"/>
-      <c r="AW21" s="18"/>
-      <c r="AX21" s="18"/>
-      <c r="AY21" s="18"/>
-      <c r="AZ21" s="18"/>
-      <c r="BA21" s="18"/>
-      <c r="BB21" s="18"/>
-      <c r="BC21" s="18"/>
-      <c r="BD21" s="18"/>
-      <c r="BE21" s="18"/>
-      <c r="BF21" s="18"/>
-      <c r="BG21" s="18"/>
-      <c r="BH21" s="18"/>
-      <c r="BI21" s="18"/>
-      <c r="BJ21" s="18"/>
+      <c r="AG21" s="29"/>
+      <c r="AH21" s="29"/>
+      <c r="AI21" s="29"/>
+      <c r="AJ21" s="29"/>
+      <c r="AK21" s="29"/>
+      <c r="AL21" s="29"/>
+      <c r="AM21" s="29"/>
+      <c r="AN21" s="29"/>
+      <c r="AO21" s="29"/>
+      <c r="AP21" s="29"/>
+      <c r="AQ21" s="29"/>
+      <c r="AR21" s="29"/>
+      <c r="AS21" s="29"/>
+      <c r="AT21" s="29"/>
+      <c r="AU21" s="29"/>
+      <c r="AV21" s="29"/>
+      <c r="AW21" s="29"/>
+      <c r="AX21" s="29"/>
+      <c r="AY21" s="29"/>
+      <c r="AZ21" s="29"/>
+      <c r="BA21" s="29"/>
+      <c r="BB21" s="29"/>
+      <c r="BC21" s="29"/>
+      <c r="BD21" s="29"/>
+      <c r="BE21" s="29"/>
+      <c r="BF21" s="29"/>
+      <c r="BG21" s="29"/>
+      <c r="BH21" s="29"/>
+      <c r="BI21" s="29"/>
+      <c r="BJ21" s="29"/>
       <c r="BK21" s="2"/>
     </row>
     <row r="22" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17" t="s">
+      <c r="D22" s="27"/>
+      <c r="E22" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="16" t="s">
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="Z22" s="16"/>
-      <c r="AA22" s="16"/>
-      <c r="AB22" s="16" t="s">
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AC22" s="16"/>
-      <c r="AD22" s="16"/>
-      <c r="AE22" s="16"/>
-      <c r="AF22" s="18" t="s">
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AG22" s="18"/>
-      <c r="AH22" s="18"/>
-      <c r="AI22" s="18"/>
-      <c r="AJ22" s="18"/>
-      <c r="AK22" s="18"/>
-      <c r="AL22" s="18"/>
-      <c r="AM22" s="18"/>
-      <c r="AN22" s="18"/>
-      <c r="AO22" s="18"/>
-      <c r="AP22" s="18"/>
-      <c r="AQ22" s="18"/>
-      <c r="AR22" s="18"/>
-      <c r="AS22" s="18"/>
-      <c r="AT22" s="18"/>
-      <c r="AU22" s="18"/>
-      <c r="AV22" s="18"/>
-      <c r="AW22" s="18"/>
-      <c r="AX22" s="18"/>
-      <c r="AY22" s="18"/>
-      <c r="AZ22" s="18"/>
-      <c r="BA22" s="18"/>
-      <c r="BB22" s="18"/>
-      <c r="BC22" s="18"/>
-      <c r="BD22" s="18"/>
-      <c r="BE22" s="18"/>
-      <c r="BF22" s="18"/>
-      <c r="BG22" s="18"/>
-      <c r="BH22" s="18"/>
-      <c r="BI22" s="18"/>
-      <c r="BJ22" s="18"/>
+      <c r="AG22" s="29"/>
+      <c r="AH22" s="29"/>
+      <c r="AI22" s="29"/>
+      <c r="AJ22" s="29"/>
+      <c r="AK22" s="29"/>
+      <c r="AL22" s="29"/>
+      <c r="AM22" s="29"/>
+      <c r="AN22" s="29"/>
+      <c r="AO22" s="29"/>
+      <c r="AP22" s="29"/>
+      <c r="AQ22" s="29"/>
+      <c r="AR22" s="29"/>
+      <c r="AS22" s="29"/>
+      <c r="AT22" s="29"/>
+      <c r="AU22" s="29"/>
+      <c r="AV22" s="29"/>
+      <c r="AW22" s="29"/>
+      <c r="AX22" s="29"/>
+      <c r="AY22" s="29"/>
+      <c r="AZ22" s="29"/>
+      <c r="BA22" s="29"/>
+      <c r="BB22" s="29"/>
+      <c r="BC22" s="29"/>
+      <c r="BD22" s="29"/>
+      <c r="BE22" s="29"/>
+      <c r="BF22" s="29"/>
+      <c r="BG22" s="29"/>
+      <c r="BH22" s="29"/>
+      <c r="BI22" s="29"/>
+      <c r="BJ22" s="29"/>
       <c r="BK22" s="2"/>
     </row>
     <row r="23" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3315,14 +3448,61 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B1:BK1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="Q2:AM2"/>
-    <mergeCell ref="AN2:AS2"/>
-    <mergeCell ref="AT2:AY2"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="BF2:BK2"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="AB22:AE22"/>
+    <mergeCell ref="AF22:BJ22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AB20:AE20"/>
+    <mergeCell ref="AF20:BJ20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AB21:AE21"/>
+    <mergeCell ref="AF21:BJ21"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB18:AE18"/>
+    <mergeCell ref="AF18:BJ18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="AB19:AE19"/>
+    <mergeCell ref="AF19:BJ19"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="AF13:BJ13"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:X17"/>
+    <mergeCell ref="Y16:AA17"/>
+    <mergeCell ref="AB16:AE17"/>
+    <mergeCell ref="AF16:BJ17"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="AB11:AE11"/>
+    <mergeCell ref="AF11:BJ11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="AF12:BJ12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="AB9:AE9"/>
+    <mergeCell ref="AF9:BJ9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="AF10:BJ10"/>
     <mergeCell ref="BF3:BK4"/>
     <mergeCell ref="C7:D8"/>
     <mergeCell ref="E7:X8"/>
@@ -3335,495 +3515,449 @@
     <mergeCell ref="AN3:AS4"/>
     <mergeCell ref="AT3:AY4"/>
     <mergeCell ref="AZ3:BE4"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="AF10:BJ10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="AB9:AE9"/>
-    <mergeCell ref="AF9:BJ9"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="AB12:AE12"/>
-    <mergeCell ref="AF12:BJ12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="AB11:AE11"/>
-    <mergeCell ref="AF11:BJ11"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:X17"/>
-    <mergeCell ref="Y16:AA17"/>
-    <mergeCell ref="AB16:AE17"/>
-    <mergeCell ref="AF16:BJ17"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:X13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="AB13:AE13"/>
-    <mergeCell ref="AF13:BJ13"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="AB19:AE19"/>
-    <mergeCell ref="AF19:BJ19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="AB18:AE18"/>
-    <mergeCell ref="AF18:BJ18"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="AB21:AE21"/>
-    <mergeCell ref="AF21:BJ21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="AB20:AE20"/>
-    <mergeCell ref="AF20:BJ20"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="AB22:AE22"/>
-    <mergeCell ref="AF22:BJ22"/>
+    <mergeCell ref="B1:BK1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:AM2"/>
+    <mergeCell ref="AN2:AS2"/>
+    <mergeCell ref="AT2:AY2"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="BF2:BK2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36293E3-BB8A-450A-AD90-324CA703073E}">
-  <dimension ref="B1:BK28"/>
+  <dimension ref="B1:BK35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28:AG28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="46"/>
-      <c r="AO1" s="46"/>
-      <c r="AP1" s="46"/>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46"/>
-      <c r="AS1" s="46"/>
-      <c r="AT1" s="46"/>
-      <c r="AU1" s="46"/>
-      <c r="AV1" s="46"/>
-      <c r="AW1" s="46"/>
-      <c r="AX1" s="46"/>
-      <c r="AY1" s="46"/>
-      <c r="AZ1" s="46"/>
-      <c r="BA1" s="46"/>
-      <c r="BB1" s="46"/>
-      <c r="BC1" s="46"/>
-      <c r="BD1" s="46"/>
-      <c r="BE1" s="46"/>
-      <c r="BF1" s="46"/>
-      <c r="BG1" s="46"/>
-      <c r="BH1" s="46"/>
-      <c r="BI1" s="46"/>
-      <c r="BJ1" s="46"/>
-      <c r="BK1" s="47"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="37"/>
+      <c r="BA1" s="37"/>
+      <c r="BB1" s="37"/>
+      <c r="BC1" s="37"/>
+      <c r="BD1" s="37"/>
+      <c r="BE1" s="37"/>
+      <c r="BF1" s="37"/>
+      <c r="BG1" s="37"/>
+      <c r="BH1" s="37"/>
+      <c r="BI1" s="37"/>
+      <c r="BJ1" s="37"/>
+      <c r="BK1" s="38"/>
     </row>
     <row r="2" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="45" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="45" t="s">
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="46"/>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="47"/>
-      <c r="AN2" s="45" t="s">
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="AO2" s="46"/>
-      <c r="AP2" s="46"/>
-      <c r="AQ2" s="46"/>
-      <c r="AR2" s="46"/>
-      <c r="AS2" s="47"/>
-      <c r="AT2" s="45" t="s">
+      <c r="AO2" s="37"/>
+      <c r="AP2" s="37"/>
+      <c r="AQ2" s="37"/>
+      <c r="AR2" s="37"/>
+      <c r="AS2" s="38"/>
+      <c r="AT2" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="AU2" s="46"/>
-      <c r="AV2" s="46"/>
-      <c r="AW2" s="46"/>
-      <c r="AX2" s="46"/>
-      <c r="AY2" s="47"/>
-      <c r="AZ2" s="45" t="s">
+      <c r="AU2" s="37"/>
+      <c r="AV2" s="37"/>
+      <c r="AW2" s="37"/>
+      <c r="AX2" s="37"/>
+      <c r="AY2" s="38"/>
+      <c r="AZ2" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="BA2" s="46"/>
-      <c r="BB2" s="46"/>
-      <c r="BC2" s="46"/>
-      <c r="BD2" s="46"/>
-      <c r="BE2" s="47"/>
-      <c r="BF2" s="45" t="s">
+      <c r="BA2" s="37"/>
+      <c r="BB2" s="37"/>
+      <c r="BC2" s="37"/>
+      <c r="BD2" s="37"/>
+      <c r="BE2" s="38"/>
+      <c r="BF2" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="BG2" s="46"/>
-      <c r="BH2" s="46"/>
-      <c r="BI2" s="46"/>
-      <c r="BJ2" s="46"/>
-      <c r="BK2" s="47"/>
+      <c r="BG2" s="37"/>
+      <c r="BH2" s="37"/>
+      <c r="BI2" s="37"/>
+      <c r="BJ2" s="37"/>
+      <c r="BK2" s="38"/>
     </row>
     <row r="3" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="48">
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="39">
         <v>1</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="48" t="s">
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="49"/>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="49"/>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="49"/>
-      <c r="AK3" s="49"/>
-      <c r="AL3" s="49"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="55"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="55"/>
-      <c r="AR3" s="55"/>
-      <c r="AS3" s="56"/>
-      <c r="AT3" s="60" t="s">
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="40"/>
+      <c r="AJ3" s="40"/>
+      <c r="AK3" s="40"/>
+      <c r="AL3" s="40"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="45"/>
+      <c r="AO3" s="46"/>
+      <c r="AP3" s="46"/>
+      <c r="AQ3" s="46"/>
+      <c r="AR3" s="46"/>
+      <c r="AS3" s="47"/>
+      <c r="AT3" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="AU3" s="61"/>
-      <c r="AV3" s="61"/>
-      <c r="AW3" s="61"/>
-      <c r="AX3" s="61"/>
-      <c r="AY3" s="62"/>
-      <c r="AZ3" s="54"/>
-      <c r="BA3" s="55"/>
-      <c r="BB3" s="55"/>
-      <c r="BC3" s="55"/>
-      <c r="BD3" s="55"/>
-      <c r="BE3" s="56"/>
-      <c r="BF3" s="48"/>
-      <c r="BG3" s="49"/>
-      <c r="BH3" s="49"/>
-      <c r="BI3" s="49"/>
-      <c r="BJ3" s="49"/>
-      <c r="BK3" s="50"/>
+      <c r="AU3" s="52"/>
+      <c r="AV3" s="52"/>
+      <c r="AW3" s="52"/>
+      <c r="AX3" s="52"/>
+      <c r="AY3" s="53"/>
+      <c r="AZ3" s="45"/>
+      <c r="BA3" s="46"/>
+      <c r="BB3" s="46"/>
+      <c r="BC3" s="46"/>
+      <c r="BD3" s="46"/>
+      <c r="BE3" s="47"/>
+      <c r="BF3" s="39"/>
+      <c r="BG3" s="40"/>
+      <c r="BH3" s="40"/>
+      <c r="BI3" s="40"/>
+      <c r="BJ3" s="40"/>
+      <c r="BK3" s="41"/>
     </row>
     <row r="4" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="52"/>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="52"/>
-      <c r="AD4" s="52"/>
-      <c r="AE4" s="52"/>
-      <c r="AF4" s="52"/>
-      <c r="AG4" s="52"/>
-      <c r="AH4" s="52"/>
-      <c r="AI4" s="52"/>
-      <c r="AJ4" s="52"/>
-      <c r="AK4" s="52"/>
-      <c r="AL4" s="52"/>
-      <c r="AM4" s="53"/>
-      <c r="AN4" s="57"/>
-      <c r="AO4" s="58"/>
-      <c r="AP4" s="58"/>
-      <c r="AQ4" s="58"/>
-      <c r="AR4" s="58"/>
-      <c r="AS4" s="59"/>
-      <c r="AT4" s="63"/>
-      <c r="AU4" s="64"/>
-      <c r="AV4" s="64"/>
-      <c r="AW4" s="64"/>
-      <c r="AX4" s="64"/>
-      <c r="AY4" s="65"/>
-      <c r="AZ4" s="57"/>
-      <c r="BA4" s="58"/>
-      <c r="BB4" s="58"/>
-      <c r="BC4" s="58"/>
-      <c r="BD4" s="58"/>
-      <c r="BE4" s="59"/>
-      <c r="BF4" s="51"/>
-      <c r="BG4" s="52"/>
-      <c r="BH4" s="52"/>
-      <c r="BI4" s="52"/>
-      <c r="BJ4" s="52"/>
-      <c r="BK4" s="53"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="43"/>
+      <c r="AH4" s="43"/>
+      <c r="AI4" s="43"/>
+      <c r="AJ4" s="43"/>
+      <c r="AK4" s="43"/>
+      <c r="AL4" s="43"/>
+      <c r="AM4" s="44"/>
+      <c r="AN4" s="48"/>
+      <c r="AO4" s="49"/>
+      <c r="AP4" s="49"/>
+      <c r="AQ4" s="49"/>
+      <c r="AR4" s="49"/>
+      <c r="AS4" s="50"/>
+      <c r="AT4" s="54"/>
+      <c r="AU4" s="55"/>
+      <c r="AV4" s="55"/>
+      <c r="AW4" s="55"/>
+      <c r="AX4" s="55"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="48"/>
+      <c r="BA4" s="49"/>
+      <c r="BB4" s="49"/>
+      <c r="BC4" s="49"/>
+      <c r="BD4" s="49"/>
+      <c r="BE4" s="50"/>
+      <c r="BF4" s="42"/>
+      <c r="BG4" s="43"/>
+      <c r="BH4" s="43"/>
+      <c r="BI4" s="43"/>
+      <c r="BJ4" s="43"/>
+      <c r="BK4" s="44"/>
     </row>
     <row r="5" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="44"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="43"/>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="43"/>
-      <c r="AC5" s="43"/>
-      <c r="AD5" s="43"/>
-      <c r="AE5" s="43"/>
-      <c r="AF5" s="43"/>
-      <c r="AG5" s="43"/>
-      <c r="AH5" s="43"/>
-      <c r="AI5" s="43"/>
-      <c r="AJ5" s="43"/>
-      <c r="AK5" s="43"/>
-      <c r="AL5" s="43"/>
-      <c r="AM5" s="43"/>
-      <c r="AN5" s="43"/>
-      <c r="AO5" s="43"/>
-      <c r="AP5" s="43"/>
-      <c r="AQ5" s="43"/>
-      <c r="AR5" s="43"/>
-      <c r="AS5" s="43"/>
-      <c r="AT5" s="43"/>
-      <c r="AU5" s="43"/>
-      <c r="AV5" s="43"/>
-      <c r="AW5" s="43"/>
-      <c r="AX5" s="43"/>
-      <c r="AY5" s="43"/>
-      <c r="AZ5" s="43"/>
-      <c r="BA5" s="43"/>
-      <c r="BB5" s="43"/>
-      <c r="BC5" s="43"/>
-      <c r="BD5" s="43"/>
-      <c r="BE5" s="43"/>
-      <c r="BF5" s="43"/>
-      <c r="BG5" s="43"/>
-      <c r="BH5" s="43"/>
-      <c r="BI5" s="43"/>
-      <c r="BJ5" s="42"/>
-      <c r="BK5" s="42"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
+      <c r="Y5" s="59"/>
+      <c r="Z5" s="59"/>
+      <c r="AA5" s="59"/>
+      <c r="AB5" s="59"/>
+      <c r="AC5" s="59"/>
+      <c r="AD5" s="59"/>
+      <c r="AE5" s="59"/>
+      <c r="AF5" s="59"/>
+      <c r="AG5" s="59"/>
+      <c r="AH5" s="59"/>
+      <c r="AI5" s="59"/>
+      <c r="AJ5" s="59"/>
+      <c r="AK5" s="59"/>
+      <c r="AL5" s="59"/>
+      <c r="AM5" s="59"/>
+      <c r="AN5" s="59"/>
+      <c r="AO5" s="59"/>
+      <c r="AP5" s="59"/>
+      <c r="AQ5" s="59"/>
+      <c r="AR5" s="59"/>
+      <c r="AS5" s="59"/>
+      <c r="AT5" s="59"/>
+      <c r="AU5" s="59"/>
+      <c r="AV5" s="59"/>
+      <c r="AW5" s="59"/>
+      <c r="AX5" s="59"/>
+      <c r="AY5" s="59"/>
+      <c r="AZ5" s="59"/>
+      <c r="BA5" s="59"/>
+      <c r="BB5" s="59"/>
+      <c r="BC5" s="59"/>
+      <c r="BD5" s="59"/>
+      <c r="BE5" s="59"/>
+      <c r="BF5" s="59"/>
+      <c r="BG5" s="59"/>
+      <c r="BH5" s="59"/>
+      <c r="BI5" s="59"/>
+      <c r="BJ5" s="58"/>
+      <c r="BK5" s="58"/>
     </row>
     <row r="6" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="14"/>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="36" t="s">
+      <c r="D6" s="61"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="36" t="s">
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="37"/>
-      <c r="AB6" s="37"/>
-      <c r="AC6" s="37"/>
-      <c r="AD6" s="37"/>
-      <c r="AE6" s="37"/>
-      <c r="AF6" s="37"/>
-      <c r="AG6" s="38"/>
-      <c r="AH6" s="36" t="s">
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="61"/>
+      <c r="AE6" s="61"/>
+      <c r="AF6" s="61"/>
+      <c r="AG6" s="62"/>
+      <c r="AH6" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="AI6" s="37"/>
-      <c r="AJ6" s="37"/>
-      <c r="AK6" s="37"/>
-      <c r="AL6" s="37"/>
-      <c r="AM6" s="38"/>
-      <c r="AN6" s="36" t="s">
+      <c r="AI6" s="61"/>
+      <c r="AJ6" s="61"/>
+      <c r="AK6" s="61"/>
+      <c r="AL6" s="61"/>
+      <c r="AM6" s="62"/>
+      <c r="AN6" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="AO6" s="37"/>
-      <c r="AP6" s="37"/>
-      <c r="AQ6" s="38"/>
-      <c r="AR6" s="39" t="s">
+      <c r="AO6" s="61"/>
+      <c r="AP6" s="61"/>
+      <c r="AQ6" s="62"/>
+      <c r="AR6" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="AS6" s="40"/>
-      <c r="AT6" s="40"/>
-      <c r="AU6" s="40"/>
-      <c r="AV6" s="40"/>
-      <c r="AW6" s="40"/>
-      <c r="AX6" s="40"/>
-      <c r="AY6" s="40"/>
-      <c r="AZ6" s="40"/>
-      <c r="BA6" s="40"/>
-      <c r="BB6" s="40"/>
-      <c r="BC6" s="40"/>
-      <c r="BD6" s="40"/>
-      <c r="BE6" s="40"/>
-      <c r="BF6" s="40"/>
-      <c r="BG6" s="40"/>
-      <c r="BH6" s="40"/>
-      <c r="BI6" s="40"/>
-      <c r="BJ6" s="41"/>
+      <c r="AS6" s="64"/>
+      <c r="AT6" s="64"/>
+      <c r="AU6" s="64"/>
+      <c r="AV6" s="64"/>
+      <c r="AW6" s="64"/>
+      <c r="AX6" s="64"/>
+      <c r="AY6" s="64"/>
+      <c r="AZ6" s="64"/>
+      <c r="BA6" s="64"/>
+      <c r="BB6" s="64"/>
+      <c r="BC6" s="64"/>
+      <c r="BD6" s="64"/>
+      <c r="BE6" s="64"/>
+      <c r="BF6" s="64"/>
+      <c r="BG6" s="64"/>
+      <c r="BH6" s="64"/>
+      <c r="BI6" s="64"/>
+      <c r="BJ6" s="65"/>
       <c r="BK6" s="15"/>
     </row>
     <row r="7" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -5344,7 +5478,7 @@
     </row>
     <row r="28" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C28" s="30" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D28" s="31"/>
       <c r="E28" s="32"/>
@@ -5354,7 +5488,9 @@
       <c r="G28" s="31"/>
       <c r="H28" s="31"/>
       <c r="I28" s="32"/>
-      <c r="J28" s="33"/>
+      <c r="J28" s="33" t="s">
+        <v>119</v>
+      </c>
       <c r="K28" s="34"/>
       <c r="L28" s="34"/>
       <c r="M28" s="34"/>
@@ -5412,50 +5548,664 @@
       <c r="BI28" s="31"/>
       <c r="BJ28" s="32"/>
     </row>
+    <row r="29" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C29" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="31"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="34"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="34"/>
+      <c r="V29" s="34"/>
+      <c r="W29" s="34"/>
+      <c r="X29" s="34"/>
+      <c r="Y29" s="34"/>
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="34"/>
+      <c r="AB29" s="34"/>
+      <c r="AC29" s="34"/>
+      <c r="AD29" s="34"/>
+      <c r="AE29" s="34"/>
+      <c r="AF29" s="34"/>
+      <c r="AG29" s="35"/>
+      <c r="AH29" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI29" s="31"/>
+      <c r="AJ29" s="31"/>
+      <c r="AK29" s="31"/>
+      <c r="AL29" s="31"/>
+      <c r="AM29" s="32"/>
+      <c r="AN29" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO29" s="31"/>
+      <c r="AP29" s="31"/>
+      <c r="AQ29" s="32"/>
+      <c r="AR29" s="30"/>
+      <c r="AS29" s="31"/>
+      <c r="AT29" s="31"/>
+      <c r="AU29" s="31"/>
+      <c r="AV29" s="31"/>
+      <c r="AW29" s="31"/>
+      <c r="AX29" s="31"/>
+      <c r="AY29" s="31"/>
+      <c r="AZ29" s="31"/>
+      <c r="BA29" s="31"/>
+      <c r="BB29" s="31"/>
+      <c r="BC29" s="31"/>
+      <c r="BD29" s="31"/>
+      <c r="BE29" s="31"/>
+      <c r="BF29" s="31"/>
+      <c r="BG29" s="31"/>
+      <c r="BH29" s="31"/>
+      <c r="BI29" s="31"/>
+      <c r="BJ29" s="32"/>
+    </row>
+    <row r="30" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C30" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="31"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="34"/>
+      <c r="W30" s="34"/>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="34"/>
+      <c r="Z30" s="34"/>
+      <c r="AA30" s="34"/>
+      <c r="AB30" s="34"/>
+      <c r="AC30" s="34"/>
+      <c r="AD30" s="34"/>
+      <c r="AE30" s="34"/>
+      <c r="AF30" s="34"/>
+      <c r="AG30" s="35"/>
+      <c r="AH30" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI30" s="31"/>
+      <c r="AJ30" s="31"/>
+      <c r="AK30" s="31"/>
+      <c r="AL30" s="31"/>
+      <c r="AM30" s="32"/>
+      <c r="AN30" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO30" s="31"/>
+      <c r="AP30" s="31"/>
+      <c r="AQ30" s="32"/>
+      <c r="AR30" s="30"/>
+      <c r="AS30" s="31"/>
+      <c r="AT30" s="31"/>
+      <c r="AU30" s="31"/>
+      <c r="AV30" s="31"/>
+      <c r="AW30" s="31"/>
+      <c r="AX30" s="31"/>
+      <c r="AY30" s="31"/>
+      <c r="AZ30" s="31"/>
+      <c r="BA30" s="31"/>
+      <c r="BB30" s="31"/>
+      <c r="BC30" s="31"/>
+      <c r="BD30" s="31"/>
+      <c r="BE30" s="31"/>
+      <c r="BF30" s="31"/>
+      <c r="BG30" s="31"/>
+      <c r="BH30" s="31"/>
+      <c r="BI30" s="31"/>
+      <c r="BJ30" s="32"/>
+    </row>
+    <row r="31" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C31" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="31"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="34"/>
+      <c r="X31" s="34"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="34"/>
+      <c r="AB31" s="34"/>
+      <c r="AC31" s="34"/>
+      <c r="AD31" s="34"/>
+      <c r="AE31" s="34"/>
+      <c r="AF31" s="34"/>
+      <c r="AG31" s="35"/>
+      <c r="AH31" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI31" s="31"/>
+      <c r="AJ31" s="31"/>
+      <c r="AK31" s="31"/>
+      <c r="AL31" s="31"/>
+      <c r="AM31" s="32"/>
+      <c r="AN31" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO31" s="31"/>
+      <c r="AP31" s="31"/>
+      <c r="AQ31" s="32"/>
+      <c r="AR31" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="AS31" s="31"/>
+      <c r="AT31" s="31"/>
+      <c r="AU31" s="31"/>
+      <c r="AV31" s="31"/>
+      <c r="AW31" s="31"/>
+      <c r="AX31" s="31"/>
+      <c r="AY31" s="31"/>
+      <c r="AZ31" s="31"/>
+      <c r="BA31" s="31"/>
+      <c r="BB31" s="31"/>
+      <c r="BC31" s="31"/>
+      <c r="BD31" s="31"/>
+      <c r="BE31" s="31"/>
+      <c r="BF31" s="31"/>
+      <c r="BG31" s="31"/>
+      <c r="BH31" s="31"/>
+      <c r="BI31" s="31"/>
+      <c r="BJ31" s="32"/>
+    </row>
+    <row r="32" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C32" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="31"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="34"/>
+      <c r="V32" s="34"/>
+      <c r="W32" s="34"/>
+      <c r="X32" s="34"/>
+      <c r="Y32" s="34"/>
+      <c r="Z32" s="34"/>
+      <c r="AA32" s="34"/>
+      <c r="AB32" s="34"/>
+      <c r="AC32" s="34"/>
+      <c r="AD32" s="34"/>
+      <c r="AE32" s="34"/>
+      <c r="AF32" s="34"/>
+      <c r="AG32" s="35"/>
+      <c r="AH32" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI32" s="31"/>
+      <c r="AJ32" s="31"/>
+      <c r="AK32" s="31"/>
+      <c r="AL32" s="31"/>
+      <c r="AM32" s="32"/>
+      <c r="AN32" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO32" s="31"/>
+      <c r="AP32" s="31"/>
+      <c r="AQ32" s="32"/>
+      <c r="AR32" s="30"/>
+      <c r="AS32" s="31"/>
+      <c r="AT32" s="31"/>
+      <c r="AU32" s="31"/>
+      <c r="AV32" s="31"/>
+      <c r="AW32" s="31"/>
+      <c r="AX32" s="31"/>
+      <c r="AY32" s="31"/>
+      <c r="AZ32" s="31"/>
+      <c r="BA32" s="31"/>
+      <c r="BB32" s="31"/>
+      <c r="BC32" s="31"/>
+      <c r="BD32" s="31"/>
+      <c r="BE32" s="31"/>
+      <c r="BF32" s="31"/>
+      <c r="BG32" s="31"/>
+      <c r="BH32" s="31"/>
+      <c r="BI32" s="31"/>
+      <c r="BJ32" s="32"/>
+    </row>
+    <row r="33" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C33" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="34"/>
+      <c r="V33" s="34"/>
+      <c r="W33" s="34"/>
+      <c r="X33" s="34"/>
+      <c r="Y33" s="34"/>
+      <c r="Z33" s="34"/>
+      <c r="AA33" s="34"/>
+      <c r="AB33" s="34"/>
+      <c r="AC33" s="34"/>
+      <c r="AD33" s="34"/>
+      <c r="AE33" s="34"/>
+      <c r="AF33" s="34"/>
+      <c r="AG33" s="35"/>
+      <c r="AH33" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI33" s="31"/>
+      <c r="AJ33" s="31"/>
+      <c r="AK33" s="31"/>
+      <c r="AL33" s="31"/>
+      <c r="AM33" s="32"/>
+      <c r="AN33" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO33" s="31"/>
+      <c r="AP33" s="31"/>
+      <c r="AQ33" s="32"/>
+      <c r="AR33" s="30"/>
+      <c r="AS33" s="31"/>
+      <c r="AT33" s="31"/>
+      <c r="AU33" s="31"/>
+      <c r="AV33" s="31"/>
+      <c r="AW33" s="31"/>
+      <c r="AX33" s="31"/>
+      <c r="AY33" s="31"/>
+      <c r="AZ33" s="31"/>
+      <c r="BA33" s="31"/>
+      <c r="BB33" s="31"/>
+      <c r="BC33" s="31"/>
+      <c r="BD33" s="31"/>
+      <c r="BE33" s="31"/>
+      <c r="BF33" s="31"/>
+      <c r="BG33" s="31"/>
+      <c r="BH33" s="31"/>
+      <c r="BI33" s="31"/>
+      <c r="BJ33" s="32"/>
+    </row>
+    <row r="34" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C34" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="31"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="34"/>
+      <c r="V34" s="34"/>
+      <c r="W34" s="34"/>
+      <c r="X34" s="34"/>
+      <c r="Y34" s="34"/>
+      <c r="Z34" s="34"/>
+      <c r="AA34" s="34"/>
+      <c r="AB34" s="34"/>
+      <c r="AC34" s="34"/>
+      <c r="AD34" s="34"/>
+      <c r="AE34" s="34"/>
+      <c r="AF34" s="34"/>
+      <c r="AG34" s="35"/>
+      <c r="AH34" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI34" s="31"/>
+      <c r="AJ34" s="31"/>
+      <c r="AK34" s="31"/>
+      <c r="AL34" s="31"/>
+      <c r="AM34" s="32"/>
+      <c r="AN34" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO34" s="31"/>
+      <c r="AP34" s="31"/>
+      <c r="AQ34" s="32"/>
+      <c r="AR34" s="30"/>
+      <c r="AS34" s="31"/>
+      <c r="AT34" s="31"/>
+      <c r="AU34" s="31"/>
+      <c r="AV34" s="31"/>
+      <c r="AW34" s="31"/>
+      <c r="AX34" s="31"/>
+      <c r="AY34" s="31"/>
+      <c r="AZ34" s="31"/>
+      <c r="BA34" s="31"/>
+      <c r="BB34" s="31"/>
+      <c r="BC34" s="31"/>
+      <c r="BD34" s="31"/>
+      <c r="BE34" s="31"/>
+      <c r="BF34" s="31"/>
+      <c r="BG34" s="31"/>
+      <c r="BH34" s="31"/>
+      <c r="BI34" s="31"/>
+      <c r="BJ34" s="32"/>
+    </row>
+    <row r="35" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C35" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="31"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="34"/>
+      <c r="T35" s="34"/>
+      <c r="U35" s="34"/>
+      <c r="V35" s="34"/>
+      <c r="W35" s="34"/>
+      <c r="X35" s="34"/>
+      <c r="Y35" s="34"/>
+      <c r="Z35" s="34"/>
+      <c r="AA35" s="34"/>
+      <c r="AB35" s="34"/>
+      <c r="AC35" s="34"/>
+      <c r="AD35" s="34"/>
+      <c r="AE35" s="34"/>
+      <c r="AF35" s="34"/>
+      <c r="AG35" s="35"/>
+      <c r="AH35" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI35" s="31"/>
+      <c r="AJ35" s="31"/>
+      <c r="AK35" s="31"/>
+      <c r="AL35" s="31"/>
+      <c r="AM35" s="32"/>
+      <c r="AN35" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO35" s="31"/>
+      <c r="AP35" s="31"/>
+      <c r="AQ35" s="32"/>
+      <c r="AR35" s="30"/>
+      <c r="AS35" s="31"/>
+      <c r="AT35" s="31"/>
+      <c r="AU35" s="31"/>
+      <c r="AV35" s="31"/>
+      <c r="AW35" s="31"/>
+      <c r="AX35" s="31"/>
+      <c r="AY35" s="31"/>
+      <c r="AZ35" s="31"/>
+      <c r="BA35" s="31"/>
+      <c r="BB35" s="31"/>
+      <c r="BC35" s="31"/>
+      <c r="BD35" s="31"/>
+      <c r="BE35" s="31"/>
+      <c r="BF35" s="31"/>
+      <c r="BG35" s="31"/>
+      <c r="BH35" s="31"/>
+      <c r="BI35" s="31"/>
+      <c r="BJ35" s="32"/>
+    </row>
   </sheetData>
-  <mergeCells count="174">
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AG28"/>
-    <mergeCell ref="AH28:AM28"/>
-    <mergeCell ref="AN28:AQ28"/>
-    <mergeCell ref="AR28:BJ28"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AG26"/>
-    <mergeCell ref="AH26:AM26"/>
-    <mergeCell ref="AN26:AQ26"/>
-    <mergeCell ref="AR26:BJ26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AG27"/>
-    <mergeCell ref="AH27:AM27"/>
-    <mergeCell ref="AN27:AQ27"/>
-    <mergeCell ref="AR27:BJ27"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AG24"/>
-    <mergeCell ref="AH24:AM24"/>
-    <mergeCell ref="AN24:AQ24"/>
-    <mergeCell ref="AR24:BJ24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AG25"/>
-    <mergeCell ref="AH25:AM25"/>
-    <mergeCell ref="AN25:AQ25"/>
-    <mergeCell ref="AR25:BJ25"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:AG22"/>
-    <mergeCell ref="AH22:AM22"/>
-    <mergeCell ref="AN22:AQ22"/>
-    <mergeCell ref="AR22:BJ22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AG23"/>
-    <mergeCell ref="AH23:AM23"/>
-    <mergeCell ref="AN23:AQ23"/>
-    <mergeCell ref="AR23:BJ23"/>
+  <mergeCells count="216">
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AG34"/>
+    <mergeCell ref="AH34:AM34"/>
+    <mergeCell ref="AN34:AQ34"/>
+    <mergeCell ref="AR34:BJ34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:AG35"/>
+    <mergeCell ref="AH35:AM35"/>
+    <mergeCell ref="AN35:AQ35"/>
+    <mergeCell ref="AR35:BJ35"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AG29"/>
+    <mergeCell ref="AH29:AM29"/>
+    <mergeCell ref="AN29:AQ29"/>
+    <mergeCell ref="AR29:BJ29"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AG33"/>
+    <mergeCell ref="AH33:AM33"/>
+    <mergeCell ref="AN33:AQ33"/>
+    <mergeCell ref="AR33:BJ33"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AG31"/>
+    <mergeCell ref="AH31:AM31"/>
+    <mergeCell ref="AN31:AQ31"/>
+    <mergeCell ref="AR31:BJ31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AG32"/>
+    <mergeCell ref="AH32:AM32"/>
+    <mergeCell ref="AN32:AQ32"/>
+    <mergeCell ref="AR32:BJ32"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:AG21"/>
+    <mergeCell ref="AH21:AM21"/>
+    <mergeCell ref="AN21:AQ21"/>
+    <mergeCell ref="AR21:BJ21"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:AG19"/>
+    <mergeCell ref="AH19:AM19"/>
+    <mergeCell ref="AN19:AQ19"/>
+    <mergeCell ref="AR19:BJ19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:AG20"/>
+    <mergeCell ref="AH20:AM20"/>
+    <mergeCell ref="AN20:AQ20"/>
+    <mergeCell ref="AR20:BJ20"/>
+    <mergeCell ref="AR11:BJ11"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:AG10"/>
+    <mergeCell ref="AH10:AM10"/>
+    <mergeCell ref="AN10:AQ10"/>
+    <mergeCell ref="AR10:BJ10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:AG11"/>
+    <mergeCell ref="AH11:AM11"/>
+    <mergeCell ref="AN11:AQ11"/>
+    <mergeCell ref="AR9:BJ9"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:AG8"/>
+    <mergeCell ref="AH8:AM8"/>
+    <mergeCell ref="AN8:AQ8"/>
+    <mergeCell ref="AR8:BJ8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:AG9"/>
+    <mergeCell ref="AH9:AM9"/>
+    <mergeCell ref="AN9:AQ9"/>
+    <mergeCell ref="AR7:BJ7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:AG6"/>
+    <mergeCell ref="AH6:AM6"/>
+    <mergeCell ref="AN6:AQ6"/>
+    <mergeCell ref="AR6:BJ6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:AG7"/>
+    <mergeCell ref="AH7:AM7"/>
+    <mergeCell ref="AN7:AQ7"/>
+    <mergeCell ref="BJ5:BK5"/>
+    <mergeCell ref="AC5:AE5"/>
+    <mergeCell ref="AF5:AH5"/>
+    <mergeCell ref="AI5:AK5"/>
+    <mergeCell ref="AL5:AN5"/>
+    <mergeCell ref="AO5:AQ5"/>
+    <mergeCell ref="AR5:AT5"/>
+    <mergeCell ref="AU5:AW5"/>
+    <mergeCell ref="AX5:AZ5"/>
+    <mergeCell ref="BA5:BC5"/>
+    <mergeCell ref="BD5:BF5"/>
+    <mergeCell ref="BG5:BI5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="Z5:AB5"/>
+    <mergeCell ref="B1:BK1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:AM2"/>
+    <mergeCell ref="AN2:AS2"/>
+    <mergeCell ref="AT2:AY2"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="BF2:BK2"/>
+    <mergeCell ref="BF3:BK4"/>
+    <mergeCell ref="B3:K4"/>
+    <mergeCell ref="L3:P4"/>
+    <mergeCell ref="Q3:AM4"/>
+    <mergeCell ref="AN3:AS4"/>
+    <mergeCell ref="AT3:AY4"/>
+    <mergeCell ref="AZ3:BE4"/>
+    <mergeCell ref="AR12:BJ12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:AG13"/>
+    <mergeCell ref="AH13:AM13"/>
+    <mergeCell ref="AN13:AQ13"/>
+    <mergeCell ref="AR13:BJ13"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:AG12"/>
+    <mergeCell ref="AH12:AM12"/>
+    <mergeCell ref="AN12:AQ12"/>
+    <mergeCell ref="AR14:BJ14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:AG15"/>
+    <mergeCell ref="AH15:AM15"/>
+    <mergeCell ref="AN15:AQ15"/>
+    <mergeCell ref="AR15:BJ15"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:AG14"/>
+    <mergeCell ref="AH14:AM14"/>
+    <mergeCell ref="AN14:AQ14"/>
     <mergeCell ref="AR18:BJ18"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="F18:I18"/>
@@ -5474,120 +6224,54 @@
     <mergeCell ref="J16:AG16"/>
     <mergeCell ref="AH16:AM16"/>
     <mergeCell ref="AN16:AQ16"/>
-    <mergeCell ref="AR14:BJ14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:AG15"/>
-    <mergeCell ref="AH15:AM15"/>
-    <mergeCell ref="AN15:AQ15"/>
-    <mergeCell ref="AR15:BJ15"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:AG14"/>
-    <mergeCell ref="AH14:AM14"/>
-    <mergeCell ref="AN14:AQ14"/>
-    <mergeCell ref="AR12:BJ12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:AG13"/>
-    <mergeCell ref="AH13:AM13"/>
-    <mergeCell ref="AN13:AQ13"/>
-    <mergeCell ref="AR13:BJ13"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:AG12"/>
-    <mergeCell ref="AH12:AM12"/>
-    <mergeCell ref="AN12:AQ12"/>
-    <mergeCell ref="B1:BK1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="Q2:AM2"/>
-    <mergeCell ref="AN2:AS2"/>
-    <mergeCell ref="AT2:AY2"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="BF2:BK2"/>
-    <mergeCell ref="BF3:BK4"/>
-    <mergeCell ref="B3:K4"/>
-    <mergeCell ref="L3:P4"/>
-    <mergeCell ref="Q3:AM4"/>
-    <mergeCell ref="AN3:AS4"/>
-    <mergeCell ref="AT3:AY4"/>
-    <mergeCell ref="AZ3:BE4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="Z5:AB5"/>
-    <mergeCell ref="BJ5:BK5"/>
-    <mergeCell ref="AC5:AE5"/>
-    <mergeCell ref="AF5:AH5"/>
-    <mergeCell ref="AI5:AK5"/>
-    <mergeCell ref="AL5:AN5"/>
-    <mergeCell ref="AO5:AQ5"/>
-    <mergeCell ref="AR5:AT5"/>
-    <mergeCell ref="AU5:AW5"/>
-    <mergeCell ref="AX5:AZ5"/>
-    <mergeCell ref="BA5:BC5"/>
-    <mergeCell ref="BD5:BF5"/>
-    <mergeCell ref="BG5:BI5"/>
-    <mergeCell ref="AR7:BJ7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:AG6"/>
-    <mergeCell ref="AH6:AM6"/>
-    <mergeCell ref="AN6:AQ6"/>
-    <mergeCell ref="AR6:BJ6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:AG7"/>
-    <mergeCell ref="AH7:AM7"/>
-    <mergeCell ref="AN7:AQ7"/>
-    <mergeCell ref="AR9:BJ9"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:AG8"/>
-    <mergeCell ref="AH8:AM8"/>
-    <mergeCell ref="AN8:AQ8"/>
-    <mergeCell ref="AR8:BJ8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:AG9"/>
-    <mergeCell ref="AH9:AM9"/>
-    <mergeCell ref="AN9:AQ9"/>
-    <mergeCell ref="AR11:BJ11"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:AG10"/>
-    <mergeCell ref="AH10:AM10"/>
-    <mergeCell ref="AN10:AQ10"/>
-    <mergeCell ref="AR10:BJ10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:AG11"/>
-    <mergeCell ref="AH11:AM11"/>
-    <mergeCell ref="AN11:AQ11"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:AG21"/>
-    <mergeCell ref="AH21:AM21"/>
-    <mergeCell ref="AN21:AQ21"/>
-    <mergeCell ref="AR21:BJ21"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:AG19"/>
-    <mergeCell ref="AH19:AM19"/>
-    <mergeCell ref="AN19:AQ19"/>
-    <mergeCell ref="AR19:BJ19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:AG20"/>
-    <mergeCell ref="AH20:AM20"/>
-    <mergeCell ref="AN20:AQ20"/>
-    <mergeCell ref="AR20:BJ20"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:AG22"/>
+    <mergeCell ref="AH22:AM22"/>
+    <mergeCell ref="AN22:AQ22"/>
+    <mergeCell ref="AR22:BJ22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AG23"/>
+    <mergeCell ref="AH23:AM23"/>
+    <mergeCell ref="AN23:AQ23"/>
+    <mergeCell ref="AR23:BJ23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AG24"/>
+    <mergeCell ref="AH24:AM24"/>
+    <mergeCell ref="AN24:AQ24"/>
+    <mergeCell ref="AR24:BJ24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AG25"/>
+    <mergeCell ref="AH25:AM25"/>
+    <mergeCell ref="AN25:AQ25"/>
+    <mergeCell ref="AR25:BJ25"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AG30"/>
+    <mergeCell ref="AH30:AM30"/>
+    <mergeCell ref="AN30:AQ30"/>
+    <mergeCell ref="AR30:BJ30"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AG26"/>
+    <mergeCell ref="AH26:AM26"/>
+    <mergeCell ref="AN26:AQ26"/>
+    <mergeCell ref="AR26:BJ26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AG27"/>
+    <mergeCell ref="AH27:AM27"/>
+    <mergeCell ref="AN27:AQ27"/>
+    <mergeCell ref="AR27:BJ27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AG28"/>
+    <mergeCell ref="AH28:AM28"/>
+    <mergeCell ref="AN28:AQ28"/>
+    <mergeCell ref="AR28:BJ28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/メッセージ設計書.xlsx
+++ b/メッセージ設計書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81805\Desktop\新しいフォルダー\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kensyu004\Desktop\新しいフォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D916330F-A503-4429-A340-EA04F82A9FA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C448E94B-22A7-4705-B5C4-E62DA1A496BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="1035" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{78B42164-E9D9-4973-93DD-29F371AD8A8A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{78B42164-E9D9-4973-93DD-29F371AD8A8A}"/>
   </bookViews>
   <sheets>
     <sheet name="ツールチップ" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="169">
   <si>
     <t>ソフトウェア名</t>
     <rPh sb="6" eb="7">
@@ -1015,6 +1015,297 @@
     <t>動画がアップロードされました。</t>
     <rPh sb="0" eb="2">
       <t>ドウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステータスバー</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>湊</t>
+    <rPh sb="0" eb="1">
+      <t>ミナト</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ＩＤ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>B001</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>B002</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>B003</t>
+  </si>
+  <si>
+    <t>B004</t>
+  </si>
+  <si>
+    <t>B005</t>
+  </si>
+  <si>
+    <t>B006</t>
+  </si>
+  <si>
+    <t>B007</t>
+  </si>
+  <si>
+    <t>B008</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>B009</t>
+  </si>
+  <si>
+    <t>B010</t>
+  </si>
+  <si>
+    <t>B011</t>
+  </si>
+  <si>
+    <t>B012</t>
+  </si>
+  <si>
+    <t>B013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>B014</t>
+  </si>
+  <si>
+    <t>B015</t>
+  </si>
+  <si>
+    <t>B016</t>
+  </si>
+  <si>
+    <t>B017</t>
+  </si>
+  <si>
+    <t>オンライン合同企業展</t>
+    <rPh sb="5" eb="7">
+      <t>ゴウドウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>林</t>
+    <rPh sb="0" eb="1">
+      <t>ハヤシ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>氏名を入力してください。</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードを再度入力してください。</t>
+    <rPh sb="6" eb="8">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録するユーザー名を入力してください。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録するユーザーIDを入力してください。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録するパスワードを入力してください。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録するメールアドレスを入力してください。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ユーザーIDを入力してください。</t>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>パスワードを入力してください。</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>登録するアバターのパーツを選択してください。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>変更後のユーザー名を入力してください。</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在のパスワードを入力してください。</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更後のパスワードを入力してください。</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>変更後のメールアドレスを入力してください。</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>アップロードする動画を選択してください。</t>
+    <rPh sb="8" eb="10">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>参加したいブースを選択してください。</t>
+    <rPh sb="0" eb="2">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>説明を行っている開催者に質問があるときに押してください。</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>カイサイシャ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャットを送りたい時に入力してください。</t>
+    <rPh sb="5" eb="6">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1027,7 +1318,7 @@
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1108,8 +1399,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1126,6 +1424,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF969696"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1277,7 +1581,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1326,6 +1630,36 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1337,36 +1671,6 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1384,6 +1688,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1449,31 +1780,55 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1508,15 +1863,21 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="8">
+          <cell r="C8" t="str">
+            <v>人材管理ソフト</v>
+          </cell>
+          <cell r="L8">
+            <v>1.06</v>
+          </cell>
           <cell r="Q8" t="str">
             <v>人材管理ソフトメッセージ仕様書</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1828,285 +2189,285 @@
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="16" t="str">
+      <c r="B1" s="26" t="str">
         <f>[1]表紙!$Q$8</f>
         <v>人材管理ソフトメッセージ仕様書</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="17"/>
-      <c r="AP1" s="17"/>
-      <c r="AQ1" s="17"/>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="17"/>
-      <c r="AT1" s="17"/>
-      <c r="AU1" s="17"/>
-      <c r="AV1" s="17"/>
-      <c r="AW1" s="17"/>
-      <c r="AX1" s="17"/>
-      <c r="AY1" s="17"/>
-      <c r="AZ1" s="17"/>
-      <c r="BA1" s="17"/>
-      <c r="BB1" s="17"/>
-      <c r="BC1" s="17"/>
-      <c r="BD1" s="17"/>
-      <c r="BE1" s="17"/>
-      <c r="BF1" s="17"/>
-      <c r="BG1" s="17"/>
-      <c r="BH1" s="17"/>
-      <c r="BI1" s="17"/>
-      <c r="BJ1" s="17"/>
-      <c r="BK1" s="17"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="27"/>
+      <c r="AR1" s="27"/>
+      <c r="AS1" s="27"/>
+      <c r="AT1" s="27"/>
+      <c r="AU1" s="27"/>
+      <c r="AV1" s="27"/>
+      <c r="AW1" s="27"/>
+      <c r="AX1" s="27"/>
+      <c r="AY1" s="27"/>
+      <c r="AZ1" s="27"/>
+      <c r="BA1" s="27"/>
+      <c r="BB1" s="27"/>
+      <c r="BC1" s="27"/>
+      <c r="BD1" s="27"/>
+      <c r="BE1" s="27"/>
+      <c r="BF1" s="27"/>
+      <c r="BG1" s="27"/>
+      <c r="BH1" s="27"/>
+      <c r="BI1" s="27"/>
+      <c r="BJ1" s="27"/>
+      <c r="BK1" s="27"/>
     </row>
     <row r="2" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="18" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18" t="s">
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="19" t="s">
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="AO2" s="19"/>
-      <c r="AP2" s="19"/>
-      <c r="AQ2" s="19"/>
-      <c r="AR2" s="19"/>
-      <c r="AS2" s="19"/>
-      <c r="AT2" s="18" t="s">
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="29"/>
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="29"/>
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="AU2" s="18"/>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="18"/>
-      <c r="AX2" s="18"/>
-      <c r="AY2" s="18"/>
-      <c r="AZ2" s="18" t="s">
+      <c r="AU2" s="28"/>
+      <c r="AV2" s="28"/>
+      <c r="AW2" s="28"/>
+      <c r="AX2" s="28"/>
+      <c r="AY2" s="28"/>
+      <c r="AZ2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="BA2" s="18"/>
-      <c r="BB2" s="18"/>
-      <c r="BC2" s="18"/>
-      <c r="BD2" s="18"/>
-      <c r="BE2" s="18"/>
-      <c r="BF2" s="18" t="s">
+      <c r="BA2" s="28"/>
+      <c r="BB2" s="28"/>
+      <c r="BC2" s="28"/>
+      <c r="BD2" s="28"/>
+      <c r="BE2" s="28"/>
+      <c r="BF2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="BG2" s="18"/>
-      <c r="BH2" s="18"/>
-      <c r="BI2" s="18"/>
-      <c r="BJ2" s="18"/>
-      <c r="BK2" s="18"/>
+      <c r="BG2" s="28"/>
+      <c r="BH2" s="28"/>
+      <c r="BI2" s="28"/>
+      <c r="BJ2" s="28"/>
+      <c r="BK2" s="28"/>
     </row>
     <row r="3" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="25">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="24">
         <v>1</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="20" t="s">
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="20"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="20"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="20"/>
-      <c r="AN3" s="26"/>
-      <c r="AO3" s="20"/>
-      <c r="AP3" s="20"/>
-      <c r="AQ3" s="20"/>
-      <c r="AR3" s="20"/>
-      <c r="AS3" s="20"/>
-      <c r="AT3" s="26" t="s">
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="22"/>
+      <c r="AK3" s="22"/>
+      <c r="AL3" s="22"/>
+      <c r="AM3" s="22"/>
+      <c r="AN3" s="25"/>
+      <c r="AO3" s="22"/>
+      <c r="AP3" s="22"/>
+      <c r="AQ3" s="22"/>
+      <c r="AR3" s="22"/>
+      <c r="AS3" s="22"/>
+      <c r="AT3" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="AU3" s="26"/>
-      <c r="AV3" s="26"/>
-      <c r="AW3" s="26"/>
-      <c r="AX3" s="26"/>
-      <c r="AY3" s="26"/>
-      <c r="AZ3" s="20"/>
-      <c r="BA3" s="20"/>
-      <c r="BB3" s="20"/>
-      <c r="BC3" s="20"/>
-      <c r="BD3" s="20"/>
-      <c r="BE3" s="20"/>
-      <c r="BF3" s="20"/>
-      <c r="BG3" s="20"/>
-      <c r="BH3" s="20"/>
-      <c r="BI3" s="20"/>
-      <c r="BJ3" s="20"/>
-      <c r="BK3" s="20"/>
+      <c r="AU3" s="25"/>
+      <c r="AV3" s="25"/>
+      <c r="AW3" s="25"/>
+      <c r="AX3" s="25"/>
+      <c r="AY3" s="25"/>
+      <c r="AZ3" s="22"/>
+      <c r="BA3" s="22"/>
+      <c r="BB3" s="22"/>
+      <c r="BC3" s="22"/>
+      <c r="BD3" s="22"/>
+      <c r="BE3" s="22"/>
+      <c r="BF3" s="22"/>
+      <c r="BG3" s="22"/>
+      <c r="BH3" s="22"/>
+      <c r="BI3" s="22"/>
+      <c r="BJ3" s="22"/>
+      <c r="BK3" s="22"/>
     </row>
     <row r="4" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20"/>
-      <c r="AH4" s="20"/>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="20"/>
-      <c r="AL4" s="20"/>
-      <c r="AM4" s="20"/>
-      <c r="AN4" s="20"/>
-      <c r="AO4" s="20"/>
-      <c r="AP4" s="20"/>
-      <c r="AQ4" s="20"/>
-      <c r="AR4" s="20"/>
-      <c r="AS4" s="20"/>
-      <c r="AT4" s="26"/>
-      <c r="AU4" s="26"/>
-      <c r="AV4" s="26"/>
-      <c r="AW4" s="26"/>
-      <c r="AX4" s="26"/>
-      <c r="AY4" s="26"/>
-      <c r="AZ4" s="20"/>
-      <c r="BA4" s="20"/>
-      <c r="BB4" s="20"/>
-      <c r="BC4" s="20"/>
-      <c r="BD4" s="20"/>
-      <c r="BE4" s="20"/>
-      <c r="BF4" s="20"/>
-      <c r="BG4" s="20"/>
-      <c r="BH4" s="20"/>
-      <c r="BI4" s="20"/>
-      <c r="BJ4" s="20"/>
-      <c r="BK4" s="20"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="22"/>
+      <c r="AL4" s="22"/>
+      <c r="AM4" s="22"/>
+      <c r="AN4" s="22"/>
+      <c r="AO4" s="22"/>
+      <c r="AP4" s="22"/>
+      <c r="AQ4" s="22"/>
+      <c r="AR4" s="22"/>
+      <c r="AS4" s="22"/>
+      <c r="AT4" s="25"/>
+      <c r="AU4" s="25"/>
+      <c r="AV4" s="25"/>
+      <c r="AW4" s="25"/>
+      <c r="AX4" s="25"/>
+      <c r="AY4" s="25"/>
+      <c r="AZ4" s="22"/>
+      <c r="BA4" s="22"/>
+      <c r="BB4" s="22"/>
+      <c r="BC4" s="22"/>
+      <c r="BD4" s="22"/>
+      <c r="BE4" s="22"/>
+      <c r="BF4" s="22"/>
+      <c r="BG4" s="22"/>
+      <c r="BH4" s="22"/>
+      <c r="BI4" s="22"/>
+      <c r="BJ4" s="22"/>
+      <c r="BK4" s="22"/>
     </row>
     <row r="5" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3"/>
@@ -2238,510 +2599,510 @@
     </row>
     <row r="7" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22" t="s">
+      <c r="D7" s="19"/>
+      <c r="E7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="23" t="s">
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23" t="s">
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="21"/>
-      <c r="AE7" s="21"/>
-      <c r="AF7" s="21" t="s">
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="AG7" s="21"/>
-      <c r="AH7" s="21"/>
-      <c r="AI7" s="21"/>
-      <c r="AJ7" s="21"/>
-      <c r="AK7" s="21"/>
-      <c r="AL7" s="21"/>
-      <c r="AM7" s="21"/>
-      <c r="AN7" s="21"/>
-      <c r="AO7" s="21"/>
-      <c r="AP7" s="21"/>
-      <c r="AQ7" s="21"/>
-      <c r="AR7" s="21"/>
-      <c r="AS7" s="21"/>
-      <c r="AT7" s="21"/>
-      <c r="AU7" s="21"/>
-      <c r="AV7" s="21"/>
-      <c r="AW7" s="21"/>
-      <c r="AX7" s="21"/>
-      <c r="AY7" s="21"/>
-      <c r="AZ7" s="21"/>
-      <c r="BA7" s="21"/>
-      <c r="BB7" s="21"/>
-      <c r="BC7" s="21"/>
-      <c r="BD7" s="21"/>
-      <c r="BE7" s="21"/>
-      <c r="BF7" s="21"/>
-      <c r="BG7" s="21"/>
-      <c r="BH7" s="21"/>
-      <c r="BI7" s="21"/>
-      <c r="BJ7" s="21"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
+      <c r="AI7" s="19"/>
+      <c r="AJ7" s="19"/>
+      <c r="AK7" s="19"/>
+      <c r="AL7" s="19"/>
+      <c r="AM7" s="19"/>
+      <c r="AN7" s="19"/>
+      <c r="AO7" s="19"/>
+      <c r="AP7" s="19"/>
+      <c r="AQ7" s="19"/>
+      <c r="AR7" s="19"/>
+      <c r="AS7" s="19"/>
+      <c r="AT7" s="19"/>
+      <c r="AU7" s="19"/>
+      <c r="AV7" s="19"/>
+      <c r="AW7" s="19"/>
+      <c r="AX7" s="19"/>
+      <c r="AY7" s="19"/>
+      <c r="AZ7" s="19"/>
+      <c r="BA7" s="19"/>
+      <c r="BB7" s="19"/>
+      <c r="BC7" s="19"/>
+      <c r="BD7" s="19"/>
+      <c r="BE7" s="19"/>
+      <c r="BF7" s="19"/>
+      <c r="BG7" s="19"/>
+      <c r="BH7" s="19"/>
+      <c r="BI7" s="19"/>
+      <c r="BJ7" s="19"/>
       <c r="BK7" s="2"/>
     </row>
     <row r="8" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="21"/>
-      <c r="AE8" s="21"/>
-      <c r="AF8" s="21"/>
-      <c r="AG8" s="21"/>
-      <c r="AH8" s="21"/>
-      <c r="AI8" s="21"/>
-      <c r="AJ8" s="21"/>
-      <c r="AK8" s="21"/>
-      <c r="AL8" s="21"/>
-      <c r="AM8" s="21"/>
-      <c r="AN8" s="21"/>
-      <c r="AO8" s="21"/>
-      <c r="AP8" s="21"/>
-      <c r="AQ8" s="21"/>
-      <c r="AR8" s="21"/>
-      <c r="AS8" s="21"/>
-      <c r="AT8" s="21"/>
-      <c r="AU8" s="21"/>
-      <c r="AV8" s="21"/>
-      <c r="AW8" s="21"/>
-      <c r="AX8" s="21"/>
-      <c r="AY8" s="21"/>
-      <c r="AZ8" s="21"/>
-      <c r="BA8" s="21"/>
-      <c r="BB8" s="21"/>
-      <c r="BC8" s="21"/>
-      <c r="BD8" s="21"/>
-      <c r="BE8" s="21"/>
-      <c r="BF8" s="21"/>
-      <c r="BG8" s="21"/>
-      <c r="BH8" s="21"/>
-      <c r="BI8" s="21"/>
-      <c r="BJ8" s="21"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="19"/>
+      <c r="AI8" s="19"/>
+      <c r="AJ8" s="19"/>
+      <c r="AK8" s="19"/>
+      <c r="AL8" s="19"/>
+      <c r="AM8" s="19"/>
+      <c r="AN8" s="19"/>
+      <c r="AO8" s="19"/>
+      <c r="AP8" s="19"/>
+      <c r="AQ8" s="19"/>
+      <c r="AR8" s="19"/>
+      <c r="AS8" s="19"/>
+      <c r="AT8" s="19"/>
+      <c r="AU8" s="19"/>
+      <c r="AV8" s="19"/>
+      <c r="AW8" s="19"/>
+      <c r="AX8" s="19"/>
+      <c r="AY8" s="19"/>
+      <c r="AZ8" s="19"/>
+      <c r="BA8" s="19"/>
+      <c r="BB8" s="19"/>
+      <c r="BC8" s="19"/>
+      <c r="BD8" s="19"/>
+      <c r="BE8" s="19"/>
+      <c r="BF8" s="19"/>
+      <c r="BG8" s="19"/>
+      <c r="BH8" s="19"/>
+      <c r="BI8" s="19"/>
+      <c r="BJ8" s="19"/>
       <c r="BK8" s="2"/>
     </row>
     <row r="9" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="27" t="s">
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="27" t="s">
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="27"/>
-      <c r="AE9" s="27"/>
-      <c r="AF9" s="29" t="s">
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="AG9" s="29"/>
-      <c r="AH9" s="29"/>
-      <c r="AI9" s="29"/>
-      <c r="AJ9" s="29"/>
-      <c r="AK9" s="29"/>
-      <c r="AL9" s="29"/>
-      <c r="AM9" s="29"/>
-      <c r="AN9" s="29"/>
-      <c r="AO9" s="29"/>
-      <c r="AP9" s="29"/>
-      <c r="AQ9" s="29"/>
-      <c r="AR9" s="29"/>
-      <c r="AS9" s="29"/>
-      <c r="AT9" s="29"/>
-      <c r="AU9" s="29"/>
-      <c r="AV9" s="29"/>
-      <c r="AW9" s="29"/>
-      <c r="AX9" s="29"/>
-      <c r="AY9" s="29"/>
-      <c r="AZ9" s="29"/>
-      <c r="BA9" s="29"/>
-      <c r="BB9" s="29"/>
-      <c r="BC9" s="29"/>
-      <c r="BD9" s="29"/>
-      <c r="BE9" s="29"/>
-      <c r="BF9" s="29"/>
-      <c r="BG9" s="29"/>
-      <c r="BH9" s="29"/>
-      <c r="BI9" s="29"/>
-      <c r="BJ9" s="29"/>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="18"/>
+      <c r="AJ9" s="18"/>
+      <c r="AK9" s="18"/>
+      <c r="AL9" s="18"/>
+      <c r="AM9" s="18"/>
+      <c r="AN9" s="18"/>
+      <c r="AO9" s="18"/>
+      <c r="AP9" s="18"/>
+      <c r="AQ9" s="18"/>
+      <c r="AR9" s="18"/>
+      <c r="AS9" s="18"/>
+      <c r="AT9" s="18"/>
+      <c r="AU9" s="18"/>
+      <c r="AV9" s="18"/>
+      <c r="AW9" s="18"/>
+      <c r="AX9" s="18"/>
+      <c r="AY9" s="18"/>
+      <c r="AZ9" s="18"/>
+      <c r="BA9" s="18"/>
+      <c r="BB9" s="18"/>
+      <c r="BC9" s="18"/>
+      <c r="BD9" s="18"/>
+      <c r="BE9" s="18"/>
+      <c r="BF9" s="18"/>
+      <c r="BG9" s="18"/>
+      <c r="BH9" s="18"/>
+      <c r="BI9" s="18"/>
+      <c r="BJ9" s="18"/>
       <c r="BK9" s="2"/>
     </row>
     <row r="10" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="27" t="s">
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="27"/>
-      <c r="AB10" s="27" t="s">
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AC10" s="27"/>
-      <c r="AD10" s="27"/>
-      <c r="AE10" s="27"/>
-      <c r="AF10" s="29" t="s">
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="AG10" s="29"/>
-      <c r="AH10" s="29"/>
-      <c r="AI10" s="29"/>
-      <c r="AJ10" s="29"/>
-      <c r="AK10" s="29"/>
-      <c r="AL10" s="29"/>
-      <c r="AM10" s="29"/>
-      <c r="AN10" s="29"/>
-      <c r="AO10" s="29"/>
-      <c r="AP10" s="29"/>
-      <c r="AQ10" s="29"/>
-      <c r="AR10" s="29"/>
-      <c r="AS10" s="29"/>
-      <c r="AT10" s="29"/>
-      <c r="AU10" s="29"/>
-      <c r="AV10" s="29"/>
-      <c r="AW10" s="29"/>
-      <c r="AX10" s="29"/>
-      <c r="AY10" s="29"/>
-      <c r="AZ10" s="29"/>
-      <c r="BA10" s="29"/>
-      <c r="BB10" s="29"/>
-      <c r="BC10" s="29"/>
-      <c r="BD10" s="29"/>
-      <c r="BE10" s="29"/>
-      <c r="BF10" s="29"/>
-      <c r="BG10" s="29"/>
-      <c r="BH10" s="29"/>
-      <c r="BI10" s="29"/>
-      <c r="BJ10" s="29"/>
+      <c r="AG10" s="18"/>
+      <c r="AH10" s="18"/>
+      <c r="AI10" s="18"/>
+      <c r="AJ10" s="18"/>
+      <c r="AK10" s="18"/>
+      <c r="AL10" s="18"/>
+      <c r="AM10" s="18"/>
+      <c r="AN10" s="18"/>
+      <c r="AO10" s="18"/>
+      <c r="AP10" s="18"/>
+      <c r="AQ10" s="18"/>
+      <c r="AR10" s="18"/>
+      <c r="AS10" s="18"/>
+      <c r="AT10" s="18"/>
+      <c r="AU10" s="18"/>
+      <c r="AV10" s="18"/>
+      <c r="AW10" s="18"/>
+      <c r="AX10" s="18"/>
+      <c r="AY10" s="18"/>
+      <c r="AZ10" s="18"/>
+      <c r="BA10" s="18"/>
+      <c r="BB10" s="18"/>
+      <c r="BC10" s="18"/>
+      <c r="BD10" s="18"/>
+      <c r="BE10" s="18"/>
+      <c r="BF10" s="18"/>
+      <c r="BG10" s="18"/>
+      <c r="BH10" s="18"/>
+      <c r="BI10" s="18"/>
+      <c r="BJ10" s="18"/>
       <c r="BK10" s="2"/>
     </row>
     <row r="11" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28" t="s">
+      <c r="D11" s="16"/>
+      <c r="E11" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="27" t="s">
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="27"/>
-      <c r="AB11" s="27" t="s">
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="AC11" s="27"/>
-      <c r="AD11" s="27"/>
-      <c r="AE11" s="27"/>
-      <c r="AF11" s="29" t="s">
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="AG11" s="29"/>
-      <c r="AH11" s="29"/>
-      <c r="AI11" s="29"/>
-      <c r="AJ11" s="29"/>
-      <c r="AK11" s="29"/>
-      <c r="AL11" s="29"/>
-      <c r="AM11" s="29"/>
-      <c r="AN11" s="29"/>
-      <c r="AO11" s="29"/>
-      <c r="AP11" s="29"/>
-      <c r="AQ11" s="29"/>
-      <c r="AR11" s="29"/>
-      <c r="AS11" s="29"/>
-      <c r="AT11" s="29"/>
-      <c r="AU11" s="29"/>
-      <c r="AV11" s="29"/>
-      <c r="AW11" s="29"/>
-      <c r="AX11" s="29"/>
-      <c r="AY11" s="29"/>
-      <c r="AZ11" s="29"/>
-      <c r="BA11" s="29"/>
-      <c r="BB11" s="29"/>
-      <c r="BC11" s="29"/>
-      <c r="BD11" s="29"/>
-      <c r="BE11" s="29"/>
-      <c r="BF11" s="29"/>
-      <c r="BG11" s="29"/>
-      <c r="BH11" s="29"/>
-      <c r="BI11" s="29"/>
-      <c r="BJ11" s="29"/>
+      <c r="AG11" s="18"/>
+      <c r="AH11" s="18"/>
+      <c r="AI11" s="18"/>
+      <c r="AJ11" s="18"/>
+      <c r="AK11" s="18"/>
+      <c r="AL11" s="18"/>
+      <c r="AM11" s="18"/>
+      <c r="AN11" s="18"/>
+      <c r="AO11" s="18"/>
+      <c r="AP11" s="18"/>
+      <c r="AQ11" s="18"/>
+      <c r="AR11" s="18"/>
+      <c r="AS11" s="18"/>
+      <c r="AT11" s="18"/>
+      <c r="AU11" s="18"/>
+      <c r="AV11" s="18"/>
+      <c r="AW11" s="18"/>
+      <c r="AX11" s="18"/>
+      <c r="AY11" s="18"/>
+      <c r="AZ11" s="18"/>
+      <c r="BA11" s="18"/>
+      <c r="BB11" s="18"/>
+      <c r="BC11" s="18"/>
+      <c r="BD11" s="18"/>
+      <c r="BE11" s="18"/>
+      <c r="BF11" s="18"/>
+      <c r="BG11" s="18"/>
+      <c r="BH11" s="18"/>
+      <c r="BI11" s="18"/>
+      <c r="BJ11" s="18"/>
       <c r="BK11" s="2"/>
     </row>
     <row r="12" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="27" t="s">
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="27"/>
-      <c r="AB12" s="27" t="s">
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="AC12" s="27"/>
-      <c r="AD12" s="27"/>
-      <c r="AE12" s="27"/>
-      <c r="AF12" s="29" t="s">
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="AG12" s="29"/>
-      <c r="AH12" s="29"/>
-      <c r="AI12" s="29"/>
-      <c r="AJ12" s="29"/>
-      <c r="AK12" s="29"/>
-      <c r="AL12" s="29"/>
-      <c r="AM12" s="29"/>
-      <c r="AN12" s="29"/>
-      <c r="AO12" s="29"/>
-      <c r="AP12" s="29"/>
-      <c r="AQ12" s="29"/>
-      <c r="AR12" s="29"/>
-      <c r="AS12" s="29"/>
-      <c r="AT12" s="29"/>
-      <c r="AU12" s="29"/>
-      <c r="AV12" s="29"/>
-      <c r="AW12" s="29"/>
-      <c r="AX12" s="29"/>
-      <c r="AY12" s="29"/>
-      <c r="AZ12" s="29"/>
-      <c r="BA12" s="29"/>
-      <c r="BB12" s="29"/>
-      <c r="BC12" s="29"/>
-      <c r="BD12" s="29"/>
-      <c r="BE12" s="29"/>
-      <c r="BF12" s="29"/>
-      <c r="BG12" s="29"/>
-      <c r="BH12" s="29"/>
-      <c r="BI12" s="29"/>
-      <c r="BJ12" s="29"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="18"/>
+      <c r="AJ12" s="18"/>
+      <c r="AK12" s="18"/>
+      <c r="AL12" s="18"/>
+      <c r="AM12" s="18"/>
+      <c r="AN12" s="18"/>
+      <c r="AO12" s="18"/>
+      <c r="AP12" s="18"/>
+      <c r="AQ12" s="18"/>
+      <c r="AR12" s="18"/>
+      <c r="AS12" s="18"/>
+      <c r="AT12" s="18"/>
+      <c r="AU12" s="18"/>
+      <c r="AV12" s="18"/>
+      <c r="AW12" s="18"/>
+      <c r="AX12" s="18"/>
+      <c r="AY12" s="18"/>
+      <c r="AZ12" s="18"/>
+      <c r="BA12" s="18"/>
+      <c r="BB12" s="18"/>
+      <c r="BC12" s="18"/>
+      <c r="BD12" s="18"/>
+      <c r="BE12" s="18"/>
+      <c r="BF12" s="18"/>
+      <c r="BG12" s="18"/>
+      <c r="BH12" s="18"/>
+      <c r="BI12" s="18"/>
+      <c r="BJ12" s="18"/>
       <c r="BK12" s="2"/>
     </row>
     <row r="13" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28" t="s">
+      <c r="D13" s="16"/>
+      <c r="E13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="27" t="s">
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="27" t="s">
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AC13" s="27"/>
-      <c r="AD13" s="27"/>
-      <c r="AE13" s="27"/>
-      <c r="AF13" s="29" t="s">
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="AG13" s="29"/>
-      <c r="AH13" s="29"/>
-      <c r="AI13" s="29"/>
-      <c r="AJ13" s="29"/>
-      <c r="AK13" s="29"/>
-      <c r="AL13" s="29"/>
-      <c r="AM13" s="29"/>
-      <c r="AN13" s="29"/>
-      <c r="AO13" s="29"/>
-      <c r="AP13" s="29"/>
-      <c r="AQ13" s="29"/>
-      <c r="AR13" s="29"/>
-      <c r="AS13" s="29"/>
-      <c r="AT13" s="29"/>
-      <c r="AU13" s="29"/>
-      <c r="AV13" s="29"/>
-      <c r="AW13" s="29"/>
-      <c r="AX13" s="29"/>
-      <c r="AY13" s="29"/>
-      <c r="AZ13" s="29"/>
-      <c r="BA13" s="29"/>
-      <c r="BB13" s="29"/>
-      <c r="BC13" s="29"/>
-      <c r="BD13" s="29"/>
-      <c r="BE13" s="29"/>
-      <c r="BF13" s="29"/>
-      <c r="BG13" s="29"/>
-      <c r="BH13" s="29"/>
-      <c r="BI13" s="29"/>
-      <c r="BJ13" s="29"/>
+      <c r="AG13" s="18"/>
+      <c r="AH13" s="18"/>
+      <c r="AI13" s="18"/>
+      <c r="AJ13" s="18"/>
+      <c r="AK13" s="18"/>
+      <c r="AL13" s="18"/>
+      <c r="AM13" s="18"/>
+      <c r="AN13" s="18"/>
+      <c r="AO13" s="18"/>
+      <c r="AP13" s="18"/>
+      <c r="AQ13" s="18"/>
+      <c r="AR13" s="18"/>
+      <c r="AS13" s="18"/>
+      <c r="AT13" s="18"/>
+      <c r="AU13" s="18"/>
+      <c r="AV13" s="18"/>
+      <c r="AW13" s="18"/>
+      <c r="AX13" s="18"/>
+      <c r="AY13" s="18"/>
+      <c r="AZ13" s="18"/>
+      <c r="BA13" s="18"/>
+      <c r="BB13" s="18"/>
+      <c r="BC13" s="18"/>
+      <c r="BD13" s="18"/>
+      <c r="BE13" s="18"/>
+      <c r="BF13" s="18"/>
+      <c r="BG13" s="18"/>
+      <c r="BH13" s="18"/>
+      <c r="BI13" s="18"/>
+      <c r="BJ13" s="18"/>
       <c r="BK13" s="2"/>
     </row>
     <row r="14" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2876,510 +3237,510 @@
     </row>
     <row r="16" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22" t="s">
+      <c r="D16" s="19"/>
+      <c r="E16" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="23" t="s">
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="23" t="s">
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AC16" s="21"/>
-      <c r="AD16" s="21"/>
-      <c r="AE16" s="21"/>
-      <c r="AF16" s="21" t="s">
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="AG16" s="21"/>
-      <c r="AH16" s="21"/>
-      <c r="AI16" s="21"/>
-      <c r="AJ16" s="21"/>
-      <c r="AK16" s="21"/>
-      <c r="AL16" s="21"/>
-      <c r="AM16" s="21"/>
-      <c r="AN16" s="21"/>
-      <c r="AO16" s="21"/>
-      <c r="AP16" s="21"/>
-      <c r="AQ16" s="21"/>
-      <c r="AR16" s="21"/>
-      <c r="AS16" s="21"/>
-      <c r="AT16" s="21"/>
-      <c r="AU16" s="21"/>
-      <c r="AV16" s="21"/>
-      <c r="AW16" s="21"/>
-      <c r="AX16" s="21"/>
-      <c r="AY16" s="21"/>
-      <c r="AZ16" s="21"/>
-      <c r="BA16" s="21"/>
-      <c r="BB16" s="21"/>
-      <c r="BC16" s="21"/>
-      <c r="BD16" s="21"/>
-      <c r="BE16" s="21"/>
-      <c r="BF16" s="21"/>
-      <c r="BG16" s="21"/>
-      <c r="BH16" s="21"/>
-      <c r="BI16" s="21"/>
-      <c r="BJ16" s="21"/>
+      <c r="AG16" s="19"/>
+      <c r="AH16" s="19"/>
+      <c r="AI16" s="19"/>
+      <c r="AJ16" s="19"/>
+      <c r="AK16" s="19"/>
+      <c r="AL16" s="19"/>
+      <c r="AM16" s="19"/>
+      <c r="AN16" s="19"/>
+      <c r="AO16" s="19"/>
+      <c r="AP16" s="19"/>
+      <c r="AQ16" s="19"/>
+      <c r="AR16" s="19"/>
+      <c r="AS16" s="19"/>
+      <c r="AT16" s="19"/>
+      <c r="AU16" s="19"/>
+      <c r="AV16" s="19"/>
+      <c r="AW16" s="19"/>
+      <c r="AX16" s="19"/>
+      <c r="AY16" s="19"/>
+      <c r="AZ16" s="19"/>
+      <c r="BA16" s="19"/>
+      <c r="BB16" s="19"/>
+      <c r="BC16" s="19"/>
+      <c r="BD16" s="19"/>
+      <c r="BE16" s="19"/>
+      <c r="BF16" s="19"/>
+      <c r="BG16" s="19"/>
+      <c r="BH16" s="19"/>
+      <c r="BI16" s="19"/>
+      <c r="BJ16" s="19"/>
       <c r="BK16" s="2"/>
     </row>
     <row r="17" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="21"/>
-      <c r="AC17" s="21"/>
-      <c r="AD17" s="21"/>
-      <c r="AE17" s="21"/>
-      <c r="AF17" s="21"/>
-      <c r="AG17" s="21"/>
-      <c r="AH17" s="21"/>
-      <c r="AI17" s="21"/>
-      <c r="AJ17" s="21"/>
-      <c r="AK17" s="21"/>
-      <c r="AL17" s="21"/>
-      <c r="AM17" s="21"/>
-      <c r="AN17" s="21"/>
-      <c r="AO17" s="21"/>
-      <c r="AP17" s="21"/>
-      <c r="AQ17" s="21"/>
-      <c r="AR17" s="21"/>
-      <c r="AS17" s="21"/>
-      <c r="AT17" s="21"/>
-      <c r="AU17" s="21"/>
-      <c r="AV17" s="21"/>
-      <c r="AW17" s="21"/>
-      <c r="AX17" s="21"/>
-      <c r="AY17" s="21"/>
-      <c r="AZ17" s="21"/>
-      <c r="BA17" s="21"/>
-      <c r="BB17" s="21"/>
-      <c r="BC17" s="21"/>
-      <c r="BD17" s="21"/>
-      <c r="BE17" s="21"/>
-      <c r="BF17" s="21"/>
-      <c r="BG17" s="21"/>
-      <c r="BH17" s="21"/>
-      <c r="BI17" s="21"/>
-      <c r="BJ17" s="21"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="19"/>
+      <c r="AF17" s="19"/>
+      <c r="AG17" s="19"/>
+      <c r="AH17" s="19"/>
+      <c r="AI17" s="19"/>
+      <c r="AJ17" s="19"/>
+      <c r="AK17" s="19"/>
+      <c r="AL17" s="19"/>
+      <c r="AM17" s="19"/>
+      <c r="AN17" s="19"/>
+      <c r="AO17" s="19"/>
+      <c r="AP17" s="19"/>
+      <c r="AQ17" s="19"/>
+      <c r="AR17" s="19"/>
+      <c r="AS17" s="19"/>
+      <c r="AT17" s="19"/>
+      <c r="AU17" s="19"/>
+      <c r="AV17" s="19"/>
+      <c r="AW17" s="19"/>
+      <c r="AX17" s="19"/>
+      <c r="AY17" s="19"/>
+      <c r="AZ17" s="19"/>
+      <c r="BA17" s="19"/>
+      <c r="BB17" s="19"/>
+      <c r="BC17" s="19"/>
+      <c r="BD17" s="19"/>
+      <c r="BE17" s="19"/>
+      <c r="BF17" s="19"/>
+      <c r="BG17" s="19"/>
+      <c r="BH17" s="19"/>
+      <c r="BI17" s="19"/>
+      <c r="BJ17" s="19"/>
       <c r="BK17" s="2"/>
     </row>
     <row r="18" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="27" t="s">
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="27"/>
-      <c r="AB18" s="27" t="s">
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AC18" s="27"/>
-      <c r="AD18" s="27"/>
-      <c r="AE18" s="27"/>
-      <c r="AF18" s="29" t="s">
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="AG18" s="29"/>
-      <c r="AH18" s="29"/>
-      <c r="AI18" s="29"/>
-      <c r="AJ18" s="29"/>
-      <c r="AK18" s="29"/>
-      <c r="AL18" s="29"/>
-      <c r="AM18" s="29"/>
-      <c r="AN18" s="29"/>
-      <c r="AO18" s="29"/>
-      <c r="AP18" s="29"/>
-      <c r="AQ18" s="29"/>
-      <c r="AR18" s="29"/>
-      <c r="AS18" s="29"/>
-      <c r="AT18" s="29"/>
-      <c r="AU18" s="29"/>
-      <c r="AV18" s="29"/>
-      <c r="AW18" s="29"/>
-      <c r="AX18" s="29"/>
-      <c r="AY18" s="29"/>
-      <c r="AZ18" s="29"/>
-      <c r="BA18" s="29"/>
-      <c r="BB18" s="29"/>
-      <c r="BC18" s="29"/>
-      <c r="BD18" s="29"/>
-      <c r="BE18" s="29"/>
-      <c r="BF18" s="29"/>
-      <c r="BG18" s="29"/>
-      <c r="BH18" s="29"/>
-      <c r="BI18" s="29"/>
-      <c r="BJ18" s="29"/>
+      <c r="AG18" s="18"/>
+      <c r="AH18" s="18"/>
+      <c r="AI18" s="18"/>
+      <c r="AJ18" s="18"/>
+      <c r="AK18" s="18"/>
+      <c r="AL18" s="18"/>
+      <c r="AM18" s="18"/>
+      <c r="AN18" s="18"/>
+      <c r="AO18" s="18"/>
+      <c r="AP18" s="18"/>
+      <c r="AQ18" s="18"/>
+      <c r="AR18" s="18"/>
+      <c r="AS18" s="18"/>
+      <c r="AT18" s="18"/>
+      <c r="AU18" s="18"/>
+      <c r="AV18" s="18"/>
+      <c r="AW18" s="18"/>
+      <c r="AX18" s="18"/>
+      <c r="AY18" s="18"/>
+      <c r="AZ18" s="18"/>
+      <c r="BA18" s="18"/>
+      <c r="BB18" s="18"/>
+      <c r="BC18" s="18"/>
+      <c r="BD18" s="18"/>
+      <c r="BE18" s="18"/>
+      <c r="BF18" s="18"/>
+      <c r="BG18" s="18"/>
+      <c r="BH18" s="18"/>
+      <c r="BI18" s="18"/>
+      <c r="BJ18" s="18"/>
       <c r="BK18" s="2"/>
     </row>
     <row r="19" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="28" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="27" t="s">
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="27"/>
-      <c r="AB19" s="27" t="s">
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AC19" s="27"/>
-      <c r="AD19" s="27"/>
-      <c r="AE19" s="27"/>
-      <c r="AF19" s="29" t="s">
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="16"/>
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="AG19" s="29"/>
-      <c r="AH19" s="29"/>
-      <c r="AI19" s="29"/>
-      <c r="AJ19" s="29"/>
-      <c r="AK19" s="29"/>
-      <c r="AL19" s="29"/>
-      <c r="AM19" s="29"/>
-      <c r="AN19" s="29"/>
-      <c r="AO19" s="29"/>
-      <c r="AP19" s="29"/>
-      <c r="AQ19" s="29"/>
-      <c r="AR19" s="29"/>
-      <c r="AS19" s="29"/>
-      <c r="AT19" s="29"/>
-      <c r="AU19" s="29"/>
-      <c r="AV19" s="29"/>
-      <c r="AW19" s="29"/>
-      <c r="AX19" s="29"/>
-      <c r="AY19" s="29"/>
-      <c r="AZ19" s="29"/>
-      <c r="BA19" s="29"/>
-      <c r="BB19" s="29"/>
-      <c r="BC19" s="29"/>
-      <c r="BD19" s="29"/>
-      <c r="BE19" s="29"/>
-      <c r="BF19" s="29"/>
-      <c r="BG19" s="29"/>
-      <c r="BH19" s="29"/>
-      <c r="BI19" s="29"/>
-      <c r="BJ19" s="29"/>
+      <c r="AG19" s="18"/>
+      <c r="AH19" s="18"/>
+      <c r="AI19" s="18"/>
+      <c r="AJ19" s="18"/>
+      <c r="AK19" s="18"/>
+      <c r="AL19" s="18"/>
+      <c r="AM19" s="18"/>
+      <c r="AN19" s="18"/>
+      <c r="AO19" s="18"/>
+      <c r="AP19" s="18"/>
+      <c r="AQ19" s="18"/>
+      <c r="AR19" s="18"/>
+      <c r="AS19" s="18"/>
+      <c r="AT19" s="18"/>
+      <c r="AU19" s="18"/>
+      <c r="AV19" s="18"/>
+      <c r="AW19" s="18"/>
+      <c r="AX19" s="18"/>
+      <c r="AY19" s="18"/>
+      <c r="AZ19" s="18"/>
+      <c r="BA19" s="18"/>
+      <c r="BB19" s="18"/>
+      <c r="BC19" s="18"/>
+      <c r="BD19" s="18"/>
+      <c r="BE19" s="18"/>
+      <c r="BF19" s="18"/>
+      <c r="BG19" s="18"/>
+      <c r="BH19" s="18"/>
+      <c r="BI19" s="18"/>
+      <c r="BJ19" s="18"/>
       <c r="BK19" s="2"/>
     </row>
     <row r="20" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28" t="s">
+      <c r="D20" s="16"/>
+      <c r="E20" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="27" t="s">
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="27"/>
-      <c r="AB20" s="27" t="s">
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="AC20" s="27"/>
-      <c r="AD20" s="27"/>
-      <c r="AE20" s="27"/>
-      <c r="AF20" s="29" t="s">
+      <c r="AC20" s="16"/>
+      <c r="AD20" s="16"/>
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AG20" s="29"/>
-      <c r="AH20" s="29"/>
-      <c r="AI20" s="29"/>
-      <c r="AJ20" s="29"/>
-      <c r="AK20" s="29"/>
-      <c r="AL20" s="29"/>
-      <c r="AM20" s="29"/>
-      <c r="AN20" s="29"/>
-      <c r="AO20" s="29"/>
-      <c r="AP20" s="29"/>
-      <c r="AQ20" s="29"/>
-      <c r="AR20" s="29"/>
-      <c r="AS20" s="29"/>
-      <c r="AT20" s="29"/>
-      <c r="AU20" s="29"/>
-      <c r="AV20" s="29"/>
-      <c r="AW20" s="29"/>
-      <c r="AX20" s="29"/>
-      <c r="AY20" s="29"/>
-      <c r="AZ20" s="29"/>
-      <c r="BA20" s="29"/>
-      <c r="BB20" s="29"/>
-      <c r="BC20" s="29"/>
-      <c r="BD20" s="29"/>
-      <c r="BE20" s="29"/>
-      <c r="BF20" s="29"/>
-      <c r="BG20" s="29"/>
-      <c r="BH20" s="29"/>
-      <c r="BI20" s="29"/>
-      <c r="BJ20" s="29"/>
+      <c r="AG20" s="18"/>
+      <c r="AH20" s="18"/>
+      <c r="AI20" s="18"/>
+      <c r="AJ20" s="18"/>
+      <c r="AK20" s="18"/>
+      <c r="AL20" s="18"/>
+      <c r="AM20" s="18"/>
+      <c r="AN20" s="18"/>
+      <c r="AO20" s="18"/>
+      <c r="AP20" s="18"/>
+      <c r="AQ20" s="18"/>
+      <c r="AR20" s="18"/>
+      <c r="AS20" s="18"/>
+      <c r="AT20" s="18"/>
+      <c r="AU20" s="18"/>
+      <c r="AV20" s="18"/>
+      <c r="AW20" s="18"/>
+      <c r="AX20" s="18"/>
+      <c r="AY20" s="18"/>
+      <c r="AZ20" s="18"/>
+      <c r="BA20" s="18"/>
+      <c r="BB20" s="18"/>
+      <c r="BC20" s="18"/>
+      <c r="BD20" s="18"/>
+      <c r="BE20" s="18"/>
+      <c r="BF20" s="18"/>
+      <c r="BG20" s="18"/>
+      <c r="BH20" s="18"/>
+      <c r="BI20" s="18"/>
+      <c r="BJ20" s="18"/>
       <c r="BK20" s="2"/>
     </row>
     <row r="21" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="28" t="s">
+      <c r="D21" s="16"/>
+      <c r="E21" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="27" t="s">
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="27"/>
-      <c r="AB21" s="27" t="s">
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="AC21" s="27"/>
-      <c r="AD21" s="27"/>
-      <c r="AE21" s="27"/>
-      <c r="AF21" s="29" t="s">
+      <c r="AC21" s="16"/>
+      <c r="AD21" s="16"/>
+      <c r="AE21" s="16"/>
+      <c r="AF21" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="AG21" s="29"/>
-      <c r="AH21" s="29"/>
-      <c r="AI21" s="29"/>
-      <c r="AJ21" s="29"/>
-      <c r="AK21" s="29"/>
-      <c r="AL21" s="29"/>
-      <c r="AM21" s="29"/>
-      <c r="AN21" s="29"/>
-      <c r="AO21" s="29"/>
-      <c r="AP21" s="29"/>
-      <c r="AQ21" s="29"/>
-      <c r="AR21" s="29"/>
-      <c r="AS21" s="29"/>
-      <c r="AT21" s="29"/>
-      <c r="AU21" s="29"/>
-      <c r="AV21" s="29"/>
-      <c r="AW21" s="29"/>
-      <c r="AX21" s="29"/>
-      <c r="AY21" s="29"/>
-      <c r="AZ21" s="29"/>
-      <c r="BA21" s="29"/>
-      <c r="BB21" s="29"/>
-      <c r="BC21" s="29"/>
-      <c r="BD21" s="29"/>
-      <c r="BE21" s="29"/>
-      <c r="BF21" s="29"/>
-      <c r="BG21" s="29"/>
-      <c r="BH21" s="29"/>
-      <c r="BI21" s="29"/>
-      <c r="BJ21" s="29"/>
+      <c r="AG21" s="18"/>
+      <c r="AH21" s="18"/>
+      <c r="AI21" s="18"/>
+      <c r="AJ21" s="18"/>
+      <c r="AK21" s="18"/>
+      <c r="AL21" s="18"/>
+      <c r="AM21" s="18"/>
+      <c r="AN21" s="18"/>
+      <c r="AO21" s="18"/>
+      <c r="AP21" s="18"/>
+      <c r="AQ21" s="18"/>
+      <c r="AR21" s="18"/>
+      <c r="AS21" s="18"/>
+      <c r="AT21" s="18"/>
+      <c r="AU21" s="18"/>
+      <c r="AV21" s="18"/>
+      <c r="AW21" s="18"/>
+      <c r="AX21" s="18"/>
+      <c r="AY21" s="18"/>
+      <c r="AZ21" s="18"/>
+      <c r="BA21" s="18"/>
+      <c r="BB21" s="18"/>
+      <c r="BC21" s="18"/>
+      <c r="BD21" s="18"/>
+      <c r="BE21" s="18"/>
+      <c r="BF21" s="18"/>
+      <c r="BG21" s="18"/>
+      <c r="BH21" s="18"/>
+      <c r="BI21" s="18"/>
+      <c r="BJ21" s="18"/>
       <c r="BK21" s="2"/>
     </row>
     <row r="22" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="28" t="s">
+      <c r="D22" s="16"/>
+      <c r="E22" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="27" t="s">
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="27"/>
-      <c r="AB22" s="27" t="s">
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="27"/>
-      <c r="AE22" s="27"/>
-      <c r="AF22" s="29" t="s">
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="16"/>
+      <c r="AE22" s="16"/>
+      <c r="AF22" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="AG22" s="29"/>
-      <c r="AH22" s="29"/>
-      <c r="AI22" s="29"/>
-      <c r="AJ22" s="29"/>
-      <c r="AK22" s="29"/>
-      <c r="AL22" s="29"/>
-      <c r="AM22" s="29"/>
-      <c r="AN22" s="29"/>
-      <c r="AO22" s="29"/>
-      <c r="AP22" s="29"/>
-      <c r="AQ22" s="29"/>
-      <c r="AR22" s="29"/>
-      <c r="AS22" s="29"/>
-      <c r="AT22" s="29"/>
-      <c r="AU22" s="29"/>
-      <c r="AV22" s="29"/>
-      <c r="AW22" s="29"/>
-      <c r="AX22" s="29"/>
-      <c r="AY22" s="29"/>
-      <c r="AZ22" s="29"/>
-      <c r="BA22" s="29"/>
-      <c r="BB22" s="29"/>
-      <c r="BC22" s="29"/>
-      <c r="BD22" s="29"/>
-      <c r="BE22" s="29"/>
-      <c r="BF22" s="29"/>
-      <c r="BG22" s="29"/>
-      <c r="BH22" s="29"/>
-      <c r="BI22" s="29"/>
-      <c r="BJ22" s="29"/>
+      <c r="AG22" s="18"/>
+      <c r="AH22" s="18"/>
+      <c r="AI22" s="18"/>
+      <c r="AJ22" s="18"/>
+      <c r="AK22" s="18"/>
+      <c r="AL22" s="18"/>
+      <c r="AM22" s="18"/>
+      <c r="AN22" s="18"/>
+      <c r="AO22" s="18"/>
+      <c r="AP22" s="18"/>
+      <c r="AQ22" s="18"/>
+      <c r="AR22" s="18"/>
+      <c r="AS22" s="18"/>
+      <c r="AT22" s="18"/>
+      <c r="AU22" s="18"/>
+      <c r="AV22" s="18"/>
+      <c r="AW22" s="18"/>
+      <c r="AX22" s="18"/>
+      <c r="AY22" s="18"/>
+      <c r="AZ22" s="18"/>
+      <c r="BA22" s="18"/>
+      <c r="BB22" s="18"/>
+      <c r="BC22" s="18"/>
+      <c r="BD22" s="18"/>
+      <c r="BE22" s="18"/>
+      <c r="BF22" s="18"/>
+      <c r="BG22" s="18"/>
+      <c r="BH22" s="18"/>
+      <c r="BI22" s="18"/>
+      <c r="BJ22" s="18"/>
       <c r="BK22" s="2"/>
     </row>
     <row r="23" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3448,61 +3809,14 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="AB22:AE22"/>
-    <mergeCell ref="AF22:BJ22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="AB20:AE20"/>
-    <mergeCell ref="AF20:BJ20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="AB21:AE21"/>
-    <mergeCell ref="AF21:BJ21"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="AB18:AE18"/>
-    <mergeCell ref="AF18:BJ18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="AB19:AE19"/>
-    <mergeCell ref="AF19:BJ19"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:X13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="AB13:AE13"/>
-    <mergeCell ref="AF13:BJ13"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:X17"/>
-    <mergeCell ref="Y16:AA17"/>
-    <mergeCell ref="AB16:AE17"/>
-    <mergeCell ref="AF16:BJ17"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="AB11:AE11"/>
-    <mergeCell ref="AF11:BJ11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="AB12:AE12"/>
-    <mergeCell ref="AF12:BJ12"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="AB9:AE9"/>
-    <mergeCell ref="AF9:BJ9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="AF10:BJ10"/>
+    <mergeCell ref="B1:BK1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:AM2"/>
+    <mergeCell ref="AN2:AS2"/>
+    <mergeCell ref="AT2:AY2"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="BF2:BK2"/>
     <mergeCell ref="BF3:BK4"/>
     <mergeCell ref="C7:D8"/>
     <mergeCell ref="E7:X8"/>
@@ -3515,14 +3829,61 @@
     <mergeCell ref="AN3:AS4"/>
     <mergeCell ref="AT3:AY4"/>
     <mergeCell ref="AZ3:BE4"/>
-    <mergeCell ref="B1:BK1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="Q2:AM2"/>
-    <mergeCell ref="AN2:AS2"/>
-    <mergeCell ref="AT2:AY2"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="BF2:BK2"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="AF10:BJ10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="AB9:AE9"/>
+    <mergeCell ref="AF9:BJ9"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="AF12:BJ12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="AB11:AE11"/>
+    <mergeCell ref="AF11:BJ11"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:X17"/>
+    <mergeCell ref="Y16:AA17"/>
+    <mergeCell ref="AB16:AE17"/>
+    <mergeCell ref="AF16:BJ17"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="AF13:BJ13"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="AB19:AE19"/>
+    <mergeCell ref="AF19:BJ19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB18:AE18"/>
+    <mergeCell ref="AF18:BJ18"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AB21:AE21"/>
+    <mergeCell ref="AF21:BJ21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AB20:AE20"/>
+    <mergeCell ref="AF20:BJ20"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="AB22:AE22"/>
+    <mergeCell ref="AF22:BJ22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3534,430 +3895,430 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36293E3-BB8A-450A-AD90-324CA703073E}">
   <dimension ref="B1:BK35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="37"/>
-      <c r="AR1" s="37"/>
-      <c r="AS1" s="37"/>
-      <c r="AT1" s="37"/>
-      <c r="AU1" s="37"/>
-      <c r="AV1" s="37"/>
-      <c r="AW1" s="37"/>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="37"/>
-      <c r="AZ1" s="37"/>
-      <c r="BA1" s="37"/>
-      <c r="BB1" s="37"/>
-      <c r="BC1" s="37"/>
-      <c r="BD1" s="37"/>
-      <c r="BE1" s="37"/>
-      <c r="BF1" s="37"/>
-      <c r="BG1" s="37"/>
-      <c r="BH1" s="37"/>
-      <c r="BI1" s="37"/>
-      <c r="BJ1" s="37"/>
-      <c r="BK1" s="38"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="46"/>
+      <c r="AO1" s="46"/>
+      <c r="AP1" s="46"/>
+      <c r="AQ1" s="46"/>
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="46"/>
+      <c r="AT1" s="46"/>
+      <c r="AU1" s="46"/>
+      <c r="AV1" s="46"/>
+      <c r="AW1" s="46"/>
+      <c r="AX1" s="46"/>
+      <c r="AY1" s="46"/>
+      <c r="AZ1" s="46"/>
+      <c r="BA1" s="46"/>
+      <c r="BB1" s="46"/>
+      <c r="BC1" s="46"/>
+      <c r="BD1" s="46"/>
+      <c r="BE1" s="46"/>
+      <c r="BF1" s="46"/>
+      <c r="BG1" s="46"/>
+      <c r="BH1" s="46"/>
+      <c r="BI1" s="46"/>
+      <c r="BJ1" s="46"/>
+      <c r="BK1" s="47"/>
     </row>
     <row r="2" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="36" t="s">
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="36" t="s">
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="36" t="s">
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="46"/>
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="46"/>
+      <c r="AK2" s="46"/>
+      <c r="AL2" s="46"/>
+      <c r="AM2" s="47"/>
+      <c r="AN2" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="37"/>
-      <c r="AR2" s="37"/>
-      <c r="AS2" s="38"/>
-      <c r="AT2" s="36" t="s">
+      <c r="AO2" s="46"/>
+      <c r="AP2" s="46"/>
+      <c r="AQ2" s="46"/>
+      <c r="AR2" s="46"/>
+      <c r="AS2" s="47"/>
+      <c r="AT2" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="38"/>
-      <c r="AZ2" s="36" t="s">
+      <c r="AU2" s="46"/>
+      <c r="AV2" s="46"/>
+      <c r="AW2" s="46"/>
+      <c r="AX2" s="46"/>
+      <c r="AY2" s="47"/>
+      <c r="AZ2" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="BA2" s="37"/>
-      <c r="BB2" s="37"/>
-      <c r="BC2" s="37"/>
-      <c r="BD2" s="37"/>
-      <c r="BE2" s="38"/>
-      <c r="BF2" s="36" t="s">
+      <c r="BA2" s="46"/>
+      <c r="BB2" s="46"/>
+      <c r="BC2" s="46"/>
+      <c r="BD2" s="46"/>
+      <c r="BE2" s="47"/>
+      <c r="BF2" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="BG2" s="37"/>
-      <c r="BH2" s="37"/>
-      <c r="BI2" s="37"/>
-      <c r="BJ2" s="37"/>
-      <c r="BK2" s="38"/>
+      <c r="BG2" s="46"/>
+      <c r="BH2" s="46"/>
+      <c r="BI2" s="46"/>
+      <c r="BJ2" s="46"/>
+      <c r="BK2" s="47"/>
     </row>
     <row r="3" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="39">
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="48">
         <v>1</v>
       </c>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="39" t="s">
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="45"/>
-      <c r="AO3" s="46"/>
-      <c r="AP3" s="46"/>
-      <c r="AQ3" s="46"/>
-      <c r="AR3" s="46"/>
-      <c r="AS3" s="47"/>
-      <c r="AT3" s="51" t="s">
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="55"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="55"/>
+      <c r="AR3" s="55"/>
+      <c r="AS3" s="56"/>
+      <c r="AT3" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="AU3" s="52"/>
-      <c r="AV3" s="52"/>
-      <c r="AW3" s="52"/>
-      <c r="AX3" s="52"/>
-      <c r="AY3" s="53"/>
-      <c r="AZ3" s="45"/>
-      <c r="BA3" s="46"/>
-      <c r="BB3" s="46"/>
-      <c r="BC3" s="46"/>
-      <c r="BD3" s="46"/>
-      <c r="BE3" s="47"/>
-      <c r="BF3" s="39"/>
-      <c r="BG3" s="40"/>
-      <c r="BH3" s="40"/>
-      <c r="BI3" s="40"/>
-      <c r="BJ3" s="40"/>
-      <c r="BK3" s="41"/>
+      <c r="AU3" s="61"/>
+      <c r="AV3" s="61"/>
+      <c r="AW3" s="61"/>
+      <c r="AX3" s="61"/>
+      <c r="AY3" s="62"/>
+      <c r="AZ3" s="54"/>
+      <c r="BA3" s="55"/>
+      <c r="BB3" s="55"/>
+      <c r="BC3" s="55"/>
+      <c r="BD3" s="55"/>
+      <c r="BE3" s="56"/>
+      <c r="BF3" s="48"/>
+      <c r="BG3" s="49"/>
+      <c r="BH3" s="49"/>
+      <c r="BI3" s="49"/>
+      <c r="BJ3" s="49"/>
+      <c r="BK3" s="50"/>
     </row>
     <row r="4" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="42"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="43"/>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="44"/>
-      <c r="AN4" s="48"/>
-      <c r="AO4" s="49"/>
-      <c r="AP4" s="49"/>
-      <c r="AQ4" s="49"/>
-      <c r="AR4" s="49"/>
-      <c r="AS4" s="50"/>
-      <c r="AT4" s="54"/>
-      <c r="AU4" s="55"/>
-      <c r="AV4" s="55"/>
-      <c r="AW4" s="55"/>
-      <c r="AX4" s="55"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="48"/>
-      <c r="BA4" s="49"/>
-      <c r="BB4" s="49"/>
-      <c r="BC4" s="49"/>
-      <c r="BD4" s="49"/>
-      <c r="BE4" s="50"/>
-      <c r="BF4" s="42"/>
-      <c r="BG4" s="43"/>
-      <c r="BH4" s="43"/>
-      <c r="BI4" s="43"/>
-      <c r="BJ4" s="43"/>
-      <c r="BK4" s="44"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
+      <c r="AH4" s="52"/>
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="52"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="53"/>
+      <c r="AN4" s="57"/>
+      <c r="AO4" s="58"/>
+      <c r="AP4" s="58"/>
+      <c r="AQ4" s="58"/>
+      <c r="AR4" s="58"/>
+      <c r="AS4" s="59"/>
+      <c r="AT4" s="63"/>
+      <c r="AU4" s="64"/>
+      <c r="AV4" s="64"/>
+      <c r="AW4" s="64"/>
+      <c r="AX4" s="64"/>
+      <c r="AY4" s="65"/>
+      <c r="AZ4" s="57"/>
+      <c r="BA4" s="58"/>
+      <c r="BB4" s="58"/>
+      <c r="BC4" s="58"/>
+      <c r="BD4" s="58"/>
+      <c r="BE4" s="59"/>
+      <c r="BF4" s="51"/>
+      <c r="BG4" s="52"/>
+      <c r="BH4" s="52"/>
+      <c r="BI4" s="52"/>
+      <c r="BJ4" s="52"/>
+      <c r="BK4" s="53"/>
     </row>
     <row r="5" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="57"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="59"/>
-      <c r="Y5" s="59"/>
-      <c r="Z5" s="59"/>
-      <c r="AA5" s="59"/>
-      <c r="AB5" s="59"/>
-      <c r="AC5" s="59"/>
-      <c r="AD5" s="59"/>
-      <c r="AE5" s="59"/>
-      <c r="AF5" s="59"/>
-      <c r="AG5" s="59"/>
-      <c r="AH5" s="59"/>
-      <c r="AI5" s="59"/>
-      <c r="AJ5" s="59"/>
-      <c r="AK5" s="59"/>
-      <c r="AL5" s="59"/>
-      <c r="AM5" s="59"/>
-      <c r="AN5" s="59"/>
-      <c r="AO5" s="59"/>
-      <c r="AP5" s="59"/>
-      <c r="AQ5" s="59"/>
-      <c r="AR5" s="59"/>
-      <c r="AS5" s="59"/>
-      <c r="AT5" s="59"/>
-      <c r="AU5" s="59"/>
-      <c r="AV5" s="59"/>
-      <c r="AW5" s="59"/>
-      <c r="AX5" s="59"/>
-      <c r="AY5" s="59"/>
-      <c r="AZ5" s="59"/>
-      <c r="BA5" s="59"/>
-      <c r="BB5" s="59"/>
-      <c r="BC5" s="59"/>
-      <c r="BD5" s="59"/>
-      <c r="BE5" s="59"/>
-      <c r="BF5" s="59"/>
-      <c r="BG5" s="59"/>
-      <c r="BH5" s="59"/>
-      <c r="BI5" s="59"/>
-      <c r="BJ5" s="58"/>
-      <c r="BK5" s="58"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="43"/>
+      <c r="AJ5" s="43"/>
+      <c r="AK5" s="43"/>
+      <c r="AL5" s="43"/>
+      <c r="AM5" s="43"/>
+      <c r="AN5" s="43"/>
+      <c r="AO5" s="43"/>
+      <c r="AP5" s="43"/>
+      <c r="AQ5" s="43"/>
+      <c r="AR5" s="43"/>
+      <c r="AS5" s="43"/>
+      <c r="AT5" s="43"/>
+      <c r="AU5" s="43"/>
+      <c r="AV5" s="43"/>
+      <c r="AW5" s="43"/>
+      <c r="AX5" s="43"/>
+      <c r="AY5" s="43"/>
+      <c r="AZ5" s="43"/>
+      <c r="BA5" s="43"/>
+      <c r="BB5" s="43"/>
+      <c r="BC5" s="43"/>
+      <c r="BD5" s="43"/>
+      <c r="BE5" s="43"/>
+      <c r="BF5" s="43"/>
+      <c r="BG5" s="43"/>
+      <c r="BH5" s="43"/>
+      <c r="BI5" s="43"/>
+      <c r="BJ5" s="42"/>
+      <c r="BK5" s="42"/>
     </row>
     <row r="6" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="14"/>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="60" t="s">
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="60" t="s">
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="61"/>
-      <c r="Z6" s="61"/>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="61"/>
-      <c r="AC6" s="61"/>
-      <c r="AD6" s="61"/>
-      <c r="AE6" s="61"/>
-      <c r="AF6" s="61"/>
-      <c r="AG6" s="62"/>
-      <c r="AH6" s="60" t="s">
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="37"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="37"/>
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="AI6" s="61"/>
-      <c r="AJ6" s="61"/>
-      <c r="AK6" s="61"/>
-      <c r="AL6" s="61"/>
-      <c r="AM6" s="62"/>
-      <c r="AN6" s="60" t="s">
+      <c r="AI6" s="37"/>
+      <c r="AJ6" s="37"/>
+      <c r="AK6" s="37"/>
+      <c r="AL6" s="37"/>
+      <c r="AM6" s="38"/>
+      <c r="AN6" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="AO6" s="61"/>
-      <c r="AP6" s="61"/>
-      <c r="AQ6" s="62"/>
-      <c r="AR6" s="63" t="s">
+      <c r="AO6" s="37"/>
+      <c r="AP6" s="37"/>
+      <c r="AQ6" s="38"/>
+      <c r="AR6" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="AS6" s="64"/>
-      <c r="AT6" s="64"/>
-      <c r="AU6" s="64"/>
-      <c r="AV6" s="64"/>
-      <c r="AW6" s="64"/>
-      <c r="AX6" s="64"/>
-      <c r="AY6" s="64"/>
-      <c r="AZ6" s="64"/>
-      <c r="BA6" s="64"/>
-      <c r="BB6" s="64"/>
-      <c r="BC6" s="64"/>
-      <c r="BD6" s="64"/>
-      <c r="BE6" s="64"/>
-      <c r="BF6" s="64"/>
-      <c r="BG6" s="64"/>
-      <c r="BH6" s="64"/>
-      <c r="BI6" s="64"/>
-      <c r="BJ6" s="65"/>
+      <c r="AS6" s="40"/>
+      <c r="AT6" s="40"/>
+      <c r="AU6" s="40"/>
+      <c r="AV6" s="40"/>
+      <c r="AW6" s="40"/>
+      <c r="AX6" s="40"/>
+      <c r="AY6" s="40"/>
+      <c r="AZ6" s="40"/>
+      <c r="BA6" s="40"/>
+      <c r="BB6" s="40"/>
+      <c r="BC6" s="40"/>
+      <c r="BD6" s="40"/>
+      <c r="BE6" s="40"/>
+      <c r="BF6" s="40"/>
+      <c r="BG6" s="40"/>
+      <c r="BH6" s="40"/>
+      <c r="BI6" s="40"/>
+      <c r="BJ6" s="41"/>
       <c r="BK6" s="15"/>
     </row>
     <row r="7" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -6056,18 +6417,186 @@
     </row>
   </sheetData>
   <mergeCells count="216">
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AG34"/>
-    <mergeCell ref="AH34:AM34"/>
-    <mergeCell ref="AN34:AQ34"/>
-    <mergeCell ref="AR34:BJ34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:AG35"/>
-    <mergeCell ref="AH35:AM35"/>
-    <mergeCell ref="AN35:AQ35"/>
-    <mergeCell ref="AR35:BJ35"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AG30"/>
+    <mergeCell ref="AH30:AM30"/>
+    <mergeCell ref="AN30:AQ30"/>
+    <mergeCell ref="AR30:BJ30"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AG26"/>
+    <mergeCell ref="AH26:AM26"/>
+    <mergeCell ref="AN26:AQ26"/>
+    <mergeCell ref="AR26:BJ26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AG27"/>
+    <mergeCell ref="AH27:AM27"/>
+    <mergeCell ref="AN27:AQ27"/>
+    <mergeCell ref="AR27:BJ27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AG28"/>
+    <mergeCell ref="AH28:AM28"/>
+    <mergeCell ref="AN28:AQ28"/>
+    <mergeCell ref="AR28:BJ28"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AG24"/>
+    <mergeCell ref="AH24:AM24"/>
+    <mergeCell ref="AN24:AQ24"/>
+    <mergeCell ref="AR24:BJ24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AG25"/>
+    <mergeCell ref="AH25:AM25"/>
+    <mergeCell ref="AN25:AQ25"/>
+    <mergeCell ref="AR25:BJ25"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:AG22"/>
+    <mergeCell ref="AH22:AM22"/>
+    <mergeCell ref="AN22:AQ22"/>
+    <mergeCell ref="AR22:BJ22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AG23"/>
+    <mergeCell ref="AH23:AM23"/>
+    <mergeCell ref="AN23:AQ23"/>
+    <mergeCell ref="AR23:BJ23"/>
+    <mergeCell ref="AR18:BJ18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:AG18"/>
+    <mergeCell ref="AH18:AM18"/>
+    <mergeCell ref="AN18:AQ18"/>
+    <mergeCell ref="AR16:BJ16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:AG17"/>
+    <mergeCell ref="AH17:AM17"/>
+    <mergeCell ref="AN17:AQ17"/>
+    <mergeCell ref="AR17:BJ17"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:AG16"/>
+    <mergeCell ref="AH16:AM16"/>
+    <mergeCell ref="AN16:AQ16"/>
+    <mergeCell ref="AR14:BJ14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:AG15"/>
+    <mergeCell ref="AH15:AM15"/>
+    <mergeCell ref="AN15:AQ15"/>
+    <mergeCell ref="AR15:BJ15"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:AG14"/>
+    <mergeCell ref="AH14:AM14"/>
+    <mergeCell ref="AN14:AQ14"/>
+    <mergeCell ref="AR12:BJ12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:AG13"/>
+    <mergeCell ref="AH13:AM13"/>
+    <mergeCell ref="AN13:AQ13"/>
+    <mergeCell ref="AR13:BJ13"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:AG12"/>
+    <mergeCell ref="AH12:AM12"/>
+    <mergeCell ref="AN12:AQ12"/>
+    <mergeCell ref="B1:BK1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:AM2"/>
+    <mergeCell ref="AN2:AS2"/>
+    <mergeCell ref="AT2:AY2"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="BF2:BK2"/>
+    <mergeCell ref="BF3:BK4"/>
+    <mergeCell ref="B3:K4"/>
+    <mergeCell ref="L3:P4"/>
+    <mergeCell ref="Q3:AM4"/>
+    <mergeCell ref="AN3:AS4"/>
+    <mergeCell ref="AT3:AY4"/>
+    <mergeCell ref="AZ3:BE4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="Z5:AB5"/>
+    <mergeCell ref="BJ5:BK5"/>
+    <mergeCell ref="AC5:AE5"/>
+    <mergeCell ref="AF5:AH5"/>
+    <mergeCell ref="AI5:AK5"/>
+    <mergeCell ref="AL5:AN5"/>
+    <mergeCell ref="AO5:AQ5"/>
+    <mergeCell ref="AR5:AT5"/>
+    <mergeCell ref="AU5:AW5"/>
+    <mergeCell ref="AX5:AZ5"/>
+    <mergeCell ref="BA5:BC5"/>
+    <mergeCell ref="BD5:BF5"/>
+    <mergeCell ref="BG5:BI5"/>
+    <mergeCell ref="AR7:BJ7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:AG6"/>
+    <mergeCell ref="AH6:AM6"/>
+    <mergeCell ref="AN6:AQ6"/>
+    <mergeCell ref="AR6:BJ6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:AG7"/>
+    <mergeCell ref="AH7:AM7"/>
+    <mergeCell ref="AN7:AQ7"/>
+    <mergeCell ref="AR9:BJ9"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:AG8"/>
+    <mergeCell ref="AH8:AM8"/>
+    <mergeCell ref="AN8:AQ8"/>
+    <mergeCell ref="AR8:BJ8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:AG9"/>
+    <mergeCell ref="AH9:AM9"/>
+    <mergeCell ref="AN9:AQ9"/>
+    <mergeCell ref="AR11:BJ11"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:AG10"/>
+    <mergeCell ref="AH10:AM10"/>
+    <mergeCell ref="AN10:AQ10"/>
+    <mergeCell ref="AR10:BJ10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:AG11"/>
+    <mergeCell ref="AH11:AM11"/>
+    <mergeCell ref="AN11:AQ11"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:AG21"/>
+    <mergeCell ref="AH21:AM21"/>
+    <mergeCell ref="AN21:AQ21"/>
+    <mergeCell ref="AR21:BJ21"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:AG19"/>
+    <mergeCell ref="AH19:AM19"/>
+    <mergeCell ref="AN19:AQ19"/>
+    <mergeCell ref="AR19:BJ19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:AG20"/>
+    <mergeCell ref="AH20:AM20"/>
+    <mergeCell ref="AN20:AQ20"/>
+    <mergeCell ref="AR20:BJ20"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="F29:I29"/>
     <mergeCell ref="J29:AG29"/>
@@ -6092,186 +6621,18 @@
     <mergeCell ref="AH32:AM32"/>
     <mergeCell ref="AN32:AQ32"/>
     <mergeCell ref="AR32:BJ32"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:AG21"/>
-    <mergeCell ref="AH21:AM21"/>
-    <mergeCell ref="AN21:AQ21"/>
-    <mergeCell ref="AR21:BJ21"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:AG19"/>
-    <mergeCell ref="AH19:AM19"/>
-    <mergeCell ref="AN19:AQ19"/>
-    <mergeCell ref="AR19:BJ19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:AG20"/>
-    <mergeCell ref="AH20:AM20"/>
-    <mergeCell ref="AN20:AQ20"/>
-    <mergeCell ref="AR20:BJ20"/>
-    <mergeCell ref="AR11:BJ11"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:AG10"/>
-    <mergeCell ref="AH10:AM10"/>
-    <mergeCell ref="AN10:AQ10"/>
-    <mergeCell ref="AR10:BJ10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:AG11"/>
-    <mergeCell ref="AH11:AM11"/>
-    <mergeCell ref="AN11:AQ11"/>
-    <mergeCell ref="AR9:BJ9"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:AG8"/>
-    <mergeCell ref="AH8:AM8"/>
-    <mergeCell ref="AN8:AQ8"/>
-    <mergeCell ref="AR8:BJ8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:AG9"/>
-    <mergeCell ref="AH9:AM9"/>
-    <mergeCell ref="AN9:AQ9"/>
-    <mergeCell ref="AR7:BJ7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:AG6"/>
-    <mergeCell ref="AH6:AM6"/>
-    <mergeCell ref="AN6:AQ6"/>
-    <mergeCell ref="AR6:BJ6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:AG7"/>
-    <mergeCell ref="AH7:AM7"/>
-    <mergeCell ref="AN7:AQ7"/>
-    <mergeCell ref="BJ5:BK5"/>
-    <mergeCell ref="AC5:AE5"/>
-    <mergeCell ref="AF5:AH5"/>
-    <mergeCell ref="AI5:AK5"/>
-    <mergeCell ref="AL5:AN5"/>
-    <mergeCell ref="AO5:AQ5"/>
-    <mergeCell ref="AR5:AT5"/>
-    <mergeCell ref="AU5:AW5"/>
-    <mergeCell ref="AX5:AZ5"/>
-    <mergeCell ref="BA5:BC5"/>
-    <mergeCell ref="BD5:BF5"/>
-    <mergeCell ref="BG5:BI5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="Z5:AB5"/>
-    <mergeCell ref="B1:BK1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="Q2:AM2"/>
-    <mergeCell ref="AN2:AS2"/>
-    <mergeCell ref="AT2:AY2"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="BF2:BK2"/>
-    <mergeCell ref="BF3:BK4"/>
-    <mergeCell ref="B3:K4"/>
-    <mergeCell ref="L3:P4"/>
-    <mergeCell ref="Q3:AM4"/>
-    <mergeCell ref="AN3:AS4"/>
-    <mergeCell ref="AT3:AY4"/>
-    <mergeCell ref="AZ3:BE4"/>
-    <mergeCell ref="AR12:BJ12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:AG13"/>
-    <mergeCell ref="AH13:AM13"/>
-    <mergeCell ref="AN13:AQ13"/>
-    <mergeCell ref="AR13:BJ13"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:AG12"/>
-    <mergeCell ref="AH12:AM12"/>
-    <mergeCell ref="AN12:AQ12"/>
-    <mergeCell ref="AR14:BJ14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:AG15"/>
-    <mergeCell ref="AH15:AM15"/>
-    <mergeCell ref="AN15:AQ15"/>
-    <mergeCell ref="AR15:BJ15"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:AG14"/>
-    <mergeCell ref="AH14:AM14"/>
-    <mergeCell ref="AN14:AQ14"/>
-    <mergeCell ref="AR18:BJ18"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:AG18"/>
-    <mergeCell ref="AH18:AM18"/>
-    <mergeCell ref="AN18:AQ18"/>
-    <mergeCell ref="AR16:BJ16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:AG17"/>
-    <mergeCell ref="AH17:AM17"/>
-    <mergeCell ref="AN17:AQ17"/>
-    <mergeCell ref="AR17:BJ17"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:AG16"/>
-    <mergeCell ref="AH16:AM16"/>
-    <mergeCell ref="AN16:AQ16"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:AG22"/>
-    <mergeCell ref="AH22:AM22"/>
-    <mergeCell ref="AN22:AQ22"/>
-    <mergeCell ref="AR22:BJ22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AG23"/>
-    <mergeCell ref="AH23:AM23"/>
-    <mergeCell ref="AN23:AQ23"/>
-    <mergeCell ref="AR23:BJ23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AG24"/>
-    <mergeCell ref="AH24:AM24"/>
-    <mergeCell ref="AN24:AQ24"/>
-    <mergeCell ref="AR24:BJ24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AG25"/>
-    <mergeCell ref="AH25:AM25"/>
-    <mergeCell ref="AN25:AQ25"/>
-    <mergeCell ref="AR25:BJ25"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AG30"/>
-    <mergeCell ref="AH30:AM30"/>
-    <mergeCell ref="AN30:AQ30"/>
-    <mergeCell ref="AR30:BJ30"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AG26"/>
-    <mergeCell ref="AH26:AM26"/>
-    <mergeCell ref="AN26:AQ26"/>
-    <mergeCell ref="AR26:BJ26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AG27"/>
-    <mergeCell ref="AH27:AM27"/>
-    <mergeCell ref="AN27:AQ27"/>
-    <mergeCell ref="AR27:BJ27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AG28"/>
-    <mergeCell ref="AH28:AM28"/>
-    <mergeCell ref="AN28:AQ28"/>
-    <mergeCell ref="AR28:BJ28"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AG34"/>
+    <mergeCell ref="AH34:AM34"/>
+    <mergeCell ref="AN34:AQ34"/>
+    <mergeCell ref="AR34:BJ34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:AG35"/>
+    <mergeCell ref="AH35:AM35"/>
+    <mergeCell ref="AN35:AQ35"/>
+    <mergeCell ref="AR35:BJ35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6281,14 +6642,2948 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53580EB5-55E3-4A05-B78B-1201B5F81BCA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:BL41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31:AK31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="66"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="66"/>
+      <c r="AP1" s="66"/>
+      <c r="AQ1" s="66"/>
+      <c r="AR1" s="66"/>
+      <c r="AS1" s="66"/>
+      <c r="AT1" s="66"/>
+      <c r="AU1" s="66"/>
+      <c r="AV1" s="66"/>
+      <c r="AW1" s="66"/>
+      <c r="AX1" s="66"/>
+      <c r="AY1" s="66"/>
+      <c r="AZ1" s="66"/>
+      <c r="BA1" s="66"/>
+      <c r="BB1" s="66"/>
+      <c r="BC1" s="66"/>
+      <c r="BD1" s="66"/>
+      <c r="BE1" s="66"/>
+      <c r="BF1" s="66"/>
+      <c r="BG1" s="66"/>
+      <c r="BH1" s="66"/>
+      <c r="BI1" s="66"/>
+      <c r="BJ1" s="66"/>
+      <c r="BK1" s="66"/>
+      <c r="BL1" s="66"/>
+    </row>
+    <row r="2" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="66"/>
+      <c r="B2" s="26" t="str">
+        <f>[1]表紙!$Q$8</f>
+        <v>人材管理ソフトメッセージ仕様書</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="27"/>
+      <c r="AP2" s="27"/>
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="27"/>
+      <c r="AS2" s="27"/>
+      <c r="AT2" s="27"/>
+      <c r="AU2" s="27"/>
+      <c r="AV2" s="27"/>
+      <c r="AW2" s="27"/>
+      <c r="AX2" s="27"/>
+      <c r="AY2" s="27"/>
+      <c r="AZ2" s="27"/>
+      <c r="BA2" s="27"/>
+      <c r="BB2" s="27"/>
+      <c r="BC2" s="27"/>
+      <c r="BD2" s="27"/>
+      <c r="BE2" s="27"/>
+      <c r="BF2" s="27"/>
+      <c r="BG2" s="27"/>
+      <c r="BH2" s="27"/>
+      <c r="BI2" s="27"/>
+      <c r="BJ2" s="27"/>
+      <c r="BK2" s="27"/>
+      <c r="BL2" s="66"/>
+    </row>
+    <row r="3" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="66"/>
+      <c r="B3" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="28"/>
+      <c r="AG3" s="28"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="28"/>
+      <c r="AN3" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO3" s="29"/>
+      <c r="AP3" s="29"/>
+      <c r="AQ3" s="29"/>
+      <c r="AR3" s="29"/>
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU3" s="28"/>
+      <c r="AV3" s="28"/>
+      <c r="AW3" s="28"/>
+      <c r="AX3" s="28"/>
+      <c r="AY3" s="28"/>
+      <c r="AZ3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="BA3" s="28"/>
+      <c r="BB3" s="28"/>
+      <c r="BC3" s="28"/>
+      <c r="BD3" s="28"/>
+      <c r="BE3" s="28"/>
+      <c r="BF3" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG3" s="28"/>
+      <c r="BH3" s="28"/>
+      <c r="BI3" s="28"/>
+      <c r="BJ3" s="28"/>
+      <c r="BK3" s="28"/>
+      <c r="BL3" s="66"/>
+    </row>
+    <row r="4" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="66"/>
+      <c r="B4" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="24">
+        <f>[1]表紙!$L$8</f>
+        <v>1.06</v>
+      </c>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="22"/>
+      <c r="AL4" s="22"/>
+      <c r="AM4" s="22"/>
+      <c r="AN4" s="25">
+        <v>44062</v>
+      </c>
+      <c r="AO4" s="22"/>
+      <c r="AP4" s="22"/>
+      <c r="AQ4" s="22"/>
+      <c r="AR4" s="22"/>
+      <c r="AS4" s="22"/>
+      <c r="AT4" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU4" s="25"/>
+      <c r="AV4" s="25"/>
+      <c r="AW4" s="25"/>
+      <c r="AX4" s="25"/>
+      <c r="AY4" s="25"/>
+      <c r="AZ4" s="25">
+        <v>40410</v>
+      </c>
+      <c r="BA4" s="22"/>
+      <c r="BB4" s="22"/>
+      <c r="BC4" s="22"/>
+      <c r="BD4" s="22"/>
+      <c r="BE4" s="22"/>
+      <c r="BF4" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="BG4" s="22"/>
+      <c r="BH4" s="22"/>
+      <c r="BI4" s="22"/>
+      <c r="BJ4" s="22"/>
+      <c r="BK4" s="22"/>
+      <c r="BL4" s="66"/>
+    </row>
+    <row r="5" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="66"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="22"/>
+      <c r="AF5" s="22"/>
+      <c r="AG5" s="22"/>
+      <c r="AH5" s="22"/>
+      <c r="AI5" s="22"/>
+      <c r="AJ5" s="22"/>
+      <c r="AK5" s="22"/>
+      <c r="AL5" s="22"/>
+      <c r="AM5" s="22"/>
+      <c r="AN5" s="22"/>
+      <c r="AO5" s="22"/>
+      <c r="AP5" s="22"/>
+      <c r="AQ5" s="22"/>
+      <c r="AR5" s="22"/>
+      <c r="AS5" s="22"/>
+      <c r="AT5" s="25"/>
+      <c r="AU5" s="25"/>
+      <c r="AV5" s="25"/>
+      <c r="AW5" s="25"/>
+      <c r="AX5" s="25"/>
+      <c r="AY5" s="25"/>
+      <c r="AZ5" s="22"/>
+      <c r="BA5" s="22"/>
+      <c r="BB5" s="22"/>
+      <c r="BC5" s="22"/>
+      <c r="BD5" s="22"/>
+      <c r="BE5" s="22"/>
+      <c r="BF5" s="22"/>
+      <c r="BG5" s="22"/>
+      <c r="BH5" s="22"/>
+      <c r="BI5" s="22"/>
+      <c r="BJ5" s="22"/>
+      <c r="BK5" s="22"/>
+      <c r="BL5" s="66"/>
+    </row>
+    <row r="6" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="66"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="66"/>
+      <c r="AA6" s="66"/>
+      <c r="AB6" s="66"/>
+      <c r="AC6" s="66"/>
+      <c r="AD6" s="66"/>
+      <c r="AE6" s="66"/>
+      <c r="AF6" s="66"/>
+      <c r="AG6" s="66"/>
+      <c r="AH6" s="66"/>
+      <c r="AI6" s="66"/>
+      <c r="AJ6" s="66"/>
+      <c r="AK6" s="66"/>
+      <c r="AL6" s="66"/>
+      <c r="AM6" s="66"/>
+      <c r="AN6" s="66"/>
+      <c r="AO6" s="66"/>
+      <c r="AP6" s="66"/>
+      <c r="AQ6" s="66"/>
+      <c r="AR6" s="66"/>
+      <c r="AS6" s="66"/>
+      <c r="AT6" s="66"/>
+      <c r="AU6" s="66"/>
+      <c r="AV6" s="66"/>
+      <c r="AW6" s="66"/>
+      <c r="AX6" s="66"/>
+      <c r="AY6" s="66"/>
+      <c r="AZ6" s="66"/>
+      <c r="BA6" s="66"/>
+      <c r="BB6" s="66"/>
+      <c r="BC6" s="66"/>
+      <c r="BD6" s="66"/>
+      <c r="BE6" s="66"/>
+      <c r="BF6" s="66"/>
+      <c r="BG6" s="66"/>
+      <c r="BH6" s="66"/>
+      <c r="BI6" s="66"/>
+      <c r="BJ6" s="66"/>
+      <c r="BK6" s="2"/>
+      <c r="BL6" s="66"/>
+    </row>
+    <row r="7" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="66"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="69"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="69"/>
+      <c r="V7" s="69"/>
+      <c r="W7" s="69"/>
+      <c r="X7" s="69"/>
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="69"/>
+      <c r="AA7" s="69"/>
+      <c r="AB7" s="69"/>
+      <c r="AC7" s="69"/>
+      <c r="AD7" s="69"/>
+      <c r="AE7" s="69"/>
+      <c r="AF7" s="69"/>
+      <c r="AG7" s="69"/>
+      <c r="AH7" s="69"/>
+      <c r="AI7" s="69"/>
+      <c r="AJ7" s="69"/>
+      <c r="AK7" s="69"/>
+      <c r="AL7" s="69" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM7" s="69"/>
+      <c r="AN7" s="69"/>
+      <c r="AO7" s="69"/>
+      <c r="AP7" s="69"/>
+      <c r="AQ7" s="69"/>
+      <c r="AR7" s="69"/>
+      <c r="AS7" s="69"/>
+      <c r="AT7" s="69"/>
+      <c r="AU7" s="69"/>
+      <c r="AV7" s="69"/>
+      <c r="AW7" s="69"/>
+      <c r="AX7" s="69"/>
+      <c r="AY7" s="69"/>
+      <c r="AZ7" s="69"/>
+      <c r="BA7" s="69"/>
+      <c r="BB7" s="69"/>
+      <c r="BC7" s="69"/>
+      <c r="BD7" s="69"/>
+      <c r="BE7" s="69"/>
+      <c r="BF7" s="69"/>
+      <c r="BG7" s="69"/>
+      <c r="BH7" s="69"/>
+      <c r="BI7" s="69"/>
+      <c r="BJ7" s="69"/>
+      <c r="BK7" s="2"/>
+      <c r="BL7" s="66"/>
+    </row>
+    <row r="8" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="66"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="72"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="72"/>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="72"/>
+      <c r="AI8" s="72"/>
+      <c r="AJ8" s="72"/>
+      <c r="AK8" s="73"/>
+      <c r="AL8" s="74"/>
+      <c r="AM8" s="74"/>
+      <c r="AN8" s="74"/>
+      <c r="AO8" s="74"/>
+      <c r="AP8" s="74"/>
+      <c r="AQ8" s="74"/>
+      <c r="AR8" s="74"/>
+      <c r="AS8" s="74"/>
+      <c r="AT8" s="74"/>
+      <c r="AU8" s="74"/>
+      <c r="AV8" s="74"/>
+      <c r="AW8" s="74"/>
+      <c r="AX8" s="74"/>
+      <c r="AY8" s="74"/>
+      <c r="AZ8" s="74"/>
+      <c r="BA8" s="74"/>
+      <c r="BB8" s="74"/>
+      <c r="BC8" s="74"/>
+      <c r="BD8" s="74"/>
+      <c r="BE8" s="74"/>
+      <c r="BF8" s="74"/>
+      <c r="BG8" s="74"/>
+      <c r="BH8" s="74"/>
+      <c r="BI8" s="74"/>
+      <c r="BJ8" s="74"/>
+      <c r="BK8" s="2"/>
+      <c r="BL8" s="66"/>
+    </row>
+    <row r="9" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="66"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="70" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="75"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="75"/>
+      <c r="T9" s="75"/>
+      <c r="U9" s="75"/>
+      <c r="V9" s="75"/>
+      <c r="W9" s="75"/>
+      <c r="X9" s="75"/>
+      <c r="Y9" s="75"/>
+      <c r="Z9" s="75"/>
+      <c r="AA9" s="75"/>
+      <c r="AB9" s="75"/>
+      <c r="AC9" s="75"/>
+      <c r="AD9" s="75"/>
+      <c r="AE9" s="75"/>
+      <c r="AF9" s="75"/>
+      <c r="AG9" s="75"/>
+      <c r="AH9" s="75"/>
+      <c r="AI9" s="75"/>
+      <c r="AJ9" s="75"/>
+      <c r="AK9" s="75"/>
+      <c r="AL9" s="74"/>
+      <c r="AM9" s="74"/>
+      <c r="AN9" s="74"/>
+      <c r="AO9" s="74"/>
+      <c r="AP9" s="74"/>
+      <c r="AQ9" s="74"/>
+      <c r="AR9" s="74"/>
+      <c r="AS9" s="74"/>
+      <c r="AT9" s="74"/>
+      <c r="AU9" s="74"/>
+      <c r="AV9" s="74"/>
+      <c r="AW9" s="74"/>
+      <c r="AX9" s="74"/>
+      <c r="AY9" s="74"/>
+      <c r="AZ9" s="74"/>
+      <c r="BA9" s="74"/>
+      <c r="BB9" s="74"/>
+      <c r="BC9" s="74"/>
+      <c r="BD9" s="74"/>
+      <c r="BE9" s="74"/>
+      <c r="BF9" s="74"/>
+      <c r="BG9" s="74"/>
+      <c r="BH9" s="74"/>
+      <c r="BI9" s="74"/>
+      <c r="BJ9" s="74"/>
+      <c r="BK9" s="2"/>
+      <c r="BL9" s="66"/>
+    </row>
+    <row r="10" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="66"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="70" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="75"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="75"/>
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="75"/>
+      <c r="AC10" s="75"/>
+      <c r="AD10" s="75"/>
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="75"/>
+      <c r="AG10" s="75"/>
+      <c r="AH10" s="75"/>
+      <c r="AI10" s="75"/>
+      <c r="AJ10" s="75"/>
+      <c r="AK10" s="75"/>
+      <c r="AL10" s="74"/>
+      <c r="AM10" s="74"/>
+      <c r="AN10" s="74"/>
+      <c r="AO10" s="74"/>
+      <c r="AP10" s="74"/>
+      <c r="AQ10" s="74"/>
+      <c r="AR10" s="74"/>
+      <c r="AS10" s="74"/>
+      <c r="AT10" s="74"/>
+      <c r="AU10" s="74"/>
+      <c r="AV10" s="74"/>
+      <c r="AW10" s="74"/>
+      <c r="AX10" s="74"/>
+      <c r="AY10" s="74"/>
+      <c r="AZ10" s="74"/>
+      <c r="BA10" s="74"/>
+      <c r="BB10" s="74"/>
+      <c r="BC10" s="74"/>
+      <c r="BD10" s="74"/>
+      <c r="BE10" s="74"/>
+      <c r="BF10" s="74"/>
+      <c r="BG10" s="74"/>
+      <c r="BH10" s="74"/>
+      <c r="BI10" s="74"/>
+      <c r="BJ10" s="74"/>
+      <c r="BK10" s="2"/>
+      <c r="BL10" s="66"/>
+    </row>
+    <row r="11" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="66"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="70" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="75" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="75"/>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="75"/>
+      <c r="S11" s="75"/>
+      <c r="T11" s="75"/>
+      <c r="U11" s="75"/>
+      <c r="V11" s="75"/>
+      <c r="W11" s="75"/>
+      <c r="X11" s="75"/>
+      <c r="Y11" s="75"/>
+      <c r="Z11" s="75"/>
+      <c r="AA11" s="75"/>
+      <c r="AB11" s="75"/>
+      <c r="AC11" s="75"/>
+      <c r="AD11" s="75"/>
+      <c r="AE11" s="75"/>
+      <c r="AF11" s="75"/>
+      <c r="AG11" s="75"/>
+      <c r="AH11" s="75"/>
+      <c r="AI11" s="75"/>
+      <c r="AJ11" s="75"/>
+      <c r="AK11" s="75"/>
+      <c r="AL11" s="74"/>
+      <c r="AM11" s="74"/>
+      <c r="AN11" s="74"/>
+      <c r="AO11" s="74"/>
+      <c r="AP11" s="74"/>
+      <c r="AQ11" s="74"/>
+      <c r="AR11" s="74"/>
+      <c r="AS11" s="74"/>
+      <c r="AT11" s="74"/>
+      <c r="AU11" s="74"/>
+      <c r="AV11" s="74"/>
+      <c r="AW11" s="74"/>
+      <c r="AX11" s="74"/>
+      <c r="AY11" s="74"/>
+      <c r="AZ11" s="74"/>
+      <c r="BA11" s="74"/>
+      <c r="BB11" s="74"/>
+      <c r="BC11" s="74"/>
+      <c r="BD11" s="74"/>
+      <c r="BE11" s="74"/>
+      <c r="BF11" s="74"/>
+      <c r="BG11" s="74"/>
+      <c r="BH11" s="74"/>
+      <c r="BI11" s="74"/>
+      <c r="BJ11" s="74"/>
+      <c r="BK11" s="2"/>
+      <c r="BL11" s="66"/>
+    </row>
+    <row r="12" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="66"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="70" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="75" t="s">
+        <v>153</v>
+      </c>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="75"/>
+      <c r="T12" s="75"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="75"/>
+      <c r="W12" s="75"/>
+      <c r="X12" s="75"/>
+      <c r="Y12" s="75"/>
+      <c r="Z12" s="75"/>
+      <c r="AA12" s="75"/>
+      <c r="AB12" s="75"/>
+      <c r="AC12" s="75"/>
+      <c r="AD12" s="75"/>
+      <c r="AE12" s="75"/>
+      <c r="AF12" s="75"/>
+      <c r="AG12" s="75"/>
+      <c r="AH12" s="75"/>
+      <c r="AI12" s="75"/>
+      <c r="AJ12" s="75"/>
+      <c r="AK12" s="75"/>
+      <c r="AL12" s="74"/>
+      <c r="AM12" s="74"/>
+      <c r="AN12" s="74"/>
+      <c r="AO12" s="74"/>
+      <c r="AP12" s="74"/>
+      <c r="AQ12" s="74"/>
+      <c r="AR12" s="74"/>
+      <c r="AS12" s="74"/>
+      <c r="AT12" s="74"/>
+      <c r="AU12" s="74"/>
+      <c r="AV12" s="74"/>
+      <c r="AW12" s="74"/>
+      <c r="AX12" s="74"/>
+      <c r="AY12" s="74"/>
+      <c r="AZ12" s="74"/>
+      <c r="BA12" s="74"/>
+      <c r="BB12" s="74"/>
+      <c r="BC12" s="74"/>
+      <c r="BD12" s="74"/>
+      <c r="BE12" s="74"/>
+      <c r="BF12" s="74"/>
+      <c r="BG12" s="74"/>
+      <c r="BH12" s="74"/>
+      <c r="BI12" s="74"/>
+      <c r="BJ12" s="74"/>
+      <c r="BK12" s="2"/>
+      <c r="BL12" s="66"/>
+    </row>
+    <row r="13" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="66"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="70" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="75"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="75"/>
+      <c r="T13" s="75"/>
+      <c r="U13" s="75"/>
+      <c r="V13" s="75"/>
+      <c r="W13" s="75"/>
+      <c r="X13" s="75"/>
+      <c r="Y13" s="75"/>
+      <c r="Z13" s="75"/>
+      <c r="AA13" s="75"/>
+      <c r="AB13" s="75"/>
+      <c r="AC13" s="75"/>
+      <c r="AD13" s="75"/>
+      <c r="AE13" s="75"/>
+      <c r="AF13" s="75"/>
+      <c r="AG13" s="75"/>
+      <c r="AH13" s="75"/>
+      <c r="AI13" s="75"/>
+      <c r="AJ13" s="75"/>
+      <c r="AK13" s="75"/>
+      <c r="AL13" s="74"/>
+      <c r="AM13" s="74"/>
+      <c r="AN13" s="74"/>
+      <c r="AO13" s="74"/>
+      <c r="AP13" s="74"/>
+      <c r="AQ13" s="74"/>
+      <c r="AR13" s="74"/>
+      <c r="AS13" s="74"/>
+      <c r="AT13" s="74"/>
+      <c r="AU13" s="74"/>
+      <c r="AV13" s="74"/>
+      <c r="AW13" s="74"/>
+      <c r="AX13" s="74"/>
+      <c r="AY13" s="74"/>
+      <c r="AZ13" s="74"/>
+      <c r="BA13" s="74"/>
+      <c r="BB13" s="74"/>
+      <c r="BC13" s="74"/>
+      <c r="BD13" s="74"/>
+      <c r="BE13" s="74"/>
+      <c r="BF13" s="74"/>
+      <c r="BG13" s="74"/>
+      <c r="BH13" s="74"/>
+      <c r="BI13" s="74"/>
+      <c r="BJ13" s="74"/>
+      <c r="BK13" s="2"/>
+      <c r="BL13" s="66"/>
+    </row>
+    <row r="14" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="66"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="70" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="75"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="75"/>
+      <c r="W14" s="75"/>
+      <c r="X14" s="75"/>
+      <c r="Y14" s="75"/>
+      <c r="Z14" s="75"/>
+      <c r="AA14" s="75"/>
+      <c r="AB14" s="75"/>
+      <c r="AC14" s="75"/>
+      <c r="AD14" s="75"/>
+      <c r="AE14" s="75"/>
+      <c r="AF14" s="75"/>
+      <c r="AG14" s="75"/>
+      <c r="AH14" s="75"/>
+      <c r="AI14" s="75"/>
+      <c r="AJ14" s="75"/>
+      <c r="AK14" s="75"/>
+      <c r="AL14" s="74"/>
+      <c r="AM14" s="74"/>
+      <c r="AN14" s="74"/>
+      <c r="AO14" s="74"/>
+      <c r="AP14" s="74"/>
+      <c r="AQ14" s="74"/>
+      <c r="AR14" s="74"/>
+      <c r="AS14" s="74"/>
+      <c r="AT14" s="74"/>
+      <c r="AU14" s="74"/>
+      <c r="AV14" s="74"/>
+      <c r="AW14" s="74"/>
+      <c r="AX14" s="74"/>
+      <c r="AY14" s="74"/>
+      <c r="AZ14" s="74"/>
+      <c r="BA14" s="74"/>
+      <c r="BB14" s="74"/>
+      <c r="BC14" s="74"/>
+      <c r="BD14" s="74"/>
+      <c r="BE14" s="74"/>
+      <c r="BF14" s="74"/>
+      <c r="BG14" s="74"/>
+      <c r="BH14" s="74"/>
+      <c r="BI14" s="74"/>
+      <c r="BJ14" s="74"/>
+      <c r="BK14" s="2"/>
+      <c r="BL14" s="66"/>
+    </row>
+    <row r="15" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="66"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="75" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="75"/>
+      <c r="S15" s="75"/>
+      <c r="T15" s="75"/>
+      <c r="U15" s="75"/>
+      <c r="V15" s="75"/>
+      <c r="W15" s="75"/>
+      <c r="X15" s="75"/>
+      <c r="Y15" s="75"/>
+      <c r="Z15" s="75"/>
+      <c r="AA15" s="75"/>
+      <c r="AB15" s="75"/>
+      <c r="AC15" s="75"/>
+      <c r="AD15" s="75"/>
+      <c r="AE15" s="75"/>
+      <c r="AF15" s="75"/>
+      <c r="AG15" s="75"/>
+      <c r="AH15" s="75"/>
+      <c r="AI15" s="75"/>
+      <c r="AJ15" s="75"/>
+      <c r="AK15" s="75"/>
+      <c r="AL15" s="74"/>
+      <c r="AM15" s="74"/>
+      <c r="AN15" s="74"/>
+      <c r="AO15" s="74"/>
+      <c r="AP15" s="74"/>
+      <c r="AQ15" s="74"/>
+      <c r="AR15" s="74"/>
+      <c r="AS15" s="74"/>
+      <c r="AT15" s="74"/>
+      <c r="AU15" s="74"/>
+      <c r="AV15" s="74"/>
+      <c r="AW15" s="74"/>
+      <c r="AX15" s="74"/>
+      <c r="AY15" s="74"/>
+      <c r="AZ15" s="74"/>
+      <c r="BA15" s="74"/>
+      <c r="BB15" s="74"/>
+      <c r="BC15" s="74"/>
+      <c r="BD15" s="74"/>
+      <c r="BE15" s="74"/>
+      <c r="BF15" s="74"/>
+      <c r="BG15" s="74"/>
+      <c r="BH15" s="74"/>
+      <c r="BI15" s="74"/>
+      <c r="BJ15" s="74"/>
+      <c r="BK15" s="2"/>
+      <c r="BL15" s="66"/>
+    </row>
+    <row r="16" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="66"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="75" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="75"/>
+      <c r="R16" s="75"/>
+      <c r="S16" s="75"/>
+      <c r="T16" s="75"/>
+      <c r="U16" s="75"/>
+      <c r="V16" s="75"/>
+      <c r="W16" s="75"/>
+      <c r="X16" s="75"/>
+      <c r="Y16" s="75"/>
+      <c r="Z16" s="75"/>
+      <c r="AA16" s="75"/>
+      <c r="AB16" s="75"/>
+      <c r="AC16" s="75"/>
+      <c r="AD16" s="75"/>
+      <c r="AE16" s="75"/>
+      <c r="AF16" s="75"/>
+      <c r="AG16" s="75"/>
+      <c r="AH16" s="75"/>
+      <c r="AI16" s="75"/>
+      <c r="AJ16" s="75"/>
+      <c r="AK16" s="75"/>
+      <c r="AL16" s="74"/>
+      <c r="AM16" s="74"/>
+      <c r="AN16" s="74"/>
+      <c r="AO16" s="74"/>
+      <c r="AP16" s="74"/>
+      <c r="AQ16" s="74"/>
+      <c r="AR16" s="74"/>
+      <c r="AS16" s="74"/>
+      <c r="AT16" s="74"/>
+      <c r="AU16" s="74"/>
+      <c r="AV16" s="74"/>
+      <c r="AW16" s="74"/>
+      <c r="AX16" s="74"/>
+      <c r="AY16" s="74"/>
+      <c r="AZ16" s="74"/>
+      <c r="BA16" s="74"/>
+      <c r="BB16" s="74"/>
+      <c r="BC16" s="74"/>
+      <c r="BD16" s="74"/>
+      <c r="BE16" s="74"/>
+      <c r="BF16" s="74"/>
+      <c r="BG16" s="74"/>
+      <c r="BH16" s="74"/>
+      <c r="BI16" s="74"/>
+      <c r="BJ16" s="74"/>
+      <c r="BK16" s="2"/>
+      <c r="BL16" s="66"/>
+    </row>
+    <row r="17" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="66"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="75" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="75"/>
+      <c r="R17" s="75"/>
+      <c r="S17" s="75"/>
+      <c r="T17" s="75"/>
+      <c r="U17" s="75"/>
+      <c r="V17" s="75"/>
+      <c r="W17" s="75"/>
+      <c r="X17" s="75"/>
+      <c r="Y17" s="75"/>
+      <c r="Z17" s="75"/>
+      <c r="AA17" s="75"/>
+      <c r="AB17" s="75"/>
+      <c r="AC17" s="75"/>
+      <c r="AD17" s="75"/>
+      <c r="AE17" s="75"/>
+      <c r="AF17" s="75"/>
+      <c r="AG17" s="75"/>
+      <c r="AH17" s="75"/>
+      <c r="AI17" s="75"/>
+      <c r="AJ17" s="75"/>
+      <c r="AK17" s="75"/>
+      <c r="AL17" s="74"/>
+      <c r="AM17" s="74"/>
+      <c r="AN17" s="74"/>
+      <c r="AO17" s="74"/>
+      <c r="AP17" s="74"/>
+      <c r="AQ17" s="74"/>
+      <c r="AR17" s="74"/>
+      <c r="AS17" s="74"/>
+      <c r="AT17" s="74"/>
+      <c r="AU17" s="74"/>
+      <c r="AV17" s="74"/>
+      <c r="AW17" s="74"/>
+      <c r="AX17" s="74"/>
+      <c r="AY17" s="74"/>
+      <c r="AZ17" s="74"/>
+      <c r="BA17" s="74"/>
+      <c r="BB17" s="74"/>
+      <c r="BC17" s="74"/>
+      <c r="BD17" s="74"/>
+      <c r="BE17" s="74"/>
+      <c r="BF17" s="74"/>
+      <c r="BG17" s="74"/>
+      <c r="BH17" s="74"/>
+      <c r="BI17" s="74"/>
+      <c r="BJ17" s="74"/>
+      <c r="BK17" s="2"/>
+      <c r="BL17" s="66"/>
+    </row>
+    <row r="18" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="66"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="70" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="75" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="75"/>
+      <c r="S18" s="75"/>
+      <c r="T18" s="75"/>
+      <c r="U18" s="75"/>
+      <c r="V18" s="75"/>
+      <c r="W18" s="75"/>
+      <c r="X18" s="75"/>
+      <c r="Y18" s="75"/>
+      <c r="Z18" s="75"/>
+      <c r="AA18" s="75"/>
+      <c r="AB18" s="75"/>
+      <c r="AC18" s="75"/>
+      <c r="AD18" s="75"/>
+      <c r="AE18" s="75"/>
+      <c r="AF18" s="75"/>
+      <c r="AG18" s="75"/>
+      <c r="AH18" s="75"/>
+      <c r="AI18" s="75"/>
+      <c r="AJ18" s="75"/>
+      <c r="AK18" s="75"/>
+      <c r="AL18" s="74"/>
+      <c r="AM18" s="74"/>
+      <c r="AN18" s="74"/>
+      <c r="AO18" s="74"/>
+      <c r="AP18" s="74"/>
+      <c r="AQ18" s="74"/>
+      <c r="AR18" s="74"/>
+      <c r="AS18" s="74"/>
+      <c r="AT18" s="74"/>
+      <c r="AU18" s="74"/>
+      <c r="AV18" s="74"/>
+      <c r="AW18" s="74"/>
+      <c r="AX18" s="74"/>
+      <c r="AY18" s="74"/>
+      <c r="AZ18" s="74"/>
+      <c r="BA18" s="74"/>
+      <c r="BB18" s="74"/>
+      <c r="BC18" s="74"/>
+      <c r="BD18" s="74"/>
+      <c r="BE18" s="74"/>
+      <c r="BF18" s="74"/>
+      <c r="BG18" s="74"/>
+      <c r="BH18" s="74"/>
+      <c r="BI18" s="74"/>
+      <c r="BJ18" s="74"/>
+      <c r="BK18" s="2"/>
+      <c r="BL18" s="66"/>
+    </row>
+    <row r="19" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="66"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="70" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="77"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="77"/>
+      <c r="T19" s="77"/>
+      <c r="U19" s="77"/>
+      <c r="V19" s="77"/>
+      <c r="W19" s="77"/>
+      <c r="X19" s="77"/>
+      <c r="Y19" s="77"/>
+      <c r="Z19" s="77"/>
+      <c r="AA19" s="77"/>
+      <c r="AB19" s="77"/>
+      <c r="AC19" s="77"/>
+      <c r="AD19" s="77"/>
+      <c r="AE19" s="77"/>
+      <c r="AF19" s="77"/>
+      <c r="AG19" s="77"/>
+      <c r="AH19" s="77"/>
+      <c r="AI19" s="77"/>
+      <c r="AJ19" s="77"/>
+      <c r="AK19" s="78"/>
+      <c r="AL19" s="74"/>
+      <c r="AM19" s="74"/>
+      <c r="AN19" s="74"/>
+      <c r="AO19" s="74"/>
+      <c r="AP19" s="74"/>
+      <c r="AQ19" s="74"/>
+      <c r="AR19" s="74"/>
+      <c r="AS19" s="74"/>
+      <c r="AT19" s="74"/>
+      <c r="AU19" s="74"/>
+      <c r="AV19" s="74"/>
+      <c r="AW19" s="74"/>
+      <c r="AX19" s="74"/>
+      <c r="AY19" s="74"/>
+      <c r="AZ19" s="74"/>
+      <c r="BA19" s="74"/>
+      <c r="BB19" s="74"/>
+      <c r="BC19" s="74"/>
+      <c r="BD19" s="74"/>
+      <c r="BE19" s="74"/>
+      <c r="BF19" s="74"/>
+      <c r="BG19" s="74"/>
+      <c r="BH19" s="74"/>
+      <c r="BI19" s="74"/>
+      <c r="BJ19" s="74"/>
+      <c r="BK19" s="2"/>
+      <c r="BL19" s="66"/>
+    </row>
+    <row r="20" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="66"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="79" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
+      <c r="P20" s="80"/>
+      <c r="Q20" s="80"/>
+      <c r="R20" s="80"/>
+      <c r="S20" s="80"/>
+      <c r="T20" s="80"/>
+      <c r="U20" s="80"/>
+      <c r="V20" s="80"/>
+      <c r="W20" s="80"/>
+      <c r="X20" s="80"/>
+      <c r="Y20" s="80"/>
+      <c r="Z20" s="80"/>
+      <c r="AA20" s="80"/>
+      <c r="AB20" s="80"/>
+      <c r="AC20" s="80"/>
+      <c r="AD20" s="80"/>
+      <c r="AE20" s="80"/>
+      <c r="AF20" s="80"/>
+      <c r="AG20" s="80"/>
+      <c r="AH20" s="80"/>
+      <c r="AI20" s="80"/>
+      <c r="AJ20" s="80"/>
+      <c r="AK20" s="81"/>
+      <c r="AL20" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM20" s="74"/>
+      <c r="AN20" s="74"/>
+      <c r="AO20" s="74"/>
+      <c r="AP20" s="74"/>
+      <c r="AQ20" s="74"/>
+      <c r="AR20" s="74"/>
+      <c r="AS20" s="74"/>
+      <c r="AT20" s="74"/>
+      <c r="AU20" s="74"/>
+      <c r="AV20" s="74"/>
+      <c r="AW20" s="74"/>
+      <c r="AX20" s="74"/>
+      <c r="AY20" s="74"/>
+      <c r="AZ20" s="74"/>
+      <c r="BA20" s="74"/>
+      <c r="BB20" s="74"/>
+      <c r="BC20" s="74"/>
+      <c r="BD20" s="74"/>
+      <c r="BE20" s="74"/>
+      <c r="BF20" s="74"/>
+      <c r="BG20" s="74"/>
+      <c r="BH20" s="74"/>
+      <c r="BI20" s="74"/>
+      <c r="BJ20" s="74"/>
+      <c r="BK20" s="2"/>
+      <c r="BL20" s="66"/>
+    </row>
+    <row r="21" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="66"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="70" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="79" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="80"/>
+      <c r="P21" s="80"/>
+      <c r="Q21" s="80"/>
+      <c r="R21" s="80"/>
+      <c r="S21" s="80"/>
+      <c r="T21" s="80"/>
+      <c r="U21" s="80"/>
+      <c r="V21" s="80"/>
+      <c r="W21" s="80"/>
+      <c r="X21" s="80"/>
+      <c r="Y21" s="80"/>
+      <c r="Z21" s="80"/>
+      <c r="AA21" s="80"/>
+      <c r="AB21" s="80"/>
+      <c r="AC21" s="80"/>
+      <c r="AD21" s="80"/>
+      <c r="AE21" s="80"/>
+      <c r="AF21" s="80"/>
+      <c r="AG21" s="80"/>
+      <c r="AH21" s="80"/>
+      <c r="AI21" s="80"/>
+      <c r="AJ21" s="80"/>
+      <c r="AK21" s="81"/>
+      <c r="AL21" s="74"/>
+      <c r="AM21" s="74"/>
+      <c r="AN21" s="74"/>
+      <c r="AO21" s="74"/>
+      <c r="AP21" s="74"/>
+      <c r="AQ21" s="74"/>
+      <c r="AR21" s="74"/>
+      <c r="AS21" s="74"/>
+      <c r="AT21" s="74"/>
+      <c r="AU21" s="74"/>
+      <c r="AV21" s="74"/>
+      <c r="AW21" s="74"/>
+      <c r="AX21" s="74"/>
+      <c r="AY21" s="74"/>
+      <c r="AZ21" s="74"/>
+      <c r="BA21" s="74"/>
+      <c r="BB21" s="74"/>
+      <c r="BC21" s="74"/>
+      <c r="BD21" s="74"/>
+      <c r="BE21" s="74"/>
+      <c r="BF21" s="74"/>
+      <c r="BG21" s="74"/>
+      <c r="BH21" s="74"/>
+      <c r="BI21" s="74"/>
+      <c r="BJ21" s="74"/>
+      <c r="BK21" s="2"/>
+      <c r="BL21" s="66"/>
+    </row>
+    <row r="22" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="66"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="70" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="79" t="s">
+        <v>166</v>
+      </c>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="80"/>
+      <c r="Q22" s="80"/>
+      <c r="R22" s="80"/>
+      <c r="S22" s="80"/>
+      <c r="T22" s="80"/>
+      <c r="U22" s="80"/>
+      <c r="V22" s="80"/>
+      <c r="W22" s="80"/>
+      <c r="X22" s="80"/>
+      <c r="Y22" s="80"/>
+      <c r="Z22" s="80"/>
+      <c r="AA22" s="80"/>
+      <c r="AB22" s="80"/>
+      <c r="AC22" s="80"/>
+      <c r="AD22" s="80"/>
+      <c r="AE22" s="80"/>
+      <c r="AF22" s="80"/>
+      <c r="AG22" s="80"/>
+      <c r="AH22" s="80"/>
+      <c r="AI22" s="80"/>
+      <c r="AJ22" s="80"/>
+      <c r="AK22" s="81"/>
+      <c r="AL22" s="74"/>
+      <c r="AM22" s="74"/>
+      <c r="AN22" s="74"/>
+      <c r="AO22" s="74"/>
+      <c r="AP22" s="74"/>
+      <c r="AQ22" s="74"/>
+      <c r="AR22" s="74"/>
+      <c r="AS22" s="74"/>
+      <c r="AT22" s="74"/>
+      <c r="AU22" s="74"/>
+      <c r="AV22" s="74"/>
+      <c r="AW22" s="74"/>
+      <c r="AX22" s="74"/>
+      <c r="AY22" s="74"/>
+      <c r="AZ22" s="74"/>
+      <c r="BA22" s="74"/>
+      <c r="BB22" s="74"/>
+      <c r="BC22" s="74"/>
+      <c r="BD22" s="74"/>
+      <c r="BE22" s="74"/>
+      <c r="BF22" s="74"/>
+      <c r="BG22" s="74"/>
+      <c r="BH22" s="74"/>
+      <c r="BI22" s="74"/>
+      <c r="BJ22" s="74"/>
+      <c r="BK22" s="2"/>
+      <c r="BL22" s="66"/>
+    </row>
+    <row r="23" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="66"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="70" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="75" t="s">
+        <v>167</v>
+      </c>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="75"/>
+      <c r="T23" s="75"/>
+      <c r="U23" s="75"/>
+      <c r="V23" s="75"/>
+      <c r="W23" s="75"/>
+      <c r="X23" s="75"/>
+      <c r="Y23" s="75"/>
+      <c r="Z23" s="75"/>
+      <c r="AA23" s="75"/>
+      <c r="AB23" s="75"/>
+      <c r="AC23" s="75"/>
+      <c r="AD23" s="75"/>
+      <c r="AE23" s="75"/>
+      <c r="AF23" s="75"/>
+      <c r="AG23" s="75"/>
+      <c r="AH23" s="75"/>
+      <c r="AI23" s="75"/>
+      <c r="AJ23" s="75"/>
+      <c r="AK23" s="75"/>
+      <c r="AL23" s="74"/>
+      <c r="AM23" s="74"/>
+      <c r="AN23" s="74"/>
+      <c r="AO23" s="74"/>
+      <c r="AP23" s="74"/>
+      <c r="AQ23" s="74"/>
+      <c r="AR23" s="74"/>
+      <c r="AS23" s="74"/>
+      <c r="AT23" s="74"/>
+      <c r="AU23" s="74"/>
+      <c r="AV23" s="74"/>
+      <c r="AW23" s="74"/>
+      <c r="AX23" s="74"/>
+      <c r="AY23" s="74"/>
+      <c r="AZ23" s="74"/>
+      <c r="BA23" s="74"/>
+      <c r="BB23" s="74"/>
+      <c r="BC23" s="74"/>
+      <c r="BD23" s="74"/>
+      <c r="BE23" s="74"/>
+      <c r="BF23" s="74"/>
+      <c r="BG23" s="74"/>
+      <c r="BH23" s="74"/>
+      <c r="BI23" s="74"/>
+      <c r="BJ23" s="74"/>
+      <c r="BK23" s="2"/>
+      <c r="BL23" s="66"/>
+    </row>
+    <row r="24" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="66"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="75"/>
+      <c r="R24" s="75"/>
+      <c r="S24" s="75"/>
+      <c r="T24" s="75"/>
+      <c r="U24" s="75"/>
+      <c r="V24" s="75"/>
+      <c r="W24" s="75"/>
+      <c r="X24" s="75"/>
+      <c r="Y24" s="75"/>
+      <c r="Z24" s="75"/>
+      <c r="AA24" s="75"/>
+      <c r="AB24" s="75"/>
+      <c r="AC24" s="75"/>
+      <c r="AD24" s="75"/>
+      <c r="AE24" s="75"/>
+      <c r="AF24" s="75"/>
+      <c r="AG24" s="75"/>
+      <c r="AH24" s="75"/>
+      <c r="AI24" s="75"/>
+      <c r="AJ24" s="75"/>
+      <c r="AK24" s="75"/>
+      <c r="AL24" s="74"/>
+      <c r="AM24" s="74"/>
+      <c r="AN24" s="74"/>
+      <c r="AO24" s="74"/>
+      <c r="AP24" s="74"/>
+      <c r="AQ24" s="74"/>
+      <c r="AR24" s="74"/>
+      <c r="AS24" s="74"/>
+      <c r="AT24" s="74"/>
+      <c r="AU24" s="74"/>
+      <c r="AV24" s="74"/>
+      <c r="AW24" s="74"/>
+      <c r="AX24" s="74"/>
+      <c r="AY24" s="74"/>
+      <c r="AZ24" s="74"/>
+      <c r="BA24" s="74"/>
+      <c r="BB24" s="74"/>
+      <c r="BC24" s="74"/>
+      <c r="BD24" s="74"/>
+      <c r="BE24" s="74"/>
+      <c r="BF24" s="74"/>
+      <c r="BG24" s="74"/>
+      <c r="BH24" s="74"/>
+      <c r="BI24" s="74"/>
+      <c r="BJ24" s="74"/>
+      <c r="BK24" s="2"/>
+      <c r="BL24" s="66"/>
+    </row>
+    <row r="25" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="66"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="75"/>
+      <c r="O25" s="75"/>
+      <c r="P25" s="75"/>
+      <c r="Q25" s="75"/>
+      <c r="R25" s="75"/>
+      <c r="S25" s="75"/>
+      <c r="T25" s="75"/>
+      <c r="U25" s="75"/>
+      <c r="V25" s="75"/>
+      <c r="W25" s="75"/>
+      <c r="X25" s="75"/>
+      <c r="Y25" s="75"/>
+      <c r="Z25" s="75"/>
+      <c r="AA25" s="75"/>
+      <c r="AB25" s="75"/>
+      <c r="AC25" s="75"/>
+      <c r="AD25" s="75"/>
+      <c r="AE25" s="75"/>
+      <c r="AF25" s="75"/>
+      <c r="AG25" s="75"/>
+      <c r="AH25" s="75"/>
+      <c r="AI25" s="75"/>
+      <c r="AJ25" s="75"/>
+      <c r="AK25" s="75"/>
+      <c r="AL25" s="74"/>
+      <c r="AM25" s="74"/>
+      <c r="AN25" s="74"/>
+      <c r="AO25" s="74"/>
+      <c r="AP25" s="74"/>
+      <c r="AQ25" s="74"/>
+      <c r="AR25" s="74"/>
+      <c r="AS25" s="74"/>
+      <c r="AT25" s="74"/>
+      <c r="AU25" s="74"/>
+      <c r="AV25" s="74"/>
+      <c r="AW25" s="74"/>
+      <c r="AX25" s="74"/>
+      <c r="AY25" s="74"/>
+      <c r="AZ25" s="74"/>
+      <c r="BA25" s="74"/>
+      <c r="BB25" s="74"/>
+      <c r="BC25" s="74"/>
+      <c r="BD25" s="74"/>
+      <c r="BE25" s="74"/>
+      <c r="BF25" s="74"/>
+      <c r="BG25" s="74"/>
+      <c r="BH25" s="74"/>
+      <c r="BI25" s="74"/>
+      <c r="BJ25" s="74"/>
+      <c r="BK25" s="2"/>
+      <c r="BL25" s="66"/>
+    </row>
+    <row r="26" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="66"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="75"/>
+      <c r="P26" s="75"/>
+      <c r="Q26" s="75"/>
+      <c r="R26" s="75"/>
+      <c r="S26" s="75"/>
+      <c r="T26" s="75"/>
+      <c r="U26" s="75"/>
+      <c r="V26" s="75"/>
+      <c r="W26" s="75"/>
+      <c r="X26" s="75"/>
+      <c r="Y26" s="75"/>
+      <c r="Z26" s="75"/>
+      <c r="AA26" s="75"/>
+      <c r="AB26" s="75"/>
+      <c r="AC26" s="75"/>
+      <c r="AD26" s="75"/>
+      <c r="AE26" s="75"/>
+      <c r="AF26" s="75"/>
+      <c r="AG26" s="75"/>
+      <c r="AH26" s="75"/>
+      <c r="AI26" s="75"/>
+      <c r="AJ26" s="75"/>
+      <c r="AK26" s="75"/>
+      <c r="AL26" s="74"/>
+      <c r="AM26" s="74"/>
+      <c r="AN26" s="74"/>
+      <c r="AO26" s="74"/>
+      <c r="AP26" s="74"/>
+      <c r="AQ26" s="74"/>
+      <c r="AR26" s="74"/>
+      <c r="AS26" s="74"/>
+      <c r="AT26" s="74"/>
+      <c r="AU26" s="74"/>
+      <c r="AV26" s="74"/>
+      <c r="AW26" s="74"/>
+      <c r="AX26" s="74"/>
+      <c r="AY26" s="74"/>
+      <c r="AZ26" s="74"/>
+      <c r="BA26" s="74"/>
+      <c r="BB26" s="74"/>
+      <c r="BC26" s="74"/>
+      <c r="BD26" s="74"/>
+      <c r="BE26" s="74"/>
+      <c r="BF26" s="74"/>
+      <c r="BG26" s="74"/>
+      <c r="BH26" s="74"/>
+      <c r="BI26" s="74"/>
+      <c r="BJ26" s="74"/>
+      <c r="BK26" s="2"/>
+      <c r="BL26" s="66"/>
+    </row>
+    <row r="27" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="66"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="75"/>
+      <c r="S27" s="75"/>
+      <c r="T27" s="75"/>
+      <c r="U27" s="75"/>
+      <c r="V27" s="75"/>
+      <c r="W27" s="75"/>
+      <c r="X27" s="75"/>
+      <c r="Y27" s="75"/>
+      <c r="Z27" s="75"/>
+      <c r="AA27" s="75"/>
+      <c r="AB27" s="75"/>
+      <c r="AC27" s="75"/>
+      <c r="AD27" s="75"/>
+      <c r="AE27" s="75"/>
+      <c r="AF27" s="75"/>
+      <c r="AG27" s="75"/>
+      <c r="AH27" s="75"/>
+      <c r="AI27" s="75"/>
+      <c r="AJ27" s="75"/>
+      <c r="AK27" s="75"/>
+      <c r="AL27" s="74"/>
+      <c r="AM27" s="74"/>
+      <c r="AN27" s="74"/>
+      <c r="AO27" s="74"/>
+      <c r="AP27" s="74"/>
+      <c r="AQ27" s="74"/>
+      <c r="AR27" s="74"/>
+      <c r="AS27" s="74"/>
+      <c r="AT27" s="74"/>
+      <c r="AU27" s="74"/>
+      <c r="AV27" s="74"/>
+      <c r="AW27" s="74"/>
+      <c r="AX27" s="74"/>
+      <c r="AY27" s="74"/>
+      <c r="AZ27" s="74"/>
+      <c r="BA27" s="74"/>
+      <c r="BB27" s="74"/>
+      <c r="BC27" s="74"/>
+      <c r="BD27" s="74"/>
+      <c r="BE27" s="74"/>
+      <c r="BF27" s="74"/>
+      <c r="BG27" s="74"/>
+      <c r="BH27" s="74"/>
+      <c r="BI27" s="74"/>
+      <c r="BJ27" s="74"/>
+      <c r="BK27" s="2"/>
+      <c r="BL27" s="66"/>
+    </row>
+    <row r="28" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="66"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="75"/>
+      <c r="N28" s="75"/>
+      <c r="O28" s="75"/>
+      <c r="P28" s="75"/>
+      <c r="Q28" s="75"/>
+      <c r="R28" s="75"/>
+      <c r="S28" s="75"/>
+      <c r="T28" s="75"/>
+      <c r="U28" s="75"/>
+      <c r="V28" s="75"/>
+      <c r="W28" s="75"/>
+      <c r="X28" s="75"/>
+      <c r="Y28" s="75"/>
+      <c r="Z28" s="75"/>
+      <c r="AA28" s="75"/>
+      <c r="AB28" s="75"/>
+      <c r="AC28" s="75"/>
+      <c r="AD28" s="75"/>
+      <c r="AE28" s="75"/>
+      <c r="AF28" s="75"/>
+      <c r="AG28" s="75"/>
+      <c r="AH28" s="75"/>
+      <c r="AI28" s="75"/>
+      <c r="AJ28" s="75"/>
+      <c r="AK28" s="75"/>
+      <c r="AL28" s="74"/>
+      <c r="AM28" s="74"/>
+      <c r="AN28" s="74"/>
+      <c r="AO28" s="74"/>
+      <c r="AP28" s="74"/>
+      <c r="AQ28" s="74"/>
+      <c r="AR28" s="74"/>
+      <c r="AS28" s="74"/>
+      <c r="AT28" s="74"/>
+      <c r="AU28" s="74"/>
+      <c r="AV28" s="74"/>
+      <c r="AW28" s="74"/>
+      <c r="AX28" s="74"/>
+      <c r="AY28" s="74"/>
+      <c r="AZ28" s="74"/>
+      <c r="BA28" s="74"/>
+      <c r="BB28" s="74"/>
+      <c r="BC28" s="74"/>
+      <c r="BD28" s="74"/>
+      <c r="BE28" s="74"/>
+      <c r="BF28" s="74"/>
+      <c r="BG28" s="74"/>
+      <c r="BH28" s="74"/>
+      <c r="BI28" s="74"/>
+      <c r="BJ28" s="74"/>
+      <c r="BK28" s="2"/>
+      <c r="BL28" s="66"/>
+    </row>
+    <row r="29" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="66"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="75"/>
+      <c r="P29" s="75"/>
+      <c r="Q29" s="75"/>
+      <c r="R29" s="75"/>
+      <c r="S29" s="75"/>
+      <c r="T29" s="75"/>
+      <c r="U29" s="75"/>
+      <c r="V29" s="75"/>
+      <c r="W29" s="75"/>
+      <c r="X29" s="75"/>
+      <c r="Y29" s="75"/>
+      <c r="Z29" s="75"/>
+      <c r="AA29" s="75"/>
+      <c r="AB29" s="75"/>
+      <c r="AC29" s="75"/>
+      <c r="AD29" s="75"/>
+      <c r="AE29" s="75"/>
+      <c r="AF29" s="75"/>
+      <c r="AG29" s="75"/>
+      <c r="AH29" s="75"/>
+      <c r="AI29" s="75"/>
+      <c r="AJ29" s="75"/>
+      <c r="AK29" s="75"/>
+      <c r="AL29" s="74"/>
+      <c r="AM29" s="74"/>
+      <c r="AN29" s="74"/>
+      <c r="AO29" s="74"/>
+      <c r="AP29" s="74"/>
+      <c r="AQ29" s="74"/>
+      <c r="AR29" s="74"/>
+      <c r="AS29" s="74"/>
+      <c r="AT29" s="74"/>
+      <c r="AU29" s="74"/>
+      <c r="AV29" s="74"/>
+      <c r="AW29" s="74"/>
+      <c r="AX29" s="74"/>
+      <c r="AY29" s="74"/>
+      <c r="AZ29" s="74"/>
+      <c r="BA29" s="74"/>
+      <c r="BB29" s="74"/>
+      <c r="BC29" s="74"/>
+      <c r="BD29" s="74"/>
+      <c r="BE29" s="74"/>
+      <c r="BF29" s="74"/>
+      <c r="BG29" s="74"/>
+      <c r="BH29" s="74"/>
+      <c r="BI29" s="74"/>
+      <c r="BJ29" s="74"/>
+      <c r="BK29" s="2"/>
+      <c r="BL29" s="66"/>
+    </row>
+    <row r="30" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="66"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="75"/>
+      <c r="N30" s="75"/>
+      <c r="O30" s="75"/>
+      <c r="P30" s="75"/>
+      <c r="Q30" s="75"/>
+      <c r="R30" s="75"/>
+      <c r="S30" s="75"/>
+      <c r="T30" s="75"/>
+      <c r="U30" s="75"/>
+      <c r="V30" s="75"/>
+      <c r="W30" s="75"/>
+      <c r="X30" s="75"/>
+      <c r="Y30" s="75"/>
+      <c r="Z30" s="75"/>
+      <c r="AA30" s="75"/>
+      <c r="AB30" s="75"/>
+      <c r="AC30" s="75"/>
+      <c r="AD30" s="75"/>
+      <c r="AE30" s="75"/>
+      <c r="AF30" s="75"/>
+      <c r="AG30" s="75"/>
+      <c r="AH30" s="75"/>
+      <c r="AI30" s="75"/>
+      <c r="AJ30" s="75"/>
+      <c r="AK30" s="75"/>
+      <c r="AL30" s="74"/>
+      <c r="AM30" s="74"/>
+      <c r="AN30" s="74"/>
+      <c r="AO30" s="74"/>
+      <c r="AP30" s="74"/>
+      <c r="AQ30" s="74"/>
+      <c r="AR30" s="74"/>
+      <c r="AS30" s="74"/>
+      <c r="AT30" s="74"/>
+      <c r="AU30" s="74"/>
+      <c r="AV30" s="74"/>
+      <c r="AW30" s="74"/>
+      <c r="AX30" s="74"/>
+      <c r="AY30" s="74"/>
+      <c r="AZ30" s="74"/>
+      <c r="BA30" s="74"/>
+      <c r="BB30" s="74"/>
+      <c r="BC30" s="74"/>
+      <c r="BD30" s="74"/>
+      <c r="BE30" s="74"/>
+      <c r="BF30" s="74"/>
+      <c r="BG30" s="74"/>
+      <c r="BH30" s="74"/>
+      <c r="BI30" s="74"/>
+      <c r="BJ30" s="74"/>
+      <c r="BK30" s="2"/>
+      <c r="BL30" s="66"/>
+    </row>
+    <row r="31" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="66"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="75"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="75"/>
+      <c r="M31" s="75"/>
+      <c r="N31" s="75"/>
+      <c r="O31" s="75"/>
+      <c r="P31" s="75"/>
+      <c r="Q31" s="75"/>
+      <c r="R31" s="75"/>
+      <c r="S31" s="75"/>
+      <c r="T31" s="75"/>
+      <c r="U31" s="75"/>
+      <c r="V31" s="75"/>
+      <c r="W31" s="75"/>
+      <c r="X31" s="75"/>
+      <c r="Y31" s="75"/>
+      <c r="Z31" s="75"/>
+      <c r="AA31" s="75"/>
+      <c r="AB31" s="75"/>
+      <c r="AC31" s="75"/>
+      <c r="AD31" s="75"/>
+      <c r="AE31" s="75"/>
+      <c r="AF31" s="75"/>
+      <c r="AG31" s="75"/>
+      <c r="AH31" s="75"/>
+      <c r="AI31" s="75"/>
+      <c r="AJ31" s="75"/>
+      <c r="AK31" s="75"/>
+      <c r="AL31" s="74"/>
+      <c r="AM31" s="74"/>
+      <c r="AN31" s="74"/>
+      <c r="AO31" s="74"/>
+      <c r="AP31" s="74"/>
+      <c r="AQ31" s="74"/>
+      <c r="AR31" s="74"/>
+      <c r="AS31" s="74"/>
+      <c r="AT31" s="74"/>
+      <c r="AU31" s="74"/>
+      <c r="AV31" s="74"/>
+      <c r="AW31" s="74"/>
+      <c r="AX31" s="74"/>
+      <c r="AY31" s="74"/>
+      <c r="AZ31" s="74"/>
+      <c r="BA31" s="74"/>
+      <c r="BB31" s="74"/>
+      <c r="BC31" s="74"/>
+      <c r="BD31" s="74"/>
+      <c r="BE31" s="74"/>
+      <c r="BF31" s="74"/>
+      <c r="BG31" s="74"/>
+      <c r="BH31" s="74"/>
+      <c r="BI31" s="74"/>
+      <c r="BJ31" s="74"/>
+      <c r="BK31" s="2"/>
+      <c r="BL31" s="66"/>
+    </row>
+    <row r="32" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="66"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="75"/>
+      <c r="N32" s="75"/>
+      <c r="O32" s="75"/>
+      <c r="P32" s="75"/>
+      <c r="Q32" s="75"/>
+      <c r="R32" s="75"/>
+      <c r="S32" s="75"/>
+      <c r="T32" s="75"/>
+      <c r="U32" s="75"/>
+      <c r="V32" s="75"/>
+      <c r="W32" s="75"/>
+      <c r="X32" s="75"/>
+      <c r="Y32" s="75"/>
+      <c r="Z32" s="75"/>
+      <c r="AA32" s="75"/>
+      <c r="AB32" s="75"/>
+      <c r="AC32" s="75"/>
+      <c r="AD32" s="75"/>
+      <c r="AE32" s="75"/>
+      <c r="AF32" s="75"/>
+      <c r="AG32" s="75"/>
+      <c r="AH32" s="75"/>
+      <c r="AI32" s="75"/>
+      <c r="AJ32" s="75"/>
+      <c r="AK32" s="75"/>
+      <c r="AL32" s="74"/>
+      <c r="AM32" s="74"/>
+      <c r="AN32" s="74"/>
+      <c r="AO32" s="74"/>
+      <c r="AP32" s="74"/>
+      <c r="AQ32" s="74"/>
+      <c r="AR32" s="74"/>
+      <c r="AS32" s="74"/>
+      <c r="AT32" s="74"/>
+      <c r="AU32" s="74"/>
+      <c r="AV32" s="74"/>
+      <c r="AW32" s="74"/>
+      <c r="AX32" s="74"/>
+      <c r="AY32" s="74"/>
+      <c r="AZ32" s="74"/>
+      <c r="BA32" s="74"/>
+      <c r="BB32" s="74"/>
+      <c r="BC32" s="74"/>
+      <c r="BD32" s="74"/>
+      <c r="BE32" s="74"/>
+      <c r="BF32" s="74"/>
+      <c r="BG32" s="74"/>
+      <c r="BH32" s="74"/>
+      <c r="BI32" s="74"/>
+      <c r="BJ32" s="74"/>
+      <c r="BK32" s="2"/>
+      <c r="BL32" s="66"/>
+    </row>
+    <row r="33" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="66"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="75"/>
+      <c r="O33" s="75"/>
+      <c r="P33" s="75"/>
+      <c r="Q33" s="75"/>
+      <c r="R33" s="75"/>
+      <c r="S33" s="75"/>
+      <c r="T33" s="75"/>
+      <c r="U33" s="75"/>
+      <c r="V33" s="75"/>
+      <c r="W33" s="75"/>
+      <c r="X33" s="75"/>
+      <c r="Y33" s="75"/>
+      <c r="Z33" s="75"/>
+      <c r="AA33" s="75"/>
+      <c r="AB33" s="75"/>
+      <c r="AC33" s="75"/>
+      <c r="AD33" s="75"/>
+      <c r="AE33" s="75"/>
+      <c r="AF33" s="75"/>
+      <c r="AG33" s="75"/>
+      <c r="AH33" s="75"/>
+      <c r="AI33" s="75"/>
+      <c r="AJ33" s="75"/>
+      <c r="AK33" s="75"/>
+      <c r="AL33" s="74"/>
+      <c r="AM33" s="74"/>
+      <c r="AN33" s="74"/>
+      <c r="AO33" s="74"/>
+      <c r="AP33" s="74"/>
+      <c r="AQ33" s="74"/>
+      <c r="AR33" s="74"/>
+      <c r="AS33" s="74"/>
+      <c r="AT33" s="74"/>
+      <c r="AU33" s="74"/>
+      <c r="AV33" s="74"/>
+      <c r="AW33" s="74"/>
+      <c r="AX33" s="74"/>
+      <c r="AY33" s="74"/>
+      <c r="AZ33" s="74"/>
+      <c r="BA33" s="74"/>
+      <c r="BB33" s="74"/>
+      <c r="BC33" s="74"/>
+      <c r="BD33" s="74"/>
+      <c r="BE33" s="74"/>
+      <c r="BF33" s="74"/>
+      <c r="BG33" s="74"/>
+      <c r="BH33" s="74"/>
+      <c r="BI33" s="74"/>
+      <c r="BJ33" s="74"/>
+      <c r="BK33" s="2"/>
+      <c r="BL33" s="66"/>
+    </row>
+    <row r="34" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="66"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="75"/>
+      <c r="P34" s="75"/>
+      <c r="Q34" s="75"/>
+      <c r="R34" s="75"/>
+      <c r="S34" s="75"/>
+      <c r="T34" s="75"/>
+      <c r="U34" s="75"/>
+      <c r="V34" s="75"/>
+      <c r="W34" s="75"/>
+      <c r="X34" s="75"/>
+      <c r="Y34" s="75"/>
+      <c r="Z34" s="75"/>
+      <c r="AA34" s="75"/>
+      <c r="AB34" s="75"/>
+      <c r="AC34" s="75"/>
+      <c r="AD34" s="75"/>
+      <c r="AE34" s="75"/>
+      <c r="AF34" s="75"/>
+      <c r="AG34" s="75"/>
+      <c r="AH34" s="75"/>
+      <c r="AI34" s="75"/>
+      <c r="AJ34" s="75"/>
+      <c r="AK34" s="75"/>
+      <c r="AL34" s="74"/>
+      <c r="AM34" s="74"/>
+      <c r="AN34" s="74"/>
+      <c r="AO34" s="74"/>
+      <c r="AP34" s="74"/>
+      <c r="AQ34" s="74"/>
+      <c r="AR34" s="74"/>
+      <c r="AS34" s="74"/>
+      <c r="AT34" s="74"/>
+      <c r="AU34" s="74"/>
+      <c r="AV34" s="74"/>
+      <c r="AW34" s="74"/>
+      <c r="AX34" s="74"/>
+      <c r="AY34" s="74"/>
+      <c r="AZ34" s="74"/>
+      <c r="BA34" s="74"/>
+      <c r="BB34" s="74"/>
+      <c r="BC34" s="74"/>
+      <c r="BD34" s="74"/>
+      <c r="BE34" s="74"/>
+      <c r="BF34" s="74"/>
+      <c r="BG34" s="74"/>
+      <c r="BH34" s="74"/>
+      <c r="BI34" s="74"/>
+      <c r="BJ34" s="74"/>
+      <c r="BK34" s="2"/>
+      <c r="BL34" s="66"/>
+    </row>
+    <row r="35" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="66"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="75"/>
+      <c r="O35" s="75"/>
+      <c r="P35" s="75"/>
+      <c r="Q35" s="75"/>
+      <c r="R35" s="75"/>
+      <c r="S35" s="75"/>
+      <c r="T35" s="75"/>
+      <c r="U35" s="75"/>
+      <c r="V35" s="75"/>
+      <c r="W35" s="75"/>
+      <c r="X35" s="75"/>
+      <c r="Y35" s="75"/>
+      <c r="Z35" s="75"/>
+      <c r="AA35" s="75"/>
+      <c r="AB35" s="75"/>
+      <c r="AC35" s="75"/>
+      <c r="AD35" s="75"/>
+      <c r="AE35" s="75"/>
+      <c r="AF35" s="75"/>
+      <c r="AG35" s="75"/>
+      <c r="AH35" s="75"/>
+      <c r="AI35" s="75"/>
+      <c r="AJ35" s="75"/>
+      <c r="AK35" s="75"/>
+      <c r="AL35" s="74"/>
+      <c r="AM35" s="74"/>
+      <c r="AN35" s="74"/>
+      <c r="AO35" s="74"/>
+      <c r="AP35" s="74"/>
+      <c r="AQ35" s="74"/>
+      <c r="AR35" s="74"/>
+      <c r="AS35" s="74"/>
+      <c r="AT35" s="74"/>
+      <c r="AU35" s="74"/>
+      <c r="AV35" s="74"/>
+      <c r="AW35" s="74"/>
+      <c r="AX35" s="74"/>
+      <c r="AY35" s="74"/>
+      <c r="AZ35" s="74"/>
+      <c r="BA35" s="74"/>
+      <c r="BB35" s="74"/>
+      <c r="BC35" s="74"/>
+      <c r="BD35" s="74"/>
+      <c r="BE35" s="74"/>
+      <c r="BF35" s="74"/>
+      <c r="BG35" s="74"/>
+      <c r="BH35" s="74"/>
+      <c r="BI35" s="74"/>
+      <c r="BJ35" s="74"/>
+      <c r="BK35" s="2"/>
+      <c r="BL35" s="66"/>
+    </row>
+    <row r="36" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="66"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="75"/>
+      <c r="N36" s="75"/>
+      <c r="O36" s="75"/>
+      <c r="P36" s="75"/>
+      <c r="Q36" s="75"/>
+      <c r="R36" s="75"/>
+      <c r="S36" s="75"/>
+      <c r="T36" s="75"/>
+      <c r="U36" s="75"/>
+      <c r="V36" s="75"/>
+      <c r="W36" s="75"/>
+      <c r="X36" s="75"/>
+      <c r="Y36" s="75"/>
+      <c r="Z36" s="75"/>
+      <c r="AA36" s="75"/>
+      <c r="AB36" s="75"/>
+      <c r="AC36" s="75"/>
+      <c r="AD36" s="75"/>
+      <c r="AE36" s="75"/>
+      <c r="AF36" s="75"/>
+      <c r="AG36" s="75"/>
+      <c r="AH36" s="75"/>
+      <c r="AI36" s="75"/>
+      <c r="AJ36" s="75"/>
+      <c r="AK36" s="75"/>
+      <c r="AL36" s="74"/>
+      <c r="AM36" s="74"/>
+      <c r="AN36" s="74"/>
+      <c r="AO36" s="74"/>
+      <c r="AP36" s="74"/>
+      <c r="AQ36" s="74"/>
+      <c r="AR36" s="74"/>
+      <c r="AS36" s="74"/>
+      <c r="AT36" s="74"/>
+      <c r="AU36" s="74"/>
+      <c r="AV36" s="74"/>
+      <c r="AW36" s="74"/>
+      <c r="AX36" s="74"/>
+      <c r="AY36" s="74"/>
+      <c r="AZ36" s="74"/>
+      <c r="BA36" s="74"/>
+      <c r="BB36" s="74"/>
+      <c r="BC36" s="74"/>
+      <c r="BD36" s="74"/>
+      <c r="BE36" s="74"/>
+      <c r="BF36" s="74"/>
+      <c r="BG36" s="74"/>
+      <c r="BH36" s="74"/>
+      <c r="BI36" s="74"/>
+      <c r="BJ36" s="74"/>
+      <c r="BK36" s="2"/>
+      <c r="BL36" s="66"/>
+    </row>
+    <row r="37" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="66"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="75"/>
+      <c r="N37" s="75"/>
+      <c r="O37" s="75"/>
+      <c r="P37" s="75"/>
+      <c r="Q37" s="75"/>
+      <c r="R37" s="75"/>
+      <c r="S37" s="75"/>
+      <c r="T37" s="75"/>
+      <c r="U37" s="75"/>
+      <c r="V37" s="75"/>
+      <c r="W37" s="75"/>
+      <c r="X37" s="75"/>
+      <c r="Y37" s="75"/>
+      <c r="Z37" s="75"/>
+      <c r="AA37" s="75"/>
+      <c r="AB37" s="75"/>
+      <c r="AC37" s="75"/>
+      <c r="AD37" s="75"/>
+      <c r="AE37" s="75"/>
+      <c r="AF37" s="75"/>
+      <c r="AG37" s="75"/>
+      <c r="AH37" s="75"/>
+      <c r="AI37" s="75"/>
+      <c r="AJ37" s="75"/>
+      <c r="AK37" s="75"/>
+      <c r="AL37" s="74"/>
+      <c r="AM37" s="74"/>
+      <c r="AN37" s="74"/>
+      <c r="AO37" s="74"/>
+      <c r="AP37" s="74"/>
+      <c r="AQ37" s="74"/>
+      <c r="AR37" s="74"/>
+      <c r="AS37" s="74"/>
+      <c r="AT37" s="74"/>
+      <c r="AU37" s="74"/>
+      <c r="AV37" s="74"/>
+      <c r="AW37" s="74"/>
+      <c r="AX37" s="74"/>
+      <c r="AY37" s="74"/>
+      <c r="AZ37" s="74"/>
+      <c r="BA37" s="74"/>
+      <c r="BB37" s="74"/>
+      <c r="BC37" s="74"/>
+      <c r="BD37" s="74"/>
+      <c r="BE37" s="74"/>
+      <c r="BF37" s="74"/>
+      <c r="BG37" s="74"/>
+      <c r="BH37" s="74"/>
+      <c r="BI37" s="74"/>
+      <c r="BJ37" s="74"/>
+      <c r="BK37" s="2"/>
+      <c r="BL37" s="66"/>
+    </row>
+    <row r="38" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="66"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="75"/>
+      <c r="M38" s="75"/>
+      <c r="N38" s="75"/>
+      <c r="O38" s="75"/>
+      <c r="P38" s="75"/>
+      <c r="Q38" s="75"/>
+      <c r="R38" s="75"/>
+      <c r="S38" s="75"/>
+      <c r="T38" s="75"/>
+      <c r="U38" s="75"/>
+      <c r="V38" s="75"/>
+      <c r="W38" s="75"/>
+      <c r="X38" s="75"/>
+      <c r="Y38" s="75"/>
+      <c r="Z38" s="75"/>
+      <c r="AA38" s="75"/>
+      <c r="AB38" s="75"/>
+      <c r="AC38" s="75"/>
+      <c r="AD38" s="75"/>
+      <c r="AE38" s="75"/>
+      <c r="AF38" s="75"/>
+      <c r="AG38" s="75"/>
+      <c r="AH38" s="75"/>
+      <c r="AI38" s="75"/>
+      <c r="AJ38" s="75"/>
+      <c r="AK38" s="75"/>
+      <c r="AL38" s="74"/>
+      <c r="AM38" s="74"/>
+      <c r="AN38" s="74"/>
+      <c r="AO38" s="74"/>
+      <c r="AP38" s="74"/>
+      <c r="AQ38" s="74"/>
+      <c r="AR38" s="74"/>
+      <c r="AS38" s="74"/>
+      <c r="AT38" s="74"/>
+      <c r="AU38" s="74"/>
+      <c r="AV38" s="74"/>
+      <c r="AW38" s="74"/>
+      <c r="AX38" s="74"/>
+      <c r="AY38" s="74"/>
+      <c r="AZ38" s="74"/>
+      <c r="BA38" s="74"/>
+      <c r="BB38" s="74"/>
+      <c r="BC38" s="74"/>
+      <c r="BD38" s="74"/>
+      <c r="BE38" s="74"/>
+      <c r="BF38" s="74"/>
+      <c r="BG38" s="74"/>
+      <c r="BH38" s="74"/>
+      <c r="BI38" s="74"/>
+      <c r="BJ38" s="74"/>
+      <c r="BK38" s="2"/>
+      <c r="BL38" s="66"/>
+    </row>
+    <row r="39" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="66"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="75"/>
+      <c r="N39" s="75"/>
+      <c r="O39" s="75"/>
+      <c r="P39" s="75"/>
+      <c r="Q39" s="75"/>
+      <c r="R39" s="75"/>
+      <c r="S39" s="75"/>
+      <c r="T39" s="75"/>
+      <c r="U39" s="75"/>
+      <c r="V39" s="75"/>
+      <c r="W39" s="75"/>
+      <c r="X39" s="75"/>
+      <c r="Y39" s="75"/>
+      <c r="Z39" s="75"/>
+      <c r="AA39" s="75"/>
+      <c r="AB39" s="75"/>
+      <c r="AC39" s="75"/>
+      <c r="AD39" s="75"/>
+      <c r="AE39" s="75"/>
+      <c r="AF39" s="75"/>
+      <c r="AG39" s="75"/>
+      <c r="AH39" s="75"/>
+      <c r="AI39" s="75"/>
+      <c r="AJ39" s="75"/>
+      <c r="AK39" s="75"/>
+      <c r="AL39" s="74"/>
+      <c r="AM39" s="74"/>
+      <c r="AN39" s="74"/>
+      <c r="AO39" s="74"/>
+      <c r="AP39" s="74"/>
+      <c r="AQ39" s="74"/>
+      <c r="AR39" s="74"/>
+      <c r="AS39" s="74"/>
+      <c r="AT39" s="74"/>
+      <c r="AU39" s="74"/>
+      <c r="AV39" s="74"/>
+      <c r="AW39" s="74"/>
+      <c r="AX39" s="74"/>
+      <c r="AY39" s="74"/>
+      <c r="AZ39" s="74"/>
+      <c r="BA39" s="74"/>
+      <c r="BB39" s="74"/>
+      <c r="BC39" s="74"/>
+      <c r="BD39" s="74"/>
+      <c r="BE39" s="74"/>
+      <c r="BF39" s="74"/>
+      <c r="BG39" s="74"/>
+      <c r="BH39" s="74"/>
+      <c r="BI39" s="74"/>
+      <c r="BJ39" s="74"/>
+      <c r="BK39" s="2"/>
+      <c r="BL39" s="66"/>
+    </row>
+    <row r="40" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="66"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="75"/>
+      <c r="L40" s="75"/>
+      <c r="M40" s="75"/>
+      <c r="N40" s="75"/>
+      <c r="O40" s="75"/>
+      <c r="P40" s="75"/>
+      <c r="Q40" s="75"/>
+      <c r="R40" s="75"/>
+      <c r="S40" s="75"/>
+      <c r="T40" s="75"/>
+      <c r="U40" s="75"/>
+      <c r="V40" s="75"/>
+      <c r="W40" s="75"/>
+      <c r="X40" s="75"/>
+      <c r="Y40" s="75"/>
+      <c r="Z40" s="75"/>
+      <c r="AA40" s="75"/>
+      <c r="AB40" s="75"/>
+      <c r="AC40" s="75"/>
+      <c r="AD40" s="75"/>
+      <c r="AE40" s="75"/>
+      <c r="AF40" s="75"/>
+      <c r="AG40" s="75"/>
+      <c r="AH40" s="75"/>
+      <c r="AI40" s="75"/>
+      <c r="AJ40" s="75"/>
+      <c r="AK40" s="75"/>
+      <c r="AL40" s="74"/>
+      <c r="AM40" s="74"/>
+      <c r="AN40" s="74"/>
+      <c r="AO40" s="74"/>
+      <c r="AP40" s="74"/>
+      <c r="AQ40" s="74"/>
+      <c r="AR40" s="74"/>
+      <c r="AS40" s="74"/>
+      <c r="AT40" s="74"/>
+      <c r="AU40" s="74"/>
+      <c r="AV40" s="74"/>
+      <c r="AW40" s="74"/>
+      <c r="AX40" s="74"/>
+      <c r="AY40" s="74"/>
+      <c r="AZ40" s="74"/>
+      <c r="BA40" s="74"/>
+      <c r="BB40" s="74"/>
+      <c r="BC40" s="74"/>
+      <c r="BD40" s="74"/>
+      <c r="BE40" s="74"/>
+      <c r="BF40" s="74"/>
+      <c r="BG40" s="74"/>
+      <c r="BH40" s="74"/>
+      <c r="BI40" s="74"/>
+      <c r="BJ40" s="74"/>
+      <c r="BK40" s="2"/>
+      <c r="BL40" s="66"/>
+    </row>
+    <row r="41" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="66"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="82"/>
+      <c r="F41" s="82"/>
+      <c r="G41" s="82"/>
+      <c r="H41" s="82"/>
+      <c r="I41" s="82"/>
+      <c r="J41" s="82"/>
+      <c r="K41" s="82"/>
+      <c r="L41" s="82"/>
+      <c r="M41" s="82"/>
+      <c r="N41" s="82"/>
+      <c r="O41" s="82"/>
+      <c r="P41" s="82"/>
+      <c r="Q41" s="82"/>
+      <c r="R41" s="82"/>
+      <c r="S41" s="82"/>
+      <c r="T41" s="82"/>
+      <c r="U41" s="82"/>
+      <c r="V41" s="82"/>
+      <c r="W41" s="82"/>
+      <c r="X41" s="82"/>
+      <c r="Y41" s="82"/>
+      <c r="Z41" s="82"/>
+      <c r="AA41" s="82"/>
+      <c r="AB41" s="82"/>
+      <c r="AC41" s="82"/>
+      <c r="AD41" s="82"/>
+      <c r="AE41" s="82"/>
+      <c r="AF41" s="82"/>
+      <c r="AG41" s="82"/>
+      <c r="AH41" s="82"/>
+      <c r="AI41" s="82"/>
+      <c r="AJ41" s="82"/>
+      <c r="AK41" s="82"/>
+      <c r="AL41" s="82"/>
+      <c r="AM41" s="82"/>
+      <c r="AN41" s="82"/>
+      <c r="AO41" s="82"/>
+      <c r="AP41" s="82"/>
+      <c r="AQ41" s="82"/>
+      <c r="AR41" s="82"/>
+      <c r="AS41" s="82"/>
+      <c r="AT41" s="82"/>
+      <c r="AU41" s="82"/>
+      <c r="AV41" s="82"/>
+      <c r="AW41" s="82"/>
+      <c r="AX41" s="82"/>
+      <c r="AY41" s="82"/>
+      <c r="AZ41" s="82"/>
+      <c r="BA41" s="82"/>
+      <c r="BB41" s="82"/>
+      <c r="BC41" s="82"/>
+      <c r="BD41" s="82"/>
+      <c r="BE41" s="82"/>
+      <c r="BF41" s="82"/>
+      <c r="BG41" s="82"/>
+      <c r="BH41" s="82"/>
+      <c r="BI41" s="82"/>
+      <c r="BJ41" s="82"/>
+      <c r="BK41" s="2"/>
+      <c r="BL41" s="66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="117">
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:AK39"/>
+    <mergeCell ref="AL39:BJ39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:AK40"/>
+    <mergeCell ref="AL40:BJ40"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:AK37"/>
+    <mergeCell ref="AL37:BJ37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:AK38"/>
+    <mergeCell ref="AL38:BJ38"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:AK35"/>
+    <mergeCell ref="AL35:BJ35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:AK36"/>
+    <mergeCell ref="AL36:BJ36"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:AK33"/>
+    <mergeCell ref="AL33:BJ33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:AK34"/>
+    <mergeCell ref="AL34:BJ34"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:AK31"/>
+    <mergeCell ref="AL31:BJ31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:AK32"/>
+    <mergeCell ref="AL32:BJ32"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:AK29"/>
+    <mergeCell ref="AL29:BJ29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:AK30"/>
+    <mergeCell ref="AL30:BJ30"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:AK27"/>
+    <mergeCell ref="AL27:BJ27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:AK28"/>
+    <mergeCell ref="AL28:BJ28"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:AK25"/>
+    <mergeCell ref="AL25:BJ25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:AK26"/>
+    <mergeCell ref="AL26:BJ26"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:AK23"/>
+    <mergeCell ref="AL23:BJ23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:AK24"/>
+    <mergeCell ref="AL24:BJ24"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:AK21"/>
+    <mergeCell ref="AL21:BJ21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:AK22"/>
+    <mergeCell ref="AL22:BJ22"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:AK19"/>
+    <mergeCell ref="AL19:BJ19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:AK20"/>
+    <mergeCell ref="AL20:BJ20"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:AK17"/>
+    <mergeCell ref="AL17:BJ17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:AK18"/>
+    <mergeCell ref="AL18:BJ18"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:AK15"/>
+    <mergeCell ref="AL15:BJ15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:AK16"/>
+    <mergeCell ref="AL16:BJ16"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:AK13"/>
+    <mergeCell ref="AL13:BJ13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:AK14"/>
+    <mergeCell ref="AL14:BJ14"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:AK11"/>
+    <mergeCell ref="AL11:BJ11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:AK12"/>
+    <mergeCell ref="AL12:BJ12"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:AK9"/>
+    <mergeCell ref="AL9:BJ9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:AK10"/>
+    <mergeCell ref="AL10:BJ10"/>
+    <mergeCell ref="BF4:BK5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:AK7"/>
+    <mergeCell ref="AL7:BJ7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:AK8"/>
+    <mergeCell ref="AL8:BJ8"/>
+    <mergeCell ref="B4:K5"/>
+    <mergeCell ref="L4:P5"/>
+    <mergeCell ref="Q4:AM5"/>
+    <mergeCell ref="AN4:AS5"/>
+    <mergeCell ref="AT4:AY5"/>
+    <mergeCell ref="AZ4:BE5"/>
+    <mergeCell ref="B2:BK2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="Q3:AM3"/>
+    <mergeCell ref="AN3:AS3"/>
+    <mergeCell ref="AT3:AY3"/>
+    <mergeCell ref="AZ3:BE3"/>
+    <mergeCell ref="BF3:BK3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/メッセージ設計書.xlsx
+++ b/メッセージ設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kensyu004\Desktop\新しいフォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59ADD556-5E71-4BD6-A450-AABA8BEDABBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F640165-D4BB-4F4F-A40A-30D34D9A7F26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5295" yWindow="420" windowWidth="19140" windowHeight="10395" activeTab="2" xr2:uid="{78B42164-E9D9-4973-93DD-29F371AD8A8A}"/>
+    <workbookView xWindow="345" yWindow="255" windowWidth="19140" windowHeight="10395" activeTab="2" xr2:uid="{78B42164-E9D9-4973-93DD-29F371AD8A8A}"/>
   </bookViews>
   <sheets>
     <sheet name="ツールチップ" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="213">
   <si>
     <t>ソフトウェア名</t>
     <rPh sb="6" eb="7">
@@ -1709,6 +1709,19 @@
       <t>トキ</t>
     </rPh>
     <rPh sb="13" eb="15">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B033</t>
+  </si>
+  <si>
+    <t>アバターの性別を選択してください。</t>
+    <rPh sb="5" eb="7">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
       <t>センタク</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -2040,36 +2053,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2081,6 +2064,36 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2107,33 +2120,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2199,14 +2185,65 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2217,32 +2254,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2599,285 +2612,285 @@
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="28" t="str">
+      <c r="B1" s="18" t="str">
         <f>[1]表紙!$Q$8</f>
         <v>人材管理ソフトメッセージ仕様書</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="29"/>
-      <c r="AM1" s="29"/>
-      <c r="AN1" s="29"/>
-      <c r="AO1" s="29"/>
-      <c r="AP1" s="29"/>
-      <c r="AQ1" s="29"/>
-      <c r="AR1" s="29"/>
-      <c r="AS1" s="29"/>
-      <c r="AT1" s="29"/>
-      <c r="AU1" s="29"/>
-      <c r="AV1" s="29"/>
-      <c r="AW1" s="29"/>
-      <c r="AX1" s="29"/>
-      <c r="AY1" s="29"/>
-      <c r="AZ1" s="29"/>
-      <c r="BA1" s="29"/>
-      <c r="BB1" s="29"/>
-      <c r="BC1" s="29"/>
-      <c r="BD1" s="29"/>
-      <c r="BE1" s="29"/>
-      <c r="BF1" s="29"/>
-      <c r="BG1" s="29"/>
-      <c r="BH1" s="29"/>
-      <c r="BI1" s="29"/>
-      <c r="BJ1" s="29"/>
-      <c r="BK1" s="29"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="19"/>
+      <c r="AU1" s="19"/>
+      <c r="AV1" s="19"/>
+      <c r="AW1" s="19"/>
+      <c r="AX1" s="19"/>
+      <c r="AY1" s="19"/>
+      <c r="AZ1" s="19"/>
+      <c r="BA1" s="19"/>
+      <c r="BB1" s="19"/>
+      <c r="BC1" s="19"/>
+      <c r="BD1" s="19"/>
+      <c r="BE1" s="19"/>
+      <c r="BF1" s="19"/>
+      <c r="BG1" s="19"/>
+      <c r="BH1" s="19"/>
+      <c r="BI1" s="19"/>
+      <c r="BJ1" s="19"/>
+      <c r="BK1" s="19"/>
     </row>
     <row r="2" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="30" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30" t="s">
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="31" t="s">
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="AO2" s="31"/>
-      <c r="AP2" s="31"/>
-      <c r="AQ2" s="31"/>
-      <c r="AR2" s="31"/>
-      <c r="AS2" s="31"/>
-      <c r="AT2" s="30" t="s">
+      <c r="AO2" s="21"/>
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="21"/>
+      <c r="AR2" s="21"/>
+      <c r="AS2" s="21"/>
+      <c r="AT2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="AU2" s="30"/>
-      <c r="AV2" s="30"/>
-      <c r="AW2" s="30"/>
-      <c r="AX2" s="30"/>
-      <c r="AY2" s="30"/>
-      <c r="AZ2" s="30" t="s">
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BA2" s="30"/>
-      <c r="BB2" s="30"/>
-      <c r="BC2" s="30"/>
-      <c r="BD2" s="30"/>
-      <c r="BE2" s="30"/>
-      <c r="BF2" s="30" t="s">
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="BG2" s="30"/>
-      <c r="BH2" s="30"/>
-      <c r="BI2" s="30"/>
-      <c r="BJ2" s="30"/>
-      <c r="BK2" s="30"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
     </row>
     <row r="3" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="26">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="27">
         <v>1</v>
       </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="24" t="s">
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="24"/>
-      <c r="AK3" s="24"/>
-      <c r="AL3" s="24"/>
-      <c r="AM3" s="24"/>
-      <c r="AN3" s="27"/>
-      <c r="AO3" s="24"/>
-      <c r="AP3" s="24"/>
-      <c r="AQ3" s="24"/>
-      <c r="AR3" s="24"/>
-      <c r="AS3" s="24"/>
-      <c r="AT3" s="27" t="s">
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="22"/>
+      <c r="AK3" s="22"/>
+      <c r="AL3" s="22"/>
+      <c r="AM3" s="22"/>
+      <c r="AN3" s="28"/>
+      <c r="AO3" s="22"/>
+      <c r="AP3" s="22"/>
+      <c r="AQ3" s="22"/>
+      <c r="AR3" s="22"/>
+      <c r="AS3" s="22"/>
+      <c r="AT3" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="AU3" s="27"/>
-      <c r="AV3" s="27"/>
-      <c r="AW3" s="27"/>
-      <c r="AX3" s="27"/>
-      <c r="AY3" s="27"/>
-      <c r="AZ3" s="24"/>
-      <c r="BA3" s="24"/>
-      <c r="BB3" s="24"/>
-      <c r="BC3" s="24"/>
-      <c r="BD3" s="24"/>
-      <c r="BE3" s="24"/>
-      <c r="BF3" s="24"/>
-      <c r="BG3" s="24"/>
-      <c r="BH3" s="24"/>
-      <c r="BI3" s="24"/>
-      <c r="BJ3" s="24"/>
-      <c r="BK3" s="24"/>
+      <c r="AU3" s="28"/>
+      <c r="AV3" s="28"/>
+      <c r="AW3" s="28"/>
+      <c r="AX3" s="28"/>
+      <c r="AY3" s="28"/>
+      <c r="AZ3" s="22"/>
+      <c r="BA3" s="22"/>
+      <c r="BB3" s="22"/>
+      <c r="BC3" s="22"/>
+      <c r="BD3" s="22"/>
+      <c r="BE3" s="22"/>
+      <c r="BF3" s="22"/>
+      <c r="BG3" s="22"/>
+      <c r="BH3" s="22"/>
+      <c r="BI3" s="22"/>
+      <c r="BJ3" s="22"/>
+      <c r="BK3" s="22"/>
     </row>
     <row r="4" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="24"/>
-      <c r="AH4" s="24"/>
-      <c r="AI4" s="24"/>
-      <c r="AJ4" s="24"/>
-      <c r="AK4" s="24"/>
-      <c r="AL4" s="24"/>
-      <c r="AM4" s="24"/>
-      <c r="AN4" s="24"/>
-      <c r="AO4" s="24"/>
-      <c r="AP4" s="24"/>
-      <c r="AQ4" s="24"/>
-      <c r="AR4" s="24"/>
-      <c r="AS4" s="24"/>
-      <c r="AT4" s="27"/>
-      <c r="AU4" s="27"/>
-      <c r="AV4" s="27"/>
-      <c r="AW4" s="27"/>
-      <c r="AX4" s="27"/>
-      <c r="AY4" s="27"/>
-      <c r="AZ4" s="24"/>
-      <c r="BA4" s="24"/>
-      <c r="BB4" s="24"/>
-      <c r="BC4" s="24"/>
-      <c r="BD4" s="24"/>
-      <c r="BE4" s="24"/>
-      <c r="BF4" s="24"/>
-      <c r="BG4" s="24"/>
-      <c r="BH4" s="24"/>
-      <c r="BI4" s="24"/>
-      <c r="BJ4" s="24"/>
-      <c r="BK4" s="24"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="22"/>
+      <c r="AL4" s="22"/>
+      <c r="AM4" s="22"/>
+      <c r="AN4" s="22"/>
+      <c r="AO4" s="22"/>
+      <c r="AP4" s="22"/>
+      <c r="AQ4" s="22"/>
+      <c r="AR4" s="22"/>
+      <c r="AS4" s="22"/>
+      <c r="AT4" s="28"/>
+      <c r="AU4" s="28"/>
+      <c r="AV4" s="28"/>
+      <c r="AW4" s="28"/>
+      <c r="AX4" s="28"/>
+      <c r="AY4" s="28"/>
+      <c r="AZ4" s="22"/>
+      <c r="BA4" s="22"/>
+      <c r="BB4" s="22"/>
+      <c r="BC4" s="22"/>
+      <c r="BD4" s="22"/>
+      <c r="BE4" s="22"/>
+      <c r="BF4" s="22"/>
+      <c r="BG4" s="22"/>
+      <c r="BH4" s="22"/>
+      <c r="BI4" s="22"/>
+      <c r="BJ4" s="22"/>
+      <c r="BK4" s="22"/>
     </row>
     <row r="5" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3"/>
@@ -3009,510 +3022,510 @@
     </row>
     <row r="7" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="23" t="s">
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23" t="s">
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="21"/>
-      <c r="AE7" s="21"/>
-      <c r="AF7" s="21" t="s">
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="23"/>
+      <c r="AE7" s="23"/>
+      <c r="AF7" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AG7" s="21"/>
-      <c r="AH7" s="21"/>
-      <c r="AI7" s="21"/>
-      <c r="AJ7" s="21"/>
-      <c r="AK7" s="21"/>
-      <c r="AL7" s="21"/>
-      <c r="AM7" s="21"/>
-      <c r="AN7" s="21"/>
-      <c r="AO7" s="21"/>
-      <c r="AP7" s="21"/>
-      <c r="AQ7" s="21"/>
-      <c r="AR7" s="21"/>
-      <c r="AS7" s="21"/>
-      <c r="AT7" s="21"/>
-      <c r="AU7" s="21"/>
-      <c r="AV7" s="21"/>
-      <c r="AW7" s="21"/>
-      <c r="AX7" s="21"/>
-      <c r="AY7" s="21"/>
-      <c r="AZ7" s="21"/>
-      <c r="BA7" s="21"/>
-      <c r="BB7" s="21"/>
-      <c r="BC7" s="21"/>
-      <c r="BD7" s="21"/>
-      <c r="BE7" s="21"/>
-      <c r="BF7" s="21"/>
-      <c r="BG7" s="21"/>
-      <c r="BH7" s="21"/>
-      <c r="BI7" s="21"/>
-      <c r="BJ7" s="21"/>
+      <c r="AG7" s="23"/>
+      <c r="AH7" s="23"/>
+      <c r="AI7" s="23"/>
+      <c r="AJ7" s="23"/>
+      <c r="AK7" s="23"/>
+      <c r="AL7" s="23"/>
+      <c r="AM7" s="23"/>
+      <c r="AN7" s="23"/>
+      <c r="AO7" s="23"/>
+      <c r="AP7" s="23"/>
+      <c r="AQ7" s="23"/>
+      <c r="AR7" s="23"/>
+      <c r="AS7" s="23"/>
+      <c r="AT7" s="23"/>
+      <c r="AU7" s="23"/>
+      <c r="AV7" s="23"/>
+      <c r="AW7" s="23"/>
+      <c r="AX7" s="23"/>
+      <c r="AY7" s="23"/>
+      <c r="AZ7" s="23"/>
+      <c r="BA7" s="23"/>
+      <c r="BB7" s="23"/>
+      <c r="BC7" s="23"/>
+      <c r="BD7" s="23"/>
+      <c r="BE7" s="23"/>
+      <c r="BF7" s="23"/>
+      <c r="BG7" s="23"/>
+      <c r="BH7" s="23"/>
+      <c r="BI7" s="23"/>
+      <c r="BJ7" s="23"/>
       <c r="BK7" s="2"/>
     </row>
     <row r="8" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="21"/>
-      <c r="AE8" s="21"/>
-      <c r="AF8" s="21"/>
-      <c r="AG8" s="21"/>
-      <c r="AH8" s="21"/>
-      <c r="AI8" s="21"/>
-      <c r="AJ8" s="21"/>
-      <c r="AK8" s="21"/>
-      <c r="AL8" s="21"/>
-      <c r="AM8" s="21"/>
-      <c r="AN8" s="21"/>
-      <c r="AO8" s="21"/>
-      <c r="AP8" s="21"/>
-      <c r="AQ8" s="21"/>
-      <c r="AR8" s="21"/>
-      <c r="AS8" s="21"/>
-      <c r="AT8" s="21"/>
-      <c r="AU8" s="21"/>
-      <c r="AV8" s="21"/>
-      <c r="AW8" s="21"/>
-      <c r="AX8" s="21"/>
-      <c r="AY8" s="21"/>
-      <c r="AZ8" s="21"/>
-      <c r="BA8" s="21"/>
-      <c r="BB8" s="21"/>
-      <c r="BC8" s="21"/>
-      <c r="BD8" s="21"/>
-      <c r="BE8" s="21"/>
-      <c r="BF8" s="21"/>
-      <c r="BG8" s="21"/>
-      <c r="BH8" s="21"/>
-      <c r="BI8" s="21"/>
-      <c r="BJ8" s="21"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="23"/>
+      <c r="AE8" s="23"/>
+      <c r="AF8" s="23"/>
+      <c r="AG8" s="23"/>
+      <c r="AH8" s="23"/>
+      <c r="AI8" s="23"/>
+      <c r="AJ8" s="23"/>
+      <c r="AK8" s="23"/>
+      <c r="AL8" s="23"/>
+      <c r="AM8" s="23"/>
+      <c r="AN8" s="23"/>
+      <c r="AO8" s="23"/>
+      <c r="AP8" s="23"/>
+      <c r="AQ8" s="23"/>
+      <c r="AR8" s="23"/>
+      <c r="AS8" s="23"/>
+      <c r="AT8" s="23"/>
+      <c r="AU8" s="23"/>
+      <c r="AV8" s="23"/>
+      <c r="AW8" s="23"/>
+      <c r="AX8" s="23"/>
+      <c r="AY8" s="23"/>
+      <c r="AZ8" s="23"/>
+      <c r="BA8" s="23"/>
+      <c r="BB8" s="23"/>
+      <c r="BC8" s="23"/>
+      <c r="BD8" s="23"/>
+      <c r="BE8" s="23"/>
+      <c r="BF8" s="23"/>
+      <c r="BG8" s="23"/>
+      <c r="BH8" s="23"/>
+      <c r="BI8" s="23"/>
+      <c r="BJ8" s="23"/>
       <c r="BK8" s="2"/>
     </row>
     <row r="9" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19" t="s">
+      <c r="D9" s="29"/>
+      <c r="E9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="18" t="s">
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="18" t="s">
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="20" t="s">
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="AG9" s="20"/>
-      <c r="AH9" s="20"/>
-      <c r="AI9" s="20"/>
-      <c r="AJ9" s="20"/>
-      <c r="AK9" s="20"/>
-      <c r="AL9" s="20"/>
-      <c r="AM9" s="20"/>
-      <c r="AN9" s="20"/>
-      <c r="AO9" s="20"/>
-      <c r="AP9" s="20"/>
-      <c r="AQ9" s="20"/>
-      <c r="AR9" s="20"/>
-      <c r="AS9" s="20"/>
-      <c r="AT9" s="20"/>
-      <c r="AU9" s="20"/>
-      <c r="AV9" s="20"/>
-      <c r="AW9" s="20"/>
-      <c r="AX9" s="20"/>
-      <c r="AY9" s="20"/>
-      <c r="AZ9" s="20"/>
-      <c r="BA9" s="20"/>
-      <c r="BB9" s="20"/>
-      <c r="BC9" s="20"/>
-      <c r="BD9" s="20"/>
-      <c r="BE9" s="20"/>
-      <c r="BF9" s="20"/>
-      <c r="BG9" s="20"/>
-      <c r="BH9" s="20"/>
-      <c r="BI9" s="20"/>
-      <c r="BJ9" s="20"/>
+      <c r="AG9" s="31"/>
+      <c r="AH9" s="31"/>
+      <c r="AI9" s="31"/>
+      <c r="AJ9" s="31"/>
+      <c r="AK9" s="31"/>
+      <c r="AL9" s="31"/>
+      <c r="AM9" s="31"/>
+      <c r="AN9" s="31"/>
+      <c r="AO9" s="31"/>
+      <c r="AP9" s="31"/>
+      <c r="AQ9" s="31"/>
+      <c r="AR9" s="31"/>
+      <c r="AS9" s="31"/>
+      <c r="AT9" s="31"/>
+      <c r="AU9" s="31"/>
+      <c r="AV9" s="31"/>
+      <c r="AW9" s="31"/>
+      <c r="AX9" s="31"/>
+      <c r="AY9" s="31"/>
+      <c r="AZ9" s="31"/>
+      <c r="BA9" s="31"/>
+      <c r="BB9" s="31"/>
+      <c r="BC9" s="31"/>
+      <c r="BD9" s="31"/>
+      <c r="BE9" s="31"/>
+      <c r="BF9" s="31"/>
+      <c r="BG9" s="31"/>
+      <c r="BH9" s="31"/>
+      <c r="BI9" s="31"/>
+      <c r="BJ9" s="31"/>
       <c r="BK9" s="2"/>
     </row>
     <row r="10" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="29"/>
+      <c r="E10" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="18" t="s">
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18" t="s">
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="29"/>
+      <c r="AB10" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AC10" s="18"/>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="18"/>
-      <c r="AF10" s="20" t="s">
+      <c r="AC10" s="29"/>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="29"/>
+      <c r="AF10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="AG10" s="20"/>
-      <c r="AH10" s="20"/>
-      <c r="AI10" s="20"/>
-      <c r="AJ10" s="20"/>
-      <c r="AK10" s="20"/>
-      <c r="AL10" s="20"/>
-      <c r="AM10" s="20"/>
-      <c r="AN10" s="20"/>
-      <c r="AO10" s="20"/>
-      <c r="AP10" s="20"/>
-      <c r="AQ10" s="20"/>
-      <c r="AR10" s="20"/>
-      <c r="AS10" s="20"/>
-      <c r="AT10" s="20"/>
-      <c r="AU10" s="20"/>
-      <c r="AV10" s="20"/>
-      <c r="AW10" s="20"/>
-      <c r="AX10" s="20"/>
-      <c r="AY10" s="20"/>
-      <c r="AZ10" s="20"/>
-      <c r="BA10" s="20"/>
-      <c r="BB10" s="20"/>
-      <c r="BC10" s="20"/>
-      <c r="BD10" s="20"/>
-      <c r="BE10" s="20"/>
-      <c r="BF10" s="20"/>
-      <c r="BG10" s="20"/>
-      <c r="BH10" s="20"/>
-      <c r="BI10" s="20"/>
-      <c r="BJ10" s="20"/>
+      <c r="AG10" s="31"/>
+      <c r="AH10" s="31"/>
+      <c r="AI10" s="31"/>
+      <c r="AJ10" s="31"/>
+      <c r="AK10" s="31"/>
+      <c r="AL10" s="31"/>
+      <c r="AM10" s="31"/>
+      <c r="AN10" s="31"/>
+      <c r="AO10" s="31"/>
+      <c r="AP10" s="31"/>
+      <c r="AQ10" s="31"/>
+      <c r="AR10" s="31"/>
+      <c r="AS10" s="31"/>
+      <c r="AT10" s="31"/>
+      <c r="AU10" s="31"/>
+      <c r="AV10" s="31"/>
+      <c r="AW10" s="31"/>
+      <c r="AX10" s="31"/>
+      <c r="AY10" s="31"/>
+      <c r="AZ10" s="31"/>
+      <c r="BA10" s="31"/>
+      <c r="BB10" s="31"/>
+      <c r="BC10" s="31"/>
+      <c r="BD10" s="31"/>
+      <c r="BE10" s="31"/>
+      <c r="BF10" s="31"/>
+      <c r="BG10" s="31"/>
+      <c r="BH10" s="31"/>
+      <c r="BI10" s="31"/>
+      <c r="BJ10" s="31"/>
       <c r="BK10" s="2"/>
     </row>
     <row r="11" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="29"/>
+      <c r="E11" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="18" t="s">
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="18" t="s">
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="29"/>
+      <c r="AB11" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="AC11" s="18"/>
-      <c r="AD11" s="18"/>
-      <c r="AE11" s="18"/>
-      <c r="AF11" s="20" t="s">
+      <c r="AC11" s="29"/>
+      <c r="AD11" s="29"/>
+      <c r="AE11" s="29"/>
+      <c r="AF11" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="AG11" s="20"/>
-      <c r="AH11" s="20"/>
-      <c r="AI11" s="20"/>
-      <c r="AJ11" s="20"/>
-      <c r="AK11" s="20"/>
-      <c r="AL11" s="20"/>
-      <c r="AM11" s="20"/>
-      <c r="AN11" s="20"/>
-      <c r="AO11" s="20"/>
-      <c r="AP11" s="20"/>
-      <c r="AQ11" s="20"/>
-      <c r="AR11" s="20"/>
-      <c r="AS11" s="20"/>
-      <c r="AT11" s="20"/>
-      <c r="AU11" s="20"/>
-      <c r="AV11" s="20"/>
-      <c r="AW11" s="20"/>
-      <c r="AX11" s="20"/>
-      <c r="AY11" s="20"/>
-      <c r="AZ11" s="20"/>
-      <c r="BA11" s="20"/>
-      <c r="BB11" s="20"/>
-      <c r="BC11" s="20"/>
-      <c r="BD11" s="20"/>
-      <c r="BE11" s="20"/>
-      <c r="BF11" s="20"/>
-      <c r="BG11" s="20"/>
-      <c r="BH11" s="20"/>
-      <c r="BI11" s="20"/>
-      <c r="BJ11" s="20"/>
+      <c r="AG11" s="31"/>
+      <c r="AH11" s="31"/>
+      <c r="AI11" s="31"/>
+      <c r="AJ11" s="31"/>
+      <c r="AK11" s="31"/>
+      <c r="AL11" s="31"/>
+      <c r="AM11" s="31"/>
+      <c r="AN11" s="31"/>
+      <c r="AO11" s="31"/>
+      <c r="AP11" s="31"/>
+      <c r="AQ11" s="31"/>
+      <c r="AR11" s="31"/>
+      <c r="AS11" s="31"/>
+      <c r="AT11" s="31"/>
+      <c r="AU11" s="31"/>
+      <c r="AV11" s="31"/>
+      <c r="AW11" s="31"/>
+      <c r="AX11" s="31"/>
+      <c r="AY11" s="31"/>
+      <c r="AZ11" s="31"/>
+      <c r="BA11" s="31"/>
+      <c r="BB11" s="31"/>
+      <c r="BC11" s="31"/>
+      <c r="BD11" s="31"/>
+      <c r="BE11" s="31"/>
+      <c r="BF11" s="31"/>
+      <c r="BG11" s="31"/>
+      <c r="BH11" s="31"/>
+      <c r="BI11" s="31"/>
+      <c r="BJ11" s="31"/>
       <c r="BK11" s="2"/>
     </row>
     <row r="12" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19" t="s">
+      <c r="D12" s="29"/>
+      <c r="E12" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="18" t="s">
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18" t="s">
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="18"/>
-      <c r="AF12" s="20" t="s">
+      <c r="AC12" s="29"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="29"/>
+      <c r="AF12" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="AG12" s="20"/>
-      <c r="AH12" s="20"/>
-      <c r="AI12" s="20"/>
-      <c r="AJ12" s="20"/>
-      <c r="AK12" s="20"/>
-      <c r="AL12" s="20"/>
-      <c r="AM12" s="20"/>
-      <c r="AN12" s="20"/>
-      <c r="AO12" s="20"/>
-      <c r="AP12" s="20"/>
-      <c r="AQ12" s="20"/>
-      <c r="AR12" s="20"/>
-      <c r="AS12" s="20"/>
-      <c r="AT12" s="20"/>
-      <c r="AU12" s="20"/>
-      <c r="AV12" s="20"/>
-      <c r="AW12" s="20"/>
-      <c r="AX12" s="20"/>
-      <c r="AY12" s="20"/>
-      <c r="AZ12" s="20"/>
-      <c r="BA12" s="20"/>
-      <c r="BB12" s="20"/>
-      <c r="BC12" s="20"/>
-      <c r="BD12" s="20"/>
-      <c r="BE12" s="20"/>
-      <c r="BF12" s="20"/>
-      <c r="BG12" s="20"/>
-      <c r="BH12" s="20"/>
-      <c r="BI12" s="20"/>
-      <c r="BJ12" s="20"/>
+      <c r="AG12" s="31"/>
+      <c r="AH12" s="31"/>
+      <c r="AI12" s="31"/>
+      <c r="AJ12" s="31"/>
+      <c r="AK12" s="31"/>
+      <c r="AL12" s="31"/>
+      <c r="AM12" s="31"/>
+      <c r="AN12" s="31"/>
+      <c r="AO12" s="31"/>
+      <c r="AP12" s="31"/>
+      <c r="AQ12" s="31"/>
+      <c r="AR12" s="31"/>
+      <c r="AS12" s="31"/>
+      <c r="AT12" s="31"/>
+      <c r="AU12" s="31"/>
+      <c r="AV12" s="31"/>
+      <c r="AW12" s="31"/>
+      <c r="AX12" s="31"/>
+      <c r="AY12" s="31"/>
+      <c r="AZ12" s="31"/>
+      <c r="BA12" s="31"/>
+      <c r="BB12" s="31"/>
+      <c r="BC12" s="31"/>
+      <c r="BD12" s="31"/>
+      <c r="BE12" s="31"/>
+      <c r="BF12" s="31"/>
+      <c r="BG12" s="31"/>
+      <c r="BH12" s="31"/>
+      <c r="BI12" s="31"/>
+      <c r="BJ12" s="31"/>
       <c r="BK12" s="2"/>
     </row>
     <row r="13" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19" t="s">
+      <c r="D13" s="29"/>
+      <c r="E13" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="18" t="s">
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="18"/>
-      <c r="AB13" s="18" t="s">
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AC13" s="18"/>
-      <c r="AD13" s="18"/>
-      <c r="AE13" s="18"/>
-      <c r="AF13" s="20" t="s">
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="29"/>
+      <c r="AF13" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="AG13" s="20"/>
-      <c r="AH13" s="20"/>
-      <c r="AI13" s="20"/>
-      <c r="AJ13" s="20"/>
-      <c r="AK13" s="20"/>
-      <c r="AL13" s="20"/>
-      <c r="AM13" s="20"/>
-      <c r="AN13" s="20"/>
-      <c r="AO13" s="20"/>
-      <c r="AP13" s="20"/>
-      <c r="AQ13" s="20"/>
-      <c r="AR13" s="20"/>
-      <c r="AS13" s="20"/>
-      <c r="AT13" s="20"/>
-      <c r="AU13" s="20"/>
-      <c r="AV13" s="20"/>
-      <c r="AW13" s="20"/>
-      <c r="AX13" s="20"/>
-      <c r="AY13" s="20"/>
-      <c r="AZ13" s="20"/>
-      <c r="BA13" s="20"/>
-      <c r="BB13" s="20"/>
-      <c r="BC13" s="20"/>
-      <c r="BD13" s="20"/>
-      <c r="BE13" s="20"/>
-      <c r="BF13" s="20"/>
-      <c r="BG13" s="20"/>
-      <c r="BH13" s="20"/>
-      <c r="BI13" s="20"/>
-      <c r="BJ13" s="20"/>
+      <c r="AG13" s="31"/>
+      <c r="AH13" s="31"/>
+      <c r="AI13" s="31"/>
+      <c r="AJ13" s="31"/>
+      <c r="AK13" s="31"/>
+      <c r="AL13" s="31"/>
+      <c r="AM13" s="31"/>
+      <c r="AN13" s="31"/>
+      <c r="AO13" s="31"/>
+      <c r="AP13" s="31"/>
+      <c r="AQ13" s="31"/>
+      <c r="AR13" s="31"/>
+      <c r="AS13" s="31"/>
+      <c r="AT13" s="31"/>
+      <c r="AU13" s="31"/>
+      <c r="AV13" s="31"/>
+      <c r="AW13" s="31"/>
+      <c r="AX13" s="31"/>
+      <c r="AY13" s="31"/>
+      <c r="AZ13" s="31"/>
+      <c r="BA13" s="31"/>
+      <c r="BB13" s="31"/>
+      <c r="BC13" s="31"/>
+      <c r="BD13" s="31"/>
+      <c r="BE13" s="31"/>
+      <c r="BF13" s="31"/>
+      <c r="BG13" s="31"/>
+      <c r="BH13" s="31"/>
+      <c r="BI13" s="31"/>
+      <c r="BJ13" s="31"/>
       <c r="BK13" s="2"/>
     </row>
     <row r="14" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3647,510 +3660,510 @@
     </row>
     <row r="16" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22" t="s">
+      <c r="D16" s="23"/>
+      <c r="E16" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="23" t="s">
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="23" t="s">
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="AC16" s="21"/>
-      <c r="AD16" s="21"/>
-      <c r="AE16" s="21"/>
-      <c r="AF16" s="21" t="s">
+      <c r="AC16" s="23"/>
+      <c r="AD16" s="23"/>
+      <c r="AE16" s="23"/>
+      <c r="AF16" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AG16" s="21"/>
-      <c r="AH16" s="21"/>
-      <c r="AI16" s="21"/>
-      <c r="AJ16" s="21"/>
-      <c r="AK16" s="21"/>
-      <c r="AL16" s="21"/>
-      <c r="AM16" s="21"/>
-      <c r="AN16" s="21"/>
-      <c r="AO16" s="21"/>
-      <c r="AP16" s="21"/>
-      <c r="AQ16" s="21"/>
-      <c r="AR16" s="21"/>
-      <c r="AS16" s="21"/>
-      <c r="AT16" s="21"/>
-      <c r="AU16" s="21"/>
-      <c r="AV16" s="21"/>
-      <c r="AW16" s="21"/>
-      <c r="AX16" s="21"/>
-      <c r="AY16" s="21"/>
-      <c r="AZ16" s="21"/>
-      <c r="BA16" s="21"/>
-      <c r="BB16" s="21"/>
-      <c r="BC16" s="21"/>
-      <c r="BD16" s="21"/>
-      <c r="BE16" s="21"/>
-      <c r="BF16" s="21"/>
-      <c r="BG16" s="21"/>
-      <c r="BH16" s="21"/>
-      <c r="BI16" s="21"/>
-      <c r="BJ16" s="21"/>
+      <c r="AG16" s="23"/>
+      <c r="AH16" s="23"/>
+      <c r="AI16" s="23"/>
+      <c r="AJ16" s="23"/>
+      <c r="AK16" s="23"/>
+      <c r="AL16" s="23"/>
+      <c r="AM16" s="23"/>
+      <c r="AN16" s="23"/>
+      <c r="AO16" s="23"/>
+      <c r="AP16" s="23"/>
+      <c r="AQ16" s="23"/>
+      <c r="AR16" s="23"/>
+      <c r="AS16" s="23"/>
+      <c r="AT16" s="23"/>
+      <c r="AU16" s="23"/>
+      <c r="AV16" s="23"/>
+      <c r="AW16" s="23"/>
+      <c r="AX16" s="23"/>
+      <c r="AY16" s="23"/>
+      <c r="AZ16" s="23"/>
+      <c r="BA16" s="23"/>
+      <c r="BB16" s="23"/>
+      <c r="BC16" s="23"/>
+      <c r="BD16" s="23"/>
+      <c r="BE16" s="23"/>
+      <c r="BF16" s="23"/>
+      <c r="BG16" s="23"/>
+      <c r="BH16" s="23"/>
+      <c r="BI16" s="23"/>
+      <c r="BJ16" s="23"/>
       <c r="BK16" s="2"/>
     </row>
     <row r="17" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="21"/>
-      <c r="AC17" s="21"/>
-      <c r="AD17" s="21"/>
-      <c r="AE17" s="21"/>
-      <c r="AF17" s="21"/>
-      <c r="AG17" s="21"/>
-      <c r="AH17" s="21"/>
-      <c r="AI17" s="21"/>
-      <c r="AJ17" s="21"/>
-      <c r="AK17" s="21"/>
-      <c r="AL17" s="21"/>
-      <c r="AM17" s="21"/>
-      <c r="AN17" s="21"/>
-      <c r="AO17" s="21"/>
-      <c r="AP17" s="21"/>
-      <c r="AQ17" s="21"/>
-      <c r="AR17" s="21"/>
-      <c r="AS17" s="21"/>
-      <c r="AT17" s="21"/>
-      <c r="AU17" s="21"/>
-      <c r="AV17" s="21"/>
-      <c r="AW17" s="21"/>
-      <c r="AX17" s="21"/>
-      <c r="AY17" s="21"/>
-      <c r="AZ17" s="21"/>
-      <c r="BA17" s="21"/>
-      <c r="BB17" s="21"/>
-      <c r="BC17" s="21"/>
-      <c r="BD17" s="21"/>
-      <c r="BE17" s="21"/>
-      <c r="BF17" s="21"/>
-      <c r="BG17" s="21"/>
-      <c r="BH17" s="21"/>
-      <c r="BI17" s="21"/>
-      <c r="BJ17" s="21"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="23"/>
+      <c r="AD17" s="23"/>
+      <c r="AE17" s="23"/>
+      <c r="AF17" s="23"/>
+      <c r="AG17" s="23"/>
+      <c r="AH17" s="23"/>
+      <c r="AI17" s="23"/>
+      <c r="AJ17" s="23"/>
+      <c r="AK17" s="23"/>
+      <c r="AL17" s="23"/>
+      <c r="AM17" s="23"/>
+      <c r="AN17" s="23"/>
+      <c r="AO17" s="23"/>
+      <c r="AP17" s="23"/>
+      <c r="AQ17" s="23"/>
+      <c r="AR17" s="23"/>
+      <c r="AS17" s="23"/>
+      <c r="AT17" s="23"/>
+      <c r="AU17" s="23"/>
+      <c r="AV17" s="23"/>
+      <c r="AW17" s="23"/>
+      <c r="AX17" s="23"/>
+      <c r="AY17" s="23"/>
+      <c r="AZ17" s="23"/>
+      <c r="BA17" s="23"/>
+      <c r="BB17" s="23"/>
+      <c r="BC17" s="23"/>
+      <c r="BD17" s="23"/>
+      <c r="BE17" s="23"/>
+      <c r="BF17" s="23"/>
+      <c r="BG17" s="23"/>
+      <c r="BH17" s="23"/>
+      <c r="BI17" s="23"/>
+      <c r="BJ17" s="23"/>
       <c r="BK17" s="2"/>
     </row>
     <row r="18" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19" t="s">
+      <c r="D18" s="29"/>
+      <c r="E18" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="18" t="s">
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="Z18" s="18"/>
-      <c r="AA18" s="18"/>
-      <c r="AB18" s="18" t="s">
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="20" t="s">
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="29"/>
+      <c r="AF18" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="AG18" s="20"/>
-      <c r="AH18" s="20"/>
-      <c r="AI18" s="20"/>
-      <c r="AJ18" s="20"/>
-      <c r="AK18" s="20"/>
-      <c r="AL18" s="20"/>
-      <c r="AM18" s="20"/>
-      <c r="AN18" s="20"/>
-      <c r="AO18" s="20"/>
-      <c r="AP18" s="20"/>
-      <c r="AQ18" s="20"/>
-      <c r="AR18" s="20"/>
-      <c r="AS18" s="20"/>
-      <c r="AT18" s="20"/>
-      <c r="AU18" s="20"/>
-      <c r="AV18" s="20"/>
-      <c r="AW18" s="20"/>
-      <c r="AX18" s="20"/>
-      <c r="AY18" s="20"/>
-      <c r="AZ18" s="20"/>
-      <c r="BA18" s="20"/>
-      <c r="BB18" s="20"/>
-      <c r="BC18" s="20"/>
-      <c r="BD18" s="20"/>
-      <c r="BE18" s="20"/>
-      <c r="BF18" s="20"/>
-      <c r="BG18" s="20"/>
-      <c r="BH18" s="20"/>
-      <c r="BI18" s="20"/>
-      <c r="BJ18" s="20"/>
+      <c r="AG18" s="31"/>
+      <c r="AH18" s="31"/>
+      <c r="AI18" s="31"/>
+      <c r="AJ18" s="31"/>
+      <c r="AK18" s="31"/>
+      <c r="AL18" s="31"/>
+      <c r="AM18" s="31"/>
+      <c r="AN18" s="31"/>
+      <c r="AO18" s="31"/>
+      <c r="AP18" s="31"/>
+      <c r="AQ18" s="31"/>
+      <c r="AR18" s="31"/>
+      <c r="AS18" s="31"/>
+      <c r="AT18" s="31"/>
+      <c r="AU18" s="31"/>
+      <c r="AV18" s="31"/>
+      <c r="AW18" s="31"/>
+      <c r="AX18" s="31"/>
+      <c r="AY18" s="31"/>
+      <c r="AZ18" s="31"/>
+      <c r="BA18" s="31"/>
+      <c r="BB18" s="31"/>
+      <c r="BC18" s="31"/>
+      <c r="BD18" s="31"/>
+      <c r="BE18" s="31"/>
+      <c r="BF18" s="31"/>
+      <c r="BG18" s="31"/>
+      <c r="BH18" s="31"/>
+      <c r="BI18" s="31"/>
+      <c r="BJ18" s="31"/>
       <c r="BK18" s="2"/>
     </row>
     <row r="19" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19" t="s">
+      <c r="D19" s="29"/>
+      <c r="E19" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="18" t="s">
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="18"/>
-      <c r="AB19" s="18" t="s">
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="18"/>
-      <c r="AF19" s="20" t="s">
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="AG19" s="20"/>
-      <c r="AH19" s="20"/>
-      <c r="AI19" s="20"/>
-      <c r="AJ19" s="20"/>
-      <c r="AK19" s="20"/>
-      <c r="AL19" s="20"/>
-      <c r="AM19" s="20"/>
-      <c r="AN19" s="20"/>
-      <c r="AO19" s="20"/>
-      <c r="AP19" s="20"/>
-      <c r="AQ19" s="20"/>
-      <c r="AR19" s="20"/>
-      <c r="AS19" s="20"/>
-      <c r="AT19" s="20"/>
-      <c r="AU19" s="20"/>
-      <c r="AV19" s="20"/>
-      <c r="AW19" s="20"/>
-      <c r="AX19" s="20"/>
-      <c r="AY19" s="20"/>
-      <c r="AZ19" s="20"/>
-      <c r="BA19" s="20"/>
-      <c r="BB19" s="20"/>
-      <c r="BC19" s="20"/>
-      <c r="BD19" s="20"/>
-      <c r="BE19" s="20"/>
-      <c r="BF19" s="20"/>
-      <c r="BG19" s="20"/>
-      <c r="BH19" s="20"/>
-      <c r="BI19" s="20"/>
-      <c r="BJ19" s="20"/>
+      <c r="AG19" s="31"/>
+      <c r="AH19" s="31"/>
+      <c r="AI19" s="31"/>
+      <c r="AJ19" s="31"/>
+      <c r="AK19" s="31"/>
+      <c r="AL19" s="31"/>
+      <c r="AM19" s="31"/>
+      <c r="AN19" s="31"/>
+      <c r="AO19" s="31"/>
+      <c r="AP19" s="31"/>
+      <c r="AQ19" s="31"/>
+      <c r="AR19" s="31"/>
+      <c r="AS19" s="31"/>
+      <c r="AT19" s="31"/>
+      <c r="AU19" s="31"/>
+      <c r="AV19" s="31"/>
+      <c r="AW19" s="31"/>
+      <c r="AX19" s="31"/>
+      <c r="AY19" s="31"/>
+      <c r="AZ19" s="31"/>
+      <c r="BA19" s="31"/>
+      <c r="BB19" s="31"/>
+      <c r="BC19" s="31"/>
+      <c r="BD19" s="31"/>
+      <c r="BE19" s="31"/>
+      <c r="BF19" s="31"/>
+      <c r="BG19" s="31"/>
+      <c r="BH19" s="31"/>
+      <c r="BI19" s="31"/>
+      <c r="BJ19" s="31"/>
       <c r="BK19" s="2"/>
     </row>
     <row r="20" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19" t="s">
+      <c r="D20" s="29"/>
+      <c r="E20" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="18" t="s">
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="Z20" s="18"/>
-      <c r="AA20" s="18"/>
-      <c r="AB20" s="18" t="s">
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
-      <c r="AE20" s="18"/>
-      <c r="AF20" s="20" t="s">
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AG20" s="20"/>
-      <c r="AH20" s="20"/>
-      <c r="AI20" s="20"/>
-      <c r="AJ20" s="20"/>
-      <c r="AK20" s="20"/>
-      <c r="AL20" s="20"/>
-      <c r="AM20" s="20"/>
-      <c r="AN20" s="20"/>
-      <c r="AO20" s="20"/>
-      <c r="AP20" s="20"/>
-      <c r="AQ20" s="20"/>
-      <c r="AR20" s="20"/>
-      <c r="AS20" s="20"/>
-      <c r="AT20" s="20"/>
-      <c r="AU20" s="20"/>
-      <c r="AV20" s="20"/>
-      <c r="AW20" s="20"/>
-      <c r="AX20" s="20"/>
-      <c r="AY20" s="20"/>
-      <c r="AZ20" s="20"/>
-      <c r="BA20" s="20"/>
-      <c r="BB20" s="20"/>
-      <c r="BC20" s="20"/>
-      <c r="BD20" s="20"/>
-      <c r="BE20" s="20"/>
-      <c r="BF20" s="20"/>
-      <c r="BG20" s="20"/>
-      <c r="BH20" s="20"/>
-      <c r="BI20" s="20"/>
-      <c r="BJ20" s="20"/>
+      <c r="AG20" s="31"/>
+      <c r="AH20" s="31"/>
+      <c r="AI20" s="31"/>
+      <c r="AJ20" s="31"/>
+      <c r="AK20" s="31"/>
+      <c r="AL20" s="31"/>
+      <c r="AM20" s="31"/>
+      <c r="AN20" s="31"/>
+      <c r="AO20" s="31"/>
+      <c r="AP20" s="31"/>
+      <c r="AQ20" s="31"/>
+      <c r="AR20" s="31"/>
+      <c r="AS20" s="31"/>
+      <c r="AT20" s="31"/>
+      <c r="AU20" s="31"/>
+      <c r="AV20" s="31"/>
+      <c r="AW20" s="31"/>
+      <c r="AX20" s="31"/>
+      <c r="AY20" s="31"/>
+      <c r="AZ20" s="31"/>
+      <c r="BA20" s="31"/>
+      <c r="BB20" s="31"/>
+      <c r="BC20" s="31"/>
+      <c r="BD20" s="31"/>
+      <c r="BE20" s="31"/>
+      <c r="BF20" s="31"/>
+      <c r="BG20" s="31"/>
+      <c r="BH20" s="31"/>
+      <c r="BI20" s="31"/>
+      <c r="BJ20" s="31"/>
       <c r="BK20" s="2"/>
     </row>
     <row r="21" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19" t="s">
+      <c r="D21" s="29"/>
+      <c r="E21" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="19"/>
-      <c r="Y21" s="18" t="s">
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="Z21" s="18"/>
-      <c r="AA21" s="18"/>
-      <c r="AB21" s="18" t="s">
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="18"/>
-      <c r="AE21" s="18"/>
-      <c r="AF21" s="20" t="s">
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
+      <c r="AE21" s="29"/>
+      <c r="AF21" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="AG21" s="20"/>
-      <c r="AH21" s="20"/>
-      <c r="AI21" s="20"/>
-      <c r="AJ21" s="20"/>
-      <c r="AK21" s="20"/>
-      <c r="AL21" s="20"/>
-      <c r="AM21" s="20"/>
-      <c r="AN21" s="20"/>
-      <c r="AO21" s="20"/>
-      <c r="AP21" s="20"/>
-      <c r="AQ21" s="20"/>
-      <c r="AR21" s="20"/>
-      <c r="AS21" s="20"/>
-      <c r="AT21" s="20"/>
-      <c r="AU21" s="20"/>
-      <c r="AV21" s="20"/>
-      <c r="AW21" s="20"/>
-      <c r="AX21" s="20"/>
-      <c r="AY21" s="20"/>
-      <c r="AZ21" s="20"/>
-      <c r="BA21" s="20"/>
-      <c r="BB21" s="20"/>
-      <c r="BC21" s="20"/>
-      <c r="BD21" s="20"/>
-      <c r="BE21" s="20"/>
-      <c r="BF21" s="20"/>
-      <c r="BG21" s="20"/>
-      <c r="BH21" s="20"/>
-      <c r="BI21" s="20"/>
-      <c r="BJ21" s="20"/>
+      <c r="AG21" s="31"/>
+      <c r="AH21" s="31"/>
+      <c r="AI21" s="31"/>
+      <c r="AJ21" s="31"/>
+      <c r="AK21" s="31"/>
+      <c r="AL21" s="31"/>
+      <c r="AM21" s="31"/>
+      <c r="AN21" s="31"/>
+      <c r="AO21" s="31"/>
+      <c r="AP21" s="31"/>
+      <c r="AQ21" s="31"/>
+      <c r="AR21" s="31"/>
+      <c r="AS21" s="31"/>
+      <c r="AT21" s="31"/>
+      <c r="AU21" s="31"/>
+      <c r="AV21" s="31"/>
+      <c r="AW21" s="31"/>
+      <c r="AX21" s="31"/>
+      <c r="AY21" s="31"/>
+      <c r="AZ21" s="31"/>
+      <c r="BA21" s="31"/>
+      <c r="BB21" s="31"/>
+      <c r="BC21" s="31"/>
+      <c r="BD21" s="31"/>
+      <c r="BE21" s="31"/>
+      <c r="BF21" s="31"/>
+      <c r="BG21" s="31"/>
+      <c r="BH21" s="31"/>
+      <c r="BI21" s="31"/>
+      <c r="BJ21" s="31"/>
       <c r="BK21" s="2"/>
     </row>
     <row r="22" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19" t="s">
+      <c r="D22" s="29"/>
+      <c r="E22" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="18" t="s">
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="Z22" s="18"/>
-      <c r="AA22" s="18"/>
-      <c r="AB22" s="18" t="s">
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AC22" s="18"/>
-      <c r="AD22" s="18"/>
-      <c r="AE22" s="18"/>
-      <c r="AF22" s="20" t="s">
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="29"/>
+      <c r="AF22" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AG22" s="20"/>
-      <c r="AH22" s="20"/>
-      <c r="AI22" s="20"/>
-      <c r="AJ22" s="20"/>
-      <c r="AK22" s="20"/>
-      <c r="AL22" s="20"/>
-      <c r="AM22" s="20"/>
-      <c r="AN22" s="20"/>
-      <c r="AO22" s="20"/>
-      <c r="AP22" s="20"/>
-      <c r="AQ22" s="20"/>
-      <c r="AR22" s="20"/>
-      <c r="AS22" s="20"/>
-      <c r="AT22" s="20"/>
-      <c r="AU22" s="20"/>
-      <c r="AV22" s="20"/>
-      <c r="AW22" s="20"/>
-      <c r="AX22" s="20"/>
-      <c r="AY22" s="20"/>
-      <c r="AZ22" s="20"/>
-      <c r="BA22" s="20"/>
-      <c r="BB22" s="20"/>
-      <c r="BC22" s="20"/>
-      <c r="BD22" s="20"/>
-      <c r="BE22" s="20"/>
-      <c r="BF22" s="20"/>
-      <c r="BG22" s="20"/>
-      <c r="BH22" s="20"/>
-      <c r="BI22" s="20"/>
-      <c r="BJ22" s="20"/>
+      <c r="AG22" s="31"/>
+      <c r="AH22" s="31"/>
+      <c r="AI22" s="31"/>
+      <c r="AJ22" s="31"/>
+      <c r="AK22" s="31"/>
+      <c r="AL22" s="31"/>
+      <c r="AM22" s="31"/>
+      <c r="AN22" s="31"/>
+      <c r="AO22" s="31"/>
+      <c r="AP22" s="31"/>
+      <c r="AQ22" s="31"/>
+      <c r="AR22" s="31"/>
+      <c r="AS22" s="31"/>
+      <c r="AT22" s="31"/>
+      <c r="AU22" s="31"/>
+      <c r="AV22" s="31"/>
+      <c r="AW22" s="31"/>
+      <c r="AX22" s="31"/>
+      <c r="AY22" s="31"/>
+      <c r="AZ22" s="31"/>
+      <c r="BA22" s="31"/>
+      <c r="BB22" s="31"/>
+      <c r="BC22" s="31"/>
+      <c r="BD22" s="31"/>
+      <c r="BE22" s="31"/>
+      <c r="BF22" s="31"/>
+      <c r="BG22" s="31"/>
+      <c r="BH22" s="31"/>
+      <c r="BI22" s="31"/>
+      <c r="BJ22" s="31"/>
       <c r="BK22" s="2"/>
     </row>
     <row r="23" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -4219,14 +4232,61 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B1:BK1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="Q2:AM2"/>
-    <mergeCell ref="AN2:AS2"/>
-    <mergeCell ref="AT2:AY2"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="BF2:BK2"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="AB22:AE22"/>
+    <mergeCell ref="AF22:BJ22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AB20:AE20"/>
+    <mergeCell ref="AF20:BJ20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AB21:AE21"/>
+    <mergeCell ref="AF21:BJ21"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB18:AE18"/>
+    <mergeCell ref="AF18:BJ18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="AB19:AE19"/>
+    <mergeCell ref="AF19:BJ19"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="AF13:BJ13"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:X17"/>
+    <mergeCell ref="Y16:AA17"/>
+    <mergeCell ref="AB16:AE17"/>
+    <mergeCell ref="AF16:BJ17"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="AB11:AE11"/>
+    <mergeCell ref="AF11:BJ11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="AF12:BJ12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="AB9:AE9"/>
+    <mergeCell ref="AF9:BJ9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="AF10:BJ10"/>
     <mergeCell ref="BF3:BK4"/>
     <mergeCell ref="C7:D8"/>
     <mergeCell ref="E7:X8"/>
@@ -4239,61 +4299,14 @@
     <mergeCell ref="AN3:AS4"/>
     <mergeCell ref="AT3:AY4"/>
     <mergeCell ref="AZ3:BE4"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="AF10:BJ10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="AB9:AE9"/>
-    <mergeCell ref="AF9:BJ9"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="AB12:AE12"/>
-    <mergeCell ref="AF12:BJ12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="AB11:AE11"/>
-    <mergeCell ref="AF11:BJ11"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:X17"/>
-    <mergeCell ref="Y16:AA17"/>
-    <mergeCell ref="AB16:AE17"/>
-    <mergeCell ref="AF16:BJ17"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:X13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="AB13:AE13"/>
-    <mergeCell ref="AF13:BJ13"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="AB19:AE19"/>
-    <mergeCell ref="AF19:BJ19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="AB18:AE18"/>
-    <mergeCell ref="AF18:BJ18"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="AB21:AE21"/>
-    <mergeCell ref="AF21:BJ21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="AB20:AE20"/>
-    <mergeCell ref="AF20:BJ20"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="AB22:AE22"/>
-    <mergeCell ref="AF22:BJ22"/>
+    <mergeCell ref="B1:BK1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:AM2"/>
+    <mergeCell ref="AN2:AS2"/>
+    <mergeCell ref="AT2:AY2"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="BF2:BK2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4312,423 +4325,423 @@
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="51"/>
-      <c r="AQ1" s="51"/>
-      <c r="AR1" s="51"/>
-      <c r="AS1" s="51"/>
-      <c r="AT1" s="51"/>
-      <c r="AU1" s="51"/>
-      <c r="AV1" s="51"/>
-      <c r="AW1" s="51"/>
-      <c r="AX1" s="51"/>
-      <c r="AY1" s="51"/>
-      <c r="AZ1" s="51"/>
-      <c r="BA1" s="51"/>
-      <c r="BB1" s="51"/>
-      <c r="BC1" s="51"/>
-      <c r="BD1" s="51"/>
-      <c r="BE1" s="51"/>
-      <c r="BF1" s="51"/>
-      <c r="BG1" s="51"/>
-      <c r="BH1" s="51"/>
-      <c r="BI1" s="51"/>
-      <c r="BJ1" s="51"/>
-      <c r="BK1" s="52"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="42"/>
+      <c r="AO1" s="42"/>
+      <c r="AP1" s="42"/>
+      <c r="AQ1" s="42"/>
+      <c r="AR1" s="42"/>
+      <c r="AS1" s="42"/>
+      <c r="AT1" s="42"/>
+      <c r="AU1" s="42"/>
+      <c r="AV1" s="42"/>
+      <c r="AW1" s="42"/>
+      <c r="AX1" s="42"/>
+      <c r="AY1" s="42"/>
+      <c r="AZ1" s="42"/>
+      <c r="BA1" s="42"/>
+      <c r="BB1" s="42"/>
+      <c r="BC1" s="42"/>
+      <c r="BD1" s="42"/>
+      <c r="BE1" s="42"/>
+      <c r="BF1" s="42"/>
+      <c r="BG1" s="42"/>
+      <c r="BH1" s="42"/>
+      <c r="BI1" s="42"/>
+      <c r="BJ1" s="42"/>
+      <c r="BK1" s="43"/>
     </row>
     <row r="2" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="50" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="50" t="s">
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="50" t="s">
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="51"/>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="52"/>
-      <c r="AT2" s="50" t="s">
+      <c r="AO2" s="42"/>
+      <c r="AP2" s="42"/>
+      <c r="AQ2" s="42"/>
+      <c r="AR2" s="42"/>
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="AU2" s="51"/>
-      <c r="AV2" s="51"/>
-      <c r="AW2" s="51"/>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="52"/>
-      <c r="AZ2" s="50" t="s">
+      <c r="AU2" s="42"/>
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="43"/>
+      <c r="AZ2" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="BA2" s="51"/>
-      <c r="BB2" s="51"/>
-      <c r="BC2" s="51"/>
-      <c r="BD2" s="51"/>
-      <c r="BE2" s="52"/>
-      <c r="BF2" s="50" t="s">
+      <c r="BA2" s="42"/>
+      <c r="BB2" s="42"/>
+      <c r="BC2" s="42"/>
+      <c r="BD2" s="42"/>
+      <c r="BE2" s="43"/>
+      <c r="BF2" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="BG2" s="51"/>
-      <c r="BH2" s="51"/>
-      <c r="BI2" s="51"/>
-      <c r="BJ2" s="51"/>
-      <c r="BK2" s="52"/>
+      <c r="BG2" s="42"/>
+      <c r="BH2" s="42"/>
+      <c r="BI2" s="42"/>
+      <c r="BJ2" s="42"/>
+      <c r="BK2" s="43"/>
     </row>
     <row r="3" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="53">
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="44">
         <v>1</v>
       </c>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="53" t="s">
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="55"/>
-      <c r="AN3" s="59"/>
-      <c r="AO3" s="60"/>
-      <c r="AP3" s="60"/>
-      <c r="AQ3" s="60"/>
-      <c r="AR3" s="60"/>
-      <c r="AS3" s="61"/>
-      <c r="AT3" s="65" t="s">
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="46"/>
+      <c r="AN3" s="50"/>
+      <c r="AO3" s="51"/>
+      <c r="AP3" s="51"/>
+      <c r="AQ3" s="51"/>
+      <c r="AR3" s="51"/>
+      <c r="AS3" s="52"/>
+      <c r="AT3" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="AU3" s="66"/>
-      <c r="AV3" s="66"/>
-      <c r="AW3" s="66"/>
-      <c r="AX3" s="66"/>
-      <c r="AY3" s="67"/>
-      <c r="AZ3" s="59"/>
-      <c r="BA3" s="60"/>
-      <c r="BB3" s="60"/>
-      <c r="BC3" s="60"/>
-      <c r="BD3" s="60"/>
-      <c r="BE3" s="61"/>
-      <c r="BF3" s="53"/>
-      <c r="BG3" s="54"/>
-      <c r="BH3" s="54"/>
-      <c r="BI3" s="54"/>
-      <c r="BJ3" s="54"/>
-      <c r="BK3" s="55"/>
+      <c r="AU3" s="57"/>
+      <c r="AV3" s="57"/>
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="58"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="51"/>
+      <c r="BB3" s="51"/>
+      <c r="BC3" s="51"/>
+      <c r="BD3" s="51"/>
+      <c r="BE3" s="52"/>
+      <c r="BF3" s="44"/>
+      <c r="BG3" s="45"/>
+      <c r="BH3" s="45"/>
+      <c r="BI3" s="45"/>
+      <c r="BJ3" s="45"/>
+      <c r="BK3" s="46"/>
     </row>
     <row r="4" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="56"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="57"/>
-      <c r="AA4" s="57"/>
-      <c r="AB4" s="57"/>
-      <c r="AC4" s="57"/>
-      <c r="AD4" s="57"/>
-      <c r="AE4" s="57"/>
-      <c r="AF4" s="57"/>
-      <c r="AG4" s="57"/>
-      <c r="AH4" s="57"/>
-      <c r="AI4" s="57"/>
-      <c r="AJ4" s="57"/>
-      <c r="AK4" s="57"/>
-      <c r="AL4" s="57"/>
-      <c r="AM4" s="58"/>
-      <c r="AN4" s="62"/>
-      <c r="AO4" s="63"/>
-      <c r="AP4" s="63"/>
-      <c r="AQ4" s="63"/>
-      <c r="AR4" s="63"/>
-      <c r="AS4" s="64"/>
-      <c r="AT4" s="68"/>
-      <c r="AU4" s="69"/>
-      <c r="AV4" s="69"/>
-      <c r="AW4" s="69"/>
-      <c r="AX4" s="69"/>
-      <c r="AY4" s="70"/>
-      <c r="AZ4" s="62"/>
-      <c r="BA4" s="63"/>
-      <c r="BB4" s="63"/>
-      <c r="BC4" s="63"/>
-      <c r="BD4" s="63"/>
-      <c r="BE4" s="64"/>
-      <c r="BF4" s="56"/>
-      <c r="BG4" s="57"/>
-      <c r="BH4" s="57"/>
-      <c r="BI4" s="57"/>
-      <c r="BJ4" s="57"/>
-      <c r="BK4" s="58"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
+      <c r="AH4" s="48"/>
+      <c r="AI4" s="48"/>
+      <c r="AJ4" s="48"/>
+      <c r="AK4" s="48"/>
+      <c r="AL4" s="48"/>
+      <c r="AM4" s="49"/>
+      <c r="AN4" s="53"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="54"/>
+      <c r="AQ4" s="54"/>
+      <c r="AR4" s="54"/>
+      <c r="AS4" s="55"/>
+      <c r="AT4" s="59"/>
+      <c r="AU4" s="60"/>
+      <c r="AV4" s="60"/>
+      <c r="AW4" s="60"/>
+      <c r="AX4" s="60"/>
+      <c r="AY4" s="61"/>
+      <c r="AZ4" s="53"/>
+      <c r="BA4" s="54"/>
+      <c r="BB4" s="54"/>
+      <c r="BC4" s="54"/>
+      <c r="BD4" s="54"/>
+      <c r="BE4" s="55"/>
+      <c r="BF4" s="47"/>
+      <c r="BG4" s="48"/>
+      <c r="BH4" s="48"/>
+      <c r="BI4" s="48"/>
+      <c r="BJ4" s="48"/>
+      <c r="BK4" s="49"/>
     </row>
     <row r="5" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="49"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="48"/>
-      <c r="AD5" s="48"/>
-      <c r="AE5" s="48"/>
-      <c r="AF5" s="48"/>
-      <c r="AG5" s="48"/>
-      <c r="AH5" s="48"/>
-      <c r="AI5" s="48"/>
-      <c r="AJ5" s="48"/>
-      <c r="AK5" s="48"/>
-      <c r="AL5" s="48"/>
-      <c r="AM5" s="48"/>
-      <c r="AN5" s="48"/>
-      <c r="AO5" s="48"/>
-      <c r="AP5" s="48"/>
-      <c r="AQ5" s="48"/>
-      <c r="AR5" s="48"/>
-      <c r="AS5" s="48"/>
-      <c r="AT5" s="48"/>
-      <c r="AU5" s="48"/>
-      <c r="AV5" s="48"/>
-      <c r="AW5" s="48"/>
-      <c r="AX5" s="48"/>
-      <c r="AY5" s="48"/>
-      <c r="AZ5" s="48"/>
-      <c r="BA5" s="48"/>
-      <c r="BB5" s="48"/>
-      <c r="BC5" s="48"/>
-      <c r="BD5" s="48"/>
-      <c r="BE5" s="48"/>
-      <c r="BF5" s="48"/>
-      <c r="BG5" s="48"/>
-      <c r="BH5" s="48"/>
-      <c r="BI5" s="48"/>
-      <c r="BJ5" s="47"/>
-      <c r="BK5" s="47"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="64"/>
+      <c r="X5" s="64"/>
+      <c r="Y5" s="64"/>
+      <c r="Z5" s="64"/>
+      <c r="AA5" s="64"/>
+      <c r="AB5" s="64"/>
+      <c r="AC5" s="64"/>
+      <c r="AD5" s="64"/>
+      <c r="AE5" s="64"/>
+      <c r="AF5" s="64"/>
+      <c r="AG5" s="64"/>
+      <c r="AH5" s="64"/>
+      <c r="AI5" s="64"/>
+      <c r="AJ5" s="64"/>
+      <c r="AK5" s="64"/>
+      <c r="AL5" s="64"/>
+      <c r="AM5" s="64"/>
+      <c r="AN5" s="64"/>
+      <c r="AO5" s="64"/>
+      <c r="AP5" s="64"/>
+      <c r="AQ5" s="64"/>
+      <c r="AR5" s="64"/>
+      <c r="AS5" s="64"/>
+      <c r="AT5" s="64"/>
+      <c r="AU5" s="64"/>
+      <c r="AV5" s="64"/>
+      <c r="AW5" s="64"/>
+      <c r="AX5" s="64"/>
+      <c r="AY5" s="64"/>
+      <c r="AZ5" s="64"/>
+      <c r="BA5" s="64"/>
+      <c r="BB5" s="64"/>
+      <c r="BC5" s="64"/>
+      <c r="BD5" s="64"/>
+      <c r="BE5" s="64"/>
+      <c r="BF5" s="64"/>
+      <c r="BG5" s="64"/>
+      <c r="BH5" s="64"/>
+      <c r="BI5" s="64"/>
+      <c r="BJ5" s="63"/>
+      <c r="BK5" s="63"/>
     </row>
     <row r="6" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="14"/>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="41" t="s">
+      <c r="D6" s="66"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="41" t="s">
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="42"/>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="42"/>
-      <c r="AD6" s="42"/>
-      <c r="AE6" s="42"/>
-      <c r="AF6" s="42"/>
-      <c r="AG6" s="43"/>
-      <c r="AH6" s="41" t="s">
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="66"/>
+      <c r="AA6" s="66"/>
+      <c r="AB6" s="66"/>
+      <c r="AC6" s="66"/>
+      <c r="AD6" s="66"/>
+      <c r="AE6" s="66"/>
+      <c r="AF6" s="66"/>
+      <c r="AG6" s="67"/>
+      <c r="AH6" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="AI6" s="42"/>
-      <c r="AJ6" s="42"/>
-      <c r="AK6" s="42"/>
-      <c r="AL6" s="42"/>
-      <c r="AM6" s="43"/>
-      <c r="AN6" s="41" t="s">
+      <c r="AI6" s="66"/>
+      <c r="AJ6" s="66"/>
+      <c r="AK6" s="66"/>
+      <c r="AL6" s="66"/>
+      <c r="AM6" s="67"/>
+      <c r="AN6" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="AO6" s="42"/>
-      <c r="AP6" s="42"/>
-      <c r="AQ6" s="43"/>
-      <c r="AR6" s="44" t="s">
+      <c r="AO6" s="66"/>
+      <c r="AP6" s="66"/>
+      <c r="AQ6" s="67"/>
+      <c r="AR6" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="AS6" s="45"/>
-      <c r="AT6" s="45"/>
-      <c r="AU6" s="45"/>
-      <c r="AV6" s="45"/>
-      <c r="AW6" s="45"/>
-      <c r="AX6" s="45"/>
-      <c r="AY6" s="45"/>
-      <c r="AZ6" s="45"/>
-      <c r="BA6" s="45"/>
-      <c r="BB6" s="45"/>
-      <c r="BC6" s="45"/>
-      <c r="BD6" s="45"/>
-      <c r="BE6" s="45"/>
-      <c r="BF6" s="45"/>
-      <c r="BG6" s="45"/>
-      <c r="BH6" s="45"/>
-      <c r="BI6" s="45"/>
-      <c r="BJ6" s="46"/>
+      <c r="AS6" s="69"/>
+      <c r="AT6" s="69"/>
+      <c r="AU6" s="69"/>
+      <c r="AV6" s="69"/>
+      <c r="AW6" s="69"/>
+      <c r="AX6" s="69"/>
+      <c r="AY6" s="69"/>
+      <c r="AZ6" s="69"/>
+      <c r="BA6" s="69"/>
+      <c r="BB6" s="69"/>
+      <c r="BC6" s="69"/>
+      <c r="BD6" s="69"/>
+      <c r="BE6" s="69"/>
+      <c r="BF6" s="69"/>
+      <c r="BG6" s="69"/>
+      <c r="BH6" s="69"/>
+      <c r="BI6" s="69"/>
+      <c r="BJ6" s="70"/>
       <c r="BK6" s="15"/>
     </row>
     <row r="7" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -7187,36 +7200,198 @@
     </row>
   </sheetData>
   <mergeCells count="246">
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="J40:AG40"/>
-    <mergeCell ref="AH40:AM40"/>
-    <mergeCell ref="AN40:AQ40"/>
-    <mergeCell ref="AR40:BJ40"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="AH38:AM38"/>
-    <mergeCell ref="AN38:AQ38"/>
-    <mergeCell ref="AR38:BJ38"/>
-    <mergeCell ref="J38:AG38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="J39:AG39"/>
-    <mergeCell ref="AH39:AM39"/>
-    <mergeCell ref="AN39:AQ39"/>
-    <mergeCell ref="AR39:BJ39"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:AG36"/>
-    <mergeCell ref="AH36:AM36"/>
-    <mergeCell ref="AN36:AQ36"/>
-    <mergeCell ref="AR36:BJ36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AG37"/>
-    <mergeCell ref="AH37:AM37"/>
-    <mergeCell ref="AN37:AQ37"/>
-    <mergeCell ref="AR37:BJ37"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AG34"/>
+    <mergeCell ref="AH34:AM34"/>
+    <mergeCell ref="AN34:AQ34"/>
+    <mergeCell ref="AR34:BJ34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:AG35"/>
+    <mergeCell ref="AH35:AM35"/>
+    <mergeCell ref="AN35:AQ35"/>
+    <mergeCell ref="AR35:BJ35"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AG29"/>
+    <mergeCell ref="AH29:AM29"/>
+    <mergeCell ref="AN29:AQ29"/>
+    <mergeCell ref="AR29:BJ29"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AG33"/>
+    <mergeCell ref="AH33:AM33"/>
+    <mergeCell ref="AN33:AQ33"/>
+    <mergeCell ref="AR33:BJ33"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AG31"/>
+    <mergeCell ref="AH31:AM31"/>
+    <mergeCell ref="AN31:AQ31"/>
+    <mergeCell ref="AR31:BJ31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AG32"/>
+    <mergeCell ref="AH32:AM32"/>
+    <mergeCell ref="AN32:AQ32"/>
+    <mergeCell ref="AR32:BJ32"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:AG21"/>
+    <mergeCell ref="AH21:AM21"/>
+    <mergeCell ref="AN21:AQ21"/>
+    <mergeCell ref="AR21:BJ21"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:AG19"/>
+    <mergeCell ref="AH19:AM19"/>
+    <mergeCell ref="AN19:AQ19"/>
+    <mergeCell ref="AR19:BJ19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:AG20"/>
+    <mergeCell ref="AH20:AM20"/>
+    <mergeCell ref="AN20:AQ20"/>
+    <mergeCell ref="AR20:BJ20"/>
+    <mergeCell ref="AR11:BJ11"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:AG10"/>
+    <mergeCell ref="AH10:AM10"/>
+    <mergeCell ref="AN10:AQ10"/>
+    <mergeCell ref="AR10:BJ10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:AG11"/>
+    <mergeCell ref="AH11:AM11"/>
+    <mergeCell ref="AN11:AQ11"/>
+    <mergeCell ref="AR9:BJ9"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:AG8"/>
+    <mergeCell ref="AH8:AM8"/>
+    <mergeCell ref="AN8:AQ8"/>
+    <mergeCell ref="AR8:BJ8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:AG9"/>
+    <mergeCell ref="AH9:AM9"/>
+    <mergeCell ref="AN9:AQ9"/>
+    <mergeCell ref="AR7:BJ7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:AG6"/>
+    <mergeCell ref="AH6:AM6"/>
+    <mergeCell ref="AN6:AQ6"/>
+    <mergeCell ref="AR6:BJ6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:AG7"/>
+    <mergeCell ref="AH7:AM7"/>
+    <mergeCell ref="AN7:AQ7"/>
+    <mergeCell ref="BJ5:BK5"/>
+    <mergeCell ref="AC5:AE5"/>
+    <mergeCell ref="AF5:AH5"/>
+    <mergeCell ref="AI5:AK5"/>
+    <mergeCell ref="AL5:AN5"/>
+    <mergeCell ref="AO5:AQ5"/>
+    <mergeCell ref="AR5:AT5"/>
+    <mergeCell ref="AU5:AW5"/>
+    <mergeCell ref="AX5:AZ5"/>
+    <mergeCell ref="BA5:BC5"/>
+    <mergeCell ref="BD5:BF5"/>
+    <mergeCell ref="BG5:BI5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="Z5:AB5"/>
+    <mergeCell ref="B1:BK1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:AM2"/>
+    <mergeCell ref="AN2:AS2"/>
+    <mergeCell ref="AT2:AY2"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="BF2:BK2"/>
+    <mergeCell ref="BF3:BK4"/>
+    <mergeCell ref="B3:K4"/>
+    <mergeCell ref="L3:P4"/>
+    <mergeCell ref="Q3:AM4"/>
+    <mergeCell ref="AN3:AS4"/>
+    <mergeCell ref="AT3:AY4"/>
+    <mergeCell ref="AZ3:BE4"/>
+    <mergeCell ref="AR12:BJ12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:AG13"/>
+    <mergeCell ref="AH13:AM13"/>
+    <mergeCell ref="AN13:AQ13"/>
+    <mergeCell ref="AR13:BJ13"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:AG12"/>
+    <mergeCell ref="AH12:AM12"/>
+    <mergeCell ref="AN12:AQ12"/>
+    <mergeCell ref="AR14:BJ14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:AG15"/>
+    <mergeCell ref="AH15:AM15"/>
+    <mergeCell ref="AN15:AQ15"/>
+    <mergeCell ref="AR15:BJ15"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:AG14"/>
+    <mergeCell ref="AH14:AM14"/>
+    <mergeCell ref="AN14:AQ14"/>
+    <mergeCell ref="AR18:BJ18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:AG18"/>
+    <mergeCell ref="AH18:AM18"/>
+    <mergeCell ref="AN18:AQ18"/>
+    <mergeCell ref="AR16:BJ16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:AG17"/>
+    <mergeCell ref="AH17:AM17"/>
+    <mergeCell ref="AN17:AQ17"/>
+    <mergeCell ref="AR17:BJ17"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:AG16"/>
+    <mergeCell ref="AH16:AM16"/>
+    <mergeCell ref="AN16:AQ16"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:AG22"/>
+    <mergeCell ref="AH22:AM22"/>
+    <mergeCell ref="AN22:AQ22"/>
+    <mergeCell ref="AR22:BJ22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AG23"/>
+    <mergeCell ref="AH23:AM23"/>
+    <mergeCell ref="AN23:AQ23"/>
+    <mergeCell ref="AR23:BJ23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AG24"/>
+    <mergeCell ref="AH24:AM24"/>
+    <mergeCell ref="AN24:AQ24"/>
+    <mergeCell ref="AR24:BJ24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AG25"/>
+    <mergeCell ref="AH25:AM25"/>
+    <mergeCell ref="AN25:AQ25"/>
+    <mergeCell ref="AR25:BJ25"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="F30:I30"/>
     <mergeCell ref="J30:AG30"/>
@@ -7241,198 +7416,36 @@
     <mergeCell ref="AH28:AM28"/>
     <mergeCell ref="AN28:AQ28"/>
     <mergeCell ref="AR28:BJ28"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AG24"/>
-    <mergeCell ref="AH24:AM24"/>
-    <mergeCell ref="AN24:AQ24"/>
-    <mergeCell ref="AR24:BJ24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AG25"/>
-    <mergeCell ref="AH25:AM25"/>
-    <mergeCell ref="AN25:AQ25"/>
-    <mergeCell ref="AR25:BJ25"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:AG22"/>
-    <mergeCell ref="AH22:AM22"/>
-    <mergeCell ref="AN22:AQ22"/>
-    <mergeCell ref="AR22:BJ22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AG23"/>
-    <mergeCell ref="AH23:AM23"/>
-    <mergeCell ref="AN23:AQ23"/>
-    <mergeCell ref="AR23:BJ23"/>
-    <mergeCell ref="AR18:BJ18"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:AG18"/>
-    <mergeCell ref="AH18:AM18"/>
-    <mergeCell ref="AN18:AQ18"/>
-    <mergeCell ref="AR16:BJ16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:AG17"/>
-    <mergeCell ref="AH17:AM17"/>
-    <mergeCell ref="AN17:AQ17"/>
-    <mergeCell ref="AR17:BJ17"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:AG16"/>
-    <mergeCell ref="AH16:AM16"/>
-    <mergeCell ref="AN16:AQ16"/>
-    <mergeCell ref="AR14:BJ14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:AG15"/>
-    <mergeCell ref="AH15:AM15"/>
-    <mergeCell ref="AN15:AQ15"/>
-    <mergeCell ref="AR15:BJ15"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:AG14"/>
-    <mergeCell ref="AH14:AM14"/>
-    <mergeCell ref="AN14:AQ14"/>
-    <mergeCell ref="AR12:BJ12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:AG13"/>
-    <mergeCell ref="AH13:AM13"/>
-    <mergeCell ref="AN13:AQ13"/>
-    <mergeCell ref="AR13:BJ13"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:AG12"/>
-    <mergeCell ref="AH12:AM12"/>
-    <mergeCell ref="AN12:AQ12"/>
-    <mergeCell ref="B1:BK1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="Q2:AM2"/>
-    <mergeCell ref="AN2:AS2"/>
-    <mergeCell ref="AT2:AY2"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="BF2:BK2"/>
-    <mergeCell ref="BF3:BK4"/>
-    <mergeCell ref="B3:K4"/>
-    <mergeCell ref="L3:P4"/>
-    <mergeCell ref="Q3:AM4"/>
-    <mergeCell ref="AN3:AS4"/>
-    <mergeCell ref="AT3:AY4"/>
-    <mergeCell ref="AZ3:BE4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="Z5:AB5"/>
-    <mergeCell ref="BJ5:BK5"/>
-    <mergeCell ref="AC5:AE5"/>
-    <mergeCell ref="AF5:AH5"/>
-    <mergeCell ref="AI5:AK5"/>
-    <mergeCell ref="AL5:AN5"/>
-    <mergeCell ref="AO5:AQ5"/>
-    <mergeCell ref="AR5:AT5"/>
-    <mergeCell ref="AU5:AW5"/>
-    <mergeCell ref="AX5:AZ5"/>
-    <mergeCell ref="BA5:BC5"/>
-    <mergeCell ref="BD5:BF5"/>
-    <mergeCell ref="BG5:BI5"/>
-    <mergeCell ref="AR7:BJ7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:AG6"/>
-    <mergeCell ref="AH6:AM6"/>
-    <mergeCell ref="AN6:AQ6"/>
-    <mergeCell ref="AR6:BJ6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:AG7"/>
-    <mergeCell ref="AH7:AM7"/>
-    <mergeCell ref="AN7:AQ7"/>
-    <mergeCell ref="AR9:BJ9"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:AG8"/>
-    <mergeCell ref="AH8:AM8"/>
-    <mergeCell ref="AN8:AQ8"/>
-    <mergeCell ref="AR8:BJ8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:AG9"/>
-    <mergeCell ref="AH9:AM9"/>
-    <mergeCell ref="AN9:AQ9"/>
-    <mergeCell ref="AR11:BJ11"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:AG10"/>
-    <mergeCell ref="AH10:AM10"/>
-    <mergeCell ref="AN10:AQ10"/>
-    <mergeCell ref="AR10:BJ10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:AG11"/>
-    <mergeCell ref="AH11:AM11"/>
-    <mergeCell ref="AN11:AQ11"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:AG21"/>
-    <mergeCell ref="AH21:AM21"/>
-    <mergeCell ref="AN21:AQ21"/>
-    <mergeCell ref="AR21:BJ21"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:AG19"/>
-    <mergeCell ref="AH19:AM19"/>
-    <mergeCell ref="AN19:AQ19"/>
-    <mergeCell ref="AR19:BJ19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:AG20"/>
-    <mergeCell ref="AH20:AM20"/>
-    <mergeCell ref="AN20:AQ20"/>
-    <mergeCell ref="AR20:BJ20"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AG29"/>
-    <mergeCell ref="AH29:AM29"/>
-    <mergeCell ref="AN29:AQ29"/>
-    <mergeCell ref="AR29:BJ29"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AG33"/>
-    <mergeCell ref="AH33:AM33"/>
-    <mergeCell ref="AN33:AQ33"/>
-    <mergeCell ref="AR33:BJ33"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AG31"/>
-    <mergeCell ref="AH31:AM31"/>
-    <mergeCell ref="AN31:AQ31"/>
-    <mergeCell ref="AR31:BJ31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AG32"/>
-    <mergeCell ref="AH32:AM32"/>
-    <mergeCell ref="AN32:AQ32"/>
-    <mergeCell ref="AR32:BJ32"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AG34"/>
-    <mergeCell ref="AH34:AM34"/>
-    <mergeCell ref="AN34:AQ34"/>
-    <mergeCell ref="AR34:BJ34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:AG35"/>
-    <mergeCell ref="AH35:AM35"/>
-    <mergeCell ref="AN35:AQ35"/>
-    <mergeCell ref="AR35:BJ35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:AG36"/>
+    <mergeCell ref="AH36:AM36"/>
+    <mergeCell ref="AN36:AQ36"/>
+    <mergeCell ref="AR36:BJ36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AG37"/>
+    <mergeCell ref="AH37:AM37"/>
+    <mergeCell ref="AN37:AQ37"/>
+    <mergeCell ref="AR37:BJ37"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:AG40"/>
+    <mergeCell ref="AH40:AM40"/>
+    <mergeCell ref="AN40:AQ40"/>
+    <mergeCell ref="AR40:BJ40"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="AH38:AM38"/>
+    <mergeCell ref="AN38:AQ38"/>
+    <mergeCell ref="AR38:BJ38"/>
+    <mergeCell ref="J38:AG38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:AG39"/>
+    <mergeCell ref="AH39:AM39"/>
+    <mergeCell ref="AN39:AQ39"/>
+    <mergeCell ref="AR39:BJ39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7444,8 +7457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53580EB5-55E3-4A05-B78B-1201B5F81BCA}">
   <dimension ref="A1:BL41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:AK18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="AL40" sqref="AL40:BJ40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7518,298 +7531,298 @@
     </row>
     <row r="2" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
-      <c r="B2" s="28" t="str">
+      <c r="B2" s="18" t="str">
         <f>[1]表紙!$Q$8</f>
         <v>人材管理ソフトメッセージ仕様書</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
-      <c r="AO2" s="29"/>
-      <c r="AP2" s="29"/>
-      <c r="AQ2" s="29"/>
-      <c r="AR2" s="29"/>
-      <c r="AS2" s="29"/>
-      <c r="AT2" s="29"/>
-      <c r="AU2" s="29"/>
-      <c r="AV2" s="29"/>
-      <c r="AW2" s="29"/>
-      <c r="AX2" s="29"/>
-      <c r="AY2" s="29"/>
-      <c r="AZ2" s="29"/>
-      <c r="BA2" s="29"/>
-      <c r="BB2" s="29"/>
-      <c r="BC2" s="29"/>
-      <c r="BD2" s="29"/>
-      <c r="BE2" s="29"/>
-      <c r="BF2" s="29"/>
-      <c r="BG2" s="29"/>
-      <c r="BH2" s="29"/>
-      <c r="BI2" s="29"/>
-      <c r="BJ2" s="29"/>
-      <c r="BK2" s="29"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="19"/>
+      <c r="AN2" s="19"/>
+      <c r="AO2" s="19"/>
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="19"/>
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="19"/>
+      <c r="AT2" s="19"/>
+      <c r="AU2" s="19"/>
+      <c r="AV2" s="19"/>
+      <c r="AW2" s="19"/>
+      <c r="AX2" s="19"/>
+      <c r="AY2" s="19"/>
+      <c r="AZ2" s="19"/>
+      <c r="BA2" s="19"/>
+      <c r="BB2" s="19"/>
+      <c r="BC2" s="19"/>
+      <c r="BD2" s="19"/>
+      <c r="BE2" s="19"/>
+      <c r="BF2" s="19"/>
+      <c r="BG2" s="19"/>
+      <c r="BH2" s="19"/>
+      <c r="BI2" s="19"/>
+      <c r="BJ2" s="19"/>
+      <c r="BK2" s="19"/>
       <c r="BL2" s="16"/>
     </row>
     <row r="3" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="16"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="30" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30" t="s">
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="30"/>
-      <c r="AL3" s="30"/>
-      <c r="AM3" s="30"/>
-      <c r="AN3" s="31" t="s">
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="20"/>
+      <c r="AM3" s="20"/>
+      <c r="AN3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="AO3" s="31"/>
-      <c r="AP3" s="31"/>
-      <c r="AQ3" s="31"/>
-      <c r="AR3" s="31"/>
-      <c r="AS3" s="31"/>
-      <c r="AT3" s="30" t="s">
+      <c r="AO3" s="21"/>
+      <c r="AP3" s="21"/>
+      <c r="AQ3" s="21"/>
+      <c r="AR3" s="21"/>
+      <c r="AS3" s="21"/>
+      <c r="AT3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="AU3" s="30"/>
-      <c r="AV3" s="30"/>
-      <c r="AW3" s="30"/>
-      <c r="AX3" s="30"/>
-      <c r="AY3" s="30"/>
-      <c r="AZ3" s="30" t="s">
+      <c r="AU3" s="20"/>
+      <c r="AV3" s="20"/>
+      <c r="AW3" s="20"/>
+      <c r="AX3" s="20"/>
+      <c r="AY3" s="20"/>
+      <c r="AZ3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BA3" s="30"/>
-      <c r="BB3" s="30"/>
-      <c r="BC3" s="30"/>
-      <c r="BD3" s="30"/>
-      <c r="BE3" s="30"/>
-      <c r="BF3" s="30" t="s">
+      <c r="BA3" s="20"/>
+      <c r="BB3" s="20"/>
+      <c r="BC3" s="20"/>
+      <c r="BD3" s="20"/>
+      <c r="BE3" s="20"/>
+      <c r="BF3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="BG3" s="30"/>
-      <c r="BH3" s="30"/>
-      <c r="BI3" s="30"/>
-      <c r="BJ3" s="30"/>
-      <c r="BK3" s="30"/>
+      <c r="BG3" s="20"/>
+      <c r="BH3" s="20"/>
+      <c r="BI3" s="20"/>
+      <c r="BJ3" s="20"/>
+      <c r="BK3" s="20"/>
       <c r="BL3" s="16"/>
     </row>
     <row r="4" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="16"/>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="26">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="27">
         <f>[1]表紙!$L$8</f>
         <v>1.06</v>
       </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="24" t="s">
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="24"/>
-      <c r="AH4" s="24"/>
-      <c r="AI4" s="24"/>
-      <c r="AJ4" s="24"/>
-      <c r="AK4" s="24"/>
-      <c r="AL4" s="24"/>
-      <c r="AM4" s="24"/>
-      <c r="AN4" s="27">
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="22"/>
+      <c r="AL4" s="22"/>
+      <c r="AM4" s="22"/>
+      <c r="AN4" s="28">
         <v>44062</v>
       </c>
-      <c r="AO4" s="24"/>
-      <c r="AP4" s="24"/>
-      <c r="AQ4" s="24"/>
-      <c r="AR4" s="24"/>
-      <c r="AS4" s="24"/>
-      <c r="AT4" s="78" t="s">
+      <c r="AO4" s="22"/>
+      <c r="AP4" s="22"/>
+      <c r="AQ4" s="22"/>
+      <c r="AR4" s="22"/>
+      <c r="AS4" s="22"/>
+      <c r="AT4" s="85" t="s">
         <v>128</v>
       </c>
-      <c r="AU4" s="27"/>
-      <c r="AV4" s="27"/>
-      <c r="AW4" s="27"/>
-      <c r="AX4" s="27"/>
-      <c r="AY4" s="27"/>
-      <c r="AZ4" s="27">
+      <c r="AU4" s="28"/>
+      <c r="AV4" s="28"/>
+      <c r="AW4" s="28"/>
+      <c r="AX4" s="28"/>
+      <c r="AY4" s="28"/>
+      <c r="AZ4" s="28">
         <v>40410</v>
       </c>
-      <c r="BA4" s="24"/>
-      <c r="BB4" s="24"/>
-      <c r="BC4" s="24"/>
-      <c r="BD4" s="24"/>
-      <c r="BE4" s="24"/>
-      <c r="BF4" s="24" t="s">
+      <c r="BA4" s="22"/>
+      <c r="BB4" s="22"/>
+      <c r="BC4" s="22"/>
+      <c r="BD4" s="22"/>
+      <c r="BE4" s="22"/>
+      <c r="BF4" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="BG4" s="24"/>
-      <c r="BH4" s="24"/>
-      <c r="BI4" s="24"/>
-      <c r="BJ4" s="24"/>
-      <c r="BK4" s="24"/>
+      <c r="BG4" s="22"/>
+      <c r="BH4" s="22"/>
+      <c r="BI4" s="22"/>
+      <c r="BJ4" s="22"/>
+      <c r="BK4" s="22"/>
       <c r="BL4" s="16"/>
     </row>
     <row r="5" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="24"/>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="24"/>
-      <c r="AD5" s="24"/>
-      <c r="AE5" s="24"/>
-      <c r="AF5" s="24"/>
-      <c r="AG5" s="24"/>
-      <c r="AH5" s="24"/>
-      <c r="AI5" s="24"/>
-      <c r="AJ5" s="24"/>
-      <c r="AK5" s="24"/>
-      <c r="AL5" s="24"/>
-      <c r="AM5" s="24"/>
-      <c r="AN5" s="24"/>
-      <c r="AO5" s="24"/>
-      <c r="AP5" s="24"/>
-      <c r="AQ5" s="24"/>
-      <c r="AR5" s="24"/>
-      <c r="AS5" s="24"/>
-      <c r="AT5" s="27"/>
-      <c r="AU5" s="27"/>
-      <c r="AV5" s="27"/>
-      <c r="AW5" s="27"/>
-      <c r="AX5" s="27"/>
-      <c r="AY5" s="27"/>
-      <c r="AZ5" s="24"/>
-      <c r="BA5" s="24"/>
-      <c r="BB5" s="24"/>
-      <c r="BC5" s="24"/>
-      <c r="BD5" s="24"/>
-      <c r="BE5" s="24"/>
-      <c r="BF5" s="24"/>
-      <c r="BG5" s="24"/>
-      <c r="BH5" s="24"/>
-      <c r="BI5" s="24"/>
-      <c r="BJ5" s="24"/>
-      <c r="BK5" s="24"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="22"/>
+      <c r="AF5" s="22"/>
+      <c r="AG5" s="22"/>
+      <c r="AH5" s="22"/>
+      <c r="AI5" s="22"/>
+      <c r="AJ5" s="22"/>
+      <c r="AK5" s="22"/>
+      <c r="AL5" s="22"/>
+      <c r="AM5" s="22"/>
+      <c r="AN5" s="22"/>
+      <c r="AO5" s="22"/>
+      <c r="AP5" s="22"/>
+      <c r="AQ5" s="22"/>
+      <c r="AR5" s="22"/>
+      <c r="AS5" s="22"/>
+      <c r="AT5" s="28"/>
+      <c r="AU5" s="28"/>
+      <c r="AV5" s="28"/>
+      <c r="AW5" s="28"/>
+      <c r="AX5" s="28"/>
+      <c r="AY5" s="28"/>
+      <c r="AZ5" s="22"/>
+      <c r="BA5" s="22"/>
+      <c r="BB5" s="22"/>
+      <c r="BC5" s="22"/>
+      <c r="BD5" s="22"/>
+      <c r="BE5" s="22"/>
+      <c r="BF5" s="22"/>
+      <c r="BG5" s="22"/>
+      <c r="BH5" s="22"/>
+      <c r="BI5" s="22"/>
+      <c r="BJ5" s="22"/>
+      <c r="BK5" s="22"/>
       <c r="BL5" s="16"/>
     </row>
     <row r="6" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -7881,2380 +7894,2384 @@
     <row r="7" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="16"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="72" t="s">
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="72"/>
-      <c r="W7" s="72"/>
-      <c r="X7" s="72"/>
-      <c r="Y7" s="72"/>
-      <c r="Z7" s="72"/>
-      <c r="AA7" s="72"/>
-      <c r="AB7" s="72"/>
-      <c r="AC7" s="72"/>
-      <c r="AD7" s="72"/>
-      <c r="AE7" s="72"/>
-      <c r="AF7" s="72"/>
-      <c r="AG7" s="72"/>
-      <c r="AH7" s="72"/>
-      <c r="AI7" s="72"/>
-      <c r="AJ7" s="72"/>
-      <c r="AK7" s="72"/>
-      <c r="AL7" s="72" t="s">
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="81"/>
+      <c r="S7" s="81"/>
+      <c r="T7" s="81"/>
+      <c r="U7" s="81"/>
+      <c r="V7" s="81"/>
+      <c r="W7" s="81"/>
+      <c r="X7" s="81"/>
+      <c r="Y7" s="81"/>
+      <c r="Z7" s="81"/>
+      <c r="AA7" s="81"/>
+      <c r="AB7" s="81"/>
+      <c r="AC7" s="81"/>
+      <c r="AD7" s="81"/>
+      <c r="AE7" s="81"/>
+      <c r="AF7" s="81"/>
+      <c r="AG7" s="81"/>
+      <c r="AH7" s="81"/>
+      <c r="AI7" s="81"/>
+      <c r="AJ7" s="81"/>
+      <c r="AK7" s="81"/>
+      <c r="AL7" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="AM7" s="72"/>
-      <c r="AN7" s="72"/>
-      <c r="AO7" s="72"/>
-      <c r="AP7" s="72"/>
-      <c r="AQ7" s="72"/>
-      <c r="AR7" s="72"/>
-      <c r="AS7" s="72"/>
-      <c r="AT7" s="72"/>
-      <c r="AU7" s="72"/>
-      <c r="AV7" s="72"/>
-      <c r="AW7" s="72"/>
-      <c r="AX7" s="72"/>
-      <c r="AY7" s="72"/>
-      <c r="AZ7" s="72"/>
-      <c r="BA7" s="72"/>
-      <c r="BB7" s="72"/>
-      <c r="BC7" s="72"/>
-      <c r="BD7" s="72"/>
-      <c r="BE7" s="72"/>
-      <c r="BF7" s="72"/>
-      <c r="BG7" s="72"/>
-      <c r="BH7" s="72"/>
-      <c r="BI7" s="72"/>
-      <c r="BJ7" s="72"/>
+      <c r="AM7" s="81"/>
+      <c r="AN7" s="81"/>
+      <c r="AO7" s="81"/>
+      <c r="AP7" s="81"/>
+      <c r="AQ7" s="81"/>
+      <c r="AR7" s="81"/>
+      <c r="AS7" s="81"/>
+      <c r="AT7" s="81"/>
+      <c r="AU7" s="81"/>
+      <c r="AV7" s="81"/>
+      <c r="AW7" s="81"/>
+      <c r="AX7" s="81"/>
+      <c r="AY7" s="81"/>
+      <c r="AZ7" s="81"/>
+      <c r="BA7" s="81"/>
+      <c r="BB7" s="81"/>
+      <c r="BC7" s="81"/>
+      <c r="BD7" s="81"/>
+      <c r="BE7" s="81"/>
+      <c r="BF7" s="81"/>
+      <c r="BG7" s="81"/>
+      <c r="BH7" s="81"/>
+      <c r="BI7" s="81"/>
+      <c r="BJ7" s="81"/>
       <c r="BK7" s="2"/>
       <c r="BL7" s="16"/>
     </row>
     <row r="8" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="16"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="74" t="s">
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="82" t="s">
         <v>169</v>
       </c>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="75"/>
-      <c r="S8" s="75"/>
-      <c r="T8" s="75"/>
-      <c r="U8" s="75"/>
-      <c r="V8" s="75"/>
-      <c r="W8" s="75"/>
-      <c r="X8" s="75"/>
-      <c r="Y8" s="75"/>
-      <c r="Z8" s="75"/>
-      <c r="AA8" s="75"/>
-      <c r="AB8" s="75"/>
-      <c r="AC8" s="75"/>
-      <c r="AD8" s="75"/>
-      <c r="AE8" s="75"/>
-      <c r="AF8" s="75"/>
-      <c r="AG8" s="75"/>
-      <c r="AH8" s="75"/>
-      <c r="AI8" s="75"/>
-      <c r="AJ8" s="75"/>
-      <c r="AK8" s="76"/>
-      <c r="AL8" s="77"/>
-      <c r="AM8" s="77"/>
-      <c r="AN8" s="77"/>
-      <c r="AO8" s="77"/>
-      <c r="AP8" s="77"/>
-      <c r="AQ8" s="77"/>
-      <c r="AR8" s="77"/>
-      <c r="AS8" s="77"/>
-      <c r="AT8" s="77"/>
-      <c r="AU8" s="77"/>
-      <c r="AV8" s="77"/>
-      <c r="AW8" s="77"/>
-      <c r="AX8" s="77"/>
-      <c r="AY8" s="77"/>
-      <c r="AZ8" s="77"/>
-      <c r="BA8" s="77"/>
-      <c r="BB8" s="77"/>
-      <c r="BC8" s="77"/>
-      <c r="BD8" s="77"/>
-      <c r="BE8" s="77"/>
-      <c r="BF8" s="77"/>
-      <c r="BG8" s="77"/>
-      <c r="BH8" s="77"/>
-      <c r="BI8" s="77"/>
-      <c r="BJ8" s="77"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="83"/>
+      <c r="Q8" s="83"/>
+      <c r="R8" s="83"/>
+      <c r="S8" s="83"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="83"/>
+      <c r="V8" s="83"/>
+      <c r="W8" s="83"/>
+      <c r="X8" s="83"/>
+      <c r="Y8" s="83"/>
+      <c r="Z8" s="83"/>
+      <c r="AA8" s="83"/>
+      <c r="AB8" s="83"/>
+      <c r="AC8" s="83"/>
+      <c r="AD8" s="83"/>
+      <c r="AE8" s="83"/>
+      <c r="AF8" s="83"/>
+      <c r="AG8" s="83"/>
+      <c r="AH8" s="83"/>
+      <c r="AI8" s="83"/>
+      <c r="AJ8" s="83"/>
+      <c r="AK8" s="84"/>
+      <c r="AL8" s="73"/>
+      <c r="AM8" s="73"/>
+      <c r="AN8" s="73"/>
+      <c r="AO8" s="73"/>
+      <c r="AP8" s="73"/>
+      <c r="AQ8" s="73"/>
+      <c r="AR8" s="73"/>
+      <c r="AS8" s="73"/>
+      <c r="AT8" s="73"/>
+      <c r="AU8" s="73"/>
+      <c r="AV8" s="73"/>
+      <c r="AW8" s="73"/>
+      <c r="AX8" s="73"/>
+      <c r="AY8" s="73"/>
+      <c r="AZ8" s="73"/>
+      <c r="BA8" s="73"/>
+      <c r="BB8" s="73"/>
+      <c r="BC8" s="73"/>
+      <c r="BD8" s="73"/>
+      <c r="BE8" s="73"/>
+      <c r="BF8" s="73"/>
+      <c r="BG8" s="73"/>
+      <c r="BH8" s="73"/>
+      <c r="BI8" s="73"/>
+      <c r="BJ8" s="73"/>
       <c r="BK8" s="2"/>
       <c r="BL8" s="16"/>
     </row>
     <row r="9" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="16"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="79" t="s">
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="72" t="s">
         <v>170</v>
       </c>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="79"/>
-      <c r="R9" s="79"/>
-      <c r="S9" s="79"/>
-      <c r="T9" s="79"/>
-      <c r="U9" s="79"/>
-      <c r="V9" s="79"/>
-      <c r="W9" s="79"/>
-      <c r="X9" s="79"/>
-      <c r="Y9" s="79"/>
-      <c r="Z9" s="79"/>
-      <c r="AA9" s="79"/>
-      <c r="AB9" s="79"/>
-      <c r="AC9" s="79"/>
-      <c r="AD9" s="79"/>
-      <c r="AE9" s="79"/>
-      <c r="AF9" s="79"/>
-      <c r="AG9" s="79"/>
-      <c r="AH9" s="79"/>
-      <c r="AI9" s="79"/>
-      <c r="AJ9" s="79"/>
-      <c r="AK9" s="79"/>
-      <c r="AL9" s="77"/>
-      <c r="AM9" s="77"/>
-      <c r="AN9" s="77"/>
-      <c r="AO9" s="77"/>
-      <c r="AP9" s="77"/>
-      <c r="AQ9" s="77"/>
-      <c r="AR9" s="77"/>
-      <c r="AS9" s="77"/>
-      <c r="AT9" s="77"/>
-      <c r="AU9" s="77"/>
-      <c r="AV9" s="77"/>
-      <c r="AW9" s="77"/>
-      <c r="AX9" s="77"/>
-      <c r="AY9" s="77"/>
-      <c r="AZ9" s="77"/>
-      <c r="BA9" s="77"/>
-      <c r="BB9" s="77"/>
-      <c r="BC9" s="77"/>
-      <c r="BD9" s="77"/>
-      <c r="BE9" s="77"/>
-      <c r="BF9" s="77"/>
-      <c r="BG9" s="77"/>
-      <c r="BH9" s="77"/>
-      <c r="BI9" s="77"/>
-      <c r="BJ9" s="77"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="72"/>
+      <c r="AA9" s="72"/>
+      <c r="AB9" s="72"/>
+      <c r="AC9" s="72"/>
+      <c r="AD9" s="72"/>
+      <c r="AE9" s="72"/>
+      <c r="AF9" s="72"/>
+      <c r="AG9" s="72"/>
+      <c r="AH9" s="72"/>
+      <c r="AI9" s="72"/>
+      <c r="AJ9" s="72"/>
+      <c r="AK9" s="72"/>
+      <c r="AL9" s="73"/>
+      <c r="AM9" s="73"/>
+      <c r="AN9" s="73"/>
+      <c r="AO9" s="73"/>
+      <c r="AP9" s="73"/>
+      <c r="AQ9" s="73"/>
+      <c r="AR9" s="73"/>
+      <c r="AS9" s="73"/>
+      <c r="AT9" s="73"/>
+      <c r="AU9" s="73"/>
+      <c r="AV9" s="73"/>
+      <c r="AW9" s="73"/>
+      <c r="AX9" s="73"/>
+      <c r="AY9" s="73"/>
+      <c r="AZ9" s="73"/>
+      <c r="BA9" s="73"/>
+      <c r="BB9" s="73"/>
+      <c r="BC9" s="73"/>
+      <c r="BD9" s="73"/>
+      <c r="BE9" s="73"/>
+      <c r="BF9" s="73"/>
+      <c r="BG9" s="73"/>
+      <c r="BH9" s="73"/>
+      <c r="BI9" s="73"/>
+      <c r="BJ9" s="73"/>
       <c r="BK9" s="2"/>
       <c r="BL9" s="16"/>
     </row>
     <row r="10" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="16"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="79" t="s">
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="72" t="s">
         <v>171</v>
       </c>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="79"/>
-      <c r="P10" s="79"/>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="79"/>
-      <c r="S10" s="79"/>
-      <c r="T10" s="79"/>
-      <c r="U10" s="79"/>
-      <c r="V10" s="79"/>
-      <c r="W10" s="79"/>
-      <c r="X10" s="79"/>
-      <c r="Y10" s="79"/>
-      <c r="Z10" s="79"/>
-      <c r="AA10" s="79"/>
-      <c r="AB10" s="79"/>
-      <c r="AC10" s="79"/>
-      <c r="AD10" s="79"/>
-      <c r="AE10" s="79"/>
-      <c r="AF10" s="79"/>
-      <c r="AG10" s="79"/>
-      <c r="AH10" s="79"/>
-      <c r="AI10" s="79"/>
-      <c r="AJ10" s="79"/>
-      <c r="AK10" s="79"/>
-      <c r="AL10" s="77"/>
-      <c r="AM10" s="77"/>
-      <c r="AN10" s="77"/>
-      <c r="AO10" s="77"/>
-      <c r="AP10" s="77"/>
-      <c r="AQ10" s="77"/>
-      <c r="AR10" s="77"/>
-      <c r="AS10" s="77"/>
-      <c r="AT10" s="77"/>
-      <c r="AU10" s="77"/>
-      <c r="AV10" s="77"/>
-      <c r="AW10" s="77"/>
-      <c r="AX10" s="77"/>
-      <c r="AY10" s="77"/>
-      <c r="AZ10" s="77"/>
-      <c r="BA10" s="77"/>
-      <c r="BB10" s="77"/>
-      <c r="BC10" s="77"/>
-      <c r="BD10" s="77"/>
-      <c r="BE10" s="77"/>
-      <c r="BF10" s="77"/>
-      <c r="BG10" s="77"/>
-      <c r="BH10" s="77"/>
-      <c r="BI10" s="77"/>
-      <c r="BJ10" s="77"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="72"/>
+      <c r="X10" s="72"/>
+      <c r="Y10" s="72"/>
+      <c r="Z10" s="72"/>
+      <c r="AA10" s="72"/>
+      <c r="AB10" s="72"/>
+      <c r="AC10" s="72"/>
+      <c r="AD10" s="72"/>
+      <c r="AE10" s="72"/>
+      <c r="AF10" s="72"/>
+      <c r="AG10" s="72"/>
+      <c r="AH10" s="72"/>
+      <c r="AI10" s="72"/>
+      <c r="AJ10" s="72"/>
+      <c r="AK10" s="72"/>
+      <c r="AL10" s="73"/>
+      <c r="AM10" s="73"/>
+      <c r="AN10" s="73"/>
+      <c r="AO10" s="73"/>
+      <c r="AP10" s="73"/>
+      <c r="AQ10" s="73"/>
+      <c r="AR10" s="73"/>
+      <c r="AS10" s="73"/>
+      <c r="AT10" s="73"/>
+      <c r="AU10" s="73"/>
+      <c r="AV10" s="73"/>
+      <c r="AW10" s="73"/>
+      <c r="AX10" s="73"/>
+      <c r="AY10" s="73"/>
+      <c r="AZ10" s="73"/>
+      <c r="BA10" s="73"/>
+      <c r="BB10" s="73"/>
+      <c r="BC10" s="73"/>
+      <c r="BD10" s="73"/>
+      <c r="BE10" s="73"/>
+      <c r="BF10" s="73"/>
+      <c r="BG10" s="73"/>
+      <c r="BH10" s="73"/>
+      <c r="BI10" s="73"/>
+      <c r="BJ10" s="73"/>
       <c r="BK10" s="2"/>
       <c r="BL10" s="16"/>
     </row>
     <row r="11" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="16"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="79" t="s">
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="72" t="s">
         <v>172</v>
       </c>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="79"/>
-      <c r="P11" s="79"/>
-      <c r="Q11" s="79"/>
-      <c r="R11" s="79"/>
-      <c r="S11" s="79"/>
-      <c r="T11" s="79"/>
-      <c r="U11" s="79"/>
-      <c r="V11" s="79"/>
-      <c r="W11" s="79"/>
-      <c r="X11" s="79"/>
-      <c r="Y11" s="79"/>
-      <c r="Z11" s="79"/>
-      <c r="AA11" s="79"/>
-      <c r="AB11" s="79"/>
-      <c r="AC11" s="79"/>
-      <c r="AD11" s="79"/>
-      <c r="AE11" s="79"/>
-      <c r="AF11" s="79"/>
-      <c r="AG11" s="79"/>
-      <c r="AH11" s="79"/>
-      <c r="AI11" s="79"/>
-      <c r="AJ11" s="79"/>
-      <c r="AK11" s="79"/>
-      <c r="AL11" s="77"/>
-      <c r="AM11" s="77"/>
-      <c r="AN11" s="77"/>
-      <c r="AO11" s="77"/>
-      <c r="AP11" s="77"/>
-      <c r="AQ11" s="77"/>
-      <c r="AR11" s="77"/>
-      <c r="AS11" s="77"/>
-      <c r="AT11" s="77"/>
-      <c r="AU11" s="77"/>
-      <c r="AV11" s="77"/>
-      <c r="AW11" s="77"/>
-      <c r="AX11" s="77"/>
-      <c r="AY11" s="77"/>
-      <c r="AZ11" s="77"/>
-      <c r="BA11" s="77"/>
-      <c r="BB11" s="77"/>
-      <c r="BC11" s="77"/>
-      <c r="BD11" s="77"/>
-      <c r="BE11" s="77"/>
-      <c r="BF11" s="77"/>
-      <c r="BG11" s="77"/>
-      <c r="BH11" s="77"/>
-      <c r="BI11" s="77"/>
-      <c r="BJ11" s="77"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="72"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="72"/>
+      <c r="U11" s="72"/>
+      <c r="V11" s="72"/>
+      <c r="W11" s="72"/>
+      <c r="X11" s="72"/>
+      <c r="Y11" s="72"/>
+      <c r="Z11" s="72"/>
+      <c r="AA11" s="72"/>
+      <c r="AB11" s="72"/>
+      <c r="AC11" s="72"/>
+      <c r="AD11" s="72"/>
+      <c r="AE11" s="72"/>
+      <c r="AF11" s="72"/>
+      <c r="AG11" s="72"/>
+      <c r="AH11" s="72"/>
+      <c r="AI11" s="72"/>
+      <c r="AJ11" s="72"/>
+      <c r="AK11" s="72"/>
+      <c r="AL11" s="73"/>
+      <c r="AM11" s="73"/>
+      <c r="AN11" s="73"/>
+      <c r="AO11" s="73"/>
+      <c r="AP11" s="73"/>
+      <c r="AQ11" s="73"/>
+      <c r="AR11" s="73"/>
+      <c r="AS11" s="73"/>
+      <c r="AT11" s="73"/>
+      <c r="AU11" s="73"/>
+      <c r="AV11" s="73"/>
+      <c r="AW11" s="73"/>
+      <c r="AX11" s="73"/>
+      <c r="AY11" s="73"/>
+      <c r="AZ11" s="73"/>
+      <c r="BA11" s="73"/>
+      <c r="BB11" s="73"/>
+      <c r="BC11" s="73"/>
+      <c r="BD11" s="73"/>
+      <c r="BE11" s="73"/>
+      <c r="BF11" s="73"/>
+      <c r="BG11" s="73"/>
+      <c r="BH11" s="73"/>
+      <c r="BI11" s="73"/>
+      <c r="BJ11" s="73"/>
       <c r="BK11" s="2"/>
       <c r="BL11" s="16"/>
     </row>
     <row r="12" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="16"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="79" t="s">
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="72" t="s">
         <v>173</v>
       </c>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="79"/>
-      <c r="O12" s="79"/>
-      <c r="P12" s="79"/>
-      <c r="Q12" s="79"/>
-      <c r="R12" s="79"/>
-      <c r="S12" s="79"/>
-      <c r="T12" s="79"/>
-      <c r="U12" s="79"/>
-      <c r="V12" s="79"/>
-      <c r="W12" s="79"/>
-      <c r="X12" s="79"/>
-      <c r="Y12" s="79"/>
-      <c r="Z12" s="79"/>
-      <c r="AA12" s="79"/>
-      <c r="AB12" s="79"/>
-      <c r="AC12" s="79"/>
-      <c r="AD12" s="79"/>
-      <c r="AE12" s="79"/>
-      <c r="AF12" s="79"/>
-      <c r="AG12" s="79"/>
-      <c r="AH12" s="79"/>
-      <c r="AI12" s="79"/>
-      <c r="AJ12" s="79"/>
-      <c r="AK12" s="79"/>
-      <c r="AL12" s="77"/>
-      <c r="AM12" s="77"/>
-      <c r="AN12" s="77"/>
-      <c r="AO12" s="77"/>
-      <c r="AP12" s="77"/>
-      <c r="AQ12" s="77"/>
-      <c r="AR12" s="77"/>
-      <c r="AS12" s="77"/>
-      <c r="AT12" s="77"/>
-      <c r="AU12" s="77"/>
-      <c r="AV12" s="77"/>
-      <c r="AW12" s="77"/>
-      <c r="AX12" s="77"/>
-      <c r="AY12" s="77"/>
-      <c r="AZ12" s="77"/>
-      <c r="BA12" s="77"/>
-      <c r="BB12" s="77"/>
-      <c r="BC12" s="77"/>
-      <c r="BD12" s="77"/>
-      <c r="BE12" s="77"/>
-      <c r="BF12" s="77"/>
-      <c r="BG12" s="77"/>
-      <c r="BH12" s="77"/>
-      <c r="BI12" s="77"/>
-      <c r="BJ12" s="77"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="72"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="72"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="72"/>
+      <c r="W12" s="72"/>
+      <c r="X12" s="72"/>
+      <c r="Y12" s="72"/>
+      <c r="Z12" s="72"/>
+      <c r="AA12" s="72"/>
+      <c r="AB12" s="72"/>
+      <c r="AC12" s="72"/>
+      <c r="AD12" s="72"/>
+      <c r="AE12" s="72"/>
+      <c r="AF12" s="72"/>
+      <c r="AG12" s="72"/>
+      <c r="AH12" s="72"/>
+      <c r="AI12" s="72"/>
+      <c r="AJ12" s="72"/>
+      <c r="AK12" s="72"/>
+      <c r="AL12" s="73"/>
+      <c r="AM12" s="73"/>
+      <c r="AN12" s="73"/>
+      <c r="AO12" s="73"/>
+      <c r="AP12" s="73"/>
+      <c r="AQ12" s="73"/>
+      <c r="AR12" s="73"/>
+      <c r="AS12" s="73"/>
+      <c r="AT12" s="73"/>
+      <c r="AU12" s="73"/>
+      <c r="AV12" s="73"/>
+      <c r="AW12" s="73"/>
+      <c r="AX12" s="73"/>
+      <c r="AY12" s="73"/>
+      <c r="AZ12" s="73"/>
+      <c r="BA12" s="73"/>
+      <c r="BB12" s="73"/>
+      <c r="BC12" s="73"/>
+      <c r="BD12" s="73"/>
+      <c r="BE12" s="73"/>
+      <c r="BF12" s="73"/>
+      <c r="BG12" s="73"/>
+      <c r="BH12" s="73"/>
+      <c r="BI12" s="73"/>
+      <c r="BJ12" s="73"/>
       <c r="BK12" s="2"/>
       <c r="BL12" s="16"/>
     </row>
     <row r="13" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="16"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="79" t="s">
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="79"/>
-      <c r="P13" s="79"/>
-      <c r="Q13" s="79"/>
-      <c r="R13" s="79"/>
-      <c r="S13" s="79"/>
-      <c r="T13" s="79"/>
-      <c r="U13" s="79"/>
-      <c r="V13" s="79"/>
-      <c r="W13" s="79"/>
-      <c r="X13" s="79"/>
-      <c r="Y13" s="79"/>
-      <c r="Z13" s="79"/>
-      <c r="AA13" s="79"/>
-      <c r="AB13" s="79"/>
-      <c r="AC13" s="79"/>
-      <c r="AD13" s="79"/>
-      <c r="AE13" s="79"/>
-      <c r="AF13" s="79"/>
-      <c r="AG13" s="79"/>
-      <c r="AH13" s="79"/>
-      <c r="AI13" s="79"/>
-      <c r="AJ13" s="79"/>
-      <c r="AK13" s="79"/>
-      <c r="AL13" s="77"/>
-      <c r="AM13" s="77"/>
-      <c r="AN13" s="77"/>
-      <c r="AO13" s="77"/>
-      <c r="AP13" s="77"/>
-      <c r="AQ13" s="77"/>
-      <c r="AR13" s="77"/>
-      <c r="AS13" s="77"/>
-      <c r="AT13" s="77"/>
-      <c r="AU13" s="77"/>
-      <c r="AV13" s="77"/>
-      <c r="AW13" s="77"/>
-      <c r="AX13" s="77"/>
-      <c r="AY13" s="77"/>
-      <c r="AZ13" s="77"/>
-      <c r="BA13" s="77"/>
-      <c r="BB13" s="77"/>
-      <c r="BC13" s="77"/>
-      <c r="BD13" s="77"/>
-      <c r="BE13" s="77"/>
-      <c r="BF13" s="77"/>
-      <c r="BG13" s="77"/>
-      <c r="BH13" s="77"/>
-      <c r="BI13" s="77"/>
-      <c r="BJ13" s="77"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="72"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="72"/>
+      <c r="U13" s="72"/>
+      <c r="V13" s="72"/>
+      <c r="W13" s="72"/>
+      <c r="X13" s="72"/>
+      <c r="Y13" s="72"/>
+      <c r="Z13" s="72"/>
+      <c r="AA13" s="72"/>
+      <c r="AB13" s="72"/>
+      <c r="AC13" s="72"/>
+      <c r="AD13" s="72"/>
+      <c r="AE13" s="72"/>
+      <c r="AF13" s="72"/>
+      <c r="AG13" s="72"/>
+      <c r="AH13" s="72"/>
+      <c r="AI13" s="72"/>
+      <c r="AJ13" s="72"/>
+      <c r="AK13" s="72"/>
+      <c r="AL13" s="73"/>
+      <c r="AM13" s="73"/>
+      <c r="AN13" s="73"/>
+      <c r="AO13" s="73"/>
+      <c r="AP13" s="73"/>
+      <c r="AQ13" s="73"/>
+      <c r="AR13" s="73"/>
+      <c r="AS13" s="73"/>
+      <c r="AT13" s="73"/>
+      <c r="AU13" s="73"/>
+      <c r="AV13" s="73"/>
+      <c r="AW13" s="73"/>
+      <c r="AX13" s="73"/>
+      <c r="AY13" s="73"/>
+      <c r="AZ13" s="73"/>
+      <c r="BA13" s="73"/>
+      <c r="BB13" s="73"/>
+      <c r="BC13" s="73"/>
+      <c r="BD13" s="73"/>
+      <c r="BE13" s="73"/>
+      <c r="BF13" s="73"/>
+      <c r="BG13" s="73"/>
+      <c r="BH13" s="73"/>
+      <c r="BI13" s="73"/>
+      <c r="BJ13" s="73"/>
       <c r="BK13" s="2"/>
       <c r="BL13" s="16"/>
     </row>
     <row r="14" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="16"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="79" t="s">
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="72" t="s">
         <v>176</v>
       </c>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="79"/>
-      <c r="O14" s="79"/>
-      <c r="P14" s="79"/>
-      <c r="Q14" s="79"/>
-      <c r="R14" s="79"/>
-      <c r="S14" s="79"/>
-      <c r="T14" s="79"/>
-      <c r="U14" s="79"/>
-      <c r="V14" s="79"/>
-      <c r="W14" s="79"/>
-      <c r="X14" s="79"/>
-      <c r="Y14" s="79"/>
-      <c r="Z14" s="79"/>
-      <c r="AA14" s="79"/>
-      <c r="AB14" s="79"/>
-      <c r="AC14" s="79"/>
-      <c r="AD14" s="79"/>
-      <c r="AE14" s="79"/>
-      <c r="AF14" s="79"/>
-      <c r="AG14" s="79"/>
-      <c r="AH14" s="79"/>
-      <c r="AI14" s="79"/>
-      <c r="AJ14" s="79"/>
-      <c r="AK14" s="79"/>
-      <c r="AL14" s="77"/>
-      <c r="AM14" s="77"/>
-      <c r="AN14" s="77"/>
-      <c r="AO14" s="77"/>
-      <c r="AP14" s="77"/>
-      <c r="AQ14" s="77"/>
-      <c r="AR14" s="77"/>
-      <c r="AS14" s="77"/>
-      <c r="AT14" s="77"/>
-      <c r="AU14" s="77"/>
-      <c r="AV14" s="77"/>
-      <c r="AW14" s="77"/>
-      <c r="AX14" s="77"/>
-      <c r="AY14" s="77"/>
-      <c r="AZ14" s="77"/>
-      <c r="BA14" s="77"/>
-      <c r="BB14" s="77"/>
-      <c r="BC14" s="77"/>
-      <c r="BD14" s="77"/>
-      <c r="BE14" s="77"/>
-      <c r="BF14" s="77"/>
-      <c r="BG14" s="77"/>
-      <c r="BH14" s="77"/>
-      <c r="BI14" s="77"/>
-      <c r="BJ14" s="77"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="72"/>
+      <c r="R14" s="72"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="72"/>
+      <c r="V14" s="72"/>
+      <c r="W14" s="72"/>
+      <c r="X14" s="72"/>
+      <c r="Y14" s="72"/>
+      <c r="Z14" s="72"/>
+      <c r="AA14" s="72"/>
+      <c r="AB14" s="72"/>
+      <c r="AC14" s="72"/>
+      <c r="AD14" s="72"/>
+      <c r="AE14" s="72"/>
+      <c r="AF14" s="72"/>
+      <c r="AG14" s="72"/>
+      <c r="AH14" s="72"/>
+      <c r="AI14" s="72"/>
+      <c r="AJ14" s="72"/>
+      <c r="AK14" s="72"/>
+      <c r="AL14" s="73"/>
+      <c r="AM14" s="73"/>
+      <c r="AN14" s="73"/>
+      <c r="AO14" s="73"/>
+      <c r="AP14" s="73"/>
+      <c r="AQ14" s="73"/>
+      <c r="AR14" s="73"/>
+      <c r="AS14" s="73"/>
+      <c r="AT14" s="73"/>
+      <c r="AU14" s="73"/>
+      <c r="AV14" s="73"/>
+      <c r="AW14" s="73"/>
+      <c r="AX14" s="73"/>
+      <c r="AY14" s="73"/>
+      <c r="AZ14" s="73"/>
+      <c r="BA14" s="73"/>
+      <c r="BB14" s="73"/>
+      <c r="BC14" s="73"/>
+      <c r="BD14" s="73"/>
+      <c r="BE14" s="73"/>
+      <c r="BF14" s="73"/>
+      <c r="BG14" s="73"/>
+      <c r="BH14" s="73"/>
+      <c r="BI14" s="73"/>
+      <c r="BJ14" s="73"/>
       <c r="BK14" s="2"/>
       <c r="BL14" s="16"/>
     </row>
     <row r="15" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="16"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="79" t="s">
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="72" t="s">
         <v>177</v>
       </c>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="79"/>
-      <c r="O15" s="79"/>
-      <c r="P15" s="79"/>
-      <c r="Q15" s="79"/>
-      <c r="R15" s="79"/>
-      <c r="S15" s="79"/>
-      <c r="T15" s="79"/>
-      <c r="U15" s="79"/>
-      <c r="V15" s="79"/>
-      <c r="W15" s="79"/>
-      <c r="X15" s="79"/>
-      <c r="Y15" s="79"/>
-      <c r="Z15" s="79"/>
-      <c r="AA15" s="79"/>
-      <c r="AB15" s="79"/>
-      <c r="AC15" s="79"/>
-      <c r="AD15" s="79"/>
-      <c r="AE15" s="79"/>
-      <c r="AF15" s="79"/>
-      <c r="AG15" s="79"/>
-      <c r="AH15" s="79"/>
-      <c r="AI15" s="79"/>
-      <c r="AJ15" s="79"/>
-      <c r="AK15" s="79"/>
-      <c r="AL15" s="77"/>
-      <c r="AM15" s="77"/>
-      <c r="AN15" s="77"/>
-      <c r="AO15" s="77"/>
-      <c r="AP15" s="77"/>
-      <c r="AQ15" s="77"/>
-      <c r="AR15" s="77"/>
-      <c r="AS15" s="77"/>
-      <c r="AT15" s="77"/>
-      <c r="AU15" s="77"/>
-      <c r="AV15" s="77"/>
-      <c r="AW15" s="77"/>
-      <c r="AX15" s="77"/>
-      <c r="AY15" s="77"/>
-      <c r="AZ15" s="77"/>
-      <c r="BA15" s="77"/>
-      <c r="BB15" s="77"/>
-      <c r="BC15" s="77"/>
-      <c r="BD15" s="77"/>
-      <c r="BE15" s="77"/>
-      <c r="BF15" s="77"/>
-      <c r="BG15" s="77"/>
-      <c r="BH15" s="77"/>
-      <c r="BI15" s="77"/>
-      <c r="BJ15" s="77"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="72"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="72"/>
+      <c r="W15" s="72"/>
+      <c r="X15" s="72"/>
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="72"/>
+      <c r="AA15" s="72"/>
+      <c r="AB15" s="72"/>
+      <c r="AC15" s="72"/>
+      <c r="AD15" s="72"/>
+      <c r="AE15" s="72"/>
+      <c r="AF15" s="72"/>
+      <c r="AG15" s="72"/>
+      <c r="AH15" s="72"/>
+      <c r="AI15" s="72"/>
+      <c r="AJ15" s="72"/>
+      <c r="AK15" s="72"/>
+      <c r="AL15" s="73"/>
+      <c r="AM15" s="73"/>
+      <c r="AN15" s="73"/>
+      <c r="AO15" s="73"/>
+      <c r="AP15" s="73"/>
+      <c r="AQ15" s="73"/>
+      <c r="AR15" s="73"/>
+      <c r="AS15" s="73"/>
+      <c r="AT15" s="73"/>
+      <c r="AU15" s="73"/>
+      <c r="AV15" s="73"/>
+      <c r="AW15" s="73"/>
+      <c r="AX15" s="73"/>
+      <c r="AY15" s="73"/>
+      <c r="AZ15" s="73"/>
+      <c r="BA15" s="73"/>
+      <c r="BB15" s="73"/>
+      <c r="BC15" s="73"/>
+      <c r="BD15" s="73"/>
+      <c r="BE15" s="73"/>
+      <c r="BF15" s="73"/>
+      <c r="BG15" s="73"/>
+      <c r="BH15" s="73"/>
+      <c r="BI15" s="73"/>
+      <c r="BJ15" s="73"/>
       <c r="BK15" s="2"/>
       <c r="BL15" s="16"/>
     </row>
     <row r="16" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="16"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="79" t="s">
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="79"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="79"/>
-      <c r="O16" s="79"/>
-      <c r="P16" s="79"/>
-      <c r="Q16" s="79"/>
-      <c r="R16" s="79"/>
-      <c r="S16" s="79"/>
-      <c r="T16" s="79"/>
-      <c r="U16" s="79"/>
-      <c r="V16" s="79"/>
-      <c r="W16" s="79"/>
-      <c r="X16" s="79"/>
-      <c r="Y16" s="79"/>
-      <c r="Z16" s="79"/>
-      <c r="AA16" s="79"/>
-      <c r="AB16" s="79"/>
-      <c r="AC16" s="79"/>
-      <c r="AD16" s="79"/>
-      <c r="AE16" s="79"/>
-      <c r="AF16" s="79"/>
-      <c r="AG16" s="79"/>
-      <c r="AH16" s="79"/>
-      <c r="AI16" s="79"/>
-      <c r="AJ16" s="79"/>
-      <c r="AK16" s="79"/>
-      <c r="AL16" s="77"/>
-      <c r="AM16" s="77"/>
-      <c r="AN16" s="77"/>
-      <c r="AO16" s="77"/>
-      <c r="AP16" s="77"/>
-      <c r="AQ16" s="77"/>
-      <c r="AR16" s="77"/>
-      <c r="AS16" s="77"/>
-      <c r="AT16" s="77"/>
-      <c r="AU16" s="77"/>
-      <c r="AV16" s="77"/>
-      <c r="AW16" s="77"/>
-      <c r="AX16" s="77"/>
-      <c r="AY16" s="77"/>
-      <c r="AZ16" s="77"/>
-      <c r="BA16" s="77"/>
-      <c r="BB16" s="77"/>
-      <c r="BC16" s="77"/>
-      <c r="BD16" s="77"/>
-      <c r="BE16" s="77"/>
-      <c r="BF16" s="77"/>
-      <c r="BG16" s="77"/>
-      <c r="BH16" s="77"/>
-      <c r="BI16" s="77"/>
-      <c r="BJ16" s="77"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="72"/>
+      <c r="AB16" s="72"/>
+      <c r="AC16" s="72"/>
+      <c r="AD16" s="72"/>
+      <c r="AE16" s="72"/>
+      <c r="AF16" s="72"/>
+      <c r="AG16" s="72"/>
+      <c r="AH16" s="72"/>
+      <c r="AI16" s="72"/>
+      <c r="AJ16" s="72"/>
+      <c r="AK16" s="72"/>
+      <c r="AL16" s="73"/>
+      <c r="AM16" s="73"/>
+      <c r="AN16" s="73"/>
+      <c r="AO16" s="73"/>
+      <c r="AP16" s="73"/>
+      <c r="AQ16" s="73"/>
+      <c r="AR16" s="73"/>
+      <c r="AS16" s="73"/>
+      <c r="AT16" s="73"/>
+      <c r="AU16" s="73"/>
+      <c r="AV16" s="73"/>
+      <c r="AW16" s="73"/>
+      <c r="AX16" s="73"/>
+      <c r="AY16" s="73"/>
+      <c r="AZ16" s="73"/>
+      <c r="BA16" s="73"/>
+      <c r="BB16" s="73"/>
+      <c r="BC16" s="73"/>
+      <c r="BD16" s="73"/>
+      <c r="BE16" s="73"/>
+      <c r="BF16" s="73"/>
+      <c r="BG16" s="73"/>
+      <c r="BH16" s="73"/>
+      <c r="BI16" s="73"/>
+      <c r="BJ16" s="73"/>
       <c r="BK16" s="2"/>
       <c r="BL16" s="16"/>
     </row>
     <row r="17" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="16"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="79" t="s">
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="79"/>
-      <c r="O17" s="79"/>
-      <c r="P17" s="79"/>
-      <c r="Q17" s="79"/>
-      <c r="R17" s="79"/>
-      <c r="S17" s="79"/>
-      <c r="T17" s="79"/>
-      <c r="U17" s="79"/>
-      <c r="V17" s="79"/>
-      <c r="W17" s="79"/>
-      <c r="X17" s="79"/>
-      <c r="Y17" s="79"/>
-      <c r="Z17" s="79"/>
-      <c r="AA17" s="79"/>
-      <c r="AB17" s="79"/>
-      <c r="AC17" s="79"/>
-      <c r="AD17" s="79"/>
-      <c r="AE17" s="79"/>
-      <c r="AF17" s="79"/>
-      <c r="AG17" s="79"/>
-      <c r="AH17" s="79"/>
-      <c r="AI17" s="79"/>
-      <c r="AJ17" s="79"/>
-      <c r="AK17" s="79"/>
-      <c r="AL17" s="77"/>
-      <c r="AM17" s="77"/>
-      <c r="AN17" s="77"/>
-      <c r="AO17" s="77"/>
-      <c r="AP17" s="77"/>
-      <c r="AQ17" s="77"/>
-      <c r="AR17" s="77"/>
-      <c r="AS17" s="77"/>
-      <c r="AT17" s="77"/>
-      <c r="AU17" s="77"/>
-      <c r="AV17" s="77"/>
-      <c r="AW17" s="77"/>
-      <c r="AX17" s="77"/>
-      <c r="AY17" s="77"/>
-      <c r="AZ17" s="77"/>
-      <c r="BA17" s="77"/>
-      <c r="BB17" s="77"/>
-      <c r="BC17" s="77"/>
-      <c r="BD17" s="77"/>
-      <c r="BE17" s="77"/>
-      <c r="BF17" s="77"/>
-      <c r="BG17" s="77"/>
-      <c r="BH17" s="77"/>
-      <c r="BI17" s="77"/>
-      <c r="BJ17" s="77"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="72"/>
+      <c r="R17" s="72"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="72"/>
+      <c r="U17" s="72"/>
+      <c r="V17" s="72"/>
+      <c r="W17" s="72"/>
+      <c r="X17" s="72"/>
+      <c r="Y17" s="72"/>
+      <c r="Z17" s="72"/>
+      <c r="AA17" s="72"/>
+      <c r="AB17" s="72"/>
+      <c r="AC17" s="72"/>
+      <c r="AD17" s="72"/>
+      <c r="AE17" s="72"/>
+      <c r="AF17" s="72"/>
+      <c r="AG17" s="72"/>
+      <c r="AH17" s="72"/>
+      <c r="AI17" s="72"/>
+      <c r="AJ17" s="72"/>
+      <c r="AK17" s="72"/>
+      <c r="AL17" s="73"/>
+      <c r="AM17" s="73"/>
+      <c r="AN17" s="73"/>
+      <c r="AO17" s="73"/>
+      <c r="AP17" s="73"/>
+      <c r="AQ17" s="73"/>
+      <c r="AR17" s="73"/>
+      <c r="AS17" s="73"/>
+      <c r="AT17" s="73"/>
+      <c r="AU17" s="73"/>
+      <c r="AV17" s="73"/>
+      <c r="AW17" s="73"/>
+      <c r="AX17" s="73"/>
+      <c r="AY17" s="73"/>
+      <c r="AZ17" s="73"/>
+      <c r="BA17" s="73"/>
+      <c r="BB17" s="73"/>
+      <c r="BC17" s="73"/>
+      <c r="BD17" s="73"/>
+      <c r="BE17" s="73"/>
+      <c r="BF17" s="73"/>
+      <c r="BG17" s="73"/>
+      <c r="BH17" s="73"/>
+      <c r="BI17" s="73"/>
+      <c r="BJ17" s="73"/>
       <c r="BK17" s="2"/>
       <c r="BL17" s="16"/>
     </row>
     <row r="18" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="16"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="79" t="s">
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="79"/>
-      <c r="R18" s="79"/>
-      <c r="S18" s="79"/>
-      <c r="T18" s="79"/>
-      <c r="U18" s="79"/>
-      <c r="V18" s="79"/>
-      <c r="W18" s="79"/>
-      <c r="X18" s="79"/>
-      <c r="Y18" s="79"/>
-      <c r="Z18" s="79"/>
-      <c r="AA18" s="79"/>
-      <c r="AB18" s="79"/>
-      <c r="AC18" s="79"/>
-      <c r="AD18" s="79"/>
-      <c r="AE18" s="79"/>
-      <c r="AF18" s="79"/>
-      <c r="AG18" s="79"/>
-      <c r="AH18" s="79"/>
-      <c r="AI18" s="79"/>
-      <c r="AJ18" s="79"/>
-      <c r="AK18" s="79"/>
-      <c r="AL18" s="77"/>
-      <c r="AM18" s="77"/>
-      <c r="AN18" s="77"/>
-      <c r="AO18" s="77"/>
-      <c r="AP18" s="77"/>
-      <c r="AQ18" s="77"/>
-      <c r="AR18" s="77"/>
-      <c r="AS18" s="77"/>
-      <c r="AT18" s="77"/>
-      <c r="AU18" s="77"/>
-      <c r="AV18" s="77"/>
-      <c r="AW18" s="77"/>
-      <c r="AX18" s="77"/>
-      <c r="AY18" s="77"/>
-      <c r="AZ18" s="77"/>
-      <c r="BA18" s="77"/>
-      <c r="BB18" s="77"/>
-      <c r="BC18" s="77"/>
-      <c r="BD18" s="77"/>
-      <c r="BE18" s="77"/>
-      <c r="BF18" s="77"/>
-      <c r="BG18" s="77"/>
-      <c r="BH18" s="77"/>
-      <c r="BI18" s="77"/>
-      <c r="BJ18" s="77"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="72"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="72"/>
+      <c r="U18" s="72"/>
+      <c r="V18" s="72"/>
+      <c r="W18" s="72"/>
+      <c r="X18" s="72"/>
+      <c r="Y18" s="72"/>
+      <c r="Z18" s="72"/>
+      <c r="AA18" s="72"/>
+      <c r="AB18" s="72"/>
+      <c r="AC18" s="72"/>
+      <c r="AD18" s="72"/>
+      <c r="AE18" s="72"/>
+      <c r="AF18" s="72"/>
+      <c r="AG18" s="72"/>
+      <c r="AH18" s="72"/>
+      <c r="AI18" s="72"/>
+      <c r="AJ18" s="72"/>
+      <c r="AK18" s="72"/>
+      <c r="AL18" s="73"/>
+      <c r="AM18" s="73"/>
+      <c r="AN18" s="73"/>
+      <c r="AO18" s="73"/>
+      <c r="AP18" s="73"/>
+      <c r="AQ18" s="73"/>
+      <c r="AR18" s="73"/>
+      <c r="AS18" s="73"/>
+      <c r="AT18" s="73"/>
+      <c r="AU18" s="73"/>
+      <c r="AV18" s="73"/>
+      <c r="AW18" s="73"/>
+      <c r="AX18" s="73"/>
+      <c r="AY18" s="73"/>
+      <c r="AZ18" s="73"/>
+      <c r="BA18" s="73"/>
+      <c r="BB18" s="73"/>
+      <c r="BC18" s="73"/>
+      <c r="BD18" s="73"/>
+      <c r="BE18" s="73"/>
+      <c r="BF18" s="73"/>
+      <c r="BG18" s="73"/>
+      <c r="BH18" s="73"/>
+      <c r="BI18" s="73"/>
+      <c r="BJ18" s="73"/>
       <c r="BK18" s="2"/>
       <c r="BL18" s="16"/>
     </row>
     <row r="19" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="16"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="80" t="s">
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="81"/>
-      <c r="S19" s="81"/>
-      <c r="T19" s="81"/>
-      <c r="U19" s="81"/>
-      <c r="V19" s="81"/>
-      <c r="W19" s="81"/>
-      <c r="X19" s="81"/>
-      <c r="Y19" s="81"/>
-      <c r="Z19" s="81"/>
-      <c r="AA19" s="81"/>
-      <c r="AB19" s="81"/>
-      <c r="AC19" s="81"/>
-      <c r="AD19" s="81"/>
-      <c r="AE19" s="81"/>
-      <c r="AF19" s="81"/>
-      <c r="AG19" s="81"/>
-      <c r="AH19" s="81"/>
-      <c r="AI19" s="81"/>
-      <c r="AJ19" s="81"/>
-      <c r="AK19" s="82"/>
-      <c r="AL19" s="77"/>
-      <c r="AM19" s="77"/>
-      <c r="AN19" s="77"/>
-      <c r="AO19" s="77"/>
-      <c r="AP19" s="77"/>
-      <c r="AQ19" s="77"/>
-      <c r="AR19" s="77"/>
-      <c r="AS19" s="77"/>
-      <c r="AT19" s="77"/>
-      <c r="AU19" s="77"/>
-      <c r="AV19" s="77"/>
-      <c r="AW19" s="77"/>
-      <c r="AX19" s="77"/>
-      <c r="AY19" s="77"/>
-      <c r="AZ19" s="77"/>
-      <c r="BA19" s="77"/>
-      <c r="BB19" s="77"/>
-      <c r="BC19" s="77"/>
-      <c r="BD19" s="77"/>
-      <c r="BE19" s="77"/>
-      <c r="BF19" s="77"/>
-      <c r="BG19" s="77"/>
-      <c r="BH19" s="77"/>
-      <c r="BI19" s="77"/>
-      <c r="BJ19" s="77"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="78"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="78"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="78"/>
+      <c r="S19" s="78"/>
+      <c r="T19" s="78"/>
+      <c r="U19" s="78"/>
+      <c r="V19" s="78"/>
+      <c r="W19" s="78"/>
+      <c r="X19" s="78"/>
+      <c r="Y19" s="78"/>
+      <c r="Z19" s="78"/>
+      <c r="AA19" s="78"/>
+      <c r="AB19" s="78"/>
+      <c r="AC19" s="78"/>
+      <c r="AD19" s="78"/>
+      <c r="AE19" s="78"/>
+      <c r="AF19" s="78"/>
+      <c r="AG19" s="78"/>
+      <c r="AH19" s="78"/>
+      <c r="AI19" s="78"/>
+      <c r="AJ19" s="78"/>
+      <c r="AK19" s="79"/>
+      <c r="AL19" s="73"/>
+      <c r="AM19" s="73"/>
+      <c r="AN19" s="73"/>
+      <c r="AO19" s="73"/>
+      <c r="AP19" s="73"/>
+      <c r="AQ19" s="73"/>
+      <c r="AR19" s="73"/>
+      <c r="AS19" s="73"/>
+      <c r="AT19" s="73"/>
+      <c r="AU19" s="73"/>
+      <c r="AV19" s="73"/>
+      <c r="AW19" s="73"/>
+      <c r="AX19" s="73"/>
+      <c r="AY19" s="73"/>
+      <c r="AZ19" s="73"/>
+      <c r="BA19" s="73"/>
+      <c r="BB19" s="73"/>
+      <c r="BC19" s="73"/>
+      <c r="BD19" s="73"/>
+      <c r="BE19" s="73"/>
+      <c r="BF19" s="73"/>
+      <c r="BG19" s="73"/>
+      <c r="BH19" s="73"/>
+      <c r="BI19" s="73"/>
+      <c r="BJ19" s="73"/>
       <c r="BK19" s="2"/>
       <c r="BL19" s="16"/>
     </row>
     <row r="20" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="16"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="83" t="s">
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="74" t="s">
         <v>132</v>
       </c>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="84"/>
-      <c r="P20" s="84"/>
-      <c r="Q20" s="84"/>
-      <c r="R20" s="84"/>
-      <c r="S20" s="84"/>
-      <c r="T20" s="84"/>
-      <c r="U20" s="84"/>
-      <c r="V20" s="84"/>
-      <c r="W20" s="84"/>
-      <c r="X20" s="84"/>
-      <c r="Y20" s="84"/>
-      <c r="Z20" s="84"/>
-      <c r="AA20" s="84"/>
-      <c r="AB20" s="84"/>
-      <c r="AC20" s="84"/>
-      <c r="AD20" s="84"/>
-      <c r="AE20" s="84"/>
-      <c r="AF20" s="84"/>
-      <c r="AG20" s="84"/>
-      <c r="AH20" s="84"/>
-      <c r="AI20" s="84"/>
-      <c r="AJ20" s="84"/>
-      <c r="AK20" s="85"/>
-      <c r="AL20" s="77" t="s">
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="75"/>
+      <c r="S20" s="75"/>
+      <c r="T20" s="75"/>
+      <c r="U20" s="75"/>
+      <c r="V20" s="75"/>
+      <c r="W20" s="75"/>
+      <c r="X20" s="75"/>
+      <c r="Y20" s="75"/>
+      <c r="Z20" s="75"/>
+      <c r="AA20" s="75"/>
+      <c r="AB20" s="75"/>
+      <c r="AC20" s="75"/>
+      <c r="AD20" s="75"/>
+      <c r="AE20" s="75"/>
+      <c r="AF20" s="75"/>
+      <c r="AG20" s="75"/>
+      <c r="AH20" s="75"/>
+      <c r="AI20" s="75"/>
+      <c r="AJ20" s="75"/>
+      <c r="AK20" s="76"/>
+      <c r="AL20" s="73" t="s">
         <v>122</v>
       </c>
-      <c r="AM20" s="77"/>
-      <c r="AN20" s="77"/>
-      <c r="AO20" s="77"/>
-      <c r="AP20" s="77"/>
-      <c r="AQ20" s="77"/>
-      <c r="AR20" s="77"/>
-      <c r="AS20" s="77"/>
-      <c r="AT20" s="77"/>
-      <c r="AU20" s="77"/>
-      <c r="AV20" s="77"/>
-      <c r="AW20" s="77"/>
-      <c r="AX20" s="77"/>
-      <c r="AY20" s="77"/>
-      <c r="AZ20" s="77"/>
-      <c r="BA20" s="77"/>
-      <c r="BB20" s="77"/>
-      <c r="BC20" s="77"/>
-      <c r="BD20" s="77"/>
-      <c r="BE20" s="77"/>
-      <c r="BF20" s="77"/>
-      <c r="BG20" s="77"/>
-      <c r="BH20" s="77"/>
-      <c r="BI20" s="77"/>
-      <c r="BJ20" s="77"/>
+      <c r="AM20" s="73"/>
+      <c r="AN20" s="73"/>
+      <c r="AO20" s="73"/>
+      <c r="AP20" s="73"/>
+      <c r="AQ20" s="73"/>
+      <c r="AR20" s="73"/>
+      <c r="AS20" s="73"/>
+      <c r="AT20" s="73"/>
+      <c r="AU20" s="73"/>
+      <c r="AV20" s="73"/>
+      <c r="AW20" s="73"/>
+      <c r="AX20" s="73"/>
+      <c r="AY20" s="73"/>
+      <c r="AZ20" s="73"/>
+      <c r="BA20" s="73"/>
+      <c r="BB20" s="73"/>
+      <c r="BC20" s="73"/>
+      <c r="BD20" s="73"/>
+      <c r="BE20" s="73"/>
+      <c r="BF20" s="73"/>
+      <c r="BG20" s="73"/>
+      <c r="BH20" s="73"/>
+      <c r="BI20" s="73"/>
+      <c r="BJ20" s="73"/>
       <c r="BK20" s="2"/>
       <c r="BL20" s="16"/>
     </row>
     <row r="21" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="16"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="73" t="s">
+      <c r="C21" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="83" t="s">
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="84"/>
-      <c r="S21" s="84"/>
-      <c r="T21" s="84"/>
-      <c r="U21" s="84"/>
-      <c r="V21" s="84"/>
-      <c r="W21" s="84"/>
-      <c r="X21" s="84"/>
-      <c r="Y21" s="84"/>
-      <c r="Z21" s="84"/>
-      <c r="AA21" s="84"/>
-      <c r="AB21" s="84"/>
-      <c r="AC21" s="84"/>
-      <c r="AD21" s="84"/>
-      <c r="AE21" s="84"/>
-      <c r="AF21" s="84"/>
-      <c r="AG21" s="84"/>
-      <c r="AH21" s="84"/>
-      <c r="AI21" s="84"/>
-      <c r="AJ21" s="84"/>
-      <c r="AK21" s="85"/>
-      <c r="AL21" s="77"/>
-      <c r="AM21" s="77"/>
-      <c r="AN21" s="77"/>
-      <c r="AO21" s="77"/>
-      <c r="AP21" s="77"/>
-      <c r="AQ21" s="77"/>
-      <c r="AR21" s="77"/>
-      <c r="AS21" s="77"/>
-      <c r="AT21" s="77"/>
-      <c r="AU21" s="77"/>
-      <c r="AV21" s="77"/>
-      <c r="AW21" s="77"/>
-      <c r="AX21" s="77"/>
-      <c r="AY21" s="77"/>
-      <c r="AZ21" s="77"/>
-      <c r="BA21" s="77"/>
-      <c r="BB21" s="77"/>
-      <c r="BC21" s="77"/>
-      <c r="BD21" s="77"/>
-      <c r="BE21" s="77"/>
-      <c r="BF21" s="77"/>
-      <c r="BG21" s="77"/>
-      <c r="BH21" s="77"/>
-      <c r="BI21" s="77"/>
-      <c r="BJ21" s="77"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="75"/>
+      <c r="R21" s="75"/>
+      <c r="S21" s="75"/>
+      <c r="T21" s="75"/>
+      <c r="U21" s="75"/>
+      <c r="V21" s="75"/>
+      <c r="W21" s="75"/>
+      <c r="X21" s="75"/>
+      <c r="Y21" s="75"/>
+      <c r="Z21" s="75"/>
+      <c r="AA21" s="75"/>
+      <c r="AB21" s="75"/>
+      <c r="AC21" s="75"/>
+      <c r="AD21" s="75"/>
+      <c r="AE21" s="75"/>
+      <c r="AF21" s="75"/>
+      <c r="AG21" s="75"/>
+      <c r="AH21" s="75"/>
+      <c r="AI21" s="75"/>
+      <c r="AJ21" s="75"/>
+      <c r="AK21" s="76"/>
+      <c r="AL21" s="73"/>
+      <c r="AM21" s="73"/>
+      <c r="AN21" s="73"/>
+      <c r="AO21" s="73"/>
+      <c r="AP21" s="73"/>
+      <c r="AQ21" s="73"/>
+      <c r="AR21" s="73"/>
+      <c r="AS21" s="73"/>
+      <c r="AT21" s="73"/>
+      <c r="AU21" s="73"/>
+      <c r="AV21" s="73"/>
+      <c r="AW21" s="73"/>
+      <c r="AX21" s="73"/>
+      <c r="AY21" s="73"/>
+      <c r="AZ21" s="73"/>
+      <c r="BA21" s="73"/>
+      <c r="BB21" s="73"/>
+      <c r="BC21" s="73"/>
+      <c r="BD21" s="73"/>
+      <c r="BE21" s="73"/>
+      <c r="BF21" s="73"/>
+      <c r="BG21" s="73"/>
+      <c r="BH21" s="73"/>
+      <c r="BI21" s="73"/>
+      <c r="BJ21" s="73"/>
       <c r="BK21" s="2"/>
       <c r="BL21" s="16"/>
     </row>
     <row r="22" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="16"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="83" t="s">
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="74" t="s">
         <v>203</v>
       </c>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="84"/>
-      <c r="S22" s="84"/>
-      <c r="T22" s="84"/>
-      <c r="U22" s="84"/>
-      <c r="V22" s="84"/>
-      <c r="W22" s="84"/>
-      <c r="X22" s="84"/>
-      <c r="Y22" s="84"/>
-      <c r="Z22" s="84"/>
-      <c r="AA22" s="84"/>
-      <c r="AB22" s="84"/>
-      <c r="AC22" s="84"/>
-      <c r="AD22" s="84"/>
-      <c r="AE22" s="84"/>
-      <c r="AF22" s="84"/>
-      <c r="AG22" s="84"/>
-      <c r="AH22" s="84"/>
-      <c r="AI22" s="84"/>
-      <c r="AJ22" s="84"/>
-      <c r="AK22" s="85"/>
-      <c r="AL22" s="77"/>
-      <c r="AM22" s="77"/>
-      <c r="AN22" s="77"/>
-      <c r="AO22" s="77"/>
-      <c r="AP22" s="77"/>
-      <c r="AQ22" s="77"/>
-      <c r="AR22" s="77"/>
-      <c r="AS22" s="77"/>
-      <c r="AT22" s="77"/>
-      <c r="AU22" s="77"/>
-      <c r="AV22" s="77"/>
-      <c r="AW22" s="77"/>
-      <c r="AX22" s="77"/>
-      <c r="AY22" s="77"/>
-      <c r="AZ22" s="77"/>
-      <c r="BA22" s="77"/>
-      <c r="BB22" s="77"/>
-      <c r="BC22" s="77"/>
-      <c r="BD22" s="77"/>
-      <c r="BE22" s="77"/>
-      <c r="BF22" s="77"/>
-      <c r="BG22" s="77"/>
-      <c r="BH22" s="77"/>
-      <c r="BI22" s="77"/>
-      <c r="BJ22" s="77"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="75"/>
+      <c r="S22" s="75"/>
+      <c r="T22" s="75"/>
+      <c r="U22" s="75"/>
+      <c r="V22" s="75"/>
+      <c r="W22" s="75"/>
+      <c r="X22" s="75"/>
+      <c r="Y22" s="75"/>
+      <c r="Z22" s="75"/>
+      <c r="AA22" s="75"/>
+      <c r="AB22" s="75"/>
+      <c r="AC22" s="75"/>
+      <c r="AD22" s="75"/>
+      <c r="AE22" s="75"/>
+      <c r="AF22" s="75"/>
+      <c r="AG22" s="75"/>
+      <c r="AH22" s="75"/>
+      <c r="AI22" s="75"/>
+      <c r="AJ22" s="75"/>
+      <c r="AK22" s="76"/>
+      <c r="AL22" s="73"/>
+      <c r="AM22" s="73"/>
+      <c r="AN22" s="73"/>
+      <c r="AO22" s="73"/>
+      <c r="AP22" s="73"/>
+      <c r="AQ22" s="73"/>
+      <c r="AR22" s="73"/>
+      <c r="AS22" s="73"/>
+      <c r="AT22" s="73"/>
+      <c r="AU22" s="73"/>
+      <c r="AV22" s="73"/>
+      <c r="AW22" s="73"/>
+      <c r="AX22" s="73"/>
+      <c r="AY22" s="73"/>
+      <c r="AZ22" s="73"/>
+      <c r="BA22" s="73"/>
+      <c r="BB22" s="73"/>
+      <c r="BC22" s="73"/>
+      <c r="BD22" s="73"/>
+      <c r="BE22" s="73"/>
+      <c r="BF22" s="73"/>
+      <c r="BG22" s="73"/>
+      <c r="BH22" s="73"/>
+      <c r="BI22" s="73"/>
+      <c r="BJ22" s="73"/>
       <c r="BK22" s="2"/>
       <c r="BL22" s="16"/>
     </row>
     <row r="23" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="16"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="73" t="s">
+      <c r="C23" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="79" t="s">
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="79"/>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="79"/>
-      <c r="R23" s="79"/>
-      <c r="S23" s="79"/>
-      <c r="T23" s="79"/>
-      <c r="U23" s="79"/>
-      <c r="V23" s="79"/>
-      <c r="W23" s="79"/>
-      <c r="X23" s="79"/>
-      <c r="Y23" s="79"/>
-      <c r="Z23" s="79"/>
-      <c r="AA23" s="79"/>
-      <c r="AB23" s="79"/>
-      <c r="AC23" s="79"/>
-      <c r="AD23" s="79"/>
-      <c r="AE23" s="79"/>
-      <c r="AF23" s="79"/>
-      <c r="AG23" s="79"/>
-      <c r="AH23" s="79"/>
-      <c r="AI23" s="79"/>
-      <c r="AJ23" s="79"/>
-      <c r="AK23" s="79"/>
-      <c r="AL23" s="77"/>
-      <c r="AM23" s="77"/>
-      <c r="AN23" s="77"/>
-      <c r="AO23" s="77"/>
-      <c r="AP23" s="77"/>
-      <c r="AQ23" s="77"/>
-      <c r="AR23" s="77"/>
-      <c r="AS23" s="77"/>
-      <c r="AT23" s="77"/>
-      <c r="AU23" s="77"/>
-      <c r="AV23" s="77"/>
-      <c r="AW23" s="77"/>
-      <c r="AX23" s="77"/>
-      <c r="AY23" s="77"/>
-      <c r="AZ23" s="77"/>
-      <c r="BA23" s="77"/>
-      <c r="BB23" s="77"/>
-      <c r="BC23" s="77"/>
-      <c r="BD23" s="77"/>
-      <c r="BE23" s="77"/>
-      <c r="BF23" s="77"/>
-      <c r="BG23" s="77"/>
-      <c r="BH23" s="77"/>
-      <c r="BI23" s="77"/>
-      <c r="BJ23" s="77"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="72"/>
+      <c r="P23" s="72"/>
+      <c r="Q23" s="72"/>
+      <c r="R23" s="72"/>
+      <c r="S23" s="72"/>
+      <c r="T23" s="72"/>
+      <c r="U23" s="72"/>
+      <c r="V23" s="72"/>
+      <c r="W23" s="72"/>
+      <c r="X23" s="72"/>
+      <c r="Y23" s="72"/>
+      <c r="Z23" s="72"/>
+      <c r="AA23" s="72"/>
+      <c r="AB23" s="72"/>
+      <c r="AC23" s="72"/>
+      <c r="AD23" s="72"/>
+      <c r="AE23" s="72"/>
+      <c r="AF23" s="72"/>
+      <c r="AG23" s="72"/>
+      <c r="AH23" s="72"/>
+      <c r="AI23" s="72"/>
+      <c r="AJ23" s="72"/>
+      <c r="AK23" s="72"/>
+      <c r="AL23" s="73"/>
+      <c r="AM23" s="73"/>
+      <c r="AN23" s="73"/>
+      <c r="AO23" s="73"/>
+      <c r="AP23" s="73"/>
+      <c r="AQ23" s="73"/>
+      <c r="AR23" s="73"/>
+      <c r="AS23" s="73"/>
+      <c r="AT23" s="73"/>
+      <c r="AU23" s="73"/>
+      <c r="AV23" s="73"/>
+      <c r="AW23" s="73"/>
+      <c r="AX23" s="73"/>
+      <c r="AY23" s="73"/>
+      <c r="AZ23" s="73"/>
+      <c r="BA23" s="73"/>
+      <c r="BB23" s="73"/>
+      <c r="BC23" s="73"/>
+      <c r="BD23" s="73"/>
+      <c r="BE23" s="73"/>
+      <c r="BF23" s="73"/>
+      <c r="BG23" s="73"/>
+      <c r="BH23" s="73"/>
+      <c r="BI23" s="73"/>
+      <c r="BJ23" s="73"/>
       <c r="BK23" s="2"/>
       <c r="BL23" s="16"/>
     </row>
     <row r="24" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="73" t="s">
+      <c r="C24" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="79" t="s">
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="72" t="s">
         <v>204</v>
       </c>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="79"/>
-      <c r="P24" s="79"/>
-      <c r="Q24" s="79"/>
-      <c r="R24" s="79"/>
-      <c r="S24" s="79"/>
-      <c r="T24" s="79"/>
-      <c r="U24" s="79"/>
-      <c r="V24" s="79"/>
-      <c r="W24" s="79"/>
-      <c r="X24" s="79"/>
-      <c r="Y24" s="79"/>
-      <c r="Z24" s="79"/>
-      <c r="AA24" s="79"/>
-      <c r="AB24" s="79"/>
-      <c r="AC24" s="79"/>
-      <c r="AD24" s="79"/>
-      <c r="AE24" s="79"/>
-      <c r="AF24" s="79"/>
-      <c r="AG24" s="79"/>
-      <c r="AH24" s="79"/>
-      <c r="AI24" s="79"/>
-      <c r="AJ24" s="79"/>
-      <c r="AK24" s="79"/>
-      <c r="AL24" s="77"/>
-      <c r="AM24" s="77"/>
-      <c r="AN24" s="77"/>
-      <c r="AO24" s="77"/>
-      <c r="AP24" s="77"/>
-      <c r="AQ24" s="77"/>
-      <c r="AR24" s="77"/>
-      <c r="AS24" s="77"/>
-      <c r="AT24" s="77"/>
-      <c r="AU24" s="77"/>
-      <c r="AV24" s="77"/>
-      <c r="AW24" s="77"/>
-      <c r="AX24" s="77"/>
-      <c r="AY24" s="77"/>
-      <c r="AZ24" s="77"/>
-      <c r="BA24" s="77"/>
-      <c r="BB24" s="77"/>
-      <c r="BC24" s="77"/>
-      <c r="BD24" s="77"/>
-      <c r="BE24" s="77"/>
-      <c r="BF24" s="77"/>
-      <c r="BG24" s="77"/>
-      <c r="BH24" s="77"/>
-      <c r="BI24" s="77"/>
-      <c r="BJ24" s="77"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="72"/>
+      <c r="R24" s="72"/>
+      <c r="S24" s="72"/>
+      <c r="T24" s="72"/>
+      <c r="U24" s="72"/>
+      <c r="V24" s="72"/>
+      <c r="W24" s="72"/>
+      <c r="X24" s="72"/>
+      <c r="Y24" s="72"/>
+      <c r="Z24" s="72"/>
+      <c r="AA24" s="72"/>
+      <c r="AB24" s="72"/>
+      <c r="AC24" s="72"/>
+      <c r="AD24" s="72"/>
+      <c r="AE24" s="72"/>
+      <c r="AF24" s="72"/>
+      <c r="AG24" s="72"/>
+      <c r="AH24" s="72"/>
+      <c r="AI24" s="72"/>
+      <c r="AJ24" s="72"/>
+      <c r="AK24" s="72"/>
+      <c r="AL24" s="73"/>
+      <c r="AM24" s="73"/>
+      <c r="AN24" s="73"/>
+      <c r="AO24" s="73"/>
+      <c r="AP24" s="73"/>
+      <c r="AQ24" s="73"/>
+      <c r="AR24" s="73"/>
+      <c r="AS24" s="73"/>
+      <c r="AT24" s="73"/>
+      <c r="AU24" s="73"/>
+      <c r="AV24" s="73"/>
+      <c r="AW24" s="73"/>
+      <c r="AX24" s="73"/>
+      <c r="AY24" s="73"/>
+      <c r="AZ24" s="73"/>
+      <c r="BA24" s="73"/>
+      <c r="BB24" s="73"/>
+      <c r="BC24" s="73"/>
+      <c r="BD24" s="73"/>
+      <c r="BE24" s="73"/>
+      <c r="BF24" s="73"/>
+      <c r="BG24" s="73"/>
+      <c r="BH24" s="73"/>
+      <c r="BI24" s="73"/>
+      <c r="BJ24" s="73"/>
       <c r="BK24" s="2"/>
       <c r="BL24" s="16"/>
     </row>
     <row r="25" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="16"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="73" t="s">
+      <c r="C25" s="71" t="s">
         <v>175</v>
       </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="79" t="s">
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="72" t="s">
         <v>183</v>
       </c>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="79"/>
-      <c r="O25" s="79"/>
-      <c r="P25" s="79"/>
-      <c r="Q25" s="79"/>
-      <c r="R25" s="79"/>
-      <c r="S25" s="79"/>
-      <c r="T25" s="79"/>
-      <c r="U25" s="79"/>
-      <c r="V25" s="79"/>
-      <c r="W25" s="79"/>
-      <c r="X25" s="79"/>
-      <c r="Y25" s="79"/>
-      <c r="Z25" s="79"/>
-      <c r="AA25" s="79"/>
-      <c r="AB25" s="79"/>
-      <c r="AC25" s="79"/>
-      <c r="AD25" s="79"/>
-      <c r="AE25" s="79"/>
-      <c r="AF25" s="79"/>
-      <c r="AG25" s="79"/>
-      <c r="AH25" s="79"/>
-      <c r="AI25" s="79"/>
-      <c r="AJ25" s="79"/>
-      <c r="AK25" s="79"/>
-      <c r="AL25" s="77"/>
-      <c r="AM25" s="77"/>
-      <c r="AN25" s="77"/>
-      <c r="AO25" s="77"/>
-      <c r="AP25" s="77"/>
-      <c r="AQ25" s="77"/>
-      <c r="AR25" s="77"/>
-      <c r="AS25" s="77"/>
-      <c r="AT25" s="77"/>
-      <c r="AU25" s="77"/>
-      <c r="AV25" s="77"/>
-      <c r="AW25" s="77"/>
-      <c r="AX25" s="77"/>
-      <c r="AY25" s="77"/>
-      <c r="AZ25" s="77"/>
-      <c r="BA25" s="77"/>
-      <c r="BB25" s="77"/>
-      <c r="BC25" s="77"/>
-      <c r="BD25" s="77"/>
-      <c r="BE25" s="77"/>
-      <c r="BF25" s="77"/>
-      <c r="BG25" s="77"/>
-      <c r="BH25" s="77"/>
-      <c r="BI25" s="77"/>
-      <c r="BJ25" s="77"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="72"/>
+      <c r="Q25" s="72"/>
+      <c r="R25" s="72"/>
+      <c r="S25" s="72"/>
+      <c r="T25" s="72"/>
+      <c r="U25" s="72"/>
+      <c r="V25" s="72"/>
+      <c r="W25" s="72"/>
+      <c r="X25" s="72"/>
+      <c r="Y25" s="72"/>
+      <c r="Z25" s="72"/>
+      <c r="AA25" s="72"/>
+      <c r="AB25" s="72"/>
+      <c r="AC25" s="72"/>
+      <c r="AD25" s="72"/>
+      <c r="AE25" s="72"/>
+      <c r="AF25" s="72"/>
+      <c r="AG25" s="72"/>
+      <c r="AH25" s="72"/>
+      <c r="AI25" s="72"/>
+      <c r="AJ25" s="72"/>
+      <c r="AK25" s="72"/>
+      <c r="AL25" s="73"/>
+      <c r="AM25" s="73"/>
+      <c r="AN25" s="73"/>
+      <c r="AO25" s="73"/>
+      <c r="AP25" s="73"/>
+      <c r="AQ25" s="73"/>
+      <c r="AR25" s="73"/>
+      <c r="AS25" s="73"/>
+      <c r="AT25" s="73"/>
+      <c r="AU25" s="73"/>
+      <c r="AV25" s="73"/>
+      <c r="AW25" s="73"/>
+      <c r="AX25" s="73"/>
+      <c r="AY25" s="73"/>
+      <c r="AZ25" s="73"/>
+      <c r="BA25" s="73"/>
+      <c r="BB25" s="73"/>
+      <c r="BC25" s="73"/>
+      <c r="BD25" s="73"/>
+      <c r="BE25" s="73"/>
+      <c r="BF25" s="73"/>
+      <c r="BG25" s="73"/>
+      <c r="BH25" s="73"/>
+      <c r="BI25" s="73"/>
+      <c r="BJ25" s="73"/>
       <c r="BK25" s="2"/>
       <c r="BL25" s="16"/>
     </row>
     <row r="26" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="73" t="s">
+      <c r="C26" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="79" t="s">
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="72" t="s">
         <v>180</v>
       </c>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="79"/>
-      <c r="P26" s="79"/>
-      <c r="Q26" s="79"/>
-      <c r="R26" s="79"/>
-      <c r="S26" s="79"/>
-      <c r="T26" s="79"/>
-      <c r="U26" s="79"/>
-      <c r="V26" s="79"/>
-      <c r="W26" s="79"/>
-      <c r="X26" s="79"/>
-      <c r="Y26" s="79"/>
-      <c r="Z26" s="79"/>
-      <c r="AA26" s="79"/>
-      <c r="AB26" s="79"/>
-      <c r="AC26" s="79"/>
-      <c r="AD26" s="79"/>
-      <c r="AE26" s="79"/>
-      <c r="AF26" s="79"/>
-      <c r="AG26" s="79"/>
-      <c r="AH26" s="79"/>
-      <c r="AI26" s="79"/>
-      <c r="AJ26" s="79"/>
-      <c r="AK26" s="79"/>
-      <c r="AL26" s="77"/>
-      <c r="AM26" s="77"/>
-      <c r="AN26" s="77"/>
-      <c r="AO26" s="77"/>
-      <c r="AP26" s="77"/>
-      <c r="AQ26" s="77"/>
-      <c r="AR26" s="77"/>
-      <c r="AS26" s="77"/>
-      <c r="AT26" s="77"/>
-      <c r="AU26" s="77"/>
-      <c r="AV26" s="77"/>
-      <c r="AW26" s="77"/>
-      <c r="AX26" s="77"/>
-      <c r="AY26" s="77"/>
-      <c r="AZ26" s="77"/>
-      <c r="BA26" s="77"/>
-      <c r="BB26" s="77"/>
-      <c r="BC26" s="77"/>
-      <c r="BD26" s="77"/>
-      <c r="BE26" s="77"/>
-      <c r="BF26" s="77"/>
-      <c r="BG26" s="77"/>
-      <c r="BH26" s="77"/>
-      <c r="BI26" s="77"/>
-      <c r="BJ26" s="77"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="72"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="72"/>
+      <c r="S26" s="72"/>
+      <c r="T26" s="72"/>
+      <c r="U26" s="72"/>
+      <c r="V26" s="72"/>
+      <c r="W26" s="72"/>
+      <c r="X26" s="72"/>
+      <c r="Y26" s="72"/>
+      <c r="Z26" s="72"/>
+      <c r="AA26" s="72"/>
+      <c r="AB26" s="72"/>
+      <c r="AC26" s="72"/>
+      <c r="AD26" s="72"/>
+      <c r="AE26" s="72"/>
+      <c r="AF26" s="72"/>
+      <c r="AG26" s="72"/>
+      <c r="AH26" s="72"/>
+      <c r="AI26" s="72"/>
+      <c r="AJ26" s="72"/>
+      <c r="AK26" s="72"/>
+      <c r="AL26" s="73"/>
+      <c r="AM26" s="73"/>
+      <c r="AN26" s="73"/>
+      <c r="AO26" s="73"/>
+      <c r="AP26" s="73"/>
+      <c r="AQ26" s="73"/>
+      <c r="AR26" s="73"/>
+      <c r="AS26" s="73"/>
+      <c r="AT26" s="73"/>
+      <c r="AU26" s="73"/>
+      <c r="AV26" s="73"/>
+      <c r="AW26" s="73"/>
+      <c r="AX26" s="73"/>
+      <c r="AY26" s="73"/>
+      <c r="AZ26" s="73"/>
+      <c r="BA26" s="73"/>
+      <c r="BB26" s="73"/>
+      <c r="BC26" s="73"/>
+      <c r="BD26" s="73"/>
+      <c r="BE26" s="73"/>
+      <c r="BF26" s="73"/>
+      <c r="BG26" s="73"/>
+      <c r="BH26" s="73"/>
+      <c r="BI26" s="73"/>
+      <c r="BJ26" s="73"/>
       <c r="BK26" s="2"/>
       <c r="BL26" s="16"/>
     </row>
     <row r="27" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="16"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="73" t="s">
+      <c r="C27" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="79" t="s">
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="72" t="s">
         <v>182</v>
       </c>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="79"/>
-      <c r="P27" s="79"/>
-      <c r="Q27" s="79"/>
-      <c r="R27" s="79"/>
-      <c r="S27" s="79"/>
-      <c r="T27" s="79"/>
-      <c r="U27" s="79"/>
-      <c r="V27" s="79"/>
-      <c r="W27" s="79"/>
-      <c r="X27" s="79"/>
-      <c r="Y27" s="79"/>
-      <c r="Z27" s="79"/>
-      <c r="AA27" s="79"/>
-      <c r="AB27" s="79"/>
-      <c r="AC27" s="79"/>
-      <c r="AD27" s="79"/>
-      <c r="AE27" s="79"/>
-      <c r="AF27" s="79"/>
-      <c r="AG27" s="79"/>
-      <c r="AH27" s="79"/>
-      <c r="AI27" s="79"/>
-      <c r="AJ27" s="79"/>
-      <c r="AK27" s="79"/>
-      <c r="AL27" s="77"/>
-      <c r="AM27" s="77"/>
-      <c r="AN27" s="77"/>
-      <c r="AO27" s="77"/>
-      <c r="AP27" s="77"/>
-      <c r="AQ27" s="77"/>
-      <c r="AR27" s="77"/>
-      <c r="AS27" s="77"/>
-      <c r="AT27" s="77"/>
-      <c r="AU27" s="77"/>
-      <c r="AV27" s="77"/>
-      <c r="AW27" s="77"/>
-      <c r="AX27" s="77"/>
-      <c r="AY27" s="77"/>
-      <c r="AZ27" s="77"/>
-      <c r="BA27" s="77"/>
-      <c r="BB27" s="77"/>
-      <c r="BC27" s="77"/>
-      <c r="BD27" s="77"/>
-      <c r="BE27" s="77"/>
-      <c r="BF27" s="77"/>
-      <c r="BG27" s="77"/>
-      <c r="BH27" s="77"/>
-      <c r="BI27" s="77"/>
-      <c r="BJ27" s="77"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="72"/>
+      <c r="Q27" s="72"/>
+      <c r="R27" s="72"/>
+      <c r="S27" s="72"/>
+      <c r="T27" s="72"/>
+      <c r="U27" s="72"/>
+      <c r="V27" s="72"/>
+      <c r="W27" s="72"/>
+      <c r="X27" s="72"/>
+      <c r="Y27" s="72"/>
+      <c r="Z27" s="72"/>
+      <c r="AA27" s="72"/>
+      <c r="AB27" s="72"/>
+      <c r="AC27" s="72"/>
+      <c r="AD27" s="72"/>
+      <c r="AE27" s="72"/>
+      <c r="AF27" s="72"/>
+      <c r="AG27" s="72"/>
+      <c r="AH27" s="72"/>
+      <c r="AI27" s="72"/>
+      <c r="AJ27" s="72"/>
+      <c r="AK27" s="72"/>
+      <c r="AL27" s="73"/>
+      <c r="AM27" s="73"/>
+      <c r="AN27" s="73"/>
+      <c r="AO27" s="73"/>
+      <c r="AP27" s="73"/>
+      <c r="AQ27" s="73"/>
+      <c r="AR27" s="73"/>
+      <c r="AS27" s="73"/>
+      <c r="AT27" s="73"/>
+      <c r="AU27" s="73"/>
+      <c r="AV27" s="73"/>
+      <c r="AW27" s="73"/>
+      <c r="AX27" s="73"/>
+      <c r="AY27" s="73"/>
+      <c r="AZ27" s="73"/>
+      <c r="BA27" s="73"/>
+      <c r="BB27" s="73"/>
+      <c r="BC27" s="73"/>
+      <c r="BD27" s="73"/>
+      <c r="BE27" s="73"/>
+      <c r="BF27" s="73"/>
+      <c r="BG27" s="73"/>
+      <c r="BH27" s="73"/>
+      <c r="BI27" s="73"/>
+      <c r="BJ27" s="73"/>
       <c r="BK27" s="2"/>
       <c r="BL27" s="16"/>
     </row>
     <row r="28" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="16"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="73" t="s">
+      <c r="C28" s="71" t="s">
         <v>185</v>
       </c>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="79" t="s">
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="79"/>
-      <c r="O28" s="79"/>
-      <c r="P28" s="79"/>
-      <c r="Q28" s="79"/>
-      <c r="R28" s="79"/>
-      <c r="S28" s="79"/>
-      <c r="T28" s="79"/>
-      <c r="U28" s="79"/>
-      <c r="V28" s="79"/>
-      <c r="W28" s="79"/>
-      <c r="X28" s="79"/>
-      <c r="Y28" s="79"/>
-      <c r="Z28" s="79"/>
-      <c r="AA28" s="79"/>
-      <c r="AB28" s="79"/>
-      <c r="AC28" s="79"/>
-      <c r="AD28" s="79"/>
-      <c r="AE28" s="79"/>
-      <c r="AF28" s="79"/>
-      <c r="AG28" s="79"/>
-      <c r="AH28" s="79"/>
-      <c r="AI28" s="79"/>
-      <c r="AJ28" s="79"/>
-      <c r="AK28" s="79"/>
-      <c r="AL28" s="77"/>
-      <c r="AM28" s="77"/>
-      <c r="AN28" s="77"/>
-      <c r="AO28" s="77"/>
-      <c r="AP28" s="77"/>
-      <c r="AQ28" s="77"/>
-      <c r="AR28" s="77"/>
-      <c r="AS28" s="77"/>
-      <c r="AT28" s="77"/>
-      <c r="AU28" s="77"/>
-      <c r="AV28" s="77"/>
-      <c r="AW28" s="77"/>
-      <c r="AX28" s="77"/>
-      <c r="AY28" s="77"/>
-      <c r="AZ28" s="77"/>
-      <c r="BA28" s="77"/>
-      <c r="BB28" s="77"/>
-      <c r="BC28" s="77"/>
-      <c r="BD28" s="77"/>
-      <c r="BE28" s="77"/>
-      <c r="BF28" s="77"/>
-      <c r="BG28" s="77"/>
-      <c r="BH28" s="77"/>
-      <c r="BI28" s="77"/>
-      <c r="BJ28" s="77"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="72"/>
+      <c r="Q28" s="72"/>
+      <c r="R28" s="72"/>
+      <c r="S28" s="72"/>
+      <c r="T28" s="72"/>
+      <c r="U28" s="72"/>
+      <c r="V28" s="72"/>
+      <c r="W28" s="72"/>
+      <c r="X28" s="72"/>
+      <c r="Y28" s="72"/>
+      <c r="Z28" s="72"/>
+      <c r="AA28" s="72"/>
+      <c r="AB28" s="72"/>
+      <c r="AC28" s="72"/>
+      <c r="AD28" s="72"/>
+      <c r="AE28" s="72"/>
+      <c r="AF28" s="72"/>
+      <c r="AG28" s="72"/>
+      <c r="AH28" s="72"/>
+      <c r="AI28" s="72"/>
+      <c r="AJ28" s="72"/>
+      <c r="AK28" s="72"/>
+      <c r="AL28" s="73"/>
+      <c r="AM28" s="73"/>
+      <c r="AN28" s="73"/>
+      <c r="AO28" s="73"/>
+      <c r="AP28" s="73"/>
+      <c r="AQ28" s="73"/>
+      <c r="AR28" s="73"/>
+      <c r="AS28" s="73"/>
+      <c r="AT28" s="73"/>
+      <c r="AU28" s="73"/>
+      <c r="AV28" s="73"/>
+      <c r="AW28" s="73"/>
+      <c r="AX28" s="73"/>
+      <c r="AY28" s="73"/>
+      <c r="AZ28" s="73"/>
+      <c r="BA28" s="73"/>
+      <c r="BB28" s="73"/>
+      <c r="BC28" s="73"/>
+      <c r="BD28" s="73"/>
+      <c r="BE28" s="73"/>
+      <c r="BF28" s="73"/>
+      <c r="BG28" s="73"/>
+      <c r="BH28" s="73"/>
+      <c r="BI28" s="73"/>
+      <c r="BJ28" s="73"/>
       <c r="BK28" s="2"/>
       <c r="BL28" s="16"/>
     </row>
     <row r="29" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="16"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="73" t="s">
+      <c r="C29" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="79" t="s">
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="72" t="s">
         <v>196</v>
       </c>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="79"/>
-      <c r="L29" s="79"/>
-      <c r="M29" s="79"/>
-      <c r="N29" s="79"/>
-      <c r="O29" s="79"/>
-      <c r="P29" s="79"/>
-      <c r="Q29" s="79"/>
-      <c r="R29" s="79"/>
-      <c r="S29" s="79"/>
-      <c r="T29" s="79"/>
-      <c r="U29" s="79"/>
-      <c r="V29" s="79"/>
-      <c r="W29" s="79"/>
-      <c r="X29" s="79"/>
-      <c r="Y29" s="79"/>
-      <c r="Z29" s="79"/>
-      <c r="AA29" s="79"/>
-      <c r="AB29" s="79"/>
-      <c r="AC29" s="79"/>
-      <c r="AD29" s="79"/>
-      <c r="AE29" s="79"/>
-      <c r="AF29" s="79"/>
-      <c r="AG29" s="79"/>
-      <c r="AH29" s="79"/>
-      <c r="AI29" s="79"/>
-      <c r="AJ29" s="79"/>
-      <c r="AK29" s="79"/>
-      <c r="AL29" s="77"/>
-      <c r="AM29" s="77"/>
-      <c r="AN29" s="77"/>
-      <c r="AO29" s="77"/>
-      <c r="AP29" s="77"/>
-      <c r="AQ29" s="77"/>
-      <c r="AR29" s="77"/>
-      <c r="AS29" s="77"/>
-      <c r="AT29" s="77"/>
-      <c r="AU29" s="77"/>
-      <c r="AV29" s="77"/>
-      <c r="AW29" s="77"/>
-      <c r="AX29" s="77"/>
-      <c r="AY29" s="77"/>
-      <c r="AZ29" s="77"/>
-      <c r="BA29" s="77"/>
-      <c r="BB29" s="77"/>
-      <c r="BC29" s="77"/>
-      <c r="BD29" s="77"/>
-      <c r="BE29" s="77"/>
-      <c r="BF29" s="77"/>
-      <c r="BG29" s="77"/>
-      <c r="BH29" s="77"/>
-      <c r="BI29" s="77"/>
-      <c r="BJ29" s="77"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="72"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="72"/>
+      <c r="V29" s="72"/>
+      <c r="W29" s="72"/>
+      <c r="X29" s="72"/>
+      <c r="Y29" s="72"/>
+      <c r="Z29" s="72"/>
+      <c r="AA29" s="72"/>
+      <c r="AB29" s="72"/>
+      <c r="AC29" s="72"/>
+      <c r="AD29" s="72"/>
+      <c r="AE29" s="72"/>
+      <c r="AF29" s="72"/>
+      <c r="AG29" s="72"/>
+      <c r="AH29" s="72"/>
+      <c r="AI29" s="72"/>
+      <c r="AJ29" s="72"/>
+      <c r="AK29" s="72"/>
+      <c r="AL29" s="73"/>
+      <c r="AM29" s="73"/>
+      <c r="AN29" s="73"/>
+      <c r="AO29" s="73"/>
+      <c r="AP29" s="73"/>
+      <c r="AQ29" s="73"/>
+      <c r="AR29" s="73"/>
+      <c r="AS29" s="73"/>
+      <c r="AT29" s="73"/>
+      <c r="AU29" s="73"/>
+      <c r="AV29" s="73"/>
+      <c r="AW29" s="73"/>
+      <c r="AX29" s="73"/>
+      <c r="AY29" s="73"/>
+      <c r="AZ29" s="73"/>
+      <c r="BA29" s="73"/>
+      <c r="BB29" s="73"/>
+      <c r="BC29" s="73"/>
+      <c r="BD29" s="73"/>
+      <c r="BE29" s="73"/>
+      <c r="BF29" s="73"/>
+      <c r="BG29" s="73"/>
+      <c r="BH29" s="73"/>
+      <c r="BI29" s="73"/>
+      <c r="BJ29" s="73"/>
       <c r="BK29" s="2"/>
       <c r="BL29" s="16"/>
     </row>
     <row r="30" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="16"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="73" t="s">
+      <c r="C30" s="71" t="s">
         <v>188</v>
       </c>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="79" t="s">
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="72" t="s">
         <v>197</v>
       </c>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="79"/>
-      <c r="K30" s="79"/>
-      <c r="L30" s="79"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="79"/>
-      <c r="O30" s="79"/>
-      <c r="P30" s="79"/>
-      <c r="Q30" s="79"/>
-      <c r="R30" s="79"/>
-      <c r="S30" s="79"/>
-      <c r="T30" s="79"/>
-      <c r="U30" s="79"/>
-      <c r="V30" s="79"/>
-      <c r="W30" s="79"/>
-      <c r="X30" s="79"/>
-      <c r="Y30" s="79"/>
-      <c r="Z30" s="79"/>
-      <c r="AA30" s="79"/>
-      <c r="AB30" s="79"/>
-      <c r="AC30" s="79"/>
-      <c r="AD30" s="79"/>
-      <c r="AE30" s="79"/>
-      <c r="AF30" s="79"/>
-      <c r="AG30" s="79"/>
-      <c r="AH30" s="79"/>
-      <c r="AI30" s="79"/>
-      <c r="AJ30" s="79"/>
-      <c r="AK30" s="79"/>
-      <c r="AL30" s="77"/>
-      <c r="AM30" s="77"/>
-      <c r="AN30" s="77"/>
-      <c r="AO30" s="77"/>
-      <c r="AP30" s="77"/>
-      <c r="AQ30" s="77"/>
-      <c r="AR30" s="77"/>
-      <c r="AS30" s="77"/>
-      <c r="AT30" s="77"/>
-      <c r="AU30" s="77"/>
-      <c r="AV30" s="77"/>
-      <c r="AW30" s="77"/>
-      <c r="AX30" s="77"/>
-      <c r="AY30" s="77"/>
-      <c r="AZ30" s="77"/>
-      <c r="BA30" s="77"/>
-      <c r="BB30" s="77"/>
-      <c r="BC30" s="77"/>
-      <c r="BD30" s="77"/>
-      <c r="BE30" s="77"/>
-      <c r="BF30" s="77"/>
-      <c r="BG30" s="77"/>
-      <c r="BH30" s="77"/>
-      <c r="BI30" s="77"/>
-      <c r="BJ30" s="77"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
+      <c r="P30" s="72"/>
+      <c r="Q30" s="72"/>
+      <c r="R30" s="72"/>
+      <c r="S30" s="72"/>
+      <c r="T30" s="72"/>
+      <c r="U30" s="72"/>
+      <c r="V30" s="72"/>
+      <c r="W30" s="72"/>
+      <c r="X30" s="72"/>
+      <c r="Y30" s="72"/>
+      <c r="Z30" s="72"/>
+      <c r="AA30" s="72"/>
+      <c r="AB30" s="72"/>
+      <c r="AC30" s="72"/>
+      <c r="AD30" s="72"/>
+      <c r="AE30" s="72"/>
+      <c r="AF30" s="72"/>
+      <c r="AG30" s="72"/>
+      <c r="AH30" s="72"/>
+      <c r="AI30" s="72"/>
+      <c r="AJ30" s="72"/>
+      <c r="AK30" s="72"/>
+      <c r="AL30" s="73"/>
+      <c r="AM30" s="73"/>
+      <c r="AN30" s="73"/>
+      <c r="AO30" s="73"/>
+      <c r="AP30" s="73"/>
+      <c r="AQ30" s="73"/>
+      <c r="AR30" s="73"/>
+      <c r="AS30" s="73"/>
+      <c r="AT30" s="73"/>
+      <c r="AU30" s="73"/>
+      <c r="AV30" s="73"/>
+      <c r="AW30" s="73"/>
+      <c r="AX30" s="73"/>
+      <c r="AY30" s="73"/>
+      <c r="AZ30" s="73"/>
+      <c r="BA30" s="73"/>
+      <c r="BB30" s="73"/>
+      <c r="BC30" s="73"/>
+      <c r="BD30" s="73"/>
+      <c r="BE30" s="73"/>
+      <c r="BF30" s="73"/>
+      <c r="BG30" s="73"/>
+      <c r="BH30" s="73"/>
+      <c r="BI30" s="73"/>
+      <c r="BJ30" s="73"/>
       <c r="BK30" s="2"/>
       <c r="BL30" s="16"/>
     </row>
     <row r="31" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="16"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="73" t="s">
+      <c r="C31" s="71" t="s">
         <v>189</v>
       </c>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="79" t="s">
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="72" t="s">
         <v>195</v>
       </c>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="79"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="79"/>
-      <c r="M31" s="79"/>
-      <c r="N31" s="79"/>
-      <c r="O31" s="79"/>
-      <c r="P31" s="79"/>
-      <c r="Q31" s="79"/>
-      <c r="R31" s="79"/>
-      <c r="S31" s="79"/>
-      <c r="T31" s="79"/>
-      <c r="U31" s="79"/>
-      <c r="V31" s="79"/>
-      <c r="W31" s="79"/>
-      <c r="X31" s="79"/>
-      <c r="Y31" s="79"/>
-      <c r="Z31" s="79"/>
-      <c r="AA31" s="79"/>
-      <c r="AB31" s="79"/>
-      <c r="AC31" s="79"/>
-      <c r="AD31" s="79"/>
-      <c r="AE31" s="79"/>
-      <c r="AF31" s="79"/>
-      <c r="AG31" s="79"/>
-      <c r="AH31" s="79"/>
-      <c r="AI31" s="79"/>
-      <c r="AJ31" s="79"/>
-      <c r="AK31" s="79"/>
-      <c r="AL31" s="77"/>
-      <c r="AM31" s="77"/>
-      <c r="AN31" s="77"/>
-      <c r="AO31" s="77"/>
-      <c r="AP31" s="77"/>
-      <c r="AQ31" s="77"/>
-      <c r="AR31" s="77"/>
-      <c r="AS31" s="77"/>
-      <c r="AT31" s="77"/>
-      <c r="AU31" s="77"/>
-      <c r="AV31" s="77"/>
-      <c r="AW31" s="77"/>
-      <c r="AX31" s="77"/>
-      <c r="AY31" s="77"/>
-      <c r="AZ31" s="77"/>
-      <c r="BA31" s="77"/>
-      <c r="BB31" s="77"/>
-      <c r="BC31" s="77"/>
-      <c r="BD31" s="77"/>
-      <c r="BE31" s="77"/>
-      <c r="BF31" s="77"/>
-      <c r="BG31" s="77"/>
-      <c r="BH31" s="77"/>
-      <c r="BI31" s="77"/>
-      <c r="BJ31" s="77"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="72"/>
+      <c r="P31" s="72"/>
+      <c r="Q31" s="72"/>
+      <c r="R31" s="72"/>
+      <c r="S31" s="72"/>
+      <c r="T31" s="72"/>
+      <c r="U31" s="72"/>
+      <c r="V31" s="72"/>
+      <c r="W31" s="72"/>
+      <c r="X31" s="72"/>
+      <c r="Y31" s="72"/>
+      <c r="Z31" s="72"/>
+      <c r="AA31" s="72"/>
+      <c r="AB31" s="72"/>
+      <c r="AC31" s="72"/>
+      <c r="AD31" s="72"/>
+      <c r="AE31" s="72"/>
+      <c r="AF31" s="72"/>
+      <c r="AG31" s="72"/>
+      <c r="AH31" s="72"/>
+      <c r="AI31" s="72"/>
+      <c r="AJ31" s="72"/>
+      <c r="AK31" s="72"/>
+      <c r="AL31" s="73"/>
+      <c r="AM31" s="73"/>
+      <c r="AN31" s="73"/>
+      <c r="AO31" s="73"/>
+      <c r="AP31" s="73"/>
+      <c r="AQ31" s="73"/>
+      <c r="AR31" s="73"/>
+      <c r="AS31" s="73"/>
+      <c r="AT31" s="73"/>
+      <c r="AU31" s="73"/>
+      <c r="AV31" s="73"/>
+      <c r="AW31" s="73"/>
+      <c r="AX31" s="73"/>
+      <c r="AY31" s="73"/>
+      <c r="AZ31" s="73"/>
+      <c r="BA31" s="73"/>
+      <c r="BB31" s="73"/>
+      <c r="BC31" s="73"/>
+      <c r="BD31" s="73"/>
+      <c r="BE31" s="73"/>
+      <c r="BF31" s="73"/>
+      <c r="BG31" s="73"/>
+      <c r="BH31" s="73"/>
+      <c r="BI31" s="73"/>
+      <c r="BJ31" s="73"/>
       <c r="BK31" s="2"/>
       <c r="BL31" s="16"/>
     </row>
     <row r="32" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="16"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="73" t="s">
+      <c r="C32" s="71" t="s">
         <v>190</v>
       </c>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="79" t="s">
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
-      <c r="I32" s="79"/>
-      <c r="J32" s="79"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="79"/>
-      <c r="M32" s="79"/>
-      <c r="N32" s="79"/>
-      <c r="O32" s="79"/>
-      <c r="P32" s="79"/>
-      <c r="Q32" s="79"/>
-      <c r="R32" s="79"/>
-      <c r="S32" s="79"/>
-      <c r="T32" s="79"/>
-      <c r="U32" s="79"/>
-      <c r="V32" s="79"/>
-      <c r="W32" s="79"/>
-      <c r="X32" s="79"/>
-      <c r="Y32" s="79"/>
-      <c r="Z32" s="79"/>
-      <c r="AA32" s="79"/>
-      <c r="AB32" s="79"/>
-      <c r="AC32" s="79"/>
-      <c r="AD32" s="79"/>
-      <c r="AE32" s="79"/>
-      <c r="AF32" s="79"/>
-      <c r="AG32" s="79"/>
-      <c r="AH32" s="79"/>
-      <c r="AI32" s="79"/>
-      <c r="AJ32" s="79"/>
-      <c r="AK32" s="79"/>
-      <c r="AL32" s="77"/>
-      <c r="AM32" s="77"/>
-      <c r="AN32" s="77"/>
-      <c r="AO32" s="77"/>
-      <c r="AP32" s="77"/>
-      <c r="AQ32" s="77"/>
-      <c r="AR32" s="77"/>
-      <c r="AS32" s="77"/>
-      <c r="AT32" s="77"/>
-      <c r="AU32" s="77"/>
-      <c r="AV32" s="77"/>
-      <c r="AW32" s="77"/>
-      <c r="AX32" s="77"/>
-      <c r="AY32" s="77"/>
-      <c r="AZ32" s="77"/>
-      <c r="BA32" s="77"/>
-      <c r="BB32" s="77"/>
-      <c r="BC32" s="77"/>
-      <c r="BD32" s="77"/>
-      <c r="BE32" s="77"/>
-      <c r="BF32" s="77"/>
-      <c r="BG32" s="77"/>
-      <c r="BH32" s="77"/>
-      <c r="BI32" s="77"/>
-      <c r="BJ32" s="77"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="72"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="72"/>
+      <c r="Q32" s="72"/>
+      <c r="R32" s="72"/>
+      <c r="S32" s="72"/>
+      <c r="T32" s="72"/>
+      <c r="U32" s="72"/>
+      <c r="V32" s="72"/>
+      <c r="W32" s="72"/>
+      <c r="X32" s="72"/>
+      <c r="Y32" s="72"/>
+      <c r="Z32" s="72"/>
+      <c r="AA32" s="72"/>
+      <c r="AB32" s="72"/>
+      <c r="AC32" s="72"/>
+      <c r="AD32" s="72"/>
+      <c r="AE32" s="72"/>
+      <c r="AF32" s="72"/>
+      <c r="AG32" s="72"/>
+      <c r="AH32" s="72"/>
+      <c r="AI32" s="72"/>
+      <c r="AJ32" s="72"/>
+      <c r="AK32" s="72"/>
+      <c r="AL32" s="73"/>
+      <c r="AM32" s="73"/>
+      <c r="AN32" s="73"/>
+      <c r="AO32" s="73"/>
+      <c r="AP32" s="73"/>
+      <c r="AQ32" s="73"/>
+      <c r="AR32" s="73"/>
+      <c r="AS32" s="73"/>
+      <c r="AT32" s="73"/>
+      <c r="AU32" s="73"/>
+      <c r="AV32" s="73"/>
+      <c r="AW32" s="73"/>
+      <c r="AX32" s="73"/>
+      <c r="AY32" s="73"/>
+      <c r="AZ32" s="73"/>
+      <c r="BA32" s="73"/>
+      <c r="BB32" s="73"/>
+      <c r="BC32" s="73"/>
+      <c r="BD32" s="73"/>
+      <c r="BE32" s="73"/>
+      <c r="BF32" s="73"/>
+      <c r="BG32" s="73"/>
+      <c r="BH32" s="73"/>
+      <c r="BI32" s="73"/>
+      <c r="BJ32" s="73"/>
       <c r="BK32" s="2"/>
       <c r="BL32" s="16"/>
     </row>
     <row r="33" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="16"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="73" t="s">
+      <c r="C33" s="71" t="s">
         <v>191</v>
       </c>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="79" t="s">
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="79"/>
-      <c r="P33" s="79"/>
-      <c r="Q33" s="79"/>
-      <c r="R33" s="79"/>
-      <c r="S33" s="79"/>
-      <c r="T33" s="79"/>
-      <c r="U33" s="79"/>
-      <c r="V33" s="79"/>
-      <c r="W33" s="79"/>
-      <c r="X33" s="79"/>
-      <c r="Y33" s="79"/>
-      <c r="Z33" s="79"/>
-      <c r="AA33" s="79"/>
-      <c r="AB33" s="79"/>
-      <c r="AC33" s="79"/>
-      <c r="AD33" s="79"/>
-      <c r="AE33" s="79"/>
-      <c r="AF33" s="79"/>
-      <c r="AG33" s="79"/>
-      <c r="AH33" s="79"/>
-      <c r="AI33" s="79"/>
-      <c r="AJ33" s="79"/>
-      <c r="AK33" s="79"/>
-      <c r="AL33" s="77"/>
-      <c r="AM33" s="77"/>
-      <c r="AN33" s="77"/>
-      <c r="AO33" s="77"/>
-      <c r="AP33" s="77"/>
-      <c r="AQ33" s="77"/>
-      <c r="AR33" s="77"/>
-      <c r="AS33" s="77"/>
-      <c r="AT33" s="77"/>
-      <c r="AU33" s="77"/>
-      <c r="AV33" s="77"/>
-      <c r="AW33" s="77"/>
-      <c r="AX33" s="77"/>
-      <c r="AY33" s="77"/>
-      <c r="AZ33" s="77"/>
-      <c r="BA33" s="77"/>
-      <c r="BB33" s="77"/>
-      <c r="BC33" s="77"/>
-      <c r="BD33" s="77"/>
-      <c r="BE33" s="77"/>
-      <c r="BF33" s="77"/>
-      <c r="BG33" s="77"/>
-      <c r="BH33" s="77"/>
-      <c r="BI33" s="77"/>
-      <c r="BJ33" s="77"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="72"/>
+      <c r="P33" s="72"/>
+      <c r="Q33" s="72"/>
+      <c r="R33" s="72"/>
+      <c r="S33" s="72"/>
+      <c r="T33" s="72"/>
+      <c r="U33" s="72"/>
+      <c r="V33" s="72"/>
+      <c r="W33" s="72"/>
+      <c r="X33" s="72"/>
+      <c r="Y33" s="72"/>
+      <c r="Z33" s="72"/>
+      <c r="AA33" s="72"/>
+      <c r="AB33" s="72"/>
+      <c r="AC33" s="72"/>
+      <c r="AD33" s="72"/>
+      <c r="AE33" s="72"/>
+      <c r="AF33" s="72"/>
+      <c r="AG33" s="72"/>
+      <c r="AH33" s="72"/>
+      <c r="AI33" s="72"/>
+      <c r="AJ33" s="72"/>
+      <c r="AK33" s="72"/>
+      <c r="AL33" s="73"/>
+      <c r="AM33" s="73"/>
+      <c r="AN33" s="73"/>
+      <c r="AO33" s="73"/>
+      <c r="AP33" s="73"/>
+      <c r="AQ33" s="73"/>
+      <c r="AR33" s="73"/>
+      <c r="AS33" s="73"/>
+      <c r="AT33" s="73"/>
+      <c r="AU33" s="73"/>
+      <c r="AV33" s="73"/>
+      <c r="AW33" s="73"/>
+      <c r="AX33" s="73"/>
+      <c r="AY33" s="73"/>
+      <c r="AZ33" s="73"/>
+      <c r="BA33" s="73"/>
+      <c r="BB33" s="73"/>
+      <c r="BC33" s="73"/>
+      <c r="BD33" s="73"/>
+      <c r="BE33" s="73"/>
+      <c r="BF33" s="73"/>
+      <c r="BG33" s="73"/>
+      <c r="BH33" s="73"/>
+      <c r="BI33" s="73"/>
+      <c r="BJ33" s="73"/>
       <c r="BK33" s="2"/>
       <c r="BL33" s="16"/>
     </row>
     <row r="34" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="16"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="73" t="s">
+      <c r="C34" s="71" t="s">
         <v>192</v>
       </c>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="79" t="s">
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="72" t="s">
         <v>200</v>
       </c>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="79"/>
-      <c r="J34" s="79"/>
-      <c r="K34" s="79"/>
-      <c r="L34" s="79"/>
-      <c r="M34" s="79"/>
-      <c r="N34" s="79"/>
-      <c r="O34" s="79"/>
-      <c r="P34" s="79"/>
-      <c r="Q34" s="79"/>
-      <c r="R34" s="79"/>
-      <c r="S34" s="79"/>
-      <c r="T34" s="79"/>
-      <c r="U34" s="79"/>
-      <c r="V34" s="79"/>
-      <c r="W34" s="79"/>
-      <c r="X34" s="79"/>
-      <c r="Y34" s="79"/>
-      <c r="Z34" s="79"/>
-      <c r="AA34" s="79"/>
-      <c r="AB34" s="79"/>
-      <c r="AC34" s="79"/>
-      <c r="AD34" s="79"/>
-      <c r="AE34" s="79"/>
-      <c r="AF34" s="79"/>
-      <c r="AG34" s="79"/>
-      <c r="AH34" s="79"/>
-      <c r="AI34" s="79"/>
-      <c r="AJ34" s="79"/>
-      <c r="AK34" s="79"/>
-      <c r="AL34" s="77"/>
-      <c r="AM34" s="77"/>
-      <c r="AN34" s="77"/>
-      <c r="AO34" s="77"/>
-      <c r="AP34" s="77"/>
-      <c r="AQ34" s="77"/>
-      <c r="AR34" s="77"/>
-      <c r="AS34" s="77"/>
-      <c r="AT34" s="77"/>
-      <c r="AU34" s="77"/>
-      <c r="AV34" s="77"/>
-      <c r="AW34" s="77"/>
-      <c r="AX34" s="77"/>
-      <c r="AY34" s="77"/>
-      <c r="AZ34" s="77"/>
-      <c r="BA34" s="77"/>
-      <c r="BB34" s="77"/>
-      <c r="BC34" s="77"/>
-      <c r="BD34" s="77"/>
-      <c r="BE34" s="77"/>
-      <c r="BF34" s="77"/>
-      <c r="BG34" s="77"/>
-      <c r="BH34" s="77"/>
-      <c r="BI34" s="77"/>
-      <c r="BJ34" s="77"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="72"/>
+      <c r="Q34" s="72"/>
+      <c r="R34" s="72"/>
+      <c r="S34" s="72"/>
+      <c r="T34" s="72"/>
+      <c r="U34" s="72"/>
+      <c r="V34" s="72"/>
+      <c r="W34" s="72"/>
+      <c r="X34" s="72"/>
+      <c r="Y34" s="72"/>
+      <c r="Z34" s="72"/>
+      <c r="AA34" s="72"/>
+      <c r="AB34" s="72"/>
+      <c r="AC34" s="72"/>
+      <c r="AD34" s="72"/>
+      <c r="AE34" s="72"/>
+      <c r="AF34" s="72"/>
+      <c r="AG34" s="72"/>
+      <c r="AH34" s="72"/>
+      <c r="AI34" s="72"/>
+      <c r="AJ34" s="72"/>
+      <c r="AK34" s="72"/>
+      <c r="AL34" s="73"/>
+      <c r="AM34" s="73"/>
+      <c r="AN34" s="73"/>
+      <c r="AO34" s="73"/>
+      <c r="AP34" s="73"/>
+      <c r="AQ34" s="73"/>
+      <c r="AR34" s="73"/>
+      <c r="AS34" s="73"/>
+      <c r="AT34" s="73"/>
+      <c r="AU34" s="73"/>
+      <c r="AV34" s="73"/>
+      <c r="AW34" s="73"/>
+      <c r="AX34" s="73"/>
+      <c r="AY34" s="73"/>
+      <c r="AZ34" s="73"/>
+      <c r="BA34" s="73"/>
+      <c r="BB34" s="73"/>
+      <c r="BC34" s="73"/>
+      <c r="BD34" s="73"/>
+      <c r="BE34" s="73"/>
+      <c r="BF34" s="73"/>
+      <c r="BG34" s="73"/>
+      <c r="BH34" s="73"/>
+      <c r="BI34" s="73"/>
+      <c r="BJ34" s="73"/>
       <c r="BK34" s="2"/>
       <c r="BL34" s="16"/>
     </row>
     <row r="35" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="16"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="73" t="s">
+      <c r="C35" s="71" t="s">
         <v>193</v>
       </c>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="79" t="s">
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="G35" s="79"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="79"/>
-      <c r="J35" s="79"/>
-      <c r="K35" s="79"/>
-      <c r="L35" s="79"/>
-      <c r="M35" s="79"/>
-      <c r="N35" s="79"/>
-      <c r="O35" s="79"/>
-      <c r="P35" s="79"/>
-      <c r="Q35" s="79"/>
-      <c r="R35" s="79"/>
-      <c r="S35" s="79"/>
-      <c r="T35" s="79"/>
-      <c r="U35" s="79"/>
-      <c r="V35" s="79"/>
-      <c r="W35" s="79"/>
-      <c r="X35" s="79"/>
-      <c r="Y35" s="79"/>
-      <c r="Z35" s="79"/>
-      <c r="AA35" s="79"/>
-      <c r="AB35" s="79"/>
-      <c r="AC35" s="79"/>
-      <c r="AD35" s="79"/>
-      <c r="AE35" s="79"/>
-      <c r="AF35" s="79"/>
-      <c r="AG35" s="79"/>
-      <c r="AH35" s="79"/>
-      <c r="AI35" s="79"/>
-      <c r="AJ35" s="79"/>
-      <c r="AK35" s="79"/>
-      <c r="AL35" s="77"/>
-      <c r="AM35" s="77"/>
-      <c r="AN35" s="77"/>
-      <c r="AO35" s="77"/>
-      <c r="AP35" s="77"/>
-      <c r="AQ35" s="77"/>
-      <c r="AR35" s="77"/>
-      <c r="AS35" s="77"/>
-      <c r="AT35" s="77"/>
-      <c r="AU35" s="77"/>
-      <c r="AV35" s="77"/>
-      <c r="AW35" s="77"/>
-      <c r="AX35" s="77"/>
-      <c r="AY35" s="77"/>
-      <c r="AZ35" s="77"/>
-      <c r="BA35" s="77"/>
-      <c r="BB35" s="77"/>
-      <c r="BC35" s="77"/>
-      <c r="BD35" s="77"/>
-      <c r="BE35" s="77"/>
-      <c r="BF35" s="77"/>
-      <c r="BG35" s="77"/>
-      <c r="BH35" s="77"/>
-      <c r="BI35" s="77"/>
-      <c r="BJ35" s="77"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="72"/>
+      <c r="N35" s="72"/>
+      <c r="O35" s="72"/>
+      <c r="P35" s="72"/>
+      <c r="Q35" s="72"/>
+      <c r="R35" s="72"/>
+      <c r="S35" s="72"/>
+      <c r="T35" s="72"/>
+      <c r="U35" s="72"/>
+      <c r="V35" s="72"/>
+      <c r="W35" s="72"/>
+      <c r="X35" s="72"/>
+      <c r="Y35" s="72"/>
+      <c r="Z35" s="72"/>
+      <c r="AA35" s="72"/>
+      <c r="AB35" s="72"/>
+      <c r="AC35" s="72"/>
+      <c r="AD35" s="72"/>
+      <c r="AE35" s="72"/>
+      <c r="AF35" s="72"/>
+      <c r="AG35" s="72"/>
+      <c r="AH35" s="72"/>
+      <c r="AI35" s="72"/>
+      <c r="AJ35" s="72"/>
+      <c r="AK35" s="72"/>
+      <c r="AL35" s="73"/>
+      <c r="AM35" s="73"/>
+      <c r="AN35" s="73"/>
+      <c r="AO35" s="73"/>
+      <c r="AP35" s="73"/>
+      <c r="AQ35" s="73"/>
+      <c r="AR35" s="73"/>
+      <c r="AS35" s="73"/>
+      <c r="AT35" s="73"/>
+      <c r="AU35" s="73"/>
+      <c r="AV35" s="73"/>
+      <c r="AW35" s="73"/>
+      <c r="AX35" s="73"/>
+      <c r="AY35" s="73"/>
+      <c r="AZ35" s="73"/>
+      <c r="BA35" s="73"/>
+      <c r="BB35" s="73"/>
+      <c r="BC35" s="73"/>
+      <c r="BD35" s="73"/>
+      <c r="BE35" s="73"/>
+      <c r="BF35" s="73"/>
+      <c r="BG35" s="73"/>
+      <c r="BH35" s="73"/>
+      <c r="BI35" s="73"/>
+      <c r="BJ35" s="73"/>
       <c r="BK35" s="2"/>
       <c r="BL35" s="16"/>
     </row>
     <row r="36" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="16"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="73" t="s">
+      <c r="C36" s="71" t="s">
         <v>194</v>
       </c>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="79" t="s">
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="79"/>
-      <c r="J36" s="79"/>
-      <c r="K36" s="79"/>
-      <c r="L36" s="79"/>
-      <c r="M36" s="79"/>
-      <c r="N36" s="79"/>
-      <c r="O36" s="79"/>
-      <c r="P36" s="79"/>
-      <c r="Q36" s="79"/>
-      <c r="R36" s="79"/>
-      <c r="S36" s="79"/>
-      <c r="T36" s="79"/>
-      <c r="U36" s="79"/>
-      <c r="V36" s="79"/>
-      <c r="W36" s="79"/>
-      <c r="X36" s="79"/>
-      <c r="Y36" s="79"/>
-      <c r="Z36" s="79"/>
-      <c r="AA36" s="79"/>
-      <c r="AB36" s="79"/>
-      <c r="AC36" s="79"/>
-      <c r="AD36" s="79"/>
-      <c r="AE36" s="79"/>
-      <c r="AF36" s="79"/>
-      <c r="AG36" s="79"/>
-      <c r="AH36" s="79"/>
-      <c r="AI36" s="79"/>
-      <c r="AJ36" s="79"/>
-      <c r="AK36" s="79"/>
-      <c r="AL36" s="77"/>
-      <c r="AM36" s="77"/>
-      <c r="AN36" s="77"/>
-      <c r="AO36" s="77"/>
-      <c r="AP36" s="77"/>
-      <c r="AQ36" s="77"/>
-      <c r="AR36" s="77"/>
-      <c r="AS36" s="77"/>
-      <c r="AT36" s="77"/>
-      <c r="AU36" s="77"/>
-      <c r="AV36" s="77"/>
-      <c r="AW36" s="77"/>
-      <c r="AX36" s="77"/>
-      <c r="AY36" s="77"/>
-      <c r="AZ36" s="77"/>
-      <c r="BA36" s="77"/>
-      <c r="BB36" s="77"/>
-      <c r="BC36" s="77"/>
-      <c r="BD36" s="77"/>
-      <c r="BE36" s="77"/>
-      <c r="BF36" s="77"/>
-      <c r="BG36" s="77"/>
-      <c r="BH36" s="77"/>
-      <c r="BI36" s="77"/>
-      <c r="BJ36" s="77"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="72"/>
+      <c r="O36" s="72"/>
+      <c r="P36" s="72"/>
+      <c r="Q36" s="72"/>
+      <c r="R36" s="72"/>
+      <c r="S36" s="72"/>
+      <c r="T36" s="72"/>
+      <c r="U36" s="72"/>
+      <c r="V36" s="72"/>
+      <c r="W36" s="72"/>
+      <c r="X36" s="72"/>
+      <c r="Y36" s="72"/>
+      <c r="Z36" s="72"/>
+      <c r="AA36" s="72"/>
+      <c r="AB36" s="72"/>
+      <c r="AC36" s="72"/>
+      <c r="AD36" s="72"/>
+      <c r="AE36" s="72"/>
+      <c r="AF36" s="72"/>
+      <c r="AG36" s="72"/>
+      <c r="AH36" s="72"/>
+      <c r="AI36" s="72"/>
+      <c r="AJ36" s="72"/>
+      <c r="AK36" s="72"/>
+      <c r="AL36" s="73"/>
+      <c r="AM36" s="73"/>
+      <c r="AN36" s="73"/>
+      <c r="AO36" s="73"/>
+      <c r="AP36" s="73"/>
+      <c r="AQ36" s="73"/>
+      <c r="AR36" s="73"/>
+      <c r="AS36" s="73"/>
+      <c r="AT36" s="73"/>
+      <c r="AU36" s="73"/>
+      <c r="AV36" s="73"/>
+      <c r="AW36" s="73"/>
+      <c r="AX36" s="73"/>
+      <c r="AY36" s="73"/>
+      <c r="AZ36" s="73"/>
+      <c r="BA36" s="73"/>
+      <c r="BB36" s="73"/>
+      <c r="BC36" s="73"/>
+      <c r="BD36" s="73"/>
+      <c r="BE36" s="73"/>
+      <c r="BF36" s="73"/>
+      <c r="BG36" s="73"/>
+      <c r="BH36" s="73"/>
+      <c r="BI36" s="73"/>
+      <c r="BJ36" s="73"/>
       <c r="BK36" s="2"/>
       <c r="BL36" s="16"/>
     </row>
     <row r="37" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="16"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="73" t="s">
+      <c r="C37" s="71" t="s">
         <v>205</v>
       </c>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="79" t="s">
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="72" t="s">
         <v>206</v>
       </c>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="79"/>
-      <c r="J37" s="79"/>
-      <c r="K37" s="79"/>
-      <c r="L37" s="79"/>
-      <c r="M37" s="79"/>
-      <c r="N37" s="79"/>
-      <c r="O37" s="79"/>
-      <c r="P37" s="79"/>
-      <c r="Q37" s="79"/>
-      <c r="R37" s="79"/>
-      <c r="S37" s="79"/>
-      <c r="T37" s="79"/>
-      <c r="U37" s="79"/>
-      <c r="V37" s="79"/>
-      <c r="W37" s="79"/>
-      <c r="X37" s="79"/>
-      <c r="Y37" s="79"/>
-      <c r="Z37" s="79"/>
-      <c r="AA37" s="79"/>
-      <c r="AB37" s="79"/>
-      <c r="AC37" s="79"/>
-      <c r="AD37" s="79"/>
-      <c r="AE37" s="79"/>
-      <c r="AF37" s="79"/>
-      <c r="AG37" s="79"/>
-      <c r="AH37" s="79"/>
-      <c r="AI37" s="79"/>
-      <c r="AJ37" s="79"/>
-      <c r="AK37" s="79"/>
-      <c r="AL37" s="77"/>
-      <c r="AM37" s="77"/>
-      <c r="AN37" s="77"/>
-      <c r="AO37" s="77"/>
-      <c r="AP37" s="77"/>
-      <c r="AQ37" s="77"/>
-      <c r="AR37" s="77"/>
-      <c r="AS37" s="77"/>
-      <c r="AT37" s="77"/>
-      <c r="AU37" s="77"/>
-      <c r="AV37" s="77"/>
-      <c r="AW37" s="77"/>
-      <c r="AX37" s="77"/>
-      <c r="AY37" s="77"/>
-      <c r="AZ37" s="77"/>
-      <c r="BA37" s="77"/>
-      <c r="BB37" s="77"/>
-      <c r="BC37" s="77"/>
-      <c r="BD37" s="77"/>
-      <c r="BE37" s="77"/>
-      <c r="BF37" s="77"/>
-      <c r="BG37" s="77"/>
-      <c r="BH37" s="77"/>
-      <c r="BI37" s="77"/>
-      <c r="BJ37" s="77"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="72"/>
+      <c r="O37" s="72"/>
+      <c r="P37" s="72"/>
+      <c r="Q37" s="72"/>
+      <c r="R37" s="72"/>
+      <c r="S37" s="72"/>
+      <c r="T37" s="72"/>
+      <c r="U37" s="72"/>
+      <c r="V37" s="72"/>
+      <c r="W37" s="72"/>
+      <c r="X37" s="72"/>
+      <c r="Y37" s="72"/>
+      <c r="Z37" s="72"/>
+      <c r="AA37" s="72"/>
+      <c r="AB37" s="72"/>
+      <c r="AC37" s="72"/>
+      <c r="AD37" s="72"/>
+      <c r="AE37" s="72"/>
+      <c r="AF37" s="72"/>
+      <c r="AG37" s="72"/>
+      <c r="AH37" s="72"/>
+      <c r="AI37" s="72"/>
+      <c r="AJ37" s="72"/>
+      <c r="AK37" s="72"/>
+      <c r="AL37" s="73"/>
+      <c r="AM37" s="73"/>
+      <c r="AN37" s="73"/>
+      <c r="AO37" s="73"/>
+      <c r="AP37" s="73"/>
+      <c r="AQ37" s="73"/>
+      <c r="AR37" s="73"/>
+      <c r="AS37" s="73"/>
+      <c r="AT37" s="73"/>
+      <c r="AU37" s="73"/>
+      <c r="AV37" s="73"/>
+      <c r="AW37" s="73"/>
+      <c r="AX37" s="73"/>
+      <c r="AY37" s="73"/>
+      <c r="AZ37" s="73"/>
+      <c r="BA37" s="73"/>
+      <c r="BB37" s="73"/>
+      <c r="BC37" s="73"/>
+      <c r="BD37" s="73"/>
+      <c r="BE37" s="73"/>
+      <c r="BF37" s="73"/>
+      <c r="BG37" s="73"/>
+      <c r="BH37" s="73"/>
+      <c r="BI37" s="73"/>
+      <c r="BJ37" s="73"/>
       <c r="BK37" s="2"/>
       <c r="BL37" s="16"/>
     </row>
     <row r="38" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="16"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="73" t="s">
+      <c r="C38" s="71" t="s">
         <v>207</v>
       </c>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="79" t="s">
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="72" t="s">
         <v>208</v>
       </c>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="79"/>
-      <c r="J38" s="79"/>
-      <c r="K38" s="79"/>
-      <c r="L38" s="79"/>
-      <c r="M38" s="79"/>
-      <c r="N38" s="79"/>
-      <c r="O38" s="79"/>
-      <c r="P38" s="79"/>
-      <c r="Q38" s="79"/>
-      <c r="R38" s="79"/>
-      <c r="S38" s="79"/>
-      <c r="T38" s="79"/>
-      <c r="U38" s="79"/>
-      <c r="V38" s="79"/>
-      <c r="W38" s="79"/>
-      <c r="X38" s="79"/>
-      <c r="Y38" s="79"/>
-      <c r="Z38" s="79"/>
-      <c r="AA38" s="79"/>
-      <c r="AB38" s="79"/>
-      <c r="AC38" s="79"/>
-      <c r="AD38" s="79"/>
-      <c r="AE38" s="79"/>
-      <c r="AF38" s="79"/>
-      <c r="AG38" s="79"/>
-      <c r="AH38" s="79"/>
-      <c r="AI38" s="79"/>
-      <c r="AJ38" s="79"/>
-      <c r="AK38" s="79"/>
-      <c r="AL38" s="77"/>
-      <c r="AM38" s="77"/>
-      <c r="AN38" s="77"/>
-      <c r="AO38" s="77"/>
-      <c r="AP38" s="77"/>
-      <c r="AQ38" s="77"/>
-      <c r="AR38" s="77"/>
-      <c r="AS38" s="77"/>
-      <c r="AT38" s="77"/>
-      <c r="AU38" s="77"/>
-      <c r="AV38" s="77"/>
-      <c r="AW38" s="77"/>
-      <c r="AX38" s="77"/>
-      <c r="AY38" s="77"/>
-      <c r="AZ38" s="77"/>
-      <c r="BA38" s="77"/>
-      <c r="BB38" s="77"/>
-      <c r="BC38" s="77"/>
-      <c r="BD38" s="77"/>
-      <c r="BE38" s="77"/>
-      <c r="BF38" s="77"/>
-      <c r="BG38" s="77"/>
-      <c r="BH38" s="77"/>
-      <c r="BI38" s="77"/>
-      <c r="BJ38" s="77"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="72"/>
+      <c r="N38" s="72"/>
+      <c r="O38" s="72"/>
+      <c r="P38" s="72"/>
+      <c r="Q38" s="72"/>
+      <c r="R38" s="72"/>
+      <c r="S38" s="72"/>
+      <c r="T38" s="72"/>
+      <c r="U38" s="72"/>
+      <c r="V38" s="72"/>
+      <c r="W38" s="72"/>
+      <c r="X38" s="72"/>
+      <c r="Y38" s="72"/>
+      <c r="Z38" s="72"/>
+      <c r="AA38" s="72"/>
+      <c r="AB38" s="72"/>
+      <c r="AC38" s="72"/>
+      <c r="AD38" s="72"/>
+      <c r="AE38" s="72"/>
+      <c r="AF38" s="72"/>
+      <c r="AG38" s="72"/>
+      <c r="AH38" s="72"/>
+      <c r="AI38" s="72"/>
+      <c r="AJ38" s="72"/>
+      <c r="AK38" s="72"/>
+      <c r="AL38" s="73"/>
+      <c r="AM38" s="73"/>
+      <c r="AN38" s="73"/>
+      <c r="AO38" s="73"/>
+      <c r="AP38" s="73"/>
+      <c r="AQ38" s="73"/>
+      <c r="AR38" s="73"/>
+      <c r="AS38" s="73"/>
+      <c r="AT38" s="73"/>
+      <c r="AU38" s="73"/>
+      <c r="AV38" s="73"/>
+      <c r="AW38" s="73"/>
+      <c r="AX38" s="73"/>
+      <c r="AY38" s="73"/>
+      <c r="AZ38" s="73"/>
+      <c r="BA38" s="73"/>
+      <c r="BB38" s="73"/>
+      <c r="BC38" s="73"/>
+      <c r="BD38" s="73"/>
+      <c r="BE38" s="73"/>
+      <c r="BF38" s="73"/>
+      <c r="BG38" s="73"/>
+      <c r="BH38" s="73"/>
+      <c r="BI38" s="73"/>
+      <c r="BJ38" s="73"/>
       <c r="BK38" s="2"/>
       <c r="BL38" s="16"/>
     </row>
     <row r="39" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="73" t="s">
+      <c r="C39" s="71" t="s">
         <v>209</v>
       </c>
-      <c r="D39" s="73"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="79" t="s">
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="79"/>
-      <c r="J39" s="79"/>
-      <c r="K39" s="79"/>
-      <c r="L39" s="79"/>
-      <c r="M39" s="79"/>
-      <c r="N39" s="79"/>
-      <c r="O39" s="79"/>
-      <c r="P39" s="79"/>
-      <c r="Q39" s="79"/>
-      <c r="R39" s="79"/>
-      <c r="S39" s="79"/>
-      <c r="T39" s="79"/>
-      <c r="U39" s="79"/>
-      <c r="V39" s="79"/>
-      <c r="W39" s="79"/>
-      <c r="X39" s="79"/>
-      <c r="Y39" s="79"/>
-      <c r="Z39" s="79"/>
-      <c r="AA39" s="79"/>
-      <c r="AB39" s="79"/>
-      <c r="AC39" s="79"/>
-      <c r="AD39" s="79"/>
-      <c r="AE39" s="79"/>
-      <c r="AF39" s="79"/>
-      <c r="AG39" s="79"/>
-      <c r="AH39" s="79"/>
-      <c r="AI39" s="79"/>
-      <c r="AJ39" s="79"/>
-      <c r="AK39" s="79"/>
-      <c r="AL39" s="77"/>
-      <c r="AM39" s="77"/>
-      <c r="AN39" s="77"/>
-      <c r="AO39" s="77"/>
-      <c r="AP39" s="77"/>
-      <c r="AQ39" s="77"/>
-      <c r="AR39" s="77"/>
-      <c r="AS39" s="77"/>
-      <c r="AT39" s="77"/>
-      <c r="AU39" s="77"/>
-      <c r="AV39" s="77"/>
-      <c r="AW39" s="77"/>
-      <c r="AX39" s="77"/>
-      <c r="AY39" s="77"/>
-      <c r="AZ39" s="77"/>
-      <c r="BA39" s="77"/>
-      <c r="BB39" s="77"/>
-      <c r="BC39" s="77"/>
-      <c r="BD39" s="77"/>
-      <c r="BE39" s="77"/>
-      <c r="BF39" s="77"/>
-      <c r="BG39" s="77"/>
-      <c r="BH39" s="77"/>
-      <c r="BI39" s="77"/>
-      <c r="BJ39" s="77"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="72"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="72"/>
+      <c r="P39" s="72"/>
+      <c r="Q39" s="72"/>
+      <c r="R39" s="72"/>
+      <c r="S39" s="72"/>
+      <c r="T39" s="72"/>
+      <c r="U39" s="72"/>
+      <c r="V39" s="72"/>
+      <c r="W39" s="72"/>
+      <c r="X39" s="72"/>
+      <c r="Y39" s="72"/>
+      <c r="Z39" s="72"/>
+      <c r="AA39" s="72"/>
+      <c r="AB39" s="72"/>
+      <c r="AC39" s="72"/>
+      <c r="AD39" s="72"/>
+      <c r="AE39" s="72"/>
+      <c r="AF39" s="72"/>
+      <c r="AG39" s="72"/>
+      <c r="AH39" s="72"/>
+      <c r="AI39" s="72"/>
+      <c r="AJ39" s="72"/>
+      <c r="AK39" s="72"/>
+      <c r="AL39" s="73"/>
+      <c r="AM39" s="73"/>
+      <c r="AN39" s="73"/>
+      <c r="AO39" s="73"/>
+      <c r="AP39" s="73"/>
+      <c r="AQ39" s="73"/>
+      <c r="AR39" s="73"/>
+      <c r="AS39" s="73"/>
+      <c r="AT39" s="73"/>
+      <c r="AU39" s="73"/>
+      <c r="AV39" s="73"/>
+      <c r="AW39" s="73"/>
+      <c r="AX39" s="73"/>
+      <c r="AY39" s="73"/>
+      <c r="AZ39" s="73"/>
+      <c r="BA39" s="73"/>
+      <c r="BB39" s="73"/>
+      <c r="BC39" s="73"/>
+      <c r="BD39" s="73"/>
+      <c r="BE39" s="73"/>
+      <c r="BF39" s="73"/>
+      <c r="BG39" s="73"/>
+      <c r="BH39" s="73"/>
+      <c r="BI39" s="73"/>
+      <c r="BJ39" s="73"/>
       <c r="BK39" s="2"/>
       <c r="BL39" s="16"/>
     </row>
     <row r="40" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="16"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79"/>
-      <c r="I40" s="79"/>
-      <c r="J40" s="79"/>
-      <c r="K40" s="79"/>
-      <c r="L40" s="79"/>
-      <c r="M40" s="79"/>
-      <c r="N40" s="79"/>
-      <c r="O40" s="79"/>
-      <c r="P40" s="79"/>
-      <c r="Q40" s="79"/>
-      <c r="R40" s="79"/>
-      <c r="S40" s="79"/>
-      <c r="T40" s="79"/>
-      <c r="U40" s="79"/>
-      <c r="V40" s="79"/>
-      <c r="W40" s="79"/>
-      <c r="X40" s="79"/>
-      <c r="Y40" s="79"/>
-      <c r="Z40" s="79"/>
-      <c r="AA40" s="79"/>
-      <c r="AB40" s="79"/>
-      <c r="AC40" s="79"/>
-      <c r="AD40" s="79"/>
-      <c r="AE40" s="79"/>
-      <c r="AF40" s="79"/>
-      <c r="AG40" s="79"/>
-      <c r="AH40" s="79"/>
-      <c r="AI40" s="79"/>
-      <c r="AJ40" s="79"/>
-      <c r="AK40" s="79"/>
-      <c r="AL40" s="77"/>
-      <c r="AM40" s="77"/>
-      <c r="AN40" s="77"/>
-      <c r="AO40" s="77"/>
-      <c r="AP40" s="77"/>
-      <c r="AQ40" s="77"/>
-      <c r="AR40" s="77"/>
-      <c r="AS40" s="77"/>
-      <c r="AT40" s="77"/>
-      <c r="AU40" s="77"/>
-      <c r="AV40" s="77"/>
-      <c r="AW40" s="77"/>
-      <c r="AX40" s="77"/>
-      <c r="AY40" s="77"/>
-      <c r="AZ40" s="77"/>
-      <c r="BA40" s="77"/>
-      <c r="BB40" s="77"/>
-      <c r="BC40" s="77"/>
-      <c r="BD40" s="77"/>
-      <c r="BE40" s="77"/>
-      <c r="BF40" s="77"/>
-      <c r="BG40" s="77"/>
-      <c r="BH40" s="77"/>
-      <c r="BI40" s="77"/>
-      <c r="BJ40" s="77"/>
+      <c r="C40" s="71" t="s">
+        <v>211</v>
+      </c>
+      <c r="D40" s="71"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="72" t="s">
+        <v>212</v>
+      </c>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="72"/>
+      <c r="N40" s="72"/>
+      <c r="O40" s="72"/>
+      <c r="P40" s="72"/>
+      <c r="Q40" s="72"/>
+      <c r="R40" s="72"/>
+      <c r="S40" s="72"/>
+      <c r="T40" s="72"/>
+      <c r="U40" s="72"/>
+      <c r="V40" s="72"/>
+      <c r="W40" s="72"/>
+      <c r="X40" s="72"/>
+      <c r="Y40" s="72"/>
+      <c r="Z40" s="72"/>
+      <c r="AA40" s="72"/>
+      <c r="AB40" s="72"/>
+      <c r="AC40" s="72"/>
+      <c r="AD40" s="72"/>
+      <c r="AE40" s="72"/>
+      <c r="AF40" s="72"/>
+      <c r="AG40" s="72"/>
+      <c r="AH40" s="72"/>
+      <c r="AI40" s="72"/>
+      <c r="AJ40" s="72"/>
+      <c r="AK40" s="72"/>
+      <c r="AL40" s="73"/>
+      <c r="AM40" s="73"/>
+      <c r="AN40" s="73"/>
+      <c r="AO40" s="73"/>
+      <c r="AP40" s="73"/>
+      <c r="AQ40" s="73"/>
+      <c r="AR40" s="73"/>
+      <c r="AS40" s="73"/>
+      <c r="AT40" s="73"/>
+      <c r="AU40" s="73"/>
+      <c r="AV40" s="73"/>
+      <c r="AW40" s="73"/>
+      <c r="AX40" s="73"/>
+      <c r="AY40" s="73"/>
+      <c r="AZ40" s="73"/>
+      <c r="BA40" s="73"/>
+      <c r="BB40" s="73"/>
+      <c r="BC40" s="73"/>
+      <c r="BD40" s="73"/>
+      <c r="BE40" s="73"/>
+      <c r="BF40" s="73"/>
+      <c r="BG40" s="73"/>
+      <c r="BH40" s="73"/>
+      <c r="BI40" s="73"/>
+      <c r="BJ40" s="73"/>
       <c r="BK40" s="2"/>
       <c r="BL40" s="16"/>
     </row>
@@ -10326,6 +10343,111 @@
     </row>
   </sheetData>
   <mergeCells count="117">
+    <mergeCell ref="B2:BK2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="Q3:AM3"/>
+    <mergeCell ref="AN3:AS3"/>
+    <mergeCell ref="AT3:AY3"/>
+    <mergeCell ref="AZ3:BE3"/>
+    <mergeCell ref="BF3:BK3"/>
+    <mergeCell ref="BF4:BK5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:AK7"/>
+    <mergeCell ref="AL7:BJ7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:AK8"/>
+    <mergeCell ref="AL8:BJ8"/>
+    <mergeCell ref="B4:K5"/>
+    <mergeCell ref="L4:P5"/>
+    <mergeCell ref="Q4:AM5"/>
+    <mergeCell ref="AN4:AS5"/>
+    <mergeCell ref="AT4:AY5"/>
+    <mergeCell ref="AZ4:BE5"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:AK11"/>
+    <mergeCell ref="AL11:BJ11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:AK12"/>
+    <mergeCell ref="AL12:BJ12"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:AK9"/>
+    <mergeCell ref="AL9:BJ9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:AK10"/>
+    <mergeCell ref="AL10:BJ10"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:AK15"/>
+    <mergeCell ref="AL15:BJ15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:AK16"/>
+    <mergeCell ref="AL16:BJ16"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:AK13"/>
+    <mergeCell ref="AL13:BJ13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:AK14"/>
+    <mergeCell ref="AL14:BJ14"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:AK19"/>
+    <mergeCell ref="AL19:BJ19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:AK20"/>
+    <mergeCell ref="AL20:BJ20"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:AK17"/>
+    <mergeCell ref="AL17:BJ17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:AK18"/>
+    <mergeCell ref="AL18:BJ18"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:AK23"/>
+    <mergeCell ref="AL23:BJ23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:AK24"/>
+    <mergeCell ref="AL24:BJ24"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:AK21"/>
+    <mergeCell ref="AL21:BJ21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:AK22"/>
+    <mergeCell ref="AL22:BJ22"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:AK27"/>
+    <mergeCell ref="AL27:BJ27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:AK28"/>
+    <mergeCell ref="AL28:BJ28"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:AK25"/>
+    <mergeCell ref="AL25:BJ25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:AK26"/>
+    <mergeCell ref="AL26:BJ26"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:AK31"/>
+    <mergeCell ref="AL31:BJ31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:AK32"/>
+    <mergeCell ref="AL32:BJ32"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:AK29"/>
+    <mergeCell ref="AL29:BJ29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:AK30"/>
+    <mergeCell ref="AL30:BJ30"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:AK35"/>
+    <mergeCell ref="AL35:BJ35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:AK36"/>
+    <mergeCell ref="AL36:BJ36"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:AK33"/>
+    <mergeCell ref="AL33:BJ33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:AK34"/>
+    <mergeCell ref="AL34:BJ34"/>
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="F39:AK39"/>
     <mergeCell ref="AL39:BJ39"/>
@@ -10338,111 +10460,6 @@
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="F38:AK38"/>
     <mergeCell ref="AL38:BJ38"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:AK35"/>
-    <mergeCell ref="AL35:BJ35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:AK36"/>
-    <mergeCell ref="AL36:BJ36"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:AK33"/>
-    <mergeCell ref="AL33:BJ33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:AK34"/>
-    <mergeCell ref="AL34:BJ34"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:AK31"/>
-    <mergeCell ref="AL31:BJ31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:AK32"/>
-    <mergeCell ref="AL32:BJ32"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:AK29"/>
-    <mergeCell ref="AL29:BJ29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:AK30"/>
-    <mergeCell ref="AL30:BJ30"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:AK27"/>
-    <mergeCell ref="AL27:BJ27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:AK28"/>
-    <mergeCell ref="AL28:BJ28"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:AK25"/>
-    <mergeCell ref="AL25:BJ25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:AK26"/>
-    <mergeCell ref="AL26:BJ26"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:AK23"/>
-    <mergeCell ref="AL23:BJ23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:AK24"/>
-    <mergeCell ref="AL24:BJ24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:AK21"/>
-    <mergeCell ref="AL21:BJ21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:AK22"/>
-    <mergeCell ref="AL22:BJ22"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:AK19"/>
-    <mergeCell ref="AL19:BJ19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:AK20"/>
-    <mergeCell ref="AL20:BJ20"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:AK17"/>
-    <mergeCell ref="AL17:BJ17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:AK18"/>
-    <mergeCell ref="AL18:BJ18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:AK15"/>
-    <mergeCell ref="AL15:BJ15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:AK16"/>
-    <mergeCell ref="AL16:BJ16"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:AK13"/>
-    <mergeCell ref="AL13:BJ13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:AK14"/>
-    <mergeCell ref="AL14:BJ14"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:AK11"/>
-    <mergeCell ref="AL11:BJ11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:AK12"/>
-    <mergeCell ref="AL12:BJ12"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:AK9"/>
-    <mergeCell ref="AL9:BJ9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:AK10"/>
-    <mergeCell ref="AL10:BJ10"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:AK7"/>
-    <mergeCell ref="AL7:BJ7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:AK8"/>
-    <mergeCell ref="AL8:BJ8"/>
-    <mergeCell ref="B4:K5"/>
-    <mergeCell ref="L4:P5"/>
-    <mergeCell ref="Q4:AM5"/>
-    <mergeCell ref="AN4:AS5"/>
-    <mergeCell ref="AT4:AY5"/>
-    <mergeCell ref="AZ4:BE5"/>
-    <mergeCell ref="B2:BK2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="Q3:AM3"/>
-    <mergeCell ref="AN3:AS3"/>
-    <mergeCell ref="AT3:AY3"/>
-    <mergeCell ref="AZ3:BE3"/>
-    <mergeCell ref="BF3:BK3"/>
-    <mergeCell ref="BF4:BK5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/メッセージ設計書.xlsx
+++ b/メッセージ設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kensyu004\Desktop\新しいフォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F640165-D4BB-4F4F-A40A-30D34D9A7F26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834335B0-FD66-4D39-A6A1-B860FD985B3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="255" windowWidth="19140" windowHeight="10395" activeTab="2" xr2:uid="{78B42164-E9D9-4973-93DD-29F371AD8A8A}"/>
+    <workbookView xWindow="0" yWindow="1125" windowWidth="20505" windowHeight="10395" activeTab="1" xr2:uid="{78B42164-E9D9-4973-93DD-29F371AD8A8A}"/>
   </bookViews>
   <sheets>
     <sheet name="ツールチップ" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="216">
   <si>
     <t>ソフトウェア名</t>
     <rPh sb="6" eb="7">
@@ -1723,6 +1723,21 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M015</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウィンドウを閉じます。よろしいですか？</t>
+    <rPh sb="6" eb="7">
+      <t>ト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2053,6 +2068,36 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2064,36 +2109,6 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2120,6 +2135,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2185,50 +2227,32 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2239,23 +2263,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2612,285 +2627,285 @@
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="18" t="str">
+      <c r="B1" s="28" t="str">
         <f>[1]表紙!$Q$8</f>
         <v>人材管理ソフトメッセージ仕様書</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="19"/>
-      <c r="AO1" s="19"/>
-      <c r="AP1" s="19"/>
-      <c r="AQ1" s="19"/>
-      <c r="AR1" s="19"/>
-      <c r="AS1" s="19"/>
-      <c r="AT1" s="19"/>
-      <c r="AU1" s="19"/>
-      <c r="AV1" s="19"/>
-      <c r="AW1" s="19"/>
-      <c r="AX1" s="19"/>
-      <c r="AY1" s="19"/>
-      <c r="AZ1" s="19"/>
-      <c r="BA1" s="19"/>
-      <c r="BB1" s="19"/>
-      <c r="BC1" s="19"/>
-      <c r="BD1" s="19"/>
-      <c r="BE1" s="19"/>
-      <c r="BF1" s="19"/>
-      <c r="BG1" s="19"/>
-      <c r="BH1" s="19"/>
-      <c r="BI1" s="19"/>
-      <c r="BJ1" s="19"/>
-      <c r="BK1" s="19"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="29"/>
+      <c r="AO1" s="29"/>
+      <c r="AP1" s="29"/>
+      <c r="AQ1" s="29"/>
+      <c r="AR1" s="29"/>
+      <c r="AS1" s="29"/>
+      <c r="AT1" s="29"/>
+      <c r="AU1" s="29"/>
+      <c r="AV1" s="29"/>
+      <c r="AW1" s="29"/>
+      <c r="AX1" s="29"/>
+      <c r="AY1" s="29"/>
+      <c r="AZ1" s="29"/>
+      <c r="BA1" s="29"/>
+      <c r="BB1" s="29"/>
+      <c r="BC1" s="29"/>
+      <c r="BD1" s="29"/>
+      <c r="BE1" s="29"/>
+      <c r="BF1" s="29"/>
+      <c r="BG1" s="29"/>
+      <c r="BH1" s="29"/>
+      <c r="BI1" s="29"/>
+      <c r="BJ1" s="29"/>
+      <c r="BK1" s="29"/>
     </row>
     <row r="2" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="20" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20" t="s">
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="20"/>
-      <c r="AN2" s="21" t="s">
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="AO2" s="21"/>
-      <c r="AP2" s="21"/>
-      <c r="AQ2" s="21"/>
-      <c r="AR2" s="21"/>
-      <c r="AS2" s="21"/>
-      <c r="AT2" s="20" t="s">
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="AU2" s="20"/>
-      <c r="AV2" s="20"/>
-      <c r="AW2" s="20"/>
-      <c r="AX2" s="20"/>
-      <c r="AY2" s="20"/>
-      <c r="AZ2" s="20" t="s">
+      <c r="AU2" s="30"/>
+      <c r="AV2" s="30"/>
+      <c r="AW2" s="30"/>
+      <c r="AX2" s="30"/>
+      <c r="AY2" s="30"/>
+      <c r="AZ2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="BA2" s="20"/>
-      <c r="BB2" s="20"/>
-      <c r="BC2" s="20"/>
-      <c r="BD2" s="20"/>
-      <c r="BE2" s="20"/>
-      <c r="BF2" s="20" t="s">
+      <c r="BA2" s="30"/>
+      <c r="BB2" s="30"/>
+      <c r="BC2" s="30"/>
+      <c r="BD2" s="30"/>
+      <c r="BE2" s="30"/>
+      <c r="BF2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="BG2" s="20"/>
-      <c r="BH2" s="20"/>
-      <c r="BI2" s="20"/>
-      <c r="BJ2" s="20"/>
-      <c r="BK2" s="20"/>
+      <c r="BG2" s="30"/>
+      <c r="BH2" s="30"/>
+      <c r="BI2" s="30"/>
+      <c r="BJ2" s="30"/>
+      <c r="BK2" s="30"/>
     </row>
     <row r="3" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="27">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="26">
         <v>1</v>
       </c>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="22" t="s">
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="22"/>
-      <c r="AF3" s="22"/>
-      <c r="AG3" s="22"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="22"/>
-      <c r="AJ3" s="22"/>
-      <c r="AK3" s="22"/>
-      <c r="AL3" s="22"/>
-      <c r="AM3" s="22"/>
-      <c r="AN3" s="28"/>
-      <c r="AO3" s="22"/>
-      <c r="AP3" s="22"/>
-      <c r="AQ3" s="22"/>
-      <c r="AR3" s="22"/>
-      <c r="AS3" s="22"/>
-      <c r="AT3" s="28" t="s">
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="24"/>
+      <c r="AK3" s="24"/>
+      <c r="AL3" s="24"/>
+      <c r="AM3" s="24"/>
+      <c r="AN3" s="27"/>
+      <c r="AO3" s="24"/>
+      <c r="AP3" s="24"/>
+      <c r="AQ3" s="24"/>
+      <c r="AR3" s="24"/>
+      <c r="AS3" s="24"/>
+      <c r="AT3" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="AU3" s="28"/>
-      <c r="AV3" s="28"/>
-      <c r="AW3" s="28"/>
-      <c r="AX3" s="28"/>
-      <c r="AY3" s="28"/>
-      <c r="AZ3" s="22"/>
-      <c r="BA3" s="22"/>
-      <c r="BB3" s="22"/>
-      <c r="BC3" s="22"/>
-      <c r="BD3" s="22"/>
-      <c r="BE3" s="22"/>
-      <c r="BF3" s="22"/>
-      <c r="BG3" s="22"/>
-      <c r="BH3" s="22"/>
-      <c r="BI3" s="22"/>
-      <c r="BJ3" s="22"/>
-      <c r="BK3" s="22"/>
+      <c r="AU3" s="27"/>
+      <c r="AV3" s="27"/>
+      <c r="AW3" s="27"/>
+      <c r="AX3" s="27"/>
+      <c r="AY3" s="27"/>
+      <c r="AZ3" s="24"/>
+      <c r="BA3" s="24"/>
+      <c r="BB3" s="24"/>
+      <c r="BC3" s="24"/>
+      <c r="BD3" s="24"/>
+      <c r="BE3" s="24"/>
+      <c r="BF3" s="24"/>
+      <c r="BG3" s="24"/>
+      <c r="BH3" s="24"/>
+      <c r="BI3" s="24"/>
+      <c r="BJ3" s="24"/>
+      <c r="BK3" s="24"/>
     </row>
     <row r="4" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="22"/>
-      <c r="AJ4" s="22"/>
-      <c r="AK4" s="22"/>
-      <c r="AL4" s="22"/>
-      <c r="AM4" s="22"/>
-      <c r="AN4" s="22"/>
-      <c r="AO4" s="22"/>
-      <c r="AP4" s="22"/>
-      <c r="AQ4" s="22"/>
-      <c r="AR4" s="22"/>
-      <c r="AS4" s="22"/>
-      <c r="AT4" s="28"/>
-      <c r="AU4" s="28"/>
-      <c r="AV4" s="28"/>
-      <c r="AW4" s="28"/>
-      <c r="AX4" s="28"/>
-      <c r="AY4" s="28"/>
-      <c r="AZ4" s="22"/>
-      <c r="BA4" s="22"/>
-      <c r="BB4" s="22"/>
-      <c r="BC4" s="22"/>
-      <c r="BD4" s="22"/>
-      <c r="BE4" s="22"/>
-      <c r="BF4" s="22"/>
-      <c r="BG4" s="22"/>
-      <c r="BH4" s="22"/>
-      <c r="BI4" s="22"/>
-      <c r="BJ4" s="22"/>
-      <c r="BK4" s="22"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="24"/>
+      <c r="AK4" s="24"/>
+      <c r="AL4" s="24"/>
+      <c r="AM4" s="24"/>
+      <c r="AN4" s="24"/>
+      <c r="AO4" s="24"/>
+      <c r="AP4" s="24"/>
+      <c r="AQ4" s="24"/>
+      <c r="AR4" s="24"/>
+      <c r="AS4" s="24"/>
+      <c r="AT4" s="27"/>
+      <c r="AU4" s="27"/>
+      <c r="AV4" s="27"/>
+      <c r="AW4" s="27"/>
+      <c r="AX4" s="27"/>
+      <c r="AY4" s="27"/>
+      <c r="AZ4" s="24"/>
+      <c r="BA4" s="24"/>
+      <c r="BB4" s="24"/>
+      <c r="BC4" s="24"/>
+      <c r="BD4" s="24"/>
+      <c r="BE4" s="24"/>
+      <c r="BF4" s="24"/>
+      <c r="BG4" s="24"/>
+      <c r="BH4" s="24"/>
+      <c r="BI4" s="24"/>
+      <c r="BJ4" s="24"/>
+      <c r="BK4" s="24"/>
     </row>
     <row r="5" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3"/>
@@ -3022,510 +3037,510 @@
     </row>
     <row r="7" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="25" t="s">
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25" t="s">
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AC7" s="23"/>
-      <c r="AD7" s="23"/>
-      <c r="AE7" s="23"/>
-      <c r="AF7" s="23" t="s">
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AG7" s="23"/>
-      <c r="AH7" s="23"/>
-      <c r="AI7" s="23"/>
-      <c r="AJ7" s="23"/>
-      <c r="AK7" s="23"/>
-      <c r="AL7" s="23"/>
-      <c r="AM7" s="23"/>
-      <c r="AN7" s="23"/>
-      <c r="AO7" s="23"/>
-      <c r="AP7" s="23"/>
-      <c r="AQ7" s="23"/>
-      <c r="AR7" s="23"/>
-      <c r="AS7" s="23"/>
-      <c r="AT7" s="23"/>
-      <c r="AU7" s="23"/>
-      <c r="AV7" s="23"/>
-      <c r="AW7" s="23"/>
-      <c r="AX7" s="23"/>
-      <c r="AY7" s="23"/>
-      <c r="AZ7" s="23"/>
-      <c r="BA7" s="23"/>
-      <c r="BB7" s="23"/>
-      <c r="BC7" s="23"/>
-      <c r="BD7" s="23"/>
-      <c r="BE7" s="23"/>
-      <c r="BF7" s="23"/>
-      <c r="BG7" s="23"/>
-      <c r="BH7" s="23"/>
-      <c r="BI7" s="23"/>
-      <c r="BJ7" s="23"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="21"/>
+      <c r="AJ7" s="21"/>
+      <c r="AK7" s="21"/>
+      <c r="AL7" s="21"/>
+      <c r="AM7" s="21"/>
+      <c r="AN7" s="21"/>
+      <c r="AO7" s="21"/>
+      <c r="AP7" s="21"/>
+      <c r="AQ7" s="21"/>
+      <c r="AR7" s="21"/>
+      <c r="AS7" s="21"/>
+      <c r="AT7" s="21"/>
+      <c r="AU7" s="21"/>
+      <c r="AV7" s="21"/>
+      <c r="AW7" s="21"/>
+      <c r="AX7" s="21"/>
+      <c r="AY7" s="21"/>
+      <c r="AZ7" s="21"/>
+      <c r="BA7" s="21"/>
+      <c r="BB7" s="21"/>
+      <c r="BC7" s="21"/>
+      <c r="BD7" s="21"/>
+      <c r="BE7" s="21"/>
+      <c r="BF7" s="21"/>
+      <c r="BG7" s="21"/>
+      <c r="BH7" s="21"/>
+      <c r="BI7" s="21"/>
+      <c r="BJ7" s="21"/>
       <c r="BK7" s="2"/>
     </row>
     <row r="8" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="23"/>
-      <c r="AC8" s="23"/>
-      <c r="AD8" s="23"/>
-      <c r="AE8" s="23"/>
-      <c r="AF8" s="23"/>
-      <c r="AG8" s="23"/>
-      <c r="AH8" s="23"/>
-      <c r="AI8" s="23"/>
-      <c r="AJ8" s="23"/>
-      <c r="AK8" s="23"/>
-      <c r="AL8" s="23"/>
-      <c r="AM8" s="23"/>
-      <c r="AN8" s="23"/>
-      <c r="AO8" s="23"/>
-      <c r="AP8" s="23"/>
-      <c r="AQ8" s="23"/>
-      <c r="AR8" s="23"/>
-      <c r="AS8" s="23"/>
-      <c r="AT8" s="23"/>
-      <c r="AU8" s="23"/>
-      <c r="AV8" s="23"/>
-      <c r="AW8" s="23"/>
-      <c r="AX8" s="23"/>
-      <c r="AY8" s="23"/>
-      <c r="AZ8" s="23"/>
-      <c r="BA8" s="23"/>
-      <c r="BB8" s="23"/>
-      <c r="BC8" s="23"/>
-      <c r="BD8" s="23"/>
-      <c r="BE8" s="23"/>
-      <c r="BF8" s="23"/>
-      <c r="BG8" s="23"/>
-      <c r="BH8" s="23"/>
-      <c r="BI8" s="23"/>
-      <c r="BJ8" s="23"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="21"/>
+      <c r="AJ8" s="21"/>
+      <c r="AK8" s="21"/>
+      <c r="AL8" s="21"/>
+      <c r="AM8" s="21"/>
+      <c r="AN8" s="21"/>
+      <c r="AO8" s="21"/>
+      <c r="AP8" s="21"/>
+      <c r="AQ8" s="21"/>
+      <c r="AR8" s="21"/>
+      <c r="AS8" s="21"/>
+      <c r="AT8" s="21"/>
+      <c r="AU8" s="21"/>
+      <c r="AV8" s="21"/>
+      <c r="AW8" s="21"/>
+      <c r="AX8" s="21"/>
+      <c r="AY8" s="21"/>
+      <c r="AZ8" s="21"/>
+      <c r="BA8" s="21"/>
+      <c r="BB8" s="21"/>
+      <c r="BC8" s="21"/>
+      <c r="BD8" s="21"/>
+      <c r="BE8" s="21"/>
+      <c r="BF8" s="21"/>
+      <c r="BG8" s="21"/>
+      <c r="BH8" s="21"/>
+      <c r="BI8" s="21"/>
+      <c r="BJ8" s="21"/>
       <c r="BK8" s="2"/>
     </row>
     <row r="9" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30" t="s">
+      <c r="D9" s="18"/>
+      <c r="E9" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="29" t="s">
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29" t="s">
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29"/>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="31" t="s">
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AG9" s="31"/>
-      <c r="AH9" s="31"/>
-      <c r="AI9" s="31"/>
-      <c r="AJ9" s="31"/>
-      <c r="AK9" s="31"/>
-      <c r="AL9" s="31"/>
-      <c r="AM9" s="31"/>
-      <c r="AN9" s="31"/>
-      <c r="AO9" s="31"/>
-      <c r="AP9" s="31"/>
-      <c r="AQ9" s="31"/>
-      <c r="AR9" s="31"/>
-      <c r="AS9" s="31"/>
-      <c r="AT9" s="31"/>
-      <c r="AU9" s="31"/>
-      <c r="AV9" s="31"/>
-      <c r="AW9" s="31"/>
-      <c r="AX9" s="31"/>
-      <c r="AY9" s="31"/>
-      <c r="AZ9" s="31"/>
-      <c r="BA9" s="31"/>
-      <c r="BB9" s="31"/>
-      <c r="BC9" s="31"/>
-      <c r="BD9" s="31"/>
-      <c r="BE9" s="31"/>
-      <c r="BF9" s="31"/>
-      <c r="BG9" s="31"/>
-      <c r="BH9" s="31"/>
-      <c r="BI9" s="31"/>
-      <c r="BJ9" s="31"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="20"/>
+      <c r="AI9" s="20"/>
+      <c r="AJ9" s="20"/>
+      <c r="AK9" s="20"/>
+      <c r="AL9" s="20"/>
+      <c r="AM9" s="20"/>
+      <c r="AN9" s="20"/>
+      <c r="AO9" s="20"/>
+      <c r="AP9" s="20"/>
+      <c r="AQ9" s="20"/>
+      <c r="AR9" s="20"/>
+      <c r="AS9" s="20"/>
+      <c r="AT9" s="20"/>
+      <c r="AU9" s="20"/>
+      <c r="AV9" s="20"/>
+      <c r="AW9" s="20"/>
+      <c r="AX9" s="20"/>
+      <c r="AY9" s="20"/>
+      <c r="AZ9" s="20"/>
+      <c r="BA9" s="20"/>
+      <c r="BB9" s="20"/>
+      <c r="BC9" s="20"/>
+      <c r="BD9" s="20"/>
+      <c r="BE9" s="20"/>
+      <c r="BF9" s="20"/>
+      <c r="BG9" s="20"/>
+      <c r="BH9" s="20"/>
+      <c r="BI9" s="20"/>
+      <c r="BJ9" s="20"/>
       <c r="BK9" s="2"/>
     </row>
     <row r="10" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30" t="s">
+      <c r="D10" s="18"/>
+      <c r="E10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="29" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="29"/>
-      <c r="AB10" s="29" t="s">
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="AC10" s="29"/>
-      <c r="AD10" s="29"/>
-      <c r="AE10" s="29"/>
-      <c r="AF10" s="31" t="s">
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="AG10" s="31"/>
-      <c r="AH10" s="31"/>
-      <c r="AI10" s="31"/>
-      <c r="AJ10" s="31"/>
-      <c r="AK10" s="31"/>
-      <c r="AL10" s="31"/>
-      <c r="AM10" s="31"/>
-      <c r="AN10" s="31"/>
-      <c r="AO10" s="31"/>
-      <c r="AP10" s="31"/>
-      <c r="AQ10" s="31"/>
-      <c r="AR10" s="31"/>
-      <c r="AS10" s="31"/>
-      <c r="AT10" s="31"/>
-      <c r="AU10" s="31"/>
-      <c r="AV10" s="31"/>
-      <c r="AW10" s="31"/>
-      <c r="AX10" s="31"/>
-      <c r="AY10" s="31"/>
-      <c r="AZ10" s="31"/>
-      <c r="BA10" s="31"/>
-      <c r="BB10" s="31"/>
-      <c r="BC10" s="31"/>
-      <c r="BD10" s="31"/>
-      <c r="BE10" s="31"/>
-      <c r="BF10" s="31"/>
-      <c r="BG10" s="31"/>
-      <c r="BH10" s="31"/>
-      <c r="BI10" s="31"/>
-      <c r="BJ10" s="31"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="20"/>
+      <c r="AI10" s="20"/>
+      <c r="AJ10" s="20"/>
+      <c r="AK10" s="20"/>
+      <c r="AL10" s="20"/>
+      <c r="AM10" s="20"/>
+      <c r="AN10" s="20"/>
+      <c r="AO10" s="20"/>
+      <c r="AP10" s="20"/>
+      <c r="AQ10" s="20"/>
+      <c r="AR10" s="20"/>
+      <c r="AS10" s="20"/>
+      <c r="AT10" s="20"/>
+      <c r="AU10" s="20"/>
+      <c r="AV10" s="20"/>
+      <c r="AW10" s="20"/>
+      <c r="AX10" s="20"/>
+      <c r="AY10" s="20"/>
+      <c r="AZ10" s="20"/>
+      <c r="BA10" s="20"/>
+      <c r="BB10" s="20"/>
+      <c r="BC10" s="20"/>
+      <c r="BD10" s="20"/>
+      <c r="BE10" s="20"/>
+      <c r="BF10" s="20"/>
+      <c r="BG10" s="20"/>
+      <c r="BH10" s="20"/>
+      <c r="BI10" s="20"/>
+      <c r="BJ10" s="20"/>
       <c r="BK10" s="2"/>
     </row>
     <row r="11" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="30" t="s">
+      <c r="D11" s="18"/>
+      <c r="E11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="29" t="s">
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="29"/>
-      <c r="AB11" s="29" t="s">
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="AC11" s="29"/>
-      <c r="AD11" s="29"/>
-      <c r="AE11" s="29"/>
-      <c r="AF11" s="31" t="s">
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AG11" s="31"/>
-      <c r="AH11" s="31"/>
-      <c r="AI11" s="31"/>
-      <c r="AJ11" s="31"/>
-      <c r="AK11" s="31"/>
-      <c r="AL11" s="31"/>
-      <c r="AM11" s="31"/>
-      <c r="AN11" s="31"/>
-      <c r="AO11" s="31"/>
-      <c r="AP11" s="31"/>
-      <c r="AQ11" s="31"/>
-      <c r="AR11" s="31"/>
-      <c r="AS11" s="31"/>
-      <c r="AT11" s="31"/>
-      <c r="AU11" s="31"/>
-      <c r="AV11" s="31"/>
-      <c r="AW11" s="31"/>
-      <c r="AX11" s="31"/>
-      <c r="AY11" s="31"/>
-      <c r="AZ11" s="31"/>
-      <c r="BA11" s="31"/>
-      <c r="BB11" s="31"/>
-      <c r="BC11" s="31"/>
-      <c r="BD11" s="31"/>
-      <c r="BE11" s="31"/>
-      <c r="BF11" s="31"/>
-      <c r="BG11" s="31"/>
-      <c r="BH11" s="31"/>
-      <c r="BI11" s="31"/>
-      <c r="BJ11" s="31"/>
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="20"/>
+      <c r="AI11" s="20"/>
+      <c r="AJ11" s="20"/>
+      <c r="AK11" s="20"/>
+      <c r="AL11" s="20"/>
+      <c r="AM11" s="20"/>
+      <c r="AN11" s="20"/>
+      <c r="AO11" s="20"/>
+      <c r="AP11" s="20"/>
+      <c r="AQ11" s="20"/>
+      <c r="AR11" s="20"/>
+      <c r="AS11" s="20"/>
+      <c r="AT11" s="20"/>
+      <c r="AU11" s="20"/>
+      <c r="AV11" s="20"/>
+      <c r="AW11" s="20"/>
+      <c r="AX11" s="20"/>
+      <c r="AY11" s="20"/>
+      <c r="AZ11" s="20"/>
+      <c r="BA11" s="20"/>
+      <c r="BB11" s="20"/>
+      <c r="BC11" s="20"/>
+      <c r="BD11" s="20"/>
+      <c r="BE11" s="20"/>
+      <c r="BF11" s="20"/>
+      <c r="BG11" s="20"/>
+      <c r="BH11" s="20"/>
+      <c r="BI11" s="20"/>
+      <c r="BJ11" s="20"/>
       <c r="BK11" s="2"/>
     </row>
     <row r="12" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="30" t="s">
+      <c r="D12" s="18"/>
+      <c r="E12" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="29" t="s">
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="29" t="s">
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="29"/>
-      <c r="AE12" s="29"/>
-      <c r="AF12" s="31" t="s">
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="AG12" s="31"/>
-      <c r="AH12" s="31"/>
-      <c r="AI12" s="31"/>
-      <c r="AJ12" s="31"/>
-      <c r="AK12" s="31"/>
-      <c r="AL12" s="31"/>
-      <c r="AM12" s="31"/>
-      <c r="AN12" s="31"/>
-      <c r="AO12" s="31"/>
-      <c r="AP12" s="31"/>
-      <c r="AQ12" s="31"/>
-      <c r="AR12" s="31"/>
-      <c r="AS12" s="31"/>
-      <c r="AT12" s="31"/>
-      <c r="AU12" s="31"/>
-      <c r="AV12" s="31"/>
-      <c r="AW12" s="31"/>
-      <c r="AX12" s="31"/>
-      <c r="AY12" s="31"/>
-      <c r="AZ12" s="31"/>
-      <c r="BA12" s="31"/>
-      <c r="BB12" s="31"/>
-      <c r="BC12" s="31"/>
-      <c r="BD12" s="31"/>
-      <c r="BE12" s="31"/>
-      <c r="BF12" s="31"/>
-      <c r="BG12" s="31"/>
-      <c r="BH12" s="31"/>
-      <c r="BI12" s="31"/>
-      <c r="BJ12" s="31"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="20"/>
+      <c r="AJ12" s="20"/>
+      <c r="AK12" s="20"/>
+      <c r="AL12" s="20"/>
+      <c r="AM12" s="20"/>
+      <c r="AN12" s="20"/>
+      <c r="AO12" s="20"/>
+      <c r="AP12" s="20"/>
+      <c r="AQ12" s="20"/>
+      <c r="AR12" s="20"/>
+      <c r="AS12" s="20"/>
+      <c r="AT12" s="20"/>
+      <c r="AU12" s="20"/>
+      <c r="AV12" s="20"/>
+      <c r="AW12" s="20"/>
+      <c r="AX12" s="20"/>
+      <c r="AY12" s="20"/>
+      <c r="AZ12" s="20"/>
+      <c r="BA12" s="20"/>
+      <c r="BB12" s="20"/>
+      <c r="BC12" s="20"/>
+      <c r="BD12" s="20"/>
+      <c r="BE12" s="20"/>
+      <c r="BF12" s="20"/>
+      <c r="BG12" s="20"/>
+      <c r="BH12" s="20"/>
+      <c r="BI12" s="20"/>
+      <c r="BJ12" s="20"/>
       <c r="BK12" s="2"/>
     </row>
     <row r="13" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30" t="s">
+      <c r="D13" s="18"/>
+      <c r="E13" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="29" t="s">
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="29"/>
-      <c r="AB13" s="29" t="s">
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="AC13" s="29"/>
-      <c r="AD13" s="29"/>
-      <c r="AE13" s="29"/>
-      <c r="AF13" s="31" t="s">
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="18"/>
+      <c r="AE13" s="18"/>
+      <c r="AF13" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="AG13" s="31"/>
-      <c r="AH13" s="31"/>
-      <c r="AI13" s="31"/>
-      <c r="AJ13" s="31"/>
-      <c r="AK13" s="31"/>
-      <c r="AL13" s="31"/>
-      <c r="AM13" s="31"/>
-      <c r="AN13" s="31"/>
-      <c r="AO13" s="31"/>
-      <c r="AP13" s="31"/>
-      <c r="AQ13" s="31"/>
-      <c r="AR13" s="31"/>
-      <c r="AS13" s="31"/>
-      <c r="AT13" s="31"/>
-      <c r="AU13" s="31"/>
-      <c r="AV13" s="31"/>
-      <c r="AW13" s="31"/>
-      <c r="AX13" s="31"/>
-      <c r="AY13" s="31"/>
-      <c r="AZ13" s="31"/>
-      <c r="BA13" s="31"/>
-      <c r="BB13" s="31"/>
-      <c r="BC13" s="31"/>
-      <c r="BD13" s="31"/>
-      <c r="BE13" s="31"/>
-      <c r="BF13" s="31"/>
-      <c r="BG13" s="31"/>
-      <c r="BH13" s="31"/>
-      <c r="BI13" s="31"/>
-      <c r="BJ13" s="31"/>
+      <c r="AG13" s="20"/>
+      <c r="AH13" s="20"/>
+      <c r="AI13" s="20"/>
+      <c r="AJ13" s="20"/>
+      <c r="AK13" s="20"/>
+      <c r="AL13" s="20"/>
+      <c r="AM13" s="20"/>
+      <c r="AN13" s="20"/>
+      <c r="AO13" s="20"/>
+      <c r="AP13" s="20"/>
+      <c r="AQ13" s="20"/>
+      <c r="AR13" s="20"/>
+      <c r="AS13" s="20"/>
+      <c r="AT13" s="20"/>
+      <c r="AU13" s="20"/>
+      <c r="AV13" s="20"/>
+      <c r="AW13" s="20"/>
+      <c r="AX13" s="20"/>
+      <c r="AY13" s="20"/>
+      <c r="AZ13" s="20"/>
+      <c r="BA13" s="20"/>
+      <c r="BB13" s="20"/>
+      <c r="BC13" s="20"/>
+      <c r="BD13" s="20"/>
+      <c r="BE13" s="20"/>
+      <c r="BF13" s="20"/>
+      <c r="BG13" s="20"/>
+      <c r="BH13" s="20"/>
+      <c r="BI13" s="20"/>
+      <c r="BJ13" s="20"/>
       <c r="BK13" s="2"/>
     </row>
     <row r="14" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3660,510 +3675,510 @@
     </row>
     <row r="16" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24" t="s">
+      <c r="D16" s="21"/>
+      <c r="E16" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="25" t="s">
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="Z16" s="25"/>
-      <c r="AA16" s="25"/>
-      <c r="AB16" s="25" t="s">
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AC16" s="23"/>
-      <c r="AD16" s="23"/>
-      <c r="AE16" s="23"/>
-      <c r="AF16" s="23" t="s">
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AG16" s="23"/>
-      <c r="AH16" s="23"/>
-      <c r="AI16" s="23"/>
-      <c r="AJ16" s="23"/>
-      <c r="AK16" s="23"/>
-      <c r="AL16" s="23"/>
-      <c r="AM16" s="23"/>
-      <c r="AN16" s="23"/>
-      <c r="AO16" s="23"/>
-      <c r="AP16" s="23"/>
-      <c r="AQ16" s="23"/>
-      <c r="AR16" s="23"/>
-      <c r="AS16" s="23"/>
-      <c r="AT16" s="23"/>
-      <c r="AU16" s="23"/>
-      <c r="AV16" s="23"/>
-      <c r="AW16" s="23"/>
-      <c r="AX16" s="23"/>
-      <c r="AY16" s="23"/>
-      <c r="AZ16" s="23"/>
-      <c r="BA16" s="23"/>
-      <c r="BB16" s="23"/>
-      <c r="BC16" s="23"/>
-      <c r="BD16" s="23"/>
-      <c r="BE16" s="23"/>
-      <c r="BF16" s="23"/>
-      <c r="BG16" s="23"/>
-      <c r="BH16" s="23"/>
-      <c r="BI16" s="23"/>
-      <c r="BJ16" s="23"/>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="21"/>
+      <c r="AI16" s="21"/>
+      <c r="AJ16" s="21"/>
+      <c r="AK16" s="21"/>
+      <c r="AL16" s="21"/>
+      <c r="AM16" s="21"/>
+      <c r="AN16" s="21"/>
+      <c r="AO16" s="21"/>
+      <c r="AP16" s="21"/>
+      <c r="AQ16" s="21"/>
+      <c r="AR16" s="21"/>
+      <c r="AS16" s="21"/>
+      <c r="AT16" s="21"/>
+      <c r="AU16" s="21"/>
+      <c r="AV16" s="21"/>
+      <c r="AW16" s="21"/>
+      <c r="AX16" s="21"/>
+      <c r="AY16" s="21"/>
+      <c r="AZ16" s="21"/>
+      <c r="BA16" s="21"/>
+      <c r="BB16" s="21"/>
+      <c r="BC16" s="21"/>
+      <c r="BD16" s="21"/>
+      <c r="BE16" s="21"/>
+      <c r="BF16" s="21"/>
+      <c r="BG16" s="21"/>
+      <c r="BH16" s="21"/>
+      <c r="BI16" s="21"/>
+      <c r="BJ16" s="21"/>
       <c r="BK16" s="2"/>
     </row>
     <row r="17" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="25"/>
-      <c r="AB17" s="23"/>
-      <c r="AC17" s="23"/>
-      <c r="AD17" s="23"/>
-      <c r="AE17" s="23"/>
-      <c r="AF17" s="23"/>
-      <c r="AG17" s="23"/>
-      <c r="AH17" s="23"/>
-      <c r="AI17" s="23"/>
-      <c r="AJ17" s="23"/>
-      <c r="AK17" s="23"/>
-      <c r="AL17" s="23"/>
-      <c r="AM17" s="23"/>
-      <c r="AN17" s="23"/>
-      <c r="AO17" s="23"/>
-      <c r="AP17" s="23"/>
-      <c r="AQ17" s="23"/>
-      <c r="AR17" s="23"/>
-      <c r="AS17" s="23"/>
-      <c r="AT17" s="23"/>
-      <c r="AU17" s="23"/>
-      <c r="AV17" s="23"/>
-      <c r="AW17" s="23"/>
-      <c r="AX17" s="23"/>
-      <c r="AY17" s="23"/>
-      <c r="AZ17" s="23"/>
-      <c r="BA17" s="23"/>
-      <c r="BB17" s="23"/>
-      <c r="BC17" s="23"/>
-      <c r="BD17" s="23"/>
-      <c r="BE17" s="23"/>
-      <c r="BF17" s="23"/>
-      <c r="BG17" s="23"/>
-      <c r="BH17" s="23"/>
-      <c r="BI17" s="23"/>
-      <c r="BJ17" s="23"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="21"/>
+      <c r="AJ17" s="21"/>
+      <c r="AK17" s="21"/>
+      <c r="AL17" s="21"/>
+      <c r="AM17" s="21"/>
+      <c r="AN17" s="21"/>
+      <c r="AO17" s="21"/>
+      <c r="AP17" s="21"/>
+      <c r="AQ17" s="21"/>
+      <c r="AR17" s="21"/>
+      <c r="AS17" s="21"/>
+      <c r="AT17" s="21"/>
+      <c r="AU17" s="21"/>
+      <c r="AV17" s="21"/>
+      <c r="AW17" s="21"/>
+      <c r="AX17" s="21"/>
+      <c r="AY17" s="21"/>
+      <c r="AZ17" s="21"/>
+      <c r="BA17" s="21"/>
+      <c r="BB17" s="21"/>
+      <c r="BC17" s="21"/>
+      <c r="BD17" s="21"/>
+      <c r="BE17" s="21"/>
+      <c r="BF17" s="21"/>
+      <c r="BG17" s="21"/>
+      <c r="BH17" s="21"/>
+      <c r="BI17" s="21"/>
+      <c r="BJ17" s="21"/>
       <c r="BK17" s="2"/>
     </row>
     <row r="18" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30" t="s">
+      <c r="D18" s="18"/>
+      <c r="E18" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="29" t="s">
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="29"/>
-      <c r="AB18" s="29" t="s">
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="AC18" s="29"/>
-      <c r="AD18" s="29"/>
-      <c r="AE18" s="29"/>
-      <c r="AF18" s="31" t="s">
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="AG18" s="31"/>
-      <c r="AH18" s="31"/>
-      <c r="AI18" s="31"/>
-      <c r="AJ18" s="31"/>
-      <c r="AK18" s="31"/>
-      <c r="AL18" s="31"/>
-      <c r="AM18" s="31"/>
-      <c r="AN18" s="31"/>
-      <c r="AO18" s="31"/>
-      <c r="AP18" s="31"/>
-      <c r="AQ18" s="31"/>
-      <c r="AR18" s="31"/>
-      <c r="AS18" s="31"/>
-      <c r="AT18" s="31"/>
-      <c r="AU18" s="31"/>
-      <c r="AV18" s="31"/>
-      <c r="AW18" s="31"/>
-      <c r="AX18" s="31"/>
-      <c r="AY18" s="31"/>
-      <c r="AZ18" s="31"/>
-      <c r="BA18" s="31"/>
-      <c r="BB18" s="31"/>
-      <c r="BC18" s="31"/>
-      <c r="BD18" s="31"/>
-      <c r="BE18" s="31"/>
-      <c r="BF18" s="31"/>
-      <c r="BG18" s="31"/>
-      <c r="BH18" s="31"/>
-      <c r="BI18" s="31"/>
-      <c r="BJ18" s="31"/>
+      <c r="AG18" s="20"/>
+      <c r="AH18" s="20"/>
+      <c r="AI18" s="20"/>
+      <c r="AJ18" s="20"/>
+      <c r="AK18" s="20"/>
+      <c r="AL18" s="20"/>
+      <c r="AM18" s="20"/>
+      <c r="AN18" s="20"/>
+      <c r="AO18" s="20"/>
+      <c r="AP18" s="20"/>
+      <c r="AQ18" s="20"/>
+      <c r="AR18" s="20"/>
+      <c r="AS18" s="20"/>
+      <c r="AT18" s="20"/>
+      <c r="AU18" s="20"/>
+      <c r="AV18" s="20"/>
+      <c r="AW18" s="20"/>
+      <c r="AX18" s="20"/>
+      <c r="AY18" s="20"/>
+      <c r="AZ18" s="20"/>
+      <c r="BA18" s="20"/>
+      <c r="BB18" s="20"/>
+      <c r="BC18" s="20"/>
+      <c r="BD18" s="20"/>
+      <c r="BE18" s="20"/>
+      <c r="BF18" s="20"/>
+      <c r="BG18" s="20"/>
+      <c r="BH18" s="20"/>
+      <c r="BI18" s="20"/>
+      <c r="BJ18" s="20"/>
       <c r="BK18" s="2"/>
     </row>
     <row r="19" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30" t="s">
+      <c r="D19" s="18"/>
+      <c r="E19" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="29" t="s">
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="29" t="s">
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="29"/>
-      <c r="AE19" s="29"/>
-      <c r="AF19" s="31" t="s">
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="18"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AG19" s="31"/>
-      <c r="AH19" s="31"/>
-      <c r="AI19" s="31"/>
-      <c r="AJ19" s="31"/>
-      <c r="AK19" s="31"/>
-      <c r="AL19" s="31"/>
-      <c r="AM19" s="31"/>
-      <c r="AN19" s="31"/>
-      <c r="AO19" s="31"/>
-      <c r="AP19" s="31"/>
-      <c r="AQ19" s="31"/>
-      <c r="AR19" s="31"/>
-      <c r="AS19" s="31"/>
-      <c r="AT19" s="31"/>
-      <c r="AU19" s="31"/>
-      <c r="AV19" s="31"/>
-      <c r="AW19" s="31"/>
-      <c r="AX19" s="31"/>
-      <c r="AY19" s="31"/>
-      <c r="AZ19" s="31"/>
-      <c r="BA19" s="31"/>
-      <c r="BB19" s="31"/>
-      <c r="BC19" s="31"/>
-      <c r="BD19" s="31"/>
-      <c r="BE19" s="31"/>
-      <c r="BF19" s="31"/>
-      <c r="BG19" s="31"/>
-      <c r="BH19" s="31"/>
-      <c r="BI19" s="31"/>
-      <c r="BJ19" s="31"/>
+      <c r="AG19" s="20"/>
+      <c r="AH19" s="20"/>
+      <c r="AI19" s="20"/>
+      <c r="AJ19" s="20"/>
+      <c r="AK19" s="20"/>
+      <c r="AL19" s="20"/>
+      <c r="AM19" s="20"/>
+      <c r="AN19" s="20"/>
+      <c r="AO19" s="20"/>
+      <c r="AP19" s="20"/>
+      <c r="AQ19" s="20"/>
+      <c r="AR19" s="20"/>
+      <c r="AS19" s="20"/>
+      <c r="AT19" s="20"/>
+      <c r="AU19" s="20"/>
+      <c r="AV19" s="20"/>
+      <c r="AW19" s="20"/>
+      <c r="AX19" s="20"/>
+      <c r="AY19" s="20"/>
+      <c r="AZ19" s="20"/>
+      <c r="BA19" s="20"/>
+      <c r="BB19" s="20"/>
+      <c r="BC19" s="20"/>
+      <c r="BD19" s="20"/>
+      <c r="BE19" s="20"/>
+      <c r="BF19" s="20"/>
+      <c r="BG19" s="20"/>
+      <c r="BH19" s="20"/>
+      <c r="BI19" s="20"/>
+      <c r="BJ19" s="20"/>
       <c r="BK19" s="2"/>
     </row>
     <row r="20" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30" t="s">
+      <c r="D20" s="18"/>
+      <c r="E20" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="29" t="s">
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="29" t="s">
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="29"/>
-      <c r="AE20" s="29"/>
-      <c r="AF20" s="31" t="s">
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AG20" s="31"/>
-      <c r="AH20" s="31"/>
-      <c r="AI20" s="31"/>
-      <c r="AJ20" s="31"/>
-      <c r="AK20" s="31"/>
-      <c r="AL20" s="31"/>
-      <c r="AM20" s="31"/>
-      <c r="AN20" s="31"/>
-      <c r="AO20" s="31"/>
-      <c r="AP20" s="31"/>
-      <c r="AQ20" s="31"/>
-      <c r="AR20" s="31"/>
-      <c r="AS20" s="31"/>
-      <c r="AT20" s="31"/>
-      <c r="AU20" s="31"/>
-      <c r="AV20" s="31"/>
-      <c r="AW20" s="31"/>
-      <c r="AX20" s="31"/>
-      <c r="AY20" s="31"/>
-      <c r="AZ20" s="31"/>
-      <c r="BA20" s="31"/>
-      <c r="BB20" s="31"/>
-      <c r="BC20" s="31"/>
-      <c r="BD20" s="31"/>
-      <c r="BE20" s="31"/>
-      <c r="BF20" s="31"/>
-      <c r="BG20" s="31"/>
-      <c r="BH20" s="31"/>
-      <c r="BI20" s="31"/>
-      <c r="BJ20" s="31"/>
+      <c r="AG20" s="20"/>
+      <c r="AH20" s="20"/>
+      <c r="AI20" s="20"/>
+      <c r="AJ20" s="20"/>
+      <c r="AK20" s="20"/>
+      <c r="AL20" s="20"/>
+      <c r="AM20" s="20"/>
+      <c r="AN20" s="20"/>
+      <c r="AO20" s="20"/>
+      <c r="AP20" s="20"/>
+      <c r="AQ20" s="20"/>
+      <c r="AR20" s="20"/>
+      <c r="AS20" s="20"/>
+      <c r="AT20" s="20"/>
+      <c r="AU20" s="20"/>
+      <c r="AV20" s="20"/>
+      <c r="AW20" s="20"/>
+      <c r="AX20" s="20"/>
+      <c r="AY20" s="20"/>
+      <c r="AZ20" s="20"/>
+      <c r="BA20" s="20"/>
+      <c r="BB20" s="20"/>
+      <c r="BC20" s="20"/>
+      <c r="BD20" s="20"/>
+      <c r="BE20" s="20"/>
+      <c r="BF20" s="20"/>
+      <c r="BG20" s="20"/>
+      <c r="BH20" s="20"/>
+      <c r="BI20" s="20"/>
+      <c r="BJ20" s="20"/>
       <c r="BK20" s="2"/>
     </row>
     <row r="21" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="30" t="s">
+      <c r="D21" s="18"/>
+      <c r="E21" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="29" t="s">
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="Z21" s="29"/>
-      <c r="AA21" s="29"/>
-      <c r="AB21" s="29" t="s">
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="AC21" s="29"/>
-      <c r="AD21" s="29"/>
-      <c r="AE21" s="29"/>
-      <c r="AF21" s="31" t="s">
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18"/>
+      <c r="AE21" s="18"/>
+      <c r="AF21" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AG21" s="31"/>
-      <c r="AH21" s="31"/>
-      <c r="AI21" s="31"/>
-      <c r="AJ21" s="31"/>
-      <c r="AK21" s="31"/>
-      <c r="AL21" s="31"/>
-      <c r="AM21" s="31"/>
-      <c r="AN21" s="31"/>
-      <c r="AO21" s="31"/>
-      <c r="AP21" s="31"/>
-      <c r="AQ21" s="31"/>
-      <c r="AR21" s="31"/>
-      <c r="AS21" s="31"/>
-      <c r="AT21" s="31"/>
-      <c r="AU21" s="31"/>
-      <c r="AV21" s="31"/>
-      <c r="AW21" s="31"/>
-      <c r="AX21" s="31"/>
-      <c r="AY21" s="31"/>
-      <c r="AZ21" s="31"/>
-      <c r="BA21" s="31"/>
-      <c r="BB21" s="31"/>
-      <c r="BC21" s="31"/>
-      <c r="BD21" s="31"/>
-      <c r="BE21" s="31"/>
-      <c r="BF21" s="31"/>
-      <c r="BG21" s="31"/>
-      <c r="BH21" s="31"/>
-      <c r="BI21" s="31"/>
-      <c r="BJ21" s="31"/>
+      <c r="AG21" s="20"/>
+      <c r="AH21" s="20"/>
+      <c r="AI21" s="20"/>
+      <c r="AJ21" s="20"/>
+      <c r="AK21" s="20"/>
+      <c r="AL21" s="20"/>
+      <c r="AM21" s="20"/>
+      <c r="AN21" s="20"/>
+      <c r="AO21" s="20"/>
+      <c r="AP21" s="20"/>
+      <c r="AQ21" s="20"/>
+      <c r="AR21" s="20"/>
+      <c r="AS21" s="20"/>
+      <c r="AT21" s="20"/>
+      <c r="AU21" s="20"/>
+      <c r="AV21" s="20"/>
+      <c r="AW21" s="20"/>
+      <c r="AX21" s="20"/>
+      <c r="AY21" s="20"/>
+      <c r="AZ21" s="20"/>
+      <c r="BA21" s="20"/>
+      <c r="BB21" s="20"/>
+      <c r="BC21" s="20"/>
+      <c r="BD21" s="20"/>
+      <c r="BE21" s="20"/>
+      <c r="BF21" s="20"/>
+      <c r="BG21" s="20"/>
+      <c r="BH21" s="20"/>
+      <c r="BI21" s="20"/>
+      <c r="BJ21" s="20"/>
       <c r="BK21" s="2"/>
     </row>
     <row r="22" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="30" t="s">
+      <c r="D22" s="18"/>
+      <c r="E22" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="29" t="s">
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="29"/>
-      <c r="AB22" s="29" t="s">
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="AC22" s="29"/>
-      <c r="AD22" s="29"/>
-      <c r="AE22" s="29"/>
-      <c r="AF22" s="31" t="s">
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="18"/>
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="AG22" s="31"/>
-      <c r="AH22" s="31"/>
-      <c r="AI22" s="31"/>
-      <c r="AJ22" s="31"/>
-      <c r="AK22" s="31"/>
-      <c r="AL22" s="31"/>
-      <c r="AM22" s="31"/>
-      <c r="AN22" s="31"/>
-      <c r="AO22" s="31"/>
-      <c r="AP22" s="31"/>
-      <c r="AQ22" s="31"/>
-      <c r="AR22" s="31"/>
-      <c r="AS22" s="31"/>
-      <c r="AT22" s="31"/>
-      <c r="AU22" s="31"/>
-      <c r="AV22" s="31"/>
-      <c r="AW22" s="31"/>
-      <c r="AX22" s="31"/>
-      <c r="AY22" s="31"/>
-      <c r="AZ22" s="31"/>
-      <c r="BA22" s="31"/>
-      <c r="BB22" s="31"/>
-      <c r="BC22" s="31"/>
-      <c r="BD22" s="31"/>
-      <c r="BE22" s="31"/>
-      <c r="BF22" s="31"/>
-      <c r="BG22" s="31"/>
-      <c r="BH22" s="31"/>
-      <c r="BI22" s="31"/>
-      <c r="BJ22" s="31"/>
+      <c r="AG22" s="20"/>
+      <c r="AH22" s="20"/>
+      <c r="AI22" s="20"/>
+      <c r="AJ22" s="20"/>
+      <c r="AK22" s="20"/>
+      <c r="AL22" s="20"/>
+      <c r="AM22" s="20"/>
+      <c r="AN22" s="20"/>
+      <c r="AO22" s="20"/>
+      <c r="AP22" s="20"/>
+      <c r="AQ22" s="20"/>
+      <c r="AR22" s="20"/>
+      <c r="AS22" s="20"/>
+      <c r="AT22" s="20"/>
+      <c r="AU22" s="20"/>
+      <c r="AV22" s="20"/>
+      <c r="AW22" s="20"/>
+      <c r="AX22" s="20"/>
+      <c r="AY22" s="20"/>
+      <c r="AZ22" s="20"/>
+      <c r="BA22" s="20"/>
+      <c r="BB22" s="20"/>
+      <c r="BC22" s="20"/>
+      <c r="BD22" s="20"/>
+      <c r="BE22" s="20"/>
+      <c r="BF22" s="20"/>
+      <c r="BG22" s="20"/>
+      <c r="BH22" s="20"/>
+      <c r="BI22" s="20"/>
+      <c r="BJ22" s="20"/>
       <c r="BK22" s="2"/>
     </row>
     <row r="23" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -4232,61 +4247,14 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="AB22:AE22"/>
-    <mergeCell ref="AF22:BJ22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="AB20:AE20"/>
-    <mergeCell ref="AF20:BJ20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="AB21:AE21"/>
-    <mergeCell ref="AF21:BJ21"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="AB18:AE18"/>
-    <mergeCell ref="AF18:BJ18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="AB19:AE19"/>
-    <mergeCell ref="AF19:BJ19"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:X13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="AB13:AE13"/>
-    <mergeCell ref="AF13:BJ13"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:X17"/>
-    <mergeCell ref="Y16:AA17"/>
-    <mergeCell ref="AB16:AE17"/>
-    <mergeCell ref="AF16:BJ17"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="AB11:AE11"/>
-    <mergeCell ref="AF11:BJ11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="AB12:AE12"/>
-    <mergeCell ref="AF12:BJ12"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="AB9:AE9"/>
-    <mergeCell ref="AF9:BJ9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="AF10:BJ10"/>
+    <mergeCell ref="B1:BK1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:AM2"/>
+    <mergeCell ref="AN2:AS2"/>
+    <mergeCell ref="AT2:AY2"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="BF2:BK2"/>
     <mergeCell ref="BF3:BK4"/>
     <mergeCell ref="C7:D8"/>
     <mergeCell ref="E7:X8"/>
@@ -4299,14 +4267,61 @@
     <mergeCell ref="AN3:AS4"/>
     <mergeCell ref="AT3:AY4"/>
     <mergeCell ref="AZ3:BE4"/>
-    <mergeCell ref="B1:BK1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="Q2:AM2"/>
-    <mergeCell ref="AN2:AS2"/>
-    <mergeCell ref="AT2:AY2"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="BF2:BK2"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="AF10:BJ10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="AB9:AE9"/>
+    <mergeCell ref="AF9:BJ9"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="AF12:BJ12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="AB11:AE11"/>
+    <mergeCell ref="AF11:BJ11"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:X17"/>
+    <mergeCell ref="Y16:AA17"/>
+    <mergeCell ref="AB16:AE17"/>
+    <mergeCell ref="AF16:BJ17"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="AF13:BJ13"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="AB19:AE19"/>
+    <mergeCell ref="AF19:BJ19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB18:AE18"/>
+    <mergeCell ref="AF18:BJ18"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AB21:AE21"/>
+    <mergeCell ref="AF21:BJ21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AB20:AE20"/>
+    <mergeCell ref="AF20:BJ20"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="AB22:AE22"/>
+    <mergeCell ref="AF22:BJ22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4316,432 +4331,432 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36293E3-BB8A-450A-AD90-324CA703073E}">
-  <dimension ref="B1:BK40"/>
+  <dimension ref="B1:BK41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="AR24" sqref="AR24:BJ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="42"/>
-      <c r="AK1" s="42"/>
-      <c r="AL1" s="42"/>
-      <c r="AM1" s="42"/>
-      <c r="AN1" s="42"/>
-      <c r="AO1" s="42"/>
-      <c r="AP1" s="42"/>
-      <c r="AQ1" s="42"/>
-      <c r="AR1" s="42"/>
-      <c r="AS1" s="42"/>
-      <c r="AT1" s="42"/>
-      <c r="AU1" s="42"/>
-      <c r="AV1" s="42"/>
-      <c r="AW1" s="42"/>
-      <c r="AX1" s="42"/>
-      <c r="AY1" s="42"/>
-      <c r="AZ1" s="42"/>
-      <c r="BA1" s="42"/>
-      <c r="BB1" s="42"/>
-      <c r="BC1" s="42"/>
-      <c r="BD1" s="42"/>
-      <c r="BE1" s="42"/>
-      <c r="BF1" s="42"/>
-      <c r="BG1" s="42"/>
-      <c r="BH1" s="42"/>
-      <c r="BI1" s="42"/>
-      <c r="BJ1" s="42"/>
-      <c r="BK1" s="43"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
+      <c r="AP1" s="51"/>
+      <c r="AQ1" s="51"/>
+      <c r="AR1" s="51"/>
+      <c r="AS1" s="51"/>
+      <c r="AT1" s="51"/>
+      <c r="AU1" s="51"/>
+      <c r="AV1" s="51"/>
+      <c r="AW1" s="51"/>
+      <c r="AX1" s="51"/>
+      <c r="AY1" s="51"/>
+      <c r="AZ1" s="51"/>
+      <c r="BA1" s="51"/>
+      <c r="BB1" s="51"/>
+      <c r="BC1" s="51"/>
+      <c r="BD1" s="51"/>
+      <c r="BE1" s="51"/>
+      <c r="BF1" s="51"/>
+      <c r="BG1" s="51"/>
+      <c r="BH1" s="51"/>
+      <c r="BI1" s="51"/>
+      <c r="BJ1" s="51"/>
+      <c r="BK1" s="52"/>
     </row>
     <row r="2" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="41" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="41" t="s">
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="42"/>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="41" t="s">
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="AO2" s="42"/>
-      <c r="AP2" s="42"/>
-      <c r="AQ2" s="42"/>
-      <c r="AR2" s="42"/>
-      <c r="AS2" s="43"/>
-      <c r="AT2" s="41" t="s">
+      <c r="AO2" s="51"/>
+      <c r="AP2" s="51"/>
+      <c r="AQ2" s="51"/>
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="52"/>
+      <c r="AT2" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AU2" s="42"/>
-      <c r="AV2" s="42"/>
-      <c r="AW2" s="42"/>
-      <c r="AX2" s="42"/>
-      <c r="AY2" s="43"/>
-      <c r="AZ2" s="41" t="s">
+      <c r="AU2" s="51"/>
+      <c r="AV2" s="51"/>
+      <c r="AW2" s="51"/>
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="52"/>
+      <c r="AZ2" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="BA2" s="42"/>
-      <c r="BB2" s="42"/>
-      <c r="BC2" s="42"/>
-      <c r="BD2" s="42"/>
-      <c r="BE2" s="43"/>
-      <c r="BF2" s="41" t="s">
+      <c r="BA2" s="51"/>
+      <c r="BB2" s="51"/>
+      <c r="BC2" s="51"/>
+      <c r="BD2" s="51"/>
+      <c r="BE2" s="52"/>
+      <c r="BF2" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="BG2" s="42"/>
-      <c r="BH2" s="42"/>
-      <c r="BI2" s="42"/>
-      <c r="BJ2" s="42"/>
-      <c r="BK2" s="43"/>
+      <c r="BG2" s="51"/>
+      <c r="BH2" s="51"/>
+      <c r="BI2" s="51"/>
+      <c r="BJ2" s="51"/>
+      <c r="BK2" s="52"/>
     </row>
     <row r="3" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="44">
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="53">
         <v>1</v>
       </c>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="44" t="s">
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="46"/>
-      <c r="AN3" s="50"/>
-      <c r="AO3" s="51"/>
-      <c r="AP3" s="51"/>
-      <c r="AQ3" s="51"/>
-      <c r="AR3" s="51"/>
-      <c r="AS3" s="52"/>
-      <c r="AT3" s="56" t="s">
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="55"/>
+      <c r="AN3" s="59"/>
+      <c r="AO3" s="60"/>
+      <c r="AP3" s="60"/>
+      <c r="AQ3" s="60"/>
+      <c r="AR3" s="60"/>
+      <c r="AS3" s="61"/>
+      <c r="AT3" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="AU3" s="57"/>
-      <c r="AV3" s="57"/>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="58"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="51"/>
-      <c r="BB3" s="51"/>
-      <c r="BC3" s="51"/>
-      <c r="BD3" s="51"/>
-      <c r="BE3" s="52"/>
-      <c r="BF3" s="44"/>
-      <c r="BG3" s="45"/>
-      <c r="BH3" s="45"/>
-      <c r="BI3" s="45"/>
-      <c r="BJ3" s="45"/>
-      <c r="BK3" s="46"/>
+      <c r="AU3" s="66"/>
+      <c r="AV3" s="66"/>
+      <c r="AW3" s="66"/>
+      <c r="AX3" s="66"/>
+      <c r="AY3" s="67"/>
+      <c r="AZ3" s="59"/>
+      <c r="BA3" s="60"/>
+      <c r="BB3" s="60"/>
+      <c r="BC3" s="60"/>
+      <c r="BD3" s="60"/>
+      <c r="BE3" s="61"/>
+      <c r="BF3" s="53"/>
+      <c r="BG3" s="54"/>
+      <c r="BH3" s="54"/>
+      <c r="BI3" s="54"/>
+      <c r="BJ3" s="54"/>
+      <c r="BK3" s="55"/>
     </row>
     <row r="4" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
-      <c r="AH4" s="48"/>
-      <c r="AI4" s="48"/>
-      <c r="AJ4" s="48"/>
-      <c r="AK4" s="48"/>
-      <c r="AL4" s="48"/>
-      <c r="AM4" s="49"/>
-      <c r="AN4" s="53"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="54"/>
-      <c r="AQ4" s="54"/>
-      <c r="AR4" s="54"/>
-      <c r="AS4" s="55"/>
-      <c r="AT4" s="59"/>
-      <c r="AU4" s="60"/>
-      <c r="AV4" s="60"/>
-      <c r="AW4" s="60"/>
-      <c r="AX4" s="60"/>
-      <c r="AY4" s="61"/>
-      <c r="AZ4" s="53"/>
-      <c r="BA4" s="54"/>
-      <c r="BB4" s="54"/>
-      <c r="BC4" s="54"/>
-      <c r="BD4" s="54"/>
-      <c r="BE4" s="55"/>
-      <c r="BF4" s="47"/>
-      <c r="BG4" s="48"/>
-      <c r="BH4" s="48"/>
-      <c r="BI4" s="48"/>
-      <c r="BJ4" s="48"/>
-      <c r="BK4" s="49"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="57"/>
+      <c r="AC4" s="57"/>
+      <c r="AD4" s="57"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="57"/>
+      <c r="AG4" s="57"/>
+      <c r="AH4" s="57"/>
+      <c r="AI4" s="57"/>
+      <c r="AJ4" s="57"/>
+      <c r="AK4" s="57"/>
+      <c r="AL4" s="57"/>
+      <c r="AM4" s="58"/>
+      <c r="AN4" s="62"/>
+      <c r="AO4" s="63"/>
+      <c r="AP4" s="63"/>
+      <c r="AQ4" s="63"/>
+      <c r="AR4" s="63"/>
+      <c r="AS4" s="64"/>
+      <c r="AT4" s="68"/>
+      <c r="AU4" s="69"/>
+      <c r="AV4" s="69"/>
+      <c r="AW4" s="69"/>
+      <c r="AX4" s="69"/>
+      <c r="AY4" s="70"/>
+      <c r="AZ4" s="62"/>
+      <c r="BA4" s="63"/>
+      <c r="BB4" s="63"/>
+      <c r="BC4" s="63"/>
+      <c r="BD4" s="63"/>
+      <c r="BE4" s="64"/>
+      <c r="BF4" s="56"/>
+      <c r="BG4" s="57"/>
+      <c r="BH4" s="57"/>
+      <c r="BI4" s="57"/>
+      <c r="BJ4" s="57"/>
+      <c r="BK4" s="58"/>
     </row>
     <row r="5" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="62"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="64"/>
-      <c r="T5" s="64"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
-      <c r="W5" s="64"/>
-      <c r="X5" s="64"/>
-      <c r="Y5" s="64"/>
-      <c r="Z5" s="64"/>
-      <c r="AA5" s="64"/>
-      <c r="AB5" s="64"/>
-      <c r="AC5" s="64"/>
-      <c r="AD5" s="64"/>
-      <c r="AE5" s="64"/>
-      <c r="AF5" s="64"/>
-      <c r="AG5" s="64"/>
-      <c r="AH5" s="64"/>
-      <c r="AI5" s="64"/>
-      <c r="AJ5" s="64"/>
-      <c r="AK5" s="64"/>
-      <c r="AL5" s="64"/>
-      <c r="AM5" s="64"/>
-      <c r="AN5" s="64"/>
-      <c r="AO5" s="64"/>
-      <c r="AP5" s="64"/>
-      <c r="AQ5" s="64"/>
-      <c r="AR5" s="64"/>
-      <c r="AS5" s="64"/>
-      <c r="AT5" s="64"/>
-      <c r="AU5" s="64"/>
-      <c r="AV5" s="64"/>
-      <c r="AW5" s="64"/>
-      <c r="AX5" s="64"/>
-      <c r="AY5" s="64"/>
-      <c r="AZ5" s="64"/>
-      <c r="BA5" s="64"/>
-      <c r="BB5" s="64"/>
-      <c r="BC5" s="64"/>
-      <c r="BD5" s="64"/>
-      <c r="BE5" s="64"/>
-      <c r="BF5" s="64"/>
-      <c r="BG5" s="64"/>
-      <c r="BH5" s="64"/>
-      <c r="BI5" s="64"/>
-      <c r="BJ5" s="63"/>
-      <c r="BK5" s="63"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="48"/>
+      <c r="AF5" s="48"/>
+      <c r="AG5" s="48"/>
+      <c r="AH5" s="48"/>
+      <c r="AI5" s="48"/>
+      <c r="AJ5" s="48"/>
+      <c r="AK5" s="48"/>
+      <c r="AL5" s="48"/>
+      <c r="AM5" s="48"/>
+      <c r="AN5" s="48"/>
+      <c r="AO5" s="48"/>
+      <c r="AP5" s="48"/>
+      <c r="AQ5" s="48"/>
+      <c r="AR5" s="48"/>
+      <c r="AS5" s="48"/>
+      <c r="AT5" s="48"/>
+      <c r="AU5" s="48"/>
+      <c r="AV5" s="48"/>
+      <c r="AW5" s="48"/>
+      <c r="AX5" s="48"/>
+      <c r="AY5" s="48"/>
+      <c r="AZ5" s="48"/>
+      <c r="BA5" s="48"/>
+      <c r="BB5" s="48"/>
+      <c r="BC5" s="48"/>
+      <c r="BD5" s="48"/>
+      <c r="BE5" s="48"/>
+      <c r="BF5" s="48"/>
+      <c r="BG5" s="48"/>
+      <c r="BH5" s="48"/>
+      <c r="BI5" s="48"/>
+      <c r="BJ5" s="47"/>
+      <c r="BK5" s="47"/>
     </row>
     <row r="6" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="14"/>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="66"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="65" t="s">
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="65" t="s">
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="66"/>
-      <c r="AA6" s="66"/>
-      <c r="AB6" s="66"/>
-      <c r="AC6" s="66"/>
-      <c r="AD6" s="66"/>
-      <c r="AE6" s="66"/>
-      <c r="AF6" s="66"/>
-      <c r="AG6" s="67"/>
-      <c r="AH6" s="65" t="s">
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="42"/>
+      <c r="AD6" s="42"/>
+      <c r="AE6" s="42"/>
+      <c r="AF6" s="42"/>
+      <c r="AG6" s="43"/>
+      <c r="AH6" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="AI6" s="66"/>
-      <c r="AJ6" s="66"/>
-      <c r="AK6" s="66"/>
-      <c r="AL6" s="66"/>
-      <c r="AM6" s="67"/>
-      <c r="AN6" s="65" t="s">
+      <c r="AI6" s="42"/>
+      <c r="AJ6" s="42"/>
+      <c r="AK6" s="42"/>
+      <c r="AL6" s="42"/>
+      <c r="AM6" s="43"/>
+      <c r="AN6" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="AO6" s="66"/>
-      <c r="AP6" s="66"/>
-      <c r="AQ6" s="67"/>
-      <c r="AR6" s="68" t="s">
+      <c r="AO6" s="42"/>
+      <c r="AP6" s="42"/>
+      <c r="AQ6" s="43"/>
+      <c r="AR6" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="AS6" s="69"/>
-      <c r="AT6" s="69"/>
-      <c r="AU6" s="69"/>
-      <c r="AV6" s="69"/>
-      <c r="AW6" s="69"/>
-      <c r="AX6" s="69"/>
-      <c r="AY6" s="69"/>
-      <c r="AZ6" s="69"/>
-      <c r="BA6" s="69"/>
-      <c r="BB6" s="69"/>
-      <c r="BC6" s="69"/>
-      <c r="BD6" s="69"/>
-      <c r="BE6" s="69"/>
-      <c r="BF6" s="69"/>
-      <c r="BG6" s="69"/>
-      <c r="BH6" s="69"/>
-      <c r="BI6" s="69"/>
-      <c r="BJ6" s="70"/>
+      <c r="AS6" s="45"/>
+      <c r="AT6" s="45"/>
+      <c r="AU6" s="45"/>
+      <c r="AV6" s="45"/>
+      <c r="AW6" s="45"/>
+      <c r="AX6" s="45"/>
+      <c r="AY6" s="45"/>
+      <c r="AZ6" s="45"/>
+      <c r="BA6" s="45"/>
+      <c r="BB6" s="45"/>
+      <c r="BC6" s="45"/>
+      <c r="BD6" s="45"/>
+      <c r="BE6" s="45"/>
+      <c r="BF6" s="45"/>
+      <c r="BG6" s="45"/>
+      <c r="BH6" s="45"/>
+      <c r="BI6" s="45"/>
+      <c r="BJ6" s="46"/>
       <c r="BK6" s="15"/>
     </row>
     <row r="7" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -5758,18 +5773,18 @@
     </row>
     <row r="21" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C21" s="32" t="s">
-        <v>134</v>
+        <v>213</v>
       </c>
       <c r="D21" s="33"/>
       <c r="E21" s="34"/>
       <c r="F21" s="32" t="s">
-        <v>151</v>
+        <v>214</v>
       </c>
       <c r="G21" s="33"/>
       <c r="H21" s="33"/>
       <c r="I21" s="34"/>
       <c r="J21" s="35" t="s">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="K21" s="36"/>
       <c r="L21" s="36"/>
@@ -5795,7 +5810,7 @@
       <c r="AF21" s="36"/>
       <c r="AG21" s="37"/>
       <c r="AH21" s="32" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="AI21" s="33"/>
       <c r="AJ21" s="33"/>
@@ -5803,7 +5818,7 @@
       <c r="AL21" s="33"/>
       <c r="AM21" s="34"/>
       <c r="AN21" s="32" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AO21" s="33"/>
       <c r="AP21" s="33"/>
@@ -5830,7 +5845,7 @@
     </row>
     <row r="22" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C22" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D22" s="33"/>
       <c r="E22" s="34"/>
@@ -5841,7 +5856,7 @@
       <c r="H22" s="33"/>
       <c r="I22" s="34"/>
       <c r="J22" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K22" s="36"/>
       <c r="L22" s="36"/>
@@ -5902,7 +5917,7 @@
     </row>
     <row r="23" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D23" s="33"/>
       <c r="E23" s="34"/>
@@ -5913,7 +5928,7 @@
       <c r="H23" s="33"/>
       <c r="I23" s="34"/>
       <c r="J23" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K23" s="36"/>
       <c r="L23" s="36"/>
@@ -5974,7 +5989,7 @@
     </row>
     <row r="24" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C24" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D24" s="33"/>
       <c r="E24" s="34"/>
@@ -5985,7 +6000,7 @@
       <c r="H24" s="33"/>
       <c r="I24" s="34"/>
       <c r="J24" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K24" s="36"/>
       <c r="L24" s="36"/>
@@ -6046,7 +6061,7 @@
     </row>
     <row r="25" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C25" s="32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D25" s="33"/>
       <c r="E25" s="34"/>
@@ -6057,7 +6072,7 @@
       <c r="H25" s="33"/>
       <c r="I25" s="34"/>
       <c r="J25" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K25" s="36"/>
       <c r="L25" s="36"/>
@@ -6118,7 +6133,7 @@
     </row>
     <row r="26" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C26" s="32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D26" s="33"/>
       <c r="E26" s="34"/>
@@ -6129,7 +6144,7 @@
       <c r="H26" s="33"/>
       <c r="I26" s="34"/>
       <c r="J26" s="35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K26" s="36"/>
       <c r="L26" s="36"/>
@@ -6190,7 +6205,7 @@
     </row>
     <row r="27" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C27" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D27" s="33"/>
       <c r="E27" s="34"/>
@@ -6201,7 +6216,7 @@
       <c r="H27" s="33"/>
       <c r="I27" s="34"/>
       <c r="J27" s="35" t="s">
-        <v>164</v>
+        <v>85</v>
       </c>
       <c r="K27" s="36"/>
       <c r="L27" s="36"/>
@@ -6262,7 +6277,7 @@
     </row>
     <row r="28" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C28" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D28" s="33"/>
       <c r="E28" s="34"/>
@@ -6273,7 +6288,7 @@
       <c r="H28" s="33"/>
       <c r="I28" s="34"/>
       <c r="J28" s="35" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="K28" s="36"/>
       <c r="L28" s="36"/>
@@ -6334,7 +6349,7 @@
     </row>
     <row r="29" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D29" s="33"/>
       <c r="E29" s="34"/>
@@ -6345,7 +6360,7 @@
       <c r="H29" s="33"/>
       <c r="I29" s="34"/>
       <c r="J29" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K29" s="36"/>
       <c r="L29" s="36"/>
@@ -6406,7 +6421,7 @@
     </row>
     <row r="30" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C30" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D30" s="33"/>
       <c r="E30" s="34"/>
@@ -6417,7 +6432,7 @@
       <c r="H30" s="33"/>
       <c r="I30" s="34"/>
       <c r="J30" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K30" s="36"/>
       <c r="L30" s="36"/>
@@ -6478,7 +6493,7 @@
     </row>
     <row r="31" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C31" s="32" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="D31" s="33"/>
       <c r="E31" s="34"/>
@@ -6489,7 +6504,7 @@
       <c r="H31" s="33"/>
       <c r="I31" s="34"/>
       <c r="J31" s="35" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="K31" s="36"/>
       <c r="L31" s="36"/>
@@ -6550,7 +6565,7 @@
     </row>
     <row r="32" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C32" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="33"/>
       <c r="E32" s="34"/>
@@ -6561,7 +6576,7 @@
       <c r="H32" s="33"/>
       <c r="I32" s="34"/>
       <c r="J32" s="35" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="K32" s="36"/>
       <c r="L32" s="36"/>
@@ -6622,18 +6637,18 @@
     </row>
     <row r="33" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C33" s="32" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="D33" s="33"/>
       <c r="E33" s="34"/>
       <c r="F33" s="32" t="s">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="G33" s="33"/>
       <c r="H33" s="33"/>
       <c r="I33" s="34"/>
       <c r="J33" s="35" t="s">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="K33" s="36"/>
       <c r="L33" s="36"/>
@@ -6667,7 +6682,7 @@
       <c r="AL33" s="33"/>
       <c r="AM33" s="34"/>
       <c r="AN33" s="32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AO33" s="33"/>
       <c r="AP33" s="33"/>
@@ -6694,7 +6709,7 @@
     </row>
     <row r="34" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C34" s="32" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="D34" s="33"/>
       <c r="E34" s="34"/>
@@ -6705,7 +6720,7 @@
       <c r="H34" s="33"/>
       <c r="I34" s="34"/>
       <c r="J34" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K34" s="36"/>
       <c r="L34" s="36"/>
@@ -6744,9 +6759,7 @@
       <c r="AO34" s="33"/>
       <c r="AP34" s="33"/>
       <c r="AQ34" s="34"/>
-      <c r="AR34" s="32" t="s">
-        <v>93</v>
-      </c>
+      <c r="AR34" s="32"/>
       <c r="AS34" s="33"/>
       <c r="AT34" s="33"/>
       <c r="AU34" s="33"/>
@@ -6768,7 +6781,7 @@
     </row>
     <row r="35" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C35" s="32" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D35" s="33"/>
       <c r="E35" s="34"/>
@@ -6779,7 +6792,7 @@
       <c r="H35" s="33"/>
       <c r="I35" s="34"/>
       <c r="J35" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K35" s="36"/>
       <c r="L35" s="36"/>
@@ -6818,7 +6831,9 @@
       <c r="AO35" s="33"/>
       <c r="AP35" s="33"/>
       <c r="AQ35" s="34"/>
-      <c r="AR35" s="32"/>
+      <c r="AR35" s="32" t="s">
+        <v>93</v>
+      </c>
       <c r="AS35" s="33"/>
       <c r="AT35" s="33"/>
       <c r="AU35" s="33"/>
@@ -6840,7 +6855,7 @@
     </row>
     <row r="36" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C36" s="32" t="s">
-        <v>165</v>
+        <v>94</v>
       </c>
       <c r="D36" s="33"/>
       <c r="E36" s="34"/>
@@ -6851,7 +6866,7 @@
       <c r="H36" s="33"/>
       <c r="I36" s="34"/>
       <c r="J36" s="35" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="K36" s="36"/>
       <c r="L36" s="36"/>
@@ -6912,18 +6927,18 @@
     </row>
     <row r="37" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C37" s="32" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="D37" s="33"/>
       <c r="E37" s="34"/>
       <c r="F37" s="32" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G37" s="33"/>
       <c r="H37" s="33"/>
       <c r="I37" s="34"/>
       <c r="J37" s="35" t="s">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c r="K37" s="36"/>
       <c r="L37" s="36"/>
@@ -6984,7 +6999,7 @@
     </row>
     <row r="38" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C38" s="32" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="D38" s="33"/>
       <c r="E38" s="34"/>
@@ -6995,7 +7010,7 @@
       <c r="H38" s="33"/>
       <c r="I38" s="34"/>
       <c r="J38" s="35" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K38" s="36"/>
       <c r="L38" s="36"/>
@@ -7056,7 +7071,7 @@
     </row>
     <row r="39" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C39" s="32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D39" s="33"/>
       <c r="E39" s="34"/>
@@ -7067,7 +7082,7 @@
       <c r="H39" s="33"/>
       <c r="I39" s="34"/>
       <c r="J39" s="35" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K39" s="36"/>
       <c r="L39" s="36"/>
@@ -7128,7 +7143,7 @@
     </row>
     <row r="40" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C40" s="32" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="D40" s="33"/>
       <c r="E40" s="34"/>
@@ -7139,7 +7154,7 @@
       <c r="H40" s="33"/>
       <c r="I40" s="34"/>
       <c r="J40" s="35" t="s">
-        <v>157</v>
+        <v>104</v>
       </c>
       <c r="K40" s="36"/>
       <c r="L40" s="36"/>
@@ -7198,20 +7213,296 @@
       <c r="BI40" s="33"/>
       <c r="BJ40" s="34"/>
     </row>
+    <row r="41" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C41" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D41" s="33"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="36"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="36"/>
+      <c r="T41" s="36"/>
+      <c r="U41" s="36"/>
+      <c r="V41" s="36"/>
+      <c r="W41" s="36"/>
+      <c r="X41" s="36"/>
+      <c r="Y41" s="36"/>
+      <c r="Z41" s="36"/>
+      <c r="AA41" s="36"/>
+      <c r="AB41" s="36"/>
+      <c r="AC41" s="36"/>
+      <c r="AD41" s="36"/>
+      <c r="AE41" s="36"/>
+      <c r="AF41" s="36"/>
+      <c r="AG41" s="37"/>
+      <c r="AH41" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI41" s="33"/>
+      <c r="AJ41" s="33"/>
+      <c r="AK41" s="33"/>
+      <c r="AL41" s="33"/>
+      <c r="AM41" s="34"/>
+      <c r="AN41" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO41" s="33"/>
+      <c r="AP41" s="33"/>
+      <c r="AQ41" s="34"/>
+      <c r="AR41" s="32"/>
+      <c r="AS41" s="33"/>
+      <c r="AT41" s="33"/>
+      <c r="AU41" s="33"/>
+      <c r="AV41" s="33"/>
+      <c r="AW41" s="33"/>
+      <c r="AX41" s="33"/>
+      <c r="AY41" s="33"/>
+      <c r="AZ41" s="33"/>
+      <c r="BA41" s="33"/>
+      <c r="BB41" s="33"/>
+      <c r="BC41" s="33"/>
+      <c r="BD41" s="33"/>
+      <c r="BE41" s="33"/>
+      <c r="BF41" s="33"/>
+      <c r="BG41" s="33"/>
+      <c r="BH41" s="33"/>
+      <c r="BI41" s="33"/>
+      <c r="BJ41" s="34"/>
+    </row>
   </sheetData>
-  <mergeCells count="246">
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AG34"/>
-    <mergeCell ref="AH34:AM34"/>
-    <mergeCell ref="AN34:AQ34"/>
-    <mergeCell ref="AR34:BJ34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:AG35"/>
-    <mergeCell ref="AH35:AM35"/>
-    <mergeCell ref="AN35:AQ35"/>
-    <mergeCell ref="AR35:BJ35"/>
+  <mergeCells count="252">
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="J41:AG41"/>
+    <mergeCell ref="AH41:AM41"/>
+    <mergeCell ref="AN41:AQ41"/>
+    <mergeCell ref="AR41:BJ41"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:AG40"/>
+    <mergeCell ref="AH40:AM40"/>
+    <mergeCell ref="AN40:AQ40"/>
+    <mergeCell ref="AR40:BJ40"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="AH38:AM38"/>
+    <mergeCell ref="AN38:AQ38"/>
+    <mergeCell ref="AR38:BJ38"/>
+    <mergeCell ref="J38:AG38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:AG39"/>
+    <mergeCell ref="AH39:AM39"/>
+    <mergeCell ref="AN39:AQ39"/>
+    <mergeCell ref="AR39:BJ39"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:AG36"/>
+    <mergeCell ref="AH36:AM36"/>
+    <mergeCell ref="AN36:AQ36"/>
+    <mergeCell ref="AR36:BJ36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AG37"/>
+    <mergeCell ref="AH37:AM37"/>
+    <mergeCell ref="AN37:AQ37"/>
+    <mergeCell ref="AR37:BJ37"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AG30"/>
+    <mergeCell ref="AH30:AM30"/>
+    <mergeCell ref="AN30:AQ30"/>
+    <mergeCell ref="AR30:BJ30"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AG26"/>
+    <mergeCell ref="AH26:AM26"/>
+    <mergeCell ref="AN26:AQ26"/>
+    <mergeCell ref="AR26:BJ26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AG27"/>
+    <mergeCell ref="AH27:AM27"/>
+    <mergeCell ref="AN27:AQ27"/>
+    <mergeCell ref="AR27:BJ27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AG28"/>
+    <mergeCell ref="AH28:AM28"/>
+    <mergeCell ref="AN28:AQ28"/>
+    <mergeCell ref="AR28:BJ28"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AG24"/>
+    <mergeCell ref="AH24:AM24"/>
+    <mergeCell ref="AN24:AQ24"/>
+    <mergeCell ref="AR24:BJ24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AG25"/>
+    <mergeCell ref="AH25:AM25"/>
+    <mergeCell ref="AN25:AQ25"/>
+    <mergeCell ref="AR25:BJ25"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:AG22"/>
+    <mergeCell ref="AH22:AM22"/>
+    <mergeCell ref="AN22:AQ22"/>
+    <mergeCell ref="AR22:BJ22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AG23"/>
+    <mergeCell ref="AH23:AM23"/>
+    <mergeCell ref="AN23:AQ23"/>
+    <mergeCell ref="AR23:BJ23"/>
+    <mergeCell ref="AR18:BJ18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:AG18"/>
+    <mergeCell ref="AH18:AM18"/>
+    <mergeCell ref="AN18:AQ18"/>
+    <mergeCell ref="AR16:BJ16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:AG17"/>
+    <mergeCell ref="AH17:AM17"/>
+    <mergeCell ref="AN17:AQ17"/>
+    <mergeCell ref="AR17:BJ17"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:AG16"/>
+    <mergeCell ref="AH16:AM16"/>
+    <mergeCell ref="AN16:AQ16"/>
+    <mergeCell ref="AR14:BJ14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:AG15"/>
+    <mergeCell ref="AH15:AM15"/>
+    <mergeCell ref="AN15:AQ15"/>
+    <mergeCell ref="AR15:BJ15"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:AG14"/>
+    <mergeCell ref="AH14:AM14"/>
+    <mergeCell ref="AN14:AQ14"/>
+    <mergeCell ref="AR12:BJ12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:AG13"/>
+    <mergeCell ref="AH13:AM13"/>
+    <mergeCell ref="AN13:AQ13"/>
+    <mergeCell ref="AR13:BJ13"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:AG12"/>
+    <mergeCell ref="AH12:AM12"/>
+    <mergeCell ref="AN12:AQ12"/>
+    <mergeCell ref="B1:BK1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:AM2"/>
+    <mergeCell ref="AN2:AS2"/>
+    <mergeCell ref="AT2:AY2"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="BF2:BK2"/>
+    <mergeCell ref="BF3:BK4"/>
+    <mergeCell ref="B3:K4"/>
+    <mergeCell ref="L3:P4"/>
+    <mergeCell ref="Q3:AM4"/>
+    <mergeCell ref="AN3:AS4"/>
+    <mergeCell ref="AT3:AY4"/>
+    <mergeCell ref="AZ3:BE4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="Z5:AB5"/>
+    <mergeCell ref="BJ5:BK5"/>
+    <mergeCell ref="AC5:AE5"/>
+    <mergeCell ref="AF5:AH5"/>
+    <mergeCell ref="AI5:AK5"/>
+    <mergeCell ref="AL5:AN5"/>
+    <mergeCell ref="AO5:AQ5"/>
+    <mergeCell ref="AR5:AT5"/>
+    <mergeCell ref="AU5:AW5"/>
+    <mergeCell ref="AX5:AZ5"/>
+    <mergeCell ref="BA5:BC5"/>
+    <mergeCell ref="BD5:BF5"/>
+    <mergeCell ref="BG5:BI5"/>
+    <mergeCell ref="AR7:BJ7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:AG6"/>
+    <mergeCell ref="AH6:AM6"/>
+    <mergeCell ref="AN6:AQ6"/>
+    <mergeCell ref="AR6:BJ6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:AG7"/>
+    <mergeCell ref="AH7:AM7"/>
+    <mergeCell ref="AN7:AQ7"/>
+    <mergeCell ref="AR9:BJ9"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:AG8"/>
+    <mergeCell ref="AH8:AM8"/>
+    <mergeCell ref="AN8:AQ8"/>
+    <mergeCell ref="AR8:BJ8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:AG9"/>
+    <mergeCell ref="AH9:AM9"/>
+    <mergeCell ref="AN9:AQ9"/>
+    <mergeCell ref="AR11:BJ11"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:AG10"/>
+    <mergeCell ref="AH10:AM10"/>
+    <mergeCell ref="AN10:AQ10"/>
+    <mergeCell ref="AR10:BJ10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:AG11"/>
+    <mergeCell ref="AH11:AM11"/>
+    <mergeCell ref="AN11:AQ11"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:AG21"/>
+    <mergeCell ref="AH21:AM21"/>
+    <mergeCell ref="AN21:AQ21"/>
+    <mergeCell ref="AR21:BJ21"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:AG19"/>
+    <mergeCell ref="AH19:AM19"/>
+    <mergeCell ref="AN19:AQ19"/>
+    <mergeCell ref="AR19:BJ19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:AG20"/>
+    <mergeCell ref="AH20:AM20"/>
+    <mergeCell ref="AN20:AQ20"/>
+    <mergeCell ref="AR20:BJ20"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="F29:I29"/>
     <mergeCell ref="J29:AG29"/>
@@ -7236,216 +7527,18 @@
     <mergeCell ref="AH32:AM32"/>
     <mergeCell ref="AN32:AQ32"/>
     <mergeCell ref="AR32:BJ32"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:AG21"/>
-    <mergeCell ref="AH21:AM21"/>
-    <mergeCell ref="AN21:AQ21"/>
-    <mergeCell ref="AR21:BJ21"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:AG19"/>
-    <mergeCell ref="AH19:AM19"/>
-    <mergeCell ref="AN19:AQ19"/>
-    <mergeCell ref="AR19:BJ19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:AG20"/>
-    <mergeCell ref="AH20:AM20"/>
-    <mergeCell ref="AN20:AQ20"/>
-    <mergeCell ref="AR20:BJ20"/>
-    <mergeCell ref="AR11:BJ11"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:AG10"/>
-    <mergeCell ref="AH10:AM10"/>
-    <mergeCell ref="AN10:AQ10"/>
-    <mergeCell ref="AR10:BJ10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:AG11"/>
-    <mergeCell ref="AH11:AM11"/>
-    <mergeCell ref="AN11:AQ11"/>
-    <mergeCell ref="AR9:BJ9"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:AG8"/>
-    <mergeCell ref="AH8:AM8"/>
-    <mergeCell ref="AN8:AQ8"/>
-    <mergeCell ref="AR8:BJ8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:AG9"/>
-    <mergeCell ref="AH9:AM9"/>
-    <mergeCell ref="AN9:AQ9"/>
-    <mergeCell ref="AR7:BJ7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:AG6"/>
-    <mergeCell ref="AH6:AM6"/>
-    <mergeCell ref="AN6:AQ6"/>
-    <mergeCell ref="AR6:BJ6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:AG7"/>
-    <mergeCell ref="AH7:AM7"/>
-    <mergeCell ref="AN7:AQ7"/>
-    <mergeCell ref="BJ5:BK5"/>
-    <mergeCell ref="AC5:AE5"/>
-    <mergeCell ref="AF5:AH5"/>
-    <mergeCell ref="AI5:AK5"/>
-    <mergeCell ref="AL5:AN5"/>
-    <mergeCell ref="AO5:AQ5"/>
-    <mergeCell ref="AR5:AT5"/>
-    <mergeCell ref="AU5:AW5"/>
-    <mergeCell ref="AX5:AZ5"/>
-    <mergeCell ref="BA5:BC5"/>
-    <mergeCell ref="BD5:BF5"/>
-    <mergeCell ref="BG5:BI5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="Z5:AB5"/>
-    <mergeCell ref="B1:BK1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="Q2:AM2"/>
-    <mergeCell ref="AN2:AS2"/>
-    <mergeCell ref="AT2:AY2"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="BF2:BK2"/>
-    <mergeCell ref="BF3:BK4"/>
-    <mergeCell ref="B3:K4"/>
-    <mergeCell ref="L3:P4"/>
-    <mergeCell ref="Q3:AM4"/>
-    <mergeCell ref="AN3:AS4"/>
-    <mergeCell ref="AT3:AY4"/>
-    <mergeCell ref="AZ3:BE4"/>
-    <mergeCell ref="AR12:BJ12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:AG13"/>
-    <mergeCell ref="AH13:AM13"/>
-    <mergeCell ref="AN13:AQ13"/>
-    <mergeCell ref="AR13:BJ13"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:AG12"/>
-    <mergeCell ref="AH12:AM12"/>
-    <mergeCell ref="AN12:AQ12"/>
-    <mergeCell ref="AR14:BJ14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:AG15"/>
-    <mergeCell ref="AH15:AM15"/>
-    <mergeCell ref="AN15:AQ15"/>
-    <mergeCell ref="AR15:BJ15"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:AG14"/>
-    <mergeCell ref="AH14:AM14"/>
-    <mergeCell ref="AN14:AQ14"/>
-    <mergeCell ref="AR18:BJ18"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:AG18"/>
-    <mergeCell ref="AH18:AM18"/>
-    <mergeCell ref="AN18:AQ18"/>
-    <mergeCell ref="AR16:BJ16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:AG17"/>
-    <mergeCell ref="AH17:AM17"/>
-    <mergeCell ref="AN17:AQ17"/>
-    <mergeCell ref="AR17:BJ17"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:AG16"/>
-    <mergeCell ref="AH16:AM16"/>
-    <mergeCell ref="AN16:AQ16"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:AG22"/>
-    <mergeCell ref="AH22:AM22"/>
-    <mergeCell ref="AN22:AQ22"/>
-    <mergeCell ref="AR22:BJ22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AG23"/>
-    <mergeCell ref="AH23:AM23"/>
-    <mergeCell ref="AN23:AQ23"/>
-    <mergeCell ref="AR23:BJ23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AG24"/>
-    <mergeCell ref="AH24:AM24"/>
-    <mergeCell ref="AN24:AQ24"/>
-    <mergeCell ref="AR24:BJ24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AG25"/>
-    <mergeCell ref="AH25:AM25"/>
-    <mergeCell ref="AN25:AQ25"/>
-    <mergeCell ref="AR25:BJ25"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AG30"/>
-    <mergeCell ref="AH30:AM30"/>
-    <mergeCell ref="AN30:AQ30"/>
-    <mergeCell ref="AR30:BJ30"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AG26"/>
-    <mergeCell ref="AH26:AM26"/>
-    <mergeCell ref="AN26:AQ26"/>
-    <mergeCell ref="AR26:BJ26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AG27"/>
-    <mergeCell ref="AH27:AM27"/>
-    <mergeCell ref="AN27:AQ27"/>
-    <mergeCell ref="AR27:BJ27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AG28"/>
-    <mergeCell ref="AH28:AM28"/>
-    <mergeCell ref="AN28:AQ28"/>
-    <mergeCell ref="AR28:BJ28"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:AG36"/>
-    <mergeCell ref="AH36:AM36"/>
-    <mergeCell ref="AN36:AQ36"/>
-    <mergeCell ref="AR36:BJ36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AG37"/>
-    <mergeCell ref="AH37:AM37"/>
-    <mergeCell ref="AN37:AQ37"/>
-    <mergeCell ref="AR37:BJ37"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="J40:AG40"/>
-    <mergeCell ref="AH40:AM40"/>
-    <mergeCell ref="AN40:AQ40"/>
-    <mergeCell ref="AR40:BJ40"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="AH38:AM38"/>
-    <mergeCell ref="AN38:AQ38"/>
-    <mergeCell ref="AR38:BJ38"/>
-    <mergeCell ref="J38:AG38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="J39:AG39"/>
-    <mergeCell ref="AH39:AM39"/>
-    <mergeCell ref="AN39:AQ39"/>
-    <mergeCell ref="AR39:BJ39"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AG34"/>
+    <mergeCell ref="AH34:AM34"/>
+    <mergeCell ref="AN34:AQ34"/>
+    <mergeCell ref="AR34:BJ34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:AG35"/>
+    <mergeCell ref="AH35:AM35"/>
+    <mergeCell ref="AN35:AQ35"/>
+    <mergeCell ref="AR35:BJ35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7457,7 +7550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53580EB5-55E3-4A05-B78B-1201B5F81BCA}">
   <dimension ref="A1:BL41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="AL40" sqref="AL40:BJ40"/>
     </sheetView>
   </sheetViews>
@@ -7531,298 +7624,298 @@
     </row>
     <row r="2" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
-      <c r="B2" s="18" t="str">
+      <c r="B2" s="28" t="str">
         <f>[1]表紙!$Q$8</f>
         <v>人材管理ソフトメッセージ仕様書</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="19"/>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="19"/>
-      <c r="AP2" s="19"/>
-      <c r="AQ2" s="19"/>
-      <c r="AR2" s="19"/>
-      <c r="AS2" s="19"/>
-      <c r="AT2" s="19"/>
-      <c r="AU2" s="19"/>
-      <c r="AV2" s="19"/>
-      <c r="AW2" s="19"/>
-      <c r="AX2" s="19"/>
-      <c r="AY2" s="19"/>
-      <c r="AZ2" s="19"/>
-      <c r="BA2" s="19"/>
-      <c r="BB2" s="19"/>
-      <c r="BC2" s="19"/>
-      <c r="BD2" s="19"/>
-      <c r="BE2" s="19"/>
-      <c r="BF2" s="19"/>
-      <c r="BG2" s="19"/>
-      <c r="BH2" s="19"/>
-      <c r="BI2" s="19"/>
-      <c r="BJ2" s="19"/>
-      <c r="BK2" s="19"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="29"/>
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="29"/>
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="29"/>
+      <c r="AV2" s="29"/>
+      <c r="AW2" s="29"/>
+      <c r="AX2" s="29"/>
+      <c r="AY2" s="29"/>
+      <c r="AZ2" s="29"/>
+      <c r="BA2" s="29"/>
+      <c r="BB2" s="29"/>
+      <c r="BC2" s="29"/>
+      <c r="BD2" s="29"/>
+      <c r="BE2" s="29"/>
+      <c r="BF2" s="29"/>
+      <c r="BG2" s="29"/>
+      <c r="BH2" s="29"/>
+      <c r="BI2" s="29"/>
+      <c r="BJ2" s="29"/>
+      <c r="BK2" s="29"/>
       <c r="BL2" s="16"/>
     </row>
     <row r="3" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="16"/>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="20" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20" t="s">
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="20"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="20"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="20"/>
-      <c r="AN3" s="21" t="s">
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="30"/>
+      <c r="AI3" s="30"/>
+      <c r="AJ3" s="30"/>
+      <c r="AK3" s="30"/>
+      <c r="AL3" s="30"/>
+      <c r="AM3" s="30"/>
+      <c r="AN3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="AO3" s="21"/>
-      <c r="AP3" s="21"/>
-      <c r="AQ3" s="21"/>
-      <c r="AR3" s="21"/>
-      <c r="AS3" s="21"/>
-      <c r="AT3" s="20" t="s">
+      <c r="AO3" s="31"/>
+      <c r="AP3" s="31"/>
+      <c r="AQ3" s="31"/>
+      <c r="AR3" s="31"/>
+      <c r="AS3" s="31"/>
+      <c r="AT3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="AU3" s="20"/>
-      <c r="AV3" s="20"/>
-      <c r="AW3" s="20"/>
-      <c r="AX3" s="20"/>
-      <c r="AY3" s="20"/>
-      <c r="AZ3" s="20" t="s">
+      <c r="AU3" s="30"/>
+      <c r="AV3" s="30"/>
+      <c r="AW3" s="30"/>
+      <c r="AX3" s="30"/>
+      <c r="AY3" s="30"/>
+      <c r="AZ3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="BA3" s="20"/>
-      <c r="BB3" s="20"/>
-      <c r="BC3" s="20"/>
-      <c r="BD3" s="20"/>
-      <c r="BE3" s="20"/>
-      <c r="BF3" s="20" t="s">
+      <c r="BA3" s="30"/>
+      <c r="BB3" s="30"/>
+      <c r="BC3" s="30"/>
+      <c r="BD3" s="30"/>
+      <c r="BE3" s="30"/>
+      <c r="BF3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="BG3" s="20"/>
-      <c r="BH3" s="20"/>
-      <c r="BI3" s="20"/>
-      <c r="BJ3" s="20"/>
-      <c r="BK3" s="20"/>
+      <c r="BG3" s="30"/>
+      <c r="BH3" s="30"/>
+      <c r="BI3" s="30"/>
+      <c r="BJ3" s="30"/>
+      <c r="BK3" s="30"/>
       <c r="BL3" s="16"/>
     </row>
     <row r="4" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="16"/>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="27">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="26">
         <f>[1]表紙!$L$8</f>
         <v>1.06</v>
       </c>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="22" t="s">
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="22"/>
-      <c r="AJ4" s="22"/>
-      <c r="AK4" s="22"/>
-      <c r="AL4" s="22"/>
-      <c r="AM4" s="22"/>
-      <c r="AN4" s="28">
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="24"/>
+      <c r="AK4" s="24"/>
+      <c r="AL4" s="24"/>
+      <c r="AM4" s="24"/>
+      <c r="AN4" s="27">
         <v>44062</v>
       </c>
-      <c r="AO4" s="22"/>
-      <c r="AP4" s="22"/>
-      <c r="AQ4" s="22"/>
-      <c r="AR4" s="22"/>
-      <c r="AS4" s="22"/>
-      <c r="AT4" s="85" t="s">
+      <c r="AO4" s="24"/>
+      <c r="AP4" s="24"/>
+      <c r="AQ4" s="24"/>
+      <c r="AR4" s="24"/>
+      <c r="AS4" s="24"/>
+      <c r="AT4" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="AU4" s="28"/>
-      <c r="AV4" s="28"/>
-      <c r="AW4" s="28"/>
-      <c r="AX4" s="28"/>
-      <c r="AY4" s="28"/>
-      <c r="AZ4" s="28">
+      <c r="AU4" s="27"/>
+      <c r="AV4" s="27"/>
+      <c r="AW4" s="27"/>
+      <c r="AX4" s="27"/>
+      <c r="AY4" s="27"/>
+      <c r="AZ4" s="27">
         <v>40410</v>
       </c>
-      <c r="BA4" s="22"/>
-      <c r="BB4" s="22"/>
-      <c r="BC4" s="22"/>
-      <c r="BD4" s="22"/>
-      <c r="BE4" s="22"/>
-      <c r="BF4" s="22" t="s">
+      <c r="BA4" s="24"/>
+      <c r="BB4" s="24"/>
+      <c r="BC4" s="24"/>
+      <c r="BD4" s="24"/>
+      <c r="BE4" s="24"/>
+      <c r="BF4" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="BG4" s="22"/>
-      <c r="BH4" s="22"/>
-      <c r="BI4" s="22"/>
-      <c r="BJ4" s="22"/>
-      <c r="BK4" s="22"/>
+      <c r="BG4" s="24"/>
+      <c r="BH4" s="24"/>
+      <c r="BI4" s="24"/>
+      <c r="BJ4" s="24"/>
+      <c r="BK4" s="24"/>
       <c r="BL4" s="16"/>
     </row>
     <row r="5" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="22"/>
-      <c r="AD5" s="22"/>
-      <c r="AE5" s="22"/>
-      <c r="AF5" s="22"/>
-      <c r="AG5" s="22"/>
-      <c r="AH5" s="22"/>
-      <c r="AI5" s="22"/>
-      <c r="AJ5" s="22"/>
-      <c r="AK5" s="22"/>
-      <c r="AL5" s="22"/>
-      <c r="AM5" s="22"/>
-      <c r="AN5" s="22"/>
-      <c r="AO5" s="22"/>
-      <c r="AP5" s="22"/>
-      <c r="AQ5" s="22"/>
-      <c r="AR5" s="22"/>
-      <c r="AS5" s="22"/>
-      <c r="AT5" s="28"/>
-      <c r="AU5" s="28"/>
-      <c r="AV5" s="28"/>
-      <c r="AW5" s="28"/>
-      <c r="AX5" s="28"/>
-      <c r="AY5" s="28"/>
-      <c r="AZ5" s="22"/>
-      <c r="BA5" s="22"/>
-      <c r="BB5" s="22"/>
-      <c r="BC5" s="22"/>
-      <c r="BD5" s="22"/>
-      <c r="BE5" s="22"/>
-      <c r="BF5" s="22"/>
-      <c r="BG5" s="22"/>
-      <c r="BH5" s="22"/>
-      <c r="BI5" s="22"/>
-      <c r="BJ5" s="22"/>
-      <c r="BK5" s="22"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="24"/>
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="24"/>
+      <c r="AG5" s="24"/>
+      <c r="AH5" s="24"/>
+      <c r="AI5" s="24"/>
+      <c r="AJ5" s="24"/>
+      <c r="AK5" s="24"/>
+      <c r="AL5" s="24"/>
+      <c r="AM5" s="24"/>
+      <c r="AN5" s="24"/>
+      <c r="AO5" s="24"/>
+      <c r="AP5" s="24"/>
+      <c r="AQ5" s="24"/>
+      <c r="AR5" s="24"/>
+      <c r="AS5" s="24"/>
+      <c r="AT5" s="27"/>
+      <c r="AU5" s="27"/>
+      <c r="AV5" s="27"/>
+      <c r="AW5" s="27"/>
+      <c r="AX5" s="27"/>
+      <c r="AY5" s="27"/>
+      <c r="AZ5" s="24"/>
+      <c r="BA5" s="24"/>
+      <c r="BB5" s="24"/>
+      <c r="BC5" s="24"/>
+      <c r="BD5" s="24"/>
+      <c r="BE5" s="24"/>
+      <c r="BF5" s="24"/>
+      <c r="BG5" s="24"/>
+      <c r="BH5" s="24"/>
+      <c r="BI5" s="24"/>
+      <c r="BJ5" s="24"/>
+      <c r="BK5" s="24"/>
       <c r="BL5" s="16"/>
     </row>
     <row r="6" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -7894,2384 +7987,2384 @@
     <row r="7" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="16"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="81" t="s">
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="81"/>
-      <c r="S7" s="81"/>
-      <c r="T7" s="81"/>
-      <c r="U7" s="81"/>
-      <c r="V7" s="81"/>
-      <c r="W7" s="81"/>
-      <c r="X7" s="81"/>
-      <c r="Y7" s="81"/>
-      <c r="Z7" s="81"/>
-      <c r="AA7" s="81"/>
-      <c r="AB7" s="81"/>
-      <c r="AC7" s="81"/>
-      <c r="AD7" s="81"/>
-      <c r="AE7" s="81"/>
-      <c r="AF7" s="81"/>
-      <c r="AG7" s="81"/>
-      <c r="AH7" s="81"/>
-      <c r="AI7" s="81"/>
-      <c r="AJ7" s="81"/>
-      <c r="AK7" s="81"/>
-      <c r="AL7" s="81" t="s">
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="72"/>
+      <c r="Z7" s="72"/>
+      <c r="AA7" s="72"/>
+      <c r="AB7" s="72"/>
+      <c r="AC7" s="72"/>
+      <c r="AD7" s="72"/>
+      <c r="AE7" s="72"/>
+      <c r="AF7" s="72"/>
+      <c r="AG7" s="72"/>
+      <c r="AH7" s="72"/>
+      <c r="AI7" s="72"/>
+      <c r="AJ7" s="72"/>
+      <c r="AK7" s="72"/>
+      <c r="AL7" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="AM7" s="81"/>
-      <c r="AN7" s="81"/>
-      <c r="AO7" s="81"/>
-      <c r="AP7" s="81"/>
-      <c r="AQ7" s="81"/>
-      <c r="AR7" s="81"/>
-      <c r="AS7" s="81"/>
-      <c r="AT7" s="81"/>
-      <c r="AU7" s="81"/>
-      <c r="AV7" s="81"/>
-      <c r="AW7" s="81"/>
-      <c r="AX7" s="81"/>
-      <c r="AY7" s="81"/>
-      <c r="AZ7" s="81"/>
-      <c r="BA7" s="81"/>
-      <c r="BB7" s="81"/>
-      <c r="BC7" s="81"/>
-      <c r="BD7" s="81"/>
-      <c r="BE7" s="81"/>
-      <c r="BF7" s="81"/>
-      <c r="BG7" s="81"/>
-      <c r="BH7" s="81"/>
-      <c r="BI7" s="81"/>
-      <c r="BJ7" s="81"/>
+      <c r="AM7" s="72"/>
+      <c r="AN7" s="72"/>
+      <c r="AO7" s="72"/>
+      <c r="AP7" s="72"/>
+      <c r="AQ7" s="72"/>
+      <c r="AR7" s="72"/>
+      <c r="AS7" s="72"/>
+      <c r="AT7" s="72"/>
+      <c r="AU7" s="72"/>
+      <c r="AV7" s="72"/>
+      <c r="AW7" s="72"/>
+      <c r="AX7" s="72"/>
+      <c r="AY7" s="72"/>
+      <c r="AZ7" s="72"/>
+      <c r="BA7" s="72"/>
+      <c r="BB7" s="72"/>
+      <c r="BC7" s="72"/>
+      <c r="BD7" s="72"/>
+      <c r="BE7" s="72"/>
+      <c r="BF7" s="72"/>
+      <c r="BG7" s="72"/>
+      <c r="BH7" s="72"/>
+      <c r="BI7" s="72"/>
+      <c r="BJ7" s="72"/>
       <c r="BK7" s="2"/>
       <c r="BL7" s="16"/>
     </row>
     <row r="8" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="16"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="82" t="s">
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="83"/>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="83"/>
-      <c r="S8" s="83"/>
-      <c r="T8" s="83"/>
-      <c r="U8" s="83"/>
-      <c r="V8" s="83"/>
-      <c r="W8" s="83"/>
-      <c r="X8" s="83"/>
-      <c r="Y8" s="83"/>
-      <c r="Z8" s="83"/>
-      <c r="AA8" s="83"/>
-      <c r="AB8" s="83"/>
-      <c r="AC8" s="83"/>
-      <c r="AD8" s="83"/>
-      <c r="AE8" s="83"/>
-      <c r="AF8" s="83"/>
-      <c r="AG8" s="83"/>
-      <c r="AH8" s="83"/>
-      <c r="AI8" s="83"/>
-      <c r="AJ8" s="83"/>
-      <c r="AK8" s="84"/>
-      <c r="AL8" s="73"/>
-      <c r="AM8" s="73"/>
-      <c r="AN8" s="73"/>
-      <c r="AO8" s="73"/>
-      <c r="AP8" s="73"/>
-      <c r="AQ8" s="73"/>
-      <c r="AR8" s="73"/>
-      <c r="AS8" s="73"/>
-      <c r="AT8" s="73"/>
-      <c r="AU8" s="73"/>
-      <c r="AV8" s="73"/>
-      <c r="AW8" s="73"/>
-      <c r="AX8" s="73"/>
-      <c r="AY8" s="73"/>
-      <c r="AZ8" s="73"/>
-      <c r="BA8" s="73"/>
-      <c r="BB8" s="73"/>
-      <c r="BC8" s="73"/>
-      <c r="BD8" s="73"/>
-      <c r="BE8" s="73"/>
-      <c r="BF8" s="73"/>
-      <c r="BG8" s="73"/>
-      <c r="BH8" s="73"/>
-      <c r="BI8" s="73"/>
-      <c r="BJ8" s="73"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="75"/>
+      <c r="V8" s="75"/>
+      <c r="W8" s="75"/>
+      <c r="X8" s="75"/>
+      <c r="Y8" s="75"/>
+      <c r="Z8" s="75"/>
+      <c r="AA8" s="75"/>
+      <c r="AB8" s="75"/>
+      <c r="AC8" s="75"/>
+      <c r="AD8" s="75"/>
+      <c r="AE8" s="75"/>
+      <c r="AF8" s="75"/>
+      <c r="AG8" s="75"/>
+      <c r="AH8" s="75"/>
+      <c r="AI8" s="75"/>
+      <c r="AJ8" s="75"/>
+      <c r="AK8" s="76"/>
+      <c r="AL8" s="77"/>
+      <c r="AM8" s="77"/>
+      <c r="AN8" s="77"/>
+      <c r="AO8" s="77"/>
+      <c r="AP8" s="77"/>
+      <c r="AQ8" s="77"/>
+      <c r="AR8" s="77"/>
+      <c r="AS8" s="77"/>
+      <c r="AT8" s="77"/>
+      <c r="AU8" s="77"/>
+      <c r="AV8" s="77"/>
+      <c r="AW8" s="77"/>
+      <c r="AX8" s="77"/>
+      <c r="AY8" s="77"/>
+      <c r="AZ8" s="77"/>
+      <c r="BA8" s="77"/>
+      <c r="BB8" s="77"/>
+      <c r="BC8" s="77"/>
+      <c r="BD8" s="77"/>
+      <c r="BE8" s="77"/>
+      <c r="BF8" s="77"/>
+      <c r="BG8" s="77"/>
+      <c r="BH8" s="77"/>
+      <c r="BI8" s="77"/>
+      <c r="BJ8" s="77"/>
       <c r="BK8" s="2"/>
       <c r="BL8" s="16"/>
     </row>
     <row r="9" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="16"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="72" t="s">
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="79" t="s">
         <v>170</v>
       </c>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="72"/>
-      <c r="S9" s="72"/>
-      <c r="T9" s="72"/>
-      <c r="U9" s="72"/>
-      <c r="V9" s="72"/>
-      <c r="W9" s="72"/>
-      <c r="X9" s="72"/>
-      <c r="Y9" s="72"/>
-      <c r="Z9" s="72"/>
-      <c r="AA9" s="72"/>
-      <c r="AB9" s="72"/>
-      <c r="AC9" s="72"/>
-      <c r="AD9" s="72"/>
-      <c r="AE9" s="72"/>
-      <c r="AF9" s="72"/>
-      <c r="AG9" s="72"/>
-      <c r="AH9" s="72"/>
-      <c r="AI9" s="72"/>
-      <c r="AJ9" s="72"/>
-      <c r="AK9" s="72"/>
-      <c r="AL9" s="73"/>
-      <c r="AM9" s="73"/>
-      <c r="AN9" s="73"/>
-      <c r="AO9" s="73"/>
-      <c r="AP9" s="73"/>
-      <c r="AQ9" s="73"/>
-      <c r="AR9" s="73"/>
-      <c r="AS9" s="73"/>
-      <c r="AT9" s="73"/>
-      <c r="AU9" s="73"/>
-      <c r="AV9" s="73"/>
-      <c r="AW9" s="73"/>
-      <c r="AX9" s="73"/>
-      <c r="AY9" s="73"/>
-      <c r="AZ9" s="73"/>
-      <c r="BA9" s="73"/>
-      <c r="BB9" s="73"/>
-      <c r="BC9" s="73"/>
-      <c r="BD9" s="73"/>
-      <c r="BE9" s="73"/>
-      <c r="BF9" s="73"/>
-      <c r="BG9" s="73"/>
-      <c r="BH9" s="73"/>
-      <c r="BI9" s="73"/>
-      <c r="BJ9" s="73"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="79"/>
+      <c r="R9" s="79"/>
+      <c r="S9" s="79"/>
+      <c r="T9" s="79"/>
+      <c r="U9" s="79"/>
+      <c r="V9" s="79"/>
+      <c r="W9" s="79"/>
+      <c r="X9" s="79"/>
+      <c r="Y9" s="79"/>
+      <c r="Z9" s="79"/>
+      <c r="AA9" s="79"/>
+      <c r="AB9" s="79"/>
+      <c r="AC9" s="79"/>
+      <c r="AD9" s="79"/>
+      <c r="AE9" s="79"/>
+      <c r="AF9" s="79"/>
+      <c r="AG9" s="79"/>
+      <c r="AH9" s="79"/>
+      <c r="AI9" s="79"/>
+      <c r="AJ9" s="79"/>
+      <c r="AK9" s="79"/>
+      <c r="AL9" s="77"/>
+      <c r="AM9" s="77"/>
+      <c r="AN9" s="77"/>
+      <c r="AO9" s="77"/>
+      <c r="AP9" s="77"/>
+      <c r="AQ9" s="77"/>
+      <c r="AR9" s="77"/>
+      <c r="AS9" s="77"/>
+      <c r="AT9" s="77"/>
+      <c r="AU9" s="77"/>
+      <c r="AV9" s="77"/>
+      <c r="AW9" s="77"/>
+      <c r="AX9" s="77"/>
+      <c r="AY9" s="77"/>
+      <c r="AZ9" s="77"/>
+      <c r="BA9" s="77"/>
+      <c r="BB9" s="77"/>
+      <c r="BC9" s="77"/>
+      <c r="BD9" s="77"/>
+      <c r="BE9" s="77"/>
+      <c r="BF9" s="77"/>
+      <c r="BG9" s="77"/>
+      <c r="BH9" s="77"/>
+      <c r="BI9" s="77"/>
+      <c r="BJ9" s="77"/>
       <c r="BK9" s="2"/>
       <c r="BL9" s="16"/>
     </row>
     <row r="10" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="16"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="73" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="72" t="s">
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="79" t="s">
         <v>171</v>
       </c>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="72"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="72"/>
-      <c r="V10" s="72"/>
-      <c r="W10" s="72"/>
-      <c r="X10" s="72"/>
-      <c r="Y10" s="72"/>
-      <c r="Z10" s="72"/>
-      <c r="AA10" s="72"/>
-      <c r="AB10" s="72"/>
-      <c r="AC10" s="72"/>
-      <c r="AD10" s="72"/>
-      <c r="AE10" s="72"/>
-      <c r="AF10" s="72"/>
-      <c r="AG10" s="72"/>
-      <c r="AH10" s="72"/>
-      <c r="AI10" s="72"/>
-      <c r="AJ10" s="72"/>
-      <c r="AK10" s="72"/>
-      <c r="AL10" s="73"/>
-      <c r="AM10" s="73"/>
-      <c r="AN10" s="73"/>
-      <c r="AO10" s="73"/>
-      <c r="AP10" s="73"/>
-      <c r="AQ10" s="73"/>
-      <c r="AR10" s="73"/>
-      <c r="AS10" s="73"/>
-      <c r="AT10" s="73"/>
-      <c r="AU10" s="73"/>
-      <c r="AV10" s="73"/>
-      <c r="AW10" s="73"/>
-      <c r="AX10" s="73"/>
-      <c r="AY10" s="73"/>
-      <c r="AZ10" s="73"/>
-      <c r="BA10" s="73"/>
-      <c r="BB10" s="73"/>
-      <c r="BC10" s="73"/>
-      <c r="BD10" s="73"/>
-      <c r="BE10" s="73"/>
-      <c r="BF10" s="73"/>
-      <c r="BG10" s="73"/>
-      <c r="BH10" s="73"/>
-      <c r="BI10" s="73"/>
-      <c r="BJ10" s="73"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="79"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="79"/>
+      <c r="T10" s="79"/>
+      <c r="U10" s="79"/>
+      <c r="V10" s="79"/>
+      <c r="W10" s="79"/>
+      <c r="X10" s="79"/>
+      <c r="Y10" s="79"/>
+      <c r="Z10" s="79"/>
+      <c r="AA10" s="79"/>
+      <c r="AB10" s="79"/>
+      <c r="AC10" s="79"/>
+      <c r="AD10" s="79"/>
+      <c r="AE10" s="79"/>
+      <c r="AF10" s="79"/>
+      <c r="AG10" s="79"/>
+      <c r="AH10" s="79"/>
+      <c r="AI10" s="79"/>
+      <c r="AJ10" s="79"/>
+      <c r="AK10" s="79"/>
+      <c r="AL10" s="77"/>
+      <c r="AM10" s="77"/>
+      <c r="AN10" s="77"/>
+      <c r="AO10" s="77"/>
+      <c r="AP10" s="77"/>
+      <c r="AQ10" s="77"/>
+      <c r="AR10" s="77"/>
+      <c r="AS10" s="77"/>
+      <c r="AT10" s="77"/>
+      <c r="AU10" s="77"/>
+      <c r="AV10" s="77"/>
+      <c r="AW10" s="77"/>
+      <c r="AX10" s="77"/>
+      <c r="AY10" s="77"/>
+      <c r="AZ10" s="77"/>
+      <c r="BA10" s="77"/>
+      <c r="BB10" s="77"/>
+      <c r="BC10" s="77"/>
+      <c r="BD10" s="77"/>
+      <c r="BE10" s="77"/>
+      <c r="BF10" s="77"/>
+      <c r="BG10" s="77"/>
+      <c r="BH10" s="77"/>
+      <c r="BI10" s="77"/>
+      <c r="BJ10" s="77"/>
       <c r="BK10" s="2"/>
       <c r="BL10" s="16"/>
     </row>
     <row r="11" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="16"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="72" t="s">
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="72"/>
-      <c r="S11" s="72"/>
-      <c r="T11" s="72"/>
-      <c r="U11" s="72"/>
-      <c r="V11" s="72"/>
-      <c r="W11" s="72"/>
-      <c r="X11" s="72"/>
-      <c r="Y11" s="72"/>
-      <c r="Z11" s="72"/>
-      <c r="AA11" s="72"/>
-      <c r="AB11" s="72"/>
-      <c r="AC11" s="72"/>
-      <c r="AD11" s="72"/>
-      <c r="AE11" s="72"/>
-      <c r="AF11" s="72"/>
-      <c r="AG11" s="72"/>
-      <c r="AH11" s="72"/>
-      <c r="AI11" s="72"/>
-      <c r="AJ11" s="72"/>
-      <c r="AK11" s="72"/>
-      <c r="AL11" s="73"/>
-      <c r="AM11" s="73"/>
-      <c r="AN11" s="73"/>
-      <c r="AO11" s="73"/>
-      <c r="AP11" s="73"/>
-      <c r="AQ11" s="73"/>
-      <c r="AR11" s="73"/>
-      <c r="AS11" s="73"/>
-      <c r="AT11" s="73"/>
-      <c r="AU11" s="73"/>
-      <c r="AV11" s="73"/>
-      <c r="AW11" s="73"/>
-      <c r="AX11" s="73"/>
-      <c r="AY11" s="73"/>
-      <c r="AZ11" s="73"/>
-      <c r="BA11" s="73"/>
-      <c r="BB11" s="73"/>
-      <c r="BC11" s="73"/>
-      <c r="BD11" s="73"/>
-      <c r="BE11" s="73"/>
-      <c r="BF11" s="73"/>
-      <c r="BG11" s="73"/>
-      <c r="BH11" s="73"/>
-      <c r="BI11" s="73"/>
-      <c r="BJ11" s="73"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="79"/>
+      <c r="P11" s="79"/>
+      <c r="Q11" s="79"/>
+      <c r="R11" s="79"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="79"/>
+      <c r="V11" s="79"/>
+      <c r="W11" s="79"/>
+      <c r="X11" s="79"/>
+      <c r="Y11" s="79"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="79"/>
+      <c r="AB11" s="79"/>
+      <c r="AC11" s="79"/>
+      <c r="AD11" s="79"/>
+      <c r="AE11" s="79"/>
+      <c r="AF11" s="79"/>
+      <c r="AG11" s="79"/>
+      <c r="AH11" s="79"/>
+      <c r="AI11" s="79"/>
+      <c r="AJ11" s="79"/>
+      <c r="AK11" s="79"/>
+      <c r="AL11" s="77"/>
+      <c r="AM11" s="77"/>
+      <c r="AN11" s="77"/>
+      <c r="AO11" s="77"/>
+      <c r="AP11" s="77"/>
+      <c r="AQ11" s="77"/>
+      <c r="AR11" s="77"/>
+      <c r="AS11" s="77"/>
+      <c r="AT11" s="77"/>
+      <c r="AU11" s="77"/>
+      <c r="AV11" s="77"/>
+      <c r="AW11" s="77"/>
+      <c r="AX11" s="77"/>
+      <c r="AY11" s="77"/>
+      <c r="AZ11" s="77"/>
+      <c r="BA11" s="77"/>
+      <c r="BB11" s="77"/>
+      <c r="BC11" s="77"/>
+      <c r="BD11" s="77"/>
+      <c r="BE11" s="77"/>
+      <c r="BF11" s="77"/>
+      <c r="BG11" s="77"/>
+      <c r="BH11" s="77"/>
+      <c r="BI11" s="77"/>
+      <c r="BJ11" s="77"/>
       <c r="BK11" s="2"/>
       <c r="BL11" s="16"/>
     </row>
     <row r="12" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="16"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="72" t="s">
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="79" t="s">
         <v>173</v>
       </c>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="72"/>
-      <c r="S12" s="72"/>
-      <c r="T12" s="72"/>
-      <c r="U12" s="72"/>
-      <c r="V12" s="72"/>
-      <c r="W12" s="72"/>
-      <c r="X12" s="72"/>
-      <c r="Y12" s="72"/>
-      <c r="Z12" s="72"/>
-      <c r="AA12" s="72"/>
-      <c r="AB12" s="72"/>
-      <c r="AC12" s="72"/>
-      <c r="AD12" s="72"/>
-      <c r="AE12" s="72"/>
-      <c r="AF12" s="72"/>
-      <c r="AG12" s="72"/>
-      <c r="AH12" s="72"/>
-      <c r="AI12" s="72"/>
-      <c r="AJ12" s="72"/>
-      <c r="AK12" s="72"/>
-      <c r="AL12" s="73"/>
-      <c r="AM12" s="73"/>
-      <c r="AN12" s="73"/>
-      <c r="AO12" s="73"/>
-      <c r="AP12" s="73"/>
-      <c r="AQ12" s="73"/>
-      <c r="AR12" s="73"/>
-      <c r="AS12" s="73"/>
-      <c r="AT12" s="73"/>
-      <c r="AU12" s="73"/>
-      <c r="AV12" s="73"/>
-      <c r="AW12" s="73"/>
-      <c r="AX12" s="73"/>
-      <c r="AY12" s="73"/>
-      <c r="AZ12" s="73"/>
-      <c r="BA12" s="73"/>
-      <c r="BB12" s="73"/>
-      <c r="BC12" s="73"/>
-      <c r="BD12" s="73"/>
-      <c r="BE12" s="73"/>
-      <c r="BF12" s="73"/>
-      <c r="BG12" s="73"/>
-      <c r="BH12" s="73"/>
-      <c r="BI12" s="73"/>
-      <c r="BJ12" s="73"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="79"/>
+      <c r="P12" s="79"/>
+      <c r="Q12" s="79"/>
+      <c r="R12" s="79"/>
+      <c r="S12" s="79"/>
+      <c r="T12" s="79"/>
+      <c r="U12" s="79"/>
+      <c r="V12" s="79"/>
+      <c r="W12" s="79"/>
+      <c r="X12" s="79"/>
+      <c r="Y12" s="79"/>
+      <c r="Z12" s="79"/>
+      <c r="AA12" s="79"/>
+      <c r="AB12" s="79"/>
+      <c r="AC12" s="79"/>
+      <c r="AD12" s="79"/>
+      <c r="AE12" s="79"/>
+      <c r="AF12" s="79"/>
+      <c r="AG12" s="79"/>
+      <c r="AH12" s="79"/>
+      <c r="AI12" s="79"/>
+      <c r="AJ12" s="79"/>
+      <c r="AK12" s="79"/>
+      <c r="AL12" s="77"/>
+      <c r="AM12" s="77"/>
+      <c r="AN12" s="77"/>
+      <c r="AO12" s="77"/>
+      <c r="AP12" s="77"/>
+      <c r="AQ12" s="77"/>
+      <c r="AR12" s="77"/>
+      <c r="AS12" s="77"/>
+      <c r="AT12" s="77"/>
+      <c r="AU12" s="77"/>
+      <c r="AV12" s="77"/>
+      <c r="AW12" s="77"/>
+      <c r="AX12" s="77"/>
+      <c r="AY12" s="77"/>
+      <c r="AZ12" s="77"/>
+      <c r="BA12" s="77"/>
+      <c r="BB12" s="77"/>
+      <c r="BC12" s="77"/>
+      <c r="BD12" s="77"/>
+      <c r="BE12" s="77"/>
+      <c r="BF12" s="77"/>
+      <c r="BG12" s="77"/>
+      <c r="BH12" s="77"/>
+      <c r="BI12" s="77"/>
+      <c r="BJ12" s="77"/>
       <c r="BK12" s="2"/>
       <c r="BL12" s="16"/>
     </row>
     <row r="13" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="16"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="72" t="s">
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="79" t="s">
         <v>174</v>
       </c>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="72"/>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="72"/>
-      <c r="R13" s="72"/>
-      <c r="S13" s="72"/>
-      <c r="T13" s="72"/>
-      <c r="U13" s="72"/>
-      <c r="V13" s="72"/>
-      <c r="W13" s="72"/>
-      <c r="X13" s="72"/>
-      <c r="Y13" s="72"/>
-      <c r="Z13" s="72"/>
-      <c r="AA13" s="72"/>
-      <c r="AB13" s="72"/>
-      <c r="AC13" s="72"/>
-      <c r="AD13" s="72"/>
-      <c r="AE13" s="72"/>
-      <c r="AF13" s="72"/>
-      <c r="AG13" s="72"/>
-      <c r="AH13" s="72"/>
-      <c r="AI13" s="72"/>
-      <c r="AJ13" s="72"/>
-      <c r="AK13" s="72"/>
-      <c r="AL13" s="73"/>
-      <c r="AM13" s="73"/>
-      <c r="AN13" s="73"/>
-      <c r="AO13" s="73"/>
-      <c r="AP13" s="73"/>
-      <c r="AQ13" s="73"/>
-      <c r="AR13" s="73"/>
-      <c r="AS13" s="73"/>
-      <c r="AT13" s="73"/>
-      <c r="AU13" s="73"/>
-      <c r="AV13" s="73"/>
-      <c r="AW13" s="73"/>
-      <c r="AX13" s="73"/>
-      <c r="AY13" s="73"/>
-      <c r="AZ13" s="73"/>
-      <c r="BA13" s="73"/>
-      <c r="BB13" s="73"/>
-      <c r="BC13" s="73"/>
-      <c r="BD13" s="73"/>
-      <c r="BE13" s="73"/>
-      <c r="BF13" s="73"/>
-      <c r="BG13" s="73"/>
-      <c r="BH13" s="73"/>
-      <c r="BI13" s="73"/>
-      <c r="BJ13" s="73"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="79"/>
+      <c r="P13" s="79"/>
+      <c r="Q13" s="79"/>
+      <c r="R13" s="79"/>
+      <c r="S13" s="79"/>
+      <c r="T13" s="79"/>
+      <c r="U13" s="79"/>
+      <c r="V13" s="79"/>
+      <c r="W13" s="79"/>
+      <c r="X13" s="79"/>
+      <c r="Y13" s="79"/>
+      <c r="Z13" s="79"/>
+      <c r="AA13" s="79"/>
+      <c r="AB13" s="79"/>
+      <c r="AC13" s="79"/>
+      <c r="AD13" s="79"/>
+      <c r="AE13" s="79"/>
+      <c r="AF13" s="79"/>
+      <c r="AG13" s="79"/>
+      <c r="AH13" s="79"/>
+      <c r="AI13" s="79"/>
+      <c r="AJ13" s="79"/>
+      <c r="AK13" s="79"/>
+      <c r="AL13" s="77"/>
+      <c r="AM13" s="77"/>
+      <c r="AN13" s="77"/>
+      <c r="AO13" s="77"/>
+      <c r="AP13" s="77"/>
+      <c r="AQ13" s="77"/>
+      <c r="AR13" s="77"/>
+      <c r="AS13" s="77"/>
+      <c r="AT13" s="77"/>
+      <c r="AU13" s="77"/>
+      <c r="AV13" s="77"/>
+      <c r="AW13" s="77"/>
+      <c r="AX13" s="77"/>
+      <c r="AY13" s="77"/>
+      <c r="AZ13" s="77"/>
+      <c r="BA13" s="77"/>
+      <c r="BB13" s="77"/>
+      <c r="BC13" s="77"/>
+      <c r="BD13" s="77"/>
+      <c r="BE13" s="77"/>
+      <c r="BF13" s="77"/>
+      <c r="BG13" s="77"/>
+      <c r="BH13" s="77"/>
+      <c r="BI13" s="77"/>
+      <c r="BJ13" s="77"/>
       <c r="BK13" s="2"/>
       <c r="BL13" s="16"/>
     </row>
     <row r="14" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="16"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="73" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="72" t="s">
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="72"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="72"/>
-      <c r="R14" s="72"/>
-      <c r="S14" s="72"/>
-      <c r="T14" s="72"/>
-      <c r="U14" s="72"/>
-      <c r="V14" s="72"/>
-      <c r="W14" s="72"/>
-      <c r="X14" s="72"/>
-      <c r="Y14" s="72"/>
-      <c r="Z14" s="72"/>
-      <c r="AA14" s="72"/>
-      <c r="AB14" s="72"/>
-      <c r="AC14" s="72"/>
-      <c r="AD14" s="72"/>
-      <c r="AE14" s="72"/>
-      <c r="AF14" s="72"/>
-      <c r="AG14" s="72"/>
-      <c r="AH14" s="72"/>
-      <c r="AI14" s="72"/>
-      <c r="AJ14" s="72"/>
-      <c r="AK14" s="72"/>
-      <c r="AL14" s="73"/>
-      <c r="AM14" s="73"/>
-      <c r="AN14" s="73"/>
-      <c r="AO14" s="73"/>
-      <c r="AP14" s="73"/>
-      <c r="AQ14" s="73"/>
-      <c r="AR14" s="73"/>
-      <c r="AS14" s="73"/>
-      <c r="AT14" s="73"/>
-      <c r="AU14" s="73"/>
-      <c r="AV14" s="73"/>
-      <c r="AW14" s="73"/>
-      <c r="AX14" s="73"/>
-      <c r="AY14" s="73"/>
-      <c r="AZ14" s="73"/>
-      <c r="BA14" s="73"/>
-      <c r="BB14" s="73"/>
-      <c r="BC14" s="73"/>
-      <c r="BD14" s="73"/>
-      <c r="BE14" s="73"/>
-      <c r="BF14" s="73"/>
-      <c r="BG14" s="73"/>
-      <c r="BH14" s="73"/>
-      <c r="BI14" s="73"/>
-      <c r="BJ14" s="73"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="79"/>
+      <c r="O14" s="79"/>
+      <c r="P14" s="79"/>
+      <c r="Q14" s="79"/>
+      <c r="R14" s="79"/>
+      <c r="S14" s="79"/>
+      <c r="T14" s="79"/>
+      <c r="U14" s="79"/>
+      <c r="V14" s="79"/>
+      <c r="W14" s="79"/>
+      <c r="X14" s="79"/>
+      <c r="Y14" s="79"/>
+      <c r="Z14" s="79"/>
+      <c r="AA14" s="79"/>
+      <c r="AB14" s="79"/>
+      <c r="AC14" s="79"/>
+      <c r="AD14" s="79"/>
+      <c r="AE14" s="79"/>
+      <c r="AF14" s="79"/>
+      <c r="AG14" s="79"/>
+      <c r="AH14" s="79"/>
+      <c r="AI14" s="79"/>
+      <c r="AJ14" s="79"/>
+      <c r="AK14" s="79"/>
+      <c r="AL14" s="77"/>
+      <c r="AM14" s="77"/>
+      <c r="AN14" s="77"/>
+      <c r="AO14" s="77"/>
+      <c r="AP14" s="77"/>
+      <c r="AQ14" s="77"/>
+      <c r="AR14" s="77"/>
+      <c r="AS14" s="77"/>
+      <c r="AT14" s="77"/>
+      <c r="AU14" s="77"/>
+      <c r="AV14" s="77"/>
+      <c r="AW14" s="77"/>
+      <c r="AX14" s="77"/>
+      <c r="AY14" s="77"/>
+      <c r="AZ14" s="77"/>
+      <c r="BA14" s="77"/>
+      <c r="BB14" s="77"/>
+      <c r="BC14" s="77"/>
+      <c r="BD14" s="77"/>
+      <c r="BE14" s="77"/>
+      <c r="BF14" s="77"/>
+      <c r="BG14" s="77"/>
+      <c r="BH14" s="77"/>
+      <c r="BI14" s="77"/>
+      <c r="BJ14" s="77"/>
       <c r="BK14" s="2"/>
       <c r="BL14" s="16"/>
     </row>
     <row r="15" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="16"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="72" t="s">
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="79" t="s">
         <v>177</v>
       </c>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="72"/>
-      <c r="S15" s="72"/>
-      <c r="T15" s="72"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="72"/>
-      <c r="W15" s="72"/>
-      <c r="X15" s="72"/>
-      <c r="Y15" s="72"/>
-      <c r="Z15" s="72"/>
-      <c r="AA15" s="72"/>
-      <c r="AB15" s="72"/>
-      <c r="AC15" s="72"/>
-      <c r="AD15" s="72"/>
-      <c r="AE15" s="72"/>
-      <c r="AF15" s="72"/>
-      <c r="AG15" s="72"/>
-      <c r="AH15" s="72"/>
-      <c r="AI15" s="72"/>
-      <c r="AJ15" s="72"/>
-      <c r="AK15" s="72"/>
-      <c r="AL15" s="73"/>
-      <c r="AM15" s="73"/>
-      <c r="AN15" s="73"/>
-      <c r="AO15" s="73"/>
-      <c r="AP15" s="73"/>
-      <c r="AQ15" s="73"/>
-      <c r="AR15" s="73"/>
-      <c r="AS15" s="73"/>
-      <c r="AT15" s="73"/>
-      <c r="AU15" s="73"/>
-      <c r="AV15" s="73"/>
-      <c r="AW15" s="73"/>
-      <c r="AX15" s="73"/>
-      <c r="AY15" s="73"/>
-      <c r="AZ15" s="73"/>
-      <c r="BA15" s="73"/>
-      <c r="BB15" s="73"/>
-      <c r="BC15" s="73"/>
-      <c r="BD15" s="73"/>
-      <c r="BE15" s="73"/>
-      <c r="BF15" s="73"/>
-      <c r="BG15" s="73"/>
-      <c r="BH15" s="73"/>
-      <c r="BI15" s="73"/>
-      <c r="BJ15" s="73"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="79"/>
+      <c r="P15" s="79"/>
+      <c r="Q15" s="79"/>
+      <c r="R15" s="79"/>
+      <c r="S15" s="79"/>
+      <c r="T15" s="79"/>
+      <c r="U15" s="79"/>
+      <c r="V15" s="79"/>
+      <c r="W15" s="79"/>
+      <c r="X15" s="79"/>
+      <c r="Y15" s="79"/>
+      <c r="Z15" s="79"/>
+      <c r="AA15" s="79"/>
+      <c r="AB15" s="79"/>
+      <c r="AC15" s="79"/>
+      <c r="AD15" s="79"/>
+      <c r="AE15" s="79"/>
+      <c r="AF15" s="79"/>
+      <c r="AG15" s="79"/>
+      <c r="AH15" s="79"/>
+      <c r="AI15" s="79"/>
+      <c r="AJ15" s="79"/>
+      <c r="AK15" s="79"/>
+      <c r="AL15" s="77"/>
+      <c r="AM15" s="77"/>
+      <c r="AN15" s="77"/>
+      <c r="AO15" s="77"/>
+      <c r="AP15" s="77"/>
+      <c r="AQ15" s="77"/>
+      <c r="AR15" s="77"/>
+      <c r="AS15" s="77"/>
+      <c r="AT15" s="77"/>
+      <c r="AU15" s="77"/>
+      <c r="AV15" s="77"/>
+      <c r="AW15" s="77"/>
+      <c r="AX15" s="77"/>
+      <c r="AY15" s="77"/>
+      <c r="AZ15" s="77"/>
+      <c r="BA15" s="77"/>
+      <c r="BB15" s="77"/>
+      <c r="BC15" s="77"/>
+      <c r="BD15" s="77"/>
+      <c r="BE15" s="77"/>
+      <c r="BF15" s="77"/>
+      <c r="BG15" s="77"/>
+      <c r="BH15" s="77"/>
+      <c r="BI15" s="77"/>
+      <c r="BJ15" s="77"/>
       <c r="BK15" s="2"/>
       <c r="BL15" s="16"/>
     </row>
     <row r="16" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="16"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="72" t="s">
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="79" t="s">
         <v>178</v>
       </c>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="72"/>
-      <c r="U16" s="72"/>
-      <c r="V16" s="72"/>
-      <c r="W16" s="72"/>
-      <c r="X16" s="72"/>
-      <c r="Y16" s="72"/>
-      <c r="Z16" s="72"/>
-      <c r="AA16" s="72"/>
-      <c r="AB16" s="72"/>
-      <c r="AC16" s="72"/>
-      <c r="AD16" s="72"/>
-      <c r="AE16" s="72"/>
-      <c r="AF16" s="72"/>
-      <c r="AG16" s="72"/>
-      <c r="AH16" s="72"/>
-      <c r="AI16" s="72"/>
-      <c r="AJ16" s="72"/>
-      <c r="AK16" s="72"/>
-      <c r="AL16" s="73"/>
-      <c r="AM16" s="73"/>
-      <c r="AN16" s="73"/>
-      <c r="AO16" s="73"/>
-      <c r="AP16" s="73"/>
-      <c r="AQ16" s="73"/>
-      <c r="AR16" s="73"/>
-      <c r="AS16" s="73"/>
-      <c r="AT16" s="73"/>
-      <c r="AU16" s="73"/>
-      <c r="AV16" s="73"/>
-      <c r="AW16" s="73"/>
-      <c r="AX16" s="73"/>
-      <c r="AY16" s="73"/>
-      <c r="AZ16" s="73"/>
-      <c r="BA16" s="73"/>
-      <c r="BB16" s="73"/>
-      <c r="BC16" s="73"/>
-      <c r="BD16" s="73"/>
-      <c r="BE16" s="73"/>
-      <c r="BF16" s="73"/>
-      <c r="BG16" s="73"/>
-      <c r="BH16" s="73"/>
-      <c r="BI16" s="73"/>
-      <c r="BJ16" s="73"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="79"/>
+      <c r="R16" s="79"/>
+      <c r="S16" s="79"/>
+      <c r="T16" s="79"/>
+      <c r="U16" s="79"/>
+      <c r="V16" s="79"/>
+      <c r="W16" s="79"/>
+      <c r="X16" s="79"/>
+      <c r="Y16" s="79"/>
+      <c r="Z16" s="79"/>
+      <c r="AA16" s="79"/>
+      <c r="AB16" s="79"/>
+      <c r="AC16" s="79"/>
+      <c r="AD16" s="79"/>
+      <c r="AE16" s="79"/>
+      <c r="AF16" s="79"/>
+      <c r="AG16" s="79"/>
+      <c r="AH16" s="79"/>
+      <c r="AI16" s="79"/>
+      <c r="AJ16" s="79"/>
+      <c r="AK16" s="79"/>
+      <c r="AL16" s="77"/>
+      <c r="AM16" s="77"/>
+      <c r="AN16" s="77"/>
+      <c r="AO16" s="77"/>
+      <c r="AP16" s="77"/>
+      <c r="AQ16" s="77"/>
+      <c r="AR16" s="77"/>
+      <c r="AS16" s="77"/>
+      <c r="AT16" s="77"/>
+      <c r="AU16" s="77"/>
+      <c r="AV16" s="77"/>
+      <c r="AW16" s="77"/>
+      <c r="AX16" s="77"/>
+      <c r="AY16" s="77"/>
+      <c r="AZ16" s="77"/>
+      <c r="BA16" s="77"/>
+      <c r="BB16" s="77"/>
+      <c r="BC16" s="77"/>
+      <c r="BD16" s="77"/>
+      <c r="BE16" s="77"/>
+      <c r="BF16" s="77"/>
+      <c r="BG16" s="77"/>
+      <c r="BH16" s="77"/>
+      <c r="BI16" s="77"/>
+      <c r="BJ16" s="77"/>
       <c r="BK16" s="2"/>
       <c r="BL16" s="16"/>
     </row>
     <row r="17" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="16"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="73" t="s">
         <v>118</v>
       </c>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="72" t="s">
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="79" t="s">
         <v>129</v>
       </c>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="72"/>
-      <c r="O17" s="72"/>
-      <c r="P17" s="72"/>
-      <c r="Q17" s="72"/>
-      <c r="R17" s="72"/>
-      <c r="S17" s="72"/>
-      <c r="T17" s="72"/>
-      <c r="U17" s="72"/>
-      <c r="V17" s="72"/>
-      <c r="W17" s="72"/>
-      <c r="X17" s="72"/>
-      <c r="Y17" s="72"/>
-      <c r="Z17" s="72"/>
-      <c r="AA17" s="72"/>
-      <c r="AB17" s="72"/>
-      <c r="AC17" s="72"/>
-      <c r="AD17" s="72"/>
-      <c r="AE17" s="72"/>
-      <c r="AF17" s="72"/>
-      <c r="AG17" s="72"/>
-      <c r="AH17" s="72"/>
-      <c r="AI17" s="72"/>
-      <c r="AJ17" s="72"/>
-      <c r="AK17" s="72"/>
-      <c r="AL17" s="73"/>
-      <c r="AM17" s="73"/>
-      <c r="AN17" s="73"/>
-      <c r="AO17" s="73"/>
-      <c r="AP17" s="73"/>
-      <c r="AQ17" s="73"/>
-      <c r="AR17" s="73"/>
-      <c r="AS17" s="73"/>
-      <c r="AT17" s="73"/>
-      <c r="AU17" s="73"/>
-      <c r="AV17" s="73"/>
-      <c r="AW17" s="73"/>
-      <c r="AX17" s="73"/>
-      <c r="AY17" s="73"/>
-      <c r="AZ17" s="73"/>
-      <c r="BA17" s="73"/>
-      <c r="BB17" s="73"/>
-      <c r="BC17" s="73"/>
-      <c r="BD17" s="73"/>
-      <c r="BE17" s="73"/>
-      <c r="BF17" s="73"/>
-      <c r="BG17" s="73"/>
-      <c r="BH17" s="73"/>
-      <c r="BI17" s="73"/>
-      <c r="BJ17" s="73"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="79"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="79"/>
+      <c r="X17" s="79"/>
+      <c r="Y17" s="79"/>
+      <c r="Z17" s="79"/>
+      <c r="AA17" s="79"/>
+      <c r="AB17" s="79"/>
+      <c r="AC17" s="79"/>
+      <c r="AD17" s="79"/>
+      <c r="AE17" s="79"/>
+      <c r="AF17" s="79"/>
+      <c r="AG17" s="79"/>
+      <c r="AH17" s="79"/>
+      <c r="AI17" s="79"/>
+      <c r="AJ17" s="79"/>
+      <c r="AK17" s="79"/>
+      <c r="AL17" s="77"/>
+      <c r="AM17" s="77"/>
+      <c r="AN17" s="77"/>
+      <c r="AO17" s="77"/>
+      <c r="AP17" s="77"/>
+      <c r="AQ17" s="77"/>
+      <c r="AR17" s="77"/>
+      <c r="AS17" s="77"/>
+      <c r="AT17" s="77"/>
+      <c r="AU17" s="77"/>
+      <c r="AV17" s="77"/>
+      <c r="AW17" s="77"/>
+      <c r="AX17" s="77"/>
+      <c r="AY17" s="77"/>
+      <c r="AZ17" s="77"/>
+      <c r="BA17" s="77"/>
+      <c r="BB17" s="77"/>
+      <c r="BC17" s="77"/>
+      <c r="BD17" s="77"/>
+      <c r="BE17" s="77"/>
+      <c r="BF17" s="77"/>
+      <c r="BG17" s="77"/>
+      <c r="BH17" s="77"/>
+      <c r="BI17" s="77"/>
+      <c r="BJ17" s="77"/>
       <c r="BK17" s="2"/>
       <c r="BL17" s="16"/>
     </row>
     <row r="18" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="16"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="72" t="s">
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="72"/>
-      <c r="S18" s="72"/>
-      <c r="T18" s="72"/>
-      <c r="U18" s="72"/>
-      <c r="V18" s="72"/>
-      <c r="W18" s="72"/>
-      <c r="X18" s="72"/>
-      <c r="Y18" s="72"/>
-      <c r="Z18" s="72"/>
-      <c r="AA18" s="72"/>
-      <c r="AB18" s="72"/>
-      <c r="AC18" s="72"/>
-      <c r="AD18" s="72"/>
-      <c r="AE18" s="72"/>
-      <c r="AF18" s="72"/>
-      <c r="AG18" s="72"/>
-      <c r="AH18" s="72"/>
-      <c r="AI18" s="72"/>
-      <c r="AJ18" s="72"/>
-      <c r="AK18" s="72"/>
-      <c r="AL18" s="73"/>
-      <c r="AM18" s="73"/>
-      <c r="AN18" s="73"/>
-      <c r="AO18" s="73"/>
-      <c r="AP18" s="73"/>
-      <c r="AQ18" s="73"/>
-      <c r="AR18" s="73"/>
-      <c r="AS18" s="73"/>
-      <c r="AT18" s="73"/>
-      <c r="AU18" s="73"/>
-      <c r="AV18" s="73"/>
-      <c r="AW18" s="73"/>
-      <c r="AX18" s="73"/>
-      <c r="AY18" s="73"/>
-      <c r="AZ18" s="73"/>
-      <c r="BA18" s="73"/>
-      <c r="BB18" s="73"/>
-      <c r="BC18" s="73"/>
-      <c r="BD18" s="73"/>
-      <c r="BE18" s="73"/>
-      <c r="BF18" s="73"/>
-      <c r="BG18" s="73"/>
-      <c r="BH18" s="73"/>
-      <c r="BI18" s="73"/>
-      <c r="BJ18" s="73"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="79"/>
+      <c r="U18" s="79"/>
+      <c r="V18" s="79"/>
+      <c r="W18" s="79"/>
+      <c r="X18" s="79"/>
+      <c r="Y18" s="79"/>
+      <c r="Z18" s="79"/>
+      <c r="AA18" s="79"/>
+      <c r="AB18" s="79"/>
+      <c r="AC18" s="79"/>
+      <c r="AD18" s="79"/>
+      <c r="AE18" s="79"/>
+      <c r="AF18" s="79"/>
+      <c r="AG18" s="79"/>
+      <c r="AH18" s="79"/>
+      <c r="AI18" s="79"/>
+      <c r="AJ18" s="79"/>
+      <c r="AK18" s="79"/>
+      <c r="AL18" s="77"/>
+      <c r="AM18" s="77"/>
+      <c r="AN18" s="77"/>
+      <c r="AO18" s="77"/>
+      <c r="AP18" s="77"/>
+      <c r="AQ18" s="77"/>
+      <c r="AR18" s="77"/>
+      <c r="AS18" s="77"/>
+      <c r="AT18" s="77"/>
+      <c r="AU18" s="77"/>
+      <c r="AV18" s="77"/>
+      <c r="AW18" s="77"/>
+      <c r="AX18" s="77"/>
+      <c r="AY18" s="77"/>
+      <c r="AZ18" s="77"/>
+      <c r="BA18" s="77"/>
+      <c r="BB18" s="77"/>
+      <c r="BC18" s="77"/>
+      <c r="BD18" s="77"/>
+      <c r="BE18" s="77"/>
+      <c r="BF18" s="77"/>
+      <c r="BG18" s="77"/>
+      <c r="BH18" s="77"/>
+      <c r="BI18" s="77"/>
+      <c r="BJ18" s="77"/>
       <c r="BK18" s="2"/>
       <c r="BL18" s="16"/>
     </row>
     <row r="19" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="16"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="71" t="s">
+      <c r="C19" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="77" t="s">
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="78"/>
-      <c r="N19" s="78"/>
-      <c r="O19" s="78"/>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="78"/>
-      <c r="R19" s="78"/>
-      <c r="S19" s="78"/>
-      <c r="T19" s="78"/>
-      <c r="U19" s="78"/>
-      <c r="V19" s="78"/>
-      <c r="W19" s="78"/>
-      <c r="X19" s="78"/>
-      <c r="Y19" s="78"/>
-      <c r="Z19" s="78"/>
-      <c r="AA19" s="78"/>
-      <c r="AB19" s="78"/>
-      <c r="AC19" s="78"/>
-      <c r="AD19" s="78"/>
-      <c r="AE19" s="78"/>
-      <c r="AF19" s="78"/>
-      <c r="AG19" s="78"/>
-      <c r="AH19" s="78"/>
-      <c r="AI19" s="78"/>
-      <c r="AJ19" s="78"/>
-      <c r="AK19" s="79"/>
-      <c r="AL19" s="73"/>
-      <c r="AM19" s="73"/>
-      <c r="AN19" s="73"/>
-      <c r="AO19" s="73"/>
-      <c r="AP19" s="73"/>
-      <c r="AQ19" s="73"/>
-      <c r="AR19" s="73"/>
-      <c r="AS19" s="73"/>
-      <c r="AT19" s="73"/>
-      <c r="AU19" s="73"/>
-      <c r="AV19" s="73"/>
-      <c r="AW19" s="73"/>
-      <c r="AX19" s="73"/>
-      <c r="AY19" s="73"/>
-      <c r="AZ19" s="73"/>
-      <c r="BA19" s="73"/>
-      <c r="BB19" s="73"/>
-      <c r="BC19" s="73"/>
-      <c r="BD19" s="73"/>
-      <c r="BE19" s="73"/>
-      <c r="BF19" s="73"/>
-      <c r="BG19" s="73"/>
-      <c r="BH19" s="73"/>
-      <c r="BI19" s="73"/>
-      <c r="BJ19" s="73"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="81"/>
+      <c r="P19" s="81"/>
+      <c r="Q19" s="81"/>
+      <c r="R19" s="81"/>
+      <c r="S19" s="81"/>
+      <c r="T19" s="81"/>
+      <c r="U19" s="81"/>
+      <c r="V19" s="81"/>
+      <c r="W19" s="81"/>
+      <c r="X19" s="81"/>
+      <c r="Y19" s="81"/>
+      <c r="Z19" s="81"/>
+      <c r="AA19" s="81"/>
+      <c r="AB19" s="81"/>
+      <c r="AC19" s="81"/>
+      <c r="AD19" s="81"/>
+      <c r="AE19" s="81"/>
+      <c r="AF19" s="81"/>
+      <c r="AG19" s="81"/>
+      <c r="AH19" s="81"/>
+      <c r="AI19" s="81"/>
+      <c r="AJ19" s="81"/>
+      <c r="AK19" s="82"/>
+      <c r="AL19" s="77"/>
+      <c r="AM19" s="77"/>
+      <c r="AN19" s="77"/>
+      <c r="AO19" s="77"/>
+      <c r="AP19" s="77"/>
+      <c r="AQ19" s="77"/>
+      <c r="AR19" s="77"/>
+      <c r="AS19" s="77"/>
+      <c r="AT19" s="77"/>
+      <c r="AU19" s="77"/>
+      <c r="AV19" s="77"/>
+      <c r="AW19" s="77"/>
+      <c r="AX19" s="77"/>
+      <c r="AY19" s="77"/>
+      <c r="AZ19" s="77"/>
+      <c r="BA19" s="77"/>
+      <c r="BB19" s="77"/>
+      <c r="BC19" s="77"/>
+      <c r="BD19" s="77"/>
+      <c r="BE19" s="77"/>
+      <c r="BF19" s="77"/>
+      <c r="BG19" s="77"/>
+      <c r="BH19" s="77"/>
+      <c r="BI19" s="77"/>
+      <c r="BJ19" s="77"/>
       <c r="BK19" s="2"/>
       <c r="BL19" s="16"/>
     </row>
     <row r="20" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="16"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="71" t="s">
+      <c r="C20" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="74" t="s">
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="75"/>
-      <c r="Q20" s="75"/>
-      <c r="R20" s="75"/>
-      <c r="S20" s="75"/>
-      <c r="T20" s="75"/>
-      <c r="U20" s="75"/>
-      <c r="V20" s="75"/>
-      <c r="W20" s="75"/>
-      <c r="X20" s="75"/>
-      <c r="Y20" s="75"/>
-      <c r="Z20" s="75"/>
-      <c r="AA20" s="75"/>
-      <c r="AB20" s="75"/>
-      <c r="AC20" s="75"/>
-      <c r="AD20" s="75"/>
-      <c r="AE20" s="75"/>
-      <c r="AF20" s="75"/>
-      <c r="AG20" s="75"/>
-      <c r="AH20" s="75"/>
-      <c r="AI20" s="75"/>
-      <c r="AJ20" s="75"/>
-      <c r="AK20" s="76"/>
-      <c r="AL20" s="73" t="s">
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="84"/>
+      <c r="O20" s="84"/>
+      <c r="P20" s="84"/>
+      <c r="Q20" s="84"/>
+      <c r="R20" s="84"/>
+      <c r="S20" s="84"/>
+      <c r="T20" s="84"/>
+      <c r="U20" s="84"/>
+      <c r="V20" s="84"/>
+      <c r="W20" s="84"/>
+      <c r="X20" s="84"/>
+      <c r="Y20" s="84"/>
+      <c r="Z20" s="84"/>
+      <c r="AA20" s="84"/>
+      <c r="AB20" s="84"/>
+      <c r="AC20" s="84"/>
+      <c r="AD20" s="84"/>
+      <c r="AE20" s="84"/>
+      <c r="AF20" s="84"/>
+      <c r="AG20" s="84"/>
+      <c r="AH20" s="84"/>
+      <c r="AI20" s="84"/>
+      <c r="AJ20" s="84"/>
+      <c r="AK20" s="85"/>
+      <c r="AL20" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="AM20" s="73"/>
-      <c r="AN20" s="73"/>
-      <c r="AO20" s="73"/>
-      <c r="AP20" s="73"/>
-      <c r="AQ20" s="73"/>
-      <c r="AR20" s="73"/>
-      <c r="AS20" s="73"/>
-      <c r="AT20" s="73"/>
-      <c r="AU20" s="73"/>
-      <c r="AV20" s="73"/>
-      <c r="AW20" s="73"/>
-      <c r="AX20" s="73"/>
-      <c r="AY20" s="73"/>
-      <c r="AZ20" s="73"/>
-      <c r="BA20" s="73"/>
-      <c r="BB20" s="73"/>
-      <c r="BC20" s="73"/>
-      <c r="BD20" s="73"/>
-      <c r="BE20" s="73"/>
-      <c r="BF20" s="73"/>
-      <c r="BG20" s="73"/>
-      <c r="BH20" s="73"/>
-      <c r="BI20" s="73"/>
-      <c r="BJ20" s="73"/>
+      <c r="AM20" s="77"/>
+      <c r="AN20" s="77"/>
+      <c r="AO20" s="77"/>
+      <c r="AP20" s="77"/>
+      <c r="AQ20" s="77"/>
+      <c r="AR20" s="77"/>
+      <c r="AS20" s="77"/>
+      <c r="AT20" s="77"/>
+      <c r="AU20" s="77"/>
+      <c r="AV20" s="77"/>
+      <c r="AW20" s="77"/>
+      <c r="AX20" s="77"/>
+      <c r="AY20" s="77"/>
+      <c r="AZ20" s="77"/>
+      <c r="BA20" s="77"/>
+      <c r="BB20" s="77"/>
+      <c r="BC20" s="77"/>
+      <c r="BD20" s="77"/>
+      <c r="BE20" s="77"/>
+      <c r="BF20" s="77"/>
+      <c r="BG20" s="77"/>
+      <c r="BH20" s="77"/>
+      <c r="BI20" s="77"/>
+      <c r="BJ20" s="77"/>
       <c r="BK20" s="2"/>
       <c r="BL20" s="16"/>
     </row>
     <row r="21" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="16"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="71" t="s">
+      <c r="C21" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="74" t="s">
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="75"/>
-      <c r="P21" s="75"/>
-      <c r="Q21" s="75"/>
-      <c r="R21" s="75"/>
-      <c r="S21" s="75"/>
-      <c r="T21" s="75"/>
-      <c r="U21" s="75"/>
-      <c r="V21" s="75"/>
-      <c r="W21" s="75"/>
-      <c r="X21" s="75"/>
-      <c r="Y21" s="75"/>
-      <c r="Z21" s="75"/>
-      <c r="AA21" s="75"/>
-      <c r="AB21" s="75"/>
-      <c r="AC21" s="75"/>
-      <c r="AD21" s="75"/>
-      <c r="AE21" s="75"/>
-      <c r="AF21" s="75"/>
-      <c r="AG21" s="75"/>
-      <c r="AH21" s="75"/>
-      <c r="AI21" s="75"/>
-      <c r="AJ21" s="75"/>
-      <c r="AK21" s="76"/>
-      <c r="AL21" s="73"/>
-      <c r="AM21" s="73"/>
-      <c r="AN21" s="73"/>
-      <c r="AO21" s="73"/>
-      <c r="AP21" s="73"/>
-      <c r="AQ21" s="73"/>
-      <c r="AR21" s="73"/>
-      <c r="AS21" s="73"/>
-      <c r="AT21" s="73"/>
-      <c r="AU21" s="73"/>
-      <c r="AV21" s="73"/>
-      <c r="AW21" s="73"/>
-      <c r="AX21" s="73"/>
-      <c r="AY21" s="73"/>
-      <c r="AZ21" s="73"/>
-      <c r="BA21" s="73"/>
-      <c r="BB21" s="73"/>
-      <c r="BC21" s="73"/>
-      <c r="BD21" s="73"/>
-      <c r="BE21" s="73"/>
-      <c r="BF21" s="73"/>
-      <c r="BG21" s="73"/>
-      <c r="BH21" s="73"/>
-      <c r="BI21" s="73"/>
-      <c r="BJ21" s="73"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="84"/>
+      <c r="R21" s="84"/>
+      <c r="S21" s="84"/>
+      <c r="T21" s="84"/>
+      <c r="U21" s="84"/>
+      <c r="V21" s="84"/>
+      <c r="W21" s="84"/>
+      <c r="X21" s="84"/>
+      <c r="Y21" s="84"/>
+      <c r="Z21" s="84"/>
+      <c r="AA21" s="84"/>
+      <c r="AB21" s="84"/>
+      <c r="AC21" s="84"/>
+      <c r="AD21" s="84"/>
+      <c r="AE21" s="84"/>
+      <c r="AF21" s="84"/>
+      <c r="AG21" s="84"/>
+      <c r="AH21" s="84"/>
+      <c r="AI21" s="84"/>
+      <c r="AJ21" s="84"/>
+      <c r="AK21" s="85"/>
+      <c r="AL21" s="77"/>
+      <c r="AM21" s="77"/>
+      <c r="AN21" s="77"/>
+      <c r="AO21" s="77"/>
+      <c r="AP21" s="77"/>
+      <c r="AQ21" s="77"/>
+      <c r="AR21" s="77"/>
+      <c r="AS21" s="77"/>
+      <c r="AT21" s="77"/>
+      <c r="AU21" s="77"/>
+      <c r="AV21" s="77"/>
+      <c r="AW21" s="77"/>
+      <c r="AX21" s="77"/>
+      <c r="AY21" s="77"/>
+      <c r="AZ21" s="77"/>
+      <c r="BA21" s="77"/>
+      <c r="BB21" s="77"/>
+      <c r="BC21" s="77"/>
+      <c r="BD21" s="77"/>
+      <c r="BE21" s="77"/>
+      <c r="BF21" s="77"/>
+      <c r="BG21" s="77"/>
+      <c r="BH21" s="77"/>
+      <c r="BI21" s="77"/>
+      <c r="BJ21" s="77"/>
       <c r="BK21" s="2"/>
       <c r="BL21" s="16"/>
     </row>
     <row r="22" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="16"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="71" t="s">
+      <c r="C22" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="74" t="s">
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="83" t="s">
         <v>203</v>
       </c>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="75"/>
-      <c r="P22" s="75"/>
-      <c r="Q22" s="75"/>
-      <c r="R22" s="75"/>
-      <c r="S22" s="75"/>
-      <c r="T22" s="75"/>
-      <c r="U22" s="75"/>
-      <c r="V22" s="75"/>
-      <c r="W22" s="75"/>
-      <c r="X22" s="75"/>
-      <c r="Y22" s="75"/>
-      <c r="Z22" s="75"/>
-      <c r="AA22" s="75"/>
-      <c r="AB22" s="75"/>
-      <c r="AC22" s="75"/>
-      <c r="AD22" s="75"/>
-      <c r="AE22" s="75"/>
-      <c r="AF22" s="75"/>
-      <c r="AG22" s="75"/>
-      <c r="AH22" s="75"/>
-      <c r="AI22" s="75"/>
-      <c r="AJ22" s="75"/>
-      <c r="AK22" s="76"/>
-      <c r="AL22" s="73"/>
-      <c r="AM22" s="73"/>
-      <c r="AN22" s="73"/>
-      <c r="AO22" s="73"/>
-      <c r="AP22" s="73"/>
-      <c r="AQ22" s="73"/>
-      <c r="AR22" s="73"/>
-      <c r="AS22" s="73"/>
-      <c r="AT22" s="73"/>
-      <c r="AU22" s="73"/>
-      <c r="AV22" s="73"/>
-      <c r="AW22" s="73"/>
-      <c r="AX22" s="73"/>
-      <c r="AY22" s="73"/>
-      <c r="AZ22" s="73"/>
-      <c r="BA22" s="73"/>
-      <c r="BB22" s="73"/>
-      <c r="BC22" s="73"/>
-      <c r="BD22" s="73"/>
-      <c r="BE22" s="73"/>
-      <c r="BF22" s="73"/>
-      <c r="BG22" s="73"/>
-      <c r="BH22" s="73"/>
-      <c r="BI22" s="73"/>
-      <c r="BJ22" s="73"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="84"/>
+      <c r="N22" s="84"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="84"/>
+      <c r="Q22" s="84"/>
+      <c r="R22" s="84"/>
+      <c r="S22" s="84"/>
+      <c r="T22" s="84"/>
+      <c r="U22" s="84"/>
+      <c r="V22" s="84"/>
+      <c r="W22" s="84"/>
+      <c r="X22" s="84"/>
+      <c r="Y22" s="84"/>
+      <c r="Z22" s="84"/>
+      <c r="AA22" s="84"/>
+      <c r="AB22" s="84"/>
+      <c r="AC22" s="84"/>
+      <c r="AD22" s="84"/>
+      <c r="AE22" s="84"/>
+      <c r="AF22" s="84"/>
+      <c r="AG22" s="84"/>
+      <c r="AH22" s="84"/>
+      <c r="AI22" s="84"/>
+      <c r="AJ22" s="84"/>
+      <c r="AK22" s="85"/>
+      <c r="AL22" s="77"/>
+      <c r="AM22" s="77"/>
+      <c r="AN22" s="77"/>
+      <c r="AO22" s="77"/>
+      <c r="AP22" s="77"/>
+      <c r="AQ22" s="77"/>
+      <c r="AR22" s="77"/>
+      <c r="AS22" s="77"/>
+      <c r="AT22" s="77"/>
+      <c r="AU22" s="77"/>
+      <c r="AV22" s="77"/>
+      <c r="AW22" s="77"/>
+      <c r="AX22" s="77"/>
+      <c r="AY22" s="77"/>
+      <c r="AZ22" s="77"/>
+      <c r="BA22" s="77"/>
+      <c r="BB22" s="77"/>
+      <c r="BC22" s="77"/>
+      <c r="BD22" s="77"/>
+      <c r="BE22" s="77"/>
+      <c r="BF22" s="77"/>
+      <c r="BG22" s="77"/>
+      <c r="BH22" s="77"/>
+      <c r="BI22" s="77"/>
+      <c r="BJ22" s="77"/>
       <c r="BK22" s="2"/>
       <c r="BL22" s="16"/>
     </row>
     <row r="23" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="16"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="73" t="s">
         <v>125</v>
       </c>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="72" t="s">
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="79" t="s">
         <v>184</v>
       </c>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="72"/>
-      <c r="P23" s="72"/>
-      <c r="Q23" s="72"/>
-      <c r="R23" s="72"/>
-      <c r="S23" s="72"/>
-      <c r="T23" s="72"/>
-      <c r="U23" s="72"/>
-      <c r="V23" s="72"/>
-      <c r="W23" s="72"/>
-      <c r="X23" s="72"/>
-      <c r="Y23" s="72"/>
-      <c r="Z23" s="72"/>
-      <c r="AA23" s="72"/>
-      <c r="AB23" s="72"/>
-      <c r="AC23" s="72"/>
-      <c r="AD23" s="72"/>
-      <c r="AE23" s="72"/>
-      <c r="AF23" s="72"/>
-      <c r="AG23" s="72"/>
-      <c r="AH23" s="72"/>
-      <c r="AI23" s="72"/>
-      <c r="AJ23" s="72"/>
-      <c r="AK23" s="72"/>
-      <c r="AL23" s="73"/>
-      <c r="AM23" s="73"/>
-      <c r="AN23" s="73"/>
-      <c r="AO23" s="73"/>
-      <c r="AP23" s="73"/>
-      <c r="AQ23" s="73"/>
-      <c r="AR23" s="73"/>
-      <c r="AS23" s="73"/>
-      <c r="AT23" s="73"/>
-      <c r="AU23" s="73"/>
-      <c r="AV23" s="73"/>
-      <c r="AW23" s="73"/>
-      <c r="AX23" s="73"/>
-      <c r="AY23" s="73"/>
-      <c r="AZ23" s="73"/>
-      <c r="BA23" s="73"/>
-      <c r="BB23" s="73"/>
-      <c r="BC23" s="73"/>
-      <c r="BD23" s="73"/>
-      <c r="BE23" s="73"/>
-      <c r="BF23" s="73"/>
-      <c r="BG23" s="73"/>
-      <c r="BH23" s="73"/>
-      <c r="BI23" s="73"/>
-      <c r="BJ23" s="73"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="79"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="79"/>
+      <c r="U23" s="79"/>
+      <c r="V23" s="79"/>
+      <c r="W23" s="79"/>
+      <c r="X23" s="79"/>
+      <c r="Y23" s="79"/>
+      <c r="Z23" s="79"/>
+      <c r="AA23" s="79"/>
+      <c r="AB23" s="79"/>
+      <c r="AC23" s="79"/>
+      <c r="AD23" s="79"/>
+      <c r="AE23" s="79"/>
+      <c r="AF23" s="79"/>
+      <c r="AG23" s="79"/>
+      <c r="AH23" s="79"/>
+      <c r="AI23" s="79"/>
+      <c r="AJ23" s="79"/>
+      <c r="AK23" s="79"/>
+      <c r="AL23" s="77"/>
+      <c r="AM23" s="77"/>
+      <c r="AN23" s="77"/>
+      <c r="AO23" s="77"/>
+      <c r="AP23" s="77"/>
+      <c r="AQ23" s="77"/>
+      <c r="AR23" s="77"/>
+      <c r="AS23" s="77"/>
+      <c r="AT23" s="77"/>
+      <c r="AU23" s="77"/>
+      <c r="AV23" s="77"/>
+      <c r="AW23" s="77"/>
+      <c r="AX23" s="77"/>
+      <c r="AY23" s="77"/>
+      <c r="AZ23" s="77"/>
+      <c r="BA23" s="77"/>
+      <c r="BB23" s="77"/>
+      <c r="BC23" s="77"/>
+      <c r="BD23" s="77"/>
+      <c r="BE23" s="77"/>
+      <c r="BF23" s="77"/>
+      <c r="BG23" s="77"/>
+      <c r="BH23" s="77"/>
+      <c r="BI23" s="77"/>
+      <c r="BJ23" s="77"/>
       <c r="BK23" s="2"/>
       <c r="BL23" s="16"/>
     </row>
     <row r="24" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="71" t="s">
+      <c r="C24" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="72" t="s">
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="79" t="s">
         <v>204</v>
       </c>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="72"/>
-      <c r="R24" s="72"/>
-      <c r="S24" s="72"/>
-      <c r="T24" s="72"/>
-      <c r="U24" s="72"/>
-      <c r="V24" s="72"/>
-      <c r="W24" s="72"/>
-      <c r="X24" s="72"/>
-      <c r="Y24" s="72"/>
-      <c r="Z24" s="72"/>
-      <c r="AA24" s="72"/>
-      <c r="AB24" s="72"/>
-      <c r="AC24" s="72"/>
-      <c r="AD24" s="72"/>
-      <c r="AE24" s="72"/>
-      <c r="AF24" s="72"/>
-      <c r="AG24" s="72"/>
-      <c r="AH24" s="72"/>
-      <c r="AI24" s="72"/>
-      <c r="AJ24" s="72"/>
-      <c r="AK24" s="72"/>
-      <c r="AL24" s="73"/>
-      <c r="AM24" s="73"/>
-      <c r="AN24" s="73"/>
-      <c r="AO24" s="73"/>
-      <c r="AP24" s="73"/>
-      <c r="AQ24" s="73"/>
-      <c r="AR24" s="73"/>
-      <c r="AS24" s="73"/>
-      <c r="AT24" s="73"/>
-      <c r="AU24" s="73"/>
-      <c r="AV24" s="73"/>
-      <c r="AW24" s="73"/>
-      <c r="AX24" s="73"/>
-      <c r="AY24" s="73"/>
-      <c r="AZ24" s="73"/>
-      <c r="BA24" s="73"/>
-      <c r="BB24" s="73"/>
-      <c r="BC24" s="73"/>
-      <c r="BD24" s="73"/>
-      <c r="BE24" s="73"/>
-      <c r="BF24" s="73"/>
-      <c r="BG24" s="73"/>
-      <c r="BH24" s="73"/>
-      <c r="BI24" s="73"/>
-      <c r="BJ24" s="73"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="79"/>
+      <c r="T24" s="79"/>
+      <c r="U24" s="79"/>
+      <c r="V24" s="79"/>
+      <c r="W24" s="79"/>
+      <c r="X24" s="79"/>
+      <c r="Y24" s="79"/>
+      <c r="Z24" s="79"/>
+      <c r="AA24" s="79"/>
+      <c r="AB24" s="79"/>
+      <c r="AC24" s="79"/>
+      <c r="AD24" s="79"/>
+      <c r="AE24" s="79"/>
+      <c r="AF24" s="79"/>
+      <c r="AG24" s="79"/>
+      <c r="AH24" s="79"/>
+      <c r="AI24" s="79"/>
+      <c r="AJ24" s="79"/>
+      <c r="AK24" s="79"/>
+      <c r="AL24" s="77"/>
+      <c r="AM24" s="77"/>
+      <c r="AN24" s="77"/>
+      <c r="AO24" s="77"/>
+      <c r="AP24" s="77"/>
+      <c r="AQ24" s="77"/>
+      <c r="AR24" s="77"/>
+      <c r="AS24" s="77"/>
+      <c r="AT24" s="77"/>
+      <c r="AU24" s="77"/>
+      <c r="AV24" s="77"/>
+      <c r="AW24" s="77"/>
+      <c r="AX24" s="77"/>
+      <c r="AY24" s="77"/>
+      <c r="AZ24" s="77"/>
+      <c r="BA24" s="77"/>
+      <c r="BB24" s="77"/>
+      <c r="BC24" s="77"/>
+      <c r="BD24" s="77"/>
+      <c r="BE24" s="77"/>
+      <c r="BF24" s="77"/>
+      <c r="BG24" s="77"/>
+      <c r="BH24" s="77"/>
+      <c r="BI24" s="77"/>
+      <c r="BJ24" s="77"/>
       <c r="BK24" s="2"/>
       <c r="BL24" s="16"/>
     </row>
     <row r="25" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="16"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="71" t="s">
+      <c r="C25" s="73" t="s">
         <v>175</v>
       </c>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="72" t="s">
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="79" t="s">
         <v>183</v>
       </c>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="72"/>
-      <c r="P25" s="72"/>
-      <c r="Q25" s="72"/>
-      <c r="R25" s="72"/>
-      <c r="S25" s="72"/>
-      <c r="T25" s="72"/>
-      <c r="U25" s="72"/>
-      <c r="V25" s="72"/>
-      <c r="W25" s="72"/>
-      <c r="X25" s="72"/>
-      <c r="Y25" s="72"/>
-      <c r="Z25" s="72"/>
-      <c r="AA25" s="72"/>
-      <c r="AB25" s="72"/>
-      <c r="AC25" s="72"/>
-      <c r="AD25" s="72"/>
-      <c r="AE25" s="72"/>
-      <c r="AF25" s="72"/>
-      <c r="AG25" s="72"/>
-      <c r="AH25" s="72"/>
-      <c r="AI25" s="72"/>
-      <c r="AJ25" s="72"/>
-      <c r="AK25" s="72"/>
-      <c r="AL25" s="73"/>
-      <c r="AM25" s="73"/>
-      <c r="AN25" s="73"/>
-      <c r="AO25" s="73"/>
-      <c r="AP25" s="73"/>
-      <c r="AQ25" s="73"/>
-      <c r="AR25" s="73"/>
-      <c r="AS25" s="73"/>
-      <c r="AT25" s="73"/>
-      <c r="AU25" s="73"/>
-      <c r="AV25" s="73"/>
-      <c r="AW25" s="73"/>
-      <c r="AX25" s="73"/>
-      <c r="AY25" s="73"/>
-      <c r="AZ25" s="73"/>
-      <c r="BA25" s="73"/>
-      <c r="BB25" s="73"/>
-      <c r="BC25" s="73"/>
-      <c r="BD25" s="73"/>
-      <c r="BE25" s="73"/>
-      <c r="BF25" s="73"/>
-      <c r="BG25" s="73"/>
-      <c r="BH25" s="73"/>
-      <c r="BI25" s="73"/>
-      <c r="BJ25" s="73"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="79"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="79"/>
+      <c r="R25" s="79"/>
+      <c r="S25" s="79"/>
+      <c r="T25" s="79"/>
+      <c r="U25" s="79"/>
+      <c r="V25" s="79"/>
+      <c r="W25" s="79"/>
+      <c r="X25" s="79"/>
+      <c r="Y25" s="79"/>
+      <c r="Z25" s="79"/>
+      <c r="AA25" s="79"/>
+      <c r="AB25" s="79"/>
+      <c r="AC25" s="79"/>
+      <c r="AD25" s="79"/>
+      <c r="AE25" s="79"/>
+      <c r="AF25" s="79"/>
+      <c r="AG25" s="79"/>
+      <c r="AH25" s="79"/>
+      <c r="AI25" s="79"/>
+      <c r="AJ25" s="79"/>
+      <c r="AK25" s="79"/>
+      <c r="AL25" s="77"/>
+      <c r="AM25" s="77"/>
+      <c r="AN25" s="77"/>
+      <c r="AO25" s="77"/>
+      <c r="AP25" s="77"/>
+      <c r="AQ25" s="77"/>
+      <c r="AR25" s="77"/>
+      <c r="AS25" s="77"/>
+      <c r="AT25" s="77"/>
+      <c r="AU25" s="77"/>
+      <c r="AV25" s="77"/>
+      <c r="AW25" s="77"/>
+      <c r="AX25" s="77"/>
+      <c r="AY25" s="77"/>
+      <c r="AZ25" s="77"/>
+      <c r="BA25" s="77"/>
+      <c r="BB25" s="77"/>
+      <c r="BC25" s="77"/>
+      <c r="BD25" s="77"/>
+      <c r="BE25" s="77"/>
+      <c r="BF25" s="77"/>
+      <c r="BG25" s="77"/>
+      <c r="BH25" s="77"/>
+      <c r="BI25" s="77"/>
+      <c r="BJ25" s="77"/>
       <c r="BK25" s="2"/>
       <c r="BL25" s="16"/>
     </row>
     <row r="26" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="71" t="s">
+      <c r="C26" s="73" t="s">
         <v>179</v>
       </c>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="72" t="s">
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="79" t="s">
         <v>180</v>
       </c>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="72"/>
-      <c r="P26" s="72"/>
-      <c r="Q26" s="72"/>
-      <c r="R26" s="72"/>
-      <c r="S26" s="72"/>
-      <c r="T26" s="72"/>
-      <c r="U26" s="72"/>
-      <c r="V26" s="72"/>
-      <c r="W26" s="72"/>
-      <c r="X26" s="72"/>
-      <c r="Y26" s="72"/>
-      <c r="Z26" s="72"/>
-      <c r="AA26" s="72"/>
-      <c r="AB26" s="72"/>
-      <c r="AC26" s="72"/>
-      <c r="AD26" s="72"/>
-      <c r="AE26" s="72"/>
-      <c r="AF26" s="72"/>
-      <c r="AG26" s="72"/>
-      <c r="AH26" s="72"/>
-      <c r="AI26" s="72"/>
-      <c r="AJ26" s="72"/>
-      <c r="AK26" s="72"/>
-      <c r="AL26" s="73"/>
-      <c r="AM26" s="73"/>
-      <c r="AN26" s="73"/>
-      <c r="AO26" s="73"/>
-      <c r="AP26" s="73"/>
-      <c r="AQ26" s="73"/>
-      <c r="AR26" s="73"/>
-      <c r="AS26" s="73"/>
-      <c r="AT26" s="73"/>
-      <c r="AU26" s="73"/>
-      <c r="AV26" s="73"/>
-      <c r="AW26" s="73"/>
-      <c r="AX26" s="73"/>
-      <c r="AY26" s="73"/>
-      <c r="AZ26" s="73"/>
-      <c r="BA26" s="73"/>
-      <c r="BB26" s="73"/>
-      <c r="BC26" s="73"/>
-      <c r="BD26" s="73"/>
-      <c r="BE26" s="73"/>
-      <c r="BF26" s="73"/>
-      <c r="BG26" s="73"/>
-      <c r="BH26" s="73"/>
-      <c r="BI26" s="73"/>
-      <c r="BJ26" s="73"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="79"/>
+      <c r="P26" s="79"/>
+      <c r="Q26" s="79"/>
+      <c r="R26" s="79"/>
+      <c r="S26" s="79"/>
+      <c r="T26" s="79"/>
+      <c r="U26" s="79"/>
+      <c r="V26" s="79"/>
+      <c r="W26" s="79"/>
+      <c r="X26" s="79"/>
+      <c r="Y26" s="79"/>
+      <c r="Z26" s="79"/>
+      <c r="AA26" s="79"/>
+      <c r="AB26" s="79"/>
+      <c r="AC26" s="79"/>
+      <c r="AD26" s="79"/>
+      <c r="AE26" s="79"/>
+      <c r="AF26" s="79"/>
+      <c r="AG26" s="79"/>
+      <c r="AH26" s="79"/>
+      <c r="AI26" s="79"/>
+      <c r="AJ26" s="79"/>
+      <c r="AK26" s="79"/>
+      <c r="AL26" s="77"/>
+      <c r="AM26" s="77"/>
+      <c r="AN26" s="77"/>
+      <c r="AO26" s="77"/>
+      <c r="AP26" s="77"/>
+      <c r="AQ26" s="77"/>
+      <c r="AR26" s="77"/>
+      <c r="AS26" s="77"/>
+      <c r="AT26" s="77"/>
+      <c r="AU26" s="77"/>
+      <c r="AV26" s="77"/>
+      <c r="AW26" s="77"/>
+      <c r="AX26" s="77"/>
+      <c r="AY26" s="77"/>
+      <c r="AZ26" s="77"/>
+      <c r="BA26" s="77"/>
+      <c r="BB26" s="77"/>
+      <c r="BC26" s="77"/>
+      <c r="BD26" s="77"/>
+      <c r="BE26" s="77"/>
+      <c r="BF26" s="77"/>
+      <c r="BG26" s="77"/>
+      <c r="BH26" s="77"/>
+      <c r="BI26" s="77"/>
+      <c r="BJ26" s="77"/>
       <c r="BK26" s="2"/>
       <c r="BL26" s="16"/>
     </row>
     <row r="27" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="16"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="71" t="s">
+      <c r="C27" s="73" t="s">
         <v>181</v>
       </c>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="72" t="s">
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="72"/>
-      <c r="P27" s="72"/>
-      <c r="Q27" s="72"/>
-      <c r="R27" s="72"/>
-      <c r="S27" s="72"/>
-      <c r="T27" s="72"/>
-      <c r="U27" s="72"/>
-      <c r="V27" s="72"/>
-      <c r="W27" s="72"/>
-      <c r="X27" s="72"/>
-      <c r="Y27" s="72"/>
-      <c r="Z27" s="72"/>
-      <c r="AA27" s="72"/>
-      <c r="AB27" s="72"/>
-      <c r="AC27" s="72"/>
-      <c r="AD27" s="72"/>
-      <c r="AE27" s="72"/>
-      <c r="AF27" s="72"/>
-      <c r="AG27" s="72"/>
-      <c r="AH27" s="72"/>
-      <c r="AI27" s="72"/>
-      <c r="AJ27" s="72"/>
-      <c r="AK27" s="72"/>
-      <c r="AL27" s="73"/>
-      <c r="AM27" s="73"/>
-      <c r="AN27" s="73"/>
-      <c r="AO27" s="73"/>
-      <c r="AP27" s="73"/>
-      <c r="AQ27" s="73"/>
-      <c r="AR27" s="73"/>
-      <c r="AS27" s="73"/>
-      <c r="AT27" s="73"/>
-      <c r="AU27" s="73"/>
-      <c r="AV27" s="73"/>
-      <c r="AW27" s="73"/>
-      <c r="AX27" s="73"/>
-      <c r="AY27" s="73"/>
-      <c r="AZ27" s="73"/>
-      <c r="BA27" s="73"/>
-      <c r="BB27" s="73"/>
-      <c r="BC27" s="73"/>
-      <c r="BD27" s="73"/>
-      <c r="BE27" s="73"/>
-      <c r="BF27" s="73"/>
-      <c r="BG27" s="73"/>
-      <c r="BH27" s="73"/>
-      <c r="BI27" s="73"/>
-      <c r="BJ27" s="73"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="79"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="79"/>
+      <c r="P27" s="79"/>
+      <c r="Q27" s="79"/>
+      <c r="R27" s="79"/>
+      <c r="S27" s="79"/>
+      <c r="T27" s="79"/>
+      <c r="U27" s="79"/>
+      <c r="V27" s="79"/>
+      <c r="W27" s="79"/>
+      <c r="X27" s="79"/>
+      <c r="Y27" s="79"/>
+      <c r="Z27" s="79"/>
+      <c r="AA27" s="79"/>
+      <c r="AB27" s="79"/>
+      <c r="AC27" s="79"/>
+      <c r="AD27" s="79"/>
+      <c r="AE27" s="79"/>
+      <c r="AF27" s="79"/>
+      <c r="AG27" s="79"/>
+      <c r="AH27" s="79"/>
+      <c r="AI27" s="79"/>
+      <c r="AJ27" s="79"/>
+      <c r="AK27" s="79"/>
+      <c r="AL27" s="77"/>
+      <c r="AM27" s="77"/>
+      <c r="AN27" s="77"/>
+      <c r="AO27" s="77"/>
+      <c r="AP27" s="77"/>
+      <c r="AQ27" s="77"/>
+      <c r="AR27" s="77"/>
+      <c r="AS27" s="77"/>
+      <c r="AT27" s="77"/>
+      <c r="AU27" s="77"/>
+      <c r="AV27" s="77"/>
+      <c r="AW27" s="77"/>
+      <c r="AX27" s="77"/>
+      <c r="AY27" s="77"/>
+      <c r="AZ27" s="77"/>
+      <c r="BA27" s="77"/>
+      <c r="BB27" s="77"/>
+      <c r="BC27" s="77"/>
+      <c r="BD27" s="77"/>
+      <c r="BE27" s="77"/>
+      <c r="BF27" s="77"/>
+      <c r="BG27" s="77"/>
+      <c r="BH27" s="77"/>
+      <c r="BI27" s="77"/>
+      <c r="BJ27" s="77"/>
       <c r="BK27" s="2"/>
       <c r="BL27" s="16"/>
     </row>
     <row r="28" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="16"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="71" t="s">
+      <c r="C28" s="73" t="s">
         <v>185</v>
       </c>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="72" t="s">
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="79" t="s">
         <v>186</v>
       </c>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="72"/>
-      <c r="N28" s="72"/>
-      <c r="O28" s="72"/>
-      <c r="P28" s="72"/>
-      <c r="Q28" s="72"/>
-      <c r="R28" s="72"/>
-      <c r="S28" s="72"/>
-      <c r="T28" s="72"/>
-      <c r="U28" s="72"/>
-      <c r="V28" s="72"/>
-      <c r="W28" s="72"/>
-      <c r="X28" s="72"/>
-      <c r="Y28" s="72"/>
-      <c r="Z28" s="72"/>
-      <c r="AA28" s="72"/>
-      <c r="AB28" s="72"/>
-      <c r="AC28" s="72"/>
-      <c r="AD28" s="72"/>
-      <c r="AE28" s="72"/>
-      <c r="AF28" s="72"/>
-      <c r="AG28" s="72"/>
-      <c r="AH28" s="72"/>
-      <c r="AI28" s="72"/>
-      <c r="AJ28" s="72"/>
-      <c r="AK28" s="72"/>
-      <c r="AL28" s="73"/>
-      <c r="AM28" s="73"/>
-      <c r="AN28" s="73"/>
-      <c r="AO28" s="73"/>
-      <c r="AP28" s="73"/>
-      <c r="AQ28" s="73"/>
-      <c r="AR28" s="73"/>
-      <c r="AS28" s="73"/>
-      <c r="AT28" s="73"/>
-      <c r="AU28" s="73"/>
-      <c r="AV28" s="73"/>
-      <c r="AW28" s="73"/>
-      <c r="AX28" s="73"/>
-      <c r="AY28" s="73"/>
-      <c r="AZ28" s="73"/>
-      <c r="BA28" s="73"/>
-      <c r="BB28" s="73"/>
-      <c r="BC28" s="73"/>
-      <c r="BD28" s="73"/>
-      <c r="BE28" s="73"/>
-      <c r="BF28" s="73"/>
-      <c r="BG28" s="73"/>
-      <c r="BH28" s="73"/>
-      <c r="BI28" s="73"/>
-      <c r="BJ28" s="73"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="79"/>
+      <c r="R28" s="79"/>
+      <c r="S28" s="79"/>
+      <c r="T28" s="79"/>
+      <c r="U28" s="79"/>
+      <c r="V28" s="79"/>
+      <c r="W28" s="79"/>
+      <c r="X28" s="79"/>
+      <c r="Y28" s="79"/>
+      <c r="Z28" s="79"/>
+      <c r="AA28" s="79"/>
+      <c r="AB28" s="79"/>
+      <c r="AC28" s="79"/>
+      <c r="AD28" s="79"/>
+      <c r="AE28" s="79"/>
+      <c r="AF28" s="79"/>
+      <c r="AG28" s="79"/>
+      <c r="AH28" s="79"/>
+      <c r="AI28" s="79"/>
+      <c r="AJ28" s="79"/>
+      <c r="AK28" s="79"/>
+      <c r="AL28" s="77"/>
+      <c r="AM28" s="77"/>
+      <c r="AN28" s="77"/>
+      <c r="AO28" s="77"/>
+      <c r="AP28" s="77"/>
+      <c r="AQ28" s="77"/>
+      <c r="AR28" s="77"/>
+      <c r="AS28" s="77"/>
+      <c r="AT28" s="77"/>
+      <c r="AU28" s="77"/>
+      <c r="AV28" s="77"/>
+      <c r="AW28" s="77"/>
+      <c r="AX28" s="77"/>
+      <c r="AY28" s="77"/>
+      <c r="AZ28" s="77"/>
+      <c r="BA28" s="77"/>
+      <c r="BB28" s="77"/>
+      <c r="BC28" s="77"/>
+      <c r="BD28" s="77"/>
+      <c r="BE28" s="77"/>
+      <c r="BF28" s="77"/>
+      <c r="BG28" s="77"/>
+      <c r="BH28" s="77"/>
+      <c r="BI28" s="77"/>
+      <c r="BJ28" s="77"/>
       <c r="BK28" s="2"/>
       <c r="BL28" s="16"/>
     </row>
     <row r="29" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="16"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="71" t="s">
+      <c r="C29" s="73" t="s">
         <v>187</v>
       </c>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="72" t="s">
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="79" t="s">
         <v>196</v>
       </c>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="72"/>
-      <c r="N29" s="72"/>
-      <c r="O29" s="72"/>
-      <c r="P29" s="72"/>
-      <c r="Q29" s="72"/>
-      <c r="R29" s="72"/>
-      <c r="S29" s="72"/>
-      <c r="T29" s="72"/>
-      <c r="U29" s="72"/>
-      <c r="V29" s="72"/>
-      <c r="W29" s="72"/>
-      <c r="X29" s="72"/>
-      <c r="Y29" s="72"/>
-      <c r="Z29" s="72"/>
-      <c r="AA29" s="72"/>
-      <c r="AB29" s="72"/>
-      <c r="AC29" s="72"/>
-      <c r="AD29" s="72"/>
-      <c r="AE29" s="72"/>
-      <c r="AF29" s="72"/>
-      <c r="AG29" s="72"/>
-      <c r="AH29" s="72"/>
-      <c r="AI29" s="72"/>
-      <c r="AJ29" s="72"/>
-      <c r="AK29" s="72"/>
-      <c r="AL29" s="73"/>
-      <c r="AM29" s="73"/>
-      <c r="AN29" s="73"/>
-      <c r="AO29" s="73"/>
-      <c r="AP29" s="73"/>
-      <c r="AQ29" s="73"/>
-      <c r="AR29" s="73"/>
-      <c r="AS29" s="73"/>
-      <c r="AT29" s="73"/>
-      <c r="AU29" s="73"/>
-      <c r="AV29" s="73"/>
-      <c r="AW29" s="73"/>
-      <c r="AX29" s="73"/>
-      <c r="AY29" s="73"/>
-      <c r="AZ29" s="73"/>
-      <c r="BA29" s="73"/>
-      <c r="BB29" s="73"/>
-      <c r="BC29" s="73"/>
-      <c r="BD29" s="73"/>
-      <c r="BE29" s="73"/>
-      <c r="BF29" s="73"/>
-      <c r="BG29" s="73"/>
-      <c r="BH29" s="73"/>
-      <c r="BI29" s="73"/>
-      <c r="BJ29" s="73"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="79"/>
+      <c r="R29" s="79"/>
+      <c r="S29" s="79"/>
+      <c r="T29" s="79"/>
+      <c r="U29" s="79"/>
+      <c r="V29" s="79"/>
+      <c r="W29" s="79"/>
+      <c r="X29" s="79"/>
+      <c r="Y29" s="79"/>
+      <c r="Z29" s="79"/>
+      <c r="AA29" s="79"/>
+      <c r="AB29" s="79"/>
+      <c r="AC29" s="79"/>
+      <c r="AD29" s="79"/>
+      <c r="AE29" s="79"/>
+      <c r="AF29" s="79"/>
+      <c r="AG29" s="79"/>
+      <c r="AH29" s="79"/>
+      <c r="AI29" s="79"/>
+      <c r="AJ29" s="79"/>
+      <c r="AK29" s="79"/>
+      <c r="AL29" s="77"/>
+      <c r="AM29" s="77"/>
+      <c r="AN29" s="77"/>
+      <c r="AO29" s="77"/>
+      <c r="AP29" s="77"/>
+      <c r="AQ29" s="77"/>
+      <c r="AR29" s="77"/>
+      <c r="AS29" s="77"/>
+      <c r="AT29" s="77"/>
+      <c r="AU29" s="77"/>
+      <c r="AV29" s="77"/>
+      <c r="AW29" s="77"/>
+      <c r="AX29" s="77"/>
+      <c r="AY29" s="77"/>
+      <c r="AZ29" s="77"/>
+      <c r="BA29" s="77"/>
+      <c r="BB29" s="77"/>
+      <c r="BC29" s="77"/>
+      <c r="BD29" s="77"/>
+      <c r="BE29" s="77"/>
+      <c r="BF29" s="77"/>
+      <c r="BG29" s="77"/>
+      <c r="BH29" s="77"/>
+      <c r="BI29" s="77"/>
+      <c r="BJ29" s="77"/>
       <c r="BK29" s="2"/>
       <c r="BL29" s="16"/>
     </row>
     <row r="30" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="16"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="71" t="s">
+      <c r="C30" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="72" t="s">
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="79" t="s">
         <v>197</v>
       </c>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="72"/>
-      <c r="M30" s="72"/>
-      <c r="N30" s="72"/>
-      <c r="O30" s="72"/>
-      <c r="P30" s="72"/>
-      <c r="Q30" s="72"/>
-      <c r="R30" s="72"/>
-      <c r="S30" s="72"/>
-      <c r="T30" s="72"/>
-      <c r="U30" s="72"/>
-      <c r="V30" s="72"/>
-      <c r="W30" s="72"/>
-      <c r="X30" s="72"/>
-      <c r="Y30" s="72"/>
-      <c r="Z30" s="72"/>
-      <c r="AA30" s="72"/>
-      <c r="AB30" s="72"/>
-      <c r="AC30" s="72"/>
-      <c r="AD30" s="72"/>
-      <c r="AE30" s="72"/>
-      <c r="AF30" s="72"/>
-      <c r="AG30" s="72"/>
-      <c r="AH30" s="72"/>
-      <c r="AI30" s="72"/>
-      <c r="AJ30" s="72"/>
-      <c r="AK30" s="72"/>
-      <c r="AL30" s="73"/>
-      <c r="AM30" s="73"/>
-      <c r="AN30" s="73"/>
-      <c r="AO30" s="73"/>
-      <c r="AP30" s="73"/>
-      <c r="AQ30" s="73"/>
-      <c r="AR30" s="73"/>
-      <c r="AS30" s="73"/>
-      <c r="AT30" s="73"/>
-      <c r="AU30" s="73"/>
-      <c r="AV30" s="73"/>
-      <c r="AW30" s="73"/>
-      <c r="AX30" s="73"/>
-      <c r="AY30" s="73"/>
-      <c r="AZ30" s="73"/>
-      <c r="BA30" s="73"/>
-      <c r="BB30" s="73"/>
-      <c r="BC30" s="73"/>
-      <c r="BD30" s="73"/>
-      <c r="BE30" s="73"/>
-      <c r="BF30" s="73"/>
-      <c r="BG30" s="73"/>
-      <c r="BH30" s="73"/>
-      <c r="BI30" s="73"/>
-      <c r="BJ30" s="73"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="79"/>
+      <c r="P30" s="79"/>
+      <c r="Q30" s="79"/>
+      <c r="R30" s="79"/>
+      <c r="S30" s="79"/>
+      <c r="T30" s="79"/>
+      <c r="U30" s="79"/>
+      <c r="V30" s="79"/>
+      <c r="W30" s="79"/>
+      <c r="X30" s="79"/>
+      <c r="Y30" s="79"/>
+      <c r="Z30" s="79"/>
+      <c r="AA30" s="79"/>
+      <c r="AB30" s="79"/>
+      <c r="AC30" s="79"/>
+      <c r="AD30" s="79"/>
+      <c r="AE30" s="79"/>
+      <c r="AF30" s="79"/>
+      <c r="AG30" s="79"/>
+      <c r="AH30" s="79"/>
+      <c r="AI30" s="79"/>
+      <c r="AJ30" s="79"/>
+      <c r="AK30" s="79"/>
+      <c r="AL30" s="77"/>
+      <c r="AM30" s="77"/>
+      <c r="AN30" s="77"/>
+      <c r="AO30" s="77"/>
+      <c r="AP30" s="77"/>
+      <c r="AQ30" s="77"/>
+      <c r="AR30" s="77"/>
+      <c r="AS30" s="77"/>
+      <c r="AT30" s="77"/>
+      <c r="AU30" s="77"/>
+      <c r="AV30" s="77"/>
+      <c r="AW30" s="77"/>
+      <c r="AX30" s="77"/>
+      <c r="AY30" s="77"/>
+      <c r="AZ30" s="77"/>
+      <c r="BA30" s="77"/>
+      <c r="BB30" s="77"/>
+      <c r="BC30" s="77"/>
+      <c r="BD30" s="77"/>
+      <c r="BE30" s="77"/>
+      <c r="BF30" s="77"/>
+      <c r="BG30" s="77"/>
+      <c r="BH30" s="77"/>
+      <c r="BI30" s="77"/>
+      <c r="BJ30" s="77"/>
       <c r="BK30" s="2"/>
       <c r="BL30" s="16"/>
     </row>
     <row r="31" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="16"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="71" t="s">
+      <c r="C31" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="72" t="s">
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="79" t="s">
         <v>195</v>
       </c>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="72"/>
-      <c r="N31" s="72"/>
-      <c r="O31" s="72"/>
-      <c r="P31" s="72"/>
-      <c r="Q31" s="72"/>
-      <c r="R31" s="72"/>
-      <c r="S31" s="72"/>
-      <c r="T31" s="72"/>
-      <c r="U31" s="72"/>
-      <c r="V31" s="72"/>
-      <c r="W31" s="72"/>
-      <c r="X31" s="72"/>
-      <c r="Y31" s="72"/>
-      <c r="Z31" s="72"/>
-      <c r="AA31" s="72"/>
-      <c r="AB31" s="72"/>
-      <c r="AC31" s="72"/>
-      <c r="AD31" s="72"/>
-      <c r="AE31" s="72"/>
-      <c r="AF31" s="72"/>
-      <c r="AG31" s="72"/>
-      <c r="AH31" s="72"/>
-      <c r="AI31" s="72"/>
-      <c r="AJ31" s="72"/>
-      <c r="AK31" s="72"/>
-      <c r="AL31" s="73"/>
-      <c r="AM31" s="73"/>
-      <c r="AN31" s="73"/>
-      <c r="AO31" s="73"/>
-      <c r="AP31" s="73"/>
-      <c r="AQ31" s="73"/>
-      <c r="AR31" s="73"/>
-      <c r="AS31" s="73"/>
-      <c r="AT31" s="73"/>
-      <c r="AU31" s="73"/>
-      <c r="AV31" s="73"/>
-      <c r="AW31" s="73"/>
-      <c r="AX31" s="73"/>
-      <c r="AY31" s="73"/>
-      <c r="AZ31" s="73"/>
-      <c r="BA31" s="73"/>
-      <c r="BB31" s="73"/>
-      <c r="BC31" s="73"/>
-      <c r="BD31" s="73"/>
-      <c r="BE31" s="73"/>
-      <c r="BF31" s="73"/>
-      <c r="BG31" s="73"/>
-      <c r="BH31" s="73"/>
-      <c r="BI31" s="73"/>
-      <c r="BJ31" s="73"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="79"/>
+      <c r="O31" s="79"/>
+      <c r="P31" s="79"/>
+      <c r="Q31" s="79"/>
+      <c r="R31" s="79"/>
+      <c r="S31" s="79"/>
+      <c r="T31" s="79"/>
+      <c r="U31" s="79"/>
+      <c r="V31" s="79"/>
+      <c r="W31" s="79"/>
+      <c r="X31" s="79"/>
+      <c r="Y31" s="79"/>
+      <c r="Z31" s="79"/>
+      <c r="AA31" s="79"/>
+      <c r="AB31" s="79"/>
+      <c r="AC31" s="79"/>
+      <c r="AD31" s="79"/>
+      <c r="AE31" s="79"/>
+      <c r="AF31" s="79"/>
+      <c r="AG31" s="79"/>
+      <c r="AH31" s="79"/>
+      <c r="AI31" s="79"/>
+      <c r="AJ31" s="79"/>
+      <c r="AK31" s="79"/>
+      <c r="AL31" s="77"/>
+      <c r="AM31" s="77"/>
+      <c r="AN31" s="77"/>
+      <c r="AO31" s="77"/>
+      <c r="AP31" s="77"/>
+      <c r="AQ31" s="77"/>
+      <c r="AR31" s="77"/>
+      <c r="AS31" s="77"/>
+      <c r="AT31" s="77"/>
+      <c r="AU31" s="77"/>
+      <c r="AV31" s="77"/>
+      <c r="AW31" s="77"/>
+      <c r="AX31" s="77"/>
+      <c r="AY31" s="77"/>
+      <c r="AZ31" s="77"/>
+      <c r="BA31" s="77"/>
+      <c r="BB31" s="77"/>
+      <c r="BC31" s="77"/>
+      <c r="BD31" s="77"/>
+      <c r="BE31" s="77"/>
+      <c r="BF31" s="77"/>
+      <c r="BG31" s="77"/>
+      <c r="BH31" s="77"/>
+      <c r="BI31" s="77"/>
+      <c r="BJ31" s="77"/>
       <c r="BK31" s="2"/>
       <c r="BL31" s="16"/>
     </row>
     <row r="32" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="16"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="71" t="s">
+      <c r="C32" s="73" t="s">
         <v>190</v>
       </c>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="72" t="s">
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="79" t="s">
         <v>198</v>
       </c>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="72"/>
-      <c r="N32" s="72"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="72"/>
-      <c r="Q32" s="72"/>
-      <c r="R32" s="72"/>
-      <c r="S32" s="72"/>
-      <c r="T32" s="72"/>
-      <c r="U32" s="72"/>
-      <c r="V32" s="72"/>
-      <c r="W32" s="72"/>
-      <c r="X32" s="72"/>
-      <c r="Y32" s="72"/>
-      <c r="Z32" s="72"/>
-      <c r="AA32" s="72"/>
-      <c r="AB32" s="72"/>
-      <c r="AC32" s="72"/>
-      <c r="AD32" s="72"/>
-      <c r="AE32" s="72"/>
-      <c r="AF32" s="72"/>
-      <c r="AG32" s="72"/>
-      <c r="AH32" s="72"/>
-      <c r="AI32" s="72"/>
-      <c r="AJ32" s="72"/>
-      <c r="AK32" s="72"/>
-      <c r="AL32" s="73"/>
-      <c r="AM32" s="73"/>
-      <c r="AN32" s="73"/>
-      <c r="AO32" s="73"/>
-      <c r="AP32" s="73"/>
-      <c r="AQ32" s="73"/>
-      <c r="AR32" s="73"/>
-      <c r="AS32" s="73"/>
-      <c r="AT32" s="73"/>
-      <c r="AU32" s="73"/>
-      <c r="AV32" s="73"/>
-      <c r="AW32" s="73"/>
-      <c r="AX32" s="73"/>
-      <c r="AY32" s="73"/>
-      <c r="AZ32" s="73"/>
-      <c r="BA32" s="73"/>
-      <c r="BB32" s="73"/>
-      <c r="BC32" s="73"/>
-      <c r="BD32" s="73"/>
-      <c r="BE32" s="73"/>
-      <c r="BF32" s="73"/>
-      <c r="BG32" s="73"/>
-      <c r="BH32" s="73"/>
-      <c r="BI32" s="73"/>
-      <c r="BJ32" s="73"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="79"/>
+      <c r="M32" s="79"/>
+      <c r="N32" s="79"/>
+      <c r="O32" s="79"/>
+      <c r="P32" s="79"/>
+      <c r="Q32" s="79"/>
+      <c r="R32" s="79"/>
+      <c r="S32" s="79"/>
+      <c r="T32" s="79"/>
+      <c r="U32" s="79"/>
+      <c r="V32" s="79"/>
+      <c r="W32" s="79"/>
+      <c r="X32" s="79"/>
+      <c r="Y32" s="79"/>
+      <c r="Z32" s="79"/>
+      <c r="AA32" s="79"/>
+      <c r="AB32" s="79"/>
+      <c r="AC32" s="79"/>
+      <c r="AD32" s="79"/>
+      <c r="AE32" s="79"/>
+      <c r="AF32" s="79"/>
+      <c r="AG32" s="79"/>
+      <c r="AH32" s="79"/>
+      <c r="AI32" s="79"/>
+      <c r="AJ32" s="79"/>
+      <c r="AK32" s="79"/>
+      <c r="AL32" s="77"/>
+      <c r="AM32" s="77"/>
+      <c r="AN32" s="77"/>
+      <c r="AO32" s="77"/>
+      <c r="AP32" s="77"/>
+      <c r="AQ32" s="77"/>
+      <c r="AR32" s="77"/>
+      <c r="AS32" s="77"/>
+      <c r="AT32" s="77"/>
+      <c r="AU32" s="77"/>
+      <c r="AV32" s="77"/>
+      <c r="AW32" s="77"/>
+      <c r="AX32" s="77"/>
+      <c r="AY32" s="77"/>
+      <c r="AZ32" s="77"/>
+      <c r="BA32" s="77"/>
+      <c r="BB32" s="77"/>
+      <c r="BC32" s="77"/>
+      <c r="BD32" s="77"/>
+      <c r="BE32" s="77"/>
+      <c r="BF32" s="77"/>
+      <c r="BG32" s="77"/>
+      <c r="BH32" s="77"/>
+      <c r="BI32" s="77"/>
+      <c r="BJ32" s="77"/>
       <c r="BK32" s="2"/>
       <c r="BL32" s="16"/>
     </row>
     <row r="33" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="16"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="71" t="s">
+      <c r="C33" s="73" t="s">
         <v>191</v>
       </c>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="72" t="s">
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="79" t="s">
         <v>199</v>
       </c>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="72"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="72"/>
-      <c r="N33" s="72"/>
-      <c r="O33" s="72"/>
-      <c r="P33" s="72"/>
-      <c r="Q33" s="72"/>
-      <c r="R33" s="72"/>
-      <c r="S33" s="72"/>
-      <c r="T33" s="72"/>
-      <c r="U33" s="72"/>
-      <c r="V33" s="72"/>
-      <c r="W33" s="72"/>
-      <c r="X33" s="72"/>
-      <c r="Y33" s="72"/>
-      <c r="Z33" s="72"/>
-      <c r="AA33" s="72"/>
-      <c r="AB33" s="72"/>
-      <c r="AC33" s="72"/>
-      <c r="AD33" s="72"/>
-      <c r="AE33" s="72"/>
-      <c r="AF33" s="72"/>
-      <c r="AG33" s="72"/>
-      <c r="AH33" s="72"/>
-      <c r="AI33" s="72"/>
-      <c r="AJ33" s="72"/>
-      <c r="AK33" s="72"/>
-      <c r="AL33" s="73"/>
-      <c r="AM33" s="73"/>
-      <c r="AN33" s="73"/>
-      <c r="AO33" s="73"/>
-      <c r="AP33" s="73"/>
-      <c r="AQ33" s="73"/>
-      <c r="AR33" s="73"/>
-      <c r="AS33" s="73"/>
-      <c r="AT33" s="73"/>
-      <c r="AU33" s="73"/>
-      <c r="AV33" s="73"/>
-      <c r="AW33" s="73"/>
-      <c r="AX33" s="73"/>
-      <c r="AY33" s="73"/>
-      <c r="AZ33" s="73"/>
-      <c r="BA33" s="73"/>
-      <c r="BB33" s="73"/>
-      <c r="BC33" s="73"/>
-      <c r="BD33" s="73"/>
-      <c r="BE33" s="73"/>
-      <c r="BF33" s="73"/>
-      <c r="BG33" s="73"/>
-      <c r="BH33" s="73"/>
-      <c r="BI33" s="73"/>
-      <c r="BJ33" s="73"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="79"/>
+      <c r="O33" s="79"/>
+      <c r="P33" s="79"/>
+      <c r="Q33" s="79"/>
+      <c r="R33" s="79"/>
+      <c r="S33" s="79"/>
+      <c r="T33" s="79"/>
+      <c r="U33" s="79"/>
+      <c r="V33" s="79"/>
+      <c r="W33" s="79"/>
+      <c r="X33" s="79"/>
+      <c r="Y33" s="79"/>
+      <c r="Z33" s="79"/>
+      <c r="AA33" s="79"/>
+      <c r="AB33" s="79"/>
+      <c r="AC33" s="79"/>
+      <c r="AD33" s="79"/>
+      <c r="AE33" s="79"/>
+      <c r="AF33" s="79"/>
+      <c r="AG33" s="79"/>
+      <c r="AH33" s="79"/>
+      <c r="AI33" s="79"/>
+      <c r="AJ33" s="79"/>
+      <c r="AK33" s="79"/>
+      <c r="AL33" s="77"/>
+      <c r="AM33" s="77"/>
+      <c r="AN33" s="77"/>
+      <c r="AO33" s="77"/>
+      <c r="AP33" s="77"/>
+      <c r="AQ33" s="77"/>
+      <c r="AR33" s="77"/>
+      <c r="AS33" s="77"/>
+      <c r="AT33" s="77"/>
+      <c r="AU33" s="77"/>
+      <c r="AV33" s="77"/>
+      <c r="AW33" s="77"/>
+      <c r="AX33" s="77"/>
+      <c r="AY33" s="77"/>
+      <c r="AZ33" s="77"/>
+      <c r="BA33" s="77"/>
+      <c r="BB33" s="77"/>
+      <c r="BC33" s="77"/>
+      <c r="BD33" s="77"/>
+      <c r="BE33" s="77"/>
+      <c r="BF33" s="77"/>
+      <c r="BG33" s="77"/>
+      <c r="BH33" s="77"/>
+      <c r="BI33" s="77"/>
+      <c r="BJ33" s="77"/>
       <c r="BK33" s="2"/>
       <c r="BL33" s="16"/>
     </row>
     <row r="34" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="16"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="71" t="s">
+      <c r="C34" s="73" t="s">
         <v>192</v>
       </c>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="72" t="s">
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="72"/>
-      <c r="P34" s="72"/>
-      <c r="Q34" s="72"/>
-      <c r="R34" s="72"/>
-      <c r="S34" s="72"/>
-      <c r="T34" s="72"/>
-      <c r="U34" s="72"/>
-      <c r="V34" s="72"/>
-      <c r="W34" s="72"/>
-      <c r="X34" s="72"/>
-      <c r="Y34" s="72"/>
-      <c r="Z34" s="72"/>
-      <c r="AA34" s="72"/>
-      <c r="AB34" s="72"/>
-      <c r="AC34" s="72"/>
-      <c r="AD34" s="72"/>
-      <c r="AE34" s="72"/>
-      <c r="AF34" s="72"/>
-      <c r="AG34" s="72"/>
-      <c r="AH34" s="72"/>
-      <c r="AI34" s="72"/>
-      <c r="AJ34" s="72"/>
-      <c r="AK34" s="72"/>
-      <c r="AL34" s="73"/>
-      <c r="AM34" s="73"/>
-      <c r="AN34" s="73"/>
-      <c r="AO34" s="73"/>
-      <c r="AP34" s="73"/>
-      <c r="AQ34" s="73"/>
-      <c r="AR34" s="73"/>
-      <c r="AS34" s="73"/>
-      <c r="AT34" s="73"/>
-      <c r="AU34" s="73"/>
-      <c r="AV34" s="73"/>
-      <c r="AW34" s="73"/>
-      <c r="AX34" s="73"/>
-      <c r="AY34" s="73"/>
-      <c r="AZ34" s="73"/>
-      <c r="BA34" s="73"/>
-      <c r="BB34" s="73"/>
-      <c r="BC34" s="73"/>
-      <c r="BD34" s="73"/>
-      <c r="BE34" s="73"/>
-      <c r="BF34" s="73"/>
-      <c r="BG34" s="73"/>
-      <c r="BH34" s="73"/>
-      <c r="BI34" s="73"/>
-      <c r="BJ34" s="73"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="79"/>
+      <c r="K34" s="79"/>
+      <c r="L34" s="79"/>
+      <c r="M34" s="79"/>
+      <c r="N34" s="79"/>
+      <c r="O34" s="79"/>
+      <c r="P34" s="79"/>
+      <c r="Q34" s="79"/>
+      <c r="R34" s="79"/>
+      <c r="S34" s="79"/>
+      <c r="T34" s="79"/>
+      <c r="U34" s="79"/>
+      <c r="V34" s="79"/>
+      <c r="W34" s="79"/>
+      <c r="X34" s="79"/>
+      <c r="Y34" s="79"/>
+      <c r="Z34" s="79"/>
+      <c r="AA34" s="79"/>
+      <c r="AB34" s="79"/>
+      <c r="AC34" s="79"/>
+      <c r="AD34" s="79"/>
+      <c r="AE34" s="79"/>
+      <c r="AF34" s="79"/>
+      <c r="AG34" s="79"/>
+      <c r="AH34" s="79"/>
+      <c r="AI34" s="79"/>
+      <c r="AJ34" s="79"/>
+      <c r="AK34" s="79"/>
+      <c r="AL34" s="77"/>
+      <c r="AM34" s="77"/>
+      <c r="AN34" s="77"/>
+      <c r="AO34" s="77"/>
+      <c r="AP34" s="77"/>
+      <c r="AQ34" s="77"/>
+      <c r="AR34" s="77"/>
+      <c r="AS34" s="77"/>
+      <c r="AT34" s="77"/>
+      <c r="AU34" s="77"/>
+      <c r="AV34" s="77"/>
+      <c r="AW34" s="77"/>
+      <c r="AX34" s="77"/>
+      <c r="AY34" s="77"/>
+      <c r="AZ34" s="77"/>
+      <c r="BA34" s="77"/>
+      <c r="BB34" s="77"/>
+      <c r="BC34" s="77"/>
+      <c r="BD34" s="77"/>
+      <c r="BE34" s="77"/>
+      <c r="BF34" s="77"/>
+      <c r="BG34" s="77"/>
+      <c r="BH34" s="77"/>
+      <c r="BI34" s="77"/>
+      <c r="BJ34" s="77"/>
       <c r="BK34" s="2"/>
       <c r="BL34" s="16"/>
     </row>
     <row r="35" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="16"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="71" t="s">
+      <c r="C35" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="72" t="s">
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="79" t="s">
         <v>201</v>
       </c>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="72"/>
-      <c r="N35" s="72"/>
-      <c r="O35" s="72"/>
-      <c r="P35" s="72"/>
-      <c r="Q35" s="72"/>
-      <c r="R35" s="72"/>
-      <c r="S35" s="72"/>
-      <c r="T35" s="72"/>
-      <c r="U35" s="72"/>
-      <c r="V35" s="72"/>
-      <c r="W35" s="72"/>
-      <c r="X35" s="72"/>
-      <c r="Y35" s="72"/>
-      <c r="Z35" s="72"/>
-      <c r="AA35" s="72"/>
-      <c r="AB35" s="72"/>
-      <c r="AC35" s="72"/>
-      <c r="AD35" s="72"/>
-      <c r="AE35" s="72"/>
-      <c r="AF35" s="72"/>
-      <c r="AG35" s="72"/>
-      <c r="AH35" s="72"/>
-      <c r="AI35" s="72"/>
-      <c r="AJ35" s="72"/>
-      <c r="AK35" s="72"/>
-      <c r="AL35" s="73"/>
-      <c r="AM35" s="73"/>
-      <c r="AN35" s="73"/>
-      <c r="AO35" s="73"/>
-      <c r="AP35" s="73"/>
-      <c r="AQ35" s="73"/>
-      <c r="AR35" s="73"/>
-      <c r="AS35" s="73"/>
-      <c r="AT35" s="73"/>
-      <c r="AU35" s="73"/>
-      <c r="AV35" s="73"/>
-      <c r="AW35" s="73"/>
-      <c r="AX35" s="73"/>
-      <c r="AY35" s="73"/>
-      <c r="AZ35" s="73"/>
-      <c r="BA35" s="73"/>
-      <c r="BB35" s="73"/>
-      <c r="BC35" s="73"/>
-      <c r="BD35" s="73"/>
-      <c r="BE35" s="73"/>
-      <c r="BF35" s="73"/>
-      <c r="BG35" s="73"/>
-      <c r="BH35" s="73"/>
-      <c r="BI35" s="73"/>
-      <c r="BJ35" s="73"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="79"/>
+      <c r="K35" s="79"/>
+      <c r="L35" s="79"/>
+      <c r="M35" s="79"/>
+      <c r="N35" s="79"/>
+      <c r="O35" s="79"/>
+      <c r="P35" s="79"/>
+      <c r="Q35" s="79"/>
+      <c r="R35" s="79"/>
+      <c r="S35" s="79"/>
+      <c r="T35" s="79"/>
+      <c r="U35" s="79"/>
+      <c r="V35" s="79"/>
+      <c r="W35" s="79"/>
+      <c r="X35" s="79"/>
+      <c r="Y35" s="79"/>
+      <c r="Z35" s="79"/>
+      <c r="AA35" s="79"/>
+      <c r="AB35" s="79"/>
+      <c r="AC35" s="79"/>
+      <c r="AD35" s="79"/>
+      <c r="AE35" s="79"/>
+      <c r="AF35" s="79"/>
+      <c r="AG35" s="79"/>
+      <c r="AH35" s="79"/>
+      <c r="AI35" s="79"/>
+      <c r="AJ35" s="79"/>
+      <c r="AK35" s="79"/>
+      <c r="AL35" s="77"/>
+      <c r="AM35" s="77"/>
+      <c r="AN35" s="77"/>
+      <c r="AO35" s="77"/>
+      <c r="AP35" s="77"/>
+      <c r="AQ35" s="77"/>
+      <c r="AR35" s="77"/>
+      <c r="AS35" s="77"/>
+      <c r="AT35" s="77"/>
+      <c r="AU35" s="77"/>
+      <c r="AV35" s="77"/>
+      <c r="AW35" s="77"/>
+      <c r="AX35" s="77"/>
+      <c r="AY35" s="77"/>
+      <c r="AZ35" s="77"/>
+      <c r="BA35" s="77"/>
+      <c r="BB35" s="77"/>
+      <c r="BC35" s="77"/>
+      <c r="BD35" s="77"/>
+      <c r="BE35" s="77"/>
+      <c r="BF35" s="77"/>
+      <c r="BG35" s="77"/>
+      <c r="BH35" s="77"/>
+      <c r="BI35" s="77"/>
+      <c r="BJ35" s="77"/>
       <c r="BK35" s="2"/>
       <c r="BL35" s="16"/>
     </row>
     <row r="36" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="16"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="71" t="s">
+      <c r="C36" s="73" t="s">
         <v>194</v>
       </c>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="72" t="s">
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="79" t="s">
         <v>202</v>
       </c>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="72"/>
-      <c r="N36" s="72"/>
-      <c r="O36" s="72"/>
-      <c r="P36" s="72"/>
-      <c r="Q36" s="72"/>
-      <c r="R36" s="72"/>
-      <c r="S36" s="72"/>
-      <c r="T36" s="72"/>
-      <c r="U36" s="72"/>
-      <c r="V36" s="72"/>
-      <c r="W36" s="72"/>
-      <c r="X36" s="72"/>
-      <c r="Y36" s="72"/>
-      <c r="Z36" s="72"/>
-      <c r="AA36" s="72"/>
-      <c r="AB36" s="72"/>
-      <c r="AC36" s="72"/>
-      <c r="AD36" s="72"/>
-      <c r="AE36" s="72"/>
-      <c r="AF36" s="72"/>
-      <c r="AG36" s="72"/>
-      <c r="AH36" s="72"/>
-      <c r="AI36" s="72"/>
-      <c r="AJ36" s="72"/>
-      <c r="AK36" s="72"/>
-      <c r="AL36" s="73"/>
-      <c r="AM36" s="73"/>
-      <c r="AN36" s="73"/>
-      <c r="AO36" s="73"/>
-      <c r="AP36" s="73"/>
-      <c r="AQ36" s="73"/>
-      <c r="AR36" s="73"/>
-      <c r="AS36" s="73"/>
-      <c r="AT36" s="73"/>
-      <c r="AU36" s="73"/>
-      <c r="AV36" s="73"/>
-      <c r="AW36" s="73"/>
-      <c r="AX36" s="73"/>
-      <c r="AY36" s="73"/>
-      <c r="AZ36" s="73"/>
-      <c r="BA36" s="73"/>
-      <c r="BB36" s="73"/>
-      <c r="BC36" s="73"/>
-      <c r="BD36" s="73"/>
-      <c r="BE36" s="73"/>
-      <c r="BF36" s="73"/>
-      <c r="BG36" s="73"/>
-      <c r="BH36" s="73"/>
-      <c r="BI36" s="73"/>
-      <c r="BJ36" s="73"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="79"/>
+      <c r="L36" s="79"/>
+      <c r="M36" s="79"/>
+      <c r="N36" s="79"/>
+      <c r="O36" s="79"/>
+      <c r="P36" s="79"/>
+      <c r="Q36" s="79"/>
+      <c r="R36" s="79"/>
+      <c r="S36" s="79"/>
+      <c r="T36" s="79"/>
+      <c r="U36" s="79"/>
+      <c r="V36" s="79"/>
+      <c r="W36" s="79"/>
+      <c r="X36" s="79"/>
+      <c r="Y36" s="79"/>
+      <c r="Z36" s="79"/>
+      <c r="AA36" s="79"/>
+      <c r="AB36" s="79"/>
+      <c r="AC36" s="79"/>
+      <c r="AD36" s="79"/>
+      <c r="AE36" s="79"/>
+      <c r="AF36" s="79"/>
+      <c r="AG36" s="79"/>
+      <c r="AH36" s="79"/>
+      <c r="AI36" s="79"/>
+      <c r="AJ36" s="79"/>
+      <c r="AK36" s="79"/>
+      <c r="AL36" s="77"/>
+      <c r="AM36" s="77"/>
+      <c r="AN36" s="77"/>
+      <c r="AO36" s="77"/>
+      <c r="AP36" s="77"/>
+      <c r="AQ36" s="77"/>
+      <c r="AR36" s="77"/>
+      <c r="AS36" s="77"/>
+      <c r="AT36" s="77"/>
+      <c r="AU36" s="77"/>
+      <c r="AV36" s="77"/>
+      <c r="AW36" s="77"/>
+      <c r="AX36" s="77"/>
+      <c r="AY36" s="77"/>
+      <c r="AZ36" s="77"/>
+      <c r="BA36" s="77"/>
+      <c r="BB36" s="77"/>
+      <c r="BC36" s="77"/>
+      <c r="BD36" s="77"/>
+      <c r="BE36" s="77"/>
+      <c r="BF36" s="77"/>
+      <c r="BG36" s="77"/>
+      <c r="BH36" s="77"/>
+      <c r="BI36" s="77"/>
+      <c r="BJ36" s="77"/>
       <c r="BK36" s="2"/>
       <c r="BL36" s="16"/>
     </row>
     <row r="37" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="16"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="71" t="s">
+      <c r="C37" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="72" t="s">
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="72"/>
-      <c r="N37" s="72"/>
-      <c r="O37" s="72"/>
-      <c r="P37" s="72"/>
-      <c r="Q37" s="72"/>
-      <c r="R37" s="72"/>
-      <c r="S37" s="72"/>
-      <c r="T37" s="72"/>
-      <c r="U37" s="72"/>
-      <c r="V37" s="72"/>
-      <c r="W37" s="72"/>
-      <c r="X37" s="72"/>
-      <c r="Y37" s="72"/>
-      <c r="Z37" s="72"/>
-      <c r="AA37" s="72"/>
-      <c r="AB37" s="72"/>
-      <c r="AC37" s="72"/>
-      <c r="AD37" s="72"/>
-      <c r="AE37" s="72"/>
-      <c r="AF37" s="72"/>
-      <c r="AG37" s="72"/>
-      <c r="AH37" s="72"/>
-      <c r="AI37" s="72"/>
-      <c r="AJ37" s="72"/>
-      <c r="AK37" s="72"/>
-      <c r="AL37" s="73"/>
-      <c r="AM37" s="73"/>
-      <c r="AN37" s="73"/>
-      <c r="AO37" s="73"/>
-      <c r="AP37" s="73"/>
-      <c r="AQ37" s="73"/>
-      <c r="AR37" s="73"/>
-      <c r="AS37" s="73"/>
-      <c r="AT37" s="73"/>
-      <c r="AU37" s="73"/>
-      <c r="AV37" s="73"/>
-      <c r="AW37" s="73"/>
-      <c r="AX37" s="73"/>
-      <c r="AY37" s="73"/>
-      <c r="AZ37" s="73"/>
-      <c r="BA37" s="73"/>
-      <c r="BB37" s="73"/>
-      <c r="BC37" s="73"/>
-      <c r="BD37" s="73"/>
-      <c r="BE37" s="73"/>
-      <c r="BF37" s="73"/>
-      <c r="BG37" s="73"/>
-      <c r="BH37" s="73"/>
-      <c r="BI37" s="73"/>
-      <c r="BJ37" s="73"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="79"/>
+      <c r="K37" s="79"/>
+      <c r="L37" s="79"/>
+      <c r="M37" s="79"/>
+      <c r="N37" s="79"/>
+      <c r="O37" s="79"/>
+      <c r="P37" s="79"/>
+      <c r="Q37" s="79"/>
+      <c r="R37" s="79"/>
+      <c r="S37" s="79"/>
+      <c r="T37" s="79"/>
+      <c r="U37" s="79"/>
+      <c r="V37" s="79"/>
+      <c r="W37" s="79"/>
+      <c r="X37" s="79"/>
+      <c r="Y37" s="79"/>
+      <c r="Z37" s="79"/>
+      <c r="AA37" s="79"/>
+      <c r="AB37" s="79"/>
+      <c r="AC37" s="79"/>
+      <c r="AD37" s="79"/>
+      <c r="AE37" s="79"/>
+      <c r="AF37" s="79"/>
+      <c r="AG37" s="79"/>
+      <c r="AH37" s="79"/>
+      <c r="AI37" s="79"/>
+      <c r="AJ37" s="79"/>
+      <c r="AK37" s="79"/>
+      <c r="AL37" s="77"/>
+      <c r="AM37" s="77"/>
+      <c r="AN37" s="77"/>
+      <c r="AO37" s="77"/>
+      <c r="AP37" s="77"/>
+      <c r="AQ37" s="77"/>
+      <c r="AR37" s="77"/>
+      <c r="AS37" s="77"/>
+      <c r="AT37" s="77"/>
+      <c r="AU37" s="77"/>
+      <c r="AV37" s="77"/>
+      <c r="AW37" s="77"/>
+      <c r="AX37" s="77"/>
+      <c r="AY37" s="77"/>
+      <c r="AZ37" s="77"/>
+      <c r="BA37" s="77"/>
+      <c r="BB37" s="77"/>
+      <c r="BC37" s="77"/>
+      <c r="BD37" s="77"/>
+      <c r="BE37" s="77"/>
+      <c r="BF37" s="77"/>
+      <c r="BG37" s="77"/>
+      <c r="BH37" s="77"/>
+      <c r="BI37" s="77"/>
+      <c r="BJ37" s="77"/>
       <c r="BK37" s="2"/>
       <c r="BL37" s="16"/>
     </row>
     <row r="38" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="16"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="71" t="s">
+      <c r="C38" s="73" t="s">
         <v>207</v>
       </c>
-      <c r="D38" s="71"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="72" t="s">
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="79" t="s">
         <v>208</v>
       </c>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="72"/>
-      <c r="J38" s="72"/>
-      <c r="K38" s="72"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="72"/>
-      <c r="N38" s="72"/>
-      <c r="O38" s="72"/>
-      <c r="P38" s="72"/>
-      <c r="Q38" s="72"/>
-      <c r="R38" s="72"/>
-      <c r="S38" s="72"/>
-      <c r="T38" s="72"/>
-      <c r="U38" s="72"/>
-      <c r="V38" s="72"/>
-      <c r="W38" s="72"/>
-      <c r="X38" s="72"/>
-      <c r="Y38" s="72"/>
-      <c r="Z38" s="72"/>
-      <c r="AA38" s="72"/>
-      <c r="AB38" s="72"/>
-      <c r="AC38" s="72"/>
-      <c r="AD38" s="72"/>
-      <c r="AE38" s="72"/>
-      <c r="AF38" s="72"/>
-      <c r="AG38" s="72"/>
-      <c r="AH38" s="72"/>
-      <c r="AI38" s="72"/>
-      <c r="AJ38" s="72"/>
-      <c r="AK38" s="72"/>
-      <c r="AL38" s="73"/>
-      <c r="AM38" s="73"/>
-      <c r="AN38" s="73"/>
-      <c r="AO38" s="73"/>
-      <c r="AP38" s="73"/>
-      <c r="AQ38" s="73"/>
-      <c r="AR38" s="73"/>
-      <c r="AS38" s="73"/>
-      <c r="AT38" s="73"/>
-      <c r="AU38" s="73"/>
-      <c r="AV38" s="73"/>
-      <c r="AW38" s="73"/>
-      <c r="AX38" s="73"/>
-      <c r="AY38" s="73"/>
-      <c r="AZ38" s="73"/>
-      <c r="BA38" s="73"/>
-      <c r="BB38" s="73"/>
-      <c r="BC38" s="73"/>
-      <c r="BD38" s="73"/>
-      <c r="BE38" s="73"/>
-      <c r="BF38" s="73"/>
-      <c r="BG38" s="73"/>
-      <c r="BH38" s="73"/>
-      <c r="BI38" s="73"/>
-      <c r="BJ38" s="73"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="79"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="79"/>
+      <c r="K38" s="79"/>
+      <c r="L38" s="79"/>
+      <c r="M38" s="79"/>
+      <c r="N38" s="79"/>
+      <c r="O38" s="79"/>
+      <c r="P38" s="79"/>
+      <c r="Q38" s="79"/>
+      <c r="R38" s="79"/>
+      <c r="S38" s="79"/>
+      <c r="T38" s="79"/>
+      <c r="U38" s="79"/>
+      <c r="V38" s="79"/>
+      <c r="W38" s="79"/>
+      <c r="X38" s="79"/>
+      <c r="Y38" s="79"/>
+      <c r="Z38" s="79"/>
+      <c r="AA38" s="79"/>
+      <c r="AB38" s="79"/>
+      <c r="AC38" s="79"/>
+      <c r="AD38" s="79"/>
+      <c r="AE38" s="79"/>
+      <c r="AF38" s="79"/>
+      <c r="AG38" s="79"/>
+      <c r="AH38" s="79"/>
+      <c r="AI38" s="79"/>
+      <c r="AJ38" s="79"/>
+      <c r="AK38" s="79"/>
+      <c r="AL38" s="77"/>
+      <c r="AM38" s="77"/>
+      <c r="AN38" s="77"/>
+      <c r="AO38" s="77"/>
+      <c r="AP38" s="77"/>
+      <c r="AQ38" s="77"/>
+      <c r="AR38" s="77"/>
+      <c r="AS38" s="77"/>
+      <c r="AT38" s="77"/>
+      <c r="AU38" s="77"/>
+      <c r="AV38" s="77"/>
+      <c r="AW38" s="77"/>
+      <c r="AX38" s="77"/>
+      <c r="AY38" s="77"/>
+      <c r="AZ38" s="77"/>
+      <c r="BA38" s="77"/>
+      <c r="BB38" s="77"/>
+      <c r="BC38" s="77"/>
+      <c r="BD38" s="77"/>
+      <c r="BE38" s="77"/>
+      <c r="BF38" s="77"/>
+      <c r="BG38" s="77"/>
+      <c r="BH38" s="77"/>
+      <c r="BI38" s="77"/>
+      <c r="BJ38" s="77"/>
       <c r="BK38" s="2"/>
       <c r="BL38" s="16"/>
     </row>
     <row r="39" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="71" t="s">
+      <c r="C39" s="73" t="s">
         <v>209</v>
       </c>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="72" t="s">
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="79" t="s">
         <v>210</v>
       </c>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="72"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="72"/>
-      <c r="N39" s="72"/>
-      <c r="O39" s="72"/>
-      <c r="P39" s="72"/>
-      <c r="Q39" s="72"/>
-      <c r="R39" s="72"/>
-      <c r="S39" s="72"/>
-      <c r="T39" s="72"/>
-      <c r="U39" s="72"/>
-      <c r="V39" s="72"/>
-      <c r="W39" s="72"/>
-      <c r="X39" s="72"/>
-      <c r="Y39" s="72"/>
-      <c r="Z39" s="72"/>
-      <c r="AA39" s="72"/>
-      <c r="AB39" s="72"/>
-      <c r="AC39" s="72"/>
-      <c r="AD39" s="72"/>
-      <c r="AE39" s="72"/>
-      <c r="AF39" s="72"/>
-      <c r="AG39" s="72"/>
-      <c r="AH39" s="72"/>
-      <c r="AI39" s="72"/>
-      <c r="AJ39" s="72"/>
-      <c r="AK39" s="72"/>
-      <c r="AL39" s="73"/>
-      <c r="AM39" s="73"/>
-      <c r="AN39" s="73"/>
-      <c r="AO39" s="73"/>
-      <c r="AP39" s="73"/>
-      <c r="AQ39" s="73"/>
-      <c r="AR39" s="73"/>
-      <c r="AS39" s="73"/>
-      <c r="AT39" s="73"/>
-      <c r="AU39" s="73"/>
-      <c r="AV39" s="73"/>
-      <c r="AW39" s="73"/>
-      <c r="AX39" s="73"/>
-      <c r="AY39" s="73"/>
-      <c r="AZ39" s="73"/>
-      <c r="BA39" s="73"/>
-      <c r="BB39" s="73"/>
-      <c r="BC39" s="73"/>
-      <c r="BD39" s="73"/>
-      <c r="BE39" s="73"/>
-      <c r="BF39" s="73"/>
-      <c r="BG39" s="73"/>
-      <c r="BH39" s="73"/>
-      <c r="BI39" s="73"/>
-      <c r="BJ39" s="73"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="79"/>
+      <c r="I39" s="79"/>
+      <c r="J39" s="79"/>
+      <c r="K39" s="79"/>
+      <c r="L39" s="79"/>
+      <c r="M39" s="79"/>
+      <c r="N39" s="79"/>
+      <c r="O39" s="79"/>
+      <c r="P39" s="79"/>
+      <c r="Q39" s="79"/>
+      <c r="R39" s="79"/>
+      <c r="S39" s="79"/>
+      <c r="T39" s="79"/>
+      <c r="U39" s="79"/>
+      <c r="V39" s="79"/>
+      <c r="W39" s="79"/>
+      <c r="X39" s="79"/>
+      <c r="Y39" s="79"/>
+      <c r="Z39" s="79"/>
+      <c r="AA39" s="79"/>
+      <c r="AB39" s="79"/>
+      <c r="AC39" s="79"/>
+      <c r="AD39" s="79"/>
+      <c r="AE39" s="79"/>
+      <c r="AF39" s="79"/>
+      <c r="AG39" s="79"/>
+      <c r="AH39" s="79"/>
+      <c r="AI39" s="79"/>
+      <c r="AJ39" s="79"/>
+      <c r="AK39" s="79"/>
+      <c r="AL39" s="77"/>
+      <c r="AM39" s="77"/>
+      <c r="AN39" s="77"/>
+      <c r="AO39" s="77"/>
+      <c r="AP39" s="77"/>
+      <c r="AQ39" s="77"/>
+      <c r="AR39" s="77"/>
+      <c r="AS39" s="77"/>
+      <c r="AT39" s="77"/>
+      <c r="AU39" s="77"/>
+      <c r="AV39" s="77"/>
+      <c r="AW39" s="77"/>
+      <c r="AX39" s="77"/>
+      <c r="AY39" s="77"/>
+      <c r="AZ39" s="77"/>
+      <c r="BA39" s="77"/>
+      <c r="BB39" s="77"/>
+      <c r="BC39" s="77"/>
+      <c r="BD39" s="77"/>
+      <c r="BE39" s="77"/>
+      <c r="BF39" s="77"/>
+      <c r="BG39" s="77"/>
+      <c r="BH39" s="77"/>
+      <c r="BI39" s="77"/>
+      <c r="BJ39" s="77"/>
       <c r="BK39" s="2"/>
       <c r="BL39" s="16"/>
     </row>
     <row r="40" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="16"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="71" t="s">
+      <c r="C40" s="73" t="s">
         <v>211</v>
       </c>
-      <c r="D40" s="71"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="72" t="s">
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="79" t="s">
         <v>212</v>
       </c>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="72"/>
-      <c r="K40" s="72"/>
-      <c r="L40" s="72"/>
-      <c r="M40" s="72"/>
-      <c r="N40" s="72"/>
-      <c r="O40" s="72"/>
-      <c r="P40" s="72"/>
-      <c r="Q40" s="72"/>
-      <c r="R40" s="72"/>
-      <c r="S40" s="72"/>
-      <c r="T40" s="72"/>
-      <c r="U40" s="72"/>
-      <c r="V40" s="72"/>
-      <c r="W40" s="72"/>
-      <c r="X40" s="72"/>
-      <c r="Y40" s="72"/>
-      <c r="Z40" s="72"/>
-      <c r="AA40" s="72"/>
-      <c r="AB40" s="72"/>
-      <c r="AC40" s="72"/>
-      <c r="AD40" s="72"/>
-      <c r="AE40" s="72"/>
-      <c r="AF40" s="72"/>
-      <c r="AG40" s="72"/>
-      <c r="AH40" s="72"/>
-      <c r="AI40" s="72"/>
-      <c r="AJ40" s="72"/>
-      <c r="AK40" s="72"/>
-      <c r="AL40" s="73"/>
-      <c r="AM40" s="73"/>
-      <c r="AN40" s="73"/>
-      <c r="AO40" s="73"/>
-      <c r="AP40" s="73"/>
-      <c r="AQ40" s="73"/>
-      <c r="AR40" s="73"/>
-      <c r="AS40" s="73"/>
-      <c r="AT40" s="73"/>
-      <c r="AU40" s="73"/>
-      <c r="AV40" s="73"/>
-      <c r="AW40" s="73"/>
-      <c r="AX40" s="73"/>
-      <c r="AY40" s="73"/>
-      <c r="AZ40" s="73"/>
-      <c r="BA40" s="73"/>
-      <c r="BB40" s="73"/>
-      <c r="BC40" s="73"/>
-      <c r="BD40" s="73"/>
-      <c r="BE40" s="73"/>
-      <c r="BF40" s="73"/>
-      <c r="BG40" s="73"/>
-      <c r="BH40" s="73"/>
-      <c r="BI40" s="73"/>
-      <c r="BJ40" s="73"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="79"/>
+      <c r="I40" s="79"/>
+      <c r="J40" s="79"/>
+      <c r="K40" s="79"/>
+      <c r="L40" s="79"/>
+      <c r="M40" s="79"/>
+      <c r="N40" s="79"/>
+      <c r="O40" s="79"/>
+      <c r="P40" s="79"/>
+      <c r="Q40" s="79"/>
+      <c r="R40" s="79"/>
+      <c r="S40" s="79"/>
+      <c r="T40" s="79"/>
+      <c r="U40" s="79"/>
+      <c r="V40" s="79"/>
+      <c r="W40" s="79"/>
+      <c r="X40" s="79"/>
+      <c r="Y40" s="79"/>
+      <c r="Z40" s="79"/>
+      <c r="AA40" s="79"/>
+      <c r="AB40" s="79"/>
+      <c r="AC40" s="79"/>
+      <c r="AD40" s="79"/>
+      <c r="AE40" s="79"/>
+      <c r="AF40" s="79"/>
+      <c r="AG40" s="79"/>
+      <c r="AH40" s="79"/>
+      <c r="AI40" s="79"/>
+      <c r="AJ40" s="79"/>
+      <c r="AK40" s="79"/>
+      <c r="AL40" s="77"/>
+      <c r="AM40" s="77"/>
+      <c r="AN40" s="77"/>
+      <c r="AO40" s="77"/>
+      <c r="AP40" s="77"/>
+      <c r="AQ40" s="77"/>
+      <c r="AR40" s="77"/>
+      <c r="AS40" s="77"/>
+      <c r="AT40" s="77"/>
+      <c r="AU40" s="77"/>
+      <c r="AV40" s="77"/>
+      <c r="AW40" s="77"/>
+      <c r="AX40" s="77"/>
+      <c r="AY40" s="77"/>
+      <c r="AZ40" s="77"/>
+      <c r="BA40" s="77"/>
+      <c r="BB40" s="77"/>
+      <c r="BC40" s="77"/>
+      <c r="BD40" s="77"/>
+      <c r="BE40" s="77"/>
+      <c r="BF40" s="77"/>
+      <c r="BG40" s="77"/>
+      <c r="BH40" s="77"/>
+      <c r="BI40" s="77"/>
+      <c r="BJ40" s="77"/>
       <c r="BK40" s="2"/>
       <c r="BL40" s="16"/>
     </row>
@@ -10343,15 +10436,102 @@
     </row>
   </sheetData>
   <mergeCells count="117">
-    <mergeCell ref="B2:BK2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="Q3:AM3"/>
-    <mergeCell ref="AN3:AS3"/>
-    <mergeCell ref="AT3:AY3"/>
-    <mergeCell ref="AZ3:BE3"/>
-    <mergeCell ref="BF3:BK3"/>
-    <mergeCell ref="BF4:BK5"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:AK39"/>
+    <mergeCell ref="AL39:BJ39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:AK40"/>
+    <mergeCell ref="AL40:BJ40"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:AK37"/>
+    <mergeCell ref="AL37:BJ37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:AK38"/>
+    <mergeCell ref="AL38:BJ38"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:AK35"/>
+    <mergeCell ref="AL35:BJ35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:AK36"/>
+    <mergeCell ref="AL36:BJ36"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:AK33"/>
+    <mergeCell ref="AL33:BJ33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:AK34"/>
+    <mergeCell ref="AL34:BJ34"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:AK31"/>
+    <mergeCell ref="AL31:BJ31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:AK32"/>
+    <mergeCell ref="AL32:BJ32"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:AK29"/>
+    <mergeCell ref="AL29:BJ29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:AK30"/>
+    <mergeCell ref="AL30:BJ30"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:AK27"/>
+    <mergeCell ref="AL27:BJ27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:AK28"/>
+    <mergeCell ref="AL28:BJ28"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:AK25"/>
+    <mergeCell ref="AL25:BJ25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:AK26"/>
+    <mergeCell ref="AL26:BJ26"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:AK23"/>
+    <mergeCell ref="AL23:BJ23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:AK24"/>
+    <mergeCell ref="AL24:BJ24"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:AK21"/>
+    <mergeCell ref="AL21:BJ21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:AK22"/>
+    <mergeCell ref="AL22:BJ22"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:AK19"/>
+    <mergeCell ref="AL19:BJ19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:AK20"/>
+    <mergeCell ref="AL20:BJ20"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:AK17"/>
+    <mergeCell ref="AL17:BJ17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:AK18"/>
+    <mergeCell ref="AL18:BJ18"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:AK15"/>
+    <mergeCell ref="AL15:BJ15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:AK16"/>
+    <mergeCell ref="AL16:BJ16"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:AK13"/>
+    <mergeCell ref="AL13:BJ13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:AK14"/>
+    <mergeCell ref="AL14:BJ14"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:AK11"/>
+    <mergeCell ref="AL11:BJ11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:AK12"/>
+    <mergeCell ref="AL12:BJ12"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:AK9"/>
+    <mergeCell ref="AL9:BJ9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:AK10"/>
+    <mergeCell ref="AL10:BJ10"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:AK7"/>
     <mergeCell ref="AL7:BJ7"/>
@@ -10364,102 +10544,15 @@
     <mergeCell ref="AN4:AS5"/>
     <mergeCell ref="AT4:AY5"/>
     <mergeCell ref="AZ4:BE5"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:AK11"/>
-    <mergeCell ref="AL11:BJ11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:AK12"/>
-    <mergeCell ref="AL12:BJ12"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:AK9"/>
-    <mergeCell ref="AL9:BJ9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:AK10"/>
-    <mergeCell ref="AL10:BJ10"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:AK15"/>
-    <mergeCell ref="AL15:BJ15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:AK16"/>
-    <mergeCell ref="AL16:BJ16"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:AK13"/>
-    <mergeCell ref="AL13:BJ13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:AK14"/>
-    <mergeCell ref="AL14:BJ14"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:AK19"/>
-    <mergeCell ref="AL19:BJ19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:AK20"/>
-    <mergeCell ref="AL20:BJ20"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:AK17"/>
-    <mergeCell ref="AL17:BJ17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:AK18"/>
-    <mergeCell ref="AL18:BJ18"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:AK23"/>
-    <mergeCell ref="AL23:BJ23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:AK24"/>
-    <mergeCell ref="AL24:BJ24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:AK21"/>
-    <mergeCell ref="AL21:BJ21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:AK22"/>
-    <mergeCell ref="AL22:BJ22"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:AK27"/>
-    <mergeCell ref="AL27:BJ27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:AK28"/>
-    <mergeCell ref="AL28:BJ28"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:AK25"/>
-    <mergeCell ref="AL25:BJ25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:AK26"/>
-    <mergeCell ref="AL26:BJ26"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:AK31"/>
-    <mergeCell ref="AL31:BJ31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:AK32"/>
-    <mergeCell ref="AL32:BJ32"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:AK29"/>
-    <mergeCell ref="AL29:BJ29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:AK30"/>
-    <mergeCell ref="AL30:BJ30"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:AK35"/>
-    <mergeCell ref="AL35:BJ35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:AK36"/>
-    <mergeCell ref="AL36:BJ36"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:AK33"/>
-    <mergeCell ref="AL33:BJ33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:AK34"/>
-    <mergeCell ref="AL34:BJ34"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:AK39"/>
-    <mergeCell ref="AL39:BJ39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:AK40"/>
-    <mergeCell ref="AL40:BJ40"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:AK37"/>
-    <mergeCell ref="AL37:BJ37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:AK38"/>
-    <mergeCell ref="AL38:BJ38"/>
+    <mergeCell ref="B2:BK2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="Q3:AM3"/>
+    <mergeCell ref="AN3:AS3"/>
+    <mergeCell ref="AT3:AY3"/>
+    <mergeCell ref="AZ3:BE3"/>
+    <mergeCell ref="BF3:BK3"/>
+    <mergeCell ref="BF4:BK5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/メッセージ設計書.xlsx
+++ b/メッセージ設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kensyu004\Desktop\新しいフォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2170F7A-31CA-4764-829E-9DCEAE85ADD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F0187B-C76D-40E3-B194-60FB0CFCC96B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="10395" activeTab="2" xr2:uid="{78B42164-E9D9-4973-93DD-29F371AD8A8A}"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="20250" windowHeight="10680" xr2:uid="{78B42164-E9D9-4973-93DD-29F371AD8A8A}"/>
   </bookViews>
   <sheets>
     <sheet name="ツールチップ" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="219">
   <si>
     <t>ソフトウェア名</t>
     <rPh sb="6" eb="7">
@@ -1756,6 +1756,35 @@
   </si>
   <si>
     <t>オンライン合同企業展メッセージ仕様書</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更後のパスワードが入力されているなら必須</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在のパスワードが入力されているなら必須</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒッス</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2085,6 +2114,36 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2096,36 +2155,6 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2152,6 +2181,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2217,50 +2273,32 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2271,23 +2309,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2634,291 +2663,291 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429EB542-BC0C-481E-9D52-F74EC05414BC}">
   <dimension ref="B1:BK23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AG5" sqref="AG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="19"/>
-      <c r="AO1" s="19"/>
-      <c r="AP1" s="19"/>
-      <c r="AQ1" s="19"/>
-      <c r="AR1" s="19"/>
-      <c r="AS1" s="19"/>
-      <c r="AT1" s="19"/>
-      <c r="AU1" s="19"/>
-      <c r="AV1" s="19"/>
-      <c r="AW1" s="19"/>
-      <c r="AX1" s="19"/>
-      <c r="AY1" s="19"/>
-      <c r="AZ1" s="19"/>
-      <c r="BA1" s="19"/>
-      <c r="BB1" s="19"/>
-      <c r="BC1" s="19"/>
-      <c r="BD1" s="19"/>
-      <c r="BE1" s="19"/>
-      <c r="BF1" s="19"/>
-      <c r="BG1" s="19"/>
-      <c r="BH1" s="19"/>
-      <c r="BI1" s="19"/>
-      <c r="BJ1" s="19"/>
-      <c r="BK1" s="19"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="29"/>
+      <c r="AO1" s="29"/>
+      <c r="AP1" s="29"/>
+      <c r="AQ1" s="29"/>
+      <c r="AR1" s="29"/>
+      <c r="AS1" s="29"/>
+      <c r="AT1" s="29"/>
+      <c r="AU1" s="29"/>
+      <c r="AV1" s="29"/>
+      <c r="AW1" s="29"/>
+      <c r="AX1" s="29"/>
+      <c r="AY1" s="29"/>
+      <c r="AZ1" s="29"/>
+      <c r="BA1" s="29"/>
+      <c r="BB1" s="29"/>
+      <c r="BC1" s="29"/>
+      <c r="BD1" s="29"/>
+      <c r="BE1" s="29"/>
+      <c r="BF1" s="29"/>
+      <c r="BG1" s="29"/>
+      <c r="BH1" s="29"/>
+      <c r="BI1" s="29"/>
+      <c r="BJ1" s="29"/>
+      <c r="BK1" s="29"/>
     </row>
     <row r="2" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="20" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20" t="s">
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="20"/>
-      <c r="AN2" s="21" t="s">
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="AO2" s="21"/>
-      <c r="AP2" s="21"/>
-      <c r="AQ2" s="21"/>
-      <c r="AR2" s="21"/>
-      <c r="AS2" s="21"/>
-      <c r="AT2" s="20" t="s">
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="AU2" s="20"/>
-      <c r="AV2" s="20"/>
-      <c r="AW2" s="20"/>
-      <c r="AX2" s="20"/>
-      <c r="AY2" s="20"/>
-      <c r="AZ2" s="20" t="s">
+      <c r="AU2" s="30"/>
+      <c r="AV2" s="30"/>
+      <c r="AW2" s="30"/>
+      <c r="AX2" s="30"/>
+      <c r="AY2" s="30"/>
+      <c r="AZ2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="BA2" s="20"/>
-      <c r="BB2" s="20"/>
-      <c r="BC2" s="20"/>
-      <c r="BD2" s="20"/>
-      <c r="BE2" s="20"/>
-      <c r="BF2" s="20" t="s">
+      <c r="BA2" s="30"/>
+      <c r="BB2" s="30"/>
+      <c r="BC2" s="30"/>
+      <c r="BD2" s="30"/>
+      <c r="BE2" s="30"/>
+      <c r="BF2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="BG2" s="20"/>
-      <c r="BH2" s="20"/>
-      <c r="BI2" s="20"/>
-      <c r="BJ2" s="20"/>
-      <c r="BK2" s="20"/>
+      <c r="BG2" s="30"/>
+      <c r="BH2" s="30"/>
+      <c r="BI2" s="30"/>
+      <c r="BJ2" s="30"/>
+      <c r="BK2" s="30"/>
     </row>
     <row r="3" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="27">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="26">
         <v>1</v>
       </c>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="22" t="s">
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="22"/>
-      <c r="AF3" s="22"/>
-      <c r="AG3" s="22"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="22"/>
-      <c r="AJ3" s="22"/>
-      <c r="AK3" s="22"/>
-      <c r="AL3" s="22"/>
-      <c r="AM3" s="22"/>
-      <c r="AN3" s="28"/>
-      <c r="AO3" s="22"/>
-      <c r="AP3" s="22"/>
-      <c r="AQ3" s="22"/>
-      <c r="AR3" s="22"/>
-      <c r="AS3" s="22"/>
-      <c r="AT3" s="28" t="s">
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="24"/>
+      <c r="AK3" s="24"/>
+      <c r="AL3" s="24"/>
+      <c r="AM3" s="24"/>
+      <c r="AN3" s="27"/>
+      <c r="AO3" s="24"/>
+      <c r="AP3" s="24"/>
+      <c r="AQ3" s="24"/>
+      <c r="AR3" s="24"/>
+      <c r="AS3" s="24"/>
+      <c r="AT3" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="AU3" s="28"/>
-      <c r="AV3" s="28"/>
-      <c r="AW3" s="28"/>
-      <c r="AX3" s="28"/>
-      <c r="AY3" s="28"/>
-      <c r="AZ3" s="22"/>
-      <c r="BA3" s="22"/>
-      <c r="BB3" s="22"/>
-      <c r="BC3" s="22"/>
-      <c r="BD3" s="22"/>
-      <c r="BE3" s="22"/>
-      <c r="BF3" s="22"/>
-      <c r="BG3" s="22"/>
-      <c r="BH3" s="22"/>
-      <c r="BI3" s="22"/>
-      <c r="BJ3" s="22"/>
-      <c r="BK3" s="22"/>
+      <c r="AU3" s="27"/>
+      <c r="AV3" s="27"/>
+      <c r="AW3" s="27"/>
+      <c r="AX3" s="27"/>
+      <c r="AY3" s="27"/>
+      <c r="AZ3" s="24"/>
+      <c r="BA3" s="24"/>
+      <c r="BB3" s="24"/>
+      <c r="BC3" s="24"/>
+      <c r="BD3" s="24"/>
+      <c r="BE3" s="24"/>
+      <c r="BF3" s="24"/>
+      <c r="BG3" s="24"/>
+      <c r="BH3" s="24"/>
+      <c r="BI3" s="24"/>
+      <c r="BJ3" s="24"/>
+      <c r="BK3" s="24"/>
     </row>
     <row r="4" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="22"/>
-      <c r="AJ4" s="22"/>
-      <c r="AK4" s="22"/>
-      <c r="AL4" s="22"/>
-      <c r="AM4" s="22"/>
-      <c r="AN4" s="22"/>
-      <c r="AO4" s="22"/>
-      <c r="AP4" s="22"/>
-      <c r="AQ4" s="22"/>
-      <c r="AR4" s="22"/>
-      <c r="AS4" s="22"/>
-      <c r="AT4" s="28"/>
-      <c r="AU4" s="28"/>
-      <c r="AV4" s="28"/>
-      <c r="AW4" s="28"/>
-      <c r="AX4" s="28"/>
-      <c r="AY4" s="28"/>
-      <c r="AZ4" s="22"/>
-      <c r="BA4" s="22"/>
-      <c r="BB4" s="22"/>
-      <c r="BC4" s="22"/>
-      <c r="BD4" s="22"/>
-      <c r="BE4" s="22"/>
-      <c r="BF4" s="22"/>
-      <c r="BG4" s="22"/>
-      <c r="BH4" s="22"/>
-      <c r="BI4" s="22"/>
-      <c r="BJ4" s="22"/>
-      <c r="BK4" s="22"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="24"/>
+      <c r="AK4" s="24"/>
+      <c r="AL4" s="24"/>
+      <c r="AM4" s="24"/>
+      <c r="AN4" s="24"/>
+      <c r="AO4" s="24"/>
+      <c r="AP4" s="24"/>
+      <c r="AQ4" s="24"/>
+      <c r="AR4" s="24"/>
+      <c r="AS4" s="24"/>
+      <c r="AT4" s="27"/>
+      <c r="AU4" s="27"/>
+      <c r="AV4" s="27"/>
+      <c r="AW4" s="27"/>
+      <c r="AX4" s="27"/>
+      <c r="AY4" s="27"/>
+      <c r="AZ4" s="24"/>
+      <c r="BA4" s="24"/>
+      <c r="BB4" s="24"/>
+      <c r="BC4" s="24"/>
+      <c r="BD4" s="24"/>
+      <c r="BE4" s="24"/>
+      <c r="BF4" s="24"/>
+      <c r="BG4" s="24"/>
+      <c r="BH4" s="24"/>
+      <c r="BI4" s="24"/>
+      <c r="BJ4" s="24"/>
+      <c r="BK4" s="24"/>
     </row>
     <row r="5" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3"/>
@@ -3050,510 +3079,510 @@
     </row>
     <row r="7" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="25" t="s">
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25" t="s">
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AC7" s="23"/>
-      <c r="AD7" s="23"/>
-      <c r="AE7" s="23"/>
-      <c r="AF7" s="23" t="s">
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AG7" s="23"/>
-      <c r="AH7" s="23"/>
-      <c r="AI7" s="23"/>
-      <c r="AJ7" s="23"/>
-      <c r="AK7" s="23"/>
-      <c r="AL7" s="23"/>
-      <c r="AM7" s="23"/>
-      <c r="AN7" s="23"/>
-      <c r="AO7" s="23"/>
-      <c r="AP7" s="23"/>
-      <c r="AQ7" s="23"/>
-      <c r="AR7" s="23"/>
-      <c r="AS7" s="23"/>
-      <c r="AT7" s="23"/>
-      <c r="AU7" s="23"/>
-      <c r="AV7" s="23"/>
-      <c r="AW7" s="23"/>
-      <c r="AX7" s="23"/>
-      <c r="AY7" s="23"/>
-      <c r="AZ7" s="23"/>
-      <c r="BA7" s="23"/>
-      <c r="BB7" s="23"/>
-      <c r="BC7" s="23"/>
-      <c r="BD7" s="23"/>
-      <c r="BE7" s="23"/>
-      <c r="BF7" s="23"/>
-      <c r="BG7" s="23"/>
-      <c r="BH7" s="23"/>
-      <c r="BI7" s="23"/>
-      <c r="BJ7" s="23"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="21"/>
+      <c r="AJ7" s="21"/>
+      <c r="AK7" s="21"/>
+      <c r="AL7" s="21"/>
+      <c r="AM7" s="21"/>
+      <c r="AN7" s="21"/>
+      <c r="AO7" s="21"/>
+      <c r="AP7" s="21"/>
+      <c r="AQ7" s="21"/>
+      <c r="AR7" s="21"/>
+      <c r="AS7" s="21"/>
+      <c r="AT7" s="21"/>
+      <c r="AU7" s="21"/>
+      <c r="AV7" s="21"/>
+      <c r="AW7" s="21"/>
+      <c r="AX7" s="21"/>
+      <c r="AY7" s="21"/>
+      <c r="AZ7" s="21"/>
+      <c r="BA7" s="21"/>
+      <c r="BB7" s="21"/>
+      <c r="BC7" s="21"/>
+      <c r="BD7" s="21"/>
+      <c r="BE7" s="21"/>
+      <c r="BF7" s="21"/>
+      <c r="BG7" s="21"/>
+      <c r="BH7" s="21"/>
+      <c r="BI7" s="21"/>
+      <c r="BJ7" s="21"/>
       <c r="BK7" s="2"/>
     </row>
     <row r="8" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="23"/>
-      <c r="AC8" s="23"/>
-      <c r="AD8" s="23"/>
-      <c r="AE8" s="23"/>
-      <c r="AF8" s="23"/>
-      <c r="AG8" s="23"/>
-      <c r="AH8" s="23"/>
-      <c r="AI8" s="23"/>
-      <c r="AJ8" s="23"/>
-      <c r="AK8" s="23"/>
-      <c r="AL8" s="23"/>
-      <c r="AM8" s="23"/>
-      <c r="AN8" s="23"/>
-      <c r="AO8" s="23"/>
-      <c r="AP8" s="23"/>
-      <c r="AQ8" s="23"/>
-      <c r="AR8" s="23"/>
-      <c r="AS8" s="23"/>
-      <c r="AT8" s="23"/>
-      <c r="AU8" s="23"/>
-      <c r="AV8" s="23"/>
-      <c r="AW8" s="23"/>
-      <c r="AX8" s="23"/>
-      <c r="AY8" s="23"/>
-      <c r="AZ8" s="23"/>
-      <c r="BA8" s="23"/>
-      <c r="BB8" s="23"/>
-      <c r="BC8" s="23"/>
-      <c r="BD8" s="23"/>
-      <c r="BE8" s="23"/>
-      <c r="BF8" s="23"/>
-      <c r="BG8" s="23"/>
-      <c r="BH8" s="23"/>
-      <c r="BI8" s="23"/>
-      <c r="BJ8" s="23"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="21"/>
+      <c r="AJ8" s="21"/>
+      <c r="AK8" s="21"/>
+      <c r="AL8" s="21"/>
+      <c r="AM8" s="21"/>
+      <c r="AN8" s="21"/>
+      <c r="AO8" s="21"/>
+      <c r="AP8" s="21"/>
+      <c r="AQ8" s="21"/>
+      <c r="AR8" s="21"/>
+      <c r="AS8" s="21"/>
+      <c r="AT8" s="21"/>
+      <c r="AU8" s="21"/>
+      <c r="AV8" s="21"/>
+      <c r="AW8" s="21"/>
+      <c r="AX8" s="21"/>
+      <c r="AY8" s="21"/>
+      <c r="AZ8" s="21"/>
+      <c r="BA8" s="21"/>
+      <c r="BB8" s="21"/>
+      <c r="BC8" s="21"/>
+      <c r="BD8" s="21"/>
+      <c r="BE8" s="21"/>
+      <c r="BF8" s="21"/>
+      <c r="BG8" s="21"/>
+      <c r="BH8" s="21"/>
+      <c r="BI8" s="21"/>
+      <c r="BJ8" s="21"/>
       <c r="BK8" s="2"/>
     </row>
     <row r="9" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30" t="s">
+      <c r="D9" s="18"/>
+      <c r="E9" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="29" t="s">
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29" t="s">
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29"/>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="31" t="s">
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AG9" s="31"/>
-      <c r="AH9" s="31"/>
-      <c r="AI9" s="31"/>
-      <c r="AJ9" s="31"/>
-      <c r="AK9" s="31"/>
-      <c r="AL9" s="31"/>
-      <c r="AM9" s="31"/>
-      <c r="AN9" s="31"/>
-      <c r="AO9" s="31"/>
-      <c r="AP9" s="31"/>
-      <c r="AQ9" s="31"/>
-      <c r="AR9" s="31"/>
-      <c r="AS9" s="31"/>
-      <c r="AT9" s="31"/>
-      <c r="AU9" s="31"/>
-      <c r="AV9" s="31"/>
-      <c r="AW9" s="31"/>
-      <c r="AX9" s="31"/>
-      <c r="AY9" s="31"/>
-      <c r="AZ9" s="31"/>
-      <c r="BA9" s="31"/>
-      <c r="BB9" s="31"/>
-      <c r="BC9" s="31"/>
-      <c r="BD9" s="31"/>
-      <c r="BE9" s="31"/>
-      <c r="BF9" s="31"/>
-      <c r="BG9" s="31"/>
-      <c r="BH9" s="31"/>
-      <c r="BI9" s="31"/>
-      <c r="BJ9" s="31"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="20"/>
+      <c r="AI9" s="20"/>
+      <c r="AJ9" s="20"/>
+      <c r="AK9" s="20"/>
+      <c r="AL9" s="20"/>
+      <c r="AM9" s="20"/>
+      <c r="AN9" s="20"/>
+      <c r="AO9" s="20"/>
+      <c r="AP9" s="20"/>
+      <c r="AQ9" s="20"/>
+      <c r="AR9" s="20"/>
+      <c r="AS9" s="20"/>
+      <c r="AT9" s="20"/>
+      <c r="AU9" s="20"/>
+      <c r="AV9" s="20"/>
+      <c r="AW9" s="20"/>
+      <c r="AX9" s="20"/>
+      <c r="AY9" s="20"/>
+      <c r="AZ9" s="20"/>
+      <c r="BA9" s="20"/>
+      <c r="BB9" s="20"/>
+      <c r="BC9" s="20"/>
+      <c r="BD9" s="20"/>
+      <c r="BE9" s="20"/>
+      <c r="BF9" s="20"/>
+      <c r="BG9" s="20"/>
+      <c r="BH9" s="20"/>
+      <c r="BI9" s="20"/>
+      <c r="BJ9" s="20"/>
       <c r="BK9" s="2"/>
     </row>
     <row r="10" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30" t="s">
+      <c r="D10" s="18"/>
+      <c r="E10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="29" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="29"/>
-      <c r="AB10" s="29" t="s">
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="AC10" s="29"/>
-      <c r="AD10" s="29"/>
-      <c r="AE10" s="29"/>
-      <c r="AF10" s="31" t="s">
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="AG10" s="31"/>
-      <c r="AH10" s="31"/>
-      <c r="AI10" s="31"/>
-      <c r="AJ10" s="31"/>
-      <c r="AK10" s="31"/>
-      <c r="AL10" s="31"/>
-      <c r="AM10" s="31"/>
-      <c r="AN10" s="31"/>
-      <c r="AO10" s="31"/>
-      <c r="AP10" s="31"/>
-      <c r="AQ10" s="31"/>
-      <c r="AR10" s="31"/>
-      <c r="AS10" s="31"/>
-      <c r="AT10" s="31"/>
-      <c r="AU10" s="31"/>
-      <c r="AV10" s="31"/>
-      <c r="AW10" s="31"/>
-      <c r="AX10" s="31"/>
-      <c r="AY10" s="31"/>
-      <c r="AZ10" s="31"/>
-      <c r="BA10" s="31"/>
-      <c r="BB10" s="31"/>
-      <c r="BC10" s="31"/>
-      <c r="BD10" s="31"/>
-      <c r="BE10" s="31"/>
-      <c r="BF10" s="31"/>
-      <c r="BG10" s="31"/>
-      <c r="BH10" s="31"/>
-      <c r="BI10" s="31"/>
-      <c r="BJ10" s="31"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="20"/>
+      <c r="AI10" s="20"/>
+      <c r="AJ10" s="20"/>
+      <c r="AK10" s="20"/>
+      <c r="AL10" s="20"/>
+      <c r="AM10" s="20"/>
+      <c r="AN10" s="20"/>
+      <c r="AO10" s="20"/>
+      <c r="AP10" s="20"/>
+      <c r="AQ10" s="20"/>
+      <c r="AR10" s="20"/>
+      <c r="AS10" s="20"/>
+      <c r="AT10" s="20"/>
+      <c r="AU10" s="20"/>
+      <c r="AV10" s="20"/>
+      <c r="AW10" s="20"/>
+      <c r="AX10" s="20"/>
+      <c r="AY10" s="20"/>
+      <c r="AZ10" s="20"/>
+      <c r="BA10" s="20"/>
+      <c r="BB10" s="20"/>
+      <c r="BC10" s="20"/>
+      <c r="BD10" s="20"/>
+      <c r="BE10" s="20"/>
+      <c r="BF10" s="20"/>
+      <c r="BG10" s="20"/>
+      <c r="BH10" s="20"/>
+      <c r="BI10" s="20"/>
+      <c r="BJ10" s="20"/>
       <c r="BK10" s="2"/>
     </row>
     <row r="11" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="30" t="s">
+      <c r="D11" s="18"/>
+      <c r="E11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="29" t="s">
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="29"/>
-      <c r="AB11" s="29" t="s">
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="AC11" s="29"/>
-      <c r="AD11" s="29"/>
-      <c r="AE11" s="29"/>
-      <c r="AF11" s="31" t="s">
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AG11" s="31"/>
-      <c r="AH11" s="31"/>
-      <c r="AI11" s="31"/>
-      <c r="AJ11" s="31"/>
-      <c r="AK11" s="31"/>
-      <c r="AL11" s="31"/>
-      <c r="AM11" s="31"/>
-      <c r="AN11" s="31"/>
-      <c r="AO11" s="31"/>
-      <c r="AP11" s="31"/>
-      <c r="AQ11" s="31"/>
-      <c r="AR11" s="31"/>
-      <c r="AS11" s="31"/>
-      <c r="AT11" s="31"/>
-      <c r="AU11" s="31"/>
-      <c r="AV11" s="31"/>
-      <c r="AW11" s="31"/>
-      <c r="AX11" s="31"/>
-      <c r="AY11" s="31"/>
-      <c r="AZ11" s="31"/>
-      <c r="BA11" s="31"/>
-      <c r="BB11" s="31"/>
-      <c r="BC11" s="31"/>
-      <c r="BD11" s="31"/>
-      <c r="BE11" s="31"/>
-      <c r="BF11" s="31"/>
-      <c r="BG11" s="31"/>
-      <c r="BH11" s="31"/>
-      <c r="BI11" s="31"/>
-      <c r="BJ11" s="31"/>
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="20"/>
+      <c r="AI11" s="20"/>
+      <c r="AJ11" s="20"/>
+      <c r="AK11" s="20"/>
+      <c r="AL11" s="20"/>
+      <c r="AM11" s="20"/>
+      <c r="AN11" s="20"/>
+      <c r="AO11" s="20"/>
+      <c r="AP11" s="20"/>
+      <c r="AQ11" s="20"/>
+      <c r="AR11" s="20"/>
+      <c r="AS11" s="20"/>
+      <c r="AT11" s="20"/>
+      <c r="AU11" s="20"/>
+      <c r="AV11" s="20"/>
+      <c r="AW11" s="20"/>
+      <c r="AX11" s="20"/>
+      <c r="AY11" s="20"/>
+      <c r="AZ11" s="20"/>
+      <c r="BA11" s="20"/>
+      <c r="BB11" s="20"/>
+      <c r="BC11" s="20"/>
+      <c r="BD11" s="20"/>
+      <c r="BE11" s="20"/>
+      <c r="BF11" s="20"/>
+      <c r="BG11" s="20"/>
+      <c r="BH11" s="20"/>
+      <c r="BI11" s="20"/>
+      <c r="BJ11" s="20"/>
       <c r="BK11" s="2"/>
     </row>
     <row r="12" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="30" t="s">
+      <c r="D12" s="18"/>
+      <c r="E12" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="29" t="s">
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="29" t="s">
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="29"/>
-      <c r="AE12" s="29"/>
-      <c r="AF12" s="31" t="s">
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="AG12" s="31"/>
-      <c r="AH12" s="31"/>
-      <c r="AI12" s="31"/>
-      <c r="AJ12" s="31"/>
-      <c r="AK12" s="31"/>
-      <c r="AL12" s="31"/>
-      <c r="AM12" s="31"/>
-      <c r="AN12" s="31"/>
-      <c r="AO12" s="31"/>
-      <c r="AP12" s="31"/>
-      <c r="AQ12" s="31"/>
-      <c r="AR12" s="31"/>
-      <c r="AS12" s="31"/>
-      <c r="AT12" s="31"/>
-      <c r="AU12" s="31"/>
-      <c r="AV12" s="31"/>
-      <c r="AW12" s="31"/>
-      <c r="AX12" s="31"/>
-      <c r="AY12" s="31"/>
-      <c r="AZ12" s="31"/>
-      <c r="BA12" s="31"/>
-      <c r="BB12" s="31"/>
-      <c r="BC12" s="31"/>
-      <c r="BD12" s="31"/>
-      <c r="BE12" s="31"/>
-      <c r="BF12" s="31"/>
-      <c r="BG12" s="31"/>
-      <c r="BH12" s="31"/>
-      <c r="BI12" s="31"/>
-      <c r="BJ12" s="31"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="20"/>
+      <c r="AJ12" s="20"/>
+      <c r="AK12" s="20"/>
+      <c r="AL12" s="20"/>
+      <c r="AM12" s="20"/>
+      <c r="AN12" s="20"/>
+      <c r="AO12" s="20"/>
+      <c r="AP12" s="20"/>
+      <c r="AQ12" s="20"/>
+      <c r="AR12" s="20"/>
+      <c r="AS12" s="20"/>
+      <c r="AT12" s="20"/>
+      <c r="AU12" s="20"/>
+      <c r="AV12" s="20"/>
+      <c r="AW12" s="20"/>
+      <c r="AX12" s="20"/>
+      <c r="AY12" s="20"/>
+      <c r="AZ12" s="20"/>
+      <c r="BA12" s="20"/>
+      <c r="BB12" s="20"/>
+      <c r="BC12" s="20"/>
+      <c r="BD12" s="20"/>
+      <c r="BE12" s="20"/>
+      <c r="BF12" s="20"/>
+      <c r="BG12" s="20"/>
+      <c r="BH12" s="20"/>
+      <c r="BI12" s="20"/>
+      <c r="BJ12" s="20"/>
       <c r="BK12" s="2"/>
     </row>
     <row r="13" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30" t="s">
+      <c r="D13" s="18"/>
+      <c r="E13" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="29" t="s">
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="29"/>
-      <c r="AB13" s="29" t="s">
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="AC13" s="29"/>
-      <c r="AD13" s="29"/>
-      <c r="AE13" s="29"/>
-      <c r="AF13" s="31" t="s">
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="18"/>
+      <c r="AE13" s="18"/>
+      <c r="AF13" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="AG13" s="31"/>
-      <c r="AH13" s="31"/>
-      <c r="AI13" s="31"/>
-      <c r="AJ13" s="31"/>
-      <c r="AK13" s="31"/>
-      <c r="AL13" s="31"/>
-      <c r="AM13" s="31"/>
-      <c r="AN13" s="31"/>
-      <c r="AO13" s="31"/>
-      <c r="AP13" s="31"/>
-      <c r="AQ13" s="31"/>
-      <c r="AR13" s="31"/>
-      <c r="AS13" s="31"/>
-      <c r="AT13" s="31"/>
-      <c r="AU13" s="31"/>
-      <c r="AV13" s="31"/>
-      <c r="AW13" s="31"/>
-      <c r="AX13" s="31"/>
-      <c r="AY13" s="31"/>
-      <c r="AZ13" s="31"/>
-      <c r="BA13" s="31"/>
-      <c r="BB13" s="31"/>
-      <c r="BC13" s="31"/>
-      <c r="BD13" s="31"/>
-      <c r="BE13" s="31"/>
-      <c r="BF13" s="31"/>
-      <c r="BG13" s="31"/>
-      <c r="BH13" s="31"/>
-      <c r="BI13" s="31"/>
-      <c r="BJ13" s="31"/>
+      <c r="AG13" s="20"/>
+      <c r="AH13" s="20"/>
+      <c r="AI13" s="20"/>
+      <c r="AJ13" s="20"/>
+      <c r="AK13" s="20"/>
+      <c r="AL13" s="20"/>
+      <c r="AM13" s="20"/>
+      <c r="AN13" s="20"/>
+      <c r="AO13" s="20"/>
+      <c r="AP13" s="20"/>
+      <c r="AQ13" s="20"/>
+      <c r="AR13" s="20"/>
+      <c r="AS13" s="20"/>
+      <c r="AT13" s="20"/>
+      <c r="AU13" s="20"/>
+      <c r="AV13" s="20"/>
+      <c r="AW13" s="20"/>
+      <c r="AX13" s="20"/>
+      <c r="AY13" s="20"/>
+      <c r="AZ13" s="20"/>
+      <c r="BA13" s="20"/>
+      <c r="BB13" s="20"/>
+      <c r="BC13" s="20"/>
+      <c r="BD13" s="20"/>
+      <c r="BE13" s="20"/>
+      <c r="BF13" s="20"/>
+      <c r="BG13" s="20"/>
+      <c r="BH13" s="20"/>
+      <c r="BI13" s="20"/>
+      <c r="BJ13" s="20"/>
       <c r="BK13" s="2"/>
     </row>
     <row r="14" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3688,510 +3717,510 @@
     </row>
     <row r="16" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24" t="s">
+      <c r="D16" s="21"/>
+      <c r="E16" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="25" t="s">
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="Z16" s="25"/>
-      <c r="AA16" s="25"/>
-      <c r="AB16" s="25" t="s">
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AC16" s="23"/>
-      <c r="AD16" s="23"/>
-      <c r="AE16" s="23"/>
-      <c r="AF16" s="23" t="s">
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AG16" s="23"/>
-      <c r="AH16" s="23"/>
-      <c r="AI16" s="23"/>
-      <c r="AJ16" s="23"/>
-      <c r="AK16" s="23"/>
-      <c r="AL16" s="23"/>
-      <c r="AM16" s="23"/>
-      <c r="AN16" s="23"/>
-      <c r="AO16" s="23"/>
-      <c r="AP16" s="23"/>
-      <c r="AQ16" s="23"/>
-      <c r="AR16" s="23"/>
-      <c r="AS16" s="23"/>
-      <c r="AT16" s="23"/>
-      <c r="AU16" s="23"/>
-      <c r="AV16" s="23"/>
-      <c r="AW16" s="23"/>
-      <c r="AX16" s="23"/>
-      <c r="AY16" s="23"/>
-      <c r="AZ16" s="23"/>
-      <c r="BA16" s="23"/>
-      <c r="BB16" s="23"/>
-      <c r="BC16" s="23"/>
-      <c r="BD16" s="23"/>
-      <c r="BE16" s="23"/>
-      <c r="BF16" s="23"/>
-      <c r="BG16" s="23"/>
-      <c r="BH16" s="23"/>
-      <c r="BI16" s="23"/>
-      <c r="BJ16" s="23"/>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="21"/>
+      <c r="AI16" s="21"/>
+      <c r="AJ16" s="21"/>
+      <c r="AK16" s="21"/>
+      <c r="AL16" s="21"/>
+      <c r="AM16" s="21"/>
+      <c r="AN16" s="21"/>
+      <c r="AO16" s="21"/>
+      <c r="AP16" s="21"/>
+      <c r="AQ16" s="21"/>
+      <c r="AR16" s="21"/>
+      <c r="AS16" s="21"/>
+      <c r="AT16" s="21"/>
+      <c r="AU16" s="21"/>
+      <c r="AV16" s="21"/>
+      <c r="AW16" s="21"/>
+      <c r="AX16" s="21"/>
+      <c r="AY16" s="21"/>
+      <c r="AZ16" s="21"/>
+      <c r="BA16" s="21"/>
+      <c r="BB16" s="21"/>
+      <c r="BC16" s="21"/>
+      <c r="BD16" s="21"/>
+      <c r="BE16" s="21"/>
+      <c r="BF16" s="21"/>
+      <c r="BG16" s="21"/>
+      <c r="BH16" s="21"/>
+      <c r="BI16" s="21"/>
+      <c r="BJ16" s="21"/>
       <c r="BK16" s="2"/>
     </row>
     <row r="17" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="25"/>
-      <c r="AB17" s="23"/>
-      <c r="AC17" s="23"/>
-      <c r="AD17" s="23"/>
-      <c r="AE17" s="23"/>
-      <c r="AF17" s="23"/>
-      <c r="AG17" s="23"/>
-      <c r="AH17" s="23"/>
-      <c r="AI17" s="23"/>
-      <c r="AJ17" s="23"/>
-      <c r="AK17" s="23"/>
-      <c r="AL17" s="23"/>
-      <c r="AM17" s="23"/>
-      <c r="AN17" s="23"/>
-      <c r="AO17" s="23"/>
-      <c r="AP17" s="23"/>
-      <c r="AQ17" s="23"/>
-      <c r="AR17" s="23"/>
-      <c r="AS17" s="23"/>
-      <c r="AT17" s="23"/>
-      <c r="AU17" s="23"/>
-      <c r="AV17" s="23"/>
-      <c r="AW17" s="23"/>
-      <c r="AX17" s="23"/>
-      <c r="AY17" s="23"/>
-      <c r="AZ17" s="23"/>
-      <c r="BA17" s="23"/>
-      <c r="BB17" s="23"/>
-      <c r="BC17" s="23"/>
-      <c r="BD17" s="23"/>
-      <c r="BE17" s="23"/>
-      <c r="BF17" s="23"/>
-      <c r="BG17" s="23"/>
-      <c r="BH17" s="23"/>
-      <c r="BI17" s="23"/>
-      <c r="BJ17" s="23"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="21"/>
+      <c r="AJ17" s="21"/>
+      <c r="AK17" s="21"/>
+      <c r="AL17" s="21"/>
+      <c r="AM17" s="21"/>
+      <c r="AN17" s="21"/>
+      <c r="AO17" s="21"/>
+      <c r="AP17" s="21"/>
+      <c r="AQ17" s="21"/>
+      <c r="AR17" s="21"/>
+      <c r="AS17" s="21"/>
+      <c r="AT17" s="21"/>
+      <c r="AU17" s="21"/>
+      <c r="AV17" s="21"/>
+      <c r="AW17" s="21"/>
+      <c r="AX17" s="21"/>
+      <c r="AY17" s="21"/>
+      <c r="AZ17" s="21"/>
+      <c r="BA17" s="21"/>
+      <c r="BB17" s="21"/>
+      <c r="BC17" s="21"/>
+      <c r="BD17" s="21"/>
+      <c r="BE17" s="21"/>
+      <c r="BF17" s="21"/>
+      <c r="BG17" s="21"/>
+      <c r="BH17" s="21"/>
+      <c r="BI17" s="21"/>
+      <c r="BJ17" s="21"/>
       <c r="BK17" s="2"/>
     </row>
     <row r="18" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30" t="s">
+      <c r="D18" s="18"/>
+      <c r="E18" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="29" t="s">
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="29"/>
-      <c r="AB18" s="29" t="s">
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="AC18" s="29"/>
-      <c r="AD18" s="29"/>
-      <c r="AE18" s="29"/>
-      <c r="AF18" s="31" t="s">
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="AG18" s="31"/>
-      <c r="AH18" s="31"/>
-      <c r="AI18" s="31"/>
-      <c r="AJ18" s="31"/>
-      <c r="AK18" s="31"/>
-      <c r="AL18" s="31"/>
-      <c r="AM18" s="31"/>
-      <c r="AN18" s="31"/>
-      <c r="AO18" s="31"/>
-      <c r="AP18" s="31"/>
-      <c r="AQ18" s="31"/>
-      <c r="AR18" s="31"/>
-      <c r="AS18" s="31"/>
-      <c r="AT18" s="31"/>
-      <c r="AU18" s="31"/>
-      <c r="AV18" s="31"/>
-      <c r="AW18" s="31"/>
-      <c r="AX18" s="31"/>
-      <c r="AY18" s="31"/>
-      <c r="AZ18" s="31"/>
-      <c r="BA18" s="31"/>
-      <c r="BB18" s="31"/>
-      <c r="BC18" s="31"/>
-      <c r="BD18" s="31"/>
-      <c r="BE18" s="31"/>
-      <c r="BF18" s="31"/>
-      <c r="BG18" s="31"/>
-      <c r="BH18" s="31"/>
-      <c r="BI18" s="31"/>
-      <c r="BJ18" s="31"/>
+      <c r="AG18" s="20"/>
+      <c r="AH18" s="20"/>
+      <c r="AI18" s="20"/>
+      <c r="AJ18" s="20"/>
+      <c r="AK18" s="20"/>
+      <c r="AL18" s="20"/>
+      <c r="AM18" s="20"/>
+      <c r="AN18" s="20"/>
+      <c r="AO18" s="20"/>
+      <c r="AP18" s="20"/>
+      <c r="AQ18" s="20"/>
+      <c r="AR18" s="20"/>
+      <c r="AS18" s="20"/>
+      <c r="AT18" s="20"/>
+      <c r="AU18" s="20"/>
+      <c r="AV18" s="20"/>
+      <c r="AW18" s="20"/>
+      <c r="AX18" s="20"/>
+      <c r="AY18" s="20"/>
+      <c r="AZ18" s="20"/>
+      <c r="BA18" s="20"/>
+      <c r="BB18" s="20"/>
+      <c r="BC18" s="20"/>
+      <c r="BD18" s="20"/>
+      <c r="BE18" s="20"/>
+      <c r="BF18" s="20"/>
+      <c r="BG18" s="20"/>
+      <c r="BH18" s="20"/>
+      <c r="BI18" s="20"/>
+      <c r="BJ18" s="20"/>
       <c r="BK18" s="2"/>
     </row>
     <row r="19" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30" t="s">
+      <c r="D19" s="18"/>
+      <c r="E19" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="29" t="s">
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="29" t="s">
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="29"/>
-      <c r="AE19" s="29"/>
-      <c r="AF19" s="31" t="s">
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="18"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AG19" s="31"/>
-      <c r="AH19" s="31"/>
-      <c r="AI19" s="31"/>
-      <c r="AJ19" s="31"/>
-      <c r="AK19" s="31"/>
-      <c r="AL19" s="31"/>
-      <c r="AM19" s="31"/>
-      <c r="AN19" s="31"/>
-      <c r="AO19" s="31"/>
-      <c r="AP19" s="31"/>
-      <c r="AQ19" s="31"/>
-      <c r="AR19" s="31"/>
-      <c r="AS19" s="31"/>
-      <c r="AT19" s="31"/>
-      <c r="AU19" s="31"/>
-      <c r="AV19" s="31"/>
-      <c r="AW19" s="31"/>
-      <c r="AX19" s="31"/>
-      <c r="AY19" s="31"/>
-      <c r="AZ19" s="31"/>
-      <c r="BA19" s="31"/>
-      <c r="BB19" s="31"/>
-      <c r="BC19" s="31"/>
-      <c r="BD19" s="31"/>
-      <c r="BE19" s="31"/>
-      <c r="BF19" s="31"/>
-      <c r="BG19" s="31"/>
-      <c r="BH19" s="31"/>
-      <c r="BI19" s="31"/>
-      <c r="BJ19" s="31"/>
+      <c r="AG19" s="20"/>
+      <c r="AH19" s="20"/>
+      <c r="AI19" s="20"/>
+      <c r="AJ19" s="20"/>
+      <c r="AK19" s="20"/>
+      <c r="AL19" s="20"/>
+      <c r="AM19" s="20"/>
+      <c r="AN19" s="20"/>
+      <c r="AO19" s="20"/>
+      <c r="AP19" s="20"/>
+      <c r="AQ19" s="20"/>
+      <c r="AR19" s="20"/>
+      <c r="AS19" s="20"/>
+      <c r="AT19" s="20"/>
+      <c r="AU19" s="20"/>
+      <c r="AV19" s="20"/>
+      <c r="AW19" s="20"/>
+      <c r="AX19" s="20"/>
+      <c r="AY19" s="20"/>
+      <c r="AZ19" s="20"/>
+      <c r="BA19" s="20"/>
+      <c r="BB19" s="20"/>
+      <c r="BC19" s="20"/>
+      <c r="BD19" s="20"/>
+      <c r="BE19" s="20"/>
+      <c r="BF19" s="20"/>
+      <c r="BG19" s="20"/>
+      <c r="BH19" s="20"/>
+      <c r="BI19" s="20"/>
+      <c r="BJ19" s="20"/>
       <c r="BK19" s="2"/>
     </row>
     <row r="20" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30" t="s">
+      <c r="D20" s="18"/>
+      <c r="E20" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="29" t="s">
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="29" t="s">
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="29"/>
-      <c r="AE20" s="29"/>
-      <c r="AF20" s="31" t="s">
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AG20" s="31"/>
-      <c r="AH20" s="31"/>
-      <c r="AI20" s="31"/>
-      <c r="AJ20" s="31"/>
-      <c r="AK20" s="31"/>
-      <c r="AL20" s="31"/>
-      <c r="AM20" s="31"/>
-      <c r="AN20" s="31"/>
-      <c r="AO20" s="31"/>
-      <c r="AP20" s="31"/>
-      <c r="AQ20" s="31"/>
-      <c r="AR20" s="31"/>
-      <c r="AS20" s="31"/>
-      <c r="AT20" s="31"/>
-      <c r="AU20" s="31"/>
-      <c r="AV20" s="31"/>
-      <c r="AW20" s="31"/>
-      <c r="AX20" s="31"/>
-      <c r="AY20" s="31"/>
-      <c r="AZ20" s="31"/>
-      <c r="BA20" s="31"/>
-      <c r="BB20" s="31"/>
-      <c r="BC20" s="31"/>
-      <c r="BD20" s="31"/>
-      <c r="BE20" s="31"/>
-      <c r="BF20" s="31"/>
-      <c r="BG20" s="31"/>
-      <c r="BH20" s="31"/>
-      <c r="BI20" s="31"/>
-      <c r="BJ20" s="31"/>
+      <c r="AG20" s="20"/>
+      <c r="AH20" s="20"/>
+      <c r="AI20" s="20"/>
+      <c r="AJ20" s="20"/>
+      <c r="AK20" s="20"/>
+      <c r="AL20" s="20"/>
+      <c r="AM20" s="20"/>
+      <c r="AN20" s="20"/>
+      <c r="AO20" s="20"/>
+      <c r="AP20" s="20"/>
+      <c r="AQ20" s="20"/>
+      <c r="AR20" s="20"/>
+      <c r="AS20" s="20"/>
+      <c r="AT20" s="20"/>
+      <c r="AU20" s="20"/>
+      <c r="AV20" s="20"/>
+      <c r="AW20" s="20"/>
+      <c r="AX20" s="20"/>
+      <c r="AY20" s="20"/>
+      <c r="AZ20" s="20"/>
+      <c r="BA20" s="20"/>
+      <c r="BB20" s="20"/>
+      <c r="BC20" s="20"/>
+      <c r="BD20" s="20"/>
+      <c r="BE20" s="20"/>
+      <c r="BF20" s="20"/>
+      <c r="BG20" s="20"/>
+      <c r="BH20" s="20"/>
+      <c r="BI20" s="20"/>
+      <c r="BJ20" s="20"/>
       <c r="BK20" s="2"/>
     </row>
     <row r="21" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="30" t="s">
+      <c r="D21" s="18"/>
+      <c r="E21" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="29" t="s">
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="Z21" s="29"/>
-      <c r="AA21" s="29"/>
-      <c r="AB21" s="29" t="s">
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="AC21" s="29"/>
-      <c r="AD21" s="29"/>
-      <c r="AE21" s="29"/>
-      <c r="AF21" s="31" t="s">
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18"/>
+      <c r="AE21" s="18"/>
+      <c r="AF21" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AG21" s="31"/>
-      <c r="AH21" s="31"/>
-      <c r="AI21" s="31"/>
-      <c r="AJ21" s="31"/>
-      <c r="AK21" s="31"/>
-      <c r="AL21" s="31"/>
-      <c r="AM21" s="31"/>
-      <c r="AN21" s="31"/>
-      <c r="AO21" s="31"/>
-      <c r="AP21" s="31"/>
-      <c r="AQ21" s="31"/>
-      <c r="AR21" s="31"/>
-      <c r="AS21" s="31"/>
-      <c r="AT21" s="31"/>
-      <c r="AU21" s="31"/>
-      <c r="AV21" s="31"/>
-      <c r="AW21" s="31"/>
-      <c r="AX21" s="31"/>
-      <c r="AY21" s="31"/>
-      <c r="AZ21" s="31"/>
-      <c r="BA21" s="31"/>
-      <c r="BB21" s="31"/>
-      <c r="BC21" s="31"/>
-      <c r="BD21" s="31"/>
-      <c r="BE21" s="31"/>
-      <c r="BF21" s="31"/>
-      <c r="BG21" s="31"/>
-      <c r="BH21" s="31"/>
-      <c r="BI21" s="31"/>
-      <c r="BJ21" s="31"/>
+      <c r="AG21" s="20"/>
+      <c r="AH21" s="20"/>
+      <c r="AI21" s="20"/>
+      <c r="AJ21" s="20"/>
+      <c r="AK21" s="20"/>
+      <c r="AL21" s="20"/>
+      <c r="AM21" s="20"/>
+      <c r="AN21" s="20"/>
+      <c r="AO21" s="20"/>
+      <c r="AP21" s="20"/>
+      <c r="AQ21" s="20"/>
+      <c r="AR21" s="20"/>
+      <c r="AS21" s="20"/>
+      <c r="AT21" s="20"/>
+      <c r="AU21" s="20"/>
+      <c r="AV21" s="20"/>
+      <c r="AW21" s="20"/>
+      <c r="AX21" s="20"/>
+      <c r="AY21" s="20"/>
+      <c r="AZ21" s="20"/>
+      <c r="BA21" s="20"/>
+      <c r="BB21" s="20"/>
+      <c r="BC21" s="20"/>
+      <c r="BD21" s="20"/>
+      <c r="BE21" s="20"/>
+      <c r="BF21" s="20"/>
+      <c r="BG21" s="20"/>
+      <c r="BH21" s="20"/>
+      <c r="BI21" s="20"/>
+      <c r="BJ21" s="20"/>
       <c r="BK21" s="2"/>
     </row>
     <row r="22" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="30" t="s">
+      <c r="D22" s="18"/>
+      <c r="E22" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="29" t="s">
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="29"/>
-      <c r="AB22" s="29" t="s">
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="AC22" s="29"/>
-      <c r="AD22" s="29"/>
-      <c r="AE22" s="29"/>
-      <c r="AF22" s="31" t="s">
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="18"/>
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="AG22" s="31"/>
-      <c r="AH22" s="31"/>
-      <c r="AI22" s="31"/>
-      <c r="AJ22" s="31"/>
-      <c r="AK22" s="31"/>
-      <c r="AL22" s="31"/>
-      <c r="AM22" s="31"/>
-      <c r="AN22" s="31"/>
-      <c r="AO22" s="31"/>
-      <c r="AP22" s="31"/>
-      <c r="AQ22" s="31"/>
-      <c r="AR22" s="31"/>
-      <c r="AS22" s="31"/>
-      <c r="AT22" s="31"/>
-      <c r="AU22" s="31"/>
-      <c r="AV22" s="31"/>
-      <c r="AW22" s="31"/>
-      <c r="AX22" s="31"/>
-      <c r="AY22" s="31"/>
-      <c r="AZ22" s="31"/>
-      <c r="BA22" s="31"/>
-      <c r="BB22" s="31"/>
-      <c r="BC22" s="31"/>
-      <c r="BD22" s="31"/>
-      <c r="BE22" s="31"/>
-      <c r="BF22" s="31"/>
-      <c r="BG22" s="31"/>
-      <c r="BH22" s="31"/>
-      <c r="BI22" s="31"/>
-      <c r="BJ22" s="31"/>
+      <c r="AG22" s="20"/>
+      <c r="AH22" s="20"/>
+      <c r="AI22" s="20"/>
+      <c r="AJ22" s="20"/>
+      <c r="AK22" s="20"/>
+      <c r="AL22" s="20"/>
+      <c r="AM22" s="20"/>
+      <c r="AN22" s="20"/>
+      <c r="AO22" s="20"/>
+      <c r="AP22" s="20"/>
+      <c r="AQ22" s="20"/>
+      <c r="AR22" s="20"/>
+      <c r="AS22" s="20"/>
+      <c r="AT22" s="20"/>
+      <c r="AU22" s="20"/>
+      <c r="AV22" s="20"/>
+      <c r="AW22" s="20"/>
+      <c r="AX22" s="20"/>
+      <c r="AY22" s="20"/>
+      <c r="AZ22" s="20"/>
+      <c r="BA22" s="20"/>
+      <c r="BB22" s="20"/>
+      <c r="BC22" s="20"/>
+      <c r="BD22" s="20"/>
+      <c r="BE22" s="20"/>
+      <c r="BF22" s="20"/>
+      <c r="BG22" s="20"/>
+      <c r="BH22" s="20"/>
+      <c r="BI22" s="20"/>
+      <c r="BJ22" s="20"/>
       <c r="BK22" s="2"/>
     </row>
     <row r="23" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -4260,61 +4289,14 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="AB22:AE22"/>
-    <mergeCell ref="AF22:BJ22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="AB20:AE20"/>
-    <mergeCell ref="AF20:BJ20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="AB21:AE21"/>
-    <mergeCell ref="AF21:BJ21"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="AB18:AE18"/>
-    <mergeCell ref="AF18:BJ18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="AB19:AE19"/>
-    <mergeCell ref="AF19:BJ19"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:X13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="AB13:AE13"/>
-    <mergeCell ref="AF13:BJ13"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:X17"/>
-    <mergeCell ref="Y16:AA17"/>
-    <mergeCell ref="AB16:AE17"/>
-    <mergeCell ref="AF16:BJ17"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="AB11:AE11"/>
-    <mergeCell ref="AF11:BJ11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="AB12:AE12"/>
-    <mergeCell ref="AF12:BJ12"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="AB9:AE9"/>
-    <mergeCell ref="AF9:BJ9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="AF10:BJ10"/>
+    <mergeCell ref="B1:BK1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:AM2"/>
+    <mergeCell ref="AN2:AS2"/>
+    <mergeCell ref="AT2:AY2"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="BF2:BK2"/>
     <mergeCell ref="BF3:BK4"/>
     <mergeCell ref="C7:D8"/>
     <mergeCell ref="E7:X8"/>
@@ -4327,14 +4309,61 @@
     <mergeCell ref="AN3:AS4"/>
     <mergeCell ref="AT3:AY4"/>
     <mergeCell ref="AZ3:BE4"/>
-    <mergeCell ref="B1:BK1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="Q2:AM2"/>
-    <mergeCell ref="AN2:AS2"/>
-    <mergeCell ref="AT2:AY2"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="BF2:BK2"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="AF10:BJ10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="AB9:AE9"/>
+    <mergeCell ref="AF9:BJ9"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="AF12:BJ12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="AB11:AE11"/>
+    <mergeCell ref="AF11:BJ11"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:X17"/>
+    <mergeCell ref="Y16:AA17"/>
+    <mergeCell ref="AB16:AE17"/>
+    <mergeCell ref="AF16:BJ17"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="AF13:BJ13"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="AB19:AE19"/>
+    <mergeCell ref="AF19:BJ19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB18:AE18"/>
+    <mergeCell ref="AF18:BJ18"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AB21:AE21"/>
+    <mergeCell ref="AF21:BJ21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AB20:AE20"/>
+    <mergeCell ref="AF20:BJ20"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="AB22:AE22"/>
+    <mergeCell ref="AF22:BJ22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4346,430 +4375,430 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36293E3-BB8A-450A-AD90-324CA703073E}">
   <dimension ref="B1:BK41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BO5" sqref="BO5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7:AG7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="42"/>
-      <c r="AK1" s="42"/>
-      <c r="AL1" s="42"/>
-      <c r="AM1" s="42"/>
-      <c r="AN1" s="42"/>
-      <c r="AO1" s="42"/>
-      <c r="AP1" s="42"/>
-      <c r="AQ1" s="42"/>
-      <c r="AR1" s="42"/>
-      <c r="AS1" s="42"/>
-      <c r="AT1" s="42"/>
-      <c r="AU1" s="42"/>
-      <c r="AV1" s="42"/>
-      <c r="AW1" s="42"/>
-      <c r="AX1" s="42"/>
-      <c r="AY1" s="42"/>
-      <c r="AZ1" s="42"/>
-      <c r="BA1" s="42"/>
-      <c r="BB1" s="42"/>
-      <c r="BC1" s="42"/>
-      <c r="BD1" s="42"/>
-      <c r="BE1" s="42"/>
-      <c r="BF1" s="42"/>
-      <c r="BG1" s="42"/>
-      <c r="BH1" s="42"/>
-      <c r="BI1" s="42"/>
-      <c r="BJ1" s="42"/>
-      <c r="BK1" s="43"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
+      <c r="AP1" s="51"/>
+      <c r="AQ1" s="51"/>
+      <c r="AR1" s="51"/>
+      <c r="AS1" s="51"/>
+      <c r="AT1" s="51"/>
+      <c r="AU1" s="51"/>
+      <c r="AV1" s="51"/>
+      <c r="AW1" s="51"/>
+      <c r="AX1" s="51"/>
+      <c r="AY1" s="51"/>
+      <c r="AZ1" s="51"/>
+      <c r="BA1" s="51"/>
+      <c r="BB1" s="51"/>
+      <c r="BC1" s="51"/>
+      <c r="BD1" s="51"/>
+      <c r="BE1" s="51"/>
+      <c r="BF1" s="51"/>
+      <c r="BG1" s="51"/>
+      <c r="BH1" s="51"/>
+      <c r="BI1" s="51"/>
+      <c r="BJ1" s="51"/>
+      <c r="BK1" s="52"/>
     </row>
     <row r="2" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="41" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="41" t="s">
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="42"/>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="41" t="s">
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="AO2" s="42"/>
-      <c r="AP2" s="42"/>
-      <c r="AQ2" s="42"/>
-      <c r="AR2" s="42"/>
-      <c r="AS2" s="43"/>
-      <c r="AT2" s="41" t="s">
+      <c r="AO2" s="51"/>
+      <c r="AP2" s="51"/>
+      <c r="AQ2" s="51"/>
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="52"/>
+      <c r="AT2" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="AU2" s="42"/>
-      <c r="AV2" s="42"/>
-      <c r="AW2" s="42"/>
-      <c r="AX2" s="42"/>
-      <c r="AY2" s="43"/>
-      <c r="AZ2" s="41" t="s">
+      <c r="AU2" s="51"/>
+      <c r="AV2" s="51"/>
+      <c r="AW2" s="51"/>
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="52"/>
+      <c r="AZ2" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="BA2" s="42"/>
-      <c r="BB2" s="42"/>
-      <c r="BC2" s="42"/>
-      <c r="BD2" s="42"/>
-      <c r="BE2" s="43"/>
-      <c r="BF2" s="41" t="s">
+      <c r="BA2" s="51"/>
+      <c r="BB2" s="51"/>
+      <c r="BC2" s="51"/>
+      <c r="BD2" s="51"/>
+      <c r="BE2" s="52"/>
+      <c r="BF2" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="BG2" s="42"/>
-      <c r="BH2" s="42"/>
-      <c r="BI2" s="42"/>
-      <c r="BJ2" s="42"/>
-      <c r="BK2" s="43"/>
+      <c r="BG2" s="51"/>
+      <c r="BH2" s="51"/>
+      <c r="BI2" s="51"/>
+      <c r="BJ2" s="51"/>
+      <c r="BK2" s="52"/>
     </row>
     <row r="3" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="44">
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="53">
         <v>1</v>
       </c>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="44" t="s">
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="46"/>
-      <c r="AN3" s="50"/>
-      <c r="AO3" s="51"/>
-      <c r="AP3" s="51"/>
-      <c r="AQ3" s="51"/>
-      <c r="AR3" s="51"/>
-      <c r="AS3" s="52"/>
-      <c r="AT3" s="56" t="s">
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="55"/>
+      <c r="AN3" s="59"/>
+      <c r="AO3" s="60"/>
+      <c r="AP3" s="60"/>
+      <c r="AQ3" s="60"/>
+      <c r="AR3" s="60"/>
+      <c r="AS3" s="61"/>
+      <c r="AT3" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="AU3" s="57"/>
-      <c r="AV3" s="57"/>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="58"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="51"/>
-      <c r="BB3" s="51"/>
-      <c r="BC3" s="51"/>
-      <c r="BD3" s="51"/>
-      <c r="BE3" s="52"/>
-      <c r="BF3" s="44"/>
-      <c r="BG3" s="45"/>
-      <c r="BH3" s="45"/>
-      <c r="BI3" s="45"/>
-      <c r="BJ3" s="45"/>
-      <c r="BK3" s="46"/>
+      <c r="AU3" s="66"/>
+      <c r="AV3" s="66"/>
+      <c r="AW3" s="66"/>
+      <c r="AX3" s="66"/>
+      <c r="AY3" s="67"/>
+      <c r="AZ3" s="59"/>
+      <c r="BA3" s="60"/>
+      <c r="BB3" s="60"/>
+      <c r="BC3" s="60"/>
+      <c r="BD3" s="60"/>
+      <c r="BE3" s="61"/>
+      <c r="BF3" s="53"/>
+      <c r="BG3" s="54"/>
+      <c r="BH3" s="54"/>
+      <c r="BI3" s="54"/>
+      <c r="BJ3" s="54"/>
+      <c r="BK3" s="55"/>
     </row>
     <row r="4" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
-      <c r="AH4" s="48"/>
-      <c r="AI4" s="48"/>
-      <c r="AJ4" s="48"/>
-      <c r="AK4" s="48"/>
-      <c r="AL4" s="48"/>
-      <c r="AM4" s="49"/>
-      <c r="AN4" s="53"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="54"/>
-      <c r="AQ4" s="54"/>
-      <c r="AR4" s="54"/>
-      <c r="AS4" s="55"/>
-      <c r="AT4" s="59"/>
-      <c r="AU4" s="60"/>
-      <c r="AV4" s="60"/>
-      <c r="AW4" s="60"/>
-      <c r="AX4" s="60"/>
-      <c r="AY4" s="61"/>
-      <c r="AZ4" s="53"/>
-      <c r="BA4" s="54"/>
-      <c r="BB4" s="54"/>
-      <c r="BC4" s="54"/>
-      <c r="BD4" s="54"/>
-      <c r="BE4" s="55"/>
-      <c r="BF4" s="47"/>
-      <c r="BG4" s="48"/>
-      <c r="BH4" s="48"/>
-      <c r="BI4" s="48"/>
-      <c r="BJ4" s="48"/>
-      <c r="BK4" s="49"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="57"/>
+      <c r="AC4" s="57"/>
+      <c r="AD4" s="57"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="57"/>
+      <c r="AG4" s="57"/>
+      <c r="AH4" s="57"/>
+      <c r="AI4" s="57"/>
+      <c r="AJ4" s="57"/>
+      <c r="AK4" s="57"/>
+      <c r="AL4" s="57"/>
+      <c r="AM4" s="58"/>
+      <c r="AN4" s="62"/>
+      <c r="AO4" s="63"/>
+      <c r="AP4" s="63"/>
+      <c r="AQ4" s="63"/>
+      <c r="AR4" s="63"/>
+      <c r="AS4" s="64"/>
+      <c r="AT4" s="68"/>
+      <c r="AU4" s="69"/>
+      <c r="AV4" s="69"/>
+      <c r="AW4" s="69"/>
+      <c r="AX4" s="69"/>
+      <c r="AY4" s="70"/>
+      <c r="AZ4" s="62"/>
+      <c r="BA4" s="63"/>
+      <c r="BB4" s="63"/>
+      <c r="BC4" s="63"/>
+      <c r="BD4" s="63"/>
+      <c r="BE4" s="64"/>
+      <c r="BF4" s="56"/>
+      <c r="BG4" s="57"/>
+      <c r="BH4" s="57"/>
+      <c r="BI4" s="57"/>
+      <c r="BJ4" s="57"/>
+      <c r="BK4" s="58"/>
     </row>
     <row r="5" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="62"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="64"/>
-      <c r="T5" s="64"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
-      <c r="W5" s="64"/>
-      <c r="X5" s="64"/>
-      <c r="Y5" s="64"/>
-      <c r="Z5" s="64"/>
-      <c r="AA5" s="64"/>
-      <c r="AB5" s="64"/>
-      <c r="AC5" s="64"/>
-      <c r="AD5" s="64"/>
-      <c r="AE5" s="64"/>
-      <c r="AF5" s="64"/>
-      <c r="AG5" s="64"/>
-      <c r="AH5" s="64"/>
-      <c r="AI5" s="64"/>
-      <c r="AJ5" s="64"/>
-      <c r="AK5" s="64"/>
-      <c r="AL5" s="64"/>
-      <c r="AM5" s="64"/>
-      <c r="AN5" s="64"/>
-      <c r="AO5" s="64"/>
-      <c r="AP5" s="64"/>
-      <c r="AQ5" s="64"/>
-      <c r="AR5" s="64"/>
-      <c r="AS5" s="64"/>
-      <c r="AT5" s="64"/>
-      <c r="AU5" s="64"/>
-      <c r="AV5" s="64"/>
-      <c r="AW5" s="64"/>
-      <c r="AX5" s="64"/>
-      <c r="AY5" s="64"/>
-      <c r="AZ5" s="64"/>
-      <c r="BA5" s="64"/>
-      <c r="BB5" s="64"/>
-      <c r="BC5" s="64"/>
-      <c r="BD5" s="64"/>
-      <c r="BE5" s="64"/>
-      <c r="BF5" s="64"/>
-      <c r="BG5" s="64"/>
-      <c r="BH5" s="64"/>
-      <c r="BI5" s="64"/>
-      <c r="BJ5" s="63"/>
-      <c r="BK5" s="63"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="48"/>
+      <c r="AF5" s="48"/>
+      <c r="AG5" s="48"/>
+      <c r="AH5" s="48"/>
+      <c r="AI5" s="48"/>
+      <c r="AJ5" s="48"/>
+      <c r="AK5" s="48"/>
+      <c r="AL5" s="48"/>
+      <c r="AM5" s="48"/>
+      <c r="AN5" s="48"/>
+      <c r="AO5" s="48"/>
+      <c r="AP5" s="48"/>
+      <c r="AQ5" s="48"/>
+      <c r="AR5" s="48"/>
+      <c r="AS5" s="48"/>
+      <c r="AT5" s="48"/>
+      <c r="AU5" s="48"/>
+      <c r="AV5" s="48"/>
+      <c r="AW5" s="48"/>
+      <c r="AX5" s="48"/>
+      <c r="AY5" s="48"/>
+      <c r="AZ5" s="48"/>
+      <c r="BA5" s="48"/>
+      <c r="BB5" s="48"/>
+      <c r="BC5" s="48"/>
+      <c r="BD5" s="48"/>
+      <c r="BE5" s="48"/>
+      <c r="BF5" s="48"/>
+      <c r="BG5" s="48"/>
+      <c r="BH5" s="48"/>
+      <c r="BI5" s="48"/>
+      <c r="BJ5" s="47"/>
+      <c r="BK5" s="47"/>
     </row>
     <row r="6" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="14"/>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="66"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="65" t="s">
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="65" t="s">
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="66"/>
-      <c r="AA6" s="66"/>
-      <c r="AB6" s="66"/>
-      <c r="AC6" s="66"/>
-      <c r="AD6" s="66"/>
-      <c r="AE6" s="66"/>
-      <c r="AF6" s="66"/>
-      <c r="AG6" s="67"/>
-      <c r="AH6" s="65" t="s">
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="42"/>
+      <c r="AD6" s="42"/>
+      <c r="AE6" s="42"/>
+      <c r="AF6" s="42"/>
+      <c r="AG6" s="43"/>
+      <c r="AH6" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="AI6" s="66"/>
-      <c r="AJ6" s="66"/>
-      <c r="AK6" s="66"/>
-      <c r="AL6" s="66"/>
-      <c r="AM6" s="67"/>
-      <c r="AN6" s="65" t="s">
+      <c r="AI6" s="42"/>
+      <c r="AJ6" s="42"/>
+      <c r="AK6" s="42"/>
+      <c r="AL6" s="42"/>
+      <c r="AM6" s="43"/>
+      <c r="AN6" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="AO6" s="66"/>
-      <c r="AP6" s="66"/>
-      <c r="AQ6" s="67"/>
-      <c r="AR6" s="68" t="s">
+      <c r="AO6" s="42"/>
+      <c r="AP6" s="42"/>
+      <c r="AQ6" s="43"/>
+      <c r="AR6" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="AS6" s="69"/>
-      <c r="AT6" s="69"/>
-      <c r="AU6" s="69"/>
-      <c r="AV6" s="69"/>
-      <c r="AW6" s="69"/>
-      <c r="AX6" s="69"/>
-      <c r="AY6" s="69"/>
-      <c r="AZ6" s="69"/>
-      <c r="BA6" s="69"/>
-      <c r="BB6" s="69"/>
-      <c r="BC6" s="69"/>
-      <c r="BD6" s="69"/>
-      <c r="BE6" s="69"/>
-      <c r="BF6" s="69"/>
-      <c r="BG6" s="69"/>
-      <c r="BH6" s="69"/>
-      <c r="BI6" s="69"/>
-      <c r="BJ6" s="70"/>
+      <c r="AS6" s="45"/>
+      <c r="AT6" s="45"/>
+      <c r="AU6" s="45"/>
+      <c r="AV6" s="45"/>
+      <c r="AW6" s="45"/>
+      <c r="AX6" s="45"/>
+      <c r="AY6" s="45"/>
+      <c r="AZ6" s="45"/>
+      <c r="BA6" s="45"/>
+      <c r="BB6" s="45"/>
+      <c r="BC6" s="45"/>
+      <c r="BD6" s="45"/>
+      <c r="BE6" s="45"/>
+      <c r="BF6" s="45"/>
+      <c r="BG6" s="45"/>
+      <c r="BH6" s="45"/>
+      <c r="BI6" s="45"/>
+      <c r="BJ6" s="46"/>
       <c r="BK6" s="15"/>
     </row>
     <row r="7" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -7300,18 +7329,222 @@
     </row>
   </sheetData>
   <mergeCells count="252">
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AG34"/>
-    <mergeCell ref="AH34:AM34"/>
-    <mergeCell ref="AN34:AQ34"/>
-    <mergeCell ref="AR34:BJ34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:AG35"/>
-    <mergeCell ref="AH35:AM35"/>
-    <mergeCell ref="AN35:AQ35"/>
-    <mergeCell ref="AR35:BJ35"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="J41:AG41"/>
+    <mergeCell ref="AH41:AM41"/>
+    <mergeCell ref="AN41:AQ41"/>
+    <mergeCell ref="AR41:BJ41"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:AG40"/>
+    <mergeCell ref="AH40:AM40"/>
+    <mergeCell ref="AN40:AQ40"/>
+    <mergeCell ref="AR40:BJ40"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="AH38:AM38"/>
+    <mergeCell ref="AN38:AQ38"/>
+    <mergeCell ref="AR38:BJ38"/>
+    <mergeCell ref="J38:AG38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:AG39"/>
+    <mergeCell ref="AH39:AM39"/>
+    <mergeCell ref="AN39:AQ39"/>
+    <mergeCell ref="AR39:BJ39"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:AG36"/>
+    <mergeCell ref="AH36:AM36"/>
+    <mergeCell ref="AN36:AQ36"/>
+    <mergeCell ref="AR36:BJ36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AG37"/>
+    <mergeCell ref="AH37:AM37"/>
+    <mergeCell ref="AN37:AQ37"/>
+    <mergeCell ref="AR37:BJ37"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AG30"/>
+    <mergeCell ref="AH30:AM30"/>
+    <mergeCell ref="AN30:AQ30"/>
+    <mergeCell ref="AR30:BJ30"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AG26"/>
+    <mergeCell ref="AH26:AM26"/>
+    <mergeCell ref="AN26:AQ26"/>
+    <mergeCell ref="AR26:BJ26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AG27"/>
+    <mergeCell ref="AH27:AM27"/>
+    <mergeCell ref="AN27:AQ27"/>
+    <mergeCell ref="AR27:BJ27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AG28"/>
+    <mergeCell ref="AH28:AM28"/>
+    <mergeCell ref="AN28:AQ28"/>
+    <mergeCell ref="AR28:BJ28"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AG24"/>
+    <mergeCell ref="AH24:AM24"/>
+    <mergeCell ref="AN24:AQ24"/>
+    <mergeCell ref="AR24:BJ24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AG25"/>
+    <mergeCell ref="AH25:AM25"/>
+    <mergeCell ref="AN25:AQ25"/>
+    <mergeCell ref="AR25:BJ25"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:AG22"/>
+    <mergeCell ref="AH22:AM22"/>
+    <mergeCell ref="AN22:AQ22"/>
+    <mergeCell ref="AR22:BJ22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AG23"/>
+    <mergeCell ref="AH23:AM23"/>
+    <mergeCell ref="AN23:AQ23"/>
+    <mergeCell ref="AR23:BJ23"/>
+    <mergeCell ref="AR18:BJ18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:AG18"/>
+    <mergeCell ref="AH18:AM18"/>
+    <mergeCell ref="AN18:AQ18"/>
+    <mergeCell ref="AR16:BJ16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:AG17"/>
+    <mergeCell ref="AH17:AM17"/>
+    <mergeCell ref="AN17:AQ17"/>
+    <mergeCell ref="AR17:BJ17"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:AG16"/>
+    <mergeCell ref="AH16:AM16"/>
+    <mergeCell ref="AN16:AQ16"/>
+    <mergeCell ref="AR14:BJ14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:AG15"/>
+    <mergeCell ref="AH15:AM15"/>
+    <mergeCell ref="AN15:AQ15"/>
+    <mergeCell ref="AR15:BJ15"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:AG14"/>
+    <mergeCell ref="AH14:AM14"/>
+    <mergeCell ref="AN14:AQ14"/>
+    <mergeCell ref="AR12:BJ12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:AG13"/>
+    <mergeCell ref="AH13:AM13"/>
+    <mergeCell ref="AN13:AQ13"/>
+    <mergeCell ref="AR13:BJ13"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:AG12"/>
+    <mergeCell ref="AH12:AM12"/>
+    <mergeCell ref="AN12:AQ12"/>
+    <mergeCell ref="B1:BK1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:AM2"/>
+    <mergeCell ref="AN2:AS2"/>
+    <mergeCell ref="AT2:AY2"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="BF2:BK2"/>
+    <mergeCell ref="BF3:BK4"/>
+    <mergeCell ref="B3:K4"/>
+    <mergeCell ref="L3:P4"/>
+    <mergeCell ref="Q3:AM4"/>
+    <mergeCell ref="AN3:AS4"/>
+    <mergeCell ref="AT3:AY4"/>
+    <mergeCell ref="AZ3:BE4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="Z5:AB5"/>
+    <mergeCell ref="BJ5:BK5"/>
+    <mergeCell ref="AC5:AE5"/>
+    <mergeCell ref="AF5:AH5"/>
+    <mergeCell ref="AI5:AK5"/>
+    <mergeCell ref="AL5:AN5"/>
+    <mergeCell ref="AO5:AQ5"/>
+    <mergeCell ref="AR5:AT5"/>
+    <mergeCell ref="AU5:AW5"/>
+    <mergeCell ref="AX5:AZ5"/>
+    <mergeCell ref="BA5:BC5"/>
+    <mergeCell ref="BD5:BF5"/>
+    <mergeCell ref="BG5:BI5"/>
+    <mergeCell ref="AR7:BJ7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:AG6"/>
+    <mergeCell ref="AH6:AM6"/>
+    <mergeCell ref="AN6:AQ6"/>
+    <mergeCell ref="AR6:BJ6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:AG7"/>
+    <mergeCell ref="AH7:AM7"/>
+    <mergeCell ref="AN7:AQ7"/>
+    <mergeCell ref="AR9:BJ9"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:AG8"/>
+    <mergeCell ref="AH8:AM8"/>
+    <mergeCell ref="AN8:AQ8"/>
+    <mergeCell ref="AR8:BJ8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:AG9"/>
+    <mergeCell ref="AH9:AM9"/>
+    <mergeCell ref="AN9:AQ9"/>
+    <mergeCell ref="AR11:BJ11"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:AG10"/>
+    <mergeCell ref="AH10:AM10"/>
+    <mergeCell ref="AN10:AQ10"/>
+    <mergeCell ref="AR10:BJ10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:AG11"/>
+    <mergeCell ref="AH11:AM11"/>
+    <mergeCell ref="AN11:AQ11"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:AG21"/>
+    <mergeCell ref="AH21:AM21"/>
+    <mergeCell ref="AN21:AQ21"/>
+    <mergeCell ref="AR21:BJ21"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:AG19"/>
+    <mergeCell ref="AH19:AM19"/>
+    <mergeCell ref="AN19:AQ19"/>
+    <mergeCell ref="AR19:BJ19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:AG20"/>
+    <mergeCell ref="AH20:AM20"/>
+    <mergeCell ref="AN20:AQ20"/>
+    <mergeCell ref="AR20:BJ20"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="F29:I29"/>
     <mergeCell ref="J29:AG29"/>
@@ -7336,222 +7569,18 @@
     <mergeCell ref="AH32:AM32"/>
     <mergeCell ref="AN32:AQ32"/>
     <mergeCell ref="AR32:BJ32"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:AG21"/>
-    <mergeCell ref="AH21:AM21"/>
-    <mergeCell ref="AN21:AQ21"/>
-    <mergeCell ref="AR21:BJ21"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:AG19"/>
-    <mergeCell ref="AH19:AM19"/>
-    <mergeCell ref="AN19:AQ19"/>
-    <mergeCell ref="AR19:BJ19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:AG20"/>
-    <mergeCell ref="AH20:AM20"/>
-    <mergeCell ref="AN20:AQ20"/>
-    <mergeCell ref="AR20:BJ20"/>
-    <mergeCell ref="AR11:BJ11"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:AG10"/>
-    <mergeCell ref="AH10:AM10"/>
-    <mergeCell ref="AN10:AQ10"/>
-    <mergeCell ref="AR10:BJ10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:AG11"/>
-    <mergeCell ref="AH11:AM11"/>
-    <mergeCell ref="AN11:AQ11"/>
-    <mergeCell ref="AR9:BJ9"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:AG8"/>
-    <mergeCell ref="AH8:AM8"/>
-    <mergeCell ref="AN8:AQ8"/>
-    <mergeCell ref="AR8:BJ8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:AG9"/>
-    <mergeCell ref="AH9:AM9"/>
-    <mergeCell ref="AN9:AQ9"/>
-    <mergeCell ref="AR7:BJ7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:AG6"/>
-    <mergeCell ref="AH6:AM6"/>
-    <mergeCell ref="AN6:AQ6"/>
-    <mergeCell ref="AR6:BJ6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:AG7"/>
-    <mergeCell ref="AH7:AM7"/>
-    <mergeCell ref="AN7:AQ7"/>
-    <mergeCell ref="BJ5:BK5"/>
-    <mergeCell ref="AC5:AE5"/>
-    <mergeCell ref="AF5:AH5"/>
-    <mergeCell ref="AI5:AK5"/>
-    <mergeCell ref="AL5:AN5"/>
-    <mergeCell ref="AO5:AQ5"/>
-    <mergeCell ref="AR5:AT5"/>
-    <mergeCell ref="AU5:AW5"/>
-    <mergeCell ref="AX5:AZ5"/>
-    <mergeCell ref="BA5:BC5"/>
-    <mergeCell ref="BD5:BF5"/>
-    <mergeCell ref="BG5:BI5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="Z5:AB5"/>
-    <mergeCell ref="B1:BK1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="Q2:AM2"/>
-    <mergeCell ref="AN2:AS2"/>
-    <mergeCell ref="AT2:AY2"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="BF2:BK2"/>
-    <mergeCell ref="BF3:BK4"/>
-    <mergeCell ref="B3:K4"/>
-    <mergeCell ref="L3:P4"/>
-    <mergeCell ref="Q3:AM4"/>
-    <mergeCell ref="AN3:AS4"/>
-    <mergeCell ref="AT3:AY4"/>
-    <mergeCell ref="AZ3:BE4"/>
-    <mergeCell ref="AR12:BJ12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:AG13"/>
-    <mergeCell ref="AH13:AM13"/>
-    <mergeCell ref="AN13:AQ13"/>
-    <mergeCell ref="AR13:BJ13"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:AG12"/>
-    <mergeCell ref="AH12:AM12"/>
-    <mergeCell ref="AN12:AQ12"/>
-    <mergeCell ref="AR14:BJ14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:AG15"/>
-    <mergeCell ref="AH15:AM15"/>
-    <mergeCell ref="AN15:AQ15"/>
-    <mergeCell ref="AR15:BJ15"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:AG14"/>
-    <mergeCell ref="AH14:AM14"/>
-    <mergeCell ref="AN14:AQ14"/>
-    <mergeCell ref="AR18:BJ18"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:AG18"/>
-    <mergeCell ref="AH18:AM18"/>
-    <mergeCell ref="AN18:AQ18"/>
-    <mergeCell ref="AR16:BJ16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:AG17"/>
-    <mergeCell ref="AH17:AM17"/>
-    <mergeCell ref="AN17:AQ17"/>
-    <mergeCell ref="AR17:BJ17"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:AG16"/>
-    <mergeCell ref="AH16:AM16"/>
-    <mergeCell ref="AN16:AQ16"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:AG22"/>
-    <mergeCell ref="AH22:AM22"/>
-    <mergeCell ref="AN22:AQ22"/>
-    <mergeCell ref="AR22:BJ22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AG23"/>
-    <mergeCell ref="AH23:AM23"/>
-    <mergeCell ref="AN23:AQ23"/>
-    <mergeCell ref="AR23:BJ23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AG24"/>
-    <mergeCell ref="AH24:AM24"/>
-    <mergeCell ref="AN24:AQ24"/>
-    <mergeCell ref="AR24:BJ24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AG25"/>
-    <mergeCell ref="AH25:AM25"/>
-    <mergeCell ref="AN25:AQ25"/>
-    <mergeCell ref="AR25:BJ25"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AG30"/>
-    <mergeCell ref="AH30:AM30"/>
-    <mergeCell ref="AN30:AQ30"/>
-    <mergeCell ref="AR30:BJ30"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AG26"/>
-    <mergeCell ref="AH26:AM26"/>
-    <mergeCell ref="AN26:AQ26"/>
-    <mergeCell ref="AR26:BJ26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AG27"/>
-    <mergeCell ref="AH27:AM27"/>
-    <mergeCell ref="AN27:AQ27"/>
-    <mergeCell ref="AR27:BJ27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AG28"/>
-    <mergeCell ref="AH28:AM28"/>
-    <mergeCell ref="AN28:AQ28"/>
-    <mergeCell ref="AR28:BJ28"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:AG36"/>
-    <mergeCell ref="AH36:AM36"/>
-    <mergeCell ref="AN36:AQ36"/>
-    <mergeCell ref="AR36:BJ36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AG37"/>
-    <mergeCell ref="AH37:AM37"/>
-    <mergeCell ref="AN37:AQ37"/>
-    <mergeCell ref="AR37:BJ37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="AH38:AM38"/>
-    <mergeCell ref="AN38:AQ38"/>
-    <mergeCell ref="AR38:BJ38"/>
-    <mergeCell ref="J38:AG38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="J39:AG39"/>
-    <mergeCell ref="AH39:AM39"/>
-    <mergeCell ref="AN39:AQ39"/>
-    <mergeCell ref="AR39:BJ39"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="J41:AG41"/>
-    <mergeCell ref="AH41:AM41"/>
-    <mergeCell ref="AN41:AQ41"/>
-    <mergeCell ref="AR41:BJ41"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="J40:AG40"/>
-    <mergeCell ref="AH40:AM40"/>
-    <mergeCell ref="AN40:AQ40"/>
-    <mergeCell ref="AR40:BJ40"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AG34"/>
+    <mergeCell ref="AH34:AM34"/>
+    <mergeCell ref="AN34:AQ34"/>
+    <mergeCell ref="AR34:BJ34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:AG35"/>
+    <mergeCell ref="AH35:AM35"/>
+    <mergeCell ref="AN35:AQ35"/>
+    <mergeCell ref="AR35:BJ35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7563,8 +7592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53580EB5-55E3-4A05-B78B-1201B5F81BCA}">
   <dimension ref="A1:BL41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BN6" sqref="BN6"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32:AK32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7637,297 +7666,297 @@
     </row>
     <row r="2" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="19"/>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="19"/>
-      <c r="AP2" s="19"/>
-      <c r="AQ2" s="19"/>
-      <c r="AR2" s="19"/>
-      <c r="AS2" s="19"/>
-      <c r="AT2" s="19"/>
-      <c r="AU2" s="19"/>
-      <c r="AV2" s="19"/>
-      <c r="AW2" s="19"/>
-      <c r="AX2" s="19"/>
-      <c r="AY2" s="19"/>
-      <c r="AZ2" s="19"/>
-      <c r="BA2" s="19"/>
-      <c r="BB2" s="19"/>
-      <c r="BC2" s="19"/>
-      <c r="BD2" s="19"/>
-      <c r="BE2" s="19"/>
-      <c r="BF2" s="19"/>
-      <c r="BG2" s="19"/>
-      <c r="BH2" s="19"/>
-      <c r="BI2" s="19"/>
-      <c r="BJ2" s="19"/>
-      <c r="BK2" s="19"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="29"/>
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="29"/>
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="29"/>
+      <c r="AV2" s="29"/>
+      <c r="AW2" s="29"/>
+      <c r="AX2" s="29"/>
+      <c r="AY2" s="29"/>
+      <c r="AZ2" s="29"/>
+      <c r="BA2" s="29"/>
+      <c r="BB2" s="29"/>
+      <c r="BC2" s="29"/>
+      <c r="BD2" s="29"/>
+      <c r="BE2" s="29"/>
+      <c r="BF2" s="29"/>
+      <c r="BG2" s="29"/>
+      <c r="BH2" s="29"/>
+      <c r="BI2" s="29"/>
+      <c r="BJ2" s="29"/>
+      <c r="BK2" s="29"/>
       <c r="BL2" s="16"/>
     </row>
     <row r="3" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="16"/>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="20" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20" t="s">
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="20"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="20"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="20"/>
-      <c r="AN3" s="21" t="s">
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="30"/>
+      <c r="AI3" s="30"/>
+      <c r="AJ3" s="30"/>
+      <c r="AK3" s="30"/>
+      <c r="AL3" s="30"/>
+      <c r="AM3" s="30"/>
+      <c r="AN3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="AO3" s="21"/>
-      <c r="AP3" s="21"/>
-      <c r="AQ3" s="21"/>
-      <c r="AR3" s="21"/>
-      <c r="AS3" s="21"/>
-      <c r="AT3" s="20" t="s">
+      <c r="AO3" s="31"/>
+      <c r="AP3" s="31"/>
+      <c r="AQ3" s="31"/>
+      <c r="AR3" s="31"/>
+      <c r="AS3" s="31"/>
+      <c r="AT3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="AU3" s="20"/>
-      <c r="AV3" s="20"/>
-      <c r="AW3" s="20"/>
-      <c r="AX3" s="20"/>
-      <c r="AY3" s="20"/>
-      <c r="AZ3" s="20" t="s">
+      <c r="AU3" s="30"/>
+      <c r="AV3" s="30"/>
+      <c r="AW3" s="30"/>
+      <c r="AX3" s="30"/>
+      <c r="AY3" s="30"/>
+      <c r="AZ3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="BA3" s="20"/>
-      <c r="BB3" s="20"/>
-      <c r="BC3" s="20"/>
-      <c r="BD3" s="20"/>
-      <c r="BE3" s="20"/>
-      <c r="BF3" s="20" t="s">
+      <c r="BA3" s="30"/>
+      <c r="BB3" s="30"/>
+      <c r="BC3" s="30"/>
+      <c r="BD3" s="30"/>
+      <c r="BE3" s="30"/>
+      <c r="BF3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="BG3" s="20"/>
-      <c r="BH3" s="20"/>
-      <c r="BI3" s="20"/>
-      <c r="BJ3" s="20"/>
-      <c r="BK3" s="20"/>
+      <c r="BG3" s="30"/>
+      <c r="BH3" s="30"/>
+      <c r="BI3" s="30"/>
+      <c r="BJ3" s="30"/>
+      <c r="BK3" s="30"/>
       <c r="BL3" s="16"/>
     </row>
     <row r="4" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="16"/>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="27">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="26">
         <f>[1]表紙!$L$8</f>
         <v>1.06</v>
       </c>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="22" t="s">
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="22"/>
-      <c r="AJ4" s="22"/>
-      <c r="AK4" s="22"/>
-      <c r="AL4" s="22"/>
-      <c r="AM4" s="22"/>
-      <c r="AN4" s="28">
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="24"/>
+      <c r="AK4" s="24"/>
+      <c r="AL4" s="24"/>
+      <c r="AM4" s="24"/>
+      <c r="AN4" s="27">
         <v>44062</v>
       </c>
-      <c r="AO4" s="22"/>
-      <c r="AP4" s="22"/>
-      <c r="AQ4" s="22"/>
-      <c r="AR4" s="22"/>
-      <c r="AS4" s="22"/>
-      <c r="AT4" s="85" t="s">
+      <c r="AO4" s="24"/>
+      <c r="AP4" s="24"/>
+      <c r="AQ4" s="24"/>
+      <c r="AR4" s="24"/>
+      <c r="AS4" s="24"/>
+      <c r="AT4" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="AU4" s="28"/>
-      <c r="AV4" s="28"/>
-      <c r="AW4" s="28"/>
-      <c r="AX4" s="28"/>
-      <c r="AY4" s="28"/>
-      <c r="AZ4" s="28">
+      <c r="AU4" s="27"/>
+      <c r="AV4" s="27"/>
+      <c r="AW4" s="27"/>
+      <c r="AX4" s="27"/>
+      <c r="AY4" s="27"/>
+      <c r="AZ4" s="27">
         <v>40410</v>
       </c>
-      <c r="BA4" s="22"/>
-      <c r="BB4" s="22"/>
-      <c r="BC4" s="22"/>
-      <c r="BD4" s="22"/>
-      <c r="BE4" s="22"/>
-      <c r="BF4" s="22" t="s">
+      <c r="BA4" s="24"/>
+      <c r="BB4" s="24"/>
+      <c r="BC4" s="24"/>
+      <c r="BD4" s="24"/>
+      <c r="BE4" s="24"/>
+      <c r="BF4" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="BG4" s="22"/>
-      <c r="BH4" s="22"/>
-      <c r="BI4" s="22"/>
-      <c r="BJ4" s="22"/>
-      <c r="BK4" s="22"/>
+      <c r="BG4" s="24"/>
+      <c r="BH4" s="24"/>
+      <c r="BI4" s="24"/>
+      <c r="BJ4" s="24"/>
+      <c r="BK4" s="24"/>
       <c r="BL4" s="16"/>
     </row>
     <row r="5" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="22"/>
-      <c r="AD5" s="22"/>
-      <c r="AE5" s="22"/>
-      <c r="AF5" s="22"/>
-      <c r="AG5" s="22"/>
-      <c r="AH5" s="22"/>
-      <c r="AI5" s="22"/>
-      <c r="AJ5" s="22"/>
-      <c r="AK5" s="22"/>
-      <c r="AL5" s="22"/>
-      <c r="AM5" s="22"/>
-      <c r="AN5" s="22"/>
-      <c r="AO5" s="22"/>
-      <c r="AP5" s="22"/>
-      <c r="AQ5" s="22"/>
-      <c r="AR5" s="22"/>
-      <c r="AS5" s="22"/>
-      <c r="AT5" s="28"/>
-      <c r="AU5" s="28"/>
-      <c r="AV5" s="28"/>
-      <c r="AW5" s="28"/>
-      <c r="AX5" s="28"/>
-      <c r="AY5" s="28"/>
-      <c r="AZ5" s="22"/>
-      <c r="BA5" s="22"/>
-      <c r="BB5" s="22"/>
-      <c r="BC5" s="22"/>
-      <c r="BD5" s="22"/>
-      <c r="BE5" s="22"/>
-      <c r="BF5" s="22"/>
-      <c r="BG5" s="22"/>
-      <c r="BH5" s="22"/>
-      <c r="BI5" s="22"/>
-      <c r="BJ5" s="22"/>
-      <c r="BK5" s="22"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="24"/>
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="24"/>
+      <c r="AG5" s="24"/>
+      <c r="AH5" s="24"/>
+      <c r="AI5" s="24"/>
+      <c r="AJ5" s="24"/>
+      <c r="AK5" s="24"/>
+      <c r="AL5" s="24"/>
+      <c r="AM5" s="24"/>
+      <c r="AN5" s="24"/>
+      <c r="AO5" s="24"/>
+      <c r="AP5" s="24"/>
+      <c r="AQ5" s="24"/>
+      <c r="AR5" s="24"/>
+      <c r="AS5" s="24"/>
+      <c r="AT5" s="27"/>
+      <c r="AU5" s="27"/>
+      <c r="AV5" s="27"/>
+      <c r="AW5" s="27"/>
+      <c r="AX5" s="27"/>
+      <c r="AY5" s="27"/>
+      <c r="AZ5" s="24"/>
+      <c r="BA5" s="24"/>
+      <c r="BB5" s="24"/>
+      <c r="BC5" s="24"/>
+      <c r="BD5" s="24"/>
+      <c r="BE5" s="24"/>
+      <c r="BF5" s="24"/>
+      <c r="BG5" s="24"/>
+      <c r="BH5" s="24"/>
+      <c r="BI5" s="24"/>
+      <c r="BJ5" s="24"/>
+      <c r="BK5" s="24"/>
       <c r="BL5" s="16"/>
     </row>
     <row r="6" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -7999,2384 +8028,2388 @@
     <row r="7" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="16"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="81" t="s">
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="81"/>
-      <c r="S7" s="81"/>
-      <c r="T7" s="81"/>
-      <c r="U7" s="81"/>
-      <c r="V7" s="81"/>
-      <c r="W7" s="81"/>
-      <c r="X7" s="81"/>
-      <c r="Y7" s="81"/>
-      <c r="Z7" s="81"/>
-      <c r="AA7" s="81"/>
-      <c r="AB7" s="81"/>
-      <c r="AC7" s="81"/>
-      <c r="AD7" s="81"/>
-      <c r="AE7" s="81"/>
-      <c r="AF7" s="81"/>
-      <c r="AG7" s="81"/>
-      <c r="AH7" s="81"/>
-      <c r="AI7" s="81"/>
-      <c r="AJ7" s="81"/>
-      <c r="AK7" s="81"/>
-      <c r="AL7" s="81" t="s">
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="72"/>
+      <c r="Z7" s="72"/>
+      <c r="AA7" s="72"/>
+      <c r="AB7" s="72"/>
+      <c r="AC7" s="72"/>
+      <c r="AD7" s="72"/>
+      <c r="AE7" s="72"/>
+      <c r="AF7" s="72"/>
+      <c r="AG7" s="72"/>
+      <c r="AH7" s="72"/>
+      <c r="AI7" s="72"/>
+      <c r="AJ7" s="72"/>
+      <c r="AK7" s="72"/>
+      <c r="AL7" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="AM7" s="81"/>
-      <c r="AN7" s="81"/>
-      <c r="AO7" s="81"/>
-      <c r="AP7" s="81"/>
-      <c r="AQ7" s="81"/>
-      <c r="AR7" s="81"/>
-      <c r="AS7" s="81"/>
-      <c r="AT7" s="81"/>
-      <c r="AU7" s="81"/>
-      <c r="AV7" s="81"/>
-      <c r="AW7" s="81"/>
-      <c r="AX7" s="81"/>
-      <c r="AY7" s="81"/>
-      <c r="AZ7" s="81"/>
-      <c r="BA7" s="81"/>
-      <c r="BB7" s="81"/>
-      <c r="BC7" s="81"/>
-      <c r="BD7" s="81"/>
-      <c r="BE7" s="81"/>
-      <c r="BF7" s="81"/>
-      <c r="BG7" s="81"/>
-      <c r="BH7" s="81"/>
-      <c r="BI7" s="81"/>
-      <c r="BJ7" s="81"/>
+      <c r="AM7" s="72"/>
+      <c r="AN7" s="72"/>
+      <c r="AO7" s="72"/>
+      <c r="AP7" s="72"/>
+      <c r="AQ7" s="72"/>
+      <c r="AR7" s="72"/>
+      <c r="AS7" s="72"/>
+      <c r="AT7" s="72"/>
+      <c r="AU7" s="72"/>
+      <c r="AV7" s="72"/>
+      <c r="AW7" s="72"/>
+      <c r="AX7" s="72"/>
+      <c r="AY7" s="72"/>
+      <c r="AZ7" s="72"/>
+      <c r="BA7" s="72"/>
+      <c r="BB7" s="72"/>
+      <c r="BC7" s="72"/>
+      <c r="BD7" s="72"/>
+      <c r="BE7" s="72"/>
+      <c r="BF7" s="72"/>
+      <c r="BG7" s="72"/>
+      <c r="BH7" s="72"/>
+      <c r="BI7" s="72"/>
+      <c r="BJ7" s="72"/>
       <c r="BK7" s="2"/>
       <c r="BL7" s="16"/>
     </row>
     <row r="8" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="16"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="82" t="s">
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="83"/>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="83"/>
-      <c r="S8" s="83"/>
-      <c r="T8" s="83"/>
-      <c r="U8" s="83"/>
-      <c r="V8" s="83"/>
-      <c r="W8" s="83"/>
-      <c r="X8" s="83"/>
-      <c r="Y8" s="83"/>
-      <c r="Z8" s="83"/>
-      <c r="AA8" s="83"/>
-      <c r="AB8" s="83"/>
-      <c r="AC8" s="83"/>
-      <c r="AD8" s="83"/>
-      <c r="AE8" s="83"/>
-      <c r="AF8" s="83"/>
-      <c r="AG8" s="83"/>
-      <c r="AH8" s="83"/>
-      <c r="AI8" s="83"/>
-      <c r="AJ8" s="83"/>
-      <c r="AK8" s="84"/>
-      <c r="AL8" s="73"/>
-      <c r="AM8" s="73"/>
-      <c r="AN8" s="73"/>
-      <c r="AO8" s="73"/>
-      <c r="AP8" s="73"/>
-      <c r="AQ8" s="73"/>
-      <c r="AR8" s="73"/>
-      <c r="AS8" s="73"/>
-      <c r="AT8" s="73"/>
-      <c r="AU8" s="73"/>
-      <c r="AV8" s="73"/>
-      <c r="AW8" s="73"/>
-      <c r="AX8" s="73"/>
-      <c r="AY8" s="73"/>
-      <c r="AZ8" s="73"/>
-      <c r="BA8" s="73"/>
-      <c r="BB8" s="73"/>
-      <c r="BC8" s="73"/>
-      <c r="BD8" s="73"/>
-      <c r="BE8" s="73"/>
-      <c r="BF8" s="73"/>
-      <c r="BG8" s="73"/>
-      <c r="BH8" s="73"/>
-      <c r="BI8" s="73"/>
-      <c r="BJ8" s="73"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="75"/>
+      <c r="V8" s="75"/>
+      <c r="W8" s="75"/>
+      <c r="X8" s="75"/>
+      <c r="Y8" s="75"/>
+      <c r="Z8" s="75"/>
+      <c r="AA8" s="75"/>
+      <c r="AB8" s="75"/>
+      <c r="AC8" s="75"/>
+      <c r="AD8" s="75"/>
+      <c r="AE8" s="75"/>
+      <c r="AF8" s="75"/>
+      <c r="AG8" s="75"/>
+      <c r="AH8" s="75"/>
+      <c r="AI8" s="75"/>
+      <c r="AJ8" s="75"/>
+      <c r="AK8" s="76"/>
+      <c r="AL8" s="77"/>
+      <c r="AM8" s="77"/>
+      <c r="AN8" s="77"/>
+      <c r="AO8" s="77"/>
+      <c r="AP8" s="77"/>
+      <c r="AQ8" s="77"/>
+      <c r="AR8" s="77"/>
+      <c r="AS8" s="77"/>
+      <c r="AT8" s="77"/>
+      <c r="AU8" s="77"/>
+      <c r="AV8" s="77"/>
+      <c r="AW8" s="77"/>
+      <c r="AX8" s="77"/>
+      <c r="AY8" s="77"/>
+      <c r="AZ8" s="77"/>
+      <c r="BA8" s="77"/>
+      <c r="BB8" s="77"/>
+      <c r="BC8" s="77"/>
+      <c r="BD8" s="77"/>
+      <c r="BE8" s="77"/>
+      <c r="BF8" s="77"/>
+      <c r="BG8" s="77"/>
+      <c r="BH8" s="77"/>
+      <c r="BI8" s="77"/>
+      <c r="BJ8" s="77"/>
       <c r="BK8" s="2"/>
       <c r="BL8" s="16"/>
     </row>
     <row r="9" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="16"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="72" t="s">
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="79" t="s">
         <v>169</v>
       </c>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="72"/>
-      <c r="S9" s="72"/>
-      <c r="T9" s="72"/>
-      <c r="U9" s="72"/>
-      <c r="V9" s="72"/>
-      <c r="W9" s="72"/>
-      <c r="X9" s="72"/>
-      <c r="Y9" s="72"/>
-      <c r="Z9" s="72"/>
-      <c r="AA9" s="72"/>
-      <c r="AB9" s="72"/>
-      <c r="AC9" s="72"/>
-      <c r="AD9" s="72"/>
-      <c r="AE9" s="72"/>
-      <c r="AF9" s="72"/>
-      <c r="AG9" s="72"/>
-      <c r="AH9" s="72"/>
-      <c r="AI9" s="72"/>
-      <c r="AJ9" s="72"/>
-      <c r="AK9" s="72"/>
-      <c r="AL9" s="73"/>
-      <c r="AM9" s="73"/>
-      <c r="AN9" s="73"/>
-      <c r="AO9" s="73"/>
-      <c r="AP9" s="73"/>
-      <c r="AQ9" s="73"/>
-      <c r="AR9" s="73"/>
-      <c r="AS9" s="73"/>
-      <c r="AT9" s="73"/>
-      <c r="AU9" s="73"/>
-      <c r="AV9" s="73"/>
-      <c r="AW9" s="73"/>
-      <c r="AX9" s="73"/>
-      <c r="AY9" s="73"/>
-      <c r="AZ9" s="73"/>
-      <c r="BA9" s="73"/>
-      <c r="BB9" s="73"/>
-      <c r="BC9" s="73"/>
-      <c r="BD9" s="73"/>
-      <c r="BE9" s="73"/>
-      <c r="BF9" s="73"/>
-      <c r="BG9" s="73"/>
-      <c r="BH9" s="73"/>
-      <c r="BI9" s="73"/>
-      <c r="BJ9" s="73"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="79"/>
+      <c r="R9" s="79"/>
+      <c r="S9" s="79"/>
+      <c r="T9" s="79"/>
+      <c r="U9" s="79"/>
+      <c r="V9" s="79"/>
+      <c r="W9" s="79"/>
+      <c r="X9" s="79"/>
+      <c r="Y9" s="79"/>
+      <c r="Z9" s="79"/>
+      <c r="AA9" s="79"/>
+      <c r="AB9" s="79"/>
+      <c r="AC9" s="79"/>
+      <c r="AD9" s="79"/>
+      <c r="AE9" s="79"/>
+      <c r="AF9" s="79"/>
+      <c r="AG9" s="79"/>
+      <c r="AH9" s="79"/>
+      <c r="AI9" s="79"/>
+      <c r="AJ9" s="79"/>
+      <c r="AK9" s="79"/>
+      <c r="AL9" s="77"/>
+      <c r="AM9" s="77"/>
+      <c r="AN9" s="77"/>
+      <c r="AO9" s="77"/>
+      <c r="AP9" s="77"/>
+      <c r="AQ9" s="77"/>
+      <c r="AR9" s="77"/>
+      <c r="AS9" s="77"/>
+      <c r="AT9" s="77"/>
+      <c r="AU9" s="77"/>
+      <c r="AV9" s="77"/>
+      <c r="AW9" s="77"/>
+      <c r="AX9" s="77"/>
+      <c r="AY9" s="77"/>
+      <c r="AZ9" s="77"/>
+      <c r="BA9" s="77"/>
+      <c r="BB9" s="77"/>
+      <c r="BC9" s="77"/>
+      <c r="BD9" s="77"/>
+      <c r="BE9" s="77"/>
+      <c r="BF9" s="77"/>
+      <c r="BG9" s="77"/>
+      <c r="BH9" s="77"/>
+      <c r="BI9" s="77"/>
+      <c r="BJ9" s="77"/>
       <c r="BK9" s="2"/>
       <c r="BL9" s="16"/>
     </row>
     <row r="10" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="16"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="72" t="s">
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="79" t="s">
         <v>170</v>
       </c>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="72"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="72"/>
-      <c r="V10" s="72"/>
-      <c r="W10" s="72"/>
-      <c r="X10" s="72"/>
-      <c r="Y10" s="72"/>
-      <c r="Z10" s="72"/>
-      <c r="AA10" s="72"/>
-      <c r="AB10" s="72"/>
-      <c r="AC10" s="72"/>
-      <c r="AD10" s="72"/>
-      <c r="AE10" s="72"/>
-      <c r="AF10" s="72"/>
-      <c r="AG10" s="72"/>
-      <c r="AH10" s="72"/>
-      <c r="AI10" s="72"/>
-      <c r="AJ10" s="72"/>
-      <c r="AK10" s="72"/>
-      <c r="AL10" s="73"/>
-      <c r="AM10" s="73"/>
-      <c r="AN10" s="73"/>
-      <c r="AO10" s="73"/>
-      <c r="AP10" s="73"/>
-      <c r="AQ10" s="73"/>
-      <c r="AR10" s="73"/>
-      <c r="AS10" s="73"/>
-      <c r="AT10" s="73"/>
-      <c r="AU10" s="73"/>
-      <c r="AV10" s="73"/>
-      <c r="AW10" s="73"/>
-      <c r="AX10" s="73"/>
-      <c r="AY10" s="73"/>
-      <c r="AZ10" s="73"/>
-      <c r="BA10" s="73"/>
-      <c r="BB10" s="73"/>
-      <c r="BC10" s="73"/>
-      <c r="BD10" s="73"/>
-      <c r="BE10" s="73"/>
-      <c r="BF10" s="73"/>
-      <c r="BG10" s="73"/>
-      <c r="BH10" s="73"/>
-      <c r="BI10" s="73"/>
-      <c r="BJ10" s="73"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="79"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="79"/>
+      <c r="T10" s="79"/>
+      <c r="U10" s="79"/>
+      <c r="V10" s="79"/>
+      <c r="W10" s="79"/>
+      <c r="X10" s="79"/>
+      <c r="Y10" s="79"/>
+      <c r="Z10" s="79"/>
+      <c r="AA10" s="79"/>
+      <c r="AB10" s="79"/>
+      <c r="AC10" s="79"/>
+      <c r="AD10" s="79"/>
+      <c r="AE10" s="79"/>
+      <c r="AF10" s="79"/>
+      <c r="AG10" s="79"/>
+      <c r="AH10" s="79"/>
+      <c r="AI10" s="79"/>
+      <c r="AJ10" s="79"/>
+      <c r="AK10" s="79"/>
+      <c r="AL10" s="77"/>
+      <c r="AM10" s="77"/>
+      <c r="AN10" s="77"/>
+      <c r="AO10" s="77"/>
+      <c r="AP10" s="77"/>
+      <c r="AQ10" s="77"/>
+      <c r="AR10" s="77"/>
+      <c r="AS10" s="77"/>
+      <c r="AT10" s="77"/>
+      <c r="AU10" s="77"/>
+      <c r="AV10" s="77"/>
+      <c r="AW10" s="77"/>
+      <c r="AX10" s="77"/>
+      <c r="AY10" s="77"/>
+      <c r="AZ10" s="77"/>
+      <c r="BA10" s="77"/>
+      <c r="BB10" s="77"/>
+      <c r="BC10" s="77"/>
+      <c r="BD10" s="77"/>
+      <c r="BE10" s="77"/>
+      <c r="BF10" s="77"/>
+      <c r="BG10" s="77"/>
+      <c r="BH10" s="77"/>
+      <c r="BI10" s="77"/>
+      <c r="BJ10" s="77"/>
       <c r="BK10" s="2"/>
       <c r="BL10" s="16"/>
     </row>
     <row r="11" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="16"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="73" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="72" t="s">
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="79" t="s">
         <v>171</v>
       </c>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="72"/>
-      <c r="S11" s="72"/>
-      <c r="T11" s="72"/>
-      <c r="U11" s="72"/>
-      <c r="V11" s="72"/>
-      <c r="W11" s="72"/>
-      <c r="X11" s="72"/>
-      <c r="Y11" s="72"/>
-      <c r="Z11" s="72"/>
-      <c r="AA11" s="72"/>
-      <c r="AB11" s="72"/>
-      <c r="AC11" s="72"/>
-      <c r="AD11" s="72"/>
-      <c r="AE11" s="72"/>
-      <c r="AF11" s="72"/>
-      <c r="AG11" s="72"/>
-      <c r="AH11" s="72"/>
-      <c r="AI11" s="72"/>
-      <c r="AJ11" s="72"/>
-      <c r="AK11" s="72"/>
-      <c r="AL11" s="73"/>
-      <c r="AM11" s="73"/>
-      <c r="AN11" s="73"/>
-      <c r="AO11" s="73"/>
-      <c r="AP11" s="73"/>
-      <c r="AQ11" s="73"/>
-      <c r="AR11" s="73"/>
-      <c r="AS11" s="73"/>
-      <c r="AT11" s="73"/>
-      <c r="AU11" s="73"/>
-      <c r="AV11" s="73"/>
-      <c r="AW11" s="73"/>
-      <c r="AX11" s="73"/>
-      <c r="AY11" s="73"/>
-      <c r="AZ11" s="73"/>
-      <c r="BA11" s="73"/>
-      <c r="BB11" s="73"/>
-      <c r="BC11" s="73"/>
-      <c r="BD11" s="73"/>
-      <c r="BE11" s="73"/>
-      <c r="BF11" s="73"/>
-      <c r="BG11" s="73"/>
-      <c r="BH11" s="73"/>
-      <c r="BI11" s="73"/>
-      <c r="BJ11" s="73"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="79"/>
+      <c r="P11" s="79"/>
+      <c r="Q11" s="79"/>
+      <c r="R11" s="79"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="79"/>
+      <c r="V11" s="79"/>
+      <c r="W11" s="79"/>
+      <c r="X11" s="79"/>
+      <c r="Y11" s="79"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="79"/>
+      <c r="AB11" s="79"/>
+      <c r="AC11" s="79"/>
+      <c r="AD11" s="79"/>
+      <c r="AE11" s="79"/>
+      <c r="AF11" s="79"/>
+      <c r="AG11" s="79"/>
+      <c r="AH11" s="79"/>
+      <c r="AI11" s="79"/>
+      <c r="AJ11" s="79"/>
+      <c r="AK11" s="79"/>
+      <c r="AL11" s="77"/>
+      <c r="AM11" s="77"/>
+      <c r="AN11" s="77"/>
+      <c r="AO11" s="77"/>
+      <c r="AP11" s="77"/>
+      <c r="AQ11" s="77"/>
+      <c r="AR11" s="77"/>
+      <c r="AS11" s="77"/>
+      <c r="AT11" s="77"/>
+      <c r="AU11" s="77"/>
+      <c r="AV11" s="77"/>
+      <c r="AW11" s="77"/>
+      <c r="AX11" s="77"/>
+      <c r="AY11" s="77"/>
+      <c r="AZ11" s="77"/>
+      <c r="BA11" s="77"/>
+      <c r="BB11" s="77"/>
+      <c r="BC11" s="77"/>
+      <c r="BD11" s="77"/>
+      <c r="BE11" s="77"/>
+      <c r="BF11" s="77"/>
+      <c r="BG11" s="77"/>
+      <c r="BH11" s="77"/>
+      <c r="BI11" s="77"/>
+      <c r="BJ11" s="77"/>
       <c r="BK11" s="2"/>
       <c r="BL11" s="16"/>
     </row>
     <row r="12" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="16"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="72" t="s">
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="72"/>
-      <c r="S12" s="72"/>
-      <c r="T12" s="72"/>
-      <c r="U12" s="72"/>
-      <c r="V12" s="72"/>
-      <c r="W12" s="72"/>
-      <c r="X12" s="72"/>
-      <c r="Y12" s="72"/>
-      <c r="Z12" s="72"/>
-      <c r="AA12" s="72"/>
-      <c r="AB12" s="72"/>
-      <c r="AC12" s="72"/>
-      <c r="AD12" s="72"/>
-      <c r="AE12" s="72"/>
-      <c r="AF12" s="72"/>
-      <c r="AG12" s="72"/>
-      <c r="AH12" s="72"/>
-      <c r="AI12" s="72"/>
-      <c r="AJ12" s="72"/>
-      <c r="AK12" s="72"/>
-      <c r="AL12" s="73"/>
-      <c r="AM12" s="73"/>
-      <c r="AN12" s="73"/>
-      <c r="AO12" s="73"/>
-      <c r="AP12" s="73"/>
-      <c r="AQ12" s="73"/>
-      <c r="AR12" s="73"/>
-      <c r="AS12" s="73"/>
-      <c r="AT12" s="73"/>
-      <c r="AU12" s="73"/>
-      <c r="AV12" s="73"/>
-      <c r="AW12" s="73"/>
-      <c r="AX12" s="73"/>
-      <c r="AY12" s="73"/>
-      <c r="AZ12" s="73"/>
-      <c r="BA12" s="73"/>
-      <c r="BB12" s="73"/>
-      <c r="BC12" s="73"/>
-      <c r="BD12" s="73"/>
-      <c r="BE12" s="73"/>
-      <c r="BF12" s="73"/>
-      <c r="BG12" s="73"/>
-      <c r="BH12" s="73"/>
-      <c r="BI12" s="73"/>
-      <c r="BJ12" s="73"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="79"/>
+      <c r="P12" s="79"/>
+      <c r="Q12" s="79"/>
+      <c r="R12" s="79"/>
+      <c r="S12" s="79"/>
+      <c r="T12" s="79"/>
+      <c r="U12" s="79"/>
+      <c r="V12" s="79"/>
+      <c r="W12" s="79"/>
+      <c r="X12" s="79"/>
+      <c r="Y12" s="79"/>
+      <c r="Z12" s="79"/>
+      <c r="AA12" s="79"/>
+      <c r="AB12" s="79"/>
+      <c r="AC12" s="79"/>
+      <c r="AD12" s="79"/>
+      <c r="AE12" s="79"/>
+      <c r="AF12" s="79"/>
+      <c r="AG12" s="79"/>
+      <c r="AH12" s="79"/>
+      <c r="AI12" s="79"/>
+      <c r="AJ12" s="79"/>
+      <c r="AK12" s="79"/>
+      <c r="AL12" s="77"/>
+      <c r="AM12" s="77"/>
+      <c r="AN12" s="77"/>
+      <c r="AO12" s="77"/>
+      <c r="AP12" s="77"/>
+      <c r="AQ12" s="77"/>
+      <c r="AR12" s="77"/>
+      <c r="AS12" s="77"/>
+      <c r="AT12" s="77"/>
+      <c r="AU12" s="77"/>
+      <c r="AV12" s="77"/>
+      <c r="AW12" s="77"/>
+      <c r="AX12" s="77"/>
+      <c r="AY12" s="77"/>
+      <c r="AZ12" s="77"/>
+      <c r="BA12" s="77"/>
+      <c r="BB12" s="77"/>
+      <c r="BC12" s="77"/>
+      <c r="BD12" s="77"/>
+      <c r="BE12" s="77"/>
+      <c r="BF12" s="77"/>
+      <c r="BG12" s="77"/>
+      <c r="BH12" s="77"/>
+      <c r="BI12" s="77"/>
+      <c r="BJ12" s="77"/>
       <c r="BK12" s="2"/>
       <c r="BL12" s="16"/>
     </row>
     <row r="13" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="16"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="72" t="s">
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="79" t="s">
         <v>173</v>
       </c>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="72"/>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="72"/>
-      <c r="R13" s="72"/>
-      <c r="S13" s="72"/>
-      <c r="T13" s="72"/>
-      <c r="U13" s="72"/>
-      <c r="V13" s="72"/>
-      <c r="W13" s="72"/>
-      <c r="X13" s="72"/>
-      <c r="Y13" s="72"/>
-      <c r="Z13" s="72"/>
-      <c r="AA13" s="72"/>
-      <c r="AB13" s="72"/>
-      <c r="AC13" s="72"/>
-      <c r="AD13" s="72"/>
-      <c r="AE13" s="72"/>
-      <c r="AF13" s="72"/>
-      <c r="AG13" s="72"/>
-      <c r="AH13" s="72"/>
-      <c r="AI13" s="72"/>
-      <c r="AJ13" s="72"/>
-      <c r="AK13" s="72"/>
-      <c r="AL13" s="73"/>
-      <c r="AM13" s="73"/>
-      <c r="AN13" s="73"/>
-      <c r="AO13" s="73"/>
-      <c r="AP13" s="73"/>
-      <c r="AQ13" s="73"/>
-      <c r="AR13" s="73"/>
-      <c r="AS13" s="73"/>
-      <c r="AT13" s="73"/>
-      <c r="AU13" s="73"/>
-      <c r="AV13" s="73"/>
-      <c r="AW13" s="73"/>
-      <c r="AX13" s="73"/>
-      <c r="AY13" s="73"/>
-      <c r="AZ13" s="73"/>
-      <c r="BA13" s="73"/>
-      <c r="BB13" s="73"/>
-      <c r="BC13" s="73"/>
-      <c r="BD13" s="73"/>
-      <c r="BE13" s="73"/>
-      <c r="BF13" s="73"/>
-      <c r="BG13" s="73"/>
-      <c r="BH13" s="73"/>
-      <c r="BI13" s="73"/>
-      <c r="BJ13" s="73"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="79"/>
+      <c r="P13" s="79"/>
+      <c r="Q13" s="79"/>
+      <c r="R13" s="79"/>
+      <c r="S13" s="79"/>
+      <c r="T13" s="79"/>
+      <c r="U13" s="79"/>
+      <c r="V13" s="79"/>
+      <c r="W13" s="79"/>
+      <c r="X13" s="79"/>
+      <c r="Y13" s="79"/>
+      <c r="Z13" s="79"/>
+      <c r="AA13" s="79"/>
+      <c r="AB13" s="79"/>
+      <c r="AC13" s="79"/>
+      <c r="AD13" s="79"/>
+      <c r="AE13" s="79"/>
+      <c r="AF13" s="79"/>
+      <c r="AG13" s="79"/>
+      <c r="AH13" s="79"/>
+      <c r="AI13" s="79"/>
+      <c r="AJ13" s="79"/>
+      <c r="AK13" s="79"/>
+      <c r="AL13" s="77"/>
+      <c r="AM13" s="77"/>
+      <c r="AN13" s="77"/>
+      <c r="AO13" s="77"/>
+      <c r="AP13" s="77"/>
+      <c r="AQ13" s="77"/>
+      <c r="AR13" s="77"/>
+      <c r="AS13" s="77"/>
+      <c r="AT13" s="77"/>
+      <c r="AU13" s="77"/>
+      <c r="AV13" s="77"/>
+      <c r="AW13" s="77"/>
+      <c r="AX13" s="77"/>
+      <c r="AY13" s="77"/>
+      <c r="AZ13" s="77"/>
+      <c r="BA13" s="77"/>
+      <c r="BB13" s="77"/>
+      <c r="BC13" s="77"/>
+      <c r="BD13" s="77"/>
+      <c r="BE13" s="77"/>
+      <c r="BF13" s="77"/>
+      <c r="BG13" s="77"/>
+      <c r="BH13" s="77"/>
+      <c r="BI13" s="77"/>
+      <c r="BJ13" s="77"/>
       <c r="BK13" s="2"/>
       <c r="BL13" s="16"/>
     </row>
     <row r="14" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="16"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="72" t="s">
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="79" t="s">
         <v>175</v>
       </c>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="72"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="72"/>
-      <c r="R14" s="72"/>
-      <c r="S14" s="72"/>
-      <c r="T14" s="72"/>
-      <c r="U14" s="72"/>
-      <c r="V14" s="72"/>
-      <c r="W14" s="72"/>
-      <c r="X14" s="72"/>
-      <c r="Y14" s="72"/>
-      <c r="Z14" s="72"/>
-      <c r="AA14" s="72"/>
-      <c r="AB14" s="72"/>
-      <c r="AC14" s="72"/>
-      <c r="AD14" s="72"/>
-      <c r="AE14" s="72"/>
-      <c r="AF14" s="72"/>
-      <c r="AG14" s="72"/>
-      <c r="AH14" s="72"/>
-      <c r="AI14" s="72"/>
-      <c r="AJ14" s="72"/>
-      <c r="AK14" s="72"/>
-      <c r="AL14" s="73"/>
-      <c r="AM14" s="73"/>
-      <c r="AN14" s="73"/>
-      <c r="AO14" s="73"/>
-      <c r="AP14" s="73"/>
-      <c r="AQ14" s="73"/>
-      <c r="AR14" s="73"/>
-      <c r="AS14" s="73"/>
-      <c r="AT14" s="73"/>
-      <c r="AU14" s="73"/>
-      <c r="AV14" s="73"/>
-      <c r="AW14" s="73"/>
-      <c r="AX14" s="73"/>
-      <c r="AY14" s="73"/>
-      <c r="AZ14" s="73"/>
-      <c r="BA14" s="73"/>
-      <c r="BB14" s="73"/>
-      <c r="BC14" s="73"/>
-      <c r="BD14" s="73"/>
-      <c r="BE14" s="73"/>
-      <c r="BF14" s="73"/>
-      <c r="BG14" s="73"/>
-      <c r="BH14" s="73"/>
-      <c r="BI14" s="73"/>
-      <c r="BJ14" s="73"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="79"/>
+      <c r="O14" s="79"/>
+      <c r="P14" s="79"/>
+      <c r="Q14" s="79"/>
+      <c r="R14" s="79"/>
+      <c r="S14" s="79"/>
+      <c r="T14" s="79"/>
+      <c r="U14" s="79"/>
+      <c r="V14" s="79"/>
+      <c r="W14" s="79"/>
+      <c r="X14" s="79"/>
+      <c r="Y14" s="79"/>
+      <c r="Z14" s="79"/>
+      <c r="AA14" s="79"/>
+      <c r="AB14" s="79"/>
+      <c r="AC14" s="79"/>
+      <c r="AD14" s="79"/>
+      <c r="AE14" s="79"/>
+      <c r="AF14" s="79"/>
+      <c r="AG14" s="79"/>
+      <c r="AH14" s="79"/>
+      <c r="AI14" s="79"/>
+      <c r="AJ14" s="79"/>
+      <c r="AK14" s="79"/>
+      <c r="AL14" s="77"/>
+      <c r="AM14" s="77"/>
+      <c r="AN14" s="77"/>
+      <c r="AO14" s="77"/>
+      <c r="AP14" s="77"/>
+      <c r="AQ14" s="77"/>
+      <c r="AR14" s="77"/>
+      <c r="AS14" s="77"/>
+      <c r="AT14" s="77"/>
+      <c r="AU14" s="77"/>
+      <c r="AV14" s="77"/>
+      <c r="AW14" s="77"/>
+      <c r="AX14" s="77"/>
+      <c r="AY14" s="77"/>
+      <c r="AZ14" s="77"/>
+      <c r="BA14" s="77"/>
+      <c r="BB14" s="77"/>
+      <c r="BC14" s="77"/>
+      <c r="BD14" s="77"/>
+      <c r="BE14" s="77"/>
+      <c r="BF14" s="77"/>
+      <c r="BG14" s="77"/>
+      <c r="BH14" s="77"/>
+      <c r="BI14" s="77"/>
+      <c r="BJ14" s="77"/>
       <c r="BK14" s="2"/>
       <c r="BL14" s="16"/>
     </row>
     <row r="15" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="16"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="73" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="72" t="s">
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="72"/>
-      <c r="S15" s="72"/>
-      <c r="T15" s="72"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="72"/>
-      <c r="W15" s="72"/>
-      <c r="X15" s="72"/>
-      <c r="Y15" s="72"/>
-      <c r="Z15" s="72"/>
-      <c r="AA15" s="72"/>
-      <c r="AB15" s="72"/>
-      <c r="AC15" s="72"/>
-      <c r="AD15" s="72"/>
-      <c r="AE15" s="72"/>
-      <c r="AF15" s="72"/>
-      <c r="AG15" s="72"/>
-      <c r="AH15" s="72"/>
-      <c r="AI15" s="72"/>
-      <c r="AJ15" s="72"/>
-      <c r="AK15" s="72"/>
-      <c r="AL15" s="73"/>
-      <c r="AM15" s="73"/>
-      <c r="AN15" s="73"/>
-      <c r="AO15" s="73"/>
-      <c r="AP15" s="73"/>
-      <c r="AQ15" s="73"/>
-      <c r="AR15" s="73"/>
-      <c r="AS15" s="73"/>
-      <c r="AT15" s="73"/>
-      <c r="AU15" s="73"/>
-      <c r="AV15" s="73"/>
-      <c r="AW15" s="73"/>
-      <c r="AX15" s="73"/>
-      <c r="AY15" s="73"/>
-      <c r="AZ15" s="73"/>
-      <c r="BA15" s="73"/>
-      <c r="BB15" s="73"/>
-      <c r="BC15" s="73"/>
-      <c r="BD15" s="73"/>
-      <c r="BE15" s="73"/>
-      <c r="BF15" s="73"/>
-      <c r="BG15" s="73"/>
-      <c r="BH15" s="73"/>
-      <c r="BI15" s="73"/>
-      <c r="BJ15" s="73"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="79"/>
+      <c r="P15" s="79"/>
+      <c r="Q15" s="79"/>
+      <c r="R15" s="79"/>
+      <c r="S15" s="79"/>
+      <c r="T15" s="79"/>
+      <c r="U15" s="79"/>
+      <c r="V15" s="79"/>
+      <c r="W15" s="79"/>
+      <c r="X15" s="79"/>
+      <c r="Y15" s="79"/>
+      <c r="Z15" s="79"/>
+      <c r="AA15" s="79"/>
+      <c r="AB15" s="79"/>
+      <c r="AC15" s="79"/>
+      <c r="AD15" s="79"/>
+      <c r="AE15" s="79"/>
+      <c r="AF15" s="79"/>
+      <c r="AG15" s="79"/>
+      <c r="AH15" s="79"/>
+      <c r="AI15" s="79"/>
+      <c r="AJ15" s="79"/>
+      <c r="AK15" s="79"/>
+      <c r="AL15" s="77"/>
+      <c r="AM15" s="77"/>
+      <c r="AN15" s="77"/>
+      <c r="AO15" s="77"/>
+      <c r="AP15" s="77"/>
+      <c r="AQ15" s="77"/>
+      <c r="AR15" s="77"/>
+      <c r="AS15" s="77"/>
+      <c r="AT15" s="77"/>
+      <c r="AU15" s="77"/>
+      <c r="AV15" s="77"/>
+      <c r="AW15" s="77"/>
+      <c r="AX15" s="77"/>
+      <c r="AY15" s="77"/>
+      <c r="AZ15" s="77"/>
+      <c r="BA15" s="77"/>
+      <c r="BB15" s="77"/>
+      <c r="BC15" s="77"/>
+      <c r="BD15" s="77"/>
+      <c r="BE15" s="77"/>
+      <c r="BF15" s="77"/>
+      <c r="BG15" s="77"/>
+      <c r="BH15" s="77"/>
+      <c r="BI15" s="77"/>
+      <c r="BJ15" s="77"/>
       <c r="BK15" s="2"/>
       <c r="BL15" s="16"/>
     </row>
     <row r="16" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="16"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="72" t="s">
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="79" t="s">
         <v>177</v>
       </c>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="72"/>
-      <c r="U16" s="72"/>
-      <c r="V16" s="72"/>
-      <c r="W16" s="72"/>
-      <c r="X16" s="72"/>
-      <c r="Y16" s="72"/>
-      <c r="Z16" s="72"/>
-      <c r="AA16" s="72"/>
-      <c r="AB16" s="72"/>
-      <c r="AC16" s="72"/>
-      <c r="AD16" s="72"/>
-      <c r="AE16" s="72"/>
-      <c r="AF16" s="72"/>
-      <c r="AG16" s="72"/>
-      <c r="AH16" s="72"/>
-      <c r="AI16" s="72"/>
-      <c r="AJ16" s="72"/>
-      <c r="AK16" s="72"/>
-      <c r="AL16" s="73"/>
-      <c r="AM16" s="73"/>
-      <c r="AN16" s="73"/>
-      <c r="AO16" s="73"/>
-      <c r="AP16" s="73"/>
-      <c r="AQ16" s="73"/>
-      <c r="AR16" s="73"/>
-      <c r="AS16" s="73"/>
-      <c r="AT16" s="73"/>
-      <c r="AU16" s="73"/>
-      <c r="AV16" s="73"/>
-      <c r="AW16" s="73"/>
-      <c r="AX16" s="73"/>
-      <c r="AY16" s="73"/>
-      <c r="AZ16" s="73"/>
-      <c r="BA16" s="73"/>
-      <c r="BB16" s="73"/>
-      <c r="BC16" s="73"/>
-      <c r="BD16" s="73"/>
-      <c r="BE16" s="73"/>
-      <c r="BF16" s="73"/>
-      <c r="BG16" s="73"/>
-      <c r="BH16" s="73"/>
-      <c r="BI16" s="73"/>
-      <c r="BJ16" s="73"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="79"/>
+      <c r="R16" s="79"/>
+      <c r="S16" s="79"/>
+      <c r="T16" s="79"/>
+      <c r="U16" s="79"/>
+      <c r="V16" s="79"/>
+      <c r="W16" s="79"/>
+      <c r="X16" s="79"/>
+      <c r="Y16" s="79"/>
+      <c r="Z16" s="79"/>
+      <c r="AA16" s="79"/>
+      <c r="AB16" s="79"/>
+      <c r="AC16" s="79"/>
+      <c r="AD16" s="79"/>
+      <c r="AE16" s="79"/>
+      <c r="AF16" s="79"/>
+      <c r="AG16" s="79"/>
+      <c r="AH16" s="79"/>
+      <c r="AI16" s="79"/>
+      <c r="AJ16" s="79"/>
+      <c r="AK16" s="79"/>
+      <c r="AL16" s="77"/>
+      <c r="AM16" s="77"/>
+      <c r="AN16" s="77"/>
+      <c r="AO16" s="77"/>
+      <c r="AP16" s="77"/>
+      <c r="AQ16" s="77"/>
+      <c r="AR16" s="77"/>
+      <c r="AS16" s="77"/>
+      <c r="AT16" s="77"/>
+      <c r="AU16" s="77"/>
+      <c r="AV16" s="77"/>
+      <c r="AW16" s="77"/>
+      <c r="AX16" s="77"/>
+      <c r="AY16" s="77"/>
+      <c r="AZ16" s="77"/>
+      <c r="BA16" s="77"/>
+      <c r="BB16" s="77"/>
+      <c r="BC16" s="77"/>
+      <c r="BD16" s="77"/>
+      <c r="BE16" s="77"/>
+      <c r="BF16" s="77"/>
+      <c r="BG16" s="77"/>
+      <c r="BH16" s="77"/>
+      <c r="BI16" s="77"/>
+      <c r="BJ16" s="77"/>
       <c r="BK16" s="2"/>
       <c r="BL16" s="16"/>
     </row>
     <row r="17" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="16"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="72" t="s">
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="72"/>
-      <c r="O17" s="72"/>
-      <c r="P17" s="72"/>
-      <c r="Q17" s="72"/>
-      <c r="R17" s="72"/>
-      <c r="S17" s="72"/>
-      <c r="T17" s="72"/>
-      <c r="U17" s="72"/>
-      <c r="V17" s="72"/>
-      <c r="W17" s="72"/>
-      <c r="X17" s="72"/>
-      <c r="Y17" s="72"/>
-      <c r="Z17" s="72"/>
-      <c r="AA17" s="72"/>
-      <c r="AB17" s="72"/>
-      <c r="AC17" s="72"/>
-      <c r="AD17" s="72"/>
-      <c r="AE17" s="72"/>
-      <c r="AF17" s="72"/>
-      <c r="AG17" s="72"/>
-      <c r="AH17" s="72"/>
-      <c r="AI17" s="72"/>
-      <c r="AJ17" s="72"/>
-      <c r="AK17" s="72"/>
-      <c r="AL17" s="73"/>
-      <c r="AM17" s="73"/>
-      <c r="AN17" s="73"/>
-      <c r="AO17" s="73"/>
-      <c r="AP17" s="73"/>
-      <c r="AQ17" s="73"/>
-      <c r="AR17" s="73"/>
-      <c r="AS17" s="73"/>
-      <c r="AT17" s="73"/>
-      <c r="AU17" s="73"/>
-      <c r="AV17" s="73"/>
-      <c r="AW17" s="73"/>
-      <c r="AX17" s="73"/>
-      <c r="AY17" s="73"/>
-      <c r="AZ17" s="73"/>
-      <c r="BA17" s="73"/>
-      <c r="BB17" s="73"/>
-      <c r="BC17" s="73"/>
-      <c r="BD17" s="73"/>
-      <c r="BE17" s="73"/>
-      <c r="BF17" s="73"/>
-      <c r="BG17" s="73"/>
-      <c r="BH17" s="73"/>
-      <c r="BI17" s="73"/>
-      <c r="BJ17" s="73"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="79"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="79"/>
+      <c r="X17" s="79"/>
+      <c r="Y17" s="79"/>
+      <c r="Z17" s="79"/>
+      <c r="AA17" s="79"/>
+      <c r="AB17" s="79"/>
+      <c r="AC17" s="79"/>
+      <c r="AD17" s="79"/>
+      <c r="AE17" s="79"/>
+      <c r="AF17" s="79"/>
+      <c r="AG17" s="79"/>
+      <c r="AH17" s="79"/>
+      <c r="AI17" s="79"/>
+      <c r="AJ17" s="79"/>
+      <c r="AK17" s="79"/>
+      <c r="AL17" s="77"/>
+      <c r="AM17" s="77"/>
+      <c r="AN17" s="77"/>
+      <c r="AO17" s="77"/>
+      <c r="AP17" s="77"/>
+      <c r="AQ17" s="77"/>
+      <c r="AR17" s="77"/>
+      <c r="AS17" s="77"/>
+      <c r="AT17" s="77"/>
+      <c r="AU17" s="77"/>
+      <c r="AV17" s="77"/>
+      <c r="AW17" s="77"/>
+      <c r="AX17" s="77"/>
+      <c r="AY17" s="77"/>
+      <c r="AZ17" s="77"/>
+      <c r="BA17" s="77"/>
+      <c r="BB17" s="77"/>
+      <c r="BC17" s="77"/>
+      <c r="BD17" s="77"/>
+      <c r="BE17" s="77"/>
+      <c r="BF17" s="77"/>
+      <c r="BG17" s="77"/>
+      <c r="BH17" s="77"/>
+      <c r="BI17" s="77"/>
+      <c r="BJ17" s="77"/>
       <c r="BK17" s="2"/>
       <c r="BL17" s="16"/>
     </row>
     <row r="18" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="16"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="73" t="s">
         <v>118</v>
       </c>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="72" t="s">
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="79" t="s">
         <v>129</v>
       </c>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="72"/>
-      <c r="S18" s="72"/>
-      <c r="T18" s="72"/>
-      <c r="U18" s="72"/>
-      <c r="V18" s="72"/>
-      <c r="W18" s="72"/>
-      <c r="X18" s="72"/>
-      <c r="Y18" s="72"/>
-      <c r="Z18" s="72"/>
-      <c r="AA18" s="72"/>
-      <c r="AB18" s="72"/>
-      <c r="AC18" s="72"/>
-      <c r="AD18" s="72"/>
-      <c r="AE18" s="72"/>
-      <c r="AF18" s="72"/>
-      <c r="AG18" s="72"/>
-      <c r="AH18" s="72"/>
-      <c r="AI18" s="72"/>
-      <c r="AJ18" s="72"/>
-      <c r="AK18" s="72"/>
-      <c r="AL18" s="73"/>
-      <c r="AM18" s="73"/>
-      <c r="AN18" s="73"/>
-      <c r="AO18" s="73"/>
-      <c r="AP18" s="73"/>
-      <c r="AQ18" s="73"/>
-      <c r="AR18" s="73"/>
-      <c r="AS18" s="73"/>
-      <c r="AT18" s="73"/>
-      <c r="AU18" s="73"/>
-      <c r="AV18" s="73"/>
-      <c r="AW18" s="73"/>
-      <c r="AX18" s="73"/>
-      <c r="AY18" s="73"/>
-      <c r="AZ18" s="73"/>
-      <c r="BA18" s="73"/>
-      <c r="BB18" s="73"/>
-      <c r="BC18" s="73"/>
-      <c r="BD18" s="73"/>
-      <c r="BE18" s="73"/>
-      <c r="BF18" s="73"/>
-      <c r="BG18" s="73"/>
-      <c r="BH18" s="73"/>
-      <c r="BI18" s="73"/>
-      <c r="BJ18" s="73"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="79"/>
+      <c r="U18" s="79"/>
+      <c r="V18" s="79"/>
+      <c r="W18" s="79"/>
+      <c r="X18" s="79"/>
+      <c r="Y18" s="79"/>
+      <c r="Z18" s="79"/>
+      <c r="AA18" s="79"/>
+      <c r="AB18" s="79"/>
+      <c r="AC18" s="79"/>
+      <c r="AD18" s="79"/>
+      <c r="AE18" s="79"/>
+      <c r="AF18" s="79"/>
+      <c r="AG18" s="79"/>
+      <c r="AH18" s="79"/>
+      <c r="AI18" s="79"/>
+      <c r="AJ18" s="79"/>
+      <c r="AK18" s="79"/>
+      <c r="AL18" s="77" t="s">
+        <v>217</v>
+      </c>
+      <c r="AM18" s="77"/>
+      <c r="AN18" s="77"/>
+      <c r="AO18" s="77"/>
+      <c r="AP18" s="77"/>
+      <c r="AQ18" s="77"/>
+      <c r="AR18" s="77"/>
+      <c r="AS18" s="77"/>
+      <c r="AT18" s="77"/>
+      <c r="AU18" s="77"/>
+      <c r="AV18" s="77"/>
+      <c r="AW18" s="77"/>
+      <c r="AX18" s="77"/>
+      <c r="AY18" s="77"/>
+      <c r="AZ18" s="77"/>
+      <c r="BA18" s="77"/>
+      <c r="BB18" s="77"/>
+      <c r="BC18" s="77"/>
+      <c r="BD18" s="77"/>
+      <c r="BE18" s="77"/>
+      <c r="BF18" s="77"/>
+      <c r="BG18" s="77"/>
+      <c r="BH18" s="77"/>
+      <c r="BI18" s="77"/>
+      <c r="BJ18" s="77"/>
       <c r="BK18" s="2"/>
       <c r="BL18" s="16"/>
     </row>
     <row r="19" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="16"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="71" t="s">
+      <c r="C19" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="77" t="s">
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="78"/>
-      <c r="N19" s="78"/>
-      <c r="O19" s="78"/>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="78"/>
-      <c r="R19" s="78"/>
-      <c r="S19" s="78"/>
-      <c r="T19" s="78"/>
-      <c r="U19" s="78"/>
-      <c r="V19" s="78"/>
-      <c r="W19" s="78"/>
-      <c r="X19" s="78"/>
-      <c r="Y19" s="78"/>
-      <c r="Z19" s="78"/>
-      <c r="AA19" s="78"/>
-      <c r="AB19" s="78"/>
-      <c r="AC19" s="78"/>
-      <c r="AD19" s="78"/>
-      <c r="AE19" s="78"/>
-      <c r="AF19" s="78"/>
-      <c r="AG19" s="78"/>
-      <c r="AH19" s="78"/>
-      <c r="AI19" s="78"/>
-      <c r="AJ19" s="78"/>
-      <c r="AK19" s="79"/>
-      <c r="AL19" s="73"/>
-      <c r="AM19" s="73"/>
-      <c r="AN19" s="73"/>
-      <c r="AO19" s="73"/>
-      <c r="AP19" s="73"/>
-      <c r="AQ19" s="73"/>
-      <c r="AR19" s="73"/>
-      <c r="AS19" s="73"/>
-      <c r="AT19" s="73"/>
-      <c r="AU19" s="73"/>
-      <c r="AV19" s="73"/>
-      <c r="AW19" s="73"/>
-      <c r="AX19" s="73"/>
-      <c r="AY19" s="73"/>
-      <c r="AZ19" s="73"/>
-      <c r="BA19" s="73"/>
-      <c r="BB19" s="73"/>
-      <c r="BC19" s="73"/>
-      <c r="BD19" s="73"/>
-      <c r="BE19" s="73"/>
-      <c r="BF19" s="73"/>
-      <c r="BG19" s="73"/>
-      <c r="BH19" s="73"/>
-      <c r="BI19" s="73"/>
-      <c r="BJ19" s="73"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="81"/>
+      <c r="P19" s="81"/>
+      <c r="Q19" s="81"/>
+      <c r="R19" s="81"/>
+      <c r="S19" s="81"/>
+      <c r="T19" s="81"/>
+      <c r="U19" s="81"/>
+      <c r="V19" s="81"/>
+      <c r="W19" s="81"/>
+      <c r="X19" s="81"/>
+      <c r="Y19" s="81"/>
+      <c r="Z19" s="81"/>
+      <c r="AA19" s="81"/>
+      <c r="AB19" s="81"/>
+      <c r="AC19" s="81"/>
+      <c r="AD19" s="81"/>
+      <c r="AE19" s="81"/>
+      <c r="AF19" s="81"/>
+      <c r="AG19" s="81"/>
+      <c r="AH19" s="81"/>
+      <c r="AI19" s="81"/>
+      <c r="AJ19" s="81"/>
+      <c r="AK19" s="82"/>
+      <c r="AL19" s="77" t="s">
+        <v>218</v>
+      </c>
+      <c r="AM19" s="77"/>
+      <c r="AN19" s="77"/>
+      <c r="AO19" s="77"/>
+      <c r="AP19" s="77"/>
+      <c r="AQ19" s="77"/>
+      <c r="AR19" s="77"/>
+      <c r="AS19" s="77"/>
+      <c r="AT19" s="77"/>
+      <c r="AU19" s="77"/>
+      <c r="AV19" s="77"/>
+      <c r="AW19" s="77"/>
+      <c r="AX19" s="77"/>
+      <c r="AY19" s="77"/>
+      <c r="AZ19" s="77"/>
+      <c r="BA19" s="77"/>
+      <c r="BB19" s="77"/>
+      <c r="BC19" s="77"/>
+      <c r="BD19" s="77"/>
+      <c r="BE19" s="77"/>
+      <c r="BF19" s="77"/>
+      <c r="BG19" s="77"/>
+      <c r="BH19" s="77"/>
+      <c r="BI19" s="77"/>
+      <c r="BJ19" s="77"/>
       <c r="BK19" s="2"/>
       <c r="BL19" s="16"/>
     </row>
     <row r="20" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="16"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="71" t="s">
+      <c r="C20" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="74" t="s">
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="83" t="s">
         <v>131</v>
       </c>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="75"/>
-      <c r="Q20" s="75"/>
-      <c r="R20" s="75"/>
-      <c r="S20" s="75"/>
-      <c r="T20" s="75"/>
-      <c r="U20" s="75"/>
-      <c r="V20" s="75"/>
-      <c r="W20" s="75"/>
-      <c r="X20" s="75"/>
-      <c r="Y20" s="75"/>
-      <c r="Z20" s="75"/>
-      <c r="AA20" s="75"/>
-      <c r="AB20" s="75"/>
-      <c r="AC20" s="75"/>
-      <c r="AD20" s="75"/>
-      <c r="AE20" s="75"/>
-      <c r="AF20" s="75"/>
-      <c r="AG20" s="75"/>
-      <c r="AH20" s="75"/>
-      <c r="AI20" s="75"/>
-      <c r="AJ20" s="75"/>
-      <c r="AK20" s="76"/>
-      <c r="AL20" s="73" t="s">
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="84"/>
+      <c r="O20" s="84"/>
+      <c r="P20" s="84"/>
+      <c r="Q20" s="84"/>
+      <c r="R20" s="84"/>
+      <c r="S20" s="84"/>
+      <c r="T20" s="84"/>
+      <c r="U20" s="84"/>
+      <c r="V20" s="84"/>
+      <c r="W20" s="84"/>
+      <c r="X20" s="84"/>
+      <c r="Y20" s="84"/>
+      <c r="Z20" s="84"/>
+      <c r="AA20" s="84"/>
+      <c r="AB20" s="84"/>
+      <c r="AC20" s="84"/>
+      <c r="AD20" s="84"/>
+      <c r="AE20" s="84"/>
+      <c r="AF20" s="84"/>
+      <c r="AG20" s="84"/>
+      <c r="AH20" s="84"/>
+      <c r="AI20" s="84"/>
+      <c r="AJ20" s="84"/>
+      <c r="AK20" s="85"/>
+      <c r="AL20" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="AM20" s="73"/>
-      <c r="AN20" s="73"/>
-      <c r="AO20" s="73"/>
-      <c r="AP20" s="73"/>
-      <c r="AQ20" s="73"/>
-      <c r="AR20" s="73"/>
-      <c r="AS20" s="73"/>
-      <c r="AT20" s="73"/>
-      <c r="AU20" s="73"/>
-      <c r="AV20" s="73"/>
-      <c r="AW20" s="73"/>
-      <c r="AX20" s="73"/>
-      <c r="AY20" s="73"/>
-      <c r="AZ20" s="73"/>
-      <c r="BA20" s="73"/>
-      <c r="BB20" s="73"/>
-      <c r="BC20" s="73"/>
-      <c r="BD20" s="73"/>
-      <c r="BE20" s="73"/>
-      <c r="BF20" s="73"/>
-      <c r="BG20" s="73"/>
-      <c r="BH20" s="73"/>
-      <c r="BI20" s="73"/>
-      <c r="BJ20" s="73"/>
+      <c r="AM20" s="77"/>
+      <c r="AN20" s="77"/>
+      <c r="AO20" s="77"/>
+      <c r="AP20" s="77"/>
+      <c r="AQ20" s="77"/>
+      <c r="AR20" s="77"/>
+      <c r="AS20" s="77"/>
+      <c r="AT20" s="77"/>
+      <c r="AU20" s="77"/>
+      <c r="AV20" s="77"/>
+      <c r="AW20" s="77"/>
+      <c r="AX20" s="77"/>
+      <c r="AY20" s="77"/>
+      <c r="AZ20" s="77"/>
+      <c r="BA20" s="77"/>
+      <c r="BB20" s="77"/>
+      <c r="BC20" s="77"/>
+      <c r="BD20" s="77"/>
+      <c r="BE20" s="77"/>
+      <c r="BF20" s="77"/>
+      <c r="BG20" s="77"/>
+      <c r="BH20" s="77"/>
+      <c r="BI20" s="77"/>
+      <c r="BJ20" s="77"/>
       <c r="BK20" s="2"/>
       <c r="BL20" s="16"/>
     </row>
     <row r="21" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="16"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="71" t="s">
+      <c r="C21" s="73" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="74" t="s">
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="75"/>
-      <c r="P21" s="75"/>
-      <c r="Q21" s="75"/>
-      <c r="R21" s="75"/>
-      <c r="S21" s="75"/>
-      <c r="T21" s="75"/>
-      <c r="U21" s="75"/>
-      <c r="V21" s="75"/>
-      <c r="W21" s="75"/>
-      <c r="X21" s="75"/>
-      <c r="Y21" s="75"/>
-      <c r="Z21" s="75"/>
-      <c r="AA21" s="75"/>
-      <c r="AB21" s="75"/>
-      <c r="AC21" s="75"/>
-      <c r="AD21" s="75"/>
-      <c r="AE21" s="75"/>
-      <c r="AF21" s="75"/>
-      <c r="AG21" s="75"/>
-      <c r="AH21" s="75"/>
-      <c r="AI21" s="75"/>
-      <c r="AJ21" s="75"/>
-      <c r="AK21" s="76"/>
-      <c r="AL21" s="73"/>
-      <c r="AM21" s="73"/>
-      <c r="AN21" s="73"/>
-      <c r="AO21" s="73"/>
-      <c r="AP21" s="73"/>
-      <c r="AQ21" s="73"/>
-      <c r="AR21" s="73"/>
-      <c r="AS21" s="73"/>
-      <c r="AT21" s="73"/>
-      <c r="AU21" s="73"/>
-      <c r="AV21" s="73"/>
-      <c r="AW21" s="73"/>
-      <c r="AX21" s="73"/>
-      <c r="AY21" s="73"/>
-      <c r="AZ21" s="73"/>
-      <c r="BA21" s="73"/>
-      <c r="BB21" s="73"/>
-      <c r="BC21" s="73"/>
-      <c r="BD21" s="73"/>
-      <c r="BE21" s="73"/>
-      <c r="BF21" s="73"/>
-      <c r="BG21" s="73"/>
-      <c r="BH21" s="73"/>
-      <c r="BI21" s="73"/>
-      <c r="BJ21" s="73"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="84"/>
+      <c r="R21" s="84"/>
+      <c r="S21" s="84"/>
+      <c r="T21" s="84"/>
+      <c r="U21" s="84"/>
+      <c r="V21" s="84"/>
+      <c r="W21" s="84"/>
+      <c r="X21" s="84"/>
+      <c r="Y21" s="84"/>
+      <c r="Z21" s="84"/>
+      <c r="AA21" s="84"/>
+      <c r="AB21" s="84"/>
+      <c r="AC21" s="84"/>
+      <c r="AD21" s="84"/>
+      <c r="AE21" s="84"/>
+      <c r="AF21" s="84"/>
+      <c r="AG21" s="84"/>
+      <c r="AH21" s="84"/>
+      <c r="AI21" s="84"/>
+      <c r="AJ21" s="84"/>
+      <c r="AK21" s="85"/>
+      <c r="AL21" s="77"/>
+      <c r="AM21" s="77"/>
+      <c r="AN21" s="77"/>
+      <c r="AO21" s="77"/>
+      <c r="AP21" s="77"/>
+      <c r="AQ21" s="77"/>
+      <c r="AR21" s="77"/>
+      <c r="AS21" s="77"/>
+      <c r="AT21" s="77"/>
+      <c r="AU21" s="77"/>
+      <c r="AV21" s="77"/>
+      <c r="AW21" s="77"/>
+      <c r="AX21" s="77"/>
+      <c r="AY21" s="77"/>
+      <c r="AZ21" s="77"/>
+      <c r="BA21" s="77"/>
+      <c r="BB21" s="77"/>
+      <c r="BC21" s="77"/>
+      <c r="BD21" s="77"/>
+      <c r="BE21" s="77"/>
+      <c r="BF21" s="77"/>
+      <c r="BG21" s="77"/>
+      <c r="BH21" s="77"/>
+      <c r="BI21" s="77"/>
+      <c r="BJ21" s="77"/>
       <c r="BK21" s="2"/>
       <c r="BL21" s="16"/>
     </row>
     <row r="22" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="16"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="71" t="s">
+      <c r="C22" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="74" t="s">
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="83" t="s">
         <v>202</v>
       </c>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="75"/>
-      <c r="P22" s="75"/>
-      <c r="Q22" s="75"/>
-      <c r="R22" s="75"/>
-      <c r="S22" s="75"/>
-      <c r="T22" s="75"/>
-      <c r="U22" s="75"/>
-      <c r="V22" s="75"/>
-      <c r="W22" s="75"/>
-      <c r="X22" s="75"/>
-      <c r="Y22" s="75"/>
-      <c r="Z22" s="75"/>
-      <c r="AA22" s="75"/>
-      <c r="AB22" s="75"/>
-      <c r="AC22" s="75"/>
-      <c r="AD22" s="75"/>
-      <c r="AE22" s="75"/>
-      <c r="AF22" s="75"/>
-      <c r="AG22" s="75"/>
-      <c r="AH22" s="75"/>
-      <c r="AI22" s="75"/>
-      <c r="AJ22" s="75"/>
-      <c r="AK22" s="76"/>
-      <c r="AL22" s="73"/>
-      <c r="AM22" s="73"/>
-      <c r="AN22" s="73"/>
-      <c r="AO22" s="73"/>
-      <c r="AP22" s="73"/>
-      <c r="AQ22" s="73"/>
-      <c r="AR22" s="73"/>
-      <c r="AS22" s="73"/>
-      <c r="AT22" s="73"/>
-      <c r="AU22" s="73"/>
-      <c r="AV22" s="73"/>
-      <c r="AW22" s="73"/>
-      <c r="AX22" s="73"/>
-      <c r="AY22" s="73"/>
-      <c r="AZ22" s="73"/>
-      <c r="BA22" s="73"/>
-      <c r="BB22" s="73"/>
-      <c r="BC22" s="73"/>
-      <c r="BD22" s="73"/>
-      <c r="BE22" s="73"/>
-      <c r="BF22" s="73"/>
-      <c r="BG22" s="73"/>
-      <c r="BH22" s="73"/>
-      <c r="BI22" s="73"/>
-      <c r="BJ22" s="73"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="84"/>
+      <c r="N22" s="84"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="84"/>
+      <c r="Q22" s="84"/>
+      <c r="R22" s="84"/>
+      <c r="S22" s="84"/>
+      <c r="T22" s="84"/>
+      <c r="U22" s="84"/>
+      <c r="V22" s="84"/>
+      <c r="W22" s="84"/>
+      <c r="X22" s="84"/>
+      <c r="Y22" s="84"/>
+      <c r="Z22" s="84"/>
+      <c r="AA22" s="84"/>
+      <c r="AB22" s="84"/>
+      <c r="AC22" s="84"/>
+      <c r="AD22" s="84"/>
+      <c r="AE22" s="84"/>
+      <c r="AF22" s="84"/>
+      <c r="AG22" s="84"/>
+      <c r="AH22" s="84"/>
+      <c r="AI22" s="84"/>
+      <c r="AJ22" s="84"/>
+      <c r="AK22" s="85"/>
+      <c r="AL22" s="77"/>
+      <c r="AM22" s="77"/>
+      <c r="AN22" s="77"/>
+      <c r="AO22" s="77"/>
+      <c r="AP22" s="77"/>
+      <c r="AQ22" s="77"/>
+      <c r="AR22" s="77"/>
+      <c r="AS22" s="77"/>
+      <c r="AT22" s="77"/>
+      <c r="AU22" s="77"/>
+      <c r="AV22" s="77"/>
+      <c r="AW22" s="77"/>
+      <c r="AX22" s="77"/>
+      <c r="AY22" s="77"/>
+      <c r="AZ22" s="77"/>
+      <c r="BA22" s="77"/>
+      <c r="BB22" s="77"/>
+      <c r="BC22" s="77"/>
+      <c r="BD22" s="77"/>
+      <c r="BE22" s="77"/>
+      <c r="BF22" s="77"/>
+      <c r="BG22" s="77"/>
+      <c r="BH22" s="77"/>
+      <c r="BI22" s="77"/>
+      <c r="BJ22" s="77"/>
       <c r="BK22" s="2"/>
       <c r="BL22" s="16"/>
     </row>
     <row r="23" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="16"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="72" t="s">
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="79" t="s">
         <v>183</v>
       </c>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="72"/>
-      <c r="P23" s="72"/>
-      <c r="Q23" s="72"/>
-      <c r="R23" s="72"/>
-      <c r="S23" s="72"/>
-      <c r="T23" s="72"/>
-      <c r="U23" s="72"/>
-      <c r="V23" s="72"/>
-      <c r="W23" s="72"/>
-      <c r="X23" s="72"/>
-      <c r="Y23" s="72"/>
-      <c r="Z23" s="72"/>
-      <c r="AA23" s="72"/>
-      <c r="AB23" s="72"/>
-      <c r="AC23" s="72"/>
-      <c r="AD23" s="72"/>
-      <c r="AE23" s="72"/>
-      <c r="AF23" s="72"/>
-      <c r="AG23" s="72"/>
-      <c r="AH23" s="72"/>
-      <c r="AI23" s="72"/>
-      <c r="AJ23" s="72"/>
-      <c r="AK23" s="72"/>
-      <c r="AL23" s="73"/>
-      <c r="AM23" s="73"/>
-      <c r="AN23" s="73"/>
-      <c r="AO23" s="73"/>
-      <c r="AP23" s="73"/>
-      <c r="AQ23" s="73"/>
-      <c r="AR23" s="73"/>
-      <c r="AS23" s="73"/>
-      <c r="AT23" s="73"/>
-      <c r="AU23" s="73"/>
-      <c r="AV23" s="73"/>
-      <c r="AW23" s="73"/>
-      <c r="AX23" s="73"/>
-      <c r="AY23" s="73"/>
-      <c r="AZ23" s="73"/>
-      <c r="BA23" s="73"/>
-      <c r="BB23" s="73"/>
-      <c r="BC23" s="73"/>
-      <c r="BD23" s="73"/>
-      <c r="BE23" s="73"/>
-      <c r="BF23" s="73"/>
-      <c r="BG23" s="73"/>
-      <c r="BH23" s="73"/>
-      <c r="BI23" s="73"/>
-      <c r="BJ23" s="73"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="79"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="79"/>
+      <c r="U23" s="79"/>
+      <c r="V23" s="79"/>
+      <c r="W23" s="79"/>
+      <c r="X23" s="79"/>
+      <c r="Y23" s="79"/>
+      <c r="Z23" s="79"/>
+      <c r="AA23" s="79"/>
+      <c r="AB23" s="79"/>
+      <c r="AC23" s="79"/>
+      <c r="AD23" s="79"/>
+      <c r="AE23" s="79"/>
+      <c r="AF23" s="79"/>
+      <c r="AG23" s="79"/>
+      <c r="AH23" s="79"/>
+      <c r="AI23" s="79"/>
+      <c r="AJ23" s="79"/>
+      <c r="AK23" s="79"/>
+      <c r="AL23" s="77"/>
+      <c r="AM23" s="77"/>
+      <c r="AN23" s="77"/>
+      <c r="AO23" s="77"/>
+      <c r="AP23" s="77"/>
+      <c r="AQ23" s="77"/>
+      <c r="AR23" s="77"/>
+      <c r="AS23" s="77"/>
+      <c r="AT23" s="77"/>
+      <c r="AU23" s="77"/>
+      <c r="AV23" s="77"/>
+      <c r="AW23" s="77"/>
+      <c r="AX23" s="77"/>
+      <c r="AY23" s="77"/>
+      <c r="AZ23" s="77"/>
+      <c r="BA23" s="77"/>
+      <c r="BB23" s="77"/>
+      <c r="BC23" s="77"/>
+      <c r="BD23" s="77"/>
+      <c r="BE23" s="77"/>
+      <c r="BF23" s="77"/>
+      <c r="BG23" s="77"/>
+      <c r="BH23" s="77"/>
+      <c r="BI23" s="77"/>
+      <c r="BJ23" s="77"/>
       <c r="BK23" s="2"/>
       <c r="BL23" s="16"/>
     </row>
     <row r="24" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="71" t="s">
+      <c r="C24" s="73" t="s">
         <v>125</v>
       </c>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="72" t="s">
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="79" t="s">
         <v>203</v>
       </c>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="72"/>
-      <c r="R24" s="72"/>
-      <c r="S24" s="72"/>
-      <c r="T24" s="72"/>
-      <c r="U24" s="72"/>
-      <c r="V24" s="72"/>
-      <c r="W24" s="72"/>
-      <c r="X24" s="72"/>
-      <c r="Y24" s="72"/>
-      <c r="Z24" s="72"/>
-      <c r="AA24" s="72"/>
-      <c r="AB24" s="72"/>
-      <c r="AC24" s="72"/>
-      <c r="AD24" s="72"/>
-      <c r="AE24" s="72"/>
-      <c r="AF24" s="72"/>
-      <c r="AG24" s="72"/>
-      <c r="AH24" s="72"/>
-      <c r="AI24" s="72"/>
-      <c r="AJ24" s="72"/>
-      <c r="AK24" s="72"/>
-      <c r="AL24" s="73"/>
-      <c r="AM24" s="73"/>
-      <c r="AN24" s="73"/>
-      <c r="AO24" s="73"/>
-      <c r="AP24" s="73"/>
-      <c r="AQ24" s="73"/>
-      <c r="AR24" s="73"/>
-      <c r="AS24" s="73"/>
-      <c r="AT24" s="73"/>
-      <c r="AU24" s="73"/>
-      <c r="AV24" s="73"/>
-      <c r="AW24" s="73"/>
-      <c r="AX24" s="73"/>
-      <c r="AY24" s="73"/>
-      <c r="AZ24" s="73"/>
-      <c r="BA24" s="73"/>
-      <c r="BB24" s="73"/>
-      <c r="BC24" s="73"/>
-      <c r="BD24" s="73"/>
-      <c r="BE24" s="73"/>
-      <c r="BF24" s="73"/>
-      <c r="BG24" s="73"/>
-      <c r="BH24" s="73"/>
-      <c r="BI24" s="73"/>
-      <c r="BJ24" s="73"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="79"/>
+      <c r="T24" s="79"/>
+      <c r="U24" s="79"/>
+      <c r="V24" s="79"/>
+      <c r="W24" s="79"/>
+      <c r="X24" s="79"/>
+      <c r="Y24" s="79"/>
+      <c r="Z24" s="79"/>
+      <c r="AA24" s="79"/>
+      <c r="AB24" s="79"/>
+      <c r="AC24" s="79"/>
+      <c r="AD24" s="79"/>
+      <c r="AE24" s="79"/>
+      <c r="AF24" s="79"/>
+      <c r="AG24" s="79"/>
+      <c r="AH24" s="79"/>
+      <c r="AI24" s="79"/>
+      <c r="AJ24" s="79"/>
+      <c r="AK24" s="79"/>
+      <c r="AL24" s="77"/>
+      <c r="AM24" s="77"/>
+      <c r="AN24" s="77"/>
+      <c r="AO24" s="77"/>
+      <c r="AP24" s="77"/>
+      <c r="AQ24" s="77"/>
+      <c r="AR24" s="77"/>
+      <c r="AS24" s="77"/>
+      <c r="AT24" s="77"/>
+      <c r="AU24" s="77"/>
+      <c r="AV24" s="77"/>
+      <c r="AW24" s="77"/>
+      <c r="AX24" s="77"/>
+      <c r="AY24" s="77"/>
+      <c r="AZ24" s="77"/>
+      <c r="BA24" s="77"/>
+      <c r="BB24" s="77"/>
+      <c r="BC24" s="77"/>
+      <c r="BD24" s="77"/>
+      <c r="BE24" s="77"/>
+      <c r="BF24" s="77"/>
+      <c r="BG24" s="77"/>
+      <c r="BH24" s="77"/>
+      <c r="BI24" s="77"/>
+      <c r="BJ24" s="77"/>
       <c r="BK24" s="2"/>
       <c r="BL24" s="16"/>
     </row>
     <row r="25" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="16"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="71" t="s">
+      <c r="C25" s="73" t="s">
         <v>174</v>
       </c>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="72" t="s">
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="72"/>
-      <c r="P25" s="72"/>
-      <c r="Q25" s="72"/>
-      <c r="R25" s="72"/>
-      <c r="S25" s="72"/>
-      <c r="T25" s="72"/>
-      <c r="U25" s="72"/>
-      <c r="V25" s="72"/>
-      <c r="W25" s="72"/>
-      <c r="X25" s="72"/>
-      <c r="Y25" s="72"/>
-      <c r="Z25" s="72"/>
-      <c r="AA25" s="72"/>
-      <c r="AB25" s="72"/>
-      <c r="AC25" s="72"/>
-      <c r="AD25" s="72"/>
-      <c r="AE25" s="72"/>
-      <c r="AF25" s="72"/>
-      <c r="AG25" s="72"/>
-      <c r="AH25" s="72"/>
-      <c r="AI25" s="72"/>
-      <c r="AJ25" s="72"/>
-      <c r="AK25" s="72"/>
-      <c r="AL25" s="73"/>
-      <c r="AM25" s="73"/>
-      <c r="AN25" s="73"/>
-      <c r="AO25" s="73"/>
-      <c r="AP25" s="73"/>
-      <c r="AQ25" s="73"/>
-      <c r="AR25" s="73"/>
-      <c r="AS25" s="73"/>
-      <c r="AT25" s="73"/>
-      <c r="AU25" s="73"/>
-      <c r="AV25" s="73"/>
-      <c r="AW25" s="73"/>
-      <c r="AX25" s="73"/>
-      <c r="AY25" s="73"/>
-      <c r="AZ25" s="73"/>
-      <c r="BA25" s="73"/>
-      <c r="BB25" s="73"/>
-      <c r="BC25" s="73"/>
-      <c r="BD25" s="73"/>
-      <c r="BE25" s="73"/>
-      <c r="BF25" s="73"/>
-      <c r="BG25" s="73"/>
-      <c r="BH25" s="73"/>
-      <c r="BI25" s="73"/>
-      <c r="BJ25" s="73"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="79"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="79"/>
+      <c r="R25" s="79"/>
+      <c r="S25" s="79"/>
+      <c r="T25" s="79"/>
+      <c r="U25" s="79"/>
+      <c r="V25" s="79"/>
+      <c r="W25" s="79"/>
+      <c r="X25" s="79"/>
+      <c r="Y25" s="79"/>
+      <c r="Z25" s="79"/>
+      <c r="AA25" s="79"/>
+      <c r="AB25" s="79"/>
+      <c r="AC25" s="79"/>
+      <c r="AD25" s="79"/>
+      <c r="AE25" s="79"/>
+      <c r="AF25" s="79"/>
+      <c r="AG25" s="79"/>
+      <c r="AH25" s="79"/>
+      <c r="AI25" s="79"/>
+      <c r="AJ25" s="79"/>
+      <c r="AK25" s="79"/>
+      <c r="AL25" s="77"/>
+      <c r="AM25" s="77"/>
+      <c r="AN25" s="77"/>
+      <c r="AO25" s="77"/>
+      <c r="AP25" s="77"/>
+      <c r="AQ25" s="77"/>
+      <c r="AR25" s="77"/>
+      <c r="AS25" s="77"/>
+      <c r="AT25" s="77"/>
+      <c r="AU25" s="77"/>
+      <c r="AV25" s="77"/>
+      <c r="AW25" s="77"/>
+      <c r="AX25" s="77"/>
+      <c r="AY25" s="77"/>
+      <c r="AZ25" s="77"/>
+      <c r="BA25" s="77"/>
+      <c r="BB25" s="77"/>
+      <c r="BC25" s="77"/>
+      <c r="BD25" s="77"/>
+      <c r="BE25" s="77"/>
+      <c r="BF25" s="77"/>
+      <c r="BG25" s="77"/>
+      <c r="BH25" s="77"/>
+      <c r="BI25" s="77"/>
+      <c r="BJ25" s="77"/>
       <c r="BK25" s="2"/>
       <c r="BL25" s="16"/>
     </row>
     <row r="26" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="71" t="s">
+      <c r="C26" s="73" t="s">
         <v>178</v>
       </c>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="72" t="s">
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="79" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="72"/>
-      <c r="P26" s="72"/>
-      <c r="Q26" s="72"/>
-      <c r="R26" s="72"/>
-      <c r="S26" s="72"/>
-      <c r="T26" s="72"/>
-      <c r="U26" s="72"/>
-      <c r="V26" s="72"/>
-      <c r="W26" s="72"/>
-      <c r="X26" s="72"/>
-      <c r="Y26" s="72"/>
-      <c r="Z26" s="72"/>
-      <c r="AA26" s="72"/>
-      <c r="AB26" s="72"/>
-      <c r="AC26" s="72"/>
-      <c r="AD26" s="72"/>
-      <c r="AE26" s="72"/>
-      <c r="AF26" s="72"/>
-      <c r="AG26" s="72"/>
-      <c r="AH26" s="72"/>
-      <c r="AI26" s="72"/>
-      <c r="AJ26" s="72"/>
-      <c r="AK26" s="72"/>
-      <c r="AL26" s="73"/>
-      <c r="AM26" s="73"/>
-      <c r="AN26" s="73"/>
-      <c r="AO26" s="73"/>
-      <c r="AP26" s="73"/>
-      <c r="AQ26" s="73"/>
-      <c r="AR26" s="73"/>
-      <c r="AS26" s="73"/>
-      <c r="AT26" s="73"/>
-      <c r="AU26" s="73"/>
-      <c r="AV26" s="73"/>
-      <c r="AW26" s="73"/>
-      <c r="AX26" s="73"/>
-      <c r="AY26" s="73"/>
-      <c r="AZ26" s="73"/>
-      <c r="BA26" s="73"/>
-      <c r="BB26" s="73"/>
-      <c r="BC26" s="73"/>
-      <c r="BD26" s="73"/>
-      <c r="BE26" s="73"/>
-      <c r="BF26" s="73"/>
-      <c r="BG26" s="73"/>
-      <c r="BH26" s="73"/>
-      <c r="BI26" s="73"/>
-      <c r="BJ26" s="73"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="79"/>
+      <c r="P26" s="79"/>
+      <c r="Q26" s="79"/>
+      <c r="R26" s="79"/>
+      <c r="S26" s="79"/>
+      <c r="T26" s="79"/>
+      <c r="U26" s="79"/>
+      <c r="V26" s="79"/>
+      <c r="W26" s="79"/>
+      <c r="X26" s="79"/>
+      <c r="Y26" s="79"/>
+      <c r="Z26" s="79"/>
+      <c r="AA26" s="79"/>
+      <c r="AB26" s="79"/>
+      <c r="AC26" s="79"/>
+      <c r="AD26" s="79"/>
+      <c r="AE26" s="79"/>
+      <c r="AF26" s="79"/>
+      <c r="AG26" s="79"/>
+      <c r="AH26" s="79"/>
+      <c r="AI26" s="79"/>
+      <c r="AJ26" s="79"/>
+      <c r="AK26" s="79"/>
+      <c r="AL26" s="77"/>
+      <c r="AM26" s="77"/>
+      <c r="AN26" s="77"/>
+      <c r="AO26" s="77"/>
+      <c r="AP26" s="77"/>
+      <c r="AQ26" s="77"/>
+      <c r="AR26" s="77"/>
+      <c r="AS26" s="77"/>
+      <c r="AT26" s="77"/>
+      <c r="AU26" s="77"/>
+      <c r="AV26" s="77"/>
+      <c r="AW26" s="77"/>
+      <c r="AX26" s="77"/>
+      <c r="AY26" s="77"/>
+      <c r="AZ26" s="77"/>
+      <c r="BA26" s="77"/>
+      <c r="BB26" s="77"/>
+      <c r="BC26" s="77"/>
+      <c r="BD26" s="77"/>
+      <c r="BE26" s="77"/>
+      <c r="BF26" s="77"/>
+      <c r="BG26" s="77"/>
+      <c r="BH26" s="77"/>
+      <c r="BI26" s="77"/>
+      <c r="BJ26" s="77"/>
       <c r="BK26" s="2"/>
       <c r="BL26" s="16"/>
     </row>
     <row r="27" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="16"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="71" t="s">
+      <c r="C27" s="73" t="s">
         <v>180</v>
       </c>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="72" t="s">
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="79" t="s">
         <v>181</v>
       </c>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="72"/>
-      <c r="P27" s="72"/>
-      <c r="Q27" s="72"/>
-      <c r="R27" s="72"/>
-      <c r="S27" s="72"/>
-      <c r="T27" s="72"/>
-      <c r="U27" s="72"/>
-      <c r="V27" s="72"/>
-      <c r="W27" s="72"/>
-      <c r="X27" s="72"/>
-      <c r="Y27" s="72"/>
-      <c r="Z27" s="72"/>
-      <c r="AA27" s="72"/>
-      <c r="AB27" s="72"/>
-      <c r="AC27" s="72"/>
-      <c r="AD27" s="72"/>
-      <c r="AE27" s="72"/>
-      <c r="AF27" s="72"/>
-      <c r="AG27" s="72"/>
-      <c r="AH27" s="72"/>
-      <c r="AI27" s="72"/>
-      <c r="AJ27" s="72"/>
-      <c r="AK27" s="72"/>
-      <c r="AL27" s="73"/>
-      <c r="AM27" s="73"/>
-      <c r="AN27" s="73"/>
-      <c r="AO27" s="73"/>
-      <c r="AP27" s="73"/>
-      <c r="AQ27" s="73"/>
-      <c r="AR27" s="73"/>
-      <c r="AS27" s="73"/>
-      <c r="AT27" s="73"/>
-      <c r="AU27" s="73"/>
-      <c r="AV27" s="73"/>
-      <c r="AW27" s="73"/>
-      <c r="AX27" s="73"/>
-      <c r="AY27" s="73"/>
-      <c r="AZ27" s="73"/>
-      <c r="BA27" s="73"/>
-      <c r="BB27" s="73"/>
-      <c r="BC27" s="73"/>
-      <c r="BD27" s="73"/>
-      <c r="BE27" s="73"/>
-      <c r="BF27" s="73"/>
-      <c r="BG27" s="73"/>
-      <c r="BH27" s="73"/>
-      <c r="BI27" s="73"/>
-      <c r="BJ27" s="73"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="79"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="79"/>
+      <c r="P27" s="79"/>
+      <c r="Q27" s="79"/>
+      <c r="R27" s="79"/>
+      <c r="S27" s="79"/>
+      <c r="T27" s="79"/>
+      <c r="U27" s="79"/>
+      <c r="V27" s="79"/>
+      <c r="W27" s="79"/>
+      <c r="X27" s="79"/>
+      <c r="Y27" s="79"/>
+      <c r="Z27" s="79"/>
+      <c r="AA27" s="79"/>
+      <c r="AB27" s="79"/>
+      <c r="AC27" s="79"/>
+      <c r="AD27" s="79"/>
+      <c r="AE27" s="79"/>
+      <c r="AF27" s="79"/>
+      <c r="AG27" s="79"/>
+      <c r="AH27" s="79"/>
+      <c r="AI27" s="79"/>
+      <c r="AJ27" s="79"/>
+      <c r="AK27" s="79"/>
+      <c r="AL27" s="77"/>
+      <c r="AM27" s="77"/>
+      <c r="AN27" s="77"/>
+      <c r="AO27" s="77"/>
+      <c r="AP27" s="77"/>
+      <c r="AQ27" s="77"/>
+      <c r="AR27" s="77"/>
+      <c r="AS27" s="77"/>
+      <c r="AT27" s="77"/>
+      <c r="AU27" s="77"/>
+      <c r="AV27" s="77"/>
+      <c r="AW27" s="77"/>
+      <c r="AX27" s="77"/>
+      <c r="AY27" s="77"/>
+      <c r="AZ27" s="77"/>
+      <c r="BA27" s="77"/>
+      <c r="BB27" s="77"/>
+      <c r="BC27" s="77"/>
+      <c r="BD27" s="77"/>
+      <c r="BE27" s="77"/>
+      <c r="BF27" s="77"/>
+      <c r="BG27" s="77"/>
+      <c r="BH27" s="77"/>
+      <c r="BI27" s="77"/>
+      <c r="BJ27" s="77"/>
       <c r="BK27" s="2"/>
       <c r="BL27" s="16"/>
     </row>
     <row r="28" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="16"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="71" t="s">
+      <c r="C28" s="73" t="s">
         <v>184</v>
       </c>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="72" t="s">
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="72"/>
-      <c r="N28" s="72"/>
-      <c r="O28" s="72"/>
-      <c r="P28" s="72"/>
-      <c r="Q28" s="72"/>
-      <c r="R28" s="72"/>
-      <c r="S28" s="72"/>
-      <c r="T28" s="72"/>
-      <c r="U28" s="72"/>
-      <c r="V28" s="72"/>
-      <c r="W28" s="72"/>
-      <c r="X28" s="72"/>
-      <c r="Y28" s="72"/>
-      <c r="Z28" s="72"/>
-      <c r="AA28" s="72"/>
-      <c r="AB28" s="72"/>
-      <c r="AC28" s="72"/>
-      <c r="AD28" s="72"/>
-      <c r="AE28" s="72"/>
-      <c r="AF28" s="72"/>
-      <c r="AG28" s="72"/>
-      <c r="AH28" s="72"/>
-      <c r="AI28" s="72"/>
-      <c r="AJ28" s="72"/>
-      <c r="AK28" s="72"/>
-      <c r="AL28" s="73"/>
-      <c r="AM28" s="73"/>
-      <c r="AN28" s="73"/>
-      <c r="AO28" s="73"/>
-      <c r="AP28" s="73"/>
-      <c r="AQ28" s="73"/>
-      <c r="AR28" s="73"/>
-      <c r="AS28" s="73"/>
-      <c r="AT28" s="73"/>
-      <c r="AU28" s="73"/>
-      <c r="AV28" s="73"/>
-      <c r="AW28" s="73"/>
-      <c r="AX28" s="73"/>
-      <c r="AY28" s="73"/>
-      <c r="AZ28" s="73"/>
-      <c r="BA28" s="73"/>
-      <c r="BB28" s="73"/>
-      <c r="BC28" s="73"/>
-      <c r="BD28" s="73"/>
-      <c r="BE28" s="73"/>
-      <c r="BF28" s="73"/>
-      <c r="BG28" s="73"/>
-      <c r="BH28" s="73"/>
-      <c r="BI28" s="73"/>
-      <c r="BJ28" s="73"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="79"/>
+      <c r="R28" s="79"/>
+      <c r="S28" s="79"/>
+      <c r="T28" s="79"/>
+      <c r="U28" s="79"/>
+      <c r="V28" s="79"/>
+      <c r="W28" s="79"/>
+      <c r="X28" s="79"/>
+      <c r="Y28" s="79"/>
+      <c r="Z28" s="79"/>
+      <c r="AA28" s="79"/>
+      <c r="AB28" s="79"/>
+      <c r="AC28" s="79"/>
+      <c r="AD28" s="79"/>
+      <c r="AE28" s="79"/>
+      <c r="AF28" s="79"/>
+      <c r="AG28" s="79"/>
+      <c r="AH28" s="79"/>
+      <c r="AI28" s="79"/>
+      <c r="AJ28" s="79"/>
+      <c r="AK28" s="79"/>
+      <c r="AL28" s="77"/>
+      <c r="AM28" s="77"/>
+      <c r="AN28" s="77"/>
+      <c r="AO28" s="77"/>
+      <c r="AP28" s="77"/>
+      <c r="AQ28" s="77"/>
+      <c r="AR28" s="77"/>
+      <c r="AS28" s="77"/>
+      <c r="AT28" s="77"/>
+      <c r="AU28" s="77"/>
+      <c r="AV28" s="77"/>
+      <c r="AW28" s="77"/>
+      <c r="AX28" s="77"/>
+      <c r="AY28" s="77"/>
+      <c r="AZ28" s="77"/>
+      <c r="BA28" s="77"/>
+      <c r="BB28" s="77"/>
+      <c r="BC28" s="77"/>
+      <c r="BD28" s="77"/>
+      <c r="BE28" s="77"/>
+      <c r="BF28" s="77"/>
+      <c r="BG28" s="77"/>
+      <c r="BH28" s="77"/>
+      <c r="BI28" s="77"/>
+      <c r="BJ28" s="77"/>
       <c r="BK28" s="2"/>
       <c r="BL28" s="16"/>
     </row>
     <row r="29" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="16"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="71" t="s">
+      <c r="C29" s="73" t="s">
         <v>186</v>
       </c>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="72" t="s">
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="79" t="s">
         <v>195</v>
       </c>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="72"/>
-      <c r="N29" s="72"/>
-      <c r="O29" s="72"/>
-      <c r="P29" s="72"/>
-      <c r="Q29" s="72"/>
-      <c r="R29" s="72"/>
-      <c r="S29" s="72"/>
-      <c r="T29" s="72"/>
-      <c r="U29" s="72"/>
-      <c r="V29" s="72"/>
-      <c r="W29" s="72"/>
-      <c r="X29" s="72"/>
-      <c r="Y29" s="72"/>
-      <c r="Z29" s="72"/>
-      <c r="AA29" s="72"/>
-      <c r="AB29" s="72"/>
-      <c r="AC29" s="72"/>
-      <c r="AD29" s="72"/>
-      <c r="AE29" s="72"/>
-      <c r="AF29" s="72"/>
-      <c r="AG29" s="72"/>
-      <c r="AH29" s="72"/>
-      <c r="AI29" s="72"/>
-      <c r="AJ29" s="72"/>
-      <c r="AK29" s="72"/>
-      <c r="AL29" s="73"/>
-      <c r="AM29" s="73"/>
-      <c r="AN29" s="73"/>
-      <c r="AO29" s="73"/>
-      <c r="AP29" s="73"/>
-      <c r="AQ29" s="73"/>
-      <c r="AR29" s="73"/>
-      <c r="AS29" s="73"/>
-      <c r="AT29" s="73"/>
-      <c r="AU29" s="73"/>
-      <c r="AV29" s="73"/>
-      <c r="AW29" s="73"/>
-      <c r="AX29" s="73"/>
-      <c r="AY29" s="73"/>
-      <c r="AZ29" s="73"/>
-      <c r="BA29" s="73"/>
-      <c r="BB29" s="73"/>
-      <c r="BC29" s="73"/>
-      <c r="BD29" s="73"/>
-      <c r="BE29" s="73"/>
-      <c r="BF29" s="73"/>
-      <c r="BG29" s="73"/>
-      <c r="BH29" s="73"/>
-      <c r="BI29" s="73"/>
-      <c r="BJ29" s="73"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="79"/>
+      <c r="R29" s="79"/>
+      <c r="S29" s="79"/>
+      <c r="T29" s="79"/>
+      <c r="U29" s="79"/>
+      <c r="V29" s="79"/>
+      <c r="W29" s="79"/>
+      <c r="X29" s="79"/>
+      <c r="Y29" s="79"/>
+      <c r="Z29" s="79"/>
+      <c r="AA29" s="79"/>
+      <c r="AB29" s="79"/>
+      <c r="AC29" s="79"/>
+      <c r="AD29" s="79"/>
+      <c r="AE29" s="79"/>
+      <c r="AF29" s="79"/>
+      <c r="AG29" s="79"/>
+      <c r="AH29" s="79"/>
+      <c r="AI29" s="79"/>
+      <c r="AJ29" s="79"/>
+      <c r="AK29" s="79"/>
+      <c r="AL29" s="77"/>
+      <c r="AM29" s="77"/>
+      <c r="AN29" s="77"/>
+      <c r="AO29" s="77"/>
+      <c r="AP29" s="77"/>
+      <c r="AQ29" s="77"/>
+      <c r="AR29" s="77"/>
+      <c r="AS29" s="77"/>
+      <c r="AT29" s="77"/>
+      <c r="AU29" s="77"/>
+      <c r="AV29" s="77"/>
+      <c r="AW29" s="77"/>
+      <c r="AX29" s="77"/>
+      <c r="AY29" s="77"/>
+      <c r="AZ29" s="77"/>
+      <c r="BA29" s="77"/>
+      <c r="BB29" s="77"/>
+      <c r="BC29" s="77"/>
+      <c r="BD29" s="77"/>
+      <c r="BE29" s="77"/>
+      <c r="BF29" s="77"/>
+      <c r="BG29" s="77"/>
+      <c r="BH29" s="77"/>
+      <c r="BI29" s="77"/>
+      <c r="BJ29" s="77"/>
       <c r="BK29" s="2"/>
       <c r="BL29" s="16"/>
     </row>
     <row r="30" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="16"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="71" t="s">
+      <c r="C30" s="73" t="s">
         <v>187</v>
       </c>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="72" t="s">
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="79" t="s">
         <v>196</v>
       </c>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="72"/>
-      <c r="M30" s="72"/>
-      <c r="N30" s="72"/>
-      <c r="O30" s="72"/>
-      <c r="P30" s="72"/>
-      <c r="Q30" s="72"/>
-      <c r="R30" s="72"/>
-      <c r="S30" s="72"/>
-      <c r="T30" s="72"/>
-      <c r="U30" s="72"/>
-      <c r="V30" s="72"/>
-      <c r="W30" s="72"/>
-      <c r="X30" s="72"/>
-      <c r="Y30" s="72"/>
-      <c r="Z30" s="72"/>
-      <c r="AA30" s="72"/>
-      <c r="AB30" s="72"/>
-      <c r="AC30" s="72"/>
-      <c r="AD30" s="72"/>
-      <c r="AE30" s="72"/>
-      <c r="AF30" s="72"/>
-      <c r="AG30" s="72"/>
-      <c r="AH30" s="72"/>
-      <c r="AI30" s="72"/>
-      <c r="AJ30" s="72"/>
-      <c r="AK30" s="72"/>
-      <c r="AL30" s="73"/>
-      <c r="AM30" s="73"/>
-      <c r="AN30" s="73"/>
-      <c r="AO30" s="73"/>
-      <c r="AP30" s="73"/>
-      <c r="AQ30" s="73"/>
-      <c r="AR30" s="73"/>
-      <c r="AS30" s="73"/>
-      <c r="AT30" s="73"/>
-      <c r="AU30" s="73"/>
-      <c r="AV30" s="73"/>
-      <c r="AW30" s="73"/>
-      <c r="AX30" s="73"/>
-      <c r="AY30" s="73"/>
-      <c r="AZ30" s="73"/>
-      <c r="BA30" s="73"/>
-      <c r="BB30" s="73"/>
-      <c r="BC30" s="73"/>
-      <c r="BD30" s="73"/>
-      <c r="BE30" s="73"/>
-      <c r="BF30" s="73"/>
-      <c r="BG30" s="73"/>
-      <c r="BH30" s="73"/>
-      <c r="BI30" s="73"/>
-      <c r="BJ30" s="73"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="79"/>
+      <c r="P30" s="79"/>
+      <c r="Q30" s="79"/>
+      <c r="R30" s="79"/>
+      <c r="S30" s="79"/>
+      <c r="T30" s="79"/>
+      <c r="U30" s="79"/>
+      <c r="V30" s="79"/>
+      <c r="W30" s="79"/>
+      <c r="X30" s="79"/>
+      <c r="Y30" s="79"/>
+      <c r="Z30" s="79"/>
+      <c r="AA30" s="79"/>
+      <c r="AB30" s="79"/>
+      <c r="AC30" s="79"/>
+      <c r="AD30" s="79"/>
+      <c r="AE30" s="79"/>
+      <c r="AF30" s="79"/>
+      <c r="AG30" s="79"/>
+      <c r="AH30" s="79"/>
+      <c r="AI30" s="79"/>
+      <c r="AJ30" s="79"/>
+      <c r="AK30" s="79"/>
+      <c r="AL30" s="77"/>
+      <c r="AM30" s="77"/>
+      <c r="AN30" s="77"/>
+      <c r="AO30" s="77"/>
+      <c r="AP30" s="77"/>
+      <c r="AQ30" s="77"/>
+      <c r="AR30" s="77"/>
+      <c r="AS30" s="77"/>
+      <c r="AT30" s="77"/>
+      <c r="AU30" s="77"/>
+      <c r="AV30" s="77"/>
+      <c r="AW30" s="77"/>
+      <c r="AX30" s="77"/>
+      <c r="AY30" s="77"/>
+      <c r="AZ30" s="77"/>
+      <c r="BA30" s="77"/>
+      <c r="BB30" s="77"/>
+      <c r="BC30" s="77"/>
+      <c r="BD30" s="77"/>
+      <c r="BE30" s="77"/>
+      <c r="BF30" s="77"/>
+      <c r="BG30" s="77"/>
+      <c r="BH30" s="77"/>
+      <c r="BI30" s="77"/>
+      <c r="BJ30" s="77"/>
       <c r="BK30" s="2"/>
       <c r="BL30" s="16"/>
     </row>
     <row r="31" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="16"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="71" t="s">
+      <c r="C31" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="72" t="s">
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="79" t="s">
         <v>194</v>
       </c>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="72"/>
-      <c r="N31" s="72"/>
-      <c r="O31" s="72"/>
-      <c r="P31" s="72"/>
-      <c r="Q31" s="72"/>
-      <c r="R31" s="72"/>
-      <c r="S31" s="72"/>
-      <c r="T31" s="72"/>
-      <c r="U31" s="72"/>
-      <c r="V31" s="72"/>
-      <c r="W31" s="72"/>
-      <c r="X31" s="72"/>
-      <c r="Y31" s="72"/>
-      <c r="Z31" s="72"/>
-      <c r="AA31" s="72"/>
-      <c r="AB31" s="72"/>
-      <c r="AC31" s="72"/>
-      <c r="AD31" s="72"/>
-      <c r="AE31" s="72"/>
-      <c r="AF31" s="72"/>
-      <c r="AG31" s="72"/>
-      <c r="AH31" s="72"/>
-      <c r="AI31" s="72"/>
-      <c r="AJ31" s="72"/>
-      <c r="AK31" s="72"/>
-      <c r="AL31" s="73"/>
-      <c r="AM31" s="73"/>
-      <c r="AN31" s="73"/>
-      <c r="AO31" s="73"/>
-      <c r="AP31" s="73"/>
-      <c r="AQ31" s="73"/>
-      <c r="AR31" s="73"/>
-      <c r="AS31" s="73"/>
-      <c r="AT31" s="73"/>
-      <c r="AU31" s="73"/>
-      <c r="AV31" s="73"/>
-      <c r="AW31" s="73"/>
-      <c r="AX31" s="73"/>
-      <c r="AY31" s="73"/>
-      <c r="AZ31" s="73"/>
-      <c r="BA31" s="73"/>
-      <c r="BB31" s="73"/>
-      <c r="BC31" s="73"/>
-      <c r="BD31" s="73"/>
-      <c r="BE31" s="73"/>
-      <c r="BF31" s="73"/>
-      <c r="BG31" s="73"/>
-      <c r="BH31" s="73"/>
-      <c r="BI31" s="73"/>
-      <c r="BJ31" s="73"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="79"/>
+      <c r="O31" s="79"/>
+      <c r="P31" s="79"/>
+      <c r="Q31" s="79"/>
+      <c r="R31" s="79"/>
+      <c r="S31" s="79"/>
+      <c r="T31" s="79"/>
+      <c r="U31" s="79"/>
+      <c r="V31" s="79"/>
+      <c r="W31" s="79"/>
+      <c r="X31" s="79"/>
+      <c r="Y31" s="79"/>
+      <c r="Z31" s="79"/>
+      <c r="AA31" s="79"/>
+      <c r="AB31" s="79"/>
+      <c r="AC31" s="79"/>
+      <c r="AD31" s="79"/>
+      <c r="AE31" s="79"/>
+      <c r="AF31" s="79"/>
+      <c r="AG31" s="79"/>
+      <c r="AH31" s="79"/>
+      <c r="AI31" s="79"/>
+      <c r="AJ31" s="79"/>
+      <c r="AK31" s="79"/>
+      <c r="AL31" s="77"/>
+      <c r="AM31" s="77"/>
+      <c r="AN31" s="77"/>
+      <c r="AO31" s="77"/>
+      <c r="AP31" s="77"/>
+      <c r="AQ31" s="77"/>
+      <c r="AR31" s="77"/>
+      <c r="AS31" s="77"/>
+      <c r="AT31" s="77"/>
+      <c r="AU31" s="77"/>
+      <c r="AV31" s="77"/>
+      <c r="AW31" s="77"/>
+      <c r="AX31" s="77"/>
+      <c r="AY31" s="77"/>
+      <c r="AZ31" s="77"/>
+      <c r="BA31" s="77"/>
+      <c r="BB31" s="77"/>
+      <c r="BC31" s="77"/>
+      <c r="BD31" s="77"/>
+      <c r="BE31" s="77"/>
+      <c r="BF31" s="77"/>
+      <c r="BG31" s="77"/>
+      <c r="BH31" s="77"/>
+      <c r="BI31" s="77"/>
+      <c r="BJ31" s="77"/>
       <c r="BK31" s="2"/>
       <c r="BL31" s="16"/>
     </row>
     <row r="32" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="16"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="71" t="s">
+      <c r="C32" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="72" t="s">
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="79" t="s">
         <v>197</v>
       </c>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="72"/>
-      <c r="N32" s="72"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="72"/>
-      <c r="Q32" s="72"/>
-      <c r="R32" s="72"/>
-      <c r="S32" s="72"/>
-      <c r="T32" s="72"/>
-      <c r="U32" s="72"/>
-      <c r="V32" s="72"/>
-      <c r="W32" s="72"/>
-      <c r="X32" s="72"/>
-      <c r="Y32" s="72"/>
-      <c r="Z32" s="72"/>
-      <c r="AA32" s="72"/>
-      <c r="AB32" s="72"/>
-      <c r="AC32" s="72"/>
-      <c r="AD32" s="72"/>
-      <c r="AE32" s="72"/>
-      <c r="AF32" s="72"/>
-      <c r="AG32" s="72"/>
-      <c r="AH32" s="72"/>
-      <c r="AI32" s="72"/>
-      <c r="AJ32" s="72"/>
-      <c r="AK32" s="72"/>
-      <c r="AL32" s="73"/>
-      <c r="AM32" s="73"/>
-      <c r="AN32" s="73"/>
-      <c r="AO32" s="73"/>
-      <c r="AP32" s="73"/>
-      <c r="AQ32" s="73"/>
-      <c r="AR32" s="73"/>
-      <c r="AS32" s="73"/>
-      <c r="AT32" s="73"/>
-      <c r="AU32" s="73"/>
-      <c r="AV32" s="73"/>
-      <c r="AW32" s="73"/>
-      <c r="AX32" s="73"/>
-      <c r="AY32" s="73"/>
-      <c r="AZ32" s="73"/>
-      <c r="BA32" s="73"/>
-      <c r="BB32" s="73"/>
-      <c r="BC32" s="73"/>
-      <c r="BD32" s="73"/>
-      <c r="BE32" s="73"/>
-      <c r="BF32" s="73"/>
-      <c r="BG32" s="73"/>
-      <c r="BH32" s="73"/>
-      <c r="BI32" s="73"/>
-      <c r="BJ32" s="73"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="79"/>
+      <c r="M32" s="79"/>
+      <c r="N32" s="79"/>
+      <c r="O32" s="79"/>
+      <c r="P32" s="79"/>
+      <c r="Q32" s="79"/>
+      <c r="R32" s="79"/>
+      <c r="S32" s="79"/>
+      <c r="T32" s="79"/>
+      <c r="U32" s="79"/>
+      <c r="V32" s="79"/>
+      <c r="W32" s="79"/>
+      <c r="X32" s="79"/>
+      <c r="Y32" s="79"/>
+      <c r="Z32" s="79"/>
+      <c r="AA32" s="79"/>
+      <c r="AB32" s="79"/>
+      <c r="AC32" s="79"/>
+      <c r="AD32" s="79"/>
+      <c r="AE32" s="79"/>
+      <c r="AF32" s="79"/>
+      <c r="AG32" s="79"/>
+      <c r="AH32" s="79"/>
+      <c r="AI32" s="79"/>
+      <c r="AJ32" s="79"/>
+      <c r="AK32" s="79"/>
+      <c r="AL32" s="77"/>
+      <c r="AM32" s="77"/>
+      <c r="AN32" s="77"/>
+      <c r="AO32" s="77"/>
+      <c r="AP32" s="77"/>
+      <c r="AQ32" s="77"/>
+      <c r="AR32" s="77"/>
+      <c r="AS32" s="77"/>
+      <c r="AT32" s="77"/>
+      <c r="AU32" s="77"/>
+      <c r="AV32" s="77"/>
+      <c r="AW32" s="77"/>
+      <c r="AX32" s="77"/>
+      <c r="AY32" s="77"/>
+      <c r="AZ32" s="77"/>
+      <c r="BA32" s="77"/>
+      <c r="BB32" s="77"/>
+      <c r="BC32" s="77"/>
+      <c r="BD32" s="77"/>
+      <c r="BE32" s="77"/>
+      <c r="BF32" s="77"/>
+      <c r="BG32" s="77"/>
+      <c r="BH32" s="77"/>
+      <c r="BI32" s="77"/>
+      <c r="BJ32" s="77"/>
       <c r="BK32" s="2"/>
       <c r="BL32" s="16"/>
     </row>
     <row r="33" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="16"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="71" t="s">
+      <c r="C33" s="73" t="s">
         <v>190</v>
       </c>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="72" t="s">
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="79" t="s">
         <v>198</v>
       </c>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="72"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="72"/>
-      <c r="N33" s="72"/>
-      <c r="O33" s="72"/>
-      <c r="P33" s="72"/>
-      <c r="Q33" s="72"/>
-      <c r="R33" s="72"/>
-      <c r="S33" s="72"/>
-      <c r="T33" s="72"/>
-      <c r="U33" s="72"/>
-      <c r="V33" s="72"/>
-      <c r="W33" s="72"/>
-      <c r="X33" s="72"/>
-      <c r="Y33" s="72"/>
-      <c r="Z33" s="72"/>
-      <c r="AA33" s="72"/>
-      <c r="AB33" s="72"/>
-      <c r="AC33" s="72"/>
-      <c r="AD33" s="72"/>
-      <c r="AE33" s="72"/>
-      <c r="AF33" s="72"/>
-      <c r="AG33" s="72"/>
-      <c r="AH33" s="72"/>
-      <c r="AI33" s="72"/>
-      <c r="AJ33" s="72"/>
-      <c r="AK33" s="72"/>
-      <c r="AL33" s="73"/>
-      <c r="AM33" s="73"/>
-      <c r="AN33" s="73"/>
-      <c r="AO33" s="73"/>
-      <c r="AP33" s="73"/>
-      <c r="AQ33" s="73"/>
-      <c r="AR33" s="73"/>
-      <c r="AS33" s="73"/>
-      <c r="AT33" s="73"/>
-      <c r="AU33" s="73"/>
-      <c r="AV33" s="73"/>
-      <c r="AW33" s="73"/>
-      <c r="AX33" s="73"/>
-      <c r="AY33" s="73"/>
-      <c r="AZ33" s="73"/>
-      <c r="BA33" s="73"/>
-      <c r="BB33" s="73"/>
-      <c r="BC33" s="73"/>
-      <c r="BD33" s="73"/>
-      <c r="BE33" s="73"/>
-      <c r="BF33" s="73"/>
-      <c r="BG33" s="73"/>
-      <c r="BH33" s="73"/>
-      <c r="BI33" s="73"/>
-      <c r="BJ33" s="73"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="79"/>
+      <c r="O33" s="79"/>
+      <c r="P33" s="79"/>
+      <c r="Q33" s="79"/>
+      <c r="R33" s="79"/>
+      <c r="S33" s="79"/>
+      <c r="T33" s="79"/>
+      <c r="U33" s="79"/>
+      <c r="V33" s="79"/>
+      <c r="W33" s="79"/>
+      <c r="X33" s="79"/>
+      <c r="Y33" s="79"/>
+      <c r="Z33" s="79"/>
+      <c r="AA33" s="79"/>
+      <c r="AB33" s="79"/>
+      <c r="AC33" s="79"/>
+      <c r="AD33" s="79"/>
+      <c r="AE33" s="79"/>
+      <c r="AF33" s="79"/>
+      <c r="AG33" s="79"/>
+      <c r="AH33" s="79"/>
+      <c r="AI33" s="79"/>
+      <c r="AJ33" s="79"/>
+      <c r="AK33" s="79"/>
+      <c r="AL33" s="77"/>
+      <c r="AM33" s="77"/>
+      <c r="AN33" s="77"/>
+      <c r="AO33" s="77"/>
+      <c r="AP33" s="77"/>
+      <c r="AQ33" s="77"/>
+      <c r="AR33" s="77"/>
+      <c r="AS33" s="77"/>
+      <c r="AT33" s="77"/>
+      <c r="AU33" s="77"/>
+      <c r="AV33" s="77"/>
+      <c r="AW33" s="77"/>
+      <c r="AX33" s="77"/>
+      <c r="AY33" s="77"/>
+      <c r="AZ33" s="77"/>
+      <c r="BA33" s="77"/>
+      <c r="BB33" s="77"/>
+      <c r="BC33" s="77"/>
+      <c r="BD33" s="77"/>
+      <c r="BE33" s="77"/>
+      <c r="BF33" s="77"/>
+      <c r="BG33" s="77"/>
+      <c r="BH33" s="77"/>
+      <c r="BI33" s="77"/>
+      <c r="BJ33" s="77"/>
       <c r="BK33" s="2"/>
       <c r="BL33" s="16"/>
     </row>
     <row r="34" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="16"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="71" t="s">
+      <c r="C34" s="73" t="s">
         <v>191</v>
       </c>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="72" t="s">
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="79" t="s">
         <v>199</v>
       </c>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="72"/>
-      <c r="P34" s="72"/>
-      <c r="Q34" s="72"/>
-      <c r="R34" s="72"/>
-      <c r="S34" s="72"/>
-      <c r="T34" s="72"/>
-      <c r="U34" s="72"/>
-      <c r="V34" s="72"/>
-      <c r="W34" s="72"/>
-      <c r="X34" s="72"/>
-      <c r="Y34" s="72"/>
-      <c r="Z34" s="72"/>
-      <c r="AA34" s="72"/>
-      <c r="AB34" s="72"/>
-      <c r="AC34" s="72"/>
-      <c r="AD34" s="72"/>
-      <c r="AE34" s="72"/>
-      <c r="AF34" s="72"/>
-      <c r="AG34" s="72"/>
-      <c r="AH34" s="72"/>
-      <c r="AI34" s="72"/>
-      <c r="AJ34" s="72"/>
-      <c r="AK34" s="72"/>
-      <c r="AL34" s="73"/>
-      <c r="AM34" s="73"/>
-      <c r="AN34" s="73"/>
-      <c r="AO34" s="73"/>
-      <c r="AP34" s="73"/>
-      <c r="AQ34" s="73"/>
-      <c r="AR34" s="73"/>
-      <c r="AS34" s="73"/>
-      <c r="AT34" s="73"/>
-      <c r="AU34" s="73"/>
-      <c r="AV34" s="73"/>
-      <c r="AW34" s="73"/>
-      <c r="AX34" s="73"/>
-      <c r="AY34" s="73"/>
-      <c r="AZ34" s="73"/>
-      <c r="BA34" s="73"/>
-      <c r="BB34" s="73"/>
-      <c r="BC34" s="73"/>
-      <c r="BD34" s="73"/>
-      <c r="BE34" s="73"/>
-      <c r="BF34" s="73"/>
-      <c r="BG34" s="73"/>
-      <c r="BH34" s="73"/>
-      <c r="BI34" s="73"/>
-      <c r="BJ34" s="73"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="79"/>
+      <c r="K34" s="79"/>
+      <c r="L34" s="79"/>
+      <c r="M34" s="79"/>
+      <c r="N34" s="79"/>
+      <c r="O34" s="79"/>
+      <c r="P34" s="79"/>
+      <c r="Q34" s="79"/>
+      <c r="R34" s="79"/>
+      <c r="S34" s="79"/>
+      <c r="T34" s="79"/>
+      <c r="U34" s="79"/>
+      <c r="V34" s="79"/>
+      <c r="W34" s="79"/>
+      <c r="X34" s="79"/>
+      <c r="Y34" s="79"/>
+      <c r="Z34" s="79"/>
+      <c r="AA34" s="79"/>
+      <c r="AB34" s="79"/>
+      <c r="AC34" s="79"/>
+      <c r="AD34" s="79"/>
+      <c r="AE34" s="79"/>
+      <c r="AF34" s="79"/>
+      <c r="AG34" s="79"/>
+      <c r="AH34" s="79"/>
+      <c r="AI34" s="79"/>
+      <c r="AJ34" s="79"/>
+      <c r="AK34" s="79"/>
+      <c r="AL34" s="77"/>
+      <c r="AM34" s="77"/>
+      <c r="AN34" s="77"/>
+      <c r="AO34" s="77"/>
+      <c r="AP34" s="77"/>
+      <c r="AQ34" s="77"/>
+      <c r="AR34" s="77"/>
+      <c r="AS34" s="77"/>
+      <c r="AT34" s="77"/>
+      <c r="AU34" s="77"/>
+      <c r="AV34" s="77"/>
+      <c r="AW34" s="77"/>
+      <c r="AX34" s="77"/>
+      <c r="AY34" s="77"/>
+      <c r="AZ34" s="77"/>
+      <c r="BA34" s="77"/>
+      <c r="BB34" s="77"/>
+      <c r="BC34" s="77"/>
+      <c r="BD34" s="77"/>
+      <c r="BE34" s="77"/>
+      <c r="BF34" s="77"/>
+      <c r="BG34" s="77"/>
+      <c r="BH34" s="77"/>
+      <c r="BI34" s="77"/>
+      <c r="BJ34" s="77"/>
       <c r="BK34" s="2"/>
       <c r="BL34" s="16"/>
     </row>
     <row r="35" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="16"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="71" t="s">
+      <c r="C35" s="73" t="s">
         <v>192</v>
       </c>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="72" t="s">
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="72"/>
-      <c r="N35" s="72"/>
-      <c r="O35" s="72"/>
-      <c r="P35" s="72"/>
-      <c r="Q35" s="72"/>
-      <c r="R35" s="72"/>
-      <c r="S35" s="72"/>
-      <c r="T35" s="72"/>
-      <c r="U35" s="72"/>
-      <c r="V35" s="72"/>
-      <c r="W35" s="72"/>
-      <c r="X35" s="72"/>
-      <c r="Y35" s="72"/>
-      <c r="Z35" s="72"/>
-      <c r="AA35" s="72"/>
-      <c r="AB35" s="72"/>
-      <c r="AC35" s="72"/>
-      <c r="AD35" s="72"/>
-      <c r="AE35" s="72"/>
-      <c r="AF35" s="72"/>
-      <c r="AG35" s="72"/>
-      <c r="AH35" s="72"/>
-      <c r="AI35" s="72"/>
-      <c r="AJ35" s="72"/>
-      <c r="AK35" s="72"/>
-      <c r="AL35" s="73"/>
-      <c r="AM35" s="73"/>
-      <c r="AN35" s="73"/>
-      <c r="AO35" s="73"/>
-      <c r="AP35" s="73"/>
-      <c r="AQ35" s="73"/>
-      <c r="AR35" s="73"/>
-      <c r="AS35" s="73"/>
-      <c r="AT35" s="73"/>
-      <c r="AU35" s="73"/>
-      <c r="AV35" s="73"/>
-      <c r="AW35" s="73"/>
-      <c r="AX35" s="73"/>
-      <c r="AY35" s="73"/>
-      <c r="AZ35" s="73"/>
-      <c r="BA35" s="73"/>
-      <c r="BB35" s="73"/>
-      <c r="BC35" s="73"/>
-      <c r="BD35" s="73"/>
-      <c r="BE35" s="73"/>
-      <c r="BF35" s="73"/>
-      <c r="BG35" s="73"/>
-      <c r="BH35" s="73"/>
-      <c r="BI35" s="73"/>
-      <c r="BJ35" s="73"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="79"/>
+      <c r="K35" s="79"/>
+      <c r="L35" s="79"/>
+      <c r="M35" s="79"/>
+      <c r="N35" s="79"/>
+      <c r="O35" s="79"/>
+      <c r="P35" s="79"/>
+      <c r="Q35" s="79"/>
+      <c r="R35" s="79"/>
+      <c r="S35" s="79"/>
+      <c r="T35" s="79"/>
+      <c r="U35" s="79"/>
+      <c r="V35" s="79"/>
+      <c r="W35" s="79"/>
+      <c r="X35" s="79"/>
+      <c r="Y35" s="79"/>
+      <c r="Z35" s="79"/>
+      <c r="AA35" s="79"/>
+      <c r="AB35" s="79"/>
+      <c r="AC35" s="79"/>
+      <c r="AD35" s="79"/>
+      <c r="AE35" s="79"/>
+      <c r="AF35" s="79"/>
+      <c r="AG35" s="79"/>
+      <c r="AH35" s="79"/>
+      <c r="AI35" s="79"/>
+      <c r="AJ35" s="79"/>
+      <c r="AK35" s="79"/>
+      <c r="AL35" s="77"/>
+      <c r="AM35" s="77"/>
+      <c r="AN35" s="77"/>
+      <c r="AO35" s="77"/>
+      <c r="AP35" s="77"/>
+      <c r="AQ35" s="77"/>
+      <c r="AR35" s="77"/>
+      <c r="AS35" s="77"/>
+      <c r="AT35" s="77"/>
+      <c r="AU35" s="77"/>
+      <c r="AV35" s="77"/>
+      <c r="AW35" s="77"/>
+      <c r="AX35" s="77"/>
+      <c r="AY35" s="77"/>
+      <c r="AZ35" s="77"/>
+      <c r="BA35" s="77"/>
+      <c r="BB35" s="77"/>
+      <c r="BC35" s="77"/>
+      <c r="BD35" s="77"/>
+      <c r="BE35" s="77"/>
+      <c r="BF35" s="77"/>
+      <c r="BG35" s="77"/>
+      <c r="BH35" s="77"/>
+      <c r="BI35" s="77"/>
+      <c r="BJ35" s="77"/>
       <c r="BK35" s="2"/>
       <c r="BL35" s="16"/>
     </row>
     <row r="36" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="16"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="71" t="s">
+      <c r="C36" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="72" t="s">
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="79" t="s">
         <v>201</v>
       </c>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="72"/>
-      <c r="N36" s="72"/>
-      <c r="O36" s="72"/>
-      <c r="P36" s="72"/>
-      <c r="Q36" s="72"/>
-      <c r="R36" s="72"/>
-      <c r="S36" s="72"/>
-      <c r="T36" s="72"/>
-      <c r="U36" s="72"/>
-      <c r="V36" s="72"/>
-      <c r="W36" s="72"/>
-      <c r="X36" s="72"/>
-      <c r="Y36" s="72"/>
-      <c r="Z36" s="72"/>
-      <c r="AA36" s="72"/>
-      <c r="AB36" s="72"/>
-      <c r="AC36" s="72"/>
-      <c r="AD36" s="72"/>
-      <c r="AE36" s="72"/>
-      <c r="AF36" s="72"/>
-      <c r="AG36" s="72"/>
-      <c r="AH36" s="72"/>
-      <c r="AI36" s="72"/>
-      <c r="AJ36" s="72"/>
-      <c r="AK36" s="72"/>
-      <c r="AL36" s="73"/>
-      <c r="AM36" s="73"/>
-      <c r="AN36" s="73"/>
-      <c r="AO36" s="73"/>
-      <c r="AP36" s="73"/>
-      <c r="AQ36" s="73"/>
-      <c r="AR36" s="73"/>
-      <c r="AS36" s="73"/>
-      <c r="AT36" s="73"/>
-      <c r="AU36" s="73"/>
-      <c r="AV36" s="73"/>
-      <c r="AW36" s="73"/>
-      <c r="AX36" s="73"/>
-      <c r="AY36" s="73"/>
-      <c r="AZ36" s="73"/>
-      <c r="BA36" s="73"/>
-      <c r="BB36" s="73"/>
-      <c r="BC36" s="73"/>
-      <c r="BD36" s="73"/>
-      <c r="BE36" s="73"/>
-      <c r="BF36" s="73"/>
-      <c r="BG36" s="73"/>
-      <c r="BH36" s="73"/>
-      <c r="BI36" s="73"/>
-      <c r="BJ36" s="73"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="79"/>
+      <c r="L36" s="79"/>
+      <c r="M36" s="79"/>
+      <c r="N36" s="79"/>
+      <c r="O36" s="79"/>
+      <c r="P36" s="79"/>
+      <c r="Q36" s="79"/>
+      <c r="R36" s="79"/>
+      <c r="S36" s="79"/>
+      <c r="T36" s="79"/>
+      <c r="U36" s="79"/>
+      <c r="V36" s="79"/>
+      <c r="W36" s="79"/>
+      <c r="X36" s="79"/>
+      <c r="Y36" s="79"/>
+      <c r="Z36" s="79"/>
+      <c r="AA36" s="79"/>
+      <c r="AB36" s="79"/>
+      <c r="AC36" s="79"/>
+      <c r="AD36" s="79"/>
+      <c r="AE36" s="79"/>
+      <c r="AF36" s="79"/>
+      <c r="AG36" s="79"/>
+      <c r="AH36" s="79"/>
+      <c r="AI36" s="79"/>
+      <c r="AJ36" s="79"/>
+      <c r="AK36" s="79"/>
+      <c r="AL36" s="77"/>
+      <c r="AM36" s="77"/>
+      <c r="AN36" s="77"/>
+      <c r="AO36" s="77"/>
+      <c r="AP36" s="77"/>
+      <c r="AQ36" s="77"/>
+      <c r="AR36" s="77"/>
+      <c r="AS36" s="77"/>
+      <c r="AT36" s="77"/>
+      <c r="AU36" s="77"/>
+      <c r="AV36" s="77"/>
+      <c r="AW36" s="77"/>
+      <c r="AX36" s="77"/>
+      <c r="AY36" s="77"/>
+      <c r="AZ36" s="77"/>
+      <c r="BA36" s="77"/>
+      <c r="BB36" s="77"/>
+      <c r="BC36" s="77"/>
+      <c r="BD36" s="77"/>
+      <c r="BE36" s="77"/>
+      <c r="BF36" s="77"/>
+      <c r="BG36" s="77"/>
+      <c r="BH36" s="77"/>
+      <c r="BI36" s="77"/>
+      <c r="BJ36" s="77"/>
       <c r="BK36" s="2"/>
       <c r="BL36" s="16"/>
     </row>
     <row r="37" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="16"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="71" t="s">
+      <c r="C37" s="73" t="s">
         <v>204</v>
       </c>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="72" t="s">
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="79" t="s">
         <v>205</v>
       </c>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="72"/>
-      <c r="N37" s="72"/>
-      <c r="O37" s="72"/>
-      <c r="P37" s="72"/>
-      <c r="Q37" s="72"/>
-      <c r="R37" s="72"/>
-      <c r="S37" s="72"/>
-      <c r="T37" s="72"/>
-      <c r="U37" s="72"/>
-      <c r="V37" s="72"/>
-      <c r="W37" s="72"/>
-      <c r="X37" s="72"/>
-      <c r="Y37" s="72"/>
-      <c r="Z37" s="72"/>
-      <c r="AA37" s="72"/>
-      <c r="AB37" s="72"/>
-      <c r="AC37" s="72"/>
-      <c r="AD37" s="72"/>
-      <c r="AE37" s="72"/>
-      <c r="AF37" s="72"/>
-      <c r="AG37" s="72"/>
-      <c r="AH37" s="72"/>
-      <c r="AI37" s="72"/>
-      <c r="AJ37" s="72"/>
-      <c r="AK37" s="72"/>
-      <c r="AL37" s="73"/>
-      <c r="AM37" s="73"/>
-      <c r="AN37" s="73"/>
-      <c r="AO37" s="73"/>
-      <c r="AP37" s="73"/>
-      <c r="AQ37" s="73"/>
-      <c r="AR37" s="73"/>
-      <c r="AS37" s="73"/>
-      <c r="AT37" s="73"/>
-      <c r="AU37" s="73"/>
-      <c r="AV37" s="73"/>
-      <c r="AW37" s="73"/>
-      <c r="AX37" s="73"/>
-      <c r="AY37" s="73"/>
-      <c r="AZ37" s="73"/>
-      <c r="BA37" s="73"/>
-      <c r="BB37" s="73"/>
-      <c r="BC37" s="73"/>
-      <c r="BD37" s="73"/>
-      <c r="BE37" s="73"/>
-      <c r="BF37" s="73"/>
-      <c r="BG37" s="73"/>
-      <c r="BH37" s="73"/>
-      <c r="BI37" s="73"/>
-      <c r="BJ37" s="73"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="79"/>
+      <c r="K37" s="79"/>
+      <c r="L37" s="79"/>
+      <c r="M37" s="79"/>
+      <c r="N37" s="79"/>
+      <c r="O37" s="79"/>
+      <c r="P37" s="79"/>
+      <c r="Q37" s="79"/>
+      <c r="R37" s="79"/>
+      <c r="S37" s="79"/>
+      <c r="T37" s="79"/>
+      <c r="U37" s="79"/>
+      <c r="V37" s="79"/>
+      <c r="W37" s="79"/>
+      <c r="X37" s="79"/>
+      <c r="Y37" s="79"/>
+      <c r="Z37" s="79"/>
+      <c r="AA37" s="79"/>
+      <c r="AB37" s="79"/>
+      <c r="AC37" s="79"/>
+      <c r="AD37" s="79"/>
+      <c r="AE37" s="79"/>
+      <c r="AF37" s="79"/>
+      <c r="AG37" s="79"/>
+      <c r="AH37" s="79"/>
+      <c r="AI37" s="79"/>
+      <c r="AJ37" s="79"/>
+      <c r="AK37" s="79"/>
+      <c r="AL37" s="77"/>
+      <c r="AM37" s="77"/>
+      <c r="AN37" s="77"/>
+      <c r="AO37" s="77"/>
+      <c r="AP37" s="77"/>
+      <c r="AQ37" s="77"/>
+      <c r="AR37" s="77"/>
+      <c r="AS37" s="77"/>
+      <c r="AT37" s="77"/>
+      <c r="AU37" s="77"/>
+      <c r="AV37" s="77"/>
+      <c r="AW37" s="77"/>
+      <c r="AX37" s="77"/>
+      <c r="AY37" s="77"/>
+      <c r="AZ37" s="77"/>
+      <c r="BA37" s="77"/>
+      <c r="BB37" s="77"/>
+      <c r="BC37" s="77"/>
+      <c r="BD37" s="77"/>
+      <c r="BE37" s="77"/>
+      <c r="BF37" s="77"/>
+      <c r="BG37" s="77"/>
+      <c r="BH37" s="77"/>
+      <c r="BI37" s="77"/>
+      <c r="BJ37" s="77"/>
       <c r="BK37" s="2"/>
       <c r="BL37" s="16"/>
     </row>
     <row r="38" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="16"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="71" t="s">
+      <c r="C38" s="73" t="s">
         <v>206</v>
       </c>
-      <c r="D38" s="71"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="72" t="s">
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="79" t="s">
         <v>207</v>
       </c>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="72"/>
-      <c r="J38" s="72"/>
-      <c r="K38" s="72"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="72"/>
-      <c r="N38" s="72"/>
-      <c r="O38" s="72"/>
-      <c r="P38" s="72"/>
-      <c r="Q38" s="72"/>
-      <c r="R38" s="72"/>
-      <c r="S38" s="72"/>
-      <c r="T38" s="72"/>
-      <c r="U38" s="72"/>
-      <c r="V38" s="72"/>
-      <c r="W38" s="72"/>
-      <c r="X38" s="72"/>
-      <c r="Y38" s="72"/>
-      <c r="Z38" s="72"/>
-      <c r="AA38" s="72"/>
-      <c r="AB38" s="72"/>
-      <c r="AC38" s="72"/>
-      <c r="AD38" s="72"/>
-      <c r="AE38" s="72"/>
-      <c r="AF38" s="72"/>
-      <c r="AG38" s="72"/>
-      <c r="AH38" s="72"/>
-      <c r="AI38" s="72"/>
-      <c r="AJ38" s="72"/>
-      <c r="AK38" s="72"/>
-      <c r="AL38" s="73"/>
-      <c r="AM38" s="73"/>
-      <c r="AN38" s="73"/>
-      <c r="AO38" s="73"/>
-      <c r="AP38" s="73"/>
-      <c r="AQ38" s="73"/>
-      <c r="AR38" s="73"/>
-      <c r="AS38" s="73"/>
-      <c r="AT38" s="73"/>
-      <c r="AU38" s="73"/>
-      <c r="AV38" s="73"/>
-      <c r="AW38" s="73"/>
-      <c r="AX38" s="73"/>
-      <c r="AY38" s="73"/>
-      <c r="AZ38" s="73"/>
-      <c r="BA38" s="73"/>
-      <c r="BB38" s="73"/>
-      <c r="BC38" s="73"/>
-      <c r="BD38" s="73"/>
-      <c r="BE38" s="73"/>
-      <c r="BF38" s="73"/>
-      <c r="BG38" s="73"/>
-      <c r="BH38" s="73"/>
-      <c r="BI38" s="73"/>
-      <c r="BJ38" s="73"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="79"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="79"/>
+      <c r="K38" s="79"/>
+      <c r="L38" s="79"/>
+      <c r="M38" s="79"/>
+      <c r="N38" s="79"/>
+      <c r="O38" s="79"/>
+      <c r="P38" s="79"/>
+      <c r="Q38" s="79"/>
+      <c r="R38" s="79"/>
+      <c r="S38" s="79"/>
+      <c r="T38" s="79"/>
+      <c r="U38" s="79"/>
+      <c r="V38" s="79"/>
+      <c r="W38" s="79"/>
+      <c r="X38" s="79"/>
+      <c r="Y38" s="79"/>
+      <c r="Z38" s="79"/>
+      <c r="AA38" s="79"/>
+      <c r="AB38" s="79"/>
+      <c r="AC38" s="79"/>
+      <c r="AD38" s="79"/>
+      <c r="AE38" s="79"/>
+      <c r="AF38" s="79"/>
+      <c r="AG38" s="79"/>
+      <c r="AH38" s="79"/>
+      <c r="AI38" s="79"/>
+      <c r="AJ38" s="79"/>
+      <c r="AK38" s="79"/>
+      <c r="AL38" s="77"/>
+      <c r="AM38" s="77"/>
+      <c r="AN38" s="77"/>
+      <c r="AO38" s="77"/>
+      <c r="AP38" s="77"/>
+      <c r="AQ38" s="77"/>
+      <c r="AR38" s="77"/>
+      <c r="AS38" s="77"/>
+      <c r="AT38" s="77"/>
+      <c r="AU38" s="77"/>
+      <c r="AV38" s="77"/>
+      <c r="AW38" s="77"/>
+      <c r="AX38" s="77"/>
+      <c r="AY38" s="77"/>
+      <c r="AZ38" s="77"/>
+      <c r="BA38" s="77"/>
+      <c r="BB38" s="77"/>
+      <c r="BC38" s="77"/>
+      <c r="BD38" s="77"/>
+      <c r="BE38" s="77"/>
+      <c r="BF38" s="77"/>
+      <c r="BG38" s="77"/>
+      <c r="BH38" s="77"/>
+      <c r="BI38" s="77"/>
+      <c r="BJ38" s="77"/>
       <c r="BK38" s="2"/>
       <c r="BL38" s="16"/>
     </row>
     <row r="39" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="71" t="s">
+      <c r="C39" s="73" t="s">
         <v>208</v>
       </c>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="72" t="s">
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="79" t="s">
         <v>209</v>
       </c>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="72"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="72"/>
-      <c r="N39" s="72"/>
-      <c r="O39" s="72"/>
-      <c r="P39" s="72"/>
-      <c r="Q39" s="72"/>
-      <c r="R39" s="72"/>
-      <c r="S39" s="72"/>
-      <c r="T39" s="72"/>
-      <c r="U39" s="72"/>
-      <c r="V39" s="72"/>
-      <c r="W39" s="72"/>
-      <c r="X39" s="72"/>
-      <c r="Y39" s="72"/>
-      <c r="Z39" s="72"/>
-      <c r="AA39" s="72"/>
-      <c r="AB39" s="72"/>
-      <c r="AC39" s="72"/>
-      <c r="AD39" s="72"/>
-      <c r="AE39" s="72"/>
-      <c r="AF39" s="72"/>
-      <c r="AG39" s="72"/>
-      <c r="AH39" s="72"/>
-      <c r="AI39" s="72"/>
-      <c r="AJ39" s="72"/>
-      <c r="AK39" s="72"/>
-      <c r="AL39" s="73"/>
-      <c r="AM39" s="73"/>
-      <c r="AN39" s="73"/>
-      <c r="AO39" s="73"/>
-      <c r="AP39" s="73"/>
-      <c r="AQ39" s="73"/>
-      <c r="AR39" s="73"/>
-      <c r="AS39" s="73"/>
-      <c r="AT39" s="73"/>
-      <c r="AU39" s="73"/>
-      <c r="AV39" s="73"/>
-      <c r="AW39" s="73"/>
-      <c r="AX39" s="73"/>
-      <c r="AY39" s="73"/>
-      <c r="AZ39" s="73"/>
-      <c r="BA39" s="73"/>
-      <c r="BB39" s="73"/>
-      <c r="BC39" s="73"/>
-      <c r="BD39" s="73"/>
-      <c r="BE39" s="73"/>
-      <c r="BF39" s="73"/>
-      <c r="BG39" s="73"/>
-      <c r="BH39" s="73"/>
-      <c r="BI39" s="73"/>
-      <c r="BJ39" s="73"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="79"/>
+      <c r="I39" s="79"/>
+      <c r="J39" s="79"/>
+      <c r="K39" s="79"/>
+      <c r="L39" s="79"/>
+      <c r="M39" s="79"/>
+      <c r="N39" s="79"/>
+      <c r="O39" s="79"/>
+      <c r="P39" s="79"/>
+      <c r="Q39" s="79"/>
+      <c r="R39" s="79"/>
+      <c r="S39" s="79"/>
+      <c r="T39" s="79"/>
+      <c r="U39" s="79"/>
+      <c r="V39" s="79"/>
+      <c r="W39" s="79"/>
+      <c r="X39" s="79"/>
+      <c r="Y39" s="79"/>
+      <c r="Z39" s="79"/>
+      <c r="AA39" s="79"/>
+      <c r="AB39" s="79"/>
+      <c r="AC39" s="79"/>
+      <c r="AD39" s="79"/>
+      <c r="AE39" s="79"/>
+      <c r="AF39" s="79"/>
+      <c r="AG39" s="79"/>
+      <c r="AH39" s="79"/>
+      <c r="AI39" s="79"/>
+      <c r="AJ39" s="79"/>
+      <c r="AK39" s="79"/>
+      <c r="AL39" s="77"/>
+      <c r="AM39" s="77"/>
+      <c r="AN39" s="77"/>
+      <c r="AO39" s="77"/>
+      <c r="AP39" s="77"/>
+      <c r="AQ39" s="77"/>
+      <c r="AR39" s="77"/>
+      <c r="AS39" s="77"/>
+      <c r="AT39" s="77"/>
+      <c r="AU39" s="77"/>
+      <c r="AV39" s="77"/>
+      <c r="AW39" s="77"/>
+      <c r="AX39" s="77"/>
+      <c r="AY39" s="77"/>
+      <c r="AZ39" s="77"/>
+      <c r="BA39" s="77"/>
+      <c r="BB39" s="77"/>
+      <c r="BC39" s="77"/>
+      <c r="BD39" s="77"/>
+      <c r="BE39" s="77"/>
+      <c r="BF39" s="77"/>
+      <c r="BG39" s="77"/>
+      <c r="BH39" s="77"/>
+      <c r="BI39" s="77"/>
+      <c r="BJ39" s="77"/>
       <c r="BK39" s="2"/>
       <c r="BL39" s="16"/>
     </row>
     <row r="40" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="16"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="71" t="s">
+      <c r="C40" s="73" t="s">
         <v>210</v>
       </c>
-      <c r="D40" s="71"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="72" t="s">
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="79" t="s">
         <v>211</v>
       </c>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="72"/>
-      <c r="K40" s="72"/>
-      <c r="L40" s="72"/>
-      <c r="M40" s="72"/>
-      <c r="N40" s="72"/>
-      <c r="O40" s="72"/>
-      <c r="P40" s="72"/>
-      <c r="Q40" s="72"/>
-      <c r="R40" s="72"/>
-      <c r="S40" s="72"/>
-      <c r="T40" s="72"/>
-      <c r="U40" s="72"/>
-      <c r="V40" s="72"/>
-      <c r="W40" s="72"/>
-      <c r="X40" s="72"/>
-      <c r="Y40" s="72"/>
-      <c r="Z40" s="72"/>
-      <c r="AA40" s="72"/>
-      <c r="AB40" s="72"/>
-      <c r="AC40" s="72"/>
-      <c r="AD40" s="72"/>
-      <c r="AE40" s="72"/>
-      <c r="AF40" s="72"/>
-      <c r="AG40" s="72"/>
-      <c r="AH40" s="72"/>
-      <c r="AI40" s="72"/>
-      <c r="AJ40" s="72"/>
-      <c r="AK40" s="72"/>
-      <c r="AL40" s="73"/>
-      <c r="AM40" s="73"/>
-      <c r="AN40" s="73"/>
-      <c r="AO40" s="73"/>
-      <c r="AP40" s="73"/>
-      <c r="AQ40" s="73"/>
-      <c r="AR40" s="73"/>
-      <c r="AS40" s="73"/>
-      <c r="AT40" s="73"/>
-      <c r="AU40" s="73"/>
-      <c r="AV40" s="73"/>
-      <c r="AW40" s="73"/>
-      <c r="AX40" s="73"/>
-      <c r="AY40" s="73"/>
-      <c r="AZ40" s="73"/>
-      <c r="BA40" s="73"/>
-      <c r="BB40" s="73"/>
-      <c r="BC40" s="73"/>
-      <c r="BD40" s="73"/>
-      <c r="BE40" s="73"/>
-      <c r="BF40" s="73"/>
-      <c r="BG40" s="73"/>
-      <c r="BH40" s="73"/>
-      <c r="BI40" s="73"/>
-      <c r="BJ40" s="73"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="79"/>
+      <c r="I40" s="79"/>
+      <c r="J40" s="79"/>
+      <c r="K40" s="79"/>
+      <c r="L40" s="79"/>
+      <c r="M40" s="79"/>
+      <c r="N40" s="79"/>
+      <c r="O40" s="79"/>
+      <c r="P40" s="79"/>
+      <c r="Q40" s="79"/>
+      <c r="R40" s="79"/>
+      <c r="S40" s="79"/>
+      <c r="T40" s="79"/>
+      <c r="U40" s="79"/>
+      <c r="V40" s="79"/>
+      <c r="W40" s="79"/>
+      <c r="X40" s="79"/>
+      <c r="Y40" s="79"/>
+      <c r="Z40" s="79"/>
+      <c r="AA40" s="79"/>
+      <c r="AB40" s="79"/>
+      <c r="AC40" s="79"/>
+      <c r="AD40" s="79"/>
+      <c r="AE40" s="79"/>
+      <c r="AF40" s="79"/>
+      <c r="AG40" s="79"/>
+      <c r="AH40" s="79"/>
+      <c r="AI40" s="79"/>
+      <c r="AJ40" s="79"/>
+      <c r="AK40" s="79"/>
+      <c r="AL40" s="77"/>
+      <c r="AM40" s="77"/>
+      <c r="AN40" s="77"/>
+      <c r="AO40" s="77"/>
+      <c r="AP40" s="77"/>
+      <c r="AQ40" s="77"/>
+      <c r="AR40" s="77"/>
+      <c r="AS40" s="77"/>
+      <c r="AT40" s="77"/>
+      <c r="AU40" s="77"/>
+      <c r="AV40" s="77"/>
+      <c r="AW40" s="77"/>
+      <c r="AX40" s="77"/>
+      <c r="AY40" s="77"/>
+      <c r="AZ40" s="77"/>
+      <c r="BA40" s="77"/>
+      <c r="BB40" s="77"/>
+      <c r="BC40" s="77"/>
+      <c r="BD40" s="77"/>
+      <c r="BE40" s="77"/>
+      <c r="BF40" s="77"/>
+      <c r="BG40" s="77"/>
+      <c r="BH40" s="77"/>
+      <c r="BI40" s="77"/>
+      <c r="BJ40" s="77"/>
       <c r="BK40" s="2"/>
       <c r="BL40" s="16"/>
     </row>
@@ -10448,15 +10481,102 @@
     </row>
   </sheetData>
   <mergeCells count="117">
-    <mergeCell ref="B2:BK2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="Q3:AM3"/>
-    <mergeCell ref="AN3:AS3"/>
-    <mergeCell ref="AT3:AY3"/>
-    <mergeCell ref="AZ3:BE3"/>
-    <mergeCell ref="BF3:BK3"/>
-    <mergeCell ref="BF4:BK5"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:AK39"/>
+    <mergeCell ref="AL39:BJ39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:AK40"/>
+    <mergeCell ref="AL40:BJ40"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:AK37"/>
+    <mergeCell ref="AL37:BJ37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:AK38"/>
+    <mergeCell ref="AL38:BJ38"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:AK35"/>
+    <mergeCell ref="AL35:BJ35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:AK36"/>
+    <mergeCell ref="AL36:BJ36"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:AK33"/>
+    <mergeCell ref="AL33:BJ33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:AK34"/>
+    <mergeCell ref="AL34:BJ34"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:AK31"/>
+    <mergeCell ref="AL31:BJ31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:AK32"/>
+    <mergeCell ref="AL32:BJ32"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:AK29"/>
+    <mergeCell ref="AL29:BJ29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:AK30"/>
+    <mergeCell ref="AL30:BJ30"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:AK27"/>
+    <mergeCell ref="AL27:BJ27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:AK28"/>
+    <mergeCell ref="AL28:BJ28"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:AK25"/>
+    <mergeCell ref="AL25:BJ25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:AK26"/>
+    <mergeCell ref="AL26:BJ26"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:AK23"/>
+    <mergeCell ref="AL23:BJ23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:AK24"/>
+    <mergeCell ref="AL24:BJ24"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:AK21"/>
+    <mergeCell ref="AL21:BJ21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:AK22"/>
+    <mergeCell ref="AL22:BJ22"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:AK19"/>
+    <mergeCell ref="AL19:BJ19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:AK20"/>
+    <mergeCell ref="AL20:BJ20"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:AK17"/>
+    <mergeCell ref="AL17:BJ17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:AK18"/>
+    <mergeCell ref="AL18:BJ18"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:AK15"/>
+    <mergeCell ref="AL15:BJ15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:AK16"/>
+    <mergeCell ref="AL16:BJ16"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:AK13"/>
+    <mergeCell ref="AL13:BJ13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:AK14"/>
+    <mergeCell ref="AL14:BJ14"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:AK11"/>
+    <mergeCell ref="AL11:BJ11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:AK12"/>
+    <mergeCell ref="AL12:BJ12"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:AK9"/>
+    <mergeCell ref="AL9:BJ9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:AK10"/>
+    <mergeCell ref="AL10:BJ10"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:AK7"/>
     <mergeCell ref="AL7:BJ7"/>
@@ -10469,102 +10589,15 @@
     <mergeCell ref="AN4:AS5"/>
     <mergeCell ref="AT4:AY5"/>
     <mergeCell ref="AZ4:BE5"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:AK11"/>
-    <mergeCell ref="AL11:BJ11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:AK12"/>
-    <mergeCell ref="AL12:BJ12"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:AK9"/>
-    <mergeCell ref="AL9:BJ9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:AK10"/>
-    <mergeCell ref="AL10:BJ10"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:AK15"/>
-    <mergeCell ref="AL15:BJ15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:AK16"/>
-    <mergeCell ref="AL16:BJ16"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:AK13"/>
-    <mergeCell ref="AL13:BJ13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:AK14"/>
-    <mergeCell ref="AL14:BJ14"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:AK19"/>
-    <mergeCell ref="AL19:BJ19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:AK20"/>
-    <mergeCell ref="AL20:BJ20"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:AK17"/>
-    <mergeCell ref="AL17:BJ17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:AK18"/>
-    <mergeCell ref="AL18:BJ18"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:AK23"/>
-    <mergeCell ref="AL23:BJ23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:AK24"/>
-    <mergeCell ref="AL24:BJ24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:AK21"/>
-    <mergeCell ref="AL21:BJ21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:AK22"/>
-    <mergeCell ref="AL22:BJ22"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:AK27"/>
-    <mergeCell ref="AL27:BJ27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:AK28"/>
-    <mergeCell ref="AL28:BJ28"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:AK25"/>
-    <mergeCell ref="AL25:BJ25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:AK26"/>
-    <mergeCell ref="AL26:BJ26"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:AK31"/>
-    <mergeCell ref="AL31:BJ31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:AK32"/>
-    <mergeCell ref="AL32:BJ32"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:AK29"/>
-    <mergeCell ref="AL29:BJ29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:AK30"/>
-    <mergeCell ref="AL30:BJ30"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:AK35"/>
-    <mergeCell ref="AL35:BJ35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:AK36"/>
-    <mergeCell ref="AL36:BJ36"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:AK33"/>
-    <mergeCell ref="AL33:BJ33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:AK34"/>
-    <mergeCell ref="AL34:BJ34"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:AK39"/>
-    <mergeCell ref="AL39:BJ39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:AK40"/>
-    <mergeCell ref="AL40:BJ40"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:AK37"/>
-    <mergeCell ref="AL37:BJ37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:AK38"/>
-    <mergeCell ref="AL38:BJ38"/>
+    <mergeCell ref="B2:BK2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="Q3:AM3"/>
+    <mergeCell ref="AN3:AS3"/>
+    <mergeCell ref="AT3:AY3"/>
+    <mergeCell ref="AZ3:BE3"/>
+    <mergeCell ref="BF3:BK3"/>
+    <mergeCell ref="BF4:BK5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/メッセージ設計書.xlsx
+++ b/メッセージ設計書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kensyu004\Desktop\新しいフォルダー\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81805\Desktop\新しいフォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F0187B-C76D-40E3-B194-60FB0CFCC96B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CEFA30-46EE-4274-ADCB-CA6AB55A1EC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="20250" windowHeight="10680" xr2:uid="{78B42164-E9D9-4973-93DD-29F371AD8A8A}"/>
+    <workbookView xWindow="5700" yWindow="780" windowWidth="21600" windowHeight="10890" activeTab="1" xr2:uid="{78B42164-E9D9-4973-93DD-29F371AD8A8A}"/>
   </bookViews>
   <sheets>
     <sheet name="ツールチップ" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="222">
   <si>
     <t>ソフトウェア名</t>
     <rPh sb="6" eb="7">
@@ -1785,6 +1785,21 @@
     <rPh sb="18" eb="20">
       <t>ヒッス</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M016</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メインメニューへ戻ります。よろしいですか？</t>
+    <rPh sb="8" eb="9">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はい いいえ　</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2114,36 +2129,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2155,6 +2140,36 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2181,33 +2196,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2273,14 +2261,65 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2291,32 +2330,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2663,291 +2678,291 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429EB542-BC0C-481E-9D52-F74EC05414BC}">
   <dimension ref="B1:BK23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="AG5" sqref="AG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="29"/>
-      <c r="AM1" s="29"/>
-      <c r="AN1" s="29"/>
-      <c r="AO1" s="29"/>
-      <c r="AP1" s="29"/>
-      <c r="AQ1" s="29"/>
-      <c r="AR1" s="29"/>
-      <c r="AS1" s="29"/>
-      <c r="AT1" s="29"/>
-      <c r="AU1" s="29"/>
-      <c r="AV1" s="29"/>
-      <c r="AW1" s="29"/>
-      <c r="AX1" s="29"/>
-      <c r="AY1" s="29"/>
-      <c r="AZ1" s="29"/>
-      <c r="BA1" s="29"/>
-      <c r="BB1" s="29"/>
-      <c r="BC1" s="29"/>
-      <c r="BD1" s="29"/>
-      <c r="BE1" s="29"/>
-      <c r="BF1" s="29"/>
-      <c r="BG1" s="29"/>
-      <c r="BH1" s="29"/>
-      <c r="BI1" s="29"/>
-      <c r="BJ1" s="29"/>
-      <c r="BK1" s="29"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="19"/>
+      <c r="AU1" s="19"/>
+      <c r="AV1" s="19"/>
+      <c r="AW1" s="19"/>
+      <c r="AX1" s="19"/>
+      <c r="AY1" s="19"/>
+      <c r="AZ1" s="19"/>
+      <c r="BA1" s="19"/>
+      <c r="BB1" s="19"/>
+      <c r="BC1" s="19"/>
+      <c r="BD1" s="19"/>
+      <c r="BE1" s="19"/>
+      <c r="BF1" s="19"/>
+      <c r="BG1" s="19"/>
+      <c r="BH1" s="19"/>
+      <c r="BI1" s="19"/>
+      <c r="BJ1" s="19"/>
+      <c r="BK1" s="19"/>
     </row>
     <row r="2" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="30" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30" t="s">
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="31" t="s">
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="AO2" s="31"/>
-      <c r="AP2" s="31"/>
-      <c r="AQ2" s="31"/>
-      <c r="AR2" s="31"/>
-      <c r="AS2" s="31"/>
-      <c r="AT2" s="30" t="s">
+      <c r="AO2" s="21"/>
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="21"/>
+      <c r="AR2" s="21"/>
+      <c r="AS2" s="21"/>
+      <c r="AT2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="AU2" s="30"/>
-      <c r="AV2" s="30"/>
-      <c r="AW2" s="30"/>
-      <c r="AX2" s="30"/>
-      <c r="AY2" s="30"/>
-      <c r="AZ2" s="30" t="s">
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BA2" s="30"/>
-      <c r="BB2" s="30"/>
-      <c r="BC2" s="30"/>
-      <c r="BD2" s="30"/>
-      <c r="BE2" s="30"/>
-      <c r="BF2" s="30" t="s">
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="BG2" s="30"/>
-      <c r="BH2" s="30"/>
-      <c r="BI2" s="30"/>
-      <c r="BJ2" s="30"/>
-      <c r="BK2" s="30"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
     </row>
     <row r="3" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="26">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="27">
         <v>1</v>
       </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="24" t="s">
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="24"/>
-      <c r="AK3" s="24"/>
-      <c r="AL3" s="24"/>
-      <c r="AM3" s="24"/>
-      <c r="AN3" s="27"/>
-      <c r="AO3" s="24"/>
-      <c r="AP3" s="24"/>
-      <c r="AQ3" s="24"/>
-      <c r="AR3" s="24"/>
-      <c r="AS3" s="24"/>
-      <c r="AT3" s="27" t="s">
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="22"/>
+      <c r="AK3" s="22"/>
+      <c r="AL3" s="22"/>
+      <c r="AM3" s="22"/>
+      <c r="AN3" s="28"/>
+      <c r="AO3" s="22"/>
+      <c r="AP3" s="22"/>
+      <c r="AQ3" s="22"/>
+      <c r="AR3" s="22"/>
+      <c r="AS3" s="22"/>
+      <c r="AT3" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="AU3" s="27"/>
-      <c r="AV3" s="27"/>
-      <c r="AW3" s="27"/>
-      <c r="AX3" s="27"/>
-      <c r="AY3" s="27"/>
-      <c r="AZ3" s="24"/>
-      <c r="BA3" s="24"/>
-      <c r="BB3" s="24"/>
-      <c r="BC3" s="24"/>
-      <c r="BD3" s="24"/>
-      <c r="BE3" s="24"/>
-      <c r="BF3" s="24"/>
-      <c r="BG3" s="24"/>
-      <c r="BH3" s="24"/>
-      <c r="BI3" s="24"/>
-      <c r="BJ3" s="24"/>
-      <c r="BK3" s="24"/>
+      <c r="AU3" s="28"/>
+      <c r="AV3" s="28"/>
+      <c r="AW3" s="28"/>
+      <c r="AX3" s="28"/>
+      <c r="AY3" s="28"/>
+      <c r="AZ3" s="22"/>
+      <c r="BA3" s="22"/>
+      <c r="BB3" s="22"/>
+      <c r="BC3" s="22"/>
+      <c r="BD3" s="22"/>
+      <c r="BE3" s="22"/>
+      <c r="BF3" s="22"/>
+      <c r="BG3" s="22"/>
+      <c r="BH3" s="22"/>
+      <c r="BI3" s="22"/>
+      <c r="BJ3" s="22"/>
+      <c r="BK3" s="22"/>
     </row>
     <row r="4" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="24"/>
-      <c r="AH4" s="24"/>
-      <c r="AI4" s="24"/>
-      <c r="AJ4" s="24"/>
-      <c r="AK4" s="24"/>
-      <c r="AL4" s="24"/>
-      <c r="AM4" s="24"/>
-      <c r="AN4" s="24"/>
-      <c r="AO4" s="24"/>
-      <c r="AP4" s="24"/>
-      <c r="AQ4" s="24"/>
-      <c r="AR4" s="24"/>
-      <c r="AS4" s="24"/>
-      <c r="AT4" s="27"/>
-      <c r="AU4" s="27"/>
-      <c r="AV4" s="27"/>
-      <c r="AW4" s="27"/>
-      <c r="AX4" s="27"/>
-      <c r="AY4" s="27"/>
-      <c r="AZ4" s="24"/>
-      <c r="BA4" s="24"/>
-      <c r="BB4" s="24"/>
-      <c r="BC4" s="24"/>
-      <c r="BD4" s="24"/>
-      <c r="BE4" s="24"/>
-      <c r="BF4" s="24"/>
-      <c r="BG4" s="24"/>
-      <c r="BH4" s="24"/>
-      <c r="BI4" s="24"/>
-      <c r="BJ4" s="24"/>
-      <c r="BK4" s="24"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="22"/>
+      <c r="AL4" s="22"/>
+      <c r="AM4" s="22"/>
+      <c r="AN4" s="22"/>
+      <c r="AO4" s="22"/>
+      <c r="AP4" s="22"/>
+      <c r="AQ4" s="22"/>
+      <c r="AR4" s="22"/>
+      <c r="AS4" s="22"/>
+      <c r="AT4" s="28"/>
+      <c r="AU4" s="28"/>
+      <c r="AV4" s="28"/>
+      <c r="AW4" s="28"/>
+      <c r="AX4" s="28"/>
+      <c r="AY4" s="28"/>
+      <c r="AZ4" s="22"/>
+      <c r="BA4" s="22"/>
+      <c r="BB4" s="22"/>
+      <c r="BC4" s="22"/>
+      <c r="BD4" s="22"/>
+      <c r="BE4" s="22"/>
+      <c r="BF4" s="22"/>
+      <c r="BG4" s="22"/>
+      <c r="BH4" s="22"/>
+      <c r="BI4" s="22"/>
+      <c r="BJ4" s="22"/>
+      <c r="BK4" s="22"/>
     </row>
     <row r="5" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3"/>
@@ -3079,510 +3094,510 @@
     </row>
     <row r="7" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="23" t="s">
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23" t="s">
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="21"/>
-      <c r="AE7" s="21"/>
-      <c r="AF7" s="21" t="s">
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="23"/>
+      <c r="AE7" s="23"/>
+      <c r="AF7" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AG7" s="21"/>
-      <c r="AH7" s="21"/>
-      <c r="AI7" s="21"/>
-      <c r="AJ7" s="21"/>
-      <c r="AK7" s="21"/>
-      <c r="AL7" s="21"/>
-      <c r="AM7" s="21"/>
-      <c r="AN7" s="21"/>
-      <c r="AO7" s="21"/>
-      <c r="AP7" s="21"/>
-      <c r="AQ7" s="21"/>
-      <c r="AR7" s="21"/>
-      <c r="AS7" s="21"/>
-      <c r="AT7" s="21"/>
-      <c r="AU7" s="21"/>
-      <c r="AV7" s="21"/>
-      <c r="AW7" s="21"/>
-      <c r="AX7" s="21"/>
-      <c r="AY7" s="21"/>
-      <c r="AZ7" s="21"/>
-      <c r="BA7" s="21"/>
-      <c r="BB7" s="21"/>
-      <c r="BC7" s="21"/>
-      <c r="BD7" s="21"/>
-      <c r="BE7" s="21"/>
-      <c r="BF7" s="21"/>
-      <c r="BG7" s="21"/>
-      <c r="BH7" s="21"/>
-      <c r="BI7" s="21"/>
-      <c r="BJ7" s="21"/>
+      <c r="AG7" s="23"/>
+      <c r="AH7" s="23"/>
+      <c r="AI7" s="23"/>
+      <c r="AJ7" s="23"/>
+      <c r="AK7" s="23"/>
+      <c r="AL7" s="23"/>
+      <c r="AM7" s="23"/>
+      <c r="AN7" s="23"/>
+      <c r="AO7" s="23"/>
+      <c r="AP7" s="23"/>
+      <c r="AQ7" s="23"/>
+      <c r="AR7" s="23"/>
+      <c r="AS7" s="23"/>
+      <c r="AT7" s="23"/>
+      <c r="AU7" s="23"/>
+      <c r="AV7" s="23"/>
+      <c r="AW7" s="23"/>
+      <c r="AX7" s="23"/>
+      <c r="AY7" s="23"/>
+      <c r="AZ7" s="23"/>
+      <c r="BA7" s="23"/>
+      <c r="BB7" s="23"/>
+      <c r="BC7" s="23"/>
+      <c r="BD7" s="23"/>
+      <c r="BE7" s="23"/>
+      <c r="BF7" s="23"/>
+      <c r="BG7" s="23"/>
+      <c r="BH7" s="23"/>
+      <c r="BI7" s="23"/>
+      <c r="BJ7" s="23"/>
       <c r="BK7" s="2"/>
     </row>
     <row r="8" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="21"/>
-      <c r="AE8" s="21"/>
-      <c r="AF8" s="21"/>
-      <c r="AG8" s="21"/>
-      <c r="AH8" s="21"/>
-      <c r="AI8" s="21"/>
-      <c r="AJ8" s="21"/>
-      <c r="AK8" s="21"/>
-      <c r="AL8" s="21"/>
-      <c r="AM8" s="21"/>
-      <c r="AN8" s="21"/>
-      <c r="AO8" s="21"/>
-      <c r="AP8" s="21"/>
-      <c r="AQ8" s="21"/>
-      <c r="AR8" s="21"/>
-      <c r="AS8" s="21"/>
-      <c r="AT8" s="21"/>
-      <c r="AU8" s="21"/>
-      <c r="AV8" s="21"/>
-      <c r="AW8" s="21"/>
-      <c r="AX8" s="21"/>
-      <c r="AY8" s="21"/>
-      <c r="AZ8" s="21"/>
-      <c r="BA8" s="21"/>
-      <c r="BB8" s="21"/>
-      <c r="BC8" s="21"/>
-      <c r="BD8" s="21"/>
-      <c r="BE8" s="21"/>
-      <c r="BF8" s="21"/>
-      <c r="BG8" s="21"/>
-      <c r="BH8" s="21"/>
-      <c r="BI8" s="21"/>
-      <c r="BJ8" s="21"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="23"/>
+      <c r="AE8" s="23"/>
+      <c r="AF8" s="23"/>
+      <c r="AG8" s="23"/>
+      <c r="AH8" s="23"/>
+      <c r="AI8" s="23"/>
+      <c r="AJ8" s="23"/>
+      <c r="AK8" s="23"/>
+      <c r="AL8" s="23"/>
+      <c r="AM8" s="23"/>
+      <c r="AN8" s="23"/>
+      <c r="AO8" s="23"/>
+      <c r="AP8" s="23"/>
+      <c r="AQ8" s="23"/>
+      <c r="AR8" s="23"/>
+      <c r="AS8" s="23"/>
+      <c r="AT8" s="23"/>
+      <c r="AU8" s="23"/>
+      <c r="AV8" s="23"/>
+      <c r="AW8" s="23"/>
+      <c r="AX8" s="23"/>
+      <c r="AY8" s="23"/>
+      <c r="AZ8" s="23"/>
+      <c r="BA8" s="23"/>
+      <c r="BB8" s="23"/>
+      <c r="BC8" s="23"/>
+      <c r="BD8" s="23"/>
+      <c r="BE8" s="23"/>
+      <c r="BF8" s="23"/>
+      <c r="BG8" s="23"/>
+      <c r="BH8" s="23"/>
+      <c r="BI8" s="23"/>
+      <c r="BJ8" s="23"/>
       <c r="BK8" s="2"/>
     </row>
     <row r="9" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19" t="s">
+      <c r="D9" s="29"/>
+      <c r="E9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="18" t="s">
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="18" t="s">
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="20" t="s">
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="AG9" s="20"/>
-      <c r="AH9" s="20"/>
-      <c r="AI9" s="20"/>
-      <c r="AJ9" s="20"/>
-      <c r="AK9" s="20"/>
-      <c r="AL9" s="20"/>
-      <c r="AM9" s="20"/>
-      <c r="AN9" s="20"/>
-      <c r="AO9" s="20"/>
-      <c r="AP9" s="20"/>
-      <c r="AQ9" s="20"/>
-      <c r="AR9" s="20"/>
-      <c r="AS9" s="20"/>
-      <c r="AT9" s="20"/>
-      <c r="AU9" s="20"/>
-      <c r="AV9" s="20"/>
-      <c r="AW9" s="20"/>
-      <c r="AX9" s="20"/>
-      <c r="AY9" s="20"/>
-      <c r="AZ9" s="20"/>
-      <c r="BA9" s="20"/>
-      <c r="BB9" s="20"/>
-      <c r="BC9" s="20"/>
-      <c r="BD9" s="20"/>
-      <c r="BE9" s="20"/>
-      <c r="BF9" s="20"/>
-      <c r="BG9" s="20"/>
-      <c r="BH9" s="20"/>
-      <c r="BI9" s="20"/>
-      <c r="BJ9" s="20"/>
+      <c r="AG9" s="31"/>
+      <c r="AH9" s="31"/>
+      <c r="AI9" s="31"/>
+      <c r="AJ9" s="31"/>
+      <c r="AK9" s="31"/>
+      <c r="AL9" s="31"/>
+      <c r="AM9" s="31"/>
+      <c r="AN9" s="31"/>
+      <c r="AO9" s="31"/>
+      <c r="AP9" s="31"/>
+      <c r="AQ9" s="31"/>
+      <c r="AR9" s="31"/>
+      <c r="AS9" s="31"/>
+      <c r="AT9" s="31"/>
+      <c r="AU9" s="31"/>
+      <c r="AV9" s="31"/>
+      <c r="AW9" s="31"/>
+      <c r="AX9" s="31"/>
+      <c r="AY9" s="31"/>
+      <c r="AZ9" s="31"/>
+      <c r="BA9" s="31"/>
+      <c r="BB9" s="31"/>
+      <c r="BC9" s="31"/>
+      <c r="BD9" s="31"/>
+      <c r="BE9" s="31"/>
+      <c r="BF9" s="31"/>
+      <c r="BG9" s="31"/>
+      <c r="BH9" s="31"/>
+      <c r="BI9" s="31"/>
+      <c r="BJ9" s="31"/>
       <c r="BK9" s="2"/>
     </row>
     <row r="10" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="29"/>
+      <c r="E10" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="18" t="s">
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18" t="s">
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="29"/>
+      <c r="AB10" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AC10" s="18"/>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="18"/>
-      <c r="AF10" s="20" t="s">
+      <c r="AC10" s="29"/>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="29"/>
+      <c r="AF10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="AG10" s="20"/>
-      <c r="AH10" s="20"/>
-      <c r="AI10" s="20"/>
-      <c r="AJ10" s="20"/>
-      <c r="AK10" s="20"/>
-      <c r="AL10" s="20"/>
-      <c r="AM10" s="20"/>
-      <c r="AN10" s="20"/>
-      <c r="AO10" s="20"/>
-      <c r="AP10" s="20"/>
-      <c r="AQ10" s="20"/>
-      <c r="AR10" s="20"/>
-      <c r="AS10" s="20"/>
-      <c r="AT10" s="20"/>
-      <c r="AU10" s="20"/>
-      <c r="AV10" s="20"/>
-      <c r="AW10" s="20"/>
-      <c r="AX10" s="20"/>
-      <c r="AY10" s="20"/>
-      <c r="AZ10" s="20"/>
-      <c r="BA10" s="20"/>
-      <c r="BB10" s="20"/>
-      <c r="BC10" s="20"/>
-      <c r="BD10" s="20"/>
-      <c r="BE10" s="20"/>
-      <c r="BF10" s="20"/>
-      <c r="BG10" s="20"/>
-      <c r="BH10" s="20"/>
-      <c r="BI10" s="20"/>
-      <c r="BJ10" s="20"/>
+      <c r="AG10" s="31"/>
+      <c r="AH10" s="31"/>
+      <c r="AI10" s="31"/>
+      <c r="AJ10" s="31"/>
+      <c r="AK10" s="31"/>
+      <c r="AL10" s="31"/>
+      <c r="AM10" s="31"/>
+      <c r="AN10" s="31"/>
+      <c r="AO10" s="31"/>
+      <c r="AP10" s="31"/>
+      <c r="AQ10" s="31"/>
+      <c r="AR10" s="31"/>
+      <c r="AS10" s="31"/>
+      <c r="AT10" s="31"/>
+      <c r="AU10" s="31"/>
+      <c r="AV10" s="31"/>
+      <c r="AW10" s="31"/>
+      <c r="AX10" s="31"/>
+      <c r="AY10" s="31"/>
+      <c r="AZ10" s="31"/>
+      <c r="BA10" s="31"/>
+      <c r="BB10" s="31"/>
+      <c r="BC10" s="31"/>
+      <c r="BD10" s="31"/>
+      <c r="BE10" s="31"/>
+      <c r="BF10" s="31"/>
+      <c r="BG10" s="31"/>
+      <c r="BH10" s="31"/>
+      <c r="BI10" s="31"/>
+      <c r="BJ10" s="31"/>
       <c r="BK10" s="2"/>
     </row>
     <row r="11" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="29"/>
+      <c r="E11" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="18" t="s">
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="18" t="s">
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="29"/>
+      <c r="AB11" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="AC11" s="18"/>
-      <c r="AD11" s="18"/>
-      <c r="AE11" s="18"/>
-      <c r="AF11" s="20" t="s">
+      <c r="AC11" s="29"/>
+      <c r="AD11" s="29"/>
+      <c r="AE11" s="29"/>
+      <c r="AF11" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="AG11" s="20"/>
-      <c r="AH11" s="20"/>
-      <c r="AI11" s="20"/>
-      <c r="AJ11" s="20"/>
-      <c r="AK11" s="20"/>
-      <c r="AL11" s="20"/>
-      <c r="AM11" s="20"/>
-      <c r="AN11" s="20"/>
-      <c r="AO11" s="20"/>
-      <c r="AP11" s="20"/>
-      <c r="AQ11" s="20"/>
-      <c r="AR11" s="20"/>
-      <c r="AS11" s="20"/>
-      <c r="AT11" s="20"/>
-      <c r="AU11" s="20"/>
-      <c r="AV11" s="20"/>
-      <c r="AW11" s="20"/>
-      <c r="AX11" s="20"/>
-      <c r="AY11" s="20"/>
-      <c r="AZ11" s="20"/>
-      <c r="BA11" s="20"/>
-      <c r="BB11" s="20"/>
-      <c r="BC11" s="20"/>
-      <c r="BD11" s="20"/>
-      <c r="BE11" s="20"/>
-      <c r="BF11" s="20"/>
-      <c r="BG11" s="20"/>
-      <c r="BH11" s="20"/>
-      <c r="BI11" s="20"/>
-      <c r="BJ11" s="20"/>
+      <c r="AG11" s="31"/>
+      <c r="AH11" s="31"/>
+      <c r="AI11" s="31"/>
+      <c r="AJ11" s="31"/>
+      <c r="AK11" s="31"/>
+      <c r="AL11" s="31"/>
+      <c r="AM11" s="31"/>
+      <c r="AN11" s="31"/>
+      <c r="AO11" s="31"/>
+      <c r="AP11" s="31"/>
+      <c r="AQ11" s="31"/>
+      <c r="AR11" s="31"/>
+      <c r="AS11" s="31"/>
+      <c r="AT11" s="31"/>
+      <c r="AU11" s="31"/>
+      <c r="AV11" s="31"/>
+      <c r="AW11" s="31"/>
+      <c r="AX11" s="31"/>
+      <c r="AY11" s="31"/>
+      <c r="AZ11" s="31"/>
+      <c r="BA11" s="31"/>
+      <c r="BB11" s="31"/>
+      <c r="BC11" s="31"/>
+      <c r="BD11" s="31"/>
+      <c r="BE11" s="31"/>
+      <c r="BF11" s="31"/>
+      <c r="BG11" s="31"/>
+      <c r="BH11" s="31"/>
+      <c r="BI11" s="31"/>
+      <c r="BJ11" s="31"/>
       <c r="BK11" s="2"/>
     </row>
     <row r="12" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19" t="s">
+      <c r="D12" s="29"/>
+      <c r="E12" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="18" t="s">
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18" t="s">
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="18"/>
-      <c r="AF12" s="20" t="s">
+      <c r="AC12" s="29"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="29"/>
+      <c r="AF12" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="AG12" s="20"/>
-      <c r="AH12" s="20"/>
-      <c r="AI12" s="20"/>
-      <c r="AJ12" s="20"/>
-      <c r="AK12" s="20"/>
-      <c r="AL12" s="20"/>
-      <c r="AM12" s="20"/>
-      <c r="AN12" s="20"/>
-      <c r="AO12" s="20"/>
-      <c r="AP12" s="20"/>
-      <c r="AQ12" s="20"/>
-      <c r="AR12" s="20"/>
-      <c r="AS12" s="20"/>
-      <c r="AT12" s="20"/>
-      <c r="AU12" s="20"/>
-      <c r="AV12" s="20"/>
-      <c r="AW12" s="20"/>
-      <c r="AX12" s="20"/>
-      <c r="AY12" s="20"/>
-      <c r="AZ12" s="20"/>
-      <c r="BA12" s="20"/>
-      <c r="BB12" s="20"/>
-      <c r="BC12" s="20"/>
-      <c r="BD12" s="20"/>
-      <c r="BE12" s="20"/>
-      <c r="BF12" s="20"/>
-      <c r="BG12" s="20"/>
-      <c r="BH12" s="20"/>
-      <c r="BI12" s="20"/>
-      <c r="BJ12" s="20"/>
+      <c r="AG12" s="31"/>
+      <c r="AH12" s="31"/>
+      <c r="AI12" s="31"/>
+      <c r="AJ12" s="31"/>
+      <c r="AK12" s="31"/>
+      <c r="AL12" s="31"/>
+      <c r="AM12" s="31"/>
+      <c r="AN12" s="31"/>
+      <c r="AO12" s="31"/>
+      <c r="AP12" s="31"/>
+      <c r="AQ12" s="31"/>
+      <c r="AR12" s="31"/>
+      <c r="AS12" s="31"/>
+      <c r="AT12" s="31"/>
+      <c r="AU12" s="31"/>
+      <c r="AV12" s="31"/>
+      <c r="AW12" s="31"/>
+      <c r="AX12" s="31"/>
+      <c r="AY12" s="31"/>
+      <c r="AZ12" s="31"/>
+      <c r="BA12" s="31"/>
+      <c r="BB12" s="31"/>
+      <c r="BC12" s="31"/>
+      <c r="BD12" s="31"/>
+      <c r="BE12" s="31"/>
+      <c r="BF12" s="31"/>
+      <c r="BG12" s="31"/>
+      <c r="BH12" s="31"/>
+      <c r="BI12" s="31"/>
+      <c r="BJ12" s="31"/>
       <c r="BK12" s="2"/>
     </row>
     <row r="13" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19" t="s">
+      <c r="D13" s="29"/>
+      <c r="E13" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="18" t="s">
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="18"/>
-      <c r="AB13" s="18" t="s">
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AC13" s="18"/>
-      <c r="AD13" s="18"/>
-      <c r="AE13" s="18"/>
-      <c r="AF13" s="20" t="s">
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="29"/>
+      <c r="AF13" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="AG13" s="20"/>
-      <c r="AH13" s="20"/>
-      <c r="AI13" s="20"/>
-      <c r="AJ13" s="20"/>
-      <c r="AK13" s="20"/>
-      <c r="AL13" s="20"/>
-      <c r="AM13" s="20"/>
-      <c r="AN13" s="20"/>
-      <c r="AO13" s="20"/>
-      <c r="AP13" s="20"/>
-      <c r="AQ13" s="20"/>
-      <c r="AR13" s="20"/>
-      <c r="AS13" s="20"/>
-      <c r="AT13" s="20"/>
-      <c r="AU13" s="20"/>
-      <c r="AV13" s="20"/>
-      <c r="AW13" s="20"/>
-      <c r="AX13" s="20"/>
-      <c r="AY13" s="20"/>
-      <c r="AZ13" s="20"/>
-      <c r="BA13" s="20"/>
-      <c r="BB13" s="20"/>
-      <c r="BC13" s="20"/>
-      <c r="BD13" s="20"/>
-      <c r="BE13" s="20"/>
-      <c r="BF13" s="20"/>
-      <c r="BG13" s="20"/>
-      <c r="BH13" s="20"/>
-      <c r="BI13" s="20"/>
-      <c r="BJ13" s="20"/>
+      <c r="AG13" s="31"/>
+      <c r="AH13" s="31"/>
+      <c r="AI13" s="31"/>
+      <c r="AJ13" s="31"/>
+      <c r="AK13" s="31"/>
+      <c r="AL13" s="31"/>
+      <c r="AM13" s="31"/>
+      <c r="AN13" s="31"/>
+      <c r="AO13" s="31"/>
+      <c r="AP13" s="31"/>
+      <c r="AQ13" s="31"/>
+      <c r="AR13" s="31"/>
+      <c r="AS13" s="31"/>
+      <c r="AT13" s="31"/>
+      <c r="AU13" s="31"/>
+      <c r="AV13" s="31"/>
+      <c r="AW13" s="31"/>
+      <c r="AX13" s="31"/>
+      <c r="AY13" s="31"/>
+      <c r="AZ13" s="31"/>
+      <c r="BA13" s="31"/>
+      <c r="BB13" s="31"/>
+      <c r="BC13" s="31"/>
+      <c r="BD13" s="31"/>
+      <c r="BE13" s="31"/>
+      <c r="BF13" s="31"/>
+      <c r="BG13" s="31"/>
+      <c r="BH13" s="31"/>
+      <c r="BI13" s="31"/>
+      <c r="BJ13" s="31"/>
       <c r="BK13" s="2"/>
     </row>
     <row r="14" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3717,510 +3732,510 @@
     </row>
     <row r="16" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22" t="s">
+      <c r="D16" s="23"/>
+      <c r="E16" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="23" t="s">
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="23" t="s">
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="AC16" s="21"/>
-      <c r="AD16" s="21"/>
-      <c r="AE16" s="21"/>
-      <c r="AF16" s="21" t="s">
+      <c r="AC16" s="23"/>
+      <c r="AD16" s="23"/>
+      <c r="AE16" s="23"/>
+      <c r="AF16" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AG16" s="21"/>
-      <c r="AH16" s="21"/>
-      <c r="AI16" s="21"/>
-      <c r="AJ16" s="21"/>
-      <c r="AK16" s="21"/>
-      <c r="AL16" s="21"/>
-      <c r="AM16" s="21"/>
-      <c r="AN16" s="21"/>
-      <c r="AO16" s="21"/>
-      <c r="AP16" s="21"/>
-      <c r="AQ16" s="21"/>
-      <c r="AR16" s="21"/>
-      <c r="AS16" s="21"/>
-      <c r="AT16" s="21"/>
-      <c r="AU16" s="21"/>
-      <c r="AV16" s="21"/>
-      <c r="AW16" s="21"/>
-      <c r="AX16" s="21"/>
-      <c r="AY16" s="21"/>
-      <c r="AZ16" s="21"/>
-      <c r="BA16" s="21"/>
-      <c r="BB16" s="21"/>
-      <c r="BC16" s="21"/>
-      <c r="BD16" s="21"/>
-      <c r="BE16" s="21"/>
-      <c r="BF16" s="21"/>
-      <c r="BG16" s="21"/>
-      <c r="BH16" s="21"/>
-      <c r="BI16" s="21"/>
-      <c r="BJ16" s="21"/>
+      <c r="AG16" s="23"/>
+      <c r="AH16" s="23"/>
+      <c r="AI16" s="23"/>
+      <c r="AJ16" s="23"/>
+      <c r="AK16" s="23"/>
+      <c r="AL16" s="23"/>
+      <c r="AM16" s="23"/>
+      <c r="AN16" s="23"/>
+      <c r="AO16" s="23"/>
+      <c r="AP16" s="23"/>
+      <c r="AQ16" s="23"/>
+      <c r="AR16" s="23"/>
+      <c r="AS16" s="23"/>
+      <c r="AT16" s="23"/>
+      <c r="AU16" s="23"/>
+      <c r="AV16" s="23"/>
+      <c r="AW16" s="23"/>
+      <c r="AX16" s="23"/>
+      <c r="AY16" s="23"/>
+      <c r="AZ16" s="23"/>
+      <c r="BA16" s="23"/>
+      <c r="BB16" s="23"/>
+      <c r="BC16" s="23"/>
+      <c r="BD16" s="23"/>
+      <c r="BE16" s="23"/>
+      <c r="BF16" s="23"/>
+      <c r="BG16" s="23"/>
+      <c r="BH16" s="23"/>
+      <c r="BI16" s="23"/>
+      <c r="BJ16" s="23"/>
       <c r="BK16" s="2"/>
     </row>
     <row r="17" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="21"/>
-      <c r="AC17" s="21"/>
-      <c r="AD17" s="21"/>
-      <c r="AE17" s="21"/>
-      <c r="AF17" s="21"/>
-      <c r="AG17" s="21"/>
-      <c r="AH17" s="21"/>
-      <c r="AI17" s="21"/>
-      <c r="AJ17" s="21"/>
-      <c r="AK17" s="21"/>
-      <c r="AL17" s="21"/>
-      <c r="AM17" s="21"/>
-      <c r="AN17" s="21"/>
-      <c r="AO17" s="21"/>
-      <c r="AP17" s="21"/>
-      <c r="AQ17" s="21"/>
-      <c r="AR17" s="21"/>
-      <c r="AS17" s="21"/>
-      <c r="AT17" s="21"/>
-      <c r="AU17" s="21"/>
-      <c r="AV17" s="21"/>
-      <c r="AW17" s="21"/>
-      <c r="AX17" s="21"/>
-      <c r="AY17" s="21"/>
-      <c r="AZ17" s="21"/>
-      <c r="BA17" s="21"/>
-      <c r="BB17" s="21"/>
-      <c r="BC17" s="21"/>
-      <c r="BD17" s="21"/>
-      <c r="BE17" s="21"/>
-      <c r="BF17" s="21"/>
-      <c r="BG17" s="21"/>
-      <c r="BH17" s="21"/>
-      <c r="BI17" s="21"/>
-      <c r="BJ17" s="21"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="23"/>
+      <c r="AD17" s="23"/>
+      <c r="AE17" s="23"/>
+      <c r="AF17" s="23"/>
+      <c r="AG17" s="23"/>
+      <c r="AH17" s="23"/>
+      <c r="AI17" s="23"/>
+      <c r="AJ17" s="23"/>
+      <c r="AK17" s="23"/>
+      <c r="AL17" s="23"/>
+      <c r="AM17" s="23"/>
+      <c r="AN17" s="23"/>
+      <c r="AO17" s="23"/>
+      <c r="AP17" s="23"/>
+      <c r="AQ17" s="23"/>
+      <c r="AR17" s="23"/>
+      <c r="AS17" s="23"/>
+      <c r="AT17" s="23"/>
+      <c r="AU17" s="23"/>
+      <c r="AV17" s="23"/>
+      <c r="AW17" s="23"/>
+      <c r="AX17" s="23"/>
+      <c r="AY17" s="23"/>
+      <c r="AZ17" s="23"/>
+      <c r="BA17" s="23"/>
+      <c r="BB17" s="23"/>
+      <c r="BC17" s="23"/>
+      <c r="BD17" s="23"/>
+      <c r="BE17" s="23"/>
+      <c r="BF17" s="23"/>
+      <c r="BG17" s="23"/>
+      <c r="BH17" s="23"/>
+      <c r="BI17" s="23"/>
+      <c r="BJ17" s="23"/>
       <c r="BK17" s="2"/>
     </row>
     <row r="18" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19" t="s">
+      <c r="D18" s="29"/>
+      <c r="E18" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="18" t="s">
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="Z18" s="18"/>
-      <c r="AA18" s="18"/>
-      <c r="AB18" s="18" t="s">
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="20" t="s">
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="29"/>
+      <c r="AF18" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="AG18" s="20"/>
-      <c r="AH18" s="20"/>
-      <c r="AI18" s="20"/>
-      <c r="AJ18" s="20"/>
-      <c r="AK18" s="20"/>
-      <c r="AL18" s="20"/>
-      <c r="AM18" s="20"/>
-      <c r="AN18" s="20"/>
-      <c r="AO18" s="20"/>
-      <c r="AP18" s="20"/>
-      <c r="AQ18" s="20"/>
-      <c r="AR18" s="20"/>
-      <c r="AS18" s="20"/>
-      <c r="AT18" s="20"/>
-      <c r="AU18" s="20"/>
-      <c r="AV18" s="20"/>
-      <c r="AW18" s="20"/>
-      <c r="AX18" s="20"/>
-      <c r="AY18" s="20"/>
-      <c r="AZ18" s="20"/>
-      <c r="BA18" s="20"/>
-      <c r="BB18" s="20"/>
-      <c r="BC18" s="20"/>
-      <c r="BD18" s="20"/>
-      <c r="BE18" s="20"/>
-      <c r="BF18" s="20"/>
-      <c r="BG18" s="20"/>
-      <c r="BH18" s="20"/>
-      <c r="BI18" s="20"/>
-      <c r="BJ18" s="20"/>
+      <c r="AG18" s="31"/>
+      <c r="AH18" s="31"/>
+      <c r="AI18" s="31"/>
+      <c r="AJ18" s="31"/>
+      <c r="AK18" s="31"/>
+      <c r="AL18" s="31"/>
+      <c r="AM18" s="31"/>
+      <c r="AN18" s="31"/>
+      <c r="AO18" s="31"/>
+      <c r="AP18" s="31"/>
+      <c r="AQ18" s="31"/>
+      <c r="AR18" s="31"/>
+      <c r="AS18" s="31"/>
+      <c r="AT18" s="31"/>
+      <c r="AU18" s="31"/>
+      <c r="AV18" s="31"/>
+      <c r="AW18" s="31"/>
+      <c r="AX18" s="31"/>
+      <c r="AY18" s="31"/>
+      <c r="AZ18" s="31"/>
+      <c r="BA18" s="31"/>
+      <c r="BB18" s="31"/>
+      <c r="BC18" s="31"/>
+      <c r="BD18" s="31"/>
+      <c r="BE18" s="31"/>
+      <c r="BF18" s="31"/>
+      <c r="BG18" s="31"/>
+      <c r="BH18" s="31"/>
+      <c r="BI18" s="31"/>
+      <c r="BJ18" s="31"/>
       <c r="BK18" s="2"/>
     </row>
     <row r="19" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19" t="s">
+      <c r="D19" s="29"/>
+      <c r="E19" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="18" t="s">
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="18"/>
-      <c r="AB19" s="18" t="s">
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="18"/>
-      <c r="AF19" s="20" t="s">
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="AG19" s="20"/>
-      <c r="AH19" s="20"/>
-      <c r="AI19" s="20"/>
-      <c r="AJ19" s="20"/>
-      <c r="AK19" s="20"/>
-      <c r="AL19" s="20"/>
-      <c r="AM19" s="20"/>
-      <c r="AN19" s="20"/>
-      <c r="AO19" s="20"/>
-      <c r="AP19" s="20"/>
-      <c r="AQ19" s="20"/>
-      <c r="AR19" s="20"/>
-      <c r="AS19" s="20"/>
-      <c r="AT19" s="20"/>
-      <c r="AU19" s="20"/>
-      <c r="AV19" s="20"/>
-      <c r="AW19" s="20"/>
-      <c r="AX19" s="20"/>
-      <c r="AY19" s="20"/>
-      <c r="AZ19" s="20"/>
-      <c r="BA19" s="20"/>
-      <c r="BB19" s="20"/>
-      <c r="BC19" s="20"/>
-      <c r="BD19" s="20"/>
-      <c r="BE19" s="20"/>
-      <c r="BF19" s="20"/>
-      <c r="BG19" s="20"/>
-      <c r="BH19" s="20"/>
-      <c r="BI19" s="20"/>
-      <c r="BJ19" s="20"/>
+      <c r="AG19" s="31"/>
+      <c r="AH19" s="31"/>
+      <c r="AI19" s="31"/>
+      <c r="AJ19" s="31"/>
+      <c r="AK19" s="31"/>
+      <c r="AL19" s="31"/>
+      <c r="AM19" s="31"/>
+      <c r="AN19" s="31"/>
+      <c r="AO19" s="31"/>
+      <c r="AP19" s="31"/>
+      <c r="AQ19" s="31"/>
+      <c r="AR19" s="31"/>
+      <c r="AS19" s="31"/>
+      <c r="AT19" s="31"/>
+      <c r="AU19" s="31"/>
+      <c r="AV19" s="31"/>
+      <c r="AW19" s="31"/>
+      <c r="AX19" s="31"/>
+      <c r="AY19" s="31"/>
+      <c r="AZ19" s="31"/>
+      <c r="BA19" s="31"/>
+      <c r="BB19" s="31"/>
+      <c r="BC19" s="31"/>
+      <c r="BD19" s="31"/>
+      <c r="BE19" s="31"/>
+      <c r="BF19" s="31"/>
+      <c r="BG19" s="31"/>
+      <c r="BH19" s="31"/>
+      <c r="BI19" s="31"/>
+      <c r="BJ19" s="31"/>
       <c r="BK19" s="2"/>
     </row>
     <row r="20" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19" t="s">
+      <c r="D20" s="29"/>
+      <c r="E20" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="18" t="s">
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="Z20" s="18"/>
-      <c r="AA20" s="18"/>
-      <c r="AB20" s="18" t="s">
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
-      <c r="AE20" s="18"/>
-      <c r="AF20" s="20" t="s">
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AG20" s="20"/>
-      <c r="AH20" s="20"/>
-      <c r="AI20" s="20"/>
-      <c r="AJ20" s="20"/>
-      <c r="AK20" s="20"/>
-      <c r="AL20" s="20"/>
-      <c r="AM20" s="20"/>
-      <c r="AN20" s="20"/>
-      <c r="AO20" s="20"/>
-      <c r="AP20" s="20"/>
-      <c r="AQ20" s="20"/>
-      <c r="AR20" s="20"/>
-      <c r="AS20" s="20"/>
-      <c r="AT20" s="20"/>
-      <c r="AU20" s="20"/>
-      <c r="AV20" s="20"/>
-      <c r="AW20" s="20"/>
-      <c r="AX20" s="20"/>
-      <c r="AY20" s="20"/>
-      <c r="AZ20" s="20"/>
-      <c r="BA20" s="20"/>
-      <c r="BB20" s="20"/>
-      <c r="BC20" s="20"/>
-      <c r="BD20" s="20"/>
-      <c r="BE20" s="20"/>
-      <c r="BF20" s="20"/>
-      <c r="BG20" s="20"/>
-      <c r="BH20" s="20"/>
-      <c r="BI20" s="20"/>
-      <c r="BJ20" s="20"/>
+      <c r="AG20" s="31"/>
+      <c r="AH20" s="31"/>
+      <c r="AI20" s="31"/>
+      <c r="AJ20" s="31"/>
+      <c r="AK20" s="31"/>
+      <c r="AL20" s="31"/>
+      <c r="AM20" s="31"/>
+      <c r="AN20" s="31"/>
+      <c r="AO20" s="31"/>
+      <c r="AP20" s="31"/>
+      <c r="AQ20" s="31"/>
+      <c r="AR20" s="31"/>
+      <c r="AS20" s="31"/>
+      <c r="AT20" s="31"/>
+      <c r="AU20" s="31"/>
+      <c r="AV20" s="31"/>
+      <c r="AW20" s="31"/>
+      <c r="AX20" s="31"/>
+      <c r="AY20" s="31"/>
+      <c r="AZ20" s="31"/>
+      <c r="BA20" s="31"/>
+      <c r="BB20" s="31"/>
+      <c r="BC20" s="31"/>
+      <c r="BD20" s="31"/>
+      <c r="BE20" s="31"/>
+      <c r="BF20" s="31"/>
+      <c r="BG20" s="31"/>
+      <c r="BH20" s="31"/>
+      <c r="BI20" s="31"/>
+      <c r="BJ20" s="31"/>
       <c r="BK20" s="2"/>
     </row>
     <row r="21" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19" t="s">
+      <c r="D21" s="29"/>
+      <c r="E21" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="19"/>
-      <c r="Y21" s="18" t="s">
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="Z21" s="18"/>
-      <c r="AA21" s="18"/>
-      <c r="AB21" s="18" t="s">
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="18"/>
-      <c r="AE21" s="18"/>
-      <c r="AF21" s="20" t="s">
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
+      <c r="AE21" s="29"/>
+      <c r="AF21" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="AG21" s="20"/>
-      <c r="AH21" s="20"/>
-      <c r="AI21" s="20"/>
-      <c r="AJ21" s="20"/>
-      <c r="AK21" s="20"/>
-      <c r="AL21" s="20"/>
-      <c r="AM21" s="20"/>
-      <c r="AN21" s="20"/>
-      <c r="AO21" s="20"/>
-      <c r="AP21" s="20"/>
-      <c r="AQ21" s="20"/>
-      <c r="AR21" s="20"/>
-      <c r="AS21" s="20"/>
-      <c r="AT21" s="20"/>
-      <c r="AU21" s="20"/>
-      <c r="AV21" s="20"/>
-      <c r="AW21" s="20"/>
-      <c r="AX21" s="20"/>
-      <c r="AY21" s="20"/>
-      <c r="AZ21" s="20"/>
-      <c r="BA21" s="20"/>
-      <c r="BB21" s="20"/>
-      <c r="BC21" s="20"/>
-      <c r="BD21" s="20"/>
-      <c r="BE21" s="20"/>
-      <c r="BF21" s="20"/>
-      <c r="BG21" s="20"/>
-      <c r="BH21" s="20"/>
-      <c r="BI21" s="20"/>
-      <c r="BJ21" s="20"/>
+      <c r="AG21" s="31"/>
+      <c r="AH21" s="31"/>
+      <c r="AI21" s="31"/>
+      <c r="AJ21" s="31"/>
+      <c r="AK21" s="31"/>
+      <c r="AL21" s="31"/>
+      <c r="AM21" s="31"/>
+      <c r="AN21" s="31"/>
+      <c r="AO21" s="31"/>
+      <c r="AP21" s="31"/>
+      <c r="AQ21" s="31"/>
+      <c r="AR21" s="31"/>
+      <c r="AS21" s="31"/>
+      <c r="AT21" s="31"/>
+      <c r="AU21" s="31"/>
+      <c r="AV21" s="31"/>
+      <c r="AW21" s="31"/>
+      <c r="AX21" s="31"/>
+      <c r="AY21" s="31"/>
+      <c r="AZ21" s="31"/>
+      <c r="BA21" s="31"/>
+      <c r="BB21" s="31"/>
+      <c r="BC21" s="31"/>
+      <c r="BD21" s="31"/>
+      <c r="BE21" s="31"/>
+      <c r="BF21" s="31"/>
+      <c r="BG21" s="31"/>
+      <c r="BH21" s="31"/>
+      <c r="BI21" s="31"/>
+      <c r="BJ21" s="31"/>
       <c r="BK21" s="2"/>
     </row>
     <row r="22" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19" t="s">
+      <c r="D22" s="29"/>
+      <c r="E22" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="18" t="s">
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="Z22" s="18"/>
-      <c r="AA22" s="18"/>
-      <c r="AB22" s="18" t="s">
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AC22" s="18"/>
-      <c r="AD22" s="18"/>
-      <c r="AE22" s="18"/>
-      <c r="AF22" s="20" t="s">
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="29"/>
+      <c r="AF22" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AG22" s="20"/>
-      <c r="AH22" s="20"/>
-      <c r="AI22" s="20"/>
-      <c r="AJ22" s="20"/>
-      <c r="AK22" s="20"/>
-      <c r="AL22" s="20"/>
-      <c r="AM22" s="20"/>
-      <c r="AN22" s="20"/>
-      <c r="AO22" s="20"/>
-      <c r="AP22" s="20"/>
-      <c r="AQ22" s="20"/>
-      <c r="AR22" s="20"/>
-      <c r="AS22" s="20"/>
-      <c r="AT22" s="20"/>
-      <c r="AU22" s="20"/>
-      <c r="AV22" s="20"/>
-      <c r="AW22" s="20"/>
-      <c r="AX22" s="20"/>
-      <c r="AY22" s="20"/>
-      <c r="AZ22" s="20"/>
-      <c r="BA22" s="20"/>
-      <c r="BB22" s="20"/>
-      <c r="BC22" s="20"/>
-      <c r="BD22" s="20"/>
-      <c r="BE22" s="20"/>
-      <c r="BF22" s="20"/>
-      <c r="BG22" s="20"/>
-      <c r="BH22" s="20"/>
-      <c r="BI22" s="20"/>
-      <c r="BJ22" s="20"/>
+      <c r="AG22" s="31"/>
+      <c r="AH22" s="31"/>
+      <c r="AI22" s="31"/>
+      <c r="AJ22" s="31"/>
+      <c r="AK22" s="31"/>
+      <c r="AL22" s="31"/>
+      <c r="AM22" s="31"/>
+      <c r="AN22" s="31"/>
+      <c r="AO22" s="31"/>
+      <c r="AP22" s="31"/>
+      <c r="AQ22" s="31"/>
+      <c r="AR22" s="31"/>
+      <c r="AS22" s="31"/>
+      <c r="AT22" s="31"/>
+      <c r="AU22" s="31"/>
+      <c r="AV22" s="31"/>
+      <c r="AW22" s="31"/>
+      <c r="AX22" s="31"/>
+      <c r="AY22" s="31"/>
+      <c r="AZ22" s="31"/>
+      <c r="BA22" s="31"/>
+      <c r="BB22" s="31"/>
+      <c r="BC22" s="31"/>
+      <c r="BD22" s="31"/>
+      <c r="BE22" s="31"/>
+      <c r="BF22" s="31"/>
+      <c r="BG22" s="31"/>
+      <c r="BH22" s="31"/>
+      <c r="BI22" s="31"/>
+      <c r="BJ22" s="31"/>
       <c r="BK22" s="2"/>
     </row>
     <row r="23" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -4289,14 +4304,61 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B1:BK1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="Q2:AM2"/>
-    <mergeCell ref="AN2:AS2"/>
-    <mergeCell ref="AT2:AY2"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="BF2:BK2"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="AB22:AE22"/>
+    <mergeCell ref="AF22:BJ22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AB20:AE20"/>
+    <mergeCell ref="AF20:BJ20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AB21:AE21"/>
+    <mergeCell ref="AF21:BJ21"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB18:AE18"/>
+    <mergeCell ref="AF18:BJ18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="AB19:AE19"/>
+    <mergeCell ref="AF19:BJ19"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="AF13:BJ13"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:X17"/>
+    <mergeCell ref="Y16:AA17"/>
+    <mergeCell ref="AB16:AE17"/>
+    <mergeCell ref="AF16:BJ17"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="AB11:AE11"/>
+    <mergeCell ref="AF11:BJ11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="AF12:BJ12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="AB9:AE9"/>
+    <mergeCell ref="AF9:BJ9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="AF10:BJ10"/>
     <mergeCell ref="BF3:BK4"/>
     <mergeCell ref="C7:D8"/>
     <mergeCell ref="E7:X8"/>
@@ -4309,61 +4371,14 @@
     <mergeCell ref="AN3:AS4"/>
     <mergeCell ref="AT3:AY4"/>
     <mergeCell ref="AZ3:BE4"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="AF10:BJ10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="AB9:AE9"/>
-    <mergeCell ref="AF9:BJ9"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="AB12:AE12"/>
-    <mergeCell ref="AF12:BJ12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="AB11:AE11"/>
-    <mergeCell ref="AF11:BJ11"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:X17"/>
-    <mergeCell ref="Y16:AA17"/>
-    <mergeCell ref="AB16:AE17"/>
-    <mergeCell ref="AF16:BJ17"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:X13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="AB13:AE13"/>
-    <mergeCell ref="AF13:BJ13"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="AB19:AE19"/>
-    <mergeCell ref="AF19:BJ19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="AB18:AE18"/>
-    <mergeCell ref="AF18:BJ18"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="AB21:AE21"/>
-    <mergeCell ref="AF21:BJ21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="AB20:AE20"/>
-    <mergeCell ref="AF20:BJ20"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="AB22:AE22"/>
-    <mergeCell ref="AF22:BJ22"/>
+    <mergeCell ref="B1:BK1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:AM2"/>
+    <mergeCell ref="AN2:AS2"/>
+    <mergeCell ref="AT2:AY2"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="BF2:BK2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4373,432 +4388,432 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36293E3-BB8A-450A-AD90-324CA703073E}">
-  <dimension ref="B1:BK41"/>
+  <dimension ref="B1:BK42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:AG7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AR22" sqref="AR22:BJ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="51"/>
-      <c r="AQ1" s="51"/>
-      <c r="AR1" s="51"/>
-      <c r="AS1" s="51"/>
-      <c r="AT1" s="51"/>
-      <c r="AU1" s="51"/>
-      <c r="AV1" s="51"/>
-      <c r="AW1" s="51"/>
-      <c r="AX1" s="51"/>
-      <c r="AY1" s="51"/>
-      <c r="AZ1" s="51"/>
-      <c r="BA1" s="51"/>
-      <c r="BB1" s="51"/>
-      <c r="BC1" s="51"/>
-      <c r="BD1" s="51"/>
-      <c r="BE1" s="51"/>
-      <c r="BF1" s="51"/>
-      <c r="BG1" s="51"/>
-      <c r="BH1" s="51"/>
-      <c r="BI1" s="51"/>
-      <c r="BJ1" s="51"/>
-      <c r="BK1" s="52"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="42"/>
+      <c r="AO1" s="42"/>
+      <c r="AP1" s="42"/>
+      <c r="AQ1" s="42"/>
+      <c r="AR1" s="42"/>
+      <c r="AS1" s="42"/>
+      <c r="AT1" s="42"/>
+      <c r="AU1" s="42"/>
+      <c r="AV1" s="42"/>
+      <c r="AW1" s="42"/>
+      <c r="AX1" s="42"/>
+      <c r="AY1" s="42"/>
+      <c r="AZ1" s="42"/>
+      <c r="BA1" s="42"/>
+      <c r="BB1" s="42"/>
+      <c r="BC1" s="42"/>
+      <c r="BD1" s="42"/>
+      <c r="BE1" s="42"/>
+      <c r="BF1" s="42"/>
+      <c r="BG1" s="42"/>
+      <c r="BH1" s="42"/>
+      <c r="BI1" s="42"/>
+      <c r="BJ1" s="42"/>
+      <c r="BK1" s="43"/>
     </row>
     <row r="2" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="50" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="50" t="s">
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="50" t="s">
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="51"/>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="52"/>
-      <c r="AT2" s="50" t="s">
+      <c r="AO2" s="42"/>
+      <c r="AP2" s="42"/>
+      <c r="AQ2" s="42"/>
+      <c r="AR2" s="42"/>
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="AU2" s="51"/>
-      <c r="AV2" s="51"/>
-      <c r="AW2" s="51"/>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="52"/>
-      <c r="AZ2" s="50" t="s">
+      <c r="AU2" s="42"/>
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="43"/>
+      <c r="AZ2" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="BA2" s="51"/>
-      <c r="BB2" s="51"/>
-      <c r="BC2" s="51"/>
-      <c r="BD2" s="51"/>
-      <c r="BE2" s="52"/>
-      <c r="BF2" s="50" t="s">
+      <c r="BA2" s="42"/>
+      <c r="BB2" s="42"/>
+      <c r="BC2" s="42"/>
+      <c r="BD2" s="42"/>
+      <c r="BE2" s="43"/>
+      <c r="BF2" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="BG2" s="51"/>
-      <c r="BH2" s="51"/>
-      <c r="BI2" s="51"/>
-      <c r="BJ2" s="51"/>
-      <c r="BK2" s="52"/>
+      <c r="BG2" s="42"/>
+      <c r="BH2" s="42"/>
+      <c r="BI2" s="42"/>
+      <c r="BJ2" s="42"/>
+      <c r="BK2" s="43"/>
     </row>
     <row r="3" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="53">
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="44">
         <v>1</v>
       </c>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="53" t="s">
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="55"/>
-      <c r="AN3" s="59"/>
-      <c r="AO3" s="60"/>
-      <c r="AP3" s="60"/>
-      <c r="AQ3" s="60"/>
-      <c r="AR3" s="60"/>
-      <c r="AS3" s="61"/>
-      <c r="AT3" s="65" t="s">
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="46"/>
+      <c r="AN3" s="50"/>
+      <c r="AO3" s="51"/>
+      <c r="AP3" s="51"/>
+      <c r="AQ3" s="51"/>
+      <c r="AR3" s="51"/>
+      <c r="AS3" s="52"/>
+      <c r="AT3" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="AU3" s="66"/>
-      <c r="AV3" s="66"/>
-      <c r="AW3" s="66"/>
-      <c r="AX3" s="66"/>
-      <c r="AY3" s="67"/>
-      <c r="AZ3" s="59"/>
-      <c r="BA3" s="60"/>
-      <c r="BB3" s="60"/>
-      <c r="BC3" s="60"/>
-      <c r="BD3" s="60"/>
-      <c r="BE3" s="61"/>
-      <c r="BF3" s="53"/>
-      <c r="BG3" s="54"/>
-      <c r="BH3" s="54"/>
-      <c r="BI3" s="54"/>
-      <c r="BJ3" s="54"/>
-      <c r="BK3" s="55"/>
+      <c r="AU3" s="57"/>
+      <c r="AV3" s="57"/>
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="58"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="51"/>
+      <c r="BB3" s="51"/>
+      <c r="BC3" s="51"/>
+      <c r="BD3" s="51"/>
+      <c r="BE3" s="52"/>
+      <c r="BF3" s="44"/>
+      <c r="BG3" s="45"/>
+      <c r="BH3" s="45"/>
+      <c r="BI3" s="45"/>
+      <c r="BJ3" s="45"/>
+      <c r="BK3" s="46"/>
     </row>
     <row r="4" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="56"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="57"/>
-      <c r="AA4" s="57"/>
-      <c r="AB4" s="57"/>
-      <c r="AC4" s="57"/>
-      <c r="AD4" s="57"/>
-      <c r="AE4" s="57"/>
-      <c r="AF4" s="57"/>
-      <c r="AG4" s="57"/>
-      <c r="AH4" s="57"/>
-      <c r="AI4" s="57"/>
-      <c r="AJ4" s="57"/>
-      <c r="AK4" s="57"/>
-      <c r="AL4" s="57"/>
-      <c r="AM4" s="58"/>
-      <c r="AN4" s="62"/>
-      <c r="AO4" s="63"/>
-      <c r="AP4" s="63"/>
-      <c r="AQ4" s="63"/>
-      <c r="AR4" s="63"/>
-      <c r="AS4" s="64"/>
-      <c r="AT4" s="68"/>
-      <c r="AU4" s="69"/>
-      <c r="AV4" s="69"/>
-      <c r="AW4" s="69"/>
-      <c r="AX4" s="69"/>
-      <c r="AY4" s="70"/>
-      <c r="AZ4" s="62"/>
-      <c r="BA4" s="63"/>
-      <c r="BB4" s="63"/>
-      <c r="BC4" s="63"/>
-      <c r="BD4" s="63"/>
-      <c r="BE4" s="64"/>
-      <c r="BF4" s="56"/>
-      <c r="BG4" s="57"/>
-      <c r="BH4" s="57"/>
-      <c r="BI4" s="57"/>
-      <c r="BJ4" s="57"/>
-      <c r="BK4" s="58"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
+      <c r="AH4" s="48"/>
+      <c r="AI4" s="48"/>
+      <c r="AJ4" s="48"/>
+      <c r="AK4" s="48"/>
+      <c r="AL4" s="48"/>
+      <c r="AM4" s="49"/>
+      <c r="AN4" s="53"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="54"/>
+      <c r="AQ4" s="54"/>
+      <c r="AR4" s="54"/>
+      <c r="AS4" s="55"/>
+      <c r="AT4" s="59"/>
+      <c r="AU4" s="60"/>
+      <c r="AV4" s="60"/>
+      <c r="AW4" s="60"/>
+      <c r="AX4" s="60"/>
+      <c r="AY4" s="61"/>
+      <c r="AZ4" s="53"/>
+      <c r="BA4" s="54"/>
+      <c r="BB4" s="54"/>
+      <c r="BC4" s="54"/>
+      <c r="BD4" s="54"/>
+      <c r="BE4" s="55"/>
+      <c r="BF4" s="47"/>
+      <c r="BG4" s="48"/>
+      <c r="BH4" s="48"/>
+      <c r="BI4" s="48"/>
+      <c r="BJ4" s="48"/>
+      <c r="BK4" s="49"/>
     </row>
     <row r="5" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="49"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="48"/>
-      <c r="AD5" s="48"/>
-      <c r="AE5" s="48"/>
-      <c r="AF5" s="48"/>
-      <c r="AG5" s="48"/>
-      <c r="AH5" s="48"/>
-      <c r="AI5" s="48"/>
-      <c r="AJ5" s="48"/>
-      <c r="AK5" s="48"/>
-      <c r="AL5" s="48"/>
-      <c r="AM5" s="48"/>
-      <c r="AN5" s="48"/>
-      <c r="AO5" s="48"/>
-      <c r="AP5" s="48"/>
-      <c r="AQ5" s="48"/>
-      <c r="AR5" s="48"/>
-      <c r="AS5" s="48"/>
-      <c r="AT5" s="48"/>
-      <c r="AU5" s="48"/>
-      <c r="AV5" s="48"/>
-      <c r="AW5" s="48"/>
-      <c r="AX5" s="48"/>
-      <c r="AY5" s="48"/>
-      <c r="AZ5" s="48"/>
-      <c r="BA5" s="48"/>
-      <c r="BB5" s="48"/>
-      <c r="BC5" s="48"/>
-      <c r="BD5" s="48"/>
-      <c r="BE5" s="48"/>
-      <c r="BF5" s="48"/>
-      <c r="BG5" s="48"/>
-      <c r="BH5" s="48"/>
-      <c r="BI5" s="48"/>
-      <c r="BJ5" s="47"/>
-      <c r="BK5" s="47"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="64"/>
+      <c r="X5" s="64"/>
+      <c r="Y5" s="64"/>
+      <c r="Z5" s="64"/>
+      <c r="AA5" s="64"/>
+      <c r="AB5" s="64"/>
+      <c r="AC5" s="64"/>
+      <c r="AD5" s="64"/>
+      <c r="AE5" s="64"/>
+      <c r="AF5" s="64"/>
+      <c r="AG5" s="64"/>
+      <c r="AH5" s="64"/>
+      <c r="AI5" s="64"/>
+      <c r="AJ5" s="64"/>
+      <c r="AK5" s="64"/>
+      <c r="AL5" s="64"/>
+      <c r="AM5" s="64"/>
+      <c r="AN5" s="64"/>
+      <c r="AO5" s="64"/>
+      <c r="AP5" s="64"/>
+      <c r="AQ5" s="64"/>
+      <c r="AR5" s="64"/>
+      <c r="AS5" s="64"/>
+      <c r="AT5" s="64"/>
+      <c r="AU5" s="64"/>
+      <c r="AV5" s="64"/>
+      <c r="AW5" s="64"/>
+      <c r="AX5" s="64"/>
+      <c r="AY5" s="64"/>
+      <c r="AZ5" s="64"/>
+      <c r="BA5" s="64"/>
+      <c r="BB5" s="64"/>
+      <c r="BC5" s="64"/>
+      <c r="BD5" s="64"/>
+      <c r="BE5" s="64"/>
+      <c r="BF5" s="64"/>
+      <c r="BG5" s="64"/>
+      <c r="BH5" s="64"/>
+      <c r="BI5" s="64"/>
+      <c r="BJ5" s="63"/>
+      <c r="BK5" s="63"/>
     </row>
     <row r="6" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="14"/>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="41" t="s">
+      <c r="D6" s="66"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="41" t="s">
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="42"/>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="42"/>
-      <c r="AD6" s="42"/>
-      <c r="AE6" s="42"/>
-      <c r="AF6" s="42"/>
-      <c r="AG6" s="43"/>
-      <c r="AH6" s="41" t="s">
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="66"/>
+      <c r="AA6" s="66"/>
+      <c r="AB6" s="66"/>
+      <c r="AC6" s="66"/>
+      <c r="AD6" s="66"/>
+      <c r="AE6" s="66"/>
+      <c r="AF6" s="66"/>
+      <c r="AG6" s="67"/>
+      <c r="AH6" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="AI6" s="42"/>
-      <c r="AJ6" s="42"/>
-      <c r="AK6" s="42"/>
-      <c r="AL6" s="42"/>
-      <c r="AM6" s="43"/>
-      <c r="AN6" s="41" t="s">
+      <c r="AI6" s="66"/>
+      <c r="AJ6" s="66"/>
+      <c r="AK6" s="66"/>
+      <c r="AL6" s="66"/>
+      <c r="AM6" s="67"/>
+      <c r="AN6" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="AO6" s="42"/>
-      <c r="AP6" s="42"/>
-      <c r="AQ6" s="43"/>
-      <c r="AR6" s="44" t="s">
+      <c r="AO6" s="66"/>
+      <c r="AP6" s="66"/>
+      <c r="AQ6" s="67"/>
+      <c r="AR6" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="AS6" s="45"/>
-      <c r="AT6" s="45"/>
-      <c r="AU6" s="45"/>
-      <c r="AV6" s="45"/>
-      <c r="AW6" s="45"/>
-      <c r="AX6" s="45"/>
-      <c r="AY6" s="45"/>
-      <c r="AZ6" s="45"/>
-      <c r="BA6" s="45"/>
-      <c r="BB6" s="45"/>
-      <c r="BC6" s="45"/>
-      <c r="BD6" s="45"/>
-      <c r="BE6" s="45"/>
-      <c r="BF6" s="45"/>
-      <c r="BG6" s="45"/>
-      <c r="BH6" s="45"/>
-      <c r="BI6" s="45"/>
-      <c r="BJ6" s="46"/>
+      <c r="AS6" s="69"/>
+      <c r="AT6" s="69"/>
+      <c r="AU6" s="69"/>
+      <c r="AV6" s="69"/>
+      <c r="AW6" s="69"/>
+      <c r="AX6" s="69"/>
+      <c r="AY6" s="69"/>
+      <c r="AZ6" s="69"/>
+      <c r="BA6" s="69"/>
+      <c r="BB6" s="69"/>
+      <c r="BC6" s="69"/>
+      <c r="BD6" s="69"/>
+      <c r="BE6" s="69"/>
+      <c r="BF6" s="69"/>
+      <c r="BG6" s="69"/>
+      <c r="BH6" s="69"/>
+      <c r="BI6" s="69"/>
+      <c r="BJ6" s="70"/>
       <c r="BK6" s="15"/>
     </row>
     <row r="7" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -5887,18 +5902,18 @@
     </row>
     <row r="22" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C22" s="32" t="s">
-        <v>133</v>
+        <v>219</v>
       </c>
       <c r="D22" s="33"/>
       <c r="E22" s="34"/>
       <c r="F22" s="32" t="s">
-        <v>150</v>
+        <v>213</v>
       </c>
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
       <c r="I22" s="34"/>
       <c r="J22" s="35" t="s">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="K22" s="36"/>
       <c r="L22" s="36"/>
@@ -5924,7 +5939,7 @@
       <c r="AF22" s="36"/>
       <c r="AG22" s="37"/>
       <c r="AH22" s="32" t="s">
-        <v>151</v>
+        <v>221</v>
       </c>
       <c r="AI22" s="33"/>
       <c r="AJ22" s="33"/>
@@ -5959,7 +5974,7 @@
     </row>
     <row r="23" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D23" s="33"/>
       <c r="E23" s="34"/>
@@ -5970,7 +5985,7 @@
       <c r="H23" s="33"/>
       <c r="I23" s="34"/>
       <c r="J23" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K23" s="36"/>
       <c r="L23" s="36"/>
@@ -6031,7 +6046,7 @@
     </row>
     <row r="24" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C24" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D24" s="33"/>
       <c r="E24" s="34"/>
@@ -6042,7 +6057,7 @@
       <c r="H24" s="33"/>
       <c r="I24" s="34"/>
       <c r="J24" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K24" s="36"/>
       <c r="L24" s="36"/>
@@ -6103,7 +6118,7 @@
     </row>
     <row r="25" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C25" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D25" s="33"/>
       <c r="E25" s="34"/>
@@ -6114,7 +6129,7 @@
       <c r="H25" s="33"/>
       <c r="I25" s="34"/>
       <c r="J25" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K25" s="36"/>
       <c r="L25" s="36"/>
@@ -6175,7 +6190,7 @@
     </row>
     <row r="26" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C26" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D26" s="33"/>
       <c r="E26" s="34"/>
@@ -6186,7 +6201,7 @@
       <c r="H26" s="33"/>
       <c r="I26" s="34"/>
       <c r="J26" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K26" s="36"/>
       <c r="L26" s="36"/>
@@ -6247,7 +6262,7 @@
     </row>
     <row r="27" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C27" s="32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D27" s="33"/>
       <c r="E27" s="34"/>
@@ -6258,7 +6273,7 @@
       <c r="H27" s="33"/>
       <c r="I27" s="34"/>
       <c r="J27" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K27" s="36"/>
       <c r="L27" s="36"/>
@@ -6319,7 +6334,7 @@
     </row>
     <row r="28" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C28" s="32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D28" s="33"/>
       <c r="E28" s="34"/>
@@ -6330,7 +6345,7 @@
       <c r="H28" s="33"/>
       <c r="I28" s="34"/>
       <c r="J28" s="35" t="s">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="K28" s="36"/>
       <c r="L28" s="36"/>
@@ -6391,7 +6406,7 @@
     </row>
     <row r="29" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D29" s="33"/>
       <c r="E29" s="34"/>
@@ -6402,7 +6417,7 @@
       <c r="H29" s="33"/>
       <c r="I29" s="34"/>
       <c r="J29" s="35" t="s">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="K29" s="36"/>
       <c r="L29" s="36"/>
@@ -6463,7 +6478,7 @@
     </row>
     <row r="30" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C30" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D30" s="33"/>
       <c r="E30" s="34"/>
@@ -6474,7 +6489,7 @@
       <c r="H30" s="33"/>
       <c r="I30" s="34"/>
       <c r="J30" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K30" s="36"/>
       <c r="L30" s="36"/>
@@ -6535,7 +6550,7 @@
     </row>
     <row r="31" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C31" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D31" s="33"/>
       <c r="E31" s="34"/>
@@ -6546,7 +6561,7 @@
       <c r="H31" s="33"/>
       <c r="I31" s="34"/>
       <c r="J31" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K31" s="36"/>
       <c r="L31" s="36"/>
@@ -6607,7 +6622,7 @@
     </row>
     <row r="32" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C32" s="32" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="D32" s="33"/>
       <c r="E32" s="34"/>
@@ -6618,7 +6633,7 @@
       <c r="H32" s="33"/>
       <c r="I32" s="34"/>
       <c r="J32" s="35" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="K32" s="36"/>
       <c r="L32" s="36"/>
@@ -6679,7 +6694,7 @@
     </row>
     <row r="33" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C33" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" s="33"/>
       <c r="E33" s="34"/>
@@ -6690,7 +6705,7 @@
       <c r="H33" s="33"/>
       <c r="I33" s="34"/>
       <c r="J33" s="35" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="K33" s="36"/>
       <c r="L33" s="36"/>
@@ -6751,18 +6766,18 @@
     </row>
     <row r="34" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C34" s="32" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="D34" s="33"/>
       <c r="E34" s="34"/>
       <c r="F34" s="32" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="G34" s="33"/>
       <c r="H34" s="33"/>
       <c r="I34" s="34"/>
       <c r="J34" s="35" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="K34" s="36"/>
       <c r="L34" s="36"/>
@@ -6796,7 +6811,7 @@
       <c r="AL34" s="33"/>
       <c r="AM34" s="34"/>
       <c r="AN34" s="32" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AO34" s="33"/>
       <c r="AP34" s="33"/>
@@ -6823,7 +6838,7 @@
     </row>
     <row r="35" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C35" s="32" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="D35" s="33"/>
       <c r="E35" s="34"/>
@@ -6834,7 +6849,7 @@
       <c r="H35" s="33"/>
       <c r="I35" s="34"/>
       <c r="J35" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K35" s="36"/>
       <c r="L35" s="36"/>
@@ -6873,9 +6888,7 @@
       <c r="AO35" s="33"/>
       <c r="AP35" s="33"/>
       <c r="AQ35" s="34"/>
-      <c r="AR35" s="32" t="s">
-        <v>92</v>
-      </c>
+      <c r="AR35" s="32"/>
       <c r="AS35" s="33"/>
       <c r="AT35" s="33"/>
       <c r="AU35" s="33"/>
@@ -6897,7 +6910,7 @@
     </row>
     <row r="36" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C36" s="32" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D36" s="33"/>
       <c r="E36" s="34"/>
@@ -6908,7 +6921,7 @@
       <c r="H36" s="33"/>
       <c r="I36" s="34"/>
       <c r="J36" s="35" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K36" s="36"/>
       <c r="L36" s="36"/>
@@ -6947,7 +6960,9 @@
       <c r="AO36" s="33"/>
       <c r="AP36" s="33"/>
       <c r="AQ36" s="34"/>
-      <c r="AR36" s="32"/>
+      <c r="AR36" s="32" t="s">
+        <v>92</v>
+      </c>
       <c r="AS36" s="33"/>
       <c r="AT36" s="33"/>
       <c r="AU36" s="33"/>
@@ -6969,7 +6984,7 @@
     </row>
     <row r="37" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C37" s="32" t="s">
-        <v>164</v>
+        <v>93</v>
       </c>
       <c r="D37" s="33"/>
       <c r="E37" s="34"/>
@@ -6980,7 +6995,7 @@
       <c r="H37" s="33"/>
       <c r="I37" s="34"/>
       <c r="J37" s="35" t="s">
-        <v>165</v>
+        <v>94</v>
       </c>
       <c r="K37" s="36"/>
       <c r="L37" s="36"/>
@@ -7041,18 +7056,18 @@
     </row>
     <row r="38" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C38" s="32" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="D38" s="33"/>
       <c r="E38" s="34"/>
       <c r="F38" s="32" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="G38" s="33"/>
       <c r="H38" s="33"/>
       <c r="I38" s="34"/>
       <c r="J38" s="35" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="K38" s="36"/>
       <c r="L38" s="36"/>
@@ -7113,7 +7128,7 @@
     </row>
     <row r="39" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C39" s="32" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D39" s="33"/>
       <c r="E39" s="34"/>
@@ -7124,7 +7139,7 @@
       <c r="H39" s="33"/>
       <c r="I39" s="34"/>
       <c r="J39" s="35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K39" s="36"/>
       <c r="L39" s="36"/>
@@ -7185,7 +7200,7 @@
     </row>
     <row r="40" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C40" s="32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D40" s="33"/>
       <c r="E40" s="34"/>
@@ -7196,7 +7211,7 @@
       <c r="H40" s="33"/>
       <c r="I40" s="34"/>
       <c r="J40" s="35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K40" s="36"/>
       <c r="L40" s="36"/>
@@ -7257,7 +7272,7 @@
     </row>
     <row r="41" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C41" s="32" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="D41" s="33"/>
       <c r="E41" s="34"/>
@@ -7268,7 +7283,7 @@
       <c r="H41" s="33"/>
       <c r="I41" s="34"/>
       <c r="J41" s="35" t="s">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="K41" s="36"/>
       <c r="L41" s="36"/>
@@ -7327,44 +7342,278 @@
       <c r="BI41" s="33"/>
       <c r="BJ41" s="34"/>
     </row>
+    <row r="42" spans="3:62" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C42" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="33"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="36"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="36"/>
+      <c r="S42" s="36"/>
+      <c r="T42" s="36"/>
+      <c r="U42" s="36"/>
+      <c r="V42" s="36"/>
+      <c r="W42" s="36"/>
+      <c r="X42" s="36"/>
+      <c r="Y42" s="36"/>
+      <c r="Z42" s="36"/>
+      <c r="AA42" s="36"/>
+      <c r="AB42" s="36"/>
+      <c r="AC42" s="36"/>
+      <c r="AD42" s="36"/>
+      <c r="AE42" s="36"/>
+      <c r="AF42" s="36"/>
+      <c r="AG42" s="37"/>
+      <c r="AH42" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI42" s="33"/>
+      <c r="AJ42" s="33"/>
+      <c r="AK42" s="33"/>
+      <c r="AL42" s="33"/>
+      <c r="AM42" s="34"/>
+      <c r="AN42" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO42" s="33"/>
+      <c r="AP42" s="33"/>
+      <c r="AQ42" s="34"/>
+      <c r="AR42" s="32"/>
+      <c r="AS42" s="33"/>
+      <c r="AT42" s="33"/>
+      <c r="AU42" s="33"/>
+      <c r="AV42" s="33"/>
+      <c r="AW42" s="33"/>
+      <c r="AX42" s="33"/>
+      <c r="AY42" s="33"/>
+      <c r="AZ42" s="33"/>
+      <c r="BA42" s="33"/>
+      <c r="BB42" s="33"/>
+      <c r="BC42" s="33"/>
+      <c r="BD42" s="33"/>
+      <c r="BE42" s="33"/>
+      <c r="BF42" s="33"/>
+      <c r="BG42" s="33"/>
+      <c r="BH42" s="33"/>
+      <c r="BI42" s="33"/>
+      <c r="BJ42" s="34"/>
+    </row>
   </sheetData>
-  <mergeCells count="252">
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="J41:AG41"/>
-    <mergeCell ref="AH41:AM41"/>
-    <mergeCell ref="AN41:AQ41"/>
-    <mergeCell ref="AR41:BJ41"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="J40:AG40"/>
-    <mergeCell ref="AH40:AM40"/>
-    <mergeCell ref="AN40:AQ40"/>
-    <mergeCell ref="AR40:BJ40"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="AH38:AM38"/>
-    <mergeCell ref="AN38:AQ38"/>
-    <mergeCell ref="AR38:BJ38"/>
-    <mergeCell ref="J38:AG38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="J39:AG39"/>
-    <mergeCell ref="AH39:AM39"/>
-    <mergeCell ref="AN39:AQ39"/>
-    <mergeCell ref="AR39:BJ39"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:AG36"/>
-    <mergeCell ref="AH36:AM36"/>
-    <mergeCell ref="AN36:AQ36"/>
-    <mergeCell ref="AR36:BJ36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AG37"/>
-    <mergeCell ref="AH37:AM37"/>
-    <mergeCell ref="AN37:AQ37"/>
-    <mergeCell ref="AR37:BJ37"/>
+  <mergeCells count="258">
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="J42:AG42"/>
+    <mergeCell ref="AH42:AM42"/>
+    <mergeCell ref="AN42:AQ42"/>
+    <mergeCell ref="AR42:BJ42"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AG34"/>
+    <mergeCell ref="AH34:AM34"/>
+    <mergeCell ref="AN34:AQ34"/>
+    <mergeCell ref="AR34:BJ34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:AG35"/>
+    <mergeCell ref="AH35:AM35"/>
+    <mergeCell ref="AN35:AQ35"/>
+    <mergeCell ref="AR35:BJ35"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AG29"/>
+    <mergeCell ref="AH29:AM29"/>
+    <mergeCell ref="AN29:AQ29"/>
+    <mergeCell ref="AR29:BJ29"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AG33"/>
+    <mergeCell ref="AH33:AM33"/>
+    <mergeCell ref="AN33:AQ33"/>
+    <mergeCell ref="AR33:BJ33"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AG31"/>
+    <mergeCell ref="AH31:AM31"/>
+    <mergeCell ref="AN31:AQ31"/>
+    <mergeCell ref="AR31:BJ31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AG32"/>
+    <mergeCell ref="AH32:AM32"/>
+    <mergeCell ref="AN32:AQ32"/>
+    <mergeCell ref="AR32:BJ32"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:AG21"/>
+    <mergeCell ref="AH21:AM21"/>
+    <mergeCell ref="AN21:AQ21"/>
+    <mergeCell ref="AR21:BJ21"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:AG19"/>
+    <mergeCell ref="AH19:AM19"/>
+    <mergeCell ref="AN19:AQ19"/>
+    <mergeCell ref="AR19:BJ19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:AG20"/>
+    <mergeCell ref="AH20:AM20"/>
+    <mergeCell ref="AN20:AQ20"/>
+    <mergeCell ref="AR20:BJ20"/>
+    <mergeCell ref="AR11:BJ11"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:AG10"/>
+    <mergeCell ref="AH10:AM10"/>
+    <mergeCell ref="AN10:AQ10"/>
+    <mergeCell ref="AR10:BJ10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:AG11"/>
+    <mergeCell ref="AH11:AM11"/>
+    <mergeCell ref="AN11:AQ11"/>
+    <mergeCell ref="AR9:BJ9"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:AG8"/>
+    <mergeCell ref="AH8:AM8"/>
+    <mergeCell ref="AN8:AQ8"/>
+    <mergeCell ref="AR8:BJ8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:AG9"/>
+    <mergeCell ref="AH9:AM9"/>
+    <mergeCell ref="AN9:AQ9"/>
+    <mergeCell ref="AR7:BJ7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:AG6"/>
+    <mergeCell ref="AH6:AM6"/>
+    <mergeCell ref="AN6:AQ6"/>
+    <mergeCell ref="AR6:BJ6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:AG7"/>
+    <mergeCell ref="AH7:AM7"/>
+    <mergeCell ref="AN7:AQ7"/>
+    <mergeCell ref="BJ5:BK5"/>
+    <mergeCell ref="AC5:AE5"/>
+    <mergeCell ref="AF5:AH5"/>
+    <mergeCell ref="AI5:AK5"/>
+    <mergeCell ref="AL5:AN5"/>
+    <mergeCell ref="AO5:AQ5"/>
+    <mergeCell ref="AR5:AT5"/>
+    <mergeCell ref="AU5:AW5"/>
+    <mergeCell ref="AX5:AZ5"/>
+    <mergeCell ref="BA5:BC5"/>
+    <mergeCell ref="BD5:BF5"/>
+    <mergeCell ref="BG5:BI5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="Z5:AB5"/>
+    <mergeCell ref="B1:BK1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:AM2"/>
+    <mergeCell ref="AN2:AS2"/>
+    <mergeCell ref="AT2:AY2"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="BF2:BK2"/>
+    <mergeCell ref="BF3:BK4"/>
+    <mergeCell ref="B3:K4"/>
+    <mergeCell ref="L3:P4"/>
+    <mergeCell ref="Q3:AM4"/>
+    <mergeCell ref="AN3:AS4"/>
+    <mergeCell ref="AT3:AY4"/>
+    <mergeCell ref="AZ3:BE4"/>
+    <mergeCell ref="AR12:BJ12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:AG13"/>
+    <mergeCell ref="AH13:AM13"/>
+    <mergeCell ref="AN13:AQ13"/>
+    <mergeCell ref="AR13:BJ13"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:AG12"/>
+    <mergeCell ref="AH12:AM12"/>
+    <mergeCell ref="AN12:AQ12"/>
+    <mergeCell ref="AR14:BJ14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:AG15"/>
+    <mergeCell ref="AH15:AM15"/>
+    <mergeCell ref="AN15:AQ15"/>
+    <mergeCell ref="AR15:BJ15"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:AG14"/>
+    <mergeCell ref="AH14:AM14"/>
+    <mergeCell ref="AN14:AQ14"/>
+    <mergeCell ref="AR18:BJ18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:AG18"/>
+    <mergeCell ref="AH18:AM18"/>
+    <mergeCell ref="AN18:AQ18"/>
+    <mergeCell ref="AR16:BJ16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:AG17"/>
+    <mergeCell ref="AH17:AM17"/>
+    <mergeCell ref="AN17:AQ17"/>
+    <mergeCell ref="AR17:BJ17"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:AG16"/>
+    <mergeCell ref="AH16:AM16"/>
+    <mergeCell ref="AN16:AQ16"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:AG22"/>
+    <mergeCell ref="AH22:AM22"/>
+    <mergeCell ref="AN22:AQ22"/>
+    <mergeCell ref="AR22:BJ22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AG23"/>
+    <mergeCell ref="AH23:AM23"/>
+    <mergeCell ref="AN23:AQ23"/>
+    <mergeCell ref="AR23:BJ23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AG24"/>
+    <mergeCell ref="AH24:AM24"/>
+    <mergeCell ref="AN24:AQ24"/>
+    <mergeCell ref="AR24:BJ24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AG25"/>
+    <mergeCell ref="AH25:AM25"/>
+    <mergeCell ref="AN25:AQ25"/>
+    <mergeCell ref="AR25:BJ25"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="F30:I30"/>
     <mergeCell ref="J30:AG30"/>
@@ -7389,198 +7638,42 @@
     <mergeCell ref="AH28:AM28"/>
     <mergeCell ref="AN28:AQ28"/>
     <mergeCell ref="AR28:BJ28"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AG24"/>
-    <mergeCell ref="AH24:AM24"/>
-    <mergeCell ref="AN24:AQ24"/>
-    <mergeCell ref="AR24:BJ24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AG25"/>
-    <mergeCell ref="AH25:AM25"/>
-    <mergeCell ref="AN25:AQ25"/>
-    <mergeCell ref="AR25:BJ25"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:AG22"/>
-    <mergeCell ref="AH22:AM22"/>
-    <mergeCell ref="AN22:AQ22"/>
-    <mergeCell ref="AR22:BJ22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AG23"/>
-    <mergeCell ref="AH23:AM23"/>
-    <mergeCell ref="AN23:AQ23"/>
-    <mergeCell ref="AR23:BJ23"/>
-    <mergeCell ref="AR18:BJ18"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:AG18"/>
-    <mergeCell ref="AH18:AM18"/>
-    <mergeCell ref="AN18:AQ18"/>
-    <mergeCell ref="AR16:BJ16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:AG17"/>
-    <mergeCell ref="AH17:AM17"/>
-    <mergeCell ref="AN17:AQ17"/>
-    <mergeCell ref="AR17:BJ17"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:AG16"/>
-    <mergeCell ref="AH16:AM16"/>
-    <mergeCell ref="AN16:AQ16"/>
-    <mergeCell ref="AR14:BJ14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:AG15"/>
-    <mergeCell ref="AH15:AM15"/>
-    <mergeCell ref="AN15:AQ15"/>
-    <mergeCell ref="AR15:BJ15"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:AG14"/>
-    <mergeCell ref="AH14:AM14"/>
-    <mergeCell ref="AN14:AQ14"/>
-    <mergeCell ref="AR12:BJ12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:AG13"/>
-    <mergeCell ref="AH13:AM13"/>
-    <mergeCell ref="AN13:AQ13"/>
-    <mergeCell ref="AR13:BJ13"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:AG12"/>
-    <mergeCell ref="AH12:AM12"/>
-    <mergeCell ref="AN12:AQ12"/>
-    <mergeCell ref="B1:BK1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="Q2:AM2"/>
-    <mergeCell ref="AN2:AS2"/>
-    <mergeCell ref="AT2:AY2"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="BF2:BK2"/>
-    <mergeCell ref="BF3:BK4"/>
-    <mergeCell ref="B3:K4"/>
-    <mergeCell ref="L3:P4"/>
-    <mergeCell ref="Q3:AM4"/>
-    <mergeCell ref="AN3:AS4"/>
-    <mergeCell ref="AT3:AY4"/>
-    <mergeCell ref="AZ3:BE4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="Z5:AB5"/>
-    <mergeCell ref="BJ5:BK5"/>
-    <mergeCell ref="AC5:AE5"/>
-    <mergeCell ref="AF5:AH5"/>
-    <mergeCell ref="AI5:AK5"/>
-    <mergeCell ref="AL5:AN5"/>
-    <mergeCell ref="AO5:AQ5"/>
-    <mergeCell ref="AR5:AT5"/>
-    <mergeCell ref="AU5:AW5"/>
-    <mergeCell ref="AX5:AZ5"/>
-    <mergeCell ref="BA5:BC5"/>
-    <mergeCell ref="BD5:BF5"/>
-    <mergeCell ref="BG5:BI5"/>
-    <mergeCell ref="AR7:BJ7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:AG6"/>
-    <mergeCell ref="AH6:AM6"/>
-    <mergeCell ref="AN6:AQ6"/>
-    <mergeCell ref="AR6:BJ6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:AG7"/>
-    <mergeCell ref="AH7:AM7"/>
-    <mergeCell ref="AN7:AQ7"/>
-    <mergeCell ref="AR9:BJ9"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:AG8"/>
-    <mergeCell ref="AH8:AM8"/>
-    <mergeCell ref="AN8:AQ8"/>
-    <mergeCell ref="AR8:BJ8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:AG9"/>
-    <mergeCell ref="AH9:AM9"/>
-    <mergeCell ref="AN9:AQ9"/>
-    <mergeCell ref="AR11:BJ11"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:AG10"/>
-    <mergeCell ref="AH10:AM10"/>
-    <mergeCell ref="AN10:AQ10"/>
-    <mergeCell ref="AR10:BJ10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:AG11"/>
-    <mergeCell ref="AH11:AM11"/>
-    <mergeCell ref="AN11:AQ11"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:AG21"/>
-    <mergeCell ref="AH21:AM21"/>
-    <mergeCell ref="AN21:AQ21"/>
-    <mergeCell ref="AR21:BJ21"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:AG19"/>
-    <mergeCell ref="AH19:AM19"/>
-    <mergeCell ref="AN19:AQ19"/>
-    <mergeCell ref="AR19:BJ19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:AG20"/>
-    <mergeCell ref="AH20:AM20"/>
-    <mergeCell ref="AN20:AQ20"/>
-    <mergeCell ref="AR20:BJ20"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AG29"/>
-    <mergeCell ref="AH29:AM29"/>
-    <mergeCell ref="AN29:AQ29"/>
-    <mergeCell ref="AR29:BJ29"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AG33"/>
-    <mergeCell ref="AH33:AM33"/>
-    <mergeCell ref="AN33:AQ33"/>
-    <mergeCell ref="AR33:BJ33"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AG31"/>
-    <mergeCell ref="AH31:AM31"/>
-    <mergeCell ref="AN31:AQ31"/>
-    <mergeCell ref="AR31:BJ31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AG32"/>
-    <mergeCell ref="AH32:AM32"/>
-    <mergeCell ref="AN32:AQ32"/>
-    <mergeCell ref="AR32:BJ32"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AG34"/>
-    <mergeCell ref="AH34:AM34"/>
-    <mergeCell ref="AN34:AQ34"/>
-    <mergeCell ref="AR34:BJ34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:AG35"/>
-    <mergeCell ref="AH35:AM35"/>
-    <mergeCell ref="AN35:AQ35"/>
-    <mergeCell ref="AR35:BJ35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:AG36"/>
+    <mergeCell ref="AH36:AM36"/>
+    <mergeCell ref="AN36:AQ36"/>
+    <mergeCell ref="AR36:BJ36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AG37"/>
+    <mergeCell ref="AH37:AM37"/>
+    <mergeCell ref="AN37:AQ37"/>
+    <mergeCell ref="AR37:BJ37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="AH38:AM38"/>
+    <mergeCell ref="AN38:AQ38"/>
+    <mergeCell ref="AR38:BJ38"/>
+    <mergeCell ref="J38:AG38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:AG39"/>
+    <mergeCell ref="AH39:AM39"/>
+    <mergeCell ref="AN39:AQ39"/>
+    <mergeCell ref="AR39:BJ39"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="J41:AG41"/>
+    <mergeCell ref="AH41:AM41"/>
+    <mergeCell ref="AN41:AQ41"/>
+    <mergeCell ref="AR41:BJ41"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:AG40"/>
+    <mergeCell ref="AH40:AM40"/>
+    <mergeCell ref="AN40:AQ40"/>
+    <mergeCell ref="AR40:BJ40"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7666,297 +7759,297 @@
     </row>
     <row r="2" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
-      <c r="AO2" s="29"/>
-      <c r="AP2" s="29"/>
-      <c r="AQ2" s="29"/>
-      <c r="AR2" s="29"/>
-      <c r="AS2" s="29"/>
-      <c r="AT2" s="29"/>
-      <c r="AU2" s="29"/>
-      <c r="AV2" s="29"/>
-      <c r="AW2" s="29"/>
-      <c r="AX2" s="29"/>
-      <c r="AY2" s="29"/>
-      <c r="AZ2" s="29"/>
-      <c r="BA2" s="29"/>
-      <c r="BB2" s="29"/>
-      <c r="BC2" s="29"/>
-      <c r="BD2" s="29"/>
-      <c r="BE2" s="29"/>
-      <c r="BF2" s="29"/>
-      <c r="BG2" s="29"/>
-      <c r="BH2" s="29"/>
-      <c r="BI2" s="29"/>
-      <c r="BJ2" s="29"/>
-      <c r="BK2" s="29"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="19"/>
+      <c r="AN2" s="19"/>
+      <c r="AO2" s="19"/>
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="19"/>
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="19"/>
+      <c r="AT2" s="19"/>
+      <c r="AU2" s="19"/>
+      <c r="AV2" s="19"/>
+      <c r="AW2" s="19"/>
+      <c r="AX2" s="19"/>
+      <c r="AY2" s="19"/>
+      <c r="AZ2" s="19"/>
+      <c r="BA2" s="19"/>
+      <c r="BB2" s="19"/>
+      <c r="BC2" s="19"/>
+      <c r="BD2" s="19"/>
+      <c r="BE2" s="19"/>
+      <c r="BF2" s="19"/>
+      <c r="BG2" s="19"/>
+      <c r="BH2" s="19"/>
+      <c r="BI2" s="19"/>
+      <c r="BJ2" s="19"/>
+      <c r="BK2" s="19"/>
       <c r="BL2" s="16"/>
     </row>
     <row r="3" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="16"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="30" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30" t="s">
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="30"/>
-      <c r="AL3" s="30"/>
-      <c r="AM3" s="30"/>
-      <c r="AN3" s="31" t="s">
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="20"/>
+      <c r="AM3" s="20"/>
+      <c r="AN3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="AO3" s="31"/>
-      <c r="AP3" s="31"/>
-      <c r="AQ3" s="31"/>
-      <c r="AR3" s="31"/>
-      <c r="AS3" s="31"/>
-      <c r="AT3" s="30" t="s">
+      <c r="AO3" s="21"/>
+      <c r="AP3" s="21"/>
+      <c r="AQ3" s="21"/>
+      <c r="AR3" s="21"/>
+      <c r="AS3" s="21"/>
+      <c r="AT3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="AU3" s="30"/>
-      <c r="AV3" s="30"/>
-      <c r="AW3" s="30"/>
-      <c r="AX3" s="30"/>
-      <c r="AY3" s="30"/>
-      <c r="AZ3" s="30" t="s">
+      <c r="AU3" s="20"/>
+      <c r="AV3" s="20"/>
+      <c r="AW3" s="20"/>
+      <c r="AX3" s="20"/>
+      <c r="AY3" s="20"/>
+      <c r="AZ3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BA3" s="30"/>
-      <c r="BB3" s="30"/>
-      <c r="BC3" s="30"/>
-      <c r="BD3" s="30"/>
-      <c r="BE3" s="30"/>
-      <c r="BF3" s="30" t="s">
+      <c r="BA3" s="20"/>
+      <c r="BB3" s="20"/>
+      <c r="BC3" s="20"/>
+      <c r="BD3" s="20"/>
+      <c r="BE3" s="20"/>
+      <c r="BF3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="BG3" s="30"/>
-      <c r="BH3" s="30"/>
-      <c r="BI3" s="30"/>
-      <c r="BJ3" s="30"/>
-      <c r="BK3" s="30"/>
+      <c r="BG3" s="20"/>
+      <c r="BH3" s="20"/>
+      <c r="BI3" s="20"/>
+      <c r="BJ3" s="20"/>
+      <c r="BK3" s="20"/>
       <c r="BL3" s="16"/>
     </row>
     <row r="4" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="16"/>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="26">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="27">
         <f>[1]表紙!$L$8</f>
         <v>1.06</v>
       </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="24" t="s">
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="24"/>
-      <c r="AH4" s="24"/>
-      <c r="AI4" s="24"/>
-      <c r="AJ4" s="24"/>
-      <c r="AK4" s="24"/>
-      <c r="AL4" s="24"/>
-      <c r="AM4" s="24"/>
-      <c r="AN4" s="27">
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="22"/>
+      <c r="AL4" s="22"/>
+      <c r="AM4" s="22"/>
+      <c r="AN4" s="28">
         <v>44062</v>
       </c>
-      <c r="AO4" s="24"/>
-      <c r="AP4" s="24"/>
-      <c r="AQ4" s="24"/>
-      <c r="AR4" s="24"/>
-      <c r="AS4" s="24"/>
-      <c r="AT4" s="78" t="s">
+      <c r="AO4" s="22"/>
+      <c r="AP4" s="22"/>
+      <c r="AQ4" s="22"/>
+      <c r="AR4" s="22"/>
+      <c r="AS4" s="22"/>
+      <c r="AT4" s="85" t="s">
         <v>127</v>
       </c>
-      <c r="AU4" s="27"/>
-      <c r="AV4" s="27"/>
-      <c r="AW4" s="27"/>
-      <c r="AX4" s="27"/>
-      <c r="AY4" s="27"/>
-      <c r="AZ4" s="27">
+      <c r="AU4" s="28"/>
+      <c r="AV4" s="28"/>
+      <c r="AW4" s="28"/>
+      <c r="AX4" s="28"/>
+      <c r="AY4" s="28"/>
+      <c r="AZ4" s="28">
         <v>40410</v>
       </c>
-      <c r="BA4" s="24"/>
-      <c r="BB4" s="24"/>
-      <c r="BC4" s="24"/>
-      <c r="BD4" s="24"/>
-      <c r="BE4" s="24"/>
-      <c r="BF4" s="24" t="s">
+      <c r="BA4" s="22"/>
+      <c r="BB4" s="22"/>
+      <c r="BC4" s="22"/>
+      <c r="BD4" s="22"/>
+      <c r="BE4" s="22"/>
+      <c r="BF4" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="BG4" s="24"/>
-      <c r="BH4" s="24"/>
-      <c r="BI4" s="24"/>
-      <c r="BJ4" s="24"/>
-      <c r="BK4" s="24"/>
+      <c r="BG4" s="22"/>
+      <c r="BH4" s="22"/>
+      <c r="BI4" s="22"/>
+      <c r="BJ4" s="22"/>
+      <c r="BK4" s="22"/>
       <c r="BL4" s="16"/>
     </row>
     <row r="5" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="24"/>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="24"/>
-      <c r="AD5" s="24"/>
-      <c r="AE5" s="24"/>
-      <c r="AF5" s="24"/>
-      <c r="AG5" s="24"/>
-      <c r="AH5" s="24"/>
-      <c r="AI5" s="24"/>
-      <c r="AJ5" s="24"/>
-      <c r="AK5" s="24"/>
-      <c r="AL5" s="24"/>
-      <c r="AM5" s="24"/>
-      <c r="AN5" s="24"/>
-      <c r="AO5" s="24"/>
-      <c r="AP5" s="24"/>
-      <c r="AQ5" s="24"/>
-      <c r="AR5" s="24"/>
-      <c r="AS5" s="24"/>
-      <c r="AT5" s="27"/>
-      <c r="AU5" s="27"/>
-      <c r="AV5" s="27"/>
-      <c r="AW5" s="27"/>
-      <c r="AX5" s="27"/>
-      <c r="AY5" s="27"/>
-      <c r="AZ5" s="24"/>
-      <c r="BA5" s="24"/>
-      <c r="BB5" s="24"/>
-      <c r="BC5" s="24"/>
-      <c r="BD5" s="24"/>
-      <c r="BE5" s="24"/>
-      <c r="BF5" s="24"/>
-      <c r="BG5" s="24"/>
-      <c r="BH5" s="24"/>
-      <c r="BI5" s="24"/>
-      <c r="BJ5" s="24"/>
-      <c r="BK5" s="24"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="22"/>
+      <c r="AF5" s="22"/>
+      <c r="AG5" s="22"/>
+      <c r="AH5" s="22"/>
+      <c r="AI5" s="22"/>
+      <c r="AJ5" s="22"/>
+      <c r="AK5" s="22"/>
+      <c r="AL5" s="22"/>
+      <c r="AM5" s="22"/>
+      <c r="AN5" s="22"/>
+      <c r="AO5" s="22"/>
+      <c r="AP5" s="22"/>
+      <c r="AQ5" s="22"/>
+      <c r="AR5" s="22"/>
+      <c r="AS5" s="22"/>
+      <c r="AT5" s="28"/>
+      <c r="AU5" s="28"/>
+      <c r="AV5" s="28"/>
+      <c r="AW5" s="28"/>
+      <c r="AX5" s="28"/>
+      <c r="AY5" s="28"/>
+      <c r="AZ5" s="22"/>
+      <c r="BA5" s="22"/>
+      <c r="BB5" s="22"/>
+      <c r="BC5" s="22"/>
+      <c r="BD5" s="22"/>
+      <c r="BE5" s="22"/>
+      <c r="BF5" s="22"/>
+      <c r="BG5" s="22"/>
+      <c r="BH5" s="22"/>
+      <c r="BI5" s="22"/>
+      <c r="BJ5" s="22"/>
+      <c r="BK5" s="22"/>
       <c r="BL5" s="16"/>
     </row>
     <row r="6" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -8028,2388 +8121,2388 @@
     <row r="7" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="16"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="72" t="s">
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="72"/>
-      <c r="W7" s="72"/>
-      <c r="X7" s="72"/>
-      <c r="Y7" s="72"/>
-      <c r="Z7" s="72"/>
-      <c r="AA7" s="72"/>
-      <c r="AB7" s="72"/>
-      <c r="AC7" s="72"/>
-      <c r="AD7" s="72"/>
-      <c r="AE7" s="72"/>
-      <c r="AF7" s="72"/>
-      <c r="AG7" s="72"/>
-      <c r="AH7" s="72"/>
-      <c r="AI7" s="72"/>
-      <c r="AJ7" s="72"/>
-      <c r="AK7" s="72"/>
-      <c r="AL7" s="72" t="s">
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="81"/>
+      <c r="S7" s="81"/>
+      <c r="T7" s="81"/>
+      <c r="U7" s="81"/>
+      <c r="V7" s="81"/>
+      <c r="W7" s="81"/>
+      <c r="X7" s="81"/>
+      <c r="Y7" s="81"/>
+      <c r="Z7" s="81"/>
+      <c r="AA7" s="81"/>
+      <c r="AB7" s="81"/>
+      <c r="AC7" s="81"/>
+      <c r="AD7" s="81"/>
+      <c r="AE7" s="81"/>
+      <c r="AF7" s="81"/>
+      <c r="AG7" s="81"/>
+      <c r="AH7" s="81"/>
+      <c r="AI7" s="81"/>
+      <c r="AJ7" s="81"/>
+      <c r="AK7" s="81"/>
+      <c r="AL7" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="AM7" s="72"/>
-      <c r="AN7" s="72"/>
-      <c r="AO7" s="72"/>
-      <c r="AP7" s="72"/>
-      <c r="AQ7" s="72"/>
-      <c r="AR7" s="72"/>
-      <c r="AS7" s="72"/>
-      <c r="AT7" s="72"/>
-      <c r="AU7" s="72"/>
-      <c r="AV7" s="72"/>
-      <c r="AW7" s="72"/>
-      <c r="AX7" s="72"/>
-      <c r="AY7" s="72"/>
-      <c r="AZ7" s="72"/>
-      <c r="BA7" s="72"/>
-      <c r="BB7" s="72"/>
-      <c r="BC7" s="72"/>
-      <c r="BD7" s="72"/>
-      <c r="BE7" s="72"/>
-      <c r="BF7" s="72"/>
-      <c r="BG7" s="72"/>
-      <c r="BH7" s="72"/>
-      <c r="BI7" s="72"/>
-      <c r="BJ7" s="72"/>
+      <c r="AM7" s="81"/>
+      <c r="AN7" s="81"/>
+      <c r="AO7" s="81"/>
+      <c r="AP7" s="81"/>
+      <c r="AQ7" s="81"/>
+      <c r="AR7" s="81"/>
+      <c r="AS7" s="81"/>
+      <c r="AT7" s="81"/>
+      <c r="AU7" s="81"/>
+      <c r="AV7" s="81"/>
+      <c r="AW7" s="81"/>
+      <c r="AX7" s="81"/>
+      <c r="AY7" s="81"/>
+      <c r="AZ7" s="81"/>
+      <c r="BA7" s="81"/>
+      <c r="BB7" s="81"/>
+      <c r="BC7" s="81"/>
+      <c r="BD7" s="81"/>
+      <c r="BE7" s="81"/>
+      <c r="BF7" s="81"/>
+      <c r="BG7" s="81"/>
+      <c r="BH7" s="81"/>
+      <c r="BI7" s="81"/>
+      <c r="BJ7" s="81"/>
       <c r="BK7" s="2"/>
       <c r="BL7" s="16"/>
     </row>
     <row r="8" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="16"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="74" t="s">
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="82" t="s">
         <v>168</v>
       </c>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="75"/>
-      <c r="S8" s="75"/>
-      <c r="T8" s="75"/>
-      <c r="U8" s="75"/>
-      <c r="V8" s="75"/>
-      <c r="W8" s="75"/>
-      <c r="X8" s="75"/>
-      <c r="Y8" s="75"/>
-      <c r="Z8" s="75"/>
-      <c r="AA8" s="75"/>
-      <c r="AB8" s="75"/>
-      <c r="AC8" s="75"/>
-      <c r="AD8" s="75"/>
-      <c r="AE8" s="75"/>
-      <c r="AF8" s="75"/>
-      <c r="AG8" s="75"/>
-      <c r="AH8" s="75"/>
-      <c r="AI8" s="75"/>
-      <c r="AJ8" s="75"/>
-      <c r="AK8" s="76"/>
-      <c r="AL8" s="77"/>
-      <c r="AM8" s="77"/>
-      <c r="AN8" s="77"/>
-      <c r="AO8" s="77"/>
-      <c r="AP8" s="77"/>
-      <c r="AQ8" s="77"/>
-      <c r="AR8" s="77"/>
-      <c r="AS8" s="77"/>
-      <c r="AT8" s="77"/>
-      <c r="AU8" s="77"/>
-      <c r="AV8" s="77"/>
-      <c r="AW8" s="77"/>
-      <c r="AX8" s="77"/>
-      <c r="AY8" s="77"/>
-      <c r="AZ8" s="77"/>
-      <c r="BA8" s="77"/>
-      <c r="BB8" s="77"/>
-      <c r="BC8" s="77"/>
-      <c r="BD8" s="77"/>
-      <c r="BE8" s="77"/>
-      <c r="BF8" s="77"/>
-      <c r="BG8" s="77"/>
-      <c r="BH8" s="77"/>
-      <c r="BI8" s="77"/>
-      <c r="BJ8" s="77"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="83"/>
+      <c r="Q8" s="83"/>
+      <c r="R8" s="83"/>
+      <c r="S8" s="83"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="83"/>
+      <c r="V8" s="83"/>
+      <c r="W8" s="83"/>
+      <c r="X8" s="83"/>
+      <c r="Y8" s="83"/>
+      <c r="Z8" s="83"/>
+      <c r="AA8" s="83"/>
+      <c r="AB8" s="83"/>
+      <c r="AC8" s="83"/>
+      <c r="AD8" s="83"/>
+      <c r="AE8" s="83"/>
+      <c r="AF8" s="83"/>
+      <c r="AG8" s="83"/>
+      <c r="AH8" s="83"/>
+      <c r="AI8" s="83"/>
+      <c r="AJ8" s="83"/>
+      <c r="AK8" s="84"/>
+      <c r="AL8" s="73"/>
+      <c r="AM8" s="73"/>
+      <c r="AN8" s="73"/>
+      <c r="AO8" s="73"/>
+      <c r="AP8" s="73"/>
+      <c r="AQ8" s="73"/>
+      <c r="AR8" s="73"/>
+      <c r="AS8" s="73"/>
+      <c r="AT8" s="73"/>
+      <c r="AU8" s="73"/>
+      <c r="AV8" s="73"/>
+      <c r="AW8" s="73"/>
+      <c r="AX8" s="73"/>
+      <c r="AY8" s="73"/>
+      <c r="AZ8" s="73"/>
+      <c r="BA8" s="73"/>
+      <c r="BB8" s="73"/>
+      <c r="BC8" s="73"/>
+      <c r="BD8" s="73"/>
+      <c r="BE8" s="73"/>
+      <c r="BF8" s="73"/>
+      <c r="BG8" s="73"/>
+      <c r="BH8" s="73"/>
+      <c r="BI8" s="73"/>
+      <c r="BJ8" s="73"/>
       <c r="BK8" s="2"/>
       <c r="BL8" s="16"/>
     </row>
     <row r="9" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="16"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="79" t="s">
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="79"/>
-      <c r="R9" s="79"/>
-      <c r="S9" s="79"/>
-      <c r="T9" s="79"/>
-      <c r="U9" s="79"/>
-      <c r="V9" s="79"/>
-      <c r="W9" s="79"/>
-      <c r="X9" s="79"/>
-      <c r="Y9" s="79"/>
-      <c r="Z9" s="79"/>
-      <c r="AA9" s="79"/>
-      <c r="AB9" s="79"/>
-      <c r="AC9" s="79"/>
-      <c r="AD9" s="79"/>
-      <c r="AE9" s="79"/>
-      <c r="AF9" s="79"/>
-      <c r="AG9" s="79"/>
-      <c r="AH9" s="79"/>
-      <c r="AI9" s="79"/>
-      <c r="AJ9" s="79"/>
-      <c r="AK9" s="79"/>
-      <c r="AL9" s="77"/>
-      <c r="AM9" s="77"/>
-      <c r="AN9" s="77"/>
-      <c r="AO9" s="77"/>
-      <c r="AP9" s="77"/>
-      <c r="AQ9" s="77"/>
-      <c r="AR9" s="77"/>
-      <c r="AS9" s="77"/>
-      <c r="AT9" s="77"/>
-      <c r="AU9" s="77"/>
-      <c r="AV9" s="77"/>
-      <c r="AW9" s="77"/>
-      <c r="AX9" s="77"/>
-      <c r="AY9" s="77"/>
-      <c r="AZ9" s="77"/>
-      <c r="BA9" s="77"/>
-      <c r="BB9" s="77"/>
-      <c r="BC9" s="77"/>
-      <c r="BD9" s="77"/>
-      <c r="BE9" s="77"/>
-      <c r="BF9" s="77"/>
-      <c r="BG9" s="77"/>
-      <c r="BH9" s="77"/>
-      <c r="BI9" s="77"/>
-      <c r="BJ9" s="77"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="72"/>
+      <c r="AA9" s="72"/>
+      <c r="AB9" s="72"/>
+      <c r="AC9" s="72"/>
+      <c r="AD9" s="72"/>
+      <c r="AE9" s="72"/>
+      <c r="AF9" s="72"/>
+      <c r="AG9" s="72"/>
+      <c r="AH9" s="72"/>
+      <c r="AI9" s="72"/>
+      <c r="AJ9" s="72"/>
+      <c r="AK9" s="72"/>
+      <c r="AL9" s="73"/>
+      <c r="AM9" s="73"/>
+      <c r="AN9" s="73"/>
+      <c r="AO9" s="73"/>
+      <c r="AP9" s="73"/>
+      <c r="AQ9" s="73"/>
+      <c r="AR9" s="73"/>
+      <c r="AS9" s="73"/>
+      <c r="AT9" s="73"/>
+      <c r="AU9" s="73"/>
+      <c r="AV9" s="73"/>
+      <c r="AW9" s="73"/>
+      <c r="AX9" s="73"/>
+      <c r="AY9" s="73"/>
+      <c r="AZ9" s="73"/>
+      <c r="BA9" s="73"/>
+      <c r="BB9" s="73"/>
+      <c r="BC9" s="73"/>
+      <c r="BD9" s="73"/>
+      <c r="BE9" s="73"/>
+      <c r="BF9" s="73"/>
+      <c r="BG9" s="73"/>
+      <c r="BH9" s="73"/>
+      <c r="BI9" s="73"/>
+      <c r="BJ9" s="73"/>
       <c r="BK9" s="2"/>
       <c r="BL9" s="16"/>
     </row>
     <row r="10" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="16"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="79" t="s">
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="72" t="s">
         <v>170</v>
       </c>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="79"/>
-      <c r="P10" s="79"/>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="79"/>
-      <c r="S10" s="79"/>
-      <c r="T10" s="79"/>
-      <c r="U10" s="79"/>
-      <c r="V10" s="79"/>
-      <c r="W10" s="79"/>
-      <c r="X10" s="79"/>
-      <c r="Y10" s="79"/>
-      <c r="Z10" s="79"/>
-      <c r="AA10" s="79"/>
-      <c r="AB10" s="79"/>
-      <c r="AC10" s="79"/>
-      <c r="AD10" s="79"/>
-      <c r="AE10" s="79"/>
-      <c r="AF10" s="79"/>
-      <c r="AG10" s="79"/>
-      <c r="AH10" s="79"/>
-      <c r="AI10" s="79"/>
-      <c r="AJ10" s="79"/>
-      <c r="AK10" s="79"/>
-      <c r="AL10" s="77"/>
-      <c r="AM10" s="77"/>
-      <c r="AN10" s="77"/>
-      <c r="AO10" s="77"/>
-      <c r="AP10" s="77"/>
-      <c r="AQ10" s="77"/>
-      <c r="AR10" s="77"/>
-      <c r="AS10" s="77"/>
-      <c r="AT10" s="77"/>
-      <c r="AU10" s="77"/>
-      <c r="AV10" s="77"/>
-      <c r="AW10" s="77"/>
-      <c r="AX10" s="77"/>
-      <c r="AY10" s="77"/>
-      <c r="AZ10" s="77"/>
-      <c r="BA10" s="77"/>
-      <c r="BB10" s="77"/>
-      <c r="BC10" s="77"/>
-      <c r="BD10" s="77"/>
-      <c r="BE10" s="77"/>
-      <c r="BF10" s="77"/>
-      <c r="BG10" s="77"/>
-      <c r="BH10" s="77"/>
-      <c r="BI10" s="77"/>
-      <c r="BJ10" s="77"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="72"/>
+      <c r="X10" s="72"/>
+      <c r="Y10" s="72"/>
+      <c r="Z10" s="72"/>
+      <c r="AA10" s="72"/>
+      <c r="AB10" s="72"/>
+      <c r="AC10" s="72"/>
+      <c r="AD10" s="72"/>
+      <c r="AE10" s="72"/>
+      <c r="AF10" s="72"/>
+      <c r="AG10" s="72"/>
+      <c r="AH10" s="72"/>
+      <c r="AI10" s="72"/>
+      <c r="AJ10" s="72"/>
+      <c r="AK10" s="72"/>
+      <c r="AL10" s="73"/>
+      <c r="AM10" s="73"/>
+      <c r="AN10" s="73"/>
+      <c r="AO10" s="73"/>
+      <c r="AP10" s="73"/>
+      <c r="AQ10" s="73"/>
+      <c r="AR10" s="73"/>
+      <c r="AS10" s="73"/>
+      <c r="AT10" s="73"/>
+      <c r="AU10" s="73"/>
+      <c r="AV10" s="73"/>
+      <c r="AW10" s="73"/>
+      <c r="AX10" s="73"/>
+      <c r="AY10" s="73"/>
+      <c r="AZ10" s="73"/>
+      <c r="BA10" s="73"/>
+      <c r="BB10" s="73"/>
+      <c r="BC10" s="73"/>
+      <c r="BD10" s="73"/>
+      <c r="BE10" s="73"/>
+      <c r="BF10" s="73"/>
+      <c r="BG10" s="73"/>
+      <c r="BH10" s="73"/>
+      <c r="BI10" s="73"/>
+      <c r="BJ10" s="73"/>
       <c r="BK10" s="2"/>
       <c r="BL10" s="16"/>
     </row>
     <row r="11" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="16"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="79" t="s">
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="72" t="s">
         <v>171</v>
       </c>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="79"/>
-      <c r="P11" s="79"/>
-      <c r="Q11" s="79"/>
-      <c r="R11" s="79"/>
-      <c r="S11" s="79"/>
-      <c r="T11" s="79"/>
-      <c r="U11" s="79"/>
-      <c r="V11" s="79"/>
-      <c r="W11" s="79"/>
-      <c r="X11" s="79"/>
-      <c r="Y11" s="79"/>
-      <c r="Z11" s="79"/>
-      <c r="AA11" s="79"/>
-      <c r="AB11" s="79"/>
-      <c r="AC11" s="79"/>
-      <c r="AD11" s="79"/>
-      <c r="AE11" s="79"/>
-      <c r="AF11" s="79"/>
-      <c r="AG11" s="79"/>
-      <c r="AH11" s="79"/>
-      <c r="AI11" s="79"/>
-      <c r="AJ11" s="79"/>
-      <c r="AK11" s="79"/>
-      <c r="AL11" s="77"/>
-      <c r="AM11" s="77"/>
-      <c r="AN11" s="77"/>
-      <c r="AO11" s="77"/>
-      <c r="AP11" s="77"/>
-      <c r="AQ11" s="77"/>
-      <c r="AR11" s="77"/>
-      <c r="AS11" s="77"/>
-      <c r="AT11" s="77"/>
-      <c r="AU11" s="77"/>
-      <c r="AV11" s="77"/>
-      <c r="AW11" s="77"/>
-      <c r="AX11" s="77"/>
-      <c r="AY11" s="77"/>
-      <c r="AZ11" s="77"/>
-      <c r="BA11" s="77"/>
-      <c r="BB11" s="77"/>
-      <c r="BC11" s="77"/>
-      <c r="BD11" s="77"/>
-      <c r="BE11" s="77"/>
-      <c r="BF11" s="77"/>
-      <c r="BG11" s="77"/>
-      <c r="BH11" s="77"/>
-      <c r="BI11" s="77"/>
-      <c r="BJ11" s="77"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="72"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="72"/>
+      <c r="U11" s="72"/>
+      <c r="V11" s="72"/>
+      <c r="W11" s="72"/>
+      <c r="X11" s="72"/>
+      <c r="Y11" s="72"/>
+      <c r="Z11" s="72"/>
+      <c r="AA11" s="72"/>
+      <c r="AB11" s="72"/>
+      <c r="AC11" s="72"/>
+      <c r="AD11" s="72"/>
+      <c r="AE11" s="72"/>
+      <c r="AF11" s="72"/>
+      <c r="AG11" s="72"/>
+      <c r="AH11" s="72"/>
+      <c r="AI11" s="72"/>
+      <c r="AJ11" s="72"/>
+      <c r="AK11" s="72"/>
+      <c r="AL11" s="73"/>
+      <c r="AM11" s="73"/>
+      <c r="AN11" s="73"/>
+      <c r="AO11" s="73"/>
+      <c r="AP11" s="73"/>
+      <c r="AQ11" s="73"/>
+      <c r="AR11" s="73"/>
+      <c r="AS11" s="73"/>
+      <c r="AT11" s="73"/>
+      <c r="AU11" s="73"/>
+      <c r="AV11" s="73"/>
+      <c r="AW11" s="73"/>
+      <c r="AX11" s="73"/>
+      <c r="AY11" s="73"/>
+      <c r="AZ11" s="73"/>
+      <c r="BA11" s="73"/>
+      <c r="BB11" s="73"/>
+      <c r="BC11" s="73"/>
+      <c r="BD11" s="73"/>
+      <c r="BE11" s="73"/>
+      <c r="BF11" s="73"/>
+      <c r="BG11" s="73"/>
+      <c r="BH11" s="73"/>
+      <c r="BI11" s="73"/>
+      <c r="BJ11" s="73"/>
       <c r="BK11" s="2"/>
       <c r="BL11" s="16"/>
     </row>
     <row r="12" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="16"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="79" t="s">
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="72" t="s">
         <v>172</v>
       </c>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="79"/>
-      <c r="O12" s="79"/>
-      <c r="P12" s="79"/>
-      <c r="Q12" s="79"/>
-      <c r="R12" s="79"/>
-      <c r="S12" s="79"/>
-      <c r="T12" s="79"/>
-      <c r="U12" s="79"/>
-      <c r="V12" s="79"/>
-      <c r="W12" s="79"/>
-      <c r="X12" s="79"/>
-      <c r="Y12" s="79"/>
-      <c r="Z12" s="79"/>
-      <c r="AA12" s="79"/>
-      <c r="AB12" s="79"/>
-      <c r="AC12" s="79"/>
-      <c r="AD12" s="79"/>
-      <c r="AE12" s="79"/>
-      <c r="AF12" s="79"/>
-      <c r="AG12" s="79"/>
-      <c r="AH12" s="79"/>
-      <c r="AI12" s="79"/>
-      <c r="AJ12" s="79"/>
-      <c r="AK12" s="79"/>
-      <c r="AL12" s="77"/>
-      <c r="AM12" s="77"/>
-      <c r="AN12" s="77"/>
-      <c r="AO12" s="77"/>
-      <c r="AP12" s="77"/>
-      <c r="AQ12" s="77"/>
-      <c r="AR12" s="77"/>
-      <c r="AS12" s="77"/>
-      <c r="AT12" s="77"/>
-      <c r="AU12" s="77"/>
-      <c r="AV12" s="77"/>
-      <c r="AW12" s="77"/>
-      <c r="AX12" s="77"/>
-      <c r="AY12" s="77"/>
-      <c r="AZ12" s="77"/>
-      <c r="BA12" s="77"/>
-      <c r="BB12" s="77"/>
-      <c r="BC12" s="77"/>
-      <c r="BD12" s="77"/>
-      <c r="BE12" s="77"/>
-      <c r="BF12" s="77"/>
-      <c r="BG12" s="77"/>
-      <c r="BH12" s="77"/>
-      <c r="BI12" s="77"/>
-      <c r="BJ12" s="77"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="72"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="72"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="72"/>
+      <c r="W12" s="72"/>
+      <c r="X12" s="72"/>
+      <c r="Y12" s="72"/>
+      <c r="Z12" s="72"/>
+      <c r="AA12" s="72"/>
+      <c r="AB12" s="72"/>
+      <c r="AC12" s="72"/>
+      <c r="AD12" s="72"/>
+      <c r="AE12" s="72"/>
+      <c r="AF12" s="72"/>
+      <c r="AG12" s="72"/>
+      <c r="AH12" s="72"/>
+      <c r="AI12" s="72"/>
+      <c r="AJ12" s="72"/>
+      <c r="AK12" s="72"/>
+      <c r="AL12" s="73"/>
+      <c r="AM12" s="73"/>
+      <c r="AN12" s="73"/>
+      <c r="AO12" s="73"/>
+      <c r="AP12" s="73"/>
+      <c r="AQ12" s="73"/>
+      <c r="AR12" s="73"/>
+      <c r="AS12" s="73"/>
+      <c r="AT12" s="73"/>
+      <c r="AU12" s="73"/>
+      <c r="AV12" s="73"/>
+      <c r="AW12" s="73"/>
+      <c r="AX12" s="73"/>
+      <c r="AY12" s="73"/>
+      <c r="AZ12" s="73"/>
+      <c r="BA12" s="73"/>
+      <c r="BB12" s="73"/>
+      <c r="BC12" s="73"/>
+      <c r="BD12" s="73"/>
+      <c r="BE12" s="73"/>
+      <c r="BF12" s="73"/>
+      <c r="BG12" s="73"/>
+      <c r="BH12" s="73"/>
+      <c r="BI12" s="73"/>
+      <c r="BJ12" s="73"/>
       <c r="BK12" s="2"/>
       <c r="BL12" s="16"/>
     </row>
     <row r="13" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="16"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="79" t="s">
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="72" t="s">
         <v>173</v>
       </c>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="79"/>
-      <c r="P13" s="79"/>
-      <c r="Q13" s="79"/>
-      <c r="R13" s="79"/>
-      <c r="S13" s="79"/>
-      <c r="T13" s="79"/>
-      <c r="U13" s="79"/>
-      <c r="V13" s="79"/>
-      <c r="W13" s="79"/>
-      <c r="X13" s="79"/>
-      <c r="Y13" s="79"/>
-      <c r="Z13" s="79"/>
-      <c r="AA13" s="79"/>
-      <c r="AB13" s="79"/>
-      <c r="AC13" s="79"/>
-      <c r="AD13" s="79"/>
-      <c r="AE13" s="79"/>
-      <c r="AF13" s="79"/>
-      <c r="AG13" s="79"/>
-      <c r="AH13" s="79"/>
-      <c r="AI13" s="79"/>
-      <c r="AJ13" s="79"/>
-      <c r="AK13" s="79"/>
-      <c r="AL13" s="77"/>
-      <c r="AM13" s="77"/>
-      <c r="AN13" s="77"/>
-      <c r="AO13" s="77"/>
-      <c r="AP13" s="77"/>
-      <c r="AQ13" s="77"/>
-      <c r="AR13" s="77"/>
-      <c r="AS13" s="77"/>
-      <c r="AT13" s="77"/>
-      <c r="AU13" s="77"/>
-      <c r="AV13" s="77"/>
-      <c r="AW13" s="77"/>
-      <c r="AX13" s="77"/>
-      <c r="AY13" s="77"/>
-      <c r="AZ13" s="77"/>
-      <c r="BA13" s="77"/>
-      <c r="BB13" s="77"/>
-      <c r="BC13" s="77"/>
-      <c r="BD13" s="77"/>
-      <c r="BE13" s="77"/>
-      <c r="BF13" s="77"/>
-      <c r="BG13" s="77"/>
-      <c r="BH13" s="77"/>
-      <c r="BI13" s="77"/>
-      <c r="BJ13" s="77"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="72"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="72"/>
+      <c r="U13" s="72"/>
+      <c r="V13" s="72"/>
+      <c r="W13" s="72"/>
+      <c r="X13" s="72"/>
+      <c r="Y13" s="72"/>
+      <c r="Z13" s="72"/>
+      <c r="AA13" s="72"/>
+      <c r="AB13" s="72"/>
+      <c r="AC13" s="72"/>
+      <c r="AD13" s="72"/>
+      <c r="AE13" s="72"/>
+      <c r="AF13" s="72"/>
+      <c r="AG13" s="72"/>
+      <c r="AH13" s="72"/>
+      <c r="AI13" s="72"/>
+      <c r="AJ13" s="72"/>
+      <c r="AK13" s="72"/>
+      <c r="AL13" s="73"/>
+      <c r="AM13" s="73"/>
+      <c r="AN13" s="73"/>
+      <c r="AO13" s="73"/>
+      <c r="AP13" s="73"/>
+      <c r="AQ13" s="73"/>
+      <c r="AR13" s="73"/>
+      <c r="AS13" s="73"/>
+      <c r="AT13" s="73"/>
+      <c r="AU13" s="73"/>
+      <c r="AV13" s="73"/>
+      <c r="AW13" s="73"/>
+      <c r="AX13" s="73"/>
+      <c r="AY13" s="73"/>
+      <c r="AZ13" s="73"/>
+      <c r="BA13" s="73"/>
+      <c r="BB13" s="73"/>
+      <c r="BC13" s="73"/>
+      <c r="BD13" s="73"/>
+      <c r="BE13" s="73"/>
+      <c r="BF13" s="73"/>
+      <c r="BG13" s="73"/>
+      <c r="BH13" s="73"/>
+      <c r="BI13" s="73"/>
+      <c r="BJ13" s="73"/>
       <c r="BK13" s="2"/>
       <c r="BL13" s="16"/>
     </row>
     <row r="14" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="16"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="79" t="s">
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="79"/>
-      <c r="O14" s="79"/>
-      <c r="P14" s="79"/>
-      <c r="Q14" s="79"/>
-      <c r="R14" s="79"/>
-      <c r="S14" s="79"/>
-      <c r="T14" s="79"/>
-      <c r="U14" s="79"/>
-      <c r="V14" s="79"/>
-      <c r="W14" s="79"/>
-      <c r="X14" s="79"/>
-      <c r="Y14" s="79"/>
-      <c r="Z14" s="79"/>
-      <c r="AA14" s="79"/>
-      <c r="AB14" s="79"/>
-      <c r="AC14" s="79"/>
-      <c r="AD14" s="79"/>
-      <c r="AE14" s="79"/>
-      <c r="AF14" s="79"/>
-      <c r="AG14" s="79"/>
-      <c r="AH14" s="79"/>
-      <c r="AI14" s="79"/>
-      <c r="AJ14" s="79"/>
-      <c r="AK14" s="79"/>
-      <c r="AL14" s="77"/>
-      <c r="AM14" s="77"/>
-      <c r="AN14" s="77"/>
-      <c r="AO14" s="77"/>
-      <c r="AP14" s="77"/>
-      <c r="AQ14" s="77"/>
-      <c r="AR14" s="77"/>
-      <c r="AS14" s="77"/>
-      <c r="AT14" s="77"/>
-      <c r="AU14" s="77"/>
-      <c r="AV14" s="77"/>
-      <c r="AW14" s="77"/>
-      <c r="AX14" s="77"/>
-      <c r="AY14" s="77"/>
-      <c r="AZ14" s="77"/>
-      <c r="BA14" s="77"/>
-      <c r="BB14" s="77"/>
-      <c r="BC14" s="77"/>
-      <c r="BD14" s="77"/>
-      <c r="BE14" s="77"/>
-      <c r="BF14" s="77"/>
-      <c r="BG14" s="77"/>
-      <c r="BH14" s="77"/>
-      <c r="BI14" s="77"/>
-      <c r="BJ14" s="77"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="72"/>
+      <c r="R14" s="72"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="72"/>
+      <c r="V14" s="72"/>
+      <c r="W14" s="72"/>
+      <c r="X14" s="72"/>
+      <c r="Y14" s="72"/>
+      <c r="Z14" s="72"/>
+      <c r="AA14" s="72"/>
+      <c r="AB14" s="72"/>
+      <c r="AC14" s="72"/>
+      <c r="AD14" s="72"/>
+      <c r="AE14" s="72"/>
+      <c r="AF14" s="72"/>
+      <c r="AG14" s="72"/>
+      <c r="AH14" s="72"/>
+      <c r="AI14" s="72"/>
+      <c r="AJ14" s="72"/>
+      <c r="AK14" s="72"/>
+      <c r="AL14" s="73"/>
+      <c r="AM14" s="73"/>
+      <c r="AN14" s="73"/>
+      <c r="AO14" s="73"/>
+      <c r="AP14" s="73"/>
+      <c r="AQ14" s="73"/>
+      <c r="AR14" s="73"/>
+      <c r="AS14" s="73"/>
+      <c r="AT14" s="73"/>
+      <c r="AU14" s="73"/>
+      <c r="AV14" s="73"/>
+      <c r="AW14" s="73"/>
+      <c r="AX14" s="73"/>
+      <c r="AY14" s="73"/>
+      <c r="AZ14" s="73"/>
+      <c r="BA14" s="73"/>
+      <c r="BB14" s="73"/>
+      <c r="BC14" s="73"/>
+      <c r="BD14" s="73"/>
+      <c r="BE14" s="73"/>
+      <c r="BF14" s="73"/>
+      <c r="BG14" s="73"/>
+      <c r="BH14" s="73"/>
+      <c r="BI14" s="73"/>
+      <c r="BJ14" s="73"/>
       <c r="BK14" s="2"/>
       <c r="BL14" s="16"/>
     </row>
     <row r="15" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="16"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="79" t="s">
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="72" t="s">
         <v>176</v>
       </c>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="79"/>
-      <c r="O15" s="79"/>
-      <c r="P15" s="79"/>
-      <c r="Q15" s="79"/>
-      <c r="R15" s="79"/>
-      <c r="S15" s="79"/>
-      <c r="T15" s="79"/>
-      <c r="U15" s="79"/>
-      <c r="V15" s="79"/>
-      <c r="W15" s="79"/>
-      <c r="X15" s="79"/>
-      <c r="Y15" s="79"/>
-      <c r="Z15" s="79"/>
-      <c r="AA15" s="79"/>
-      <c r="AB15" s="79"/>
-      <c r="AC15" s="79"/>
-      <c r="AD15" s="79"/>
-      <c r="AE15" s="79"/>
-      <c r="AF15" s="79"/>
-      <c r="AG15" s="79"/>
-      <c r="AH15" s="79"/>
-      <c r="AI15" s="79"/>
-      <c r="AJ15" s="79"/>
-      <c r="AK15" s="79"/>
-      <c r="AL15" s="77"/>
-      <c r="AM15" s="77"/>
-      <c r="AN15" s="77"/>
-      <c r="AO15" s="77"/>
-      <c r="AP15" s="77"/>
-      <c r="AQ15" s="77"/>
-      <c r="AR15" s="77"/>
-      <c r="AS15" s="77"/>
-      <c r="AT15" s="77"/>
-      <c r="AU15" s="77"/>
-      <c r="AV15" s="77"/>
-      <c r="AW15" s="77"/>
-      <c r="AX15" s="77"/>
-      <c r="AY15" s="77"/>
-      <c r="AZ15" s="77"/>
-      <c r="BA15" s="77"/>
-      <c r="BB15" s="77"/>
-      <c r="BC15" s="77"/>
-      <c r="BD15" s="77"/>
-      <c r="BE15" s="77"/>
-      <c r="BF15" s="77"/>
-      <c r="BG15" s="77"/>
-      <c r="BH15" s="77"/>
-      <c r="BI15" s="77"/>
-      <c r="BJ15" s="77"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="72"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="72"/>
+      <c r="W15" s="72"/>
+      <c r="X15" s="72"/>
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="72"/>
+      <c r="AA15" s="72"/>
+      <c r="AB15" s="72"/>
+      <c r="AC15" s="72"/>
+      <c r="AD15" s="72"/>
+      <c r="AE15" s="72"/>
+      <c r="AF15" s="72"/>
+      <c r="AG15" s="72"/>
+      <c r="AH15" s="72"/>
+      <c r="AI15" s="72"/>
+      <c r="AJ15" s="72"/>
+      <c r="AK15" s="72"/>
+      <c r="AL15" s="73"/>
+      <c r="AM15" s="73"/>
+      <c r="AN15" s="73"/>
+      <c r="AO15" s="73"/>
+      <c r="AP15" s="73"/>
+      <c r="AQ15" s="73"/>
+      <c r="AR15" s="73"/>
+      <c r="AS15" s="73"/>
+      <c r="AT15" s="73"/>
+      <c r="AU15" s="73"/>
+      <c r="AV15" s="73"/>
+      <c r="AW15" s="73"/>
+      <c r="AX15" s="73"/>
+      <c r="AY15" s="73"/>
+      <c r="AZ15" s="73"/>
+      <c r="BA15" s="73"/>
+      <c r="BB15" s="73"/>
+      <c r="BC15" s="73"/>
+      <c r="BD15" s="73"/>
+      <c r="BE15" s="73"/>
+      <c r="BF15" s="73"/>
+      <c r="BG15" s="73"/>
+      <c r="BH15" s="73"/>
+      <c r="BI15" s="73"/>
+      <c r="BJ15" s="73"/>
       <c r="BK15" s="2"/>
       <c r="BL15" s="16"/>
     </row>
     <row r="16" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="16"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="79" t="s">
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="72" t="s">
         <v>177</v>
       </c>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="79"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="79"/>
-      <c r="O16" s="79"/>
-      <c r="P16" s="79"/>
-      <c r="Q16" s="79"/>
-      <c r="R16" s="79"/>
-      <c r="S16" s="79"/>
-      <c r="T16" s="79"/>
-      <c r="U16" s="79"/>
-      <c r="V16" s="79"/>
-      <c r="W16" s="79"/>
-      <c r="X16" s="79"/>
-      <c r="Y16" s="79"/>
-      <c r="Z16" s="79"/>
-      <c r="AA16" s="79"/>
-      <c r="AB16" s="79"/>
-      <c r="AC16" s="79"/>
-      <c r="AD16" s="79"/>
-      <c r="AE16" s="79"/>
-      <c r="AF16" s="79"/>
-      <c r="AG16" s="79"/>
-      <c r="AH16" s="79"/>
-      <c r="AI16" s="79"/>
-      <c r="AJ16" s="79"/>
-      <c r="AK16" s="79"/>
-      <c r="AL16" s="77"/>
-      <c r="AM16" s="77"/>
-      <c r="AN16" s="77"/>
-      <c r="AO16" s="77"/>
-      <c r="AP16" s="77"/>
-      <c r="AQ16" s="77"/>
-      <c r="AR16" s="77"/>
-      <c r="AS16" s="77"/>
-      <c r="AT16" s="77"/>
-      <c r="AU16" s="77"/>
-      <c r="AV16" s="77"/>
-      <c r="AW16" s="77"/>
-      <c r="AX16" s="77"/>
-      <c r="AY16" s="77"/>
-      <c r="AZ16" s="77"/>
-      <c r="BA16" s="77"/>
-      <c r="BB16" s="77"/>
-      <c r="BC16" s="77"/>
-      <c r="BD16" s="77"/>
-      <c r="BE16" s="77"/>
-      <c r="BF16" s="77"/>
-      <c r="BG16" s="77"/>
-      <c r="BH16" s="77"/>
-      <c r="BI16" s="77"/>
-      <c r="BJ16" s="77"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="72"/>
+      <c r="AB16" s="72"/>
+      <c r="AC16" s="72"/>
+      <c r="AD16" s="72"/>
+      <c r="AE16" s="72"/>
+      <c r="AF16" s="72"/>
+      <c r="AG16" s="72"/>
+      <c r="AH16" s="72"/>
+      <c r="AI16" s="72"/>
+      <c r="AJ16" s="72"/>
+      <c r="AK16" s="72"/>
+      <c r="AL16" s="73"/>
+      <c r="AM16" s="73"/>
+      <c r="AN16" s="73"/>
+      <c r="AO16" s="73"/>
+      <c r="AP16" s="73"/>
+      <c r="AQ16" s="73"/>
+      <c r="AR16" s="73"/>
+      <c r="AS16" s="73"/>
+      <c r="AT16" s="73"/>
+      <c r="AU16" s="73"/>
+      <c r="AV16" s="73"/>
+      <c r="AW16" s="73"/>
+      <c r="AX16" s="73"/>
+      <c r="AY16" s="73"/>
+      <c r="AZ16" s="73"/>
+      <c r="BA16" s="73"/>
+      <c r="BB16" s="73"/>
+      <c r="BC16" s="73"/>
+      <c r="BD16" s="73"/>
+      <c r="BE16" s="73"/>
+      <c r="BF16" s="73"/>
+      <c r="BG16" s="73"/>
+      <c r="BH16" s="73"/>
+      <c r="BI16" s="73"/>
+      <c r="BJ16" s="73"/>
       <c r="BK16" s="2"/>
       <c r="BL16" s="16"/>
     </row>
     <row r="17" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="16"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="79" t="s">
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="79"/>
-      <c r="O17" s="79"/>
-      <c r="P17" s="79"/>
-      <c r="Q17" s="79"/>
-      <c r="R17" s="79"/>
-      <c r="S17" s="79"/>
-      <c r="T17" s="79"/>
-      <c r="U17" s="79"/>
-      <c r="V17" s="79"/>
-      <c r="W17" s="79"/>
-      <c r="X17" s="79"/>
-      <c r="Y17" s="79"/>
-      <c r="Z17" s="79"/>
-      <c r="AA17" s="79"/>
-      <c r="AB17" s="79"/>
-      <c r="AC17" s="79"/>
-      <c r="AD17" s="79"/>
-      <c r="AE17" s="79"/>
-      <c r="AF17" s="79"/>
-      <c r="AG17" s="79"/>
-      <c r="AH17" s="79"/>
-      <c r="AI17" s="79"/>
-      <c r="AJ17" s="79"/>
-      <c r="AK17" s="79"/>
-      <c r="AL17" s="77"/>
-      <c r="AM17" s="77"/>
-      <c r="AN17" s="77"/>
-      <c r="AO17" s="77"/>
-      <c r="AP17" s="77"/>
-      <c r="AQ17" s="77"/>
-      <c r="AR17" s="77"/>
-      <c r="AS17" s="77"/>
-      <c r="AT17" s="77"/>
-      <c r="AU17" s="77"/>
-      <c r="AV17" s="77"/>
-      <c r="AW17" s="77"/>
-      <c r="AX17" s="77"/>
-      <c r="AY17" s="77"/>
-      <c r="AZ17" s="77"/>
-      <c r="BA17" s="77"/>
-      <c r="BB17" s="77"/>
-      <c r="BC17" s="77"/>
-      <c r="BD17" s="77"/>
-      <c r="BE17" s="77"/>
-      <c r="BF17" s="77"/>
-      <c r="BG17" s="77"/>
-      <c r="BH17" s="77"/>
-      <c r="BI17" s="77"/>
-      <c r="BJ17" s="77"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="72"/>
+      <c r="R17" s="72"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="72"/>
+      <c r="U17" s="72"/>
+      <c r="V17" s="72"/>
+      <c r="W17" s="72"/>
+      <c r="X17" s="72"/>
+      <c r="Y17" s="72"/>
+      <c r="Z17" s="72"/>
+      <c r="AA17" s="72"/>
+      <c r="AB17" s="72"/>
+      <c r="AC17" s="72"/>
+      <c r="AD17" s="72"/>
+      <c r="AE17" s="72"/>
+      <c r="AF17" s="72"/>
+      <c r="AG17" s="72"/>
+      <c r="AH17" s="72"/>
+      <c r="AI17" s="72"/>
+      <c r="AJ17" s="72"/>
+      <c r="AK17" s="72"/>
+      <c r="AL17" s="73"/>
+      <c r="AM17" s="73"/>
+      <c r="AN17" s="73"/>
+      <c r="AO17" s="73"/>
+      <c r="AP17" s="73"/>
+      <c r="AQ17" s="73"/>
+      <c r="AR17" s="73"/>
+      <c r="AS17" s="73"/>
+      <c r="AT17" s="73"/>
+      <c r="AU17" s="73"/>
+      <c r="AV17" s="73"/>
+      <c r="AW17" s="73"/>
+      <c r="AX17" s="73"/>
+      <c r="AY17" s="73"/>
+      <c r="AZ17" s="73"/>
+      <c r="BA17" s="73"/>
+      <c r="BB17" s="73"/>
+      <c r="BC17" s="73"/>
+      <c r="BD17" s="73"/>
+      <c r="BE17" s="73"/>
+      <c r="BF17" s="73"/>
+      <c r="BG17" s="73"/>
+      <c r="BH17" s="73"/>
+      <c r="BI17" s="73"/>
+      <c r="BJ17" s="73"/>
       <c r="BK17" s="2"/>
       <c r="BL17" s="16"/>
     </row>
     <row r="18" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="16"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="79" t="s">
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="79"/>
-      <c r="R18" s="79"/>
-      <c r="S18" s="79"/>
-      <c r="T18" s="79"/>
-      <c r="U18" s="79"/>
-      <c r="V18" s="79"/>
-      <c r="W18" s="79"/>
-      <c r="X18" s="79"/>
-      <c r="Y18" s="79"/>
-      <c r="Z18" s="79"/>
-      <c r="AA18" s="79"/>
-      <c r="AB18" s="79"/>
-      <c r="AC18" s="79"/>
-      <c r="AD18" s="79"/>
-      <c r="AE18" s="79"/>
-      <c r="AF18" s="79"/>
-      <c r="AG18" s="79"/>
-      <c r="AH18" s="79"/>
-      <c r="AI18" s="79"/>
-      <c r="AJ18" s="79"/>
-      <c r="AK18" s="79"/>
-      <c r="AL18" s="77" t="s">
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="72"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="72"/>
+      <c r="U18" s="72"/>
+      <c r="V18" s="72"/>
+      <c r="W18" s="72"/>
+      <c r="X18" s="72"/>
+      <c r="Y18" s="72"/>
+      <c r="Z18" s="72"/>
+      <c r="AA18" s="72"/>
+      <c r="AB18" s="72"/>
+      <c r="AC18" s="72"/>
+      <c r="AD18" s="72"/>
+      <c r="AE18" s="72"/>
+      <c r="AF18" s="72"/>
+      <c r="AG18" s="72"/>
+      <c r="AH18" s="72"/>
+      <c r="AI18" s="72"/>
+      <c r="AJ18" s="72"/>
+      <c r="AK18" s="72"/>
+      <c r="AL18" s="73" t="s">
         <v>217</v>
       </c>
-      <c r="AM18" s="77"/>
-      <c r="AN18" s="77"/>
-      <c r="AO18" s="77"/>
-      <c r="AP18" s="77"/>
-      <c r="AQ18" s="77"/>
-      <c r="AR18" s="77"/>
-      <c r="AS18" s="77"/>
-      <c r="AT18" s="77"/>
-      <c r="AU18" s="77"/>
-      <c r="AV18" s="77"/>
-      <c r="AW18" s="77"/>
-      <c r="AX18" s="77"/>
-      <c r="AY18" s="77"/>
-      <c r="AZ18" s="77"/>
-      <c r="BA18" s="77"/>
-      <c r="BB18" s="77"/>
-      <c r="BC18" s="77"/>
-      <c r="BD18" s="77"/>
-      <c r="BE18" s="77"/>
-      <c r="BF18" s="77"/>
-      <c r="BG18" s="77"/>
-      <c r="BH18" s="77"/>
-      <c r="BI18" s="77"/>
-      <c r="BJ18" s="77"/>
+      <c r="AM18" s="73"/>
+      <c r="AN18" s="73"/>
+      <c r="AO18" s="73"/>
+      <c r="AP18" s="73"/>
+      <c r="AQ18" s="73"/>
+      <c r="AR18" s="73"/>
+      <c r="AS18" s="73"/>
+      <c r="AT18" s="73"/>
+      <c r="AU18" s="73"/>
+      <c r="AV18" s="73"/>
+      <c r="AW18" s="73"/>
+      <c r="AX18" s="73"/>
+      <c r="AY18" s="73"/>
+      <c r="AZ18" s="73"/>
+      <c r="BA18" s="73"/>
+      <c r="BB18" s="73"/>
+      <c r="BC18" s="73"/>
+      <c r="BD18" s="73"/>
+      <c r="BE18" s="73"/>
+      <c r="BF18" s="73"/>
+      <c r="BG18" s="73"/>
+      <c r="BH18" s="73"/>
+      <c r="BI18" s="73"/>
+      <c r="BJ18" s="73"/>
       <c r="BK18" s="2"/>
       <c r="BL18" s="16"/>
     </row>
     <row r="19" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="16"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="80" t="s">
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="81"/>
-      <c r="S19" s="81"/>
-      <c r="T19" s="81"/>
-      <c r="U19" s="81"/>
-      <c r="V19" s="81"/>
-      <c r="W19" s="81"/>
-      <c r="X19" s="81"/>
-      <c r="Y19" s="81"/>
-      <c r="Z19" s="81"/>
-      <c r="AA19" s="81"/>
-      <c r="AB19" s="81"/>
-      <c r="AC19" s="81"/>
-      <c r="AD19" s="81"/>
-      <c r="AE19" s="81"/>
-      <c r="AF19" s="81"/>
-      <c r="AG19" s="81"/>
-      <c r="AH19" s="81"/>
-      <c r="AI19" s="81"/>
-      <c r="AJ19" s="81"/>
-      <c r="AK19" s="82"/>
-      <c r="AL19" s="77" t="s">
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="78"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="78"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="78"/>
+      <c r="S19" s="78"/>
+      <c r="T19" s="78"/>
+      <c r="U19" s="78"/>
+      <c r="V19" s="78"/>
+      <c r="W19" s="78"/>
+      <c r="X19" s="78"/>
+      <c r="Y19" s="78"/>
+      <c r="Z19" s="78"/>
+      <c r="AA19" s="78"/>
+      <c r="AB19" s="78"/>
+      <c r="AC19" s="78"/>
+      <c r="AD19" s="78"/>
+      <c r="AE19" s="78"/>
+      <c r="AF19" s="78"/>
+      <c r="AG19" s="78"/>
+      <c r="AH19" s="78"/>
+      <c r="AI19" s="78"/>
+      <c r="AJ19" s="78"/>
+      <c r="AK19" s="79"/>
+      <c r="AL19" s="73" t="s">
         <v>218</v>
       </c>
-      <c r="AM19" s="77"/>
-      <c r="AN19" s="77"/>
-      <c r="AO19" s="77"/>
-      <c r="AP19" s="77"/>
-      <c r="AQ19" s="77"/>
-      <c r="AR19" s="77"/>
-      <c r="AS19" s="77"/>
-      <c r="AT19" s="77"/>
-      <c r="AU19" s="77"/>
-      <c r="AV19" s="77"/>
-      <c r="AW19" s="77"/>
-      <c r="AX19" s="77"/>
-      <c r="AY19" s="77"/>
-      <c r="AZ19" s="77"/>
-      <c r="BA19" s="77"/>
-      <c r="BB19" s="77"/>
-      <c r="BC19" s="77"/>
-      <c r="BD19" s="77"/>
-      <c r="BE19" s="77"/>
-      <c r="BF19" s="77"/>
-      <c r="BG19" s="77"/>
-      <c r="BH19" s="77"/>
-      <c r="BI19" s="77"/>
-      <c r="BJ19" s="77"/>
+      <c r="AM19" s="73"/>
+      <c r="AN19" s="73"/>
+      <c r="AO19" s="73"/>
+      <c r="AP19" s="73"/>
+      <c r="AQ19" s="73"/>
+      <c r="AR19" s="73"/>
+      <c r="AS19" s="73"/>
+      <c r="AT19" s="73"/>
+      <c r="AU19" s="73"/>
+      <c r="AV19" s="73"/>
+      <c r="AW19" s="73"/>
+      <c r="AX19" s="73"/>
+      <c r="AY19" s="73"/>
+      <c r="AZ19" s="73"/>
+      <c r="BA19" s="73"/>
+      <c r="BB19" s="73"/>
+      <c r="BC19" s="73"/>
+      <c r="BD19" s="73"/>
+      <c r="BE19" s="73"/>
+      <c r="BF19" s="73"/>
+      <c r="BG19" s="73"/>
+      <c r="BH19" s="73"/>
+      <c r="BI19" s="73"/>
+      <c r="BJ19" s="73"/>
       <c r="BK19" s="2"/>
       <c r="BL19" s="16"/>
     </row>
     <row r="20" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="16"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="83" t="s">
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="84"/>
-      <c r="P20" s="84"/>
-      <c r="Q20" s="84"/>
-      <c r="R20" s="84"/>
-      <c r="S20" s="84"/>
-      <c r="T20" s="84"/>
-      <c r="U20" s="84"/>
-      <c r="V20" s="84"/>
-      <c r="W20" s="84"/>
-      <c r="X20" s="84"/>
-      <c r="Y20" s="84"/>
-      <c r="Z20" s="84"/>
-      <c r="AA20" s="84"/>
-      <c r="AB20" s="84"/>
-      <c r="AC20" s="84"/>
-      <c r="AD20" s="84"/>
-      <c r="AE20" s="84"/>
-      <c r="AF20" s="84"/>
-      <c r="AG20" s="84"/>
-      <c r="AH20" s="84"/>
-      <c r="AI20" s="84"/>
-      <c r="AJ20" s="84"/>
-      <c r="AK20" s="85"/>
-      <c r="AL20" s="77" t="s">
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="75"/>
+      <c r="S20" s="75"/>
+      <c r="T20" s="75"/>
+      <c r="U20" s="75"/>
+      <c r="V20" s="75"/>
+      <c r="W20" s="75"/>
+      <c r="X20" s="75"/>
+      <c r="Y20" s="75"/>
+      <c r="Z20" s="75"/>
+      <c r="AA20" s="75"/>
+      <c r="AB20" s="75"/>
+      <c r="AC20" s="75"/>
+      <c r="AD20" s="75"/>
+      <c r="AE20" s="75"/>
+      <c r="AF20" s="75"/>
+      <c r="AG20" s="75"/>
+      <c r="AH20" s="75"/>
+      <c r="AI20" s="75"/>
+      <c r="AJ20" s="75"/>
+      <c r="AK20" s="76"/>
+      <c r="AL20" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="AM20" s="77"/>
-      <c r="AN20" s="77"/>
-      <c r="AO20" s="77"/>
-      <c r="AP20" s="77"/>
-      <c r="AQ20" s="77"/>
-      <c r="AR20" s="77"/>
-      <c r="AS20" s="77"/>
-      <c r="AT20" s="77"/>
-      <c r="AU20" s="77"/>
-      <c r="AV20" s="77"/>
-      <c r="AW20" s="77"/>
-      <c r="AX20" s="77"/>
-      <c r="AY20" s="77"/>
-      <c r="AZ20" s="77"/>
-      <c r="BA20" s="77"/>
-      <c r="BB20" s="77"/>
-      <c r="BC20" s="77"/>
-      <c r="BD20" s="77"/>
-      <c r="BE20" s="77"/>
-      <c r="BF20" s="77"/>
-      <c r="BG20" s="77"/>
-      <c r="BH20" s="77"/>
-      <c r="BI20" s="77"/>
-      <c r="BJ20" s="77"/>
+      <c r="AM20" s="73"/>
+      <c r="AN20" s="73"/>
+      <c r="AO20" s="73"/>
+      <c r="AP20" s="73"/>
+      <c r="AQ20" s="73"/>
+      <c r="AR20" s="73"/>
+      <c r="AS20" s="73"/>
+      <c r="AT20" s="73"/>
+      <c r="AU20" s="73"/>
+      <c r="AV20" s="73"/>
+      <c r="AW20" s="73"/>
+      <c r="AX20" s="73"/>
+      <c r="AY20" s="73"/>
+      <c r="AZ20" s="73"/>
+      <c r="BA20" s="73"/>
+      <c r="BB20" s="73"/>
+      <c r="BC20" s="73"/>
+      <c r="BD20" s="73"/>
+      <c r="BE20" s="73"/>
+      <c r="BF20" s="73"/>
+      <c r="BG20" s="73"/>
+      <c r="BH20" s="73"/>
+      <c r="BI20" s="73"/>
+      <c r="BJ20" s="73"/>
       <c r="BK20" s="2"/>
       <c r="BL20" s="16"/>
     </row>
     <row r="21" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="16"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="73" t="s">
+      <c r="C21" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="83" t="s">
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="74" t="s">
         <v>132</v>
       </c>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="84"/>
-      <c r="S21" s="84"/>
-      <c r="T21" s="84"/>
-      <c r="U21" s="84"/>
-      <c r="V21" s="84"/>
-      <c r="W21" s="84"/>
-      <c r="X21" s="84"/>
-      <c r="Y21" s="84"/>
-      <c r="Z21" s="84"/>
-      <c r="AA21" s="84"/>
-      <c r="AB21" s="84"/>
-      <c r="AC21" s="84"/>
-      <c r="AD21" s="84"/>
-      <c r="AE21" s="84"/>
-      <c r="AF21" s="84"/>
-      <c r="AG21" s="84"/>
-      <c r="AH21" s="84"/>
-      <c r="AI21" s="84"/>
-      <c r="AJ21" s="84"/>
-      <c r="AK21" s="85"/>
-      <c r="AL21" s="77"/>
-      <c r="AM21" s="77"/>
-      <c r="AN21" s="77"/>
-      <c r="AO21" s="77"/>
-      <c r="AP21" s="77"/>
-      <c r="AQ21" s="77"/>
-      <c r="AR21" s="77"/>
-      <c r="AS21" s="77"/>
-      <c r="AT21" s="77"/>
-      <c r="AU21" s="77"/>
-      <c r="AV21" s="77"/>
-      <c r="AW21" s="77"/>
-      <c r="AX21" s="77"/>
-      <c r="AY21" s="77"/>
-      <c r="AZ21" s="77"/>
-      <c r="BA21" s="77"/>
-      <c r="BB21" s="77"/>
-      <c r="BC21" s="77"/>
-      <c r="BD21" s="77"/>
-      <c r="BE21" s="77"/>
-      <c r="BF21" s="77"/>
-      <c r="BG21" s="77"/>
-      <c r="BH21" s="77"/>
-      <c r="BI21" s="77"/>
-      <c r="BJ21" s="77"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="75"/>
+      <c r="R21" s="75"/>
+      <c r="S21" s="75"/>
+      <c r="T21" s="75"/>
+      <c r="U21" s="75"/>
+      <c r="V21" s="75"/>
+      <c r="W21" s="75"/>
+      <c r="X21" s="75"/>
+      <c r="Y21" s="75"/>
+      <c r="Z21" s="75"/>
+      <c r="AA21" s="75"/>
+      <c r="AB21" s="75"/>
+      <c r="AC21" s="75"/>
+      <c r="AD21" s="75"/>
+      <c r="AE21" s="75"/>
+      <c r="AF21" s="75"/>
+      <c r="AG21" s="75"/>
+      <c r="AH21" s="75"/>
+      <c r="AI21" s="75"/>
+      <c r="AJ21" s="75"/>
+      <c r="AK21" s="76"/>
+      <c r="AL21" s="73"/>
+      <c r="AM21" s="73"/>
+      <c r="AN21" s="73"/>
+      <c r="AO21" s="73"/>
+      <c r="AP21" s="73"/>
+      <c r="AQ21" s="73"/>
+      <c r="AR21" s="73"/>
+      <c r="AS21" s="73"/>
+      <c r="AT21" s="73"/>
+      <c r="AU21" s="73"/>
+      <c r="AV21" s="73"/>
+      <c r="AW21" s="73"/>
+      <c r="AX21" s="73"/>
+      <c r="AY21" s="73"/>
+      <c r="AZ21" s="73"/>
+      <c r="BA21" s="73"/>
+      <c r="BB21" s="73"/>
+      <c r="BC21" s="73"/>
+      <c r="BD21" s="73"/>
+      <c r="BE21" s="73"/>
+      <c r="BF21" s="73"/>
+      <c r="BG21" s="73"/>
+      <c r="BH21" s="73"/>
+      <c r="BI21" s="73"/>
+      <c r="BJ21" s="73"/>
       <c r="BK21" s="2"/>
       <c r="BL21" s="16"/>
     </row>
     <row r="22" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="16"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="83" t="s">
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="74" t="s">
         <v>202</v>
       </c>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="84"/>
-      <c r="S22" s="84"/>
-      <c r="T22" s="84"/>
-      <c r="U22" s="84"/>
-      <c r="V22" s="84"/>
-      <c r="W22" s="84"/>
-      <c r="X22" s="84"/>
-      <c r="Y22" s="84"/>
-      <c r="Z22" s="84"/>
-      <c r="AA22" s="84"/>
-      <c r="AB22" s="84"/>
-      <c r="AC22" s="84"/>
-      <c r="AD22" s="84"/>
-      <c r="AE22" s="84"/>
-      <c r="AF22" s="84"/>
-      <c r="AG22" s="84"/>
-      <c r="AH22" s="84"/>
-      <c r="AI22" s="84"/>
-      <c r="AJ22" s="84"/>
-      <c r="AK22" s="85"/>
-      <c r="AL22" s="77"/>
-      <c r="AM22" s="77"/>
-      <c r="AN22" s="77"/>
-      <c r="AO22" s="77"/>
-      <c r="AP22" s="77"/>
-      <c r="AQ22" s="77"/>
-      <c r="AR22" s="77"/>
-      <c r="AS22" s="77"/>
-      <c r="AT22" s="77"/>
-      <c r="AU22" s="77"/>
-      <c r="AV22" s="77"/>
-      <c r="AW22" s="77"/>
-      <c r="AX22" s="77"/>
-      <c r="AY22" s="77"/>
-      <c r="AZ22" s="77"/>
-      <c r="BA22" s="77"/>
-      <c r="BB22" s="77"/>
-      <c r="BC22" s="77"/>
-      <c r="BD22" s="77"/>
-      <c r="BE22" s="77"/>
-      <c r="BF22" s="77"/>
-      <c r="BG22" s="77"/>
-      <c r="BH22" s="77"/>
-      <c r="BI22" s="77"/>
-      <c r="BJ22" s="77"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="75"/>
+      <c r="S22" s="75"/>
+      <c r="T22" s="75"/>
+      <c r="U22" s="75"/>
+      <c r="V22" s="75"/>
+      <c r="W22" s="75"/>
+      <c r="X22" s="75"/>
+      <c r="Y22" s="75"/>
+      <c r="Z22" s="75"/>
+      <c r="AA22" s="75"/>
+      <c r="AB22" s="75"/>
+      <c r="AC22" s="75"/>
+      <c r="AD22" s="75"/>
+      <c r="AE22" s="75"/>
+      <c r="AF22" s="75"/>
+      <c r="AG22" s="75"/>
+      <c r="AH22" s="75"/>
+      <c r="AI22" s="75"/>
+      <c r="AJ22" s="75"/>
+      <c r="AK22" s="76"/>
+      <c r="AL22" s="73"/>
+      <c r="AM22" s="73"/>
+      <c r="AN22" s="73"/>
+      <c r="AO22" s="73"/>
+      <c r="AP22" s="73"/>
+      <c r="AQ22" s="73"/>
+      <c r="AR22" s="73"/>
+      <c r="AS22" s="73"/>
+      <c r="AT22" s="73"/>
+      <c r="AU22" s="73"/>
+      <c r="AV22" s="73"/>
+      <c r="AW22" s="73"/>
+      <c r="AX22" s="73"/>
+      <c r="AY22" s="73"/>
+      <c r="AZ22" s="73"/>
+      <c r="BA22" s="73"/>
+      <c r="BB22" s="73"/>
+      <c r="BC22" s="73"/>
+      <c r="BD22" s="73"/>
+      <c r="BE22" s="73"/>
+      <c r="BF22" s="73"/>
+      <c r="BG22" s="73"/>
+      <c r="BH22" s="73"/>
+      <c r="BI22" s="73"/>
+      <c r="BJ22" s="73"/>
       <c r="BK22" s="2"/>
       <c r="BL22" s="16"/>
     </row>
     <row r="23" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="16"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="73" t="s">
+      <c r="C23" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="79" t="s">
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="72" t="s">
         <v>183</v>
       </c>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="79"/>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="79"/>
-      <c r="R23" s="79"/>
-      <c r="S23" s="79"/>
-      <c r="T23" s="79"/>
-      <c r="U23" s="79"/>
-      <c r="V23" s="79"/>
-      <c r="W23" s="79"/>
-      <c r="X23" s="79"/>
-      <c r="Y23" s="79"/>
-      <c r="Z23" s="79"/>
-      <c r="AA23" s="79"/>
-      <c r="AB23" s="79"/>
-      <c r="AC23" s="79"/>
-      <c r="AD23" s="79"/>
-      <c r="AE23" s="79"/>
-      <c r="AF23" s="79"/>
-      <c r="AG23" s="79"/>
-      <c r="AH23" s="79"/>
-      <c r="AI23" s="79"/>
-      <c r="AJ23" s="79"/>
-      <c r="AK23" s="79"/>
-      <c r="AL23" s="77"/>
-      <c r="AM23" s="77"/>
-      <c r="AN23" s="77"/>
-      <c r="AO23" s="77"/>
-      <c r="AP23" s="77"/>
-      <c r="AQ23" s="77"/>
-      <c r="AR23" s="77"/>
-      <c r="AS23" s="77"/>
-      <c r="AT23" s="77"/>
-      <c r="AU23" s="77"/>
-      <c r="AV23" s="77"/>
-      <c r="AW23" s="77"/>
-      <c r="AX23" s="77"/>
-      <c r="AY23" s="77"/>
-      <c r="AZ23" s="77"/>
-      <c r="BA23" s="77"/>
-      <c r="BB23" s="77"/>
-      <c r="BC23" s="77"/>
-      <c r="BD23" s="77"/>
-      <c r="BE23" s="77"/>
-      <c r="BF23" s="77"/>
-      <c r="BG23" s="77"/>
-      <c r="BH23" s="77"/>
-      <c r="BI23" s="77"/>
-      <c r="BJ23" s="77"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="72"/>
+      <c r="P23" s="72"/>
+      <c r="Q23" s="72"/>
+      <c r="R23" s="72"/>
+      <c r="S23" s="72"/>
+      <c r="T23" s="72"/>
+      <c r="U23" s="72"/>
+      <c r="V23" s="72"/>
+      <c r="W23" s="72"/>
+      <c r="X23" s="72"/>
+      <c r="Y23" s="72"/>
+      <c r="Z23" s="72"/>
+      <c r="AA23" s="72"/>
+      <c r="AB23" s="72"/>
+      <c r="AC23" s="72"/>
+      <c r="AD23" s="72"/>
+      <c r="AE23" s="72"/>
+      <c r="AF23" s="72"/>
+      <c r="AG23" s="72"/>
+      <c r="AH23" s="72"/>
+      <c r="AI23" s="72"/>
+      <c r="AJ23" s="72"/>
+      <c r="AK23" s="72"/>
+      <c r="AL23" s="73"/>
+      <c r="AM23" s="73"/>
+      <c r="AN23" s="73"/>
+      <c r="AO23" s="73"/>
+      <c r="AP23" s="73"/>
+      <c r="AQ23" s="73"/>
+      <c r="AR23" s="73"/>
+      <c r="AS23" s="73"/>
+      <c r="AT23" s="73"/>
+      <c r="AU23" s="73"/>
+      <c r="AV23" s="73"/>
+      <c r="AW23" s="73"/>
+      <c r="AX23" s="73"/>
+      <c r="AY23" s="73"/>
+      <c r="AZ23" s="73"/>
+      <c r="BA23" s="73"/>
+      <c r="BB23" s="73"/>
+      <c r="BC23" s="73"/>
+      <c r="BD23" s="73"/>
+      <c r="BE23" s="73"/>
+      <c r="BF23" s="73"/>
+      <c r="BG23" s="73"/>
+      <c r="BH23" s="73"/>
+      <c r="BI23" s="73"/>
+      <c r="BJ23" s="73"/>
       <c r="BK23" s="2"/>
       <c r="BL23" s="16"/>
     </row>
     <row r="24" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="73" t="s">
+      <c r="C24" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="79" t="s">
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="72" t="s">
         <v>203</v>
       </c>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="79"/>
-      <c r="P24" s="79"/>
-      <c r="Q24" s="79"/>
-      <c r="R24" s="79"/>
-      <c r="S24" s="79"/>
-      <c r="T24" s="79"/>
-      <c r="U24" s="79"/>
-      <c r="V24" s="79"/>
-      <c r="W24" s="79"/>
-      <c r="X24" s="79"/>
-      <c r="Y24" s="79"/>
-      <c r="Z24" s="79"/>
-      <c r="AA24" s="79"/>
-      <c r="AB24" s="79"/>
-      <c r="AC24" s="79"/>
-      <c r="AD24" s="79"/>
-      <c r="AE24" s="79"/>
-      <c r="AF24" s="79"/>
-      <c r="AG24" s="79"/>
-      <c r="AH24" s="79"/>
-      <c r="AI24" s="79"/>
-      <c r="AJ24" s="79"/>
-      <c r="AK24" s="79"/>
-      <c r="AL24" s="77"/>
-      <c r="AM24" s="77"/>
-      <c r="AN24" s="77"/>
-      <c r="AO24" s="77"/>
-      <c r="AP24" s="77"/>
-      <c r="AQ24" s="77"/>
-      <c r="AR24" s="77"/>
-      <c r="AS24" s="77"/>
-      <c r="AT24" s="77"/>
-      <c r="AU24" s="77"/>
-      <c r="AV24" s="77"/>
-      <c r="AW24" s="77"/>
-      <c r="AX24" s="77"/>
-      <c r="AY24" s="77"/>
-      <c r="AZ24" s="77"/>
-      <c r="BA24" s="77"/>
-      <c r="BB24" s="77"/>
-      <c r="BC24" s="77"/>
-      <c r="BD24" s="77"/>
-      <c r="BE24" s="77"/>
-      <c r="BF24" s="77"/>
-      <c r="BG24" s="77"/>
-      <c r="BH24" s="77"/>
-      <c r="BI24" s="77"/>
-      <c r="BJ24" s="77"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="72"/>
+      <c r="R24" s="72"/>
+      <c r="S24" s="72"/>
+      <c r="T24" s="72"/>
+      <c r="U24" s="72"/>
+      <c r="V24" s="72"/>
+      <c r="W24" s="72"/>
+      <c r="X24" s="72"/>
+      <c r="Y24" s="72"/>
+      <c r="Z24" s="72"/>
+      <c r="AA24" s="72"/>
+      <c r="AB24" s="72"/>
+      <c r="AC24" s="72"/>
+      <c r="AD24" s="72"/>
+      <c r="AE24" s="72"/>
+      <c r="AF24" s="72"/>
+      <c r="AG24" s="72"/>
+      <c r="AH24" s="72"/>
+      <c r="AI24" s="72"/>
+      <c r="AJ24" s="72"/>
+      <c r="AK24" s="72"/>
+      <c r="AL24" s="73"/>
+      <c r="AM24" s="73"/>
+      <c r="AN24" s="73"/>
+      <c r="AO24" s="73"/>
+      <c r="AP24" s="73"/>
+      <c r="AQ24" s="73"/>
+      <c r="AR24" s="73"/>
+      <c r="AS24" s="73"/>
+      <c r="AT24" s="73"/>
+      <c r="AU24" s="73"/>
+      <c r="AV24" s="73"/>
+      <c r="AW24" s="73"/>
+      <c r="AX24" s="73"/>
+      <c r="AY24" s="73"/>
+      <c r="AZ24" s="73"/>
+      <c r="BA24" s="73"/>
+      <c r="BB24" s="73"/>
+      <c r="BC24" s="73"/>
+      <c r="BD24" s="73"/>
+      <c r="BE24" s="73"/>
+      <c r="BF24" s="73"/>
+      <c r="BG24" s="73"/>
+      <c r="BH24" s="73"/>
+      <c r="BI24" s="73"/>
+      <c r="BJ24" s="73"/>
       <c r="BK24" s="2"/>
       <c r="BL24" s="16"/>
     </row>
     <row r="25" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="16"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="73" t="s">
+      <c r="C25" s="71" t="s">
         <v>174</v>
       </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="79" t="s">
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="72" t="s">
         <v>182</v>
       </c>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="79"/>
-      <c r="O25" s="79"/>
-      <c r="P25" s="79"/>
-      <c r="Q25" s="79"/>
-      <c r="R25" s="79"/>
-      <c r="S25" s="79"/>
-      <c r="T25" s="79"/>
-      <c r="U25" s="79"/>
-      <c r="V25" s="79"/>
-      <c r="W25" s="79"/>
-      <c r="X25" s="79"/>
-      <c r="Y25" s="79"/>
-      <c r="Z25" s="79"/>
-      <c r="AA25" s="79"/>
-      <c r="AB25" s="79"/>
-      <c r="AC25" s="79"/>
-      <c r="AD25" s="79"/>
-      <c r="AE25" s="79"/>
-      <c r="AF25" s="79"/>
-      <c r="AG25" s="79"/>
-      <c r="AH25" s="79"/>
-      <c r="AI25" s="79"/>
-      <c r="AJ25" s="79"/>
-      <c r="AK25" s="79"/>
-      <c r="AL25" s="77"/>
-      <c r="AM25" s="77"/>
-      <c r="AN25" s="77"/>
-      <c r="AO25" s="77"/>
-      <c r="AP25" s="77"/>
-      <c r="AQ25" s="77"/>
-      <c r="AR25" s="77"/>
-      <c r="AS25" s="77"/>
-      <c r="AT25" s="77"/>
-      <c r="AU25" s="77"/>
-      <c r="AV25" s="77"/>
-      <c r="AW25" s="77"/>
-      <c r="AX25" s="77"/>
-      <c r="AY25" s="77"/>
-      <c r="AZ25" s="77"/>
-      <c r="BA25" s="77"/>
-      <c r="BB25" s="77"/>
-      <c r="BC25" s="77"/>
-      <c r="BD25" s="77"/>
-      <c r="BE25" s="77"/>
-      <c r="BF25" s="77"/>
-      <c r="BG25" s="77"/>
-      <c r="BH25" s="77"/>
-      <c r="BI25" s="77"/>
-      <c r="BJ25" s="77"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="72"/>
+      <c r="Q25" s="72"/>
+      <c r="R25" s="72"/>
+      <c r="S25" s="72"/>
+      <c r="T25" s="72"/>
+      <c r="U25" s="72"/>
+      <c r="V25" s="72"/>
+      <c r="W25" s="72"/>
+      <c r="X25" s="72"/>
+      <c r="Y25" s="72"/>
+      <c r="Z25" s="72"/>
+      <c r="AA25" s="72"/>
+      <c r="AB25" s="72"/>
+      <c r="AC25" s="72"/>
+      <c r="AD25" s="72"/>
+      <c r="AE25" s="72"/>
+      <c r="AF25" s="72"/>
+      <c r="AG25" s="72"/>
+      <c r="AH25" s="72"/>
+      <c r="AI25" s="72"/>
+      <c r="AJ25" s="72"/>
+      <c r="AK25" s="72"/>
+      <c r="AL25" s="73"/>
+      <c r="AM25" s="73"/>
+      <c r="AN25" s="73"/>
+      <c r="AO25" s="73"/>
+      <c r="AP25" s="73"/>
+      <c r="AQ25" s="73"/>
+      <c r="AR25" s="73"/>
+      <c r="AS25" s="73"/>
+      <c r="AT25" s="73"/>
+      <c r="AU25" s="73"/>
+      <c r="AV25" s="73"/>
+      <c r="AW25" s="73"/>
+      <c r="AX25" s="73"/>
+      <c r="AY25" s="73"/>
+      <c r="AZ25" s="73"/>
+      <c r="BA25" s="73"/>
+      <c r="BB25" s="73"/>
+      <c r="BC25" s="73"/>
+      <c r="BD25" s="73"/>
+      <c r="BE25" s="73"/>
+      <c r="BF25" s="73"/>
+      <c r="BG25" s="73"/>
+      <c r="BH25" s="73"/>
+      <c r="BI25" s="73"/>
+      <c r="BJ25" s="73"/>
       <c r="BK25" s="2"/>
       <c r="BL25" s="16"/>
     </row>
     <row r="26" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="73" t="s">
+      <c r="C26" s="71" t="s">
         <v>178</v>
       </c>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="79" t="s">
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="72" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="79"/>
-      <c r="P26" s="79"/>
-      <c r="Q26" s="79"/>
-      <c r="R26" s="79"/>
-      <c r="S26" s="79"/>
-      <c r="T26" s="79"/>
-      <c r="U26" s="79"/>
-      <c r="V26" s="79"/>
-      <c r="W26" s="79"/>
-      <c r="X26" s="79"/>
-      <c r="Y26" s="79"/>
-      <c r="Z26" s="79"/>
-      <c r="AA26" s="79"/>
-      <c r="AB26" s="79"/>
-      <c r="AC26" s="79"/>
-      <c r="AD26" s="79"/>
-      <c r="AE26" s="79"/>
-      <c r="AF26" s="79"/>
-      <c r="AG26" s="79"/>
-      <c r="AH26" s="79"/>
-      <c r="AI26" s="79"/>
-      <c r="AJ26" s="79"/>
-      <c r="AK26" s="79"/>
-      <c r="AL26" s="77"/>
-      <c r="AM26" s="77"/>
-      <c r="AN26" s="77"/>
-      <c r="AO26" s="77"/>
-      <c r="AP26" s="77"/>
-      <c r="AQ26" s="77"/>
-      <c r="AR26" s="77"/>
-      <c r="AS26" s="77"/>
-      <c r="AT26" s="77"/>
-      <c r="AU26" s="77"/>
-      <c r="AV26" s="77"/>
-      <c r="AW26" s="77"/>
-      <c r="AX26" s="77"/>
-      <c r="AY26" s="77"/>
-      <c r="AZ26" s="77"/>
-      <c r="BA26" s="77"/>
-      <c r="BB26" s="77"/>
-      <c r="BC26" s="77"/>
-      <c r="BD26" s="77"/>
-      <c r="BE26" s="77"/>
-      <c r="BF26" s="77"/>
-      <c r="BG26" s="77"/>
-      <c r="BH26" s="77"/>
-      <c r="BI26" s="77"/>
-      <c r="BJ26" s="77"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="72"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="72"/>
+      <c r="S26" s="72"/>
+      <c r="T26" s="72"/>
+      <c r="U26" s="72"/>
+      <c r="V26" s="72"/>
+      <c r="W26" s="72"/>
+      <c r="X26" s="72"/>
+      <c r="Y26" s="72"/>
+      <c r="Z26" s="72"/>
+      <c r="AA26" s="72"/>
+      <c r="AB26" s="72"/>
+      <c r="AC26" s="72"/>
+      <c r="AD26" s="72"/>
+      <c r="AE26" s="72"/>
+      <c r="AF26" s="72"/>
+      <c r="AG26" s="72"/>
+      <c r="AH26" s="72"/>
+      <c r="AI26" s="72"/>
+      <c r="AJ26" s="72"/>
+      <c r="AK26" s="72"/>
+      <c r="AL26" s="73"/>
+      <c r="AM26" s="73"/>
+      <c r="AN26" s="73"/>
+      <c r="AO26" s="73"/>
+      <c r="AP26" s="73"/>
+      <c r="AQ26" s="73"/>
+      <c r="AR26" s="73"/>
+      <c r="AS26" s="73"/>
+      <c r="AT26" s="73"/>
+      <c r="AU26" s="73"/>
+      <c r="AV26" s="73"/>
+      <c r="AW26" s="73"/>
+      <c r="AX26" s="73"/>
+      <c r="AY26" s="73"/>
+      <c r="AZ26" s="73"/>
+      <c r="BA26" s="73"/>
+      <c r="BB26" s="73"/>
+      <c r="BC26" s="73"/>
+      <c r="BD26" s="73"/>
+      <c r="BE26" s="73"/>
+      <c r="BF26" s="73"/>
+      <c r="BG26" s="73"/>
+      <c r="BH26" s="73"/>
+      <c r="BI26" s="73"/>
+      <c r="BJ26" s="73"/>
       <c r="BK26" s="2"/>
       <c r="BL26" s="16"/>
     </row>
     <row r="27" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="16"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="73" t="s">
+      <c r="C27" s="71" t="s">
         <v>180</v>
       </c>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="79" t="s">
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="72" t="s">
         <v>181</v>
       </c>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="79"/>
-      <c r="P27" s="79"/>
-      <c r="Q27" s="79"/>
-      <c r="R27" s="79"/>
-      <c r="S27" s="79"/>
-      <c r="T27" s="79"/>
-      <c r="U27" s="79"/>
-      <c r="V27" s="79"/>
-      <c r="W27" s="79"/>
-      <c r="X27" s="79"/>
-      <c r="Y27" s="79"/>
-      <c r="Z27" s="79"/>
-      <c r="AA27" s="79"/>
-      <c r="AB27" s="79"/>
-      <c r="AC27" s="79"/>
-      <c r="AD27" s="79"/>
-      <c r="AE27" s="79"/>
-      <c r="AF27" s="79"/>
-      <c r="AG27" s="79"/>
-      <c r="AH27" s="79"/>
-      <c r="AI27" s="79"/>
-      <c r="AJ27" s="79"/>
-      <c r="AK27" s="79"/>
-      <c r="AL27" s="77"/>
-      <c r="AM27" s="77"/>
-      <c r="AN27" s="77"/>
-      <c r="AO27" s="77"/>
-      <c r="AP27" s="77"/>
-      <c r="AQ27" s="77"/>
-      <c r="AR27" s="77"/>
-      <c r="AS27" s="77"/>
-      <c r="AT27" s="77"/>
-      <c r="AU27" s="77"/>
-      <c r="AV27" s="77"/>
-      <c r="AW27" s="77"/>
-      <c r="AX27" s="77"/>
-      <c r="AY27" s="77"/>
-      <c r="AZ27" s="77"/>
-      <c r="BA27" s="77"/>
-      <c r="BB27" s="77"/>
-      <c r="BC27" s="77"/>
-      <c r="BD27" s="77"/>
-      <c r="BE27" s="77"/>
-      <c r="BF27" s="77"/>
-      <c r="BG27" s="77"/>
-      <c r="BH27" s="77"/>
-      <c r="BI27" s="77"/>
-      <c r="BJ27" s="77"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="72"/>
+      <c r="Q27" s="72"/>
+      <c r="R27" s="72"/>
+      <c r="S27" s="72"/>
+      <c r="T27" s="72"/>
+      <c r="U27" s="72"/>
+      <c r="V27" s="72"/>
+      <c r="W27" s="72"/>
+      <c r="X27" s="72"/>
+      <c r="Y27" s="72"/>
+      <c r="Z27" s="72"/>
+      <c r="AA27" s="72"/>
+      <c r="AB27" s="72"/>
+      <c r="AC27" s="72"/>
+      <c r="AD27" s="72"/>
+      <c r="AE27" s="72"/>
+      <c r="AF27" s="72"/>
+      <c r="AG27" s="72"/>
+      <c r="AH27" s="72"/>
+      <c r="AI27" s="72"/>
+      <c r="AJ27" s="72"/>
+      <c r="AK27" s="72"/>
+      <c r="AL27" s="73"/>
+      <c r="AM27" s="73"/>
+      <c r="AN27" s="73"/>
+      <c r="AO27" s="73"/>
+      <c r="AP27" s="73"/>
+      <c r="AQ27" s="73"/>
+      <c r="AR27" s="73"/>
+      <c r="AS27" s="73"/>
+      <c r="AT27" s="73"/>
+      <c r="AU27" s="73"/>
+      <c r="AV27" s="73"/>
+      <c r="AW27" s="73"/>
+      <c r="AX27" s="73"/>
+      <c r="AY27" s="73"/>
+      <c r="AZ27" s="73"/>
+      <c r="BA27" s="73"/>
+      <c r="BB27" s="73"/>
+      <c r="BC27" s="73"/>
+      <c r="BD27" s="73"/>
+      <c r="BE27" s="73"/>
+      <c r="BF27" s="73"/>
+      <c r="BG27" s="73"/>
+      <c r="BH27" s="73"/>
+      <c r="BI27" s="73"/>
+      <c r="BJ27" s="73"/>
       <c r="BK27" s="2"/>
       <c r="BL27" s="16"/>
     </row>
     <row r="28" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="16"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="73" t="s">
+      <c r="C28" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="79" t="s">
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="79"/>
-      <c r="O28" s="79"/>
-      <c r="P28" s="79"/>
-      <c r="Q28" s="79"/>
-      <c r="R28" s="79"/>
-      <c r="S28" s="79"/>
-      <c r="T28" s="79"/>
-      <c r="U28" s="79"/>
-      <c r="V28" s="79"/>
-      <c r="W28" s="79"/>
-      <c r="X28" s="79"/>
-      <c r="Y28" s="79"/>
-      <c r="Z28" s="79"/>
-      <c r="AA28" s="79"/>
-      <c r="AB28" s="79"/>
-      <c r="AC28" s="79"/>
-      <c r="AD28" s="79"/>
-      <c r="AE28" s="79"/>
-      <c r="AF28" s="79"/>
-      <c r="AG28" s="79"/>
-      <c r="AH28" s="79"/>
-      <c r="AI28" s="79"/>
-      <c r="AJ28" s="79"/>
-      <c r="AK28" s="79"/>
-      <c r="AL28" s="77"/>
-      <c r="AM28" s="77"/>
-      <c r="AN28" s="77"/>
-      <c r="AO28" s="77"/>
-      <c r="AP28" s="77"/>
-      <c r="AQ28" s="77"/>
-      <c r="AR28" s="77"/>
-      <c r="AS28" s="77"/>
-      <c r="AT28" s="77"/>
-      <c r="AU28" s="77"/>
-      <c r="AV28" s="77"/>
-      <c r="AW28" s="77"/>
-      <c r="AX28" s="77"/>
-      <c r="AY28" s="77"/>
-      <c r="AZ28" s="77"/>
-      <c r="BA28" s="77"/>
-      <c r="BB28" s="77"/>
-      <c r="BC28" s="77"/>
-      <c r="BD28" s="77"/>
-      <c r="BE28" s="77"/>
-      <c r="BF28" s="77"/>
-      <c r="BG28" s="77"/>
-      <c r="BH28" s="77"/>
-      <c r="BI28" s="77"/>
-      <c r="BJ28" s="77"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="72"/>
+      <c r="Q28" s="72"/>
+      <c r="R28" s="72"/>
+      <c r="S28" s="72"/>
+      <c r="T28" s="72"/>
+      <c r="U28" s="72"/>
+      <c r="V28" s="72"/>
+      <c r="W28" s="72"/>
+      <c r="X28" s="72"/>
+      <c r="Y28" s="72"/>
+      <c r="Z28" s="72"/>
+      <c r="AA28" s="72"/>
+      <c r="AB28" s="72"/>
+      <c r="AC28" s="72"/>
+      <c r="AD28" s="72"/>
+      <c r="AE28" s="72"/>
+      <c r="AF28" s="72"/>
+      <c r="AG28" s="72"/>
+      <c r="AH28" s="72"/>
+      <c r="AI28" s="72"/>
+      <c r="AJ28" s="72"/>
+      <c r="AK28" s="72"/>
+      <c r="AL28" s="73"/>
+      <c r="AM28" s="73"/>
+      <c r="AN28" s="73"/>
+      <c r="AO28" s="73"/>
+      <c r="AP28" s="73"/>
+      <c r="AQ28" s="73"/>
+      <c r="AR28" s="73"/>
+      <c r="AS28" s="73"/>
+      <c r="AT28" s="73"/>
+      <c r="AU28" s="73"/>
+      <c r="AV28" s="73"/>
+      <c r="AW28" s="73"/>
+      <c r="AX28" s="73"/>
+      <c r="AY28" s="73"/>
+      <c r="AZ28" s="73"/>
+      <c r="BA28" s="73"/>
+      <c r="BB28" s="73"/>
+      <c r="BC28" s="73"/>
+      <c r="BD28" s="73"/>
+      <c r="BE28" s="73"/>
+      <c r="BF28" s="73"/>
+      <c r="BG28" s="73"/>
+      <c r="BH28" s="73"/>
+      <c r="BI28" s="73"/>
+      <c r="BJ28" s="73"/>
       <c r="BK28" s="2"/>
       <c r="BL28" s="16"/>
     </row>
     <row r="29" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="16"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="73" t="s">
+      <c r="C29" s="71" t="s">
         <v>186</v>
       </c>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="79" t="s">
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="72" t="s">
         <v>195</v>
       </c>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="79"/>
-      <c r="L29" s="79"/>
-      <c r="M29" s="79"/>
-      <c r="N29" s="79"/>
-      <c r="O29" s="79"/>
-      <c r="P29" s="79"/>
-      <c r="Q29" s="79"/>
-      <c r="R29" s="79"/>
-      <c r="S29" s="79"/>
-      <c r="T29" s="79"/>
-      <c r="U29" s="79"/>
-      <c r="V29" s="79"/>
-      <c r="W29" s="79"/>
-      <c r="X29" s="79"/>
-      <c r="Y29" s="79"/>
-      <c r="Z29" s="79"/>
-      <c r="AA29" s="79"/>
-      <c r="AB29" s="79"/>
-      <c r="AC29" s="79"/>
-      <c r="AD29" s="79"/>
-      <c r="AE29" s="79"/>
-      <c r="AF29" s="79"/>
-      <c r="AG29" s="79"/>
-      <c r="AH29" s="79"/>
-      <c r="AI29" s="79"/>
-      <c r="AJ29" s="79"/>
-      <c r="AK29" s="79"/>
-      <c r="AL29" s="77"/>
-      <c r="AM29" s="77"/>
-      <c r="AN29" s="77"/>
-      <c r="AO29" s="77"/>
-      <c r="AP29" s="77"/>
-      <c r="AQ29" s="77"/>
-      <c r="AR29" s="77"/>
-      <c r="AS29" s="77"/>
-      <c r="AT29" s="77"/>
-      <c r="AU29" s="77"/>
-      <c r="AV29" s="77"/>
-      <c r="AW29" s="77"/>
-      <c r="AX29" s="77"/>
-      <c r="AY29" s="77"/>
-      <c r="AZ29" s="77"/>
-      <c r="BA29" s="77"/>
-      <c r="BB29" s="77"/>
-      <c r="BC29" s="77"/>
-      <c r="BD29" s="77"/>
-      <c r="BE29" s="77"/>
-      <c r="BF29" s="77"/>
-      <c r="BG29" s="77"/>
-      <c r="BH29" s="77"/>
-      <c r="BI29" s="77"/>
-      <c r="BJ29" s="77"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="72"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="72"/>
+      <c r="V29" s="72"/>
+      <c r="W29" s="72"/>
+      <c r="X29" s="72"/>
+      <c r="Y29" s="72"/>
+      <c r="Z29" s="72"/>
+      <c r="AA29" s="72"/>
+      <c r="AB29" s="72"/>
+      <c r="AC29" s="72"/>
+      <c r="AD29" s="72"/>
+      <c r="AE29" s="72"/>
+      <c r="AF29" s="72"/>
+      <c r="AG29" s="72"/>
+      <c r="AH29" s="72"/>
+      <c r="AI29" s="72"/>
+      <c r="AJ29" s="72"/>
+      <c r="AK29" s="72"/>
+      <c r="AL29" s="73"/>
+      <c r="AM29" s="73"/>
+      <c r="AN29" s="73"/>
+      <c r="AO29" s="73"/>
+      <c r="AP29" s="73"/>
+      <c r="AQ29" s="73"/>
+      <c r="AR29" s="73"/>
+      <c r="AS29" s="73"/>
+      <c r="AT29" s="73"/>
+      <c r="AU29" s="73"/>
+      <c r="AV29" s="73"/>
+      <c r="AW29" s="73"/>
+      <c r="AX29" s="73"/>
+      <c r="AY29" s="73"/>
+      <c r="AZ29" s="73"/>
+      <c r="BA29" s="73"/>
+      <c r="BB29" s="73"/>
+      <c r="BC29" s="73"/>
+      <c r="BD29" s="73"/>
+      <c r="BE29" s="73"/>
+      <c r="BF29" s="73"/>
+      <c r="BG29" s="73"/>
+      <c r="BH29" s="73"/>
+      <c r="BI29" s="73"/>
+      <c r="BJ29" s="73"/>
       <c r="BK29" s="2"/>
       <c r="BL29" s="16"/>
     </row>
     <row r="30" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="16"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="73" t="s">
+      <c r="C30" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="79" t="s">
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="72" t="s">
         <v>196</v>
       </c>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="79"/>
-      <c r="K30" s="79"/>
-      <c r="L30" s="79"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="79"/>
-      <c r="O30" s="79"/>
-      <c r="P30" s="79"/>
-      <c r="Q30" s="79"/>
-      <c r="R30" s="79"/>
-      <c r="S30" s="79"/>
-      <c r="T30" s="79"/>
-      <c r="U30" s="79"/>
-      <c r="V30" s="79"/>
-      <c r="W30" s="79"/>
-      <c r="X30" s="79"/>
-      <c r="Y30" s="79"/>
-      <c r="Z30" s="79"/>
-      <c r="AA30" s="79"/>
-      <c r="AB30" s="79"/>
-      <c r="AC30" s="79"/>
-      <c r="AD30" s="79"/>
-      <c r="AE30" s="79"/>
-      <c r="AF30" s="79"/>
-      <c r="AG30" s="79"/>
-      <c r="AH30" s="79"/>
-      <c r="AI30" s="79"/>
-      <c r="AJ30" s="79"/>
-      <c r="AK30" s="79"/>
-      <c r="AL30" s="77"/>
-      <c r="AM30" s="77"/>
-      <c r="AN30" s="77"/>
-      <c r="AO30" s="77"/>
-      <c r="AP30" s="77"/>
-      <c r="AQ30" s="77"/>
-      <c r="AR30" s="77"/>
-      <c r="AS30" s="77"/>
-      <c r="AT30" s="77"/>
-      <c r="AU30" s="77"/>
-      <c r="AV30" s="77"/>
-      <c r="AW30" s="77"/>
-      <c r="AX30" s="77"/>
-      <c r="AY30" s="77"/>
-      <c r="AZ30" s="77"/>
-      <c r="BA30" s="77"/>
-      <c r="BB30" s="77"/>
-      <c r="BC30" s="77"/>
-      <c r="BD30" s="77"/>
-      <c r="BE30" s="77"/>
-      <c r="BF30" s="77"/>
-      <c r="BG30" s="77"/>
-      <c r="BH30" s="77"/>
-      <c r="BI30" s="77"/>
-      <c r="BJ30" s="77"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
+      <c r="P30" s="72"/>
+      <c r="Q30" s="72"/>
+      <c r="R30" s="72"/>
+      <c r="S30" s="72"/>
+      <c r="T30" s="72"/>
+      <c r="U30" s="72"/>
+      <c r="V30" s="72"/>
+      <c r="W30" s="72"/>
+      <c r="X30" s="72"/>
+      <c r="Y30" s="72"/>
+      <c r="Z30" s="72"/>
+      <c r="AA30" s="72"/>
+      <c r="AB30" s="72"/>
+      <c r="AC30" s="72"/>
+      <c r="AD30" s="72"/>
+      <c r="AE30" s="72"/>
+      <c r="AF30" s="72"/>
+      <c r="AG30" s="72"/>
+      <c r="AH30" s="72"/>
+      <c r="AI30" s="72"/>
+      <c r="AJ30" s="72"/>
+      <c r="AK30" s="72"/>
+      <c r="AL30" s="73"/>
+      <c r="AM30" s="73"/>
+      <c r="AN30" s="73"/>
+      <c r="AO30" s="73"/>
+      <c r="AP30" s="73"/>
+      <c r="AQ30" s="73"/>
+      <c r="AR30" s="73"/>
+      <c r="AS30" s="73"/>
+      <c r="AT30" s="73"/>
+      <c r="AU30" s="73"/>
+      <c r="AV30" s="73"/>
+      <c r="AW30" s="73"/>
+      <c r="AX30" s="73"/>
+      <c r="AY30" s="73"/>
+      <c r="AZ30" s="73"/>
+      <c r="BA30" s="73"/>
+      <c r="BB30" s="73"/>
+      <c r="BC30" s="73"/>
+      <c r="BD30" s="73"/>
+      <c r="BE30" s="73"/>
+      <c r="BF30" s="73"/>
+      <c r="BG30" s="73"/>
+      <c r="BH30" s="73"/>
+      <c r="BI30" s="73"/>
+      <c r="BJ30" s="73"/>
       <c r="BK30" s="2"/>
       <c r="BL30" s="16"/>
     </row>
     <row r="31" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="16"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="73" t="s">
+      <c r="C31" s="71" t="s">
         <v>188</v>
       </c>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="79" t="s">
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="79"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="79"/>
-      <c r="M31" s="79"/>
-      <c r="N31" s="79"/>
-      <c r="O31" s="79"/>
-      <c r="P31" s="79"/>
-      <c r="Q31" s="79"/>
-      <c r="R31" s="79"/>
-      <c r="S31" s="79"/>
-      <c r="T31" s="79"/>
-      <c r="U31" s="79"/>
-      <c r="V31" s="79"/>
-      <c r="W31" s="79"/>
-      <c r="X31" s="79"/>
-      <c r="Y31" s="79"/>
-      <c r="Z31" s="79"/>
-      <c r="AA31" s="79"/>
-      <c r="AB31" s="79"/>
-      <c r="AC31" s="79"/>
-      <c r="AD31" s="79"/>
-      <c r="AE31" s="79"/>
-      <c r="AF31" s="79"/>
-      <c r="AG31" s="79"/>
-      <c r="AH31" s="79"/>
-      <c r="AI31" s="79"/>
-      <c r="AJ31" s="79"/>
-      <c r="AK31" s="79"/>
-      <c r="AL31" s="77"/>
-      <c r="AM31" s="77"/>
-      <c r="AN31" s="77"/>
-      <c r="AO31" s="77"/>
-      <c r="AP31" s="77"/>
-      <c r="AQ31" s="77"/>
-      <c r="AR31" s="77"/>
-      <c r="AS31" s="77"/>
-      <c r="AT31" s="77"/>
-      <c r="AU31" s="77"/>
-      <c r="AV31" s="77"/>
-      <c r="AW31" s="77"/>
-      <c r="AX31" s="77"/>
-      <c r="AY31" s="77"/>
-      <c r="AZ31" s="77"/>
-      <c r="BA31" s="77"/>
-      <c r="BB31" s="77"/>
-      <c r="BC31" s="77"/>
-      <c r="BD31" s="77"/>
-      <c r="BE31" s="77"/>
-      <c r="BF31" s="77"/>
-      <c r="BG31" s="77"/>
-      <c r="BH31" s="77"/>
-      <c r="BI31" s="77"/>
-      <c r="BJ31" s="77"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="72"/>
+      <c r="P31" s="72"/>
+      <c r="Q31" s="72"/>
+      <c r="R31" s="72"/>
+      <c r="S31" s="72"/>
+      <c r="T31" s="72"/>
+      <c r="U31" s="72"/>
+      <c r="V31" s="72"/>
+      <c r="W31" s="72"/>
+      <c r="X31" s="72"/>
+      <c r="Y31" s="72"/>
+      <c r="Z31" s="72"/>
+      <c r="AA31" s="72"/>
+      <c r="AB31" s="72"/>
+      <c r="AC31" s="72"/>
+      <c r="AD31" s="72"/>
+      <c r="AE31" s="72"/>
+      <c r="AF31" s="72"/>
+      <c r="AG31" s="72"/>
+      <c r="AH31" s="72"/>
+      <c r="AI31" s="72"/>
+      <c r="AJ31" s="72"/>
+      <c r="AK31" s="72"/>
+      <c r="AL31" s="73"/>
+      <c r="AM31" s="73"/>
+      <c r="AN31" s="73"/>
+      <c r="AO31" s="73"/>
+      <c r="AP31" s="73"/>
+      <c r="AQ31" s="73"/>
+      <c r="AR31" s="73"/>
+      <c r="AS31" s="73"/>
+      <c r="AT31" s="73"/>
+      <c r="AU31" s="73"/>
+      <c r="AV31" s="73"/>
+      <c r="AW31" s="73"/>
+      <c r="AX31" s="73"/>
+      <c r="AY31" s="73"/>
+      <c r="AZ31" s="73"/>
+      <c r="BA31" s="73"/>
+      <c r="BB31" s="73"/>
+      <c r="BC31" s="73"/>
+      <c r="BD31" s="73"/>
+      <c r="BE31" s="73"/>
+      <c r="BF31" s="73"/>
+      <c r="BG31" s="73"/>
+      <c r="BH31" s="73"/>
+      <c r="BI31" s="73"/>
+      <c r="BJ31" s="73"/>
       <c r="BK31" s="2"/>
       <c r="BL31" s="16"/>
     </row>
     <row r="32" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="16"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="73" t="s">
+      <c r="C32" s="71" t="s">
         <v>189</v>
       </c>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="79" t="s">
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="72" t="s">
         <v>197</v>
       </c>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
-      <c r="I32" s="79"/>
-      <c r="J32" s="79"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="79"/>
-      <c r="M32" s="79"/>
-      <c r="N32" s="79"/>
-      <c r="O32" s="79"/>
-      <c r="P32" s="79"/>
-      <c r="Q32" s="79"/>
-      <c r="R32" s="79"/>
-      <c r="S32" s="79"/>
-      <c r="T32" s="79"/>
-      <c r="U32" s="79"/>
-      <c r="V32" s="79"/>
-      <c r="W32" s="79"/>
-      <c r="X32" s="79"/>
-      <c r="Y32" s="79"/>
-      <c r="Z32" s="79"/>
-      <c r="AA32" s="79"/>
-      <c r="AB32" s="79"/>
-      <c r="AC32" s="79"/>
-      <c r="AD32" s="79"/>
-      <c r="AE32" s="79"/>
-      <c r="AF32" s="79"/>
-      <c r="AG32" s="79"/>
-      <c r="AH32" s="79"/>
-      <c r="AI32" s="79"/>
-      <c r="AJ32" s="79"/>
-      <c r="AK32" s="79"/>
-      <c r="AL32" s="77"/>
-      <c r="AM32" s="77"/>
-      <c r="AN32" s="77"/>
-      <c r="AO32" s="77"/>
-      <c r="AP32" s="77"/>
-      <c r="AQ32" s="77"/>
-      <c r="AR32" s="77"/>
-      <c r="AS32" s="77"/>
-      <c r="AT32" s="77"/>
-      <c r="AU32" s="77"/>
-      <c r="AV32" s="77"/>
-      <c r="AW32" s="77"/>
-      <c r="AX32" s="77"/>
-      <c r="AY32" s="77"/>
-      <c r="AZ32" s="77"/>
-      <c r="BA32" s="77"/>
-      <c r="BB32" s="77"/>
-      <c r="BC32" s="77"/>
-      <c r="BD32" s="77"/>
-      <c r="BE32" s="77"/>
-      <c r="BF32" s="77"/>
-      <c r="BG32" s="77"/>
-      <c r="BH32" s="77"/>
-      <c r="BI32" s="77"/>
-      <c r="BJ32" s="77"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="72"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="72"/>
+      <c r="Q32" s="72"/>
+      <c r="R32" s="72"/>
+      <c r="S32" s="72"/>
+      <c r="T32" s="72"/>
+      <c r="U32" s="72"/>
+      <c r="V32" s="72"/>
+      <c r="W32" s="72"/>
+      <c r="X32" s="72"/>
+      <c r="Y32" s="72"/>
+      <c r="Z32" s="72"/>
+      <c r="AA32" s="72"/>
+      <c r="AB32" s="72"/>
+      <c r="AC32" s="72"/>
+      <c r="AD32" s="72"/>
+      <c r="AE32" s="72"/>
+      <c r="AF32" s="72"/>
+      <c r="AG32" s="72"/>
+      <c r="AH32" s="72"/>
+      <c r="AI32" s="72"/>
+      <c r="AJ32" s="72"/>
+      <c r="AK32" s="72"/>
+      <c r="AL32" s="73"/>
+      <c r="AM32" s="73"/>
+      <c r="AN32" s="73"/>
+      <c r="AO32" s="73"/>
+      <c r="AP32" s="73"/>
+      <c r="AQ32" s="73"/>
+      <c r="AR32" s="73"/>
+      <c r="AS32" s="73"/>
+      <c r="AT32" s="73"/>
+      <c r="AU32" s="73"/>
+      <c r="AV32" s="73"/>
+      <c r="AW32" s="73"/>
+      <c r="AX32" s="73"/>
+      <c r="AY32" s="73"/>
+      <c r="AZ32" s="73"/>
+      <c r="BA32" s="73"/>
+      <c r="BB32" s="73"/>
+      <c r="BC32" s="73"/>
+      <c r="BD32" s="73"/>
+      <c r="BE32" s="73"/>
+      <c r="BF32" s="73"/>
+      <c r="BG32" s="73"/>
+      <c r="BH32" s="73"/>
+      <c r="BI32" s="73"/>
+      <c r="BJ32" s="73"/>
       <c r="BK32" s="2"/>
       <c r="BL32" s="16"/>
     </row>
     <row r="33" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="16"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="73" t="s">
+      <c r="C33" s="71" t="s">
         <v>190</v>
       </c>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="79" t="s">
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="79"/>
-      <c r="P33" s="79"/>
-      <c r="Q33" s="79"/>
-      <c r="R33" s="79"/>
-      <c r="S33" s="79"/>
-      <c r="T33" s="79"/>
-      <c r="U33" s="79"/>
-      <c r="V33" s="79"/>
-      <c r="W33" s="79"/>
-      <c r="X33" s="79"/>
-      <c r="Y33" s="79"/>
-      <c r="Z33" s="79"/>
-      <c r="AA33" s="79"/>
-      <c r="AB33" s="79"/>
-      <c r="AC33" s="79"/>
-      <c r="AD33" s="79"/>
-      <c r="AE33" s="79"/>
-      <c r="AF33" s="79"/>
-      <c r="AG33" s="79"/>
-      <c r="AH33" s="79"/>
-      <c r="AI33" s="79"/>
-      <c r="AJ33" s="79"/>
-      <c r="AK33" s="79"/>
-      <c r="AL33" s="77"/>
-      <c r="AM33" s="77"/>
-      <c r="AN33" s="77"/>
-      <c r="AO33" s="77"/>
-      <c r="AP33" s="77"/>
-      <c r="AQ33" s="77"/>
-      <c r="AR33" s="77"/>
-      <c r="AS33" s="77"/>
-      <c r="AT33" s="77"/>
-      <c r="AU33" s="77"/>
-      <c r="AV33" s="77"/>
-      <c r="AW33" s="77"/>
-      <c r="AX33" s="77"/>
-      <c r="AY33" s="77"/>
-      <c r="AZ33" s="77"/>
-      <c r="BA33" s="77"/>
-      <c r="BB33" s="77"/>
-      <c r="BC33" s="77"/>
-      <c r="BD33" s="77"/>
-      <c r="BE33" s="77"/>
-      <c r="BF33" s="77"/>
-      <c r="BG33" s="77"/>
-      <c r="BH33" s="77"/>
-      <c r="BI33" s="77"/>
-      <c r="BJ33" s="77"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="72"/>
+      <c r="P33" s="72"/>
+      <c r="Q33" s="72"/>
+      <c r="R33" s="72"/>
+      <c r="S33" s="72"/>
+      <c r="T33" s="72"/>
+      <c r="U33" s="72"/>
+      <c r="V33" s="72"/>
+      <c r="W33" s="72"/>
+      <c r="X33" s="72"/>
+      <c r="Y33" s="72"/>
+      <c r="Z33" s="72"/>
+      <c r="AA33" s="72"/>
+      <c r="AB33" s="72"/>
+      <c r="AC33" s="72"/>
+      <c r="AD33" s="72"/>
+      <c r="AE33" s="72"/>
+      <c r="AF33" s="72"/>
+      <c r="AG33" s="72"/>
+      <c r="AH33" s="72"/>
+      <c r="AI33" s="72"/>
+      <c r="AJ33" s="72"/>
+      <c r="AK33" s="72"/>
+      <c r="AL33" s="73"/>
+      <c r="AM33" s="73"/>
+      <c r="AN33" s="73"/>
+      <c r="AO33" s="73"/>
+      <c r="AP33" s="73"/>
+      <c r="AQ33" s="73"/>
+      <c r="AR33" s="73"/>
+      <c r="AS33" s="73"/>
+      <c r="AT33" s="73"/>
+      <c r="AU33" s="73"/>
+      <c r="AV33" s="73"/>
+      <c r="AW33" s="73"/>
+      <c r="AX33" s="73"/>
+      <c r="AY33" s="73"/>
+      <c r="AZ33" s="73"/>
+      <c r="BA33" s="73"/>
+      <c r="BB33" s="73"/>
+      <c r="BC33" s="73"/>
+      <c r="BD33" s="73"/>
+      <c r="BE33" s="73"/>
+      <c r="BF33" s="73"/>
+      <c r="BG33" s="73"/>
+      <c r="BH33" s="73"/>
+      <c r="BI33" s="73"/>
+      <c r="BJ33" s="73"/>
       <c r="BK33" s="2"/>
       <c r="BL33" s="16"/>
     </row>
     <row r="34" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="16"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="73" t="s">
+      <c r="C34" s="71" t="s">
         <v>191</v>
       </c>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="79" t="s">
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="79"/>
-      <c r="J34" s="79"/>
-      <c r="K34" s="79"/>
-      <c r="L34" s="79"/>
-      <c r="M34" s="79"/>
-      <c r="N34" s="79"/>
-      <c r="O34" s="79"/>
-      <c r="P34" s="79"/>
-      <c r="Q34" s="79"/>
-      <c r="R34" s="79"/>
-      <c r="S34" s="79"/>
-      <c r="T34" s="79"/>
-      <c r="U34" s="79"/>
-      <c r="V34" s="79"/>
-      <c r="W34" s="79"/>
-      <c r="X34" s="79"/>
-      <c r="Y34" s="79"/>
-      <c r="Z34" s="79"/>
-      <c r="AA34" s="79"/>
-      <c r="AB34" s="79"/>
-      <c r="AC34" s="79"/>
-      <c r="AD34" s="79"/>
-      <c r="AE34" s="79"/>
-      <c r="AF34" s="79"/>
-      <c r="AG34" s="79"/>
-      <c r="AH34" s="79"/>
-      <c r="AI34" s="79"/>
-      <c r="AJ34" s="79"/>
-      <c r="AK34" s="79"/>
-      <c r="AL34" s="77"/>
-      <c r="AM34" s="77"/>
-      <c r="AN34" s="77"/>
-      <c r="AO34" s="77"/>
-      <c r="AP34" s="77"/>
-      <c r="AQ34" s="77"/>
-      <c r="AR34" s="77"/>
-      <c r="AS34" s="77"/>
-      <c r="AT34" s="77"/>
-      <c r="AU34" s="77"/>
-      <c r="AV34" s="77"/>
-      <c r="AW34" s="77"/>
-      <c r="AX34" s="77"/>
-      <c r="AY34" s="77"/>
-      <c r="AZ34" s="77"/>
-      <c r="BA34" s="77"/>
-      <c r="BB34" s="77"/>
-      <c r="BC34" s="77"/>
-      <c r="BD34" s="77"/>
-      <c r="BE34" s="77"/>
-      <c r="BF34" s="77"/>
-      <c r="BG34" s="77"/>
-      <c r="BH34" s="77"/>
-      <c r="BI34" s="77"/>
-      <c r="BJ34" s="77"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="72"/>
+      <c r="Q34" s="72"/>
+      <c r="R34" s="72"/>
+      <c r="S34" s="72"/>
+      <c r="T34" s="72"/>
+      <c r="U34" s="72"/>
+      <c r="V34" s="72"/>
+      <c r="W34" s="72"/>
+      <c r="X34" s="72"/>
+      <c r="Y34" s="72"/>
+      <c r="Z34" s="72"/>
+      <c r="AA34" s="72"/>
+      <c r="AB34" s="72"/>
+      <c r="AC34" s="72"/>
+      <c r="AD34" s="72"/>
+      <c r="AE34" s="72"/>
+      <c r="AF34" s="72"/>
+      <c r="AG34" s="72"/>
+      <c r="AH34" s="72"/>
+      <c r="AI34" s="72"/>
+      <c r="AJ34" s="72"/>
+      <c r="AK34" s="72"/>
+      <c r="AL34" s="73"/>
+      <c r="AM34" s="73"/>
+      <c r="AN34" s="73"/>
+      <c r="AO34" s="73"/>
+      <c r="AP34" s="73"/>
+      <c r="AQ34" s="73"/>
+      <c r="AR34" s="73"/>
+      <c r="AS34" s="73"/>
+      <c r="AT34" s="73"/>
+      <c r="AU34" s="73"/>
+      <c r="AV34" s="73"/>
+      <c r="AW34" s="73"/>
+      <c r="AX34" s="73"/>
+      <c r="AY34" s="73"/>
+      <c r="AZ34" s="73"/>
+      <c r="BA34" s="73"/>
+      <c r="BB34" s="73"/>
+      <c r="BC34" s="73"/>
+      <c r="BD34" s="73"/>
+      <c r="BE34" s="73"/>
+      <c r="BF34" s="73"/>
+      <c r="BG34" s="73"/>
+      <c r="BH34" s="73"/>
+      <c r="BI34" s="73"/>
+      <c r="BJ34" s="73"/>
       <c r="BK34" s="2"/>
       <c r="BL34" s="16"/>
     </row>
     <row r="35" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="16"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="73" t="s">
+      <c r="C35" s="71" t="s">
         <v>192</v>
       </c>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="79" t="s">
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="72" t="s">
         <v>200</v>
       </c>
-      <c r="G35" s="79"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="79"/>
-      <c r="J35" s="79"/>
-      <c r="K35" s="79"/>
-      <c r="L35" s="79"/>
-      <c r="M35" s="79"/>
-      <c r="N35" s="79"/>
-      <c r="O35" s="79"/>
-      <c r="P35" s="79"/>
-      <c r="Q35" s="79"/>
-      <c r="R35" s="79"/>
-      <c r="S35" s="79"/>
-      <c r="T35" s="79"/>
-      <c r="U35" s="79"/>
-      <c r="V35" s="79"/>
-      <c r="W35" s="79"/>
-      <c r="X35" s="79"/>
-      <c r="Y35" s="79"/>
-      <c r="Z35" s="79"/>
-      <c r="AA35" s="79"/>
-      <c r="AB35" s="79"/>
-      <c r="AC35" s="79"/>
-      <c r="AD35" s="79"/>
-      <c r="AE35" s="79"/>
-      <c r="AF35" s="79"/>
-      <c r="AG35" s="79"/>
-      <c r="AH35" s="79"/>
-      <c r="AI35" s="79"/>
-      <c r="AJ35" s="79"/>
-      <c r="AK35" s="79"/>
-      <c r="AL35" s="77"/>
-      <c r="AM35" s="77"/>
-      <c r="AN35" s="77"/>
-      <c r="AO35" s="77"/>
-      <c r="AP35" s="77"/>
-      <c r="AQ35" s="77"/>
-      <c r="AR35" s="77"/>
-      <c r="AS35" s="77"/>
-      <c r="AT35" s="77"/>
-      <c r="AU35" s="77"/>
-      <c r="AV35" s="77"/>
-      <c r="AW35" s="77"/>
-      <c r="AX35" s="77"/>
-      <c r="AY35" s="77"/>
-      <c r="AZ35" s="77"/>
-      <c r="BA35" s="77"/>
-      <c r="BB35" s="77"/>
-      <c r="BC35" s="77"/>
-      <c r="BD35" s="77"/>
-      <c r="BE35" s="77"/>
-      <c r="BF35" s="77"/>
-      <c r="BG35" s="77"/>
-      <c r="BH35" s="77"/>
-      <c r="BI35" s="77"/>
-      <c r="BJ35" s="77"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="72"/>
+      <c r="N35" s="72"/>
+      <c r="O35" s="72"/>
+      <c r="P35" s="72"/>
+      <c r="Q35" s="72"/>
+      <c r="R35" s="72"/>
+      <c r="S35" s="72"/>
+      <c r="T35" s="72"/>
+      <c r="U35" s="72"/>
+      <c r="V35" s="72"/>
+      <c r="W35" s="72"/>
+      <c r="X35" s="72"/>
+      <c r="Y35" s="72"/>
+      <c r="Z35" s="72"/>
+      <c r="AA35" s="72"/>
+      <c r="AB35" s="72"/>
+      <c r="AC35" s="72"/>
+      <c r="AD35" s="72"/>
+      <c r="AE35" s="72"/>
+      <c r="AF35" s="72"/>
+      <c r="AG35" s="72"/>
+      <c r="AH35" s="72"/>
+      <c r="AI35" s="72"/>
+      <c r="AJ35" s="72"/>
+      <c r="AK35" s="72"/>
+      <c r="AL35" s="73"/>
+      <c r="AM35" s="73"/>
+      <c r="AN35" s="73"/>
+      <c r="AO35" s="73"/>
+      <c r="AP35" s="73"/>
+      <c r="AQ35" s="73"/>
+      <c r="AR35" s="73"/>
+      <c r="AS35" s="73"/>
+      <c r="AT35" s="73"/>
+      <c r="AU35" s="73"/>
+      <c r="AV35" s="73"/>
+      <c r="AW35" s="73"/>
+      <c r="AX35" s="73"/>
+      <c r="AY35" s="73"/>
+      <c r="AZ35" s="73"/>
+      <c r="BA35" s="73"/>
+      <c r="BB35" s="73"/>
+      <c r="BC35" s="73"/>
+      <c r="BD35" s="73"/>
+      <c r="BE35" s="73"/>
+      <c r="BF35" s="73"/>
+      <c r="BG35" s="73"/>
+      <c r="BH35" s="73"/>
+      <c r="BI35" s="73"/>
+      <c r="BJ35" s="73"/>
       <c r="BK35" s="2"/>
       <c r="BL35" s="16"/>
     </row>
     <row r="36" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="16"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="73" t="s">
+      <c r="C36" s="71" t="s">
         <v>193</v>
       </c>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="79" t="s">
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="79"/>
-      <c r="J36" s="79"/>
-      <c r="K36" s="79"/>
-      <c r="L36" s="79"/>
-      <c r="M36" s="79"/>
-      <c r="N36" s="79"/>
-      <c r="O36" s="79"/>
-      <c r="P36" s="79"/>
-      <c r="Q36" s="79"/>
-      <c r="R36" s="79"/>
-      <c r="S36" s="79"/>
-      <c r="T36" s="79"/>
-      <c r="U36" s="79"/>
-      <c r="V36" s="79"/>
-      <c r="W36" s="79"/>
-      <c r="X36" s="79"/>
-      <c r="Y36" s="79"/>
-      <c r="Z36" s="79"/>
-      <c r="AA36" s="79"/>
-      <c r="AB36" s="79"/>
-      <c r="AC36" s="79"/>
-      <c r="AD36" s="79"/>
-      <c r="AE36" s="79"/>
-      <c r="AF36" s="79"/>
-      <c r="AG36" s="79"/>
-      <c r="AH36" s="79"/>
-      <c r="AI36" s="79"/>
-      <c r="AJ36" s="79"/>
-      <c r="AK36" s="79"/>
-      <c r="AL36" s="77"/>
-      <c r="AM36" s="77"/>
-      <c r="AN36" s="77"/>
-      <c r="AO36" s="77"/>
-      <c r="AP36" s="77"/>
-      <c r="AQ36" s="77"/>
-      <c r="AR36" s="77"/>
-      <c r="AS36" s="77"/>
-      <c r="AT36" s="77"/>
-      <c r="AU36" s="77"/>
-      <c r="AV36" s="77"/>
-      <c r="AW36" s="77"/>
-      <c r="AX36" s="77"/>
-      <c r="AY36" s="77"/>
-      <c r="AZ36" s="77"/>
-      <c r="BA36" s="77"/>
-      <c r="BB36" s="77"/>
-      <c r="BC36" s="77"/>
-      <c r="BD36" s="77"/>
-      <c r="BE36" s="77"/>
-      <c r="BF36" s="77"/>
-      <c r="BG36" s="77"/>
-      <c r="BH36" s="77"/>
-      <c r="BI36" s="77"/>
-      <c r="BJ36" s="77"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="72"/>
+      <c r="O36" s="72"/>
+      <c r="P36" s="72"/>
+      <c r="Q36" s="72"/>
+      <c r="R36" s="72"/>
+      <c r="S36" s="72"/>
+      <c r="T36" s="72"/>
+      <c r="U36" s="72"/>
+      <c r="V36" s="72"/>
+      <c r="W36" s="72"/>
+      <c r="X36" s="72"/>
+      <c r="Y36" s="72"/>
+      <c r="Z36" s="72"/>
+      <c r="AA36" s="72"/>
+      <c r="AB36" s="72"/>
+      <c r="AC36" s="72"/>
+      <c r="AD36" s="72"/>
+      <c r="AE36" s="72"/>
+      <c r="AF36" s="72"/>
+      <c r="AG36" s="72"/>
+      <c r="AH36" s="72"/>
+      <c r="AI36" s="72"/>
+      <c r="AJ36" s="72"/>
+      <c r="AK36" s="72"/>
+      <c r="AL36" s="73"/>
+      <c r="AM36" s="73"/>
+      <c r="AN36" s="73"/>
+      <c r="AO36" s="73"/>
+      <c r="AP36" s="73"/>
+      <c r="AQ36" s="73"/>
+      <c r="AR36" s="73"/>
+      <c r="AS36" s="73"/>
+      <c r="AT36" s="73"/>
+      <c r="AU36" s="73"/>
+      <c r="AV36" s="73"/>
+      <c r="AW36" s="73"/>
+      <c r="AX36" s="73"/>
+      <c r="AY36" s="73"/>
+      <c r="AZ36" s="73"/>
+      <c r="BA36" s="73"/>
+      <c r="BB36" s="73"/>
+      <c r="BC36" s="73"/>
+      <c r="BD36" s="73"/>
+      <c r="BE36" s="73"/>
+      <c r="BF36" s="73"/>
+      <c r="BG36" s="73"/>
+      <c r="BH36" s="73"/>
+      <c r="BI36" s="73"/>
+      <c r="BJ36" s="73"/>
       <c r="BK36" s="2"/>
       <c r="BL36" s="16"/>
     </row>
     <row r="37" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="16"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="73" t="s">
+      <c r="C37" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="79" t="s">
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="72" t="s">
         <v>205</v>
       </c>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="79"/>
-      <c r="J37" s="79"/>
-      <c r="K37" s="79"/>
-      <c r="L37" s="79"/>
-      <c r="M37" s="79"/>
-      <c r="N37" s="79"/>
-      <c r="O37" s="79"/>
-      <c r="P37" s="79"/>
-      <c r="Q37" s="79"/>
-      <c r="R37" s="79"/>
-      <c r="S37" s="79"/>
-      <c r="T37" s="79"/>
-      <c r="U37" s="79"/>
-      <c r="V37" s="79"/>
-      <c r="W37" s="79"/>
-      <c r="X37" s="79"/>
-      <c r="Y37" s="79"/>
-      <c r="Z37" s="79"/>
-      <c r="AA37" s="79"/>
-      <c r="AB37" s="79"/>
-      <c r="AC37" s="79"/>
-      <c r="AD37" s="79"/>
-      <c r="AE37" s="79"/>
-      <c r="AF37" s="79"/>
-      <c r="AG37" s="79"/>
-      <c r="AH37" s="79"/>
-      <c r="AI37" s="79"/>
-      <c r="AJ37" s="79"/>
-      <c r="AK37" s="79"/>
-      <c r="AL37" s="77"/>
-      <c r="AM37" s="77"/>
-      <c r="AN37" s="77"/>
-      <c r="AO37" s="77"/>
-      <c r="AP37" s="77"/>
-      <c r="AQ37" s="77"/>
-      <c r="AR37" s="77"/>
-      <c r="AS37" s="77"/>
-      <c r="AT37" s="77"/>
-      <c r="AU37" s="77"/>
-      <c r="AV37" s="77"/>
-      <c r="AW37" s="77"/>
-      <c r="AX37" s="77"/>
-      <c r="AY37" s="77"/>
-      <c r="AZ37" s="77"/>
-      <c r="BA37" s="77"/>
-      <c r="BB37" s="77"/>
-      <c r="BC37" s="77"/>
-      <c r="BD37" s="77"/>
-      <c r="BE37" s="77"/>
-      <c r="BF37" s="77"/>
-      <c r="BG37" s="77"/>
-      <c r="BH37" s="77"/>
-      <c r="BI37" s="77"/>
-      <c r="BJ37" s="77"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="72"/>
+      <c r="O37" s="72"/>
+      <c r="P37" s="72"/>
+      <c r="Q37" s="72"/>
+      <c r="R37" s="72"/>
+      <c r="S37" s="72"/>
+      <c r="T37" s="72"/>
+      <c r="U37" s="72"/>
+      <c r="V37" s="72"/>
+      <c r="W37" s="72"/>
+      <c r="X37" s="72"/>
+      <c r="Y37" s="72"/>
+      <c r="Z37" s="72"/>
+      <c r="AA37" s="72"/>
+      <c r="AB37" s="72"/>
+      <c r="AC37" s="72"/>
+      <c r="AD37" s="72"/>
+      <c r="AE37" s="72"/>
+      <c r="AF37" s="72"/>
+      <c r="AG37" s="72"/>
+      <c r="AH37" s="72"/>
+      <c r="AI37" s="72"/>
+      <c r="AJ37" s="72"/>
+      <c r="AK37" s="72"/>
+      <c r="AL37" s="73"/>
+      <c r="AM37" s="73"/>
+      <c r="AN37" s="73"/>
+      <c r="AO37" s="73"/>
+      <c r="AP37" s="73"/>
+      <c r="AQ37" s="73"/>
+      <c r="AR37" s="73"/>
+      <c r="AS37" s="73"/>
+      <c r="AT37" s="73"/>
+      <c r="AU37" s="73"/>
+      <c r="AV37" s="73"/>
+      <c r="AW37" s="73"/>
+      <c r="AX37" s="73"/>
+      <c r="AY37" s="73"/>
+      <c r="AZ37" s="73"/>
+      <c r="BA37" s="73"/>
+      <c r="BB37" s="73"/>
+      <c r="BC37" s="73"/>
+      <c r="BD37" s="73"/>
+      <c r="BE37" s="73"/>
+      <c r="BF37" s="73"/>
+      <c r="BG37" s="73"/>
+      <c r="BH37" s="73"/>
+      <c r="BI37" s="73"/>
+      <c r="BJ37" s="73"/>
       <c r="BK37" s="2"/>
       <c r="BL37" s="16"/>
     </row>
     <row r="38" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="16"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="73" t="s">
+      <c r="C38" s="71" t="s">
         <v>206</v>
       </c>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="79" t="s">
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="72" t="s">
         <v>207</v>
       </c>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="79"/>
-      <c r="J38" s="79"/>
-      <c r="K38" s="79"/>
-      <c r="L38" s="79"/>
-      <c r="M38" s="79"/>
-      <c r="N38" s="79"/>
-      <c r="O38" s="79"/>
-      <c r="P38" s="79"/>
-      <c r="Q38" s="79"/>
-      <c r="R38" s="79"/>
-      <c r="S38" s="79"/>
-      <c r="T38" s="79"/>
-      <c r="U38" s="79"/>
-      <c r="V38" s="79"/>
-      <c r="W38" s="79"/>
-      <c r="X38" s="79"/>
-      <c r="Y38" s="79"/>
-      <c r="Z38" s="79"/>
-      <c r="AA38" s="79"/>
-      <c r="AB38" s="79"/>
-      <c r="AC38" s="79"/>
-      <c r="AD38" s="79"/>
-      <c r="AE38" s="79"/>
-      <c r="AF38" s="79"/>
-      <c r="AG38" s="79"/>
-      <c r="AH38" s="79"/>
-      <c r="AI38" s="79"/>
-      <c r="AJ38" s="79"/>
-      <c r="AK38" s="79"/>
-      <c r="AL38" s="77"/>
-      <c r="AM38" s="77"/>
-      <c r="AN38" s="77"/>
-      <c r="AO38" s="77"/>
-      <c r="AP38" s="77"/>
-      <c r="AQ38" s="77"/>
-      <c r="AR38" s="77"/>
-      <c r="AS38" s="77"/>
-      <c r="AT38" s="77"/>
-      <c r="AU38" s="77"/>
-      <c r="AV38" s="77"/>
-      <c r="AW38" s="77"/>
-      <c r="AX38" s="77"/>
-      <c r="AY38" s="77"/>
-      <c r="AZ38" s="77"/>
-      <c r="BA38" s="77"/>
-      <c r="BB38" s="77"/>
-      <c r="BC38" s="77"/>
-      <c r="BD38" s="77"/>
-      <c r="BE38" s="77"/>
-      <c r="BF38" s="77"/>
-      <c r="BG38" s="77"/>
-      <c r="BH38" s="77"/>
-      <c r="BI38" s="77"/>
-      <c r="BJ38" s="77"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="72"/>
+      <c r="N38" s="72"/>
+      <c r="O38" s="72"/>
+      <c r="P38" s="72"/>
+      <c r="Q38" s="72"/>
+      <c r="R38" s="72"/>
+      <c r="S38" s="72"/>
+      <c r="T38" s="72"/>
+      <c r="U38" s="72"/>
+      <c r="V38" s="72"/>
+      <c r="W38" s="72"/>
+      <c r="X38" s="72"/>
+      <c r="Y38" s="72"/>
+      <c r="Z38" s="72"/>
+      <c r="AA38" s="72"/>
+      <c r="AB38" s="72"/>
+      <c r="AC38" s="72"/>
+      <c r="AD38" s="72"/>
+      <c r="AE38" s="72"/>
+      <c r="AF38" s="72"/>
+      <c r="AG38" s="72"/>
+      <c r="AH38" s="72"/>
+      <c r="AI38" s="72"/>
+      <c r="AJ38" s="72"/>
+      <c r="AK38" s="72"/>
+      <c r="AL38" s="73"/>
+      <c r="AM38" s="73"/>
+      <c r="AN38" s="73"/>
+      <c r="AO38" s="73"/>
+      <c r="AP38" s="73"/>
+      <c r="AQ38" s="73"/>
+      <c r="AR38" s="73"/>
+      <c r="AS38" s="73"/>
+      <c r="AT38" s="73"/>
+      <c r="AU38" s="73"/>
+      <c r="AV38" s="73"/>
+      <c r="AW38" s="73"/>
+      <c r="AX38" s="73"/>
+      <c r="AY38" s="73"/>
+      <c r="AZ38" s="73"/>
+      <c r="BA38" s="73"/>
+      <c r="BB38" s="73"/>
+      <c r="BC38" s="73"/>
+      <c r="BD38" s="73"/>
+      <c r="BE38" s="73"/>
+      <c r="BF38" s="73"/>
+      <c r="BG38" s="73"/>
+      <c r="BH38" s="73"/>
+      <c r="BI38" s="73"/>
+      <c r="BJ38" s="73"/>
       <c r="BK38" s="2"/>
       <c r="BL38" s="16"/>
     </row>
     <row r="39" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="73" t="s">
+      <c r="C39" s="71" t="s">
         <v>208</v>
       </c>
-      <c r="D39" s="73"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="79" t="s">
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="72" t="s">
         <v>209</v>
       </c>
-      <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="79"/>
-      <c r="J39" s="79"/>
-      <c r="K39" s="79"/>
-      <c r="L39" s="79"/>
-      <c r="M39" s="79"/>
-      <c r="N39" s="79"/>
-      <c r="O39" s="79"/>
-      <c r="P39" s="79"/>
-      <c r="Q39" s="79"/>
-      <c r="R39" s="79"/>
-      <c r="S39" s="79"/>
-      <c r="T39" s="79"/>
-      <c r="U39" s="79"/>
-      <c r="V39" s="79"/>
-      <c r="W39" s="79"/>
-      <c r="X39" s="79"/>
-      <c r="Y39" s="79"/>
-      <c r="Z39" s="79"/>
-      <c r="AA39" s="79"/>
-      <c r="AB39" s="79"/>
-      <c r="AC39" s="79"/>
-      <c r="AD39" s="79"/>
-      <c r="AE39" s="79"/>
-      <c r="AF39" s="79"/>
-      <c r="AG39" s="79"/>
-      <c r="AH39" s="79"/>
-      <c r="AI39" s="79"/>
-      <c r="AJ39" s="79"/>
-      <c r="AK39" s="79"/>
-      <c r="AL39" s="77"/>
-      <c r="AM39" s="77"/>
-      <c r="AN39" s="77"/>
-      <c r="AO39" s="77"/>
-      <c r="AP39" s="77"/>
-      <c r="AQ39" s="77"/>
-      <c r="AR39" s="77"/>
-      <c r="AS39" s="77"/>
-      <c r="AT39" s="77"/>
-      <c r="AU39" s="77"/>
-      <c r="AV39" s="77"/>
-      <c r="AW39" s="77"/>
-      <c r="AX39" s="77"/>
-      <c r="AY39" s="77"/>
-      <c r="AZ39" s="77"/>
-      <c r="BA39" s="77"/>
-      <c r="BB39" s="77"/>
-      <c r="BC39" s="77"/>
-      <c r="BD39" s="77"/>
-      <c r="BE39" s="77"/>
-      <c r="BF39" s="77"/>
-      <c r="BG39" s="77"/>
-      <c r="BH39" s="77"/>
-      <c r="BI39" s="77"/>
-      <c r="BJ39" s="77"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="72"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="72"/>
+      <c r="P39" s="72"/>
+      <c r="Q39" s="72"/>
+      <c r="R39" s="72"/>
+      <c r="S39" s="72"/>
+      <c r="T39" s="72"/>
+      <c r="U39" s="72"/>
+      <c r="V39" s="72"/>
+      <c r="W39" s="72"/>
+      <c r="X39" s="72"/>
+      <c r="Y39" s="72"/>
+      <c r="Z39" s="72"/>
+      <c r="AA39" s="72"/>
+      <c r="AB39" s="72"/>
+      <c r="AC39" s="72"/>
+      <c r="AD39" s="72"/>
+      <c r="AE39" s="72"/>
+      <c r="AF39" s="72"/>
+      <c r="AG39" s="72"/>
+      <c r="AH39" s="72"/>
+      <c r="AI39" s="72"/>
+      <c r="AJ39" s="72"/>
+      <c r="AK39" s="72"/>
+      <c r="AL39" s="73"/>
+      <c r="AM39" s="73"/>
+      <c r="AN39" s="73"/>
+      <c r="AO39" s="73"/>
+      <c r="AP39" s="73"/>
+      <c r="AQ39" s="73"/>
+      <c r="AR39" s="73"/>
+      <c r="AS39" s="73"/>
+      <c r="AT39" s="73"/>
+      <c r="AU39" s="73"/>
+      <c r="AV39" s="73"/>
+      <c r="AW39" s="73"/>
+      <c r="AX39" s="73"/>
+      <c r="AY39" s="73"/>
+      <c r="AZ39" s="73"/>
+      <c r="BA39" s="73"/>
+      <c r="BB39" s="73"/>
+      <c r="BC39" s="73"/>
+      <c r="BD39" s="73"/>
+      <c r="BE39" s="73"/>
+      <c r="BF39" s="73"/>
+      <c r="BG39" s="73"/>
+      <c r="BH39" s="73"/>
+      <c r="BI39" s="73"/>
+      <c r="BJ39" s="73"/>
       <c r="BK39" s="2"/>
       <c r="BL39" s="16"/>
     </row>
     <row r="40" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="16"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="73" t="s">
+      <c r="C40" s="71" t="s">
         <v>210</v>
       </c>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="79" t="s">
+      <c r="D40" s="71"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="72" t="s">
         <v>211</v>
       </c>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79"/>
-      <c r="I40" s="79"/>
-      <c r="J40" s="79"/>
-      <c r="K40" s="79"/>
-      <c r="L40" s="79"/>
-      <c r="M40" s="79"/>
-      <c r="N40" s="79"/>
-      <c r="O40" s="79"/>
-      <c r="P40" s="79"/>
-      <c r="Q40" s="79"/>
-      <c r="R40" s="79"/>
-      <c r="S40" s="79"/>
-      <c r="T40" s="79"/>
-      <c r="U40" s="79"/>
-      <c r="V40" s="79"/>
-      <c r="W40" s="79"/>
-      <c r="X40" s="79"/>
-      <c r="Y40" s="79"/>
-      <c r="Z40" s="79"/>
-      <c r="AA40" s="79"/>
-      <c r="AB40" s="79"/>
-      <c r="AC40" s="79"/>
-      <c r="AD40" s="79"/>
-      <c r="AE40" s="79"/>
-      <c r="AF40" s="79"/>
-      <c r="AG40" s="79"/>
-      <c r="AH40" s="79"/>
-      <c r="AI40" s="79"/>
-      <c r="AJ40" s="79"/>
-      <c r="AK40" s="79"/>
-      <c r="AL40" s="77"/>
-      <c r="AM40" s="77"/>
-      <c r="AN40" s="77"/>
-      <c r="AO40" s="77"/>
-      <c r="AP40" s="77"/>
-      <c r="AQ40" s="77"/>
-      <c r="AR40" s="77"/>
-      <c r="AS40" s="77"/>
-      <c r="AT40" s="77"/>
-      <c r="AU40" s="77"/>
-      <c r="AV40" s="77"/>
-      <c r="AW40" s="77"/>
-      <c r="AX40" s="77"/>
-      <c r="AY40" s="77"/>
-      <c r="AZ40" s="77"/>
-      <c r="BA40" s="77"/>
-      <c r="BB40" s="77"/>
-      <c r="BC40" s="77"/>
-      <c r="BD40" s="77"/>
-      <c r="BE40" s="77"/>
-      <c r="BF40" s="77"/>
-      <c r="BG40" s="77"/>
-      <c r="BH40" s="77"/>
-      <c r="BI40" s="77"/>
-      <c r="BJ40" s="77"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="72"/>
+      <c r="N40" s="72"/>
+      <c r="O40" s="72"/>
+      <c r="P40" s="72"/>
+      <c r="Q40" s="72"/>
+      <c r="R40" s="72"/>
+      <c r="S40" s="72"/>
+      <c r="T40" s="72"/>
+      <c r="U40" s="72"/>
+      <c r="V40" s="72"/>
+      <c r="W40" s="72"/>
+      <c r="X40" s="72"/>
+      <c r="Y40" s="72"/>
+      <c r="Z40" s="72"/>
+      <c r="AA40" s="72"/>
+      <c r="AB40" s="72"/>
+      <c r="AC40" s="72"/>
+      <c r="AD40" s="72"/>
+      <c r="AE40" s="72"/>
+      <c r="AF40" s="72"/>
+      <c r="AG40" s="72"/>
+      <c r="AH40" s="72"/>
+      <c r="AI40" s="72"/>
+      <c r="AJ40" s="72"/>
+      <c r="AK40" s="72"/>
+      <c r="AL40" s="73"/>
+      <c r="AM40" s="73"/>
+      <c r="AN40" s="73"/>
+      <c r="AO40" s="73"/>
+      <c r="AP40" s="73"/>
+      <c r="AQ40" s="73"/>
+      <c r="AR40" s="73"/>
+      <c r="AS40" s="73"/>
+      <c r="AT40" s="73"/>
+      <c r="AU40" s="73"/>
+      <c r="AV40" s="73"/>
+      <c r="AW40" s="73"/>
+      <c r="AX40" s="73"/>
+      <c r="AY40" s="73"/>
+      <c r="AZ40" s="73"/>
+      <c r="BA40" s="73"/>
+      <c r="BB40" s="73"/>
+      <c r="BC40" s="73"/>
+      <c r="BD40" s="73"/>
+      <c r="BE40" s="73"/>
+      <c r="BF40" s="73"/>
+      <c r="BG40" s="73"/>
+      <c r="BH40" s="73"/>
+      <c r="BI40" s="73"/>
+      <c r="BJ40" s="73"/>
       <c r="BK40" s="2"/>
       <c r="BL40" s="16"/>
     </row>
@@ -10481,6 +10574,111 @@
     </row>
   </sheetData>
   <mergeCells count="117">
+    <mergeCell ref="B2:BK2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="Q3:AM3"/>
+    <mergeCell ref="AN3:AS3"/>
+    <mergeCell ref="AT3:AY3"/>
+    <mergeCell ref="AZ3:BE3"/>
+    <mergeCell ref="BF3:BK3"/>
+    <mergeCell ref="BF4:BK5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:AK7"/>
+    <mergeCell ref="AL7:BJ7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:AK8"/>
+    <mergeCell ref="AL8:BJ8"/>
+    <mergeCell ref="B4:K5"/>
+    <mergeCell ref="L4:P5"/>
+    <mergeCell ref="Q4:AM5"/>
+    <mergeCell ref="AN4:AS5"/>
+    <mergeCell ref="AT4:AY5"/>
+    <mergeCell ref="AZ4:BE5"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:AK11"/>
+    <mergeCell ref="AL11:BJ11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:AK12"/>
+    <mergeCell ref="AL12:BJ12"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:AK9"/>
+    <mergeCell ref="AL9:BJ9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:AK10"/>
+    <mergeCell ref="AL10:BJ10"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:AK15"/>
+    <mergeCell ref="AL15:BJ15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:AK16"/>
+    <mergeCell ref="AL16:BJ16"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:AK13"/>
+    <mergeCell ref="AL13:BJ13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:AK14"/>
+    <mergeCell ref="AL14:BJ14"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:AK19"/>
+    <mergeCell ref="AL19:BJ19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:AK20"/>
+    <mergeCell ref="AL20:BJ20"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:AK17"/>
+    <mergeCell ref="AL17:BJ17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:AK18"/>
+    <mergeCell ref="AL18:BJ18"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:AK23"/>
+    <mergeCell ref="AL23:BJ23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:AK24"/>
+    <mergeCell ref="AL24:BJ24"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:AK21"/>
+    <mergeCell ref="AL21:BJ21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:AK22"/>
+    <mergeCell ref="AL22:BJ22"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:AK27"/>
+    <mergeCell ref="AL27:BJ27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:AK28"/>
+    <mergeCell ref="AL28:BJ28"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:AK25"/>
+    <mergeCell ref="AL25:BJ25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:AK26"/>
+    <mergeCell ref="AL26:BJ26"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:AK31"/>
+    <mergeCell ref="AL31:BJ31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:AK32"/>
+    <mergeCell ref="AL32:BJ32"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:AK29"/>
+    <mergeCell ref="AL29:BJ29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:AK30"/>
+    <mergeCell ref="AL30:BJ30"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:AK35"/>
+    <mergeCell ref="AL35:BJ35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:AK36"/>
+    <mergeCell ref="AL36:BJ36"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:AK33"/>
+    <mergeCell ref="AL33:BJ33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:AK34"/>
+    <mergeCell ref="AL34:BJ34"/>
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="F39:AK39"/>
     <mergeCell ref="AL39:BJ39"/>
@@ -10493,111 +10691,6 @@
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="F38:AK38"/>
     <mergeCell ref="AL38:BJ38"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:AK35"/>
-    <mergeCell ref="AL35:BJ35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:AK36"/>
-    <mergeCell ref="AL36:BJ36"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:AK33"/>
-    <mergeCell ref="AL33:BJ33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:AK34"/>
-    <mergeCell ref="AL34:BJ34"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:AK31"/>
-    <mergeCell ref="AL31:BJ31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:AK32"/>
-    <mergeCell ref="AL32:BJ32"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:AK29"/>
-    <mergeCell ref="AL29:BJ29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:AK30"/>
-    <mergeCell ref="AL30:BJ30"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:AK27"/>
-    <mergeCell ref="AL27:BJ27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:AK28"/>
-    <mergeCell ref="AL28:BJ28"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:AK25"/>
-    <mergeCell ref="AL25:BJ25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:AK26"/>
-    <mergeCell ref="AL26:BJ26"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:AK23"/>
-    <mergeCell ref="AL23:BJ23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:AK24"/>
-    <mergeCell ref="AL24:BJ24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:AK21"/>
-    <mergeCell ref="AL21:BJ21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:AK22"/>
-    <mergeCell ref="AL22:BJ22"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:AK19"/>
-    <mergeCell ref="AL19:BJ19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:AK20"/>
-    <mergeCell ref="AL20:BJ20"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:AK17"/>
-    <mergeCell ref="AL17:BJ17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:AK18"/>
-    <mergeCell ref="AL18:BJ18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:AK15"/>
-    <mergeCell ref="AL15:BJ15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:AK16"/>
-    <mergeCell ref="AL16:BJ16"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:AK13"/>
-    <mergeCell ref="AL13:BJ13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:AK14"/>
-    <mergeCell ref="AL14:BJ14"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:AK11"/>
-    <mergeCell ref="AL11:BJ11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:AK12"/>
-    <mergeCell ref="AL12:BJ12"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:AK9"/>
-    <mergeCell ref="AL9:BJ9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:AK10"/>
-    <mergeCell ref="AL10:BJ10"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:AK7"/>
-    <mergeCell ref="AL7:BJ7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:AK8"/>
-    <mergeCell ref="AL8:BJ8"/>
-    <mergeCell ref="B4:K5"/>
-    <mergeCell ref="L4:P5"/>
-    <mergeCell ref="Q4:AM5"/>
-    <mergeCell ref="AN4:AS5"/>
-    <mergeCell ref="AT4:AY5"/>
-    <mergeCell ref="AZ4:BE5"/>
-    <mergeCell ref="B2:BK2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="Q3:AM3"/>
-    <mergeCell ref="AN3:AS3"/>
-    <mergeCell ref="AT3:AY3"/>
-    <mergeCell ref="AZ3:BE3"/>
-    <mergeCell ref="BF3:BK3"/>
-    <mergeCell ref="BF4:BK5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/メッセージ設計書.xlsx
+++ b/メッセージ設計書.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{70CEFA30-46EE-4274-ADCB-CA6AB55A1EC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4E3F4802-E57C-4BAB-90C6-365961221B75}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{78B42164-E9D9-4973-93DD-29F371AD8A8A}"/>
+    <workbookView xWindow="6330" yWindow="480" windowWidth="12960" windowHeight="7875" activeTab="2" xr2:uid="{78B42164-E9D9-4973-93DD-29F371AD8A8A}"/>
   </bookViews>
   <sheets>
     <sheet name="ツールチップ" sheetId="1" r:id="rId1"/>
@@ -2135,36 +2135,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2176,6 +2146,36 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2202,33 +2202,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2294,14 +2267,65 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2312,32 +2336,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2691,284 +2691,284 @@
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="29"/>
-      <c r="AM1" s="29"/>
-      <c r="AN1" s="29"/>
-      <c r="AO1" s="29"/>
-      <c r="AP1" s="29"/>
-      <c r="AQ1" s="29"/>
-      <c r="AR1" s="29"/>
-      <c r="AS1" s="29"/>
-      <c r="AT1" s="29"/>
-      <c r="AU1" s="29"/>
-      <c r="AV1" s="29"/>
-      <c r="AW1" s="29"/>
-      <c r="AX1" s="29"/>
-      <c r="AY1" s="29"/>
-      <c r="AZ1" s="29"/>
-      <c r="BA1" s="29"/>
-      <c r="BB1" s="29"/>
-      <c r="BC1" s="29"/>
-      <c r="BD1" s="29"/>
-      <c r="BE1" s="29"/>
-      <c r="BF1" s="29"/>
-      <c r="BG1" s="29"/>
-      <c r="BH1" s="29"/>
-      <c r="BI1" s="29"/>
-      <c r="BJ1" s="29"/>
-      <c r="BK1" s="29"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="19"/>
+      <c r="AU1" s="19"/>
+      <c r="AV1" s="19"/>
+      <c r="AW1" s="19"/>
+      <c r="AX1" s="19"/>
+      <c r="AY1" s="19"/>
+      <c r="AZ1" s="19"/>
+      <c r="BA1" s="19"/>
+      <c r="BB1" s="19"/>
+      <c r="BC1" s="19"/>
+      <c r="BD1" s="19"/>
+      <c r="BE1" s="19"/>
+      <c r="BF1" s="19"/>
+      <c r="BG1" s="19"/>
+      <c r="BH1" s="19"/>
+      <c r="BI1" s="19"/>
+      <c r="BJ1" s="19"/>
+      <c r="BK1" s="19"/>
     </row>
     <row r="2" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="30" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30" t="s">
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="31" t="s">
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="AO2" s="31"/>
-      <c r="AP2" s="31"/>
-      <c r="AQ2" s="31"/>
-      <c r="AR2" s="31"/>
-      <c r="AS2" s="31"/>
-      <c r="AT2" s="30" t="s">
+      <c r="AO2" s="21"/>
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="21"/>
+      <c r="AR2" s="21"/>
+      <c r="AS2" s="21"/>
+      <c r="AT2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="AU2" s="30"/>
-      <c r="AV2" s="30"/>
-      <c r="AW2" s="30"/>
-      <c r="AX2" s="30"/>
-      <c r="AY2" s="30"/>
-      <c r="AZ2" s="30" t="s">
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BA2" s="30"/>
-      <c r="BB2" s="30"/>
-      <c r="BC2" s="30"/>
-      <c r="BD2" s="30"/>
-      <c r="BE2" s="30"/>
-      <c r="BF2" s="30" t="s">
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="BG2" s="30"/>
-      <c r="BH2" s="30"/>
-      <c r="BI2" s="30"/>
-      <c r="BJ2" s="30"/>
-      <c r="BK2" s="30"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
     </row>
     <row r="3" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="26">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="27">
         <v>1</v>
       </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="24" t="s">
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="24"/>
-      <c r="AK3" s="24"/>
-      <c r="AL3" s="24"/>
-      <c r="AM3" s="24"/>
-      <c r="AN3" s="27"/>
-      <c r="AO3" s="24"/>
-      <c r="AP3" s="24"/>
-      <c r="AQ3" s="24"/>
-      <c r="AR3" s="24"/>
-      <c r="AS3" s="24"/>
-      <c r="AT3" s="27" t="s">
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="22"/>
+      <c r="AK3" s="22"/>
+      <c r="AL3" s="22"/>
+      <c r="AM3" s="22"/>
+      <c r="AN3" s="28"/>
+      <c r="AO3" s="22"/>
+      <c r="AP3" s="22"/>
+      <c r="AQ3" s="22"/>
+      <c r="AR3" s="22"/>
+      <c r="AS3" s="22"/>
+      <c r="AT3" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="AU3" s="27"/>
-      <c r="AV3" s="27"/>
-      <c r="AW3" s="27"/>
-      <c r="AX3" s="27"/>
-      <c r="AY3" s="27"/>
-      <c r="AZ3" s="24"/>
-      <c r="BA3" s="24"/>
-      <c r="BB3" s="24"/>
-      <c r="BC3" s="24"/>
-      <c r="BD3" s="24"/>
-      <c r="BE3" s="24"/>
-      <c r="BF3" s="24"/>
-      <c r="BG3" s="24"/>
-      <c r="BH3" s="24"/>
-      <c r="BI3" s="24"/>
-      <c r="BJ3" s="24"/>
-      <c r="BK3" s="24"/>
+      <c r="AU3" s="28"/>
+      <c r="AV3" s="28"/>
+      <c r="AW3" s="28"/>
+      <c r="AX3" s="28"/>
+      <c r="AY3" s="28"/>
+      <c r="AZ3" s="22"/>
+      <c r="BA3" s="22"/>
+      <c r="BB3" s="22"/>
+      <c r="BC3" s="22"/>
+      <c r="BD3" s="22"/>
+      <c r="BE3" s="22"/>
+      <c r="BF3" s="22"/>
+      <c r="BG3" s="22"/>
+      <c r="BH3" s="22"/>
+      <c r="BI3" s="22"/>
+      <c r="BJ3" s="22"/>
+      <c r="BK3" s="22"/>
     </row>
     <row r="4" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="24"/>
-      <c r="AH4" s="24"/>
-      <c r="AI4" s="24"/>
-      <c r="AJ4" s="24"/>
-      <c r="AK4" s="24"/>
-      <c r="AL4" s="24"/>
-      <c r="AM4" s="24"/>
-      <c r="AN4" s="24"/>
-      <c r="AO4" s="24"/>
-      <c r="AP4" s="24"/>
-      <c r="AQ4" s="24"/>
-      <c r="AR4" s="24"/>
-      <c r="AS4" s="24"/>
-      <c r="AT4" s="27"/>
-      <c r="AU4" s="27"/>
-      <c r="AV4" s="27"/>
-      <c r="AW4" s="27"/>
-      <c r="AX4" s="27"/>
-      <c r="AY4" s="27"/>
-      <c r="AZ4" s="24"/>
-      <c r="BA4" s="24"/>
-      <c r="BB4" s="24"/>
-      <c r="BC4" s="24"/>
-      <c r="BD4" s="24"/>
-      <c r="BE4" s="24"/>
-      <c r="BF4" s="24"/>
-      <c r="BG4" s="24"/>
-      <c r="BH4" s="24"/>
-      <c r="BI4" s="24"/>
-      <c r="BJ4" s="24"/>
-      <c r="BK4" s="24"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="22"/>
+      <c r="AL4" s="22"/>
+      <c r="AM4" s="22"/>
+      <c r="AN4" s="22"/>
+      <c r="AO4" s="22"/>
+      <c r="AP4" s="22"/>
+      <c r="AQ4" s="22"/>
+      <c r="AR4" s="22"/>
+      <c r="AS4" s="22"/>
+      <c r="AT4" s="28"/>
+      <c r="AU4" s="28"/>
+      <c r="AV4" s="28"/>
+      <c r="AW4" s="28"/>
+      <c r="AX4" s="28"/>
+      <c r="AY4" s="28"/>
+      <c r="AZ4" s="22"/>
+      <c r="BA4" s="22"/>
+      <c r="BB4" s="22"/>
+      <c r="BC4" s="22"/>
+      <c r="BD4" s="22"/>
+      <c r="BE4" s="22"/>
+      <c r="BF4" s="22"/>
+      <c r="BG4" s="22"/>
+      <c r="BH4" s="22"/>
+      <c r="BI4" s="22"/>
+      <c r="BJ4" s="22"/>
+      <c r="BK4" s="22"/>
     </row>
     <row r="5" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3"/>
@@ -3100,510 +3100,510 @@
     </row>
     <row r="7" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="23" t="s">
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23" t="s">
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="21"/>
-      <c r="AE7" s="21"/>
-      <c r="AF7" s="21" t="s">
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="23"/>
+      <c r="AE7" s="23"/>
+      <c r="AF7" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AG7" s="21"/>
-      <c r="AH7" s="21"/>
-      <c r="AI7" s="21"/>
-      <c r="AJ7" s="21"/>
-      <c r="AK7" s="21"/>
-      <c r="AL7" s="21"/>
-      <c r="AM7" s="21"/>
-      <c r="AN7" s="21"/>
-      <c r="AO7" s="21"/>
-      <c r="AP7" s="21"/>
-      <c r="AQ7" s="21"/>
-      <c r="AR7" s="21"/>
-      <c r="AS7" s="21"/>
-      <c r="AT7" s="21"/>
-      <c r="AU7" s="21"/>
-      <c r="AV7" s="21"/>
-      <c r="AW7" s="21"/>
-      <c r="AX7" s="21"/>
-      <c r="AY7" s="21"/>
-      <c r="AZ7" s="21"/>
-      <c r="BA7" s="21"/>
-      <c r="BB7" s="21"/>
-      <c r="BC7" s="21"/>
-      <c r="BD7" s="21"/>
-      <c r="BE7" s="21"/>
-      <c r="BF7" s="21"/>
-      <c r="BG7" s="21"/>
-      <c r="BH7" s="21"/>
-      <c r="BI7" s="21"/>
-      <c r="BJ7" s="21"/>
+      <c r="AG7" s="23"/>
+      <c r="AH7" s="23"/>
+      <c r="AI7" s="23"/>
+      <c r="AJ7" s="23"/>
+      <c r="AK7" s="23"/>
+      <c r="AL7" s="23"/>
+      <c r="AM7" s="23"/>
+      <c r="AN7" s="23"/>
+      <c r="AO7" s="23"/>
+      <c r="AP7" s="23"/>
+      <c r="AQ7" s="23"/>
+      <c r="AR7" s="23"/>
+      <c r="AS7" s="23"/>
+      <c r="AT7" s="23"/>
+      <c r="AU7" s="23"/>
+      <c r="AV7" s="23"/>
+      <c r="AW7" s="23"/>
+      <c r="AX7" s="23"/>
+      <c r="AY7" s="23"/>
+      <c r="AZ7" s="23"/>
+      <c r="BA7" s="23"/>
+      <c r="BB7" s="23"/>
+      <c r="BC7" s="23"/>
+      <c r="BD7" s="23"/>
+      <c r="BE7" s="23"/>
+      <c r="BF7" s="23"/>
+      <c r="BG7" s="23"/>
+      <c r="BH7" s="23"/>
+      <c r="BI7" s="23"/>
+      <c r="BJ7" s="23"/>
       <c r="BK7" s="2"/>
     </row>
     <row r="8" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="21"/>
-      <c r="AE8" s="21"/>
-      <c r="AF8" s="21"/>
-      <c r="AG8" s="21"/>
-      <c r="AH8" s="21"/>
-      <c r="AI8" s="21"/>
-      <c r="AJ8" s="21"/>
-      <c r="AK8" s="21"/>
-      <c r="AL8" s="21"/>
-      <c r="AM8" s="21"/>
-      <c r="AN8" s="21"/>
-      <c r="AO8" s="21"/>
-      <c r="AP8" s="21"/>
-      <c r="AQ8" s="21"/>
-      <c r="AR8" s="21"/>
-      <c r="AS8" s="21"/>
-      <c r="AT8" s="21"/>
-      <c r="AU8" s="21"/>
-      <c r="AV8" s="21"/>
-      <c r="AW8" s="21"/>
-      <c r="AX8" s="21"/>
-      <c r="AY8" s="21"/>
-      <c r="AZ8" s="21"/>
-      <c r="BA8" s="21"/>
-      <c r="BB8" s="21"/>
-      <c r="BC8" s="21"/>
-      <c r="BD8" s="21"/>
-      <c r="BE8" s="21"/>
-      <c r="BF8" s="21"/>
-      <c r="BG8" s="21"/>
-      <c r="BH8" s="21"/>
-      <c r="BI8" s="21"/>
-      <c r="BJ8" s="21"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="23"/>
+      <c r="AE8" s="23"/>
+      <c r="AF8" s="23"/>
+      <c r="AG8" s="23"/>
+      <c r="AH8" s="23"/>
+      <c r="AI8" s="23"/>
+      <c r="AJ8" s="23"/>
+      <c r="AK8" s="23"/>
+      <c r="AL8" s="23"/>
+      <c r="AM8" s="23"/>
+      <c r="AN8" s="23"/>
+      <c r="AO8" s="23"/>
+      <c r="AP8" s="23"/>
+      <c r="AQ8" s="23"/>
+      <c r="AR8" s="23"/>
+      <c r="AS8" s="23"/>
+      <c r="AT8" s="23"/>
+      <c r="AU8" s="23"/>
+      <c r="AV8" s="23"/>
+      <c r="AW8" s="23"/>
+      <c r="AX8" s="23"/>
+      <c r="AY8" s="23"/>
+      <c r="AZ8" s="23"/>
+      <c r="BA8" s="23"/>
+      <c r="BB8" s="23"/>
+      <c r="BC8" s="23"/>
+      <c r="BD8" s="23"/>
+      <c r="BE8" s="23"/>
+      <c r="BF8" s="23"/>
+      <c r="BG8" s="23"/>
+      <c r="BH8" s="23"/>
+      <c r="BI8" s="23"/>
+      <c r="BJ8" s="23"/>
       <c r="BK8" s="2"/>
     </row>
     <row r="9" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19" t="s">
+      <c r="D9" s="29"/>
+      <c r="E9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="18" t="s">
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="18" t="s">
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="20" t="s">
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="AG9" s="20"/>
-      <c r="AH9" s="20"/>
-      <c r="AI9" s="20"/>
-      <c r="AJ9" s="20"/>
-      <c r="AK9" s="20"/>
-      <c r="AL9" s="20"/>
-      <c r="AM9" s="20"/>
-      <c r="AN9" s="20"/>
-      <c r="AO9" s="20"/>
-      <c r="AP9" s="20"/>
-      <c r="AQ9" s="20"/>
-      <c r="AR9" s="20"/>
-      <c r="AS9" s="20"/>
-      <c r="AT9" s="20"/>
-      <c r="AU9" s="20"/>
-      <c r="AV9" s="20"/>
-      <c r="AW9" s="20"/>
-      <c r="AX9" s="20"/>
-      <c r="AY9" s="20"/>
-      <c r="AZ9" s="20"/>
-      <c r="BA9" s="20"/>
-      <c r="BB9" s="20"/>
-      <c r="BC9" s="20"/>
-      <c r="BD9" s="20"/>
-      <c r="BE9" s="20"/>
-      <c r="BF9" s="20"/>
-      <c r="BG9" s="20"/>
-      <c r="BH9" s="20"/>
-      <c r="BI9" s="20"/>
-      <c r="BJ9" s="20"/>
+      <c r="AG9" s="31"/>
+      <c r="AH9" s="31"/>
+      <c r="AI9" s="31"/>
+      <c r="AJ9" s="31"/>
+      <c r="AK9" s="31"/>
+      <c r="AL9" s="31"/>
+      <c r="AM9" s="31"/>
+      <c r="AN9" s="31"/>
+      <c r="AO9" s="31"/>
+      <c r="AP9" s="31"/>
+      <c r="AQ9" s="31"/>
+      <c r="AR9" s="31"/>
+      <c r="AS9" s="31"/>
+      <c r="AT9" s="31"/>
+      <c r="AU9" s="31"/>
+      <c r="AV9" s="31"/>
+      <c r="AW9" s="31"/>
+      <c r="AX9" s="31"/>
+      <c r="AY9" s="31"/>
+      <c r="AZ9" s="31"/>
+      <c r="BA9" s="31"/>
+      <c r="BB9" s="31"/>
+      <c r="BC9" s="31"/>
+      <c r="BD9" s="31"/>
+      <c r="BE9" s="31"/>
+      <c r="BF9" s="31"/>
+      <c r="BG9" s="31"/>
+      <c r="BH9" s="31"/>
+      <c r="BI9" s="31"/>
+      <c r="BJ9" s="31"/>
       <c r="BK9" s="2"/>
     </row>
     <row r="10" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="29"/>
+      <c r="E10" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="18" t="s">
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18" t="s">
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="29"/>
+      <c r="AB10" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AC10" s="18"/>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="18"/>
-      <c r="AF10" s="20" t="s">
+      <c r="AC10" s="29"/>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="29"/>
+      <c r="AF10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="AG10" s="20"/>
-      <c r="AH10" s="20"/>
-      <c r="AI10" s="20"/>
-      <c r="AJ10" s="20"/>
-      <c r="AK10" s="20"/>
-      <c r="AL10" s="20"/>
-      <c r="AM10" s="20"/>
-      <c r="AN10" s="20"/>
-      <c r="AO10" s="20"/>
-      <c r="AP10" s="20"/>
-      <c r="AQ10" s="20"/>
-      <c r="AR10" s="20"/>
-      <c r="AS10" s="20"/>
-      <c r="AT10" s="20"/>
-      <c r="AU10" s="20"/>
-      <c r="AV10" s="20"/>
-      <c r="AW10" s="20"/>
-      <c r="AX10" s="20"/>
-      <c r="AY10" s="20"/>
-      <c r="AZ10" s="20"/>
-      <c r="BA10" s="20"/>
-      <c r="BB10" s="20"/>
-      <c r="BC10" s="20"/>
-      <c r="BD10" s="20"/>
-      <c r="BE10" s="20"/>
-      <c r="BF10" s="20"/>
-      <c r="BG10" s="20"/>
-      <c r="BH10" s="20"/>
-      <c r="BI10" s="20"/>
-      <c r="BJ10" s="20"/>
+      <c r="AG10" s="31"/>
+      <c r="AH10" s="31"/>
+      <c r="AI10" s="31"/>
+      <c r="AJ10" s="31"/>
+      <c r="AK10" s="31"/>
+      <c r="AL10" s="31"/>
+      <c r="AM10" s="31"/>
+      <c r="AN10" s="31"/>
+      <c r="AO10" s="31"/>
+      <c r="AP10" s="31"/>
+      <c r="AQ10" s="31"/>
+      <c r="AR10" s="31"/>
+      <c r="AS10" s="31"/>
+      <c r="AT10" s="31"/>
+      <c r="AU10" s="31"/>
+      <c r="AV10" s="31"/>
+      <c r="AW10" s="31"/>
+      <c r="AX10" s="31"/>
+      <c r="AY10" s="31"/>
+      <c r="AZ10" s="31"/>
+      <c r="BA10" s="31"/>
+      <c r="BB10" s="31"/>
+      <c r="BC10" s="31"/>
+      <c r="BD10" s="31"/>
+      <c r="BE10" s="31"/>
+      <c r="BF10" s="31"/>
+      <c r="BG10" s="31"/>
+      <c r="BH10" s="31"/>
+      <c r="BI10" s="31"/>
+      <c r="BJ10" s="31"/>
       <c r="BK10" s="2"/>
     </row>
     <row r="11" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="29"/>
+      <c r="E11" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="18" t="s">
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="18" t="s">
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="29"/>
+      <c r="AB11" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="AC11" s="18"/>
-      <c r="AD11" s="18"/>
-      <c r="AE11" s="18"/>
-      <c r="AF11" s="20" t="s">
+      <c r="AC11" s="29"/>
+      <c r="AD11" s="29"/>
+      <c r="AE11" s="29"/>
+      <c r="AF11" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="AG11" s="20"/>
-      <c r="AH11" s="20"/>
-      <c r="AI11" s="20"/>
-      <c r="AJ11" s="20"/>
-      <c r="AK11" s="20"/>
-      <c r="AL11" s="20"/>
-      <c r="AM11" s="20"/>
-      <c r="AN11" s="20"/>
-      <c r="AO11" s="20"/>
-      <c r="AP11" s="20"/>
-      <c r="AQ11" s="20"/>
-      <c r="AR11" s="20"/>
-      <c r="AS11" s="20"/>
-      <c r="AT11" s="20"/>
-      <c r="AU11" s="20"/>
-      <c r="AV11" s="20"/>
-      <c r="AW11" s="20"/>
-      <c r="AX11" s="20"/>
-      <c r="AY11" s="20"/>
-      <c r="AZ11" s="20"/>
-      <c r="BA11" s="20"/>
-      <c r="BB11" s="20"/>
-      <c r="BC11" s="20"/>
-      <c r="BD11" s="20"/>
-      <c r="BE11" s="20"/>
-      <c r="BF11" s="20"/>
-      <c r="BG11" s="20"/>
-      <c r="BH11" s="20"/>
-      <c r="BI11" s="20"/>
-      <c r="BJ11" s="20"/>
+      <c r="AG11" s="31"/>
+      <c r="AH11" s="31"/>
+      <c r="AI11" s="31"/>
+      <c r="AJ11" s="31"/>
+      <c r="AK11" s="31"/>
+      <c r="AL11" s="31"/>
+      <c r="AM11" s="31"/>
+      <c r="AN11" s="31"/>
+      <c r="AO11" s="31"/>
+      <c r="AP11" s="31"/>
+      <c r="AQ11" s="31"/>
+      <c r="AR11" s="31"/>
+      <c r="AS11" s="31"/>
+      <c r="AT11" s="31"/>
+      <c r="AU11" s="31"/>
+      <c r="AV11" s="31"/>
+      <c r="AW11" s="31"/>
+      <c r="AX11" s="31"/>
+      <c r="AY11" s="31"/>
+      <c r="AZ11" s="31"/>
+      <c r="BA11" s="31"/>
+      <c r="BB11" s="31"/>
+      <c r="BC11" s="31"/>
+      <c r="BD11" s="31"/>
+      <c r="BE11" s="31"/>
+      <c r="BF11" s="31"/>
+      <c r="BG11" s="31"/>
+      <c r="BH11" s="31"/>
+      <c r="BI11" s="31"/>
+      <c r="BJ11" s="31"/>
       <c r="BK11" s="2"/>
     </row>
     <row r="12" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19" t="s">
+      <c r="D12" s="29"/>
+      <c r="E12" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="18" t="s">
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18" t="s">
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="18"/>
-      <c r="AF12" s="20" t="s">
+      <c r="AC12" s="29"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="29"/>
+      <c r="AF12" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="AG12" s="20"/>
-      <c r="AH12" s="20"/>
-      <c r="AI12" s="20"/>
-      <c r="AJ12" s="20"/>
-      <c r="AK12" s="20"/>
-      <c r="AL12" s="20"/>
-      <c r="AM12" s="20"/>
-      <c r="AN12" s="20"/>
-      <c r="AO12" s="20"/>
-      <c r="AP12" s="20"/>
-      <c r="AQ12" s="20"/>
-      <c r="AR12" s="20"/>
-      <c r="AS12" s="20"/>
-      <c r="AT12" s="20"/>
-      <c r="AU12" s="20"/>
-      <c r="AV12" s="20"/>
-      <c r="AW12" s="20"/>
-      <c r="AX12" s="20"/>
-      <c r="AY12" s="20"/>
-      <c r="AZ12" s="20"/>
-      <c r="BA12" s="20"/>
-      <c r="BB12" s="20"/>
-      <c r="BC12" s="20"/>
-      <c r="BD12" s="20"/>
-      <c r="BE12" s="20"/>
-      <c r="BF12" s="20"/>
-      <c r="BG12" s="20"/>
-      <c r="BH12" s="20"/>
-      <c r="BI12" s="20"/>
-      <c r="BJ12" s="20"/>
+      <c r="AG12" s="31"/>
+      <c r="AH12" s="31"/>
+      <c r="AI12" s="31"/>
+      <c r="AJ12" s="31"/>
+      <c r="AK12" s="31"/>
+      <c r="AL12" s="31"/>
+      <c r="AM12" s="31"/>
+      <c r="AN12" s="31"/>
+      <c r="AO12" s="31"/>
+      <c r="AP12" s="31"/>
+      <c r="AQ12" s="31"/>
+      <c r="AR12" s="31"/>
+      <c r="AS12" s="31"/>
+      <c r="AT12" s="31"/>
+      <c r="AU12" s="31"/>
+      <c r="AV12" s="31"/>
+      <c r="AW12" s="31"/>
+      <c r="AX12" s="31"/>
+      <c r="AY12" s="31"/>
+      <c r="AZ12" s="31"/>
+      <c r="BA12" s="31"/>
+      <c r="BB12" s="31"/>
+      <c r="BC12" s="31"/>
+      <c r="BD12" s="31"/>
+      <c r="BE12" s="31"/>
+      <c r="BF12" s="31"/>
+      <c r="BG12" s="31"/>
+      <c r="BH12" s="31"/>
+      <c r="BI12" s="31"/>
+      <c r="BJ12" s="31"/>
       <c r="BK12" s="2"/>
     </row>
     <row r="13" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19" t="s">
+      <c r="D13" s="29"/>
+      <c r="E13" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="18" t="s">
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="18"/>
-      <c r="AB13" s="18" t="s">
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AC13" s="18"/>
-      <c r="AD13" s="18"/>
-      <c r="AE13" s="18"/>
-      <c r="AF13" s="20" t="s">
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="29"/>
+      <c r="AF13" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="AG13" s="20"/>
-      <c r="AH13" s="20"/>
-      <c r="AI13" s="20"/>
-      <c r="AJ13" s="20"/>
-      <c r="AK13" s="20"/>
-      <c r="AL13" s="20"/>
-      <c r="AM13" s="20"/>
-      <c r="AN13" s="20"/>
-      <c r="AO13" s="20"/>
-      <c r="AP13" s="20"/>
-      <c r="AQ13" s="20"/>
-      <c r="AR13" s="20"/>
-      <c r="AS13" s="20"/>
-      <c r="AT13" s="20"/>
-      <c r="AU13" s="20"/>
-      <c r="AV13" s="20"/>
-      <c r="AW13" s="20"/>
-      <c r="AX13" s="20"/>
-      <c r="AY13" s="20"/>
-      <c r="AZ13" s="20"/>
-      <c r="BA13" s="20"/>
-      <c r="BB13" s="20"/>
-      <c r="BC13" s="20"/>
-      <c r="BD13" s="20"/>
-      <c r="BE13" s="20"/>
-      <c r="BF13" s="20"/>
-      <c r="BG13" s="20"/>
-      <c r="BH13" s="20"/>
-      <c r="BI13" s="20"/>
-      <c r="BJ13" s="20"/>
+      <c r="AG13" s="31"/>
+      <c r="AH13" s="31"/>
+      <c r="AI13" s="31"/>
+      <c r="AJ13" s="31"/>
+      <c r="AK13" s="31"/>
+      <c r="AL13" s="31"/>
+      <c r="AM13" s="31"/>
+      <c r="AN13" s="31"/>
+      <c r="AO13" s="31"/>
+      <c r="AP13" s="31"/>
+      <c r="AQ13" s="31"/>
+      <c r="AR13" s="31"/>
+      <c r="AS13" s="31"/>
+      <c r="AT13" s="31"/>
+      <c r="AU13" s="31"/>
+      <c r="AV13" s="31"/>
+      <c r="AW13" s="31"/>
+      <c r="AX13" s="31"/>
+      <c r="AY13" s="31"/>
+      <c r="AZ13" s="31"/>
+      <c r="BA13" s="31"/>
+      <c r="BB13" s="31"/>
+      <c r="BC13" s="31"/>
+      <c r="BD13" s="31"/>
+      <c r="BE13" s="31"/>
+      <c r="BF13" s="31"/>
+      <c r="BG13" s="31"/>
+      <c r="BH13" s="31"/>
+      <c r="BI13" s="31"/>
+      <c r="BJ13" s="31"/>
       <c r="BK13" s="2"/>
     </row>
     <row r="14" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -3738,510 +3738,510 @@
     </row>
     <row r="16" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22" t="s">
+      <c r="D16" s="23"/>
+      <c r="E16" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="23" t="s">
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="23" t="s">
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="AC16" s="21"/>
-      <c r="AD16" s="21"/>
-      <c r="AE16" s="21"/>
-      <c r="AF16" s="21" t="s">
+      <c r="AC16" s="23"/>
+      <c r="AD16" s="23"/>
+      <c r="AE16" s="23"/>
+      <c r="AF16" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AG16" s="21"/>
-      <c r="AH16" s="21"/>
-      <c r="AI16" s="21"/>
-      <c r="AJ16" s="21"/>
-      <c r="AK16" s="21"/>
-      <c r="AL16" s="21"/>
-      <c r="AM16" s="21"/>
-      <c r="AN16" s="21"/>
-      <c r="AO16" s="21"/>
-      <c r="AP16" s="21"/>
-      <c r="AQ16" s="21"/>
-      <c r="AR16" s="21"/>
-      <c r="AS16" s="21"/>
-      <c r="AT16" s="21"/>
-      <c r="AU16" s="21"/>
-      <c r="AV16" s="21"/>
-      <c r="AW16" s="21"/>
-      <c r="AX16" s="21"/>
-      <c r="AY16" s="21"/>
-      <c r="AZ16" s="21"/>
-      <c r="BA16" s="21"/>
-      <c r="BB16" s="21"/>
-      <c r="BC16" s="21"/>
-      <c r="BD16" s="21"/>
-      <c r="BE16" s="21"/>
-      <c r="BF16" s="21"/>
-      <c r="BG16" s="21"/>
-      <c r="BH16" s="21"/>
-      <c r="BI16" s="21"/>
-      <c r="BJ16" s="21"/>
+      <c r="AG16" s="23"/>
+      <c r="AH16" s="23"/>
+      <c r="AI16" s="23"/>
+      <c r="AJ16" s="23"/>
+      <c r="AK16" s="23"/>
+      <c r="AL16" s="23"/>
+      <c r="AM16" s="23"/>
+      <c r="AN16" s="23"/>
+      <c r="AO16" s="23"/>
+      <c r="AP16" s="23"/>
+      <c r="AQ16" s="23"/>
+      <c r="AR16" s="23"/>
+      <c r="AS16" s="23"/>
+      <c r="AT16" s="23"/>
+      <c r="AU16" s="23"/>
+      <c r="AV16" s="23"/>
+      <c r="AW16" s="23"/>
+      <c r="AX16" s="23"/>
+      <c r="AY16" s="23"/>
+      <c r="AZ16" s="23"/>
+      <c r="BA16" s="23"/>
+      <c r="BB16" s="23"/>
+      <c r="BC16" s="23"/>
+      <c r="BD16" s="23"/>
+      <c r="BE16" s="23"/>
+      <c r="BF16" s="23"/>
+      <c r="BG16" s="23"/>
+      <c r="BH16" s="23"/>
+      <c r="BI16" s="23"/>
+      <c r="BJ16" s="23"/>
       <c r="BK16" s="2"/>
     </row>
     <row r="17" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="21"/>
-      <c r="AC17" s="21"/>
-      <c r="AD17" s="21"/>
-      <c r="AE17" s="21"/>
-      <c r="AF17" s="21"/>
-      <c r="AG17" s="21"/>
-      <c r="AH17" s="21"/>
-      <c r="AI17" s="21"/>
-      <c r="AJ17" s="21"/>
-      <c r="AK17" s="21"/>
-      <c r="AL17" s="21"/>
-      <c r="AM17" s="21"/>
-      <c r="AN17" s="21"/>
-      <c r="AO17" s="21"/>
-      <c r="AP17" s="21"/>
-      <c r="AQ17" s="21"/>
-      <c r="AR17" s="21"/>
-      <c r="AS17" s="21"/>
-      <c r="AT17" s="21"/>
-      <c r="AU17" s="21"/>
-      <c r="AV17" s="21"/>
-      <c r="AW17" s="21"/>
-      <c r="AX17" s="21"/>
-      <c r="AY17" s="21"/>
-      <c r="AZ17" s="21"/>
-      <c r="BA17" s="21"/>
-      <c r="BB17" s="21"/>
-      <c r="BC17" s="21"/>
-      <c r="BD17" s="21"/>
-      <c r="BE17" s="21"/>
-      <c r="BF17" s="21"/>
-      <c r="BG17" s="21"/>
-      <c r="BH17" s="21"/>
-      <c r="BI17" s="21"/>
-      <c r="BJ17" s="21"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="23"/>
+      <c r="AD17" s="23"/>
+      <c r="AE17" s="23"/>
+      <c r="AF17" s="23"/>
+      <c r="AG17" s="23"/>
+      <c r="AH17" s="23"/>
+      <c r="AI17" s="23"/>
+      <c r="AJ17" s="23"/>
+      <c r="AK17" s="23"/>
+      <c r="AL17" s="23"/>
+      <c r="AM17" s="23"/>
+      <c r="AN17" s="23"/>
+      <c r="AO17" s="23"/>
+      <c r="AP17" s="23"/>
+      <c r="AQ17" s="23"/>
+      <c r="AR17" s="23"/>
+      <c r="AS17" s="23"/>
+      <c r="AT17" s="23"/>
+      <c r="AU17" s="23"/>
+      <c r="AV17" s="23"/>
+      <c r="AW17" s="23"/>
+      <c r="AX17" s="23"/>
+      <c r="AY17" s="23"/>
+      <c r="AZ17" s="23"/>
+      <c r="BA17" s="23"/>
+      <c r="BB17" s="23"/>
+      <c r="BC17" s="23"/>
+      <c r="BD17" s="23"/>
+      <c r="BE17" s="23"/>
+      <c r="BF17" s="23"/>
+      <c r="BG17" s="23"/>
+      <c r="BH17" s="23"/>
+      <c r="BI17" s="23"/>
+      <c r="BJ17" s="23"/>
       <c r="BK17" s="2"/>
     </row>
     <row r="18" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19" t="s">
+      <c r="D18" s="29"/>
+      <c r="E18" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="18" t="s">
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="Z18" s="18"/>
-      <c r="AA18" s="18"/>
-      <c r="AB18" s="18" t="s">
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="20" t="s">
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="29"/>
+      <c r="AF18" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="AG18" s="20"/>
-      <c r="AH18" s="20"/>
-      <c r="AI18" s="20"/>
-      <c r="AJ18" s="20"/>
-      <c r="AK18" s="20"/>
-      <c r="AL18" s="20"/>
-      <c r="AM18" s="20"/>
-      <c r="AN18" s="20"/>
-      <c r="AO18" s="20"/>
-      <c r="AP18" s="20"/>
-      <c r="AQ18" s="20"/>
-      <c r="AR18" s="20"/>
-      <c r="AS18" s="20"/>
-      <c r="AT18" s="20"/>
-      <c r="AU18" s="20"/>
-      <c r="AV18" s="20"/>
-      <c r="AW18" s="20"/>
-      <c r="AX18" s="20"/>
-      <c r="AY18" s="20"/>
-      <c r="AZ18" s="20"/>
-      <c r="BA18" s="20"/>
-      <c r="BB18" s="20"/>
-      <c r="BC18" s="20"/>
-      <c r="BD18" s="20"/>
-      <c r="BE18" s="20"/>
-      <c r="BF18" s="20"/>
-      <c r="BG18" s="20"/>
-      <c r="BH18" s="20"/>
-      <c r="BI18" s="20"/>
-      <c r="BJ18" s="20"/>
+      <c r="AG18" s="31"/>
+      <c r="AH18" s="31"/>
+      <c r="AI18" s="31"/>
+      <c r="AJ18" s="31"/>
+      <c r="AK18" s="31"/>
+      <c r="AL18" s="31"/>
+      <c r="AM18" s="31"/>
+      <c r="AN18" s="31"/>
+      <c r="AO18" s="31"/>
+      <c r="AP18" s="31"/>
+      <c r="AQ18" s="31"/>
+      <c r="AR18" s="31"/>
+      <c r="AS18" s="31"/>
+      <c r="AT18" s="31"/>
+      <c r="AU18" s="31"/>
+      <c r="AV18" s="31"/>
+      <c r="AW18" s="31"/>
+      <c r="AX18" s="31"/>
+      <c r="AY18" s="31"/>
+      <c r="AZ18" s="31"/>
+      <c r="BA18" s="31"/>
+      <c r="BB18" s="31"/>
+      <c r="BC18" s="31"/>
+      <c r="BD18" s="31"/>
+      <c r="BE18" s="31"/>
+      <c r="BF18" s="31"/>
+      <c r="BG18" s="31"/>
+      <c r="BH18" s="31"/>
+      <c r="BI18" s="31"/>
+      <c r="BJ18" s="31"/>
       <c r="BK18" s="2"/>
     </row>
     <row r="19" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19" t="s">
+      <c r="D19" s="29"/>
+      <c r="E19" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="18" t="s">
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="18"/>
-      <c r="AB19" s="18" t="s">
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="18"/>
-      <c r="AF19" s="20" t="s">
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="AG19" s="20"/>
-      <c r="AH19" s="20"/>
-      <c r="AI19" s="20"/>
-      <c r="AJ19" s="20"/>
-      <c r="AK19" s="20"/>
-      <c r="AL19" s="20"/>
-      <c r="AM19" s="20"/>
-      <c r="AN19" s="20"/>
-      <c r="AO19" s="20"/>
-      <c r="AP19" s="20"/>
-      <c r="AQ19" s="20"/>
-      <c r="AR19" s="20"/>
-      <c r="AS19" s="20"/>
-      <c r="AT19" s="20"/>
-      <c r="AU19" s="20"/>
-      <c r="AV19" s="20"/>
-      <c r="AW19" s="20"/>
-      <c r="AX19" s="20"/>
-      <c r="AY19" s="20"/>
-      <c r="AZ19" s="20"/>
-      <c r="BA19" s="20"/>
-      <c r="BB19" s="20"/>
-      <c r="BC19" s="20"/>
-      <c r="BD19" s="20"/>
-      <c r="BE19" s="20"/>
-      <c r="BF19" s="20"/>
-      <c r="BG19" s="20"/>
-      <c r="BH19" s="20"/>
-      <c r="BI19" s="20"/>
-      <c r="BJ19" s="20"/>
+      <c r="AG19" s="31"/>
+      <c r="AH19" s="31"/>
+      <c r="AI19" s="31"/>
+      <c r="AJ19" s="31"/>
+      <c r="AK19" s="31"/>
+      <c r="AL19" s="31"/>
+      <c r="AM19" s="31"/>
+      <c r="AN19" s="31"/>
+      <c r="AO19" s="31"/>
+      <c r="AP19" s="31"/>
+      <c r="AQ19" s="31"/>
+      <c r="AR19" s="31"/>
+      <c r="AS19" s="31"/>
+      <c r="AT19" s="31"/>
+      <c r="AU19" s="31"/>
+      <c r="AV19" s="31"/>
+      <c r="AW19" s="31"/>
+      <c r="AX19" s="31"/>
+      <c r="AY19" s="31"/>
+      <c r="AZ19" s="31"/>
+      <c r="BA19" s="31"/>
+      <c r="BB19" s="31"/>
+      <c r="BC19" s="31"/>
+      <c r="BD19" s="31"/>
+      <c r="BE19" s="31"/>
+      <c r="BF19" s="31"/>
+      <c r="BG19" s="31"/>
+      <c r="BH19" s="31"/>
+      <c r="BI19" s="31"/>
+      <c r="BJ19" s="31"/>
       <c r="BK19" s="2"/>
     </row>
     <row r="20" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19" t="s">
+      <c r="D20" s="29"/>
+      <c r="E20" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="18" t="s">
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="Z20" s="18"/>
-      <c r="AA20" s="18"/>
-      <c r="AB20" s="18" t="s">
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
-      <c r="AE20" s="18"/>
-      <c r="AF20" s="20" t="s">
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AG20" s="20"/>
-      <c r="AH20" s="20"/>
-      <c r="AI20" s="20"/>
-      <c r="AJ20" s="20"/>
-      <c r="AK20" s="20"/>
-      <c r="AL20" s="20"/>
-      <c r="AM20" s="20"/>
-      <c r="AN20" s="20"/>
-      <c r="AO20" s="20"/>
-      <c r="AP20" s="20"/>
-      <c r="AQ20" s="20"/>
-      <c r="AR20" s="20"/>
-      <c r="AS20" s="20"/>
-      <c r="AT20" s="20"/>
-      <c r="AU20" s="20"/>
-      <c r="AV20" s="20"/>
-      <c r="AW20" s="20"/>
-      <c r="AX20" s="20"/>
-      <c r="AY20" s="20"/>
-      <c r="AZ20" s="20"/>
-      <c r="BA20" s="20"/>
-      <c r="BB20" s="20"/>
-      <c r="BC20" s="20"/>
-      <c r="BD20" s="20"/>
-      <c r="BE20" s="20"/>
-      <c r="BF20" s="20"/>
-      <c r="BG20" s="20"/>
-      <c r="BH20" s="20"/>
-      <c r="BI20" s="20"/>
-      <c r="BJ20" s="20"/>
+      <c r="AG20" s="31"/>
+      <c r="AH20" s="31"/>
+      <c r="AI20" s="31"/>
+      <c r="AJ20" s="31"/>
+      <c r="AK20" s="31"/>
+      <c r="AL20" s="31"/>
+      <c r="AM20" s="31"/>
+      <c r="AN20" s="31"/>
+      <c r="AO20" s="31"/>
+      <c r="AP20" s="31"/>
+      <c r="AQ20" s="31"/>
+      <c r="AR20" s="31"/>
+      <c r="AS20" s="31"/>
+      <c r="AT20" s="31"/>
+      <c r="AU20" s="31"/>
+      <c r="AV20" s="31"/>
+      <c r="AW20" s="31"/>
+      <c r="AX20" s="31"/>
+      <c r="AY20" s="31"/>
+      <c r="AZ20" s="31"/>
+      <c r="BA20" s="31"/>
+      <c r="BB20" s="31"/>
+      <c r="BC20" s="31"/>
+      <c r="BD20" s="31"/>
+      <c r="BE20" s="31"/>
+      <c r="BF20" s="31"/>
+      <c r="BG20" s="31"/>
+      <c r="BH20" s="31"/>
+      <c r="BI20" s="31"/>
+      <c r="BJ20" s="31"/>
       <c r="BK20" s="2"/>
     </row>
     <row r="21" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19" t="s">
+      <c r="D21" s="29"/>
+      <c r="E21" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="19"/>
-      <c r="Y21" s="18" t="s">
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="Z21" s="18"/>
-      <c r="AA21" s="18"/>
-      <c r="AB21" s="18" t="s">
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="18"/>
-      <c r="AE21" s="18"/>
-      <c r="AF21" s="20" t="s">
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
+      <c r="AE21" s="29"/>
+      <c r="AF21" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="AG21" s="20"/>
-      <c r="AH21" s="20"/>
-      <c r="AI21" s="20"/>
-      <c r="AJ21" s="20"/>
-      <c r="AK21" s="20"/>
-      <c r="AL21" s="20"/>
-      <c r="AM21" s="20"/>
-      <c r="AN21" s="20"/>
-      <c r="AO21" s="20"/>
-      <c r="AP21" s="20"/>
-      <c r="AQ21" s="20"/>
-      <c r="AR21" s="20"/>
-      <c r="AS21" s="20"/>
-      <c r="AT21" s="20"/>
-      <c r="AU21" s="20"/>
-      <c r="AV21" s="20"/>
-      <c r="AW21" s="20"/>
-      <c r="AX21" s="20"/>
-      <c r="AY21" s="20"/>
-      <c r="AZ21" s="20"/>
-      <c r="BA21" s="20"/>
-      <c r="BB21" s="20"/>
-      <c r="BC21" s="20"/>
-      <c r="BD21" s="20"/>
-      <c r="BE21" s="20"/>
-      <c r="BF21" s="20"/>
-      <c r="BG21" s="20"/>
-      <c r="BH21" s="20"/>
-      <c r="BI21" s="20"/>
-      <c r="BJ21" s="20"/>
+      <c r="AG21" s="31"/>
+      <c r="AH21" s="31"/>
+      <c r="AI21" s="31"/>
+      <c r="AJ21" s="31"/>
+      <c r="AK21" s="31"/>
+      <c r="AL21" s="31"/>
+      <c r="AM21" s="31"/>
+      <c r="AN21" s="31"/>
+      <c r="AO21" s="31"/>
+      <c r="AP21" s="31"/>
+      <c r="AQ21" s="31"/>
+      <c r="AR21" s="31"/>
+      <c r="AS21" s="31"/>
+      <c r="AT21" s="31"/>
+      <c r="AU21" s="31"/>
+      <c r="AV21" s="31"/>
+      <c r="AW21" s="31"/>
+      <c r="AX21" s="31"/>
+      <c r="AY21" s="31"/>
+      <c r="AZ21" s="31"/>
+      <c r="BA21" s="31"/>
+      <c r="BB21" s="31"/>
+      <c r="BC21" s="31"/>
+      <c r="BD21" s="31"/>
+      <c r="BE21" s="31"/>
+      <c r="BF21" s="31"/>
+      <c r="BG21" s="31"/>
+      <c r="BH21" s="31"/>
+      <c r="BI21" s="31"/>
+      <c r="BJ21" s="31"/>
       <c r="BK21" s="2"/>
     </row>
     <row r="22" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19" t="s">
+      <c r="D22" s="29"/>
+      <c r="E22" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="18" t="s">
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="Z22" s="18"/>
-      <c r="AA22" s="18"/>
-      <c r="AB22" s="18" t="s">
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AC22" s="18"/>
-      <c r="AD22" s="18"/>
-      <c r="AE22" s="18"/>
-      <c r="AF22" s="20" t="s">
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="29"/>
+      <c r="AF22" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AG22" s="20"/>
-      <c r="AH22" s="20"/>
-      <c r="AI22" s="20"/>
-      <c r="AJ22" s="20"/>
-      <c r="AK22" s="20"/>
-      <c r="AL22" s="20"/>
-      <c r="AM22" s="20"/>
-      <c r="AN22" s="20"/>
-      <c r="AO22" s="20"/>
-      <c r="AP22" s="20"/>
-      <c r="AQ22" s="20"/>
-      <c r="AR22" s="20"/>
-      <c r="AS22" s="20"/>
-      <c r="AT22" s="20"/>
-      <c r="AU22" s="20"/>
-      <c r="AV22" s="20"/>
-      <c r="AW22" s="20"/>
-      <c r="AX22" s="20"/>
-      <c r="AY22" s="20"/>
-      <c r="AZ22" s="20"/>
-      <c r="BA22" s="20"/>
-      <c r="BB22" s="20"/>
-      <c r="BC22" s="20"/>
-      <c r="BD22" s="20"/>
-      <c r="BE22" s="20"/>
-      <c r="BF22" s="20"/>
-      <c r="BG22" s="20"/>
-      <c r="BH22" s="20"/>
-      <c r="BI22" s="20"/>
-      <c r="BJ22" s="20"/>
+      <c r="AG22" s="31"/>
+      <c r="AH22" s="31"/>
+      <c r="AI22" s="31"/>
+      <c r="AJ22" s="31"/>
+      <c r="AK22" s="31"/>
+      <c r="AL22" s="31"/>
+      <c r="AM22" s="31"/>
+      <c r="AN22" s="31"/>
+      <c r="AO22" s="31"/>
+      <c r="AP22" s="31"/>
+      <c r="AQ22" s="31"/>
+      <c r="AR22" s="31"/>
+      <c r="AS22" s="31"/>
+      <c r="AT22" s="31"/>
+      <c r="AU22" s="31"/>
+      <c r="AV22" s="31"/>
+      <c r="AW22" s="31"/>
+      <c r="AX22" s="31"/>
+      <c r="AY22" s="31"/>
+      <c r="AZ22" s="31"/>
+      <c r="BA22" s="31"/>
+      <c r="BB22" s="31"/>
+      <c r="BC22" s="31"/>
+      <c r="BD22" s="31"/>
+      <c r="BE22" s="31"/>
+      <c r="BF22" s="31"/>
+      <c r="BG22" s="31"/>
+      <c r="BH22" s="31"/>
+      <c r="BI22" s="31"/>
+      <c r="BJ22" s="31"/>
       <c r="BK22" s="2"/>
     </row>
     <row r="23" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -4310,14 +4310,61 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B1:BK1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="Q2:AM2"/>
-    <mergeCell ref="AN2:AS2"/>
-    <mergeCell ref="AT2:AY2"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="BF2:BK2"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="AB22:AE22"/>
+    <mergeCell ref="AF22:BJ22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AB20:AE20"/>
+    <mergeCell ref="AF20:BJ20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AB21:AE21"/>
+    <mergeCell ref="AF21:BJ21"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB18:AE18"/>
+    <mergeCell ref="AF18:BJ18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="AB19:AE19"/>
+    <mergeCell ref="AF19:BJ19"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="AF13:BJ13"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:X17"/>
+    <mergeCell ref="Y16:AA17"/>
+    <mergeCell ref="AB16:AE17"/>
+    <mergeCell ref="AF16:BJ17"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="AB11:AE11"/>
+    <mergeCell ref="AF11:BJ11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="AF12:BJ12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="AB9:AE9"/>
+    <mergeCell ref="AF9:BJ9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="AF10:BJ10"/>
     <mergeCell ref="BF3:BK4"/>
     <mergeCell ref="C7:D8"/>
     <mergeCell ref="E7:X8"/>
@@ -4330,61 +4377,14 @@
     <mergeCell ref="AN3:AS4"/>
     <mergeCell ref="AT3:AY4"/>
     <mergeCell ref="AZ3:BE4"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AB10:AE10"/>
-    <mergeCell ref="AF10:BJ10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="AB9:AE9"/>
-    <mergeCell ref="AF9:BJ9"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="AB12:AE12"/>
-    <mergeCell ref="AF12:BJ12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="AB11:AE11"/>
-    <mergeCell ref="AF11:BJ11"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:X17"/>
-    <mergeCell ref="Y16:AA17"/>
-    <mergeCell ref="AB16:AE17"/>
-    <mergeCell ref="AF16:BJ17"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:X13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="AB13:AE13"/>
-    <mergeCell ref="AF13:BJ13"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="AB19:AE19"/>
-    <mergeCell ref="AF19:BJ19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="AB18:AE18"/>
-    <mergeCell ref="AF18:BJ18"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="AB21:AE21"/>
-    <mergeCell ref="AF21:BJ21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="AB20:AE20"/>
-    <mergeCell ref="AF20:BJ20"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="AB22:AE22"/>
-    <mergeCell ref="AF22:BJ22"/>
+    <mergeCell ref="B1:BK1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:AM2"/>
+    <mergeCell ref="AN2:AS2"/>
+    <mergeCell ref="AT2:AY2"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="BF2:BK2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4396,430 +4396,430 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36293E3-BB8A-450A-AD90-324CA703073E}">
   <dimension ref="B1:BK42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J39" sqref="J39:AG39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="51"/>
-      <c r="AQ1" s="51"/>
-      <c r="AR1" s="51"/>
-      <c r="AS1" s="51"/>
-      <c r="AT1" s="51"/>
-      <c r="AU1" s="51"/>
-      <c r="AV1" s="51"/>
-      <c r="AW1" s="51"/>
-      <c r="AX1" s="51"/>
-      <c r="AY1" s="51"/>
-      <c r="AZ1" s="51"/>
-      <c r="BA1" s="51"/>
-      <c r="BB1" s="51"/>
-      <c r="BC1" s="51"/>
-      <c r="BD1" s="51"/>
-      <c r="BE1" s="51"/>
-      <c r="BF1" s="51"/>
-      <c r="BG1" s="51"/>
-      <c r="BH1" s="51"/>
-      <c r="BI1" s="51"/>
-      <c r="BJ1" s="51"/>
-      <c r="BK1" s="52"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="42"/>
+      <c r="AO1" s="42"/>
+      <c r="AP1" s="42"/>
+      <c r="AQ1" s="42"/>
+      <c r="AR1" s="42"/>
+      <c r="AS1" s="42"/>
+      <c r="AT1" s="42"/>
+      <c r="AU1" s="42"/>
+      <c r="AV1" s="42"/>
+      <c r="AW1" s="42"/>
+      <c r="AX1" s="42"/>
+      <c r="AY1" s="42"/>
+      <c r="AZ1" s="42"/>
+      <c r="BA1" s="42"/>
+      <c r="BB1" s="42"/>
+      <c r="BC1" s="42"/>
+      <c r="BD1" s="42"/>
+      <c r="BE1" s="42"/>
+      <c r="BF1" s="42"/>
+      <c r="BG1" s="42"/>
+      <c r="BH1" s="42"/>
+      <c r="BI1" s="42"/>
+      <c r="BJ1" s="42"/>
+      <c r="BK1" s="43"/>
     </row>
     <row r="2" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="50" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="50" t="s">
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="50" t="s">
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="51"/>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="52"/>
-      <c r="AT2" s="50" t="s">
+      <c r="AO2" s="42"/>
+      <c r="AP2" s="42"/>
+      <c r="AQ2" s="42"/>
+      <c r="AR2" s="42"/>
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="AU2" s="51"/>
-      <c r="AV2" s="51"/>
-      <c r="AW2" s="51"/>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="52"/>
-      <c r="AZ2" s="50" t="s">
+      <c r="AU2" s="42"/>
+      <c r="AV2" s="42"/>
+      <c r="AW2" s="42"/>
+      <c r="AX2" s="42"/>
+      <c r="AY2" s="43"/>
+      <c r="AZ2" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="BA2" s="51"/>
-      <c r="BB2" s="51"/>
-      <c r="BC2" s="51"/>
-      <c r="BD2" s="51"/>
-      <c r="BE2" s="52"/>
-      <c r="BF2" s="50" t="s">
+      <c r="BA2" s="42"/>
+      <c r="BB2" s="42"/>
+      <c r="BC2" s="42"/>
+      <c r="BD2" s="42"/>
+      <c r="BE2" s="43"/>
+      <c r="BF2" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="BG2" s="51"/>
-      <c r="BH2" s="51"/>
-      <c r="BI2" s="51"/>
-      <c r="BJ2" s="51"/>
-      <c r="BK2" s="52"/>
+      <c r="BG2" s="42"/>
+      <c r="BH2" s="42"/>
+      <c r="BI2" s="42"/>
+      <c r="BJ2" s="42"/>
+      <c r="BK2" s="43"/>
     </row>
     <row r="3" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="53">
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="44">
         <v>1</v>
       </c>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="53" t="s">
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="55"/>
-      <c r="AN3" s="59"/>
-      <c r="AO3" s="60"/>
-      <c r="AP3" s="60"/>
-      <c r="AQ3" s="60"/>
-      <c r="AR3" s="60"/>
-      <c r="AS3" s="61"/>
-      <c r="AT3" s="65" t="s">
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="46"/>
+      <c r="AN3" s="50"/>
+      <c r="AO3" s="51"/>
+      <c r="AP3" s="51"/>
+      <c r="AQ3" s="51"/>
+      <c r="AR3" s="51"/>
+      <c r="AS3" s="52"/>
+      <c r="AT3" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="AU3" s="66"/>
-      <c r="AV3" s="66"/>
-      <c r="AW3" s="66"/>
-      <c r="AX3" s="66"/>
-      <c r="AY3" s="67"/>
-      <c r="AZ3" s="59"/>
-      <c r="BA3" s="60"/>
-      <c r="BB3" s="60"/>
-      <c r="BC3" s="60"/>
-      <c r="BD3" s="60"/>
-      <c r="BE3" s="61"/>
-      <c r="BF3" s="53"/>
-      <c r="BG3" s="54"/>
-      <c r="BH3" s="54"/>
-      <c r="BI3" s="54"/>
-      <c r="BJ3" s="54"/>
-      <c r="BK3" s="55"/>
+      <c r="AU3" s="57"/>
+      <c r="AV3" s="57"/>
+      <c r="AW3" s="57"/>
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="58"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="51"/>
+      <c r="BB3" s="51"/>
+      <c r="BC3" s="51"/>
+      <c r="BD3" s="51"/>
+      <c r="BE3" s="52"/>
+      <c r="BF3" s="44"/>
+      <c r="BG3" s="45"/>
+      <c r="BH3" s="45"/>
+      <c r="BI3" s="45"/>
+      <c r="BJ3" s="45"/>
+      <c r="BK3" s="46"/>
     </row>
     <row r="4" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="56"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="57"/>
-      <c r="AA4" s="57"/>
-      <c r="AB4" s="57"/>
-      <c r="AC4" s="57"/>
-      <c r="AD4" s="57"/>
-      <c r="AE4" s="57"/>
-      <c r="AF4" s="57"/>
-      <c r="AG4" s="57"/>
-      <c r="AH4" s="57"/>
-      <c r="AI4" s="57"/>
-      <c r="AJ4" s="57"/>
-      <c r="AK4" s="57"/>
-      <c r="AL4" s="57"/>
-      <c r="AM4" s="58"/>
-      <c r="AN4" s="62"/>
-      <c r="AO4" s="63"/>
-      <c r="AP4" s="63"/>
-      <c r="AQ4" s="63"/>
-      <c r="AR4" s="63"/>
-      <c r="AS4" s="64"/>
-      <c r="AT4" s="68"/>
-      <c r="AU4" s="69"/>
-      <c r="AV4" s="69"/>
-      <c r="AW4" s="69"/>
-      <c r="AX4" s="69"/>
-      <c r="AY4" s="70"/>
-      <c r="AZ4" s="62"/>
-      <c r="BA4" s="63"/>
-      <c r="BB4" s="63"/>
-      <c r="BC4" s="63"/>
-      <c r="BD4" s="63"/>
-      <c r="BE4" s="64"/>
-      <c r="BF4" s="56"/>
-      <c r="BG4" s="57"/>
-      <c r="BH4" s="57"/>
-      <c r="BI4" s="57"/>
-      <c r="BJ4" s="57"/>
-      <c r="BK4" s="58"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
+      <c r="AH4" s="48"/>
+      <c r="AI4" s="48"/>
+      <c r="AJ4" s="48"/>
+      <c r="AK4" s="48"/>
+      <c r="AL4" s="48"/>
+      <c r="AM4" s="49"/>
+      <c r="AN4" s="53"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="54"/>
+      <c r="AQ4" s="54"/>
+      <c r="AR4" s="54"/>
+      <c r="AS4" s="55"/>
+      <c r="AT4" s="59"/>
+      <c r="AU4" s="60"/>
+      <c r="AV4" s="60"/>
+      <c r="AW4" s="60"/>
+      <c r="AX4" s="60"/>
+      <c r="AY4" s="61"/>
+      <c r="AZ4" s="53"/>
+      <c r="BA4" s="54"/>
+      <c r="BB4" s="54"/>
+      <c r="BC4" s="54"/>
+      <c r="BD4" s="54"/>
+      <c r="BE4" s="55"/>
+      <c r="BF4" s="47"/>
+      <c r="BG4" s="48"/>
+      <c r="BH4" s="48"/>
+      <c r="BI4" s="48"/>
+      <c r="BJ4" s="48"/>
+      <c r="BK4" s="49"/>
     </row>
     <row r="5" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="49"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="48"/>
-      <c r="AD5" s="48"/>
-      <c r="AE5" s="48"/>
-      <c r="AF5" s="48"/>
-      <c r="AG5" s="48"/>
-      <c r="AH5" s="48"/>
-      <c r="AI5" s="48"/>
-      <c r="AJ5" s="48"/>
-      <c r="AK5" s="48"/>
-      <c r="AL5" s="48"/>
-      <c r="AM5" s="48"/>
-      <c r="AN5" s="48"/>
-      <c r="AO5" s="48"/>
-      <c r="AP5" s="48"/>
-      <c r="AQ5" s="48"/>
-      <c r="AR5" s="48"/>
-      <c r="AS5" s="48"/>
-      <c r="AT5" s="48"/>
-      <c r="AU5" s="48"/>
-      <c r="AV5" s="48"/>
-      <c r="AW5" s="48"/>
-      <c r="AX5" s="48"/>
-      <c r="AY5" s="48"/>
-      <c r="AZ5" s="48"/>
-      <c r="BA5" s="48"/>
-      <c r="BB5" s="48"/>
-      <c r="BC5" s="48"/>
-      <c r="BD5" s="48"/>
-      <c r="BE5" s="48"/>
-      <c r="BF5" s="48"/>
-      <c r="BG5" s="48"/>
-      <c r="BH5" s="48"/>
-      <c r="BI5" s="48"/>
-      <c r="BJ5" s="47"/>
-      <c r="BK5" s="47"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="64"/>
+      <c r="X5" s="64"/>
+      <c r="Y5" s="64"/>
+      <c r="Z5" s="64"/>
+      <c r="AA5" s="64"/>
+      <c r="AB5" s="64"/>
+      <c r="AC5" s="64"/>
+      <c r="AD5" s="64"/>
+      <c r="AE5" s="64"/>
+      <c r="AF5" s="64"/>
+      <c r="AG5" s="64"/>
+      <c r="AH5" s="64"/>
+      <c r="AI5" s="64"/>
+      <c r="AJ5" s="64"/>
+      <c r="AK5" s="64"/>
+      <c r="AL5" s="64"/>
+      <c r="AM5" s="64"/>
+      <c r="AN5" s="64"/>
+      <c r="AO5" s="64"/>
+      <c r="AP5" s="64"/>
+      <c r="AQ5" s="64"/>
+      <c r="AR5" s="64"/>
+      <c r="AS5" s="64"/>
+      <c r="AT5" s="64"/>
+      <c r="AU5" s="64"/>
+      <c r="AV5" s="64"/>
+      <c r="AW5" s="64"/>
+      <c r="AX5" s="64"/>
+      <c r="AY5" s="64"/>
+      <c r="AZ5" s="64"/>
+      <c r="BA5" s="64"/>
+      <c r="BB5" s="64"/>
+      <c r="BC5" s="64"/>
+      <c r="BD5" s="64"/>
+      <c r="BE5" s="64"/>
+      <c r="BF5" s="64"/>
+      <c r="BG5" s="64"/>
+      <c r="BH5" s="64"/>
+      <c r="BI5" s="64"/>
+      <c r="BJ5" s="63"/>
+      <c r="BK5" s="63"/>
     </row>
     <row r="6" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="14"/>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="41" t="s">
+      <c r="D6" s="66"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="41" t="s">
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="42"/>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="42"/>
-      <c r="AD6" s="42"/>
-      <c r="AE6" s="42"/>
-      <c r="AF6" s="42"/>
-      <c r="AG6" s="43"/>
-      <c r="AH6" s="41" t="s">
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="66"/>
+      <c r="AA6" s="66"/>
+      <c r="AB6" s="66"/>
+      <c r="AC6" s="66"/>
+      <c r="AD6" s="66"/>
+      <c r="AE6" s="66"/>
+      <c r="AF6" s="66"/>
+      <c r="AG6" s="67"/>
+      <c r="AH6" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="AI6" s="42"/>
-      <c r="AJ6" s="42"/>
-      <c r="AK6" s="42"/>
-      <c r="AL6" s="42"/>
-      <c r="AM6" s="43"/>
-      <c r="AN6" s="41" t="s">
+      <c r="AI6" s="66"/>
+      <c r="AJ6" s="66"/>
+      <c r="AK6" s="66"/>
+      <c r="AL6" s="66"/>
+      <c r="AM6" s="67"/>
+      <c r="AN6" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="AO6" s="42"/>
-      <c r="AP6" s="42"/>
-      <c r="AQ6" s="43"/>
-      <c r="AR6" s="44" t="s">
+      <c r="AO6" s="66"/>
+      <c r="AP6" s="66"/>
+      <c r="AQ6" s="67"/>
+      <c r="AR6" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="AS6" s="45"/>
-      <c r="AT6" s="45"/>
-      <c r="AU6" s="45"/>
-      <c r="AV6" s="45"/>
-      <c r="AW6" s="45"/>
-      <c r="AX6" s="45"/>
-      <c r="AY6" s="45"/>
-      <c r="AZ6" s="45"/>
-      <c r="BA6" s="45"/>
-      <c r="BB6" s="45"/>
-      <c r="BC6" s="45"/>
-      <c r="BD6" s="45"/>
-      <c r="BE6" s="45"/>
-      <c r="BF6" s="45"/>
-      <c r="BG6" s="45"/>
-      <c r="BH6" s="45"/>
-      <c r="BI6" s="45"/>
-      <c r="BJ6" s="46"/>
+      <c r="AS6" s="69"/>
+      <c r="AT6" s="69"/>
+      <c r="AU6" s="69"/>
+      <c r="AV6" s="69"/>
+      <c r="AW6" s="69"/>
+      <c r="AX6" s="69"/>
+      <c r="AY6" s="69"/>
+      <c r="AZ6" s="69"/>
+      <c r="BA6" s="69"/>
+      <c r="BB6" s="69"/>
+      <c r="BC6" s="69"/>
+      <c r="BD6" s="69"/>
+      <c r="BE6" s="69"/>
+      <c r="BF6" s="69"/>
+      <c r="BG6" s="69"/>
+      <c r="BH6" s="69"/>
+      <c r="BI6" s="69"/>
+      <c r="BJ6" s="70"/>
       <c r="BK6" s="15"/>
     </row>
     <row r="7" spans="2:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -7422,36 +7422,210 @@
     </row>
   </sheetData>
   <mergeCells count="258">
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="J39:AG39"/>
-    <mergeCell ref="AH39:AM39"/>
-    <mergeCell ref="AN39:AQ39"/>
-    <mergeCell ref="AR39:BJ39"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="J41:AG41"/>
-    <mergeCell ref="AH41:AM41"/>
-    <mergeCell ref="AN41:AQ41"/>
-    <mergeCell ref="AR41:BJ41"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="J40:AG40"/>
-    <mergeCell ref="AH40:AM40"/>
-    <mergeCell ref="AN40:AQ40"/>
-    <mergeCell ref="AR40:BJ40"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AG37"/>
-    <mergeCell ref="AH37:AM37"/>
-    <mergeCell ref="AN37:AQ37"/>
-    <mergeCell ref="AR37:BJ37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="AH38:AM38"/>
-    <mergeCell ref="AN38:AQ38"/>
-    <mergeCell ref="AR38:BJ38"/>
-    <mergeCell ref="J38:AG38"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="J42:AG42"/>
+    <mergeCell ref="AH42:AM42"/>
+    <mergeCell ref="AN42:AQ42"/>
+    <mergeCell ref="AR42:BJ42"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AG34"/>
+    <mergeCell ref="AH34:AM34"/>
+    <mergeCell ref="AN34:AQ34"/>
+    <mergeCell ref="AR34:BJ34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:AG35"/>
+    <mergeCell ref="AH35:AM35"/>
+    <mergeCell ref="AN35:AQ35"/>
+    <mergeCell ref="AR35:BJ35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:AG36"/>
+    <mergeCell ref="AH36:AM36"/>
+    <mergeCell ref="AN36:AQ36"/>
+    <mergeCell ref="AR36:BJ36"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AG29"/>
+    <mergeCell ref="AH29:AM29"/>
+    <mergeCell ref="AN29:AQ29"/>
+    <mergeCell ref="AR29:BJ29"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AG33"/>
+    <mergeCell ref="AH33:AM33"/>
+    <mergeCell ref="AN33:AQ33"/>
+    <mergeCell ref="AR33:BJ33"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AG31"/>
+    <mergeCell ref="AH31:AM31"/>
+    <mergeCell ref="AN31:AQ31"/>
+    <mergeCell ref="AR31:BJ31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AG32"/>
+    <mergeCell ref="AH32:AM32"/>
+    <mergeCell ref="AN32:AQ32"/>
+    <mergeCell ref="AR32:BJ32"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:AG21"/>
+    <mergeCell ref="AH21:AM21"/>
+    <mergeCell ref="AN21:AQ21"/>
+    <mergeCell ref="AR21:BJ21"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:AG19"/>
+    <mergeCell ref="AH19:AM19"/>
+    <mergeCell ref="AN19:AQ19"/>
+    <mergeCell ref="AR19:BJ19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:AG20"/>
+    <mergeCell ref="AH20:AM20"/>
+    <mergeCell ref="AN20:AQ20"/>
+    <mergeCell ref="AR20:BJ20"/>
+    <mergeCell ref="AR11:BJ11"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:AG10"/>
+    <mergeCell ref="AH10:AM10"/>
+    <mergeCell ref="AN10:AQ10"/>
+    <mergeCell ref="AR10:BJ10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:AG11"/>
+    <mergeCell ref="AH11:AM11"/>
+    <mergeCell ref="AN11:AQ11"/>
+    <mergeCell ref="AR9:BJ9"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:AG8"/>
+    <mergeCell ref="AH8:AM8"/>
+    <mergeCell ref="AN8:AQ8"/>
+    <mergeCell ref="AR8:BJ8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:AG9"/>
+    <mergeCell ref="AH9:AM9"/>
+    <mergeCell ref="AN9:AQ9"/>
+    <mergeCell ref="AR7:BJ7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:AG6"/>
+    <mergeCell ref="AH6:AM6"/>
+    <mergeCell ref="AN6:AQ6"/>
+    <mergeCell ref="AR6:BJ6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:AG7"/>
+    <mergeCell ref="AH7:AM7"/>
+    <mergeCell ref="AN7:AQ7"/>
+    <mergeCell ref="BJ5:BK5"/>
+    <mergeCell ref="AC5:AE5"/>
+    <mergeCell ref="AF5:AH5"/>
+    <mergeCell ref="AI5:AK5"/>
+    <mergeCell ref="AL5:AN5"/>
+    <mergeCell ref="AO5:AQ5"/>
+    <mergeCell ref="AR5:AT5"/>
+    <mergeCell ref="AU5:AW5"/>
+    <mergeCell ref="AX5:AZ5"/>
+    <mergeCell ref="BA5:BC5"/>
+    <mergeCell ref="BD5:BF5"/>
+    <mergeCell ref="BG5:BI5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="Z5:AB5"/>
+    <mergeCell ref="B1:BK1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:AM2"/>
+    <mergeCell ref="AN2:AS2"/>
+    <mergeCell ref="AT2:AY2"/>
+    <mergeCell ref="AZ2:BE2"/>
+    <mergeCell ref="BF2:BK2"/>
+    <mergeCell ref="BF3:BK4"/>
+    <mergeCell ref="B3:K4"/>
+    <mergeCell ref="L3:P4"/>
+    <mergeCell ref="Q3:AM4"/>
+    <mergeCell ref="AN3:AS4"/>
+    <mergeCell ref="AT3:AY4"/>
+    <mergeCell ref="AZ3:BE4"/>
+    <mergeCell ref="AR12:BJ12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:AG13"/>
+    <mergeCell ref="AH13:AM13"/>
+    <mergeCell ref="AN13:AQ13"/>
+    <mergeCell ref="AR13:BJ13"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:AG12"/>
+    <mergeCell ref="AH12:AM12"/>
+    <mergeCell ref="AN12:AQ12"/>
+    <mergeCell ref="AR14:BJ14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:AG15"/>
+    <mergeCell ref="AH15:AM15"/>
+    <mergeCell ref="AN15:AQ15"/>
+    <mergeCell ref="AR15:BJ15"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:AG14"/>
+    <mergeCell ref="AH14:AM14"/>
+    <mergeCell ref="AN14:AQ14"/>
+    <mergeCell ref="AR18:BJ18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:AG18"/>
+    <mergeCell ref="AH18:AM18"/>
+    <mergeCell ref="AN18:AQ18"/>
+    <mergeCell ref="AR16:BJ16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:AG17"/>
+    <mergeCell ref="AH17:AM17"/>
+    <mergeCell ref="AN17:AQ17"/>
+    <mergeCell ref="AR17:BJ17"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:AG16"/>
+    <mergeCell ref="AH16:AM16"/>
+    <mergeCell ref="AN16:AQ16"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:AG22"/>
+    <mergeCell ref="AH22:AM22"/>
+    <mergeCell ref="AN22:AQ22"/>
+    <mergeCell ref="AR22:BJ22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AG23"/>
+    <mergeCell ref="AH23:AM23"/>
+    <mergeCell ref="AN23:AQ23"/>
+    <mergeCell ref="AR23:BJ23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AG24"/>
+    <mergeCell ref="AH24:AM24"/>
+    <mergeCell ref="AN24:AQ24"/>
+    <mergeCell ref="AR24:BJ24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AG25"/>
+    <mergeCell ref="AH25:AM25"/>
+    <mergeCell ref="AN25:AQ25"/>
+    <mergeCell ref="AR25:BJ25"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="F30:I30"/>
     <mergeCell ref="J30:AG30"/>
@@ -7476,210 +7650,36 @@
     <mergeCell ref="AH28:AM28"/>
     <mergeCell ref="AN28:AQ28"/>
     <mergeCell ref="AR28:BJ28"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AG24"/>
-    <mergeCell ref="AH24:AM24"/>
-    <mergeCell ref="AN24:AQ24"/>
-    <mergeCell ref="AR24:BJ24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AG25"/>
-    <mergeCell ref="AH25:AM25"/>
-    <mergeCell ref="AN25:AQ25"/>
-    <mergeCell ref="AR25:BJ25"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:AG22"/>
-    <mergeCell ref="AH22:AM22"/>
-    <mergeCell ref="AN22:AQ22"/>
-    <mergeCell ref="AR22:BJ22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AG23"/>
-    <mergeCell ref="AH23:AM23"/>
-    <mergeCell ref="AN23:AQ23"/>
-    <mergeCell ref="AR23:BJ23"/>
-    <mergeCell ref="AR18:BJ18"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:AG18"/>
-    <mergeCell ref="AH18:AM18"/>
-    <mergeCell ref="AN18:AQ18"/>
-    <mergeCell ref="AR16:BJ16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:AG17"/>
-    <mergeCell ref="AH17:AM17"/>
-    <mergeCell ref="AN17:AQ17"/>
-    <mergeCell ref="AR17:BJ17"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:AG16"/>
-    <mergeCell ref="AH16:AM16"/>
-    <mergeCell ref="AN16:AQ16"/>
-    <mergeCell ref="AR14:BJ14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:AG15"/>
-    <mergeCell ref="AH15:AM15"/>
-    <mergeCell ref="AN15:AQ15"/>
-    <mergeCell ref="AR15:BJ15"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:AG14"/>
-    <mergeCell ref="AH14:AM14"/>
-    <mergeCell ref="AN14:AQ14"/>
-    <mergeCell ref="AR12:BJ12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:AG13"/>
-    <mergeCell ref="AH13:AM13"/>
-    <mergeCell ref="AN13:AQ13"/>
-    <mergeCell ref="AR13:BJ13"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:AG12"/>
-    <mergeCell ref="AH12:AM12"/>
-    <mergeCell ref="AN12:AQ12"/>
-    <mergeCell ref="B1:BK1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="Q2:AM2"/>
-    <mergeCell ref="AN2:AS2"/>
-    <mergeCell ref="AT2:AY2"/>
-    <mergeCell ref="AZ2:BE2"/>
-    <mergeCell ref="BF2:BK2"/>
-    <mergeCell ref="BF3:BK4"/>
-    <mergeCell ref="B3:K4"/>
-    <mergeCell ref="L3:P4"/>
-    <mergeCell ref="Q3:AM4"/>
-    <mergeCell ref="AN3:AS4"/>
-    <mergeCell ref="AT3:AY4"/>
-    <mergeCell ref="AZ3:BE4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="Z5:AB5"/>
-    <mergeCell ref="BJ5:BK5"/>
-    <mergeCell ref="AC5:AE5"/>
-    <mergeCell ref="AF5:AH5"/>
-    <mergeCell ref="AI5:AK5"/>
-    <mergeCell ref="AL5:AN5"/>
-    <mergeCell ref="AO5:AQ5"/>
-    <mergeCell ref="AR5:AT5"/>
-    <mergeCell ref="AU5:AW5"/>
-    <mergeCell ref="AX5:AZ5"/>
-    <mergeCell ref="BA5:BC5"/>
-    <mergeCell ref="BD5:BF5"/>
-    <mergeCell ref="BG5:BI5"/>
-    <mergeCell ref="AR7:BJ7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:AG6"/>
-    <mergeCell ref="AH6:AM6"/>
-    <mergeCell ref="AN6:AQ6"/>
-    <mergeCell ref="AR6:BJ6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:AG7"/>
-    <mergeCell ref="AH7:AM7"/>
-    <mergeCell ref="AN7:AQ7"/>
-    <mergeCell ref="AR9:BJ9"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:AG8"/>
-    <mergeCell ref="AH8:AM8"/>
-    <mergeCell ref="AN8:AQ8"/>
-    <mergeCell ref="AR8:BJ8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:AG9"/>
-    <mergeCell ref="AH9:AM9"/>
-    <mergeCell ref="AN9:AQ9"/>
-    <mergeCell ref="AR11:BJ11"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:AG10"/>
-    <mergeCell ref="AH10:AM10"/>
-    <mergeCell ref="AN10:AQ10"/>
-    <mergeCell ref="AR10:BJ10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:AG11"/>
-    <mergeCell ref="AH11:AM11"/>
-    <mergeCell ref="AN11:AQ11"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:AG21"/>
-    <mergeCell ref="AH21:AM21"/>
-    <mergeCell ref="AN21:AQ21"/>
-    <mergeCell ref="AR21:BJ21"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:AG19"/>
-    <mergeCell ref="AH19:AM19"/>
-    <mergeCell ref="AN19:AQ19"/>
-    <mergeCell ref="AR19:BJ19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:AG20"/>
-    <mergeCell ref="AH20:AM20"/>
-    <mergeCell ref="AN20:AQ20"/>
-    <mergeCell ref="AR20:BJ20"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AG29"/>
-    <mergeCell ref="AH29:AM29"/>
-    <mergeCell ref="AN29:AQ29"/>
-    <mergeCell ref="AR29:BJ29"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AG33"/>
-    <mergeCell ref="AH33:AM33"/>
-    <mergeCell ref="AN33:AQ33"/>
-    <mergeCell ref="AR33:BJ33"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AG31"/>
-    <mergeCell ref="AH31:AM31"/>
-    <mergeCell ref="AN31:AQ31"/>
-    <mergeCell ref="AR31:BJ31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AG32"/>
-    <mergeCell ref="AH32:AM32"/>
-    <mergeCell ref="AN32:AQ32"/>
-    <mergeCell ref="AR32:BJ32"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="J42:AG42"/>
-    <mergeCell ref="AH42:AM42"/>
-    <mergeCell ref="AN42:AQ42"/>
-    <mergeCell ref="AR42:BJ42"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AG34"/>
-    <mergeCell ref="AH34:AM34"/>
-    <mergeCell ref="AN34:AQ34"/>
-    <mergeCell ref="AR34:BJ34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:AG35"/>
-    <mergeCell ref="AH35:AM35"/>
-    <mergeCell ref="AN35:AQ35"/>
-    <mergeCell ref="AR35:BJ35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:AG36"/>
-    <mergeCell ref="AH36:AM36"/>
-    <mergeCell ref="AN36:AQ36"/>
-    <mergeCell ref="AR36:BJ36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AG37"/>
+    <mergeCell ref="AH37:AM37"/>
+    <mergeCell ref="AN37:AQ37"/>
+    <mergeCell ref="AR37:BJ37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="AH38:AM38"/>
+    <mergeCell ref="AN38:AQ38"/>
+    <mergeCell ref="AR38:BJ38"/>
+    <mergeCell ref="J38:AG38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:AG39"/>
+    <mergeCell ref="AH39:AM39"/>
+    <mergeCell ref="AN39:AQ39"/>
+    <mergeCell ref="AR39:BJ39"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="J41:AG41"/>
+    <mergeCell ref="AH41:AM41"/>
+    <mergeCell ref="AN41:AQ41"/>
+    <mergeCell ref="AR41:BJ41"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="J40:AG40"/>
+    <mergeCell ref="AH40:AM40"/>
+    <mergeCell ref="AN40:AQ40"/>
+    <mergeCell ref="AR40:BJ40"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7691,8 +7691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53580EB5-55E3-4A05-B78B-1201B5F81BCA}">
   <dimension ref="A1:BL41"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32:AK32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35:AK35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7765,297 +7765,297 @@
     </row>
     <row r="2" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
-      <c r="AO2" s="29"/>
-      <c r="AP2" s="29"/>
-      <c r="AQ2" s="29"/>
-      <c r="AR2" s="29"/>
-      <c r="AS2" s="29"/>
-      <c r="AT2" s="29"/>
-      <c r="AU2" s="29"/>
-      <c r="AV2" s="29"/>
-      <c r="AW2" s="29"/>
-      <c r="AX2" s="29"/>
-      <c r="AY2" s="29"/>
-      <c r="AZ2" s="29"/>
-      <c r="BA2" s="29"/>
-      <c r="BB2" s="29"/>
-      <c r="BC2" s="29"/>
-      <c r="BD2" s="29"/>
-      <c r="BE2" s="29"/>
-      <c r="BF2" s="29"/>
-      <c r="BG2" s="29"/>
-      <c r="BH2" s="29"/>
-      <c r="BI2" s="29"/>
-      <c r="BJ2" s="29"/>
-      <c r="BK2" s="29"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="19"/>
+      <c r="AN2" s="19"/>
+      <c r="AO2" s="19"/>
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="19"/>
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="19"/>
+      <c r="AT2" s="19"/>
+      <c r="AU2" s="19"/>
+      <c r="AV2" s="19"/>
+      <c r="AW2" s="19"/>
+      <c r="AX2" s="19"/>
+      <c r="AY2" s="19"/>
+      <c r="AZ2" s="19"/>
+      <c r="BA2" s="19"/>
+      <c r="BB2" s="19"/>
+      <c r="BC2" s="19"/>
+      <c r="BD2" s="19"/>
+      <c r="BE2" s="19"/>
+      <c r="BF2" s="19"/>
+      <c r="BG2" s="19"/>
+      <c r="BH2" s="19"/>
+      <c r="BI2" s="19"/>
+      <c r="BJ2" s="19"/>
+      <c r="BK2" s="19"/>
       <c r="BL2" s="16"/>
     </row>
     <row r="3" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="16"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="30" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30" t="s">
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="30"/>
-      <c r="AL3" s="30"/>
-      <c r="AM3" s="30"/>
-      <c r="AN3" s="31" t="s">
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="20"/>
+      <c r="AM3" s="20"/>
+      <c r="AN3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="AO3" s="31"/>
-      <c r="AP3" s="31"/>
-      <c r="AQ3" s="31"/>
-      <c r="AR3" s="31"/>
-      <c r="AS3" s="31"/>
-      <c r="AT3" s="30" t="s">
+      <c r="AO3" s="21"/>
+      <c r="AP3" s="21"/>
+      <c r="AQ3" s="21"/>
+      <c r="AR3" s="21"/>
+      <c r="AS3" s="21"/>
+      <c r="AT3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="AU3" s="30"/>
-      <c r="AV3" s="30"/>
-      <c r="AW3" s="30"/>
-      <c r="AX3" s="30"/>
-      <c r="AY3" s="30"/>
-      <c r="AZ3" s="30" t="s">
+      <c r="AU3" s="20"/>
+      <c r="AV3" s="20"/>
+      <c r="AW3" s="20"/>
+      <c r="AX3" s="20"/>
+      <c r="AY3" s="20"/>
+      <c r="AZ3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="BA3" s="30"/>
-      <c r="BB3" s="30"/>
-      <c r="BC3" s="30"/>
-      <c r="BD3" s="30"/>
-      <c r="BE3" s="30"/>
-      <c r="BF3" s="30" t="s">
+      <c r="BA3" s="20"/>
+      <c r="BB3" s="20"/>
+      <c r="BC3" s="20"/>
+      <c r="BD3" s="20"/>
+      <c r="BE3" s="20"/>
+      <c r="BF3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="BG3" s="30"/>
-      <c r="BH3" s="30"/>
-      <c r="BI3" s="30"/>
-      <c r="BJ3" s="30"/>
-      <c r="BK3" s="30"/>
+      <c r="BG3" s="20"/>
+      <c r="BH3" s="20"/>
+      <c r="BI3" s="20"/>
+      <c r="BJ3" s="20"/>
+      <c r="BK3" s="20"/>
       <c r="BL3" s="16"/>
     </row>
     <row r="4" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="16"/>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="26">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="27">
         <f>[1]表紙!$L$8</f>
         <v>1.06</v>
       </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="24" t="s">
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="24"/>
-      <c r="AH4" s="24"/>
-      <c r="AI4" s="24"/>
-      <c r="AJ4" s="24"/>
-      <c r="AK4" s="24"/>
-      <c r="AL4" s="24"/>
-      <c r="AM4" s="24"/>
-      <c r="AN4" s="27">
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="22"/>
+      <c r="AL4" s="22"/>
+      <c r="AM4" s="22"/>
+      <c r="AN4" s="28">
         <v>44062</v>
       </c>
-      <c r="AO4" s="24"/>
-      <c r="AP4" s="24"/>
-      <c r="AQ4" s="24"/>
-      <c r="AR4" s="24"/>
-      <c r="AS4" s="24"/>
-      <c r="AT4" s="78" t="s">
+      <c r="AO4" s="22"/>
+      <c r="AP4" s="22"/>
+      <c r="AQ4" s="22"/>
+      <c r="AR4" s="22"/>
+      <c r="AS4" s="22"/>
+      <c r="AT4" s="85" t="s">
         <v>126</v>
       </c>
-      <c r="AU4" s="27"/>
-      <c r="AV4" s="27"/>
-      <c r="AW4" s="27"/>
-      <c r="AX4" s="27"/>
-      <c r="AY4" s="27"/>
-      <c r="AZ4" s="27">
+      <c r="AU4" s="28"/>
+      <c r="AV4" s="28"/>
+      <c r="AW4" s="28"/>
+      <c r="AX4" s="28"/>
+      <c r="AY4" s="28"/>
+      <c r="AZ4" s="28">
         <v>40410</v>
       </c>
-      <c r="BA4" s="24"/>
-      <c r="BB4" s="24"/>
-      <c r="BC4" s="24"/>
-      <c r="BD4" s="24"/>
-      <c r="BE4" s="24"/>
-      <c r="BF4" s="24" t="s">
+      <c r="BA4" s="22"/>
+      <c r="BB4" s="22"/>
+      <c r="BC4" s="22"/>
+      <c r="BD4" s="22"/>
+      <c r="BE4" s="22"/>
+      <c r="BF4" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="BG4" s="24"/>
-      <c r="BH4" s="24"/>
-      <c r="BI4" s="24"/>
-      <c r="BJ4" s="24"/>
-      <c r="BK4" s="24"/>
+      <c r="BG4" s="22"/>
+      <c r="BH4" s="22"/>
+      <c r="BI4" s="22"/>
+      <c r="BJ4" s="22"/>
+      <c r="BK4" s="22"/>
       <c r="BL4" s="16"/>
     </row>
     <row r="5" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="24"/>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="24"/>
-      <c r="AD5" s="24"/>
-      <c r="AE5" s="24"/>
-      <c r="AF5" s="24"/>
-      <c r="AG5" s="24"/>
-      <c r="AH5" s="24"/>
-      <c r="AI5" s="24"/>
-      <c r="AJ5" s="24"/>
-      <c r="AK5" s="24"/>
-      <c r="AL5" s="24"/>
-      <c r="AM5" s="24"/>
-      <c r="AN5" s="24"/>
-      <c r="AO5" s="24"/>
-      <c r="AP5" s="24"/>
-      <c r="AQ5" s="24"/>
-      <c r="AR5" s="24"/>
-      <c r="AS5" s="24"/>
-      <c r="AT5" s="27"/>
-      <c r="AU5" s="27"/>
-      <c r="AV5" s="27"/>
-      <c r="AW5" s="27"/>
-      <c r="AX5" s="27"/>
-      <c r="AY5" s="27"/>
-      <c r="AZ5" s="24"/>
-      <c r="BA5" s="24"/>
-      <c r="BB5" s="24"/>
-      <c r="BC5" s="24"/>
-      <c r="BD5" s="24"/>
-      <c r="BE5" s="24"/>
-      <c r="BF5" s="24"/>
-      <c r="BG5" s="24"/>
-      <c r="BH5" s="24"/>
-      <c r="BI5" s="24"/>
-      <c r="BJ5" s="24"/>
-      <c r="BK5" s="24"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="22"/>
+      <c r="AF5" s="22"/>
+      <c r="AG5" s="22"/>
+      <c r="AH5" s="22"/>
+      <c r="AI5" s="22"/>
+      <c r="AJ5" s="22"/>
+      <c r="AK5" s="22"/>
+      <c r="AL5" s="22"/>
+      <c r="AM5" s="22"/>
+      <c r="AN5" s="22"/>
+      <c r="AO5" s="22"/>
+      <c r="AP5" s="22"/>
+      <c r="AQ5" s="22"/>
+      <c r="AR5" s="22"/>
+      <c r="AS5" s="22"/>
+      <c r="AT5" s="28"/>
+      <c r="AU5" s="28"/>
+      <c r="AV5" s="28"/>
+      <c r="AW5" s="28"/>
+      <c r="AX5" s="28"/>
+      <c r="AY5" s="28"/>
+      <c r="AZ5" s="22"/>
+      <c r="BA5" s="22"/>
+      <c r="BB5" s="22"/>
+      <c r="BC5" s="22"/>
+      <c r="BD5" s="22"/>
+      <c r="BE5" s="22"/>
+      <c r="BF5" s="22"/>
+      <c r="BG5" s="22"/>
+      <c r="BH5" s="22"/>
+      <c r="BI5" s="22"/>
+      <c r="BJ5" s="22"/>
+      <c r="BK5" s="22"/>
       <c r="BL5" s="16"/>
     </row>
     <row r="6" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -8127,2388 +8127,2388 @@
     <row r="7" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="16"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="80" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="72" t="s">
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="72"/>
-      <c r="W7" s="72"/>
-      <c r="X7" s="72"/>
-      <c r="Y7" s="72"/>
-      <c r="Z7" s="72"/>
-      <c r="AA7" s="72"/>
-      <c r="AB7" s="72"/>
-      <c r="AC7" s="72"/>
-      <c r="AD7" s="72"/>
-      <c r="AE7" s="72"/>
-      <c r="AF7" s="72"/>
-      <c r="AG7" s="72"/>
-      <c r="AH7" s="72"/>
-      <c r="AI7" s="72"/>
-      <c r="AJ7" s="72"/>
-      <c r="AK7" s="72"/>
-      <c r="AL7" s="72" t="s">
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="81"/>
+      <c r="S7" s="81"/>
+      <c r="T7" s="81"/>
+      <c r="U7" s="81"/>
+      <c r="V7" s="81"/>
+      <c r="W7" s="81"/>
+      <c r="X7" s="81"/>
+      <c r="Y7" s="81"/>
+      <c r="Z7" s="81"/>
+      <c r="AA7" s="81"/>
+      <c r="AB7" s="81"/>
+      <c r="AC7" s="81"/>
+      <c r="AD7" s="81"/>
+      <c r="AE7" s="81"/>
+      <c r="AF7" s="81"/>
+      <c r="AG7" s="81"/>
+      <c r="AH7" s="81"/>
+      <c r="AI7" s="81"/>
+      <c r="AJ7" s="81"/>
+      <c r="AK7" s="81"/>
+      <c r="AL7" s="81" t="s">
         <v>106</v>
       </c>
-      <c r="AM7" s="72"/>
-      <c r="AN7" s="72"/>
-      <c r="AO7" s="72"/>
-      <c r="AP7" s="72"/>
-      <c r="AQ7" s="72"/>
-      <c r="AR7" s="72"/>
-      <c r="AS7" s="72"/>
-      <c r="AT7" s="72"/>
-      <c r="AU7" s="72"/>
-      <c r="AV7" s="72"/>
-      <c r="AW7" s="72"/>
-      <c r="AX7" s="72"/>
-      <c r="AY7" s="72"/>
-      <c r="AZ7" s="72"/>
-      <c r="BA7" s="72"/>
-      <c r="BB7" s="72"/>
-      <c r="BC7" s="72"/>
-      <c r="BD7" s="72"/>
-      <c r="BE7" s="72"/>
-      <c r="BF7" s="72"/>
-      <c r="BG7" s="72"/>
-      <c r="BH7" s="72"/>
-      <c r="BI7" s="72"/>
-      <c r="BJ7" s="72"/>
+      <c r="AM7" s="81"/>
+      <c r="AN7" s="81"/>
+      <c r="AO7" s="81"/>
+      <c r="AP7" s="81"/>
+      <c r="AQ7" s="81"/>
+      <c r="AR7" s="81"/>
+      <c r="AS7" s="81"/>
+      <c r="AT7" s="81"/>
+      <c r="AU7" s="81"/>
+      <c r="AV7" s="81"/>
+      <c r="AW7" s="81"/>
+      <c r="AX7" s="81"/>
+      <c r="AY7" s="81"/>
+      <c r="AZ7" s="81"/>
+      <c r="BA7" s="81"/>
+      <c r="BB7" s="81"/>
+      <c r="BC7" s="81"/>
+      <c r="BD7" s="81"/>
+      <c r="BE7" s="81"/>
+      <c r="BF7" s="81"/>
+      <c r="BG7" s="81"/>
+      <c r="BH7" s="81"/>
+      <c r="BI7" s="81"/>
+      <c r="BJ7" s="81"/>
       <c r="BK7" s="2"/>
       <c r="BL7" s="16"/>
     </row>
     <row r="8" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="16"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="74" t="s">
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="82" t="s">
         <v>167</v>
       </c>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="75"/>
-      <c r="S8" s="75"/>
-      <c r="T8" s="75"/>
-      <c r="U8" s="75"/>
-      <c r="V8" s="75"/>
-      <c r="W8" s="75"/>
-      <c r="X8" s="75"/>
-      <c r="Y8" s="75"/>
-      <c r="Z8" s="75"/>
-      <c r="AA8" s="75"/>
-      <c r="AB8" s="75"/>
-      <c r="AC8" s="75"/>
-      <c r="AD8" s="75"/>
-      <c r="AE8" s="75"/>
-      <c r="AF8" s="75"/>
-      <c r="AG8" s="75"/>
-      <c r="AH8" s="75"/>
-      <c r="AI8" s="75"/>
-      <c r="AJ8" s="75"/>
-      <c r="AK8" s="76"/>
-      <c r="AL8" s="77"/>
-      <c r="AM8" s="77"/>
-      <c r="AN8" s="77"/>
-      <c r="AO8" s="77"/>
-      <c r="AP8" s="77"/>
-      <c r="AQ8" s="77"/>
-      <c r="AR8" s="77"/>
-      <c r="AS8" s="77"/>
-      <c r="AT8" s="77"/>
-      <c r="AU8" s="77"/>
-      <c r="AV8" s="77"/>
-      <c r="AW8" s="77"/>
-      <c r="AX8" s="77"/>
-      <c r="AY8" s="77"/>
-      <c r="AZ8" s="77"/>
-      <c r="BA8" s="77"/>
-      <c r="BB8" s="77"/>
-      <c r="BC8" s="77"/>
-      <c r="BD8" s="77"/>
-      <c r="BE8" s="77"/>
-      <c r="BF8" s="77"/>
-      <c r="BG8" s="77"/>
-      <c r="BH8" s="77"/>
-      <c r="BI8" s="77"/>
-      <c r="BJ8" s="77"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="83"/>
+      <c r="Q8" s="83"/>
+      <c r="R8" s="83"/>
+      <c r="S8" s="83"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="83"/>
+      <c r="V8" s="83"/>
+      <c r="W8" s="83"/>
+      <c r="X8" s="83"/>
+      <c r="Y8" s="83"/>
+      <c r="Z8" s="83"/>
+      <c r="AA8" s="83"/>
+      <c r="AB8" s="83"/>
+      <c r="AC8" s="83"/>
+      <c r="AD8" s="83"/>
+      <c r="AE8" s="83"/>
+      <c r="AF8" s="83"/>
+      <c r="AG8" s="83"/>
+      <c r="AH8" s="83"/>
+      <c r="AI8" s="83"/>
+      <c r="AJ8" s="83"/>
+      <c r="AK8" s="84"/>
+      <c r="AL8" s="73"/>
+      <c r="AM8" s="73"/>
+      <c r="AN8" s="73"/>
+      <c r="AO8" s="73"/>
+      <c r="AP8" s="73"/>
+      <c r="AQ8" s="73"/>
+      <c r="AR8" s="73"/>
+      <c r="AS8" s="73"/>
+      <c r="AT8" s="73"/>
+      <c r="AU8" s="73"/>
+      <c r="AV8" s="73"/>
+      <c r="AW8" s="73"/>
+      <c r="AX8" s="73"/>
+      <c r="AY8" s="73"/>
+      <c r="AZ8" s="73"/>
+      <c r="BA8" s="73"/>
+      <c r="BB8" s="73"/>
+      <c r="BC8" s="73"/>
+      <c r="BD8" s="73"/>
+      <c r="BE8" s="73"/>
+      <c r="BF8" s="73"/>
+      <c r="BG8" s="73"/>
+      <c r="BH8" s="73"/>
+      <c r="BI8" s="73"/>
+      <c r="BJ8" s="73"/>
       <c r="BK8" s="2"/>
       <c r="BL8" s="16"/>
     </row>
     <row r="9" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="16"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="79" t="s">
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="72" t="s">
         <v>168</v>
       </c>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="79"/>
-      <c r="R9" s="79"/>
-      <c r="S9" s="79"/>
-      <c r="T9" s="79"/>
-      <c r="U9" s="79"/>
-      <c r="V9" s="79"/>
-      <c r="W9" s="79"/>
-      <c r="X9" s="79"/>
-      <c r="Y9" s="79"/>
-      <c r="Z9" s="79"/>
-      <c r="AA9" s="79"/>
-      <c r="AB9" s="79"/>
-      <c r="AC9" s="79"/>
-      <c r="AD9" s="79"/>
-      <c r="AE9" s="79"/>
-      <c r="AF9" s="79"/>
-      <c r="AG9" s="79"/>
-      <c r="AH9" s="79"/>
-      <c r="AI9" s="79"/>
-      <c r="AJ9" s="79"/>
-      <c r="AK9" s="79"/>
-      <c r="AL9" s="77"/>
-      <c r="AM9" s="77"/>
-      <c r="AN9" s="77"/>
-      <c r="AO9" s="77"/>
-      <c r="AP9" s="77"/>
-      <c r="AQ9" s="77"/>
-      <c r="AR9" s="77"/>
-      <c r="AS9" s="77"/>
-      <c r="AT9" s="77"/>
-      <c r="AU9" s="77"/>
-      <c r="AV9" s="77"/>
-      <c r="AW9" s="77"/>
-      <c r="AX9" s="77"/>
-      <c r="AY9" s="77"/>
-      <c r="AZ9" s="77"/>
-      <c r="BA9" s="77"/>
-      <c r="BB9" s="77"/>
-      <c r="BC9" s="77"/>
-      <c r="BD9" s="77"/>
-      <c r="BE9" s="77"/>
-      <c r="BF9" s="77"/>
-      <c r="BG9" s="77"/>
-      <c r="BH9" s="77"/>
-      <c r="BI9" s="77"/>
-      <c r="BJ9" s="77"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="72"/>
+      <c r="AA9" s="72"/>
+      <c r="AB9" s="72"/>
+      <c r="AC9" s="72"/>
+      <c r="AD9" s="72"/>
+      <c r="AE9" s="72"/>
+      <c r="AF9" s="72"/>
+      <c r="AG9" s="72"/>
+      <c r="AH9" s="72"/>
+      <c r="AI9" s="72"/>
+      <c r="AJ9" s="72"/>
+      <c r="AK9" s="72"/>
+      <c r="AL9" s="73"/>
+      <c r="AM9" s="73"/>
+      <c r="AN9" s="73"/>
+      <c r="AO9" s="73"/>
+      <c r="AP9" s="73"/>
+      <c r="AQ9" s="73"/>
+      <c r="AR9" s="73"/>
+      <c r="AS9" s="73"/>
+      <c r="AT9" s="73"/>
+      <c r="AU9" s="73"/>
+      <c r="AV9" s="73"/>
+      <c r="AW9" s="73"/>
+      <c r="AX9" s="73"/>
+      <c r="AY9" s="73"/>
+      <c r="AZ9" s="73"/>
+      <c r="BA9" s="73"/>
+      <c r="BB9" s="73"/>
+      <c r="BC9" s="73"/>
+      <c r="BD9" s="73"/>
+      <c r="BE9" s="73"/>
+      <c r="BF9" s="73"/>
+      <c r="BG9" s="73"/>
+      <c r="BH9" s="73"/>
+      <c r="BI9" s="73"/>
+      <c r="BJ9" s="73"/>
       <c r="BK9" s="2"/>
       <c r="BL9" s="16"/>
     </row>
     <row r="10" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="16"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="79" t="s">
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="79"/>
-      <c r="P10" s="79"/>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="79"/>
-      <c r="S10" s="79"/>
-      <c r="T10" s="79"/>
-      <c r="U10" s="79"/>
-      <c r="V10" s="79"/>
-      <c r="W10" s="79"/>
-      <c r="X10" s="79"/>
-      <c r="Y10" s="79"/>
-      <c r="Z10" s="79"/>
-      <c r="AA10" s="79"/>
-      <c r="AB10" s="79"/>
-      <c r="AC10" s="79"/>
-      <c r="AD10" s="79"/>
-      <c r="AE10" s="79"/>
-      <c r="AF10" s="79"/>
-      <c r="AG10" s="79"/>
-      <c r="AH10" s="79"/>
-      <c r="AI10" s="79"/>
-      <c r="AJ10" s="79"/>
-      <c r="AK10" s="79"/>
-      <c r="AL10" s="77"/>
-      <c r="AM10" s="77"/>
-      <c r="AN10" s="77"/>
-      <c r="AO10" s="77"/>
-      <c r="AP10" s="77"/>
-      <c r="AQ10" s="77"/>
-      <c r="AR10" s="77"/>
-      <c r="AS10" s="77"/>
-      <c r="AT10" s="77"/>
-      <c r="AU10" s="77"/>
-      <c r="AV10" s="77"/>
-      <c r="AW10" s="77"/>
-      <c r="AX10" s="77"/>
-      <c r="AY10" s="77"/>
-      <c r="AZ10" s="77"/>
-      <c r="BA10" s="77"/>
-      <c r="BB10" s="77"/>
-      <c r="BC10" s="77"/>
-      <c r="BD10" s="77"/>
-      <c r="BE10" s="77"/>
-      <c r="BF10" s="77"/>
-      <c r="BG10" s="77"/>
-      <c r="BH10" s="77"/>
-      <c r="BI10" s="77"/>
-      <c r="BJ10" s="77"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="72"/>
+      <c r="X10" s="72"/>
+      <c r="Y10" s="72"/>
+      <c r="Z10" s="72"/>
+      <c r="AA10" s="72"/>
+      <c r="AB10" s="72"/>
+      <c r="AC10" s="72"/>
+      <c r="AD10" s="72"/>
+      <c r="AE10" s="72"/>
+      <c r="AF10" s="72"/>
+      <c r="AG10" s="72"/>
+      <c r="AH10" s="72"/>
+      <c r="AI10" s="72"/>
+      <c r="AJ10" s="72"/>
+      <c r="AK10" s="72"/>
+      <c r="AL10" s="73"/>
+      <c r="AM10" s="73"/>
+      <c r="AN10" s="73"/>
+      <c r="AO10" s="73"/>
+      <c r="AP10" s="73"/>
+      <c r="AQ10" s="73"/>
+      <c r="AR10" s="73"/>
+      <c r="AS10" s="73"/>
+      <c r="AT10" s="73"/>
+      <c r="AU10" s="73"/>
+      <c r="AV10" s="73"/>
+      <c r="AW10" s="73"/>
+      <c r="AX10" s="73"/>
+      <c r="AY10" s="73"/>
+      <c r="AZ10" s="73"/>
+      <c r="BA10" s="73"/>
+      <c r="BB10" s="73"/>
+      <c r="BC10" s="73"/>
+      <c r="BD10" s="73"/>
+      <c r="BE10" s="73"/>
+      <c r="BF10" s="73"/>
+      <c r="BG10" s="73"/>
+      <c r="BH10" s="73"/>
+      <c r="BI10" s="73"/>
+      <c r="BJ10" s="73"/>
       <c r="BK10" s="2"/>
       <c r="BL10" s="16"/>
     </row>
     <row r="11" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="16"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="79" t="s">
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="72" t="s">
         <v>170</v>
       </c>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="79"/>
-      <c r="P11" s="79"/>
-      <c r="Q11" s="79"/>
-      <c r="R11" s="79"/>
-      <c r="S11" s="79"/>
-      <c r="T11" s="79"/>
-      <c r="U11" s="79"/>
-      <c r="V11" s="79"/>
-      <c r="W11" s="79"/>
-      <c r="X11" s="79"/>
-      <c r="Y11" s="79"/>
-      <c r="Z11" s="79"/>
-      <c r="AA11" s="79"/>
-      <c r="AB11" s="79"/>
-      <c r="AC11" s="79"/>
-      <c r="AD11" s="79"/>
-      <c r="AE11" s="79"/>
-      <c r="AF11" s="79"/>
-      <c r="AG11" s="79"/>
-      <c r="AH11" s="79"/>
-      <c r="AI11" s="79"/>
-      <c r="AJ11" s="79"/>
-      <c r="AK11" s="79"/>
-      <c r="AL11" s="77"/>
-      <c r="AM11" s="77"/>
-      <c r="AN11" s="77"/>
-      <c r="AO11" s="77"/>
-      <c r="AP11" s="77"/>
-      <c r="AQ11" s="77"/>
-      <c r="AR11" s="77"/>
-      <c r="AS11" s="77"/>
-      <c r="AT11" s="77"/>
-      <c r="AU11" s="77"/>
-      <c r="AV11" s="77"/>
-      <c r="AW11" s="77"/>
-      <c r="AX11" s="77"/>
-      <c r="AY11" s="77"/>
-      <c r="AZ11" s="77"/>
-      <c r="BA11" s="77"/>
-      <c r="BB11" s="77"/>
-      <c r="BC11" s="77"/>
-      <c r="BD11" s="77"/>
-      <c r="BE11" s="77"/>
-      <c r="BF11" s="77"/>
-      <c r="BG11" s="77"/>
-      <c r="BH11" s="77"/>
-      <c r="BI11" s="77"/>
-      <c r="BJ11" s="77"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="72"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="72"/>
+      <c r="U11" s="72"/>
+      <c r="V11" s="72"/>
+      <c r="W11" s="72"/>
+      <c r="X11" s="72"/>
+      <c r="Y11" s="72"/>
+      <c r="Z11" s="72"/>
+      <c r="AA11" s="72"/>
+      <c r="AB11" s="72"/>
+      <c r="AC11" s="72"/>
+      <c r="AD11" s="72"/>
+      <c r="AE11" s="72"/>
+      <c r="AF11" s="72"/>
+      <c r="AG11" s="72"/>
+      <c r="AH11" s="72"/>
+      <c r="AI11" s="72"/>
+      <c r="AJ11" s="72"/>
+      <c r="AK11" s="72"/>
+      <c r="AL11" s="73"/>
+      <c r="AM11" s="73"/>
+      <c r="AN11" s="73"/>
+      <c r="AO11" s="73"/>
+      <c r="AP11" s="73"/>
+      <c r="AQ11" s="73"/>
+      <c r="AR11" s="73"/>
+      <c r="AS11" s="73"/>
+      <c r="AT11" s="73"/>
+      <c r="AU11" s="73"/>
+      <c r="AV11" s="73"/>
+      <c r="AW11" s="73"/>
+      <c r="AX11" s="73"/>
+      <c r="AY11" s="73"/>
+      <c r="AZ11" s="73"/>
+      <c r="BA11" s="73"/>
+      <c r="BB11" s="73"/>
+      <c r="BC11" s="73"/>
+      <c r="BD11" s="73"/>
+      <c r="BE11" s="73"/>
+      <c r="BF11" s="73"/>
+      <c r="BG11" s="73"/>
+      <c r="BH11" s="73"/>
+      <c r="BI11" s="73"/>
+      <c r="BJ11" s="73"/>
       <c r="BK11" s="2"/>
       <c r="BL11" s="16"/>
     </row>
     <row r="12" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="16"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="79" t="s">
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="72" t="s">
         <v>171</v>
       </c>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="79"/>
-      <c r="O12" s="79"/>
-      <c r="P12" s="79"/>
-      <c r="Q12" s="79"/>
-      <c r="R12" s="79"/>
-      <c r="S12" s="79"/>
-      <c r="T12" s="79"/>
-      <c r="U12" s="79"/>
-      <c r="V12" s="79"/>
-      <c r="W12" s="79"/>
-      <c r="X12" s="79"/>
-      <c r="Y12" s="79"/>
-      <c r="Z12" s="79"/>
-      <c r="AA12" s="79"/>
-      <c r="AB12" s="79"/>
-      <c r="AC12" s="79"/>
-      <c r="AD12" s="79"/>
-      <c r="AE12" s="79"/>
-      <c r="AF12" s="79"/>
-      <c r="AG12" s="79"/>
-      <c r="AH12" s="79"/>
-      <c r="AI12" s="79"/>
-      <c r="AJ12" s="79"/>
-      <c r="AK12" s="79"/>
-      <c r="AL12" s="77"/>
-      <c r="AM12" s="77"/>
-      <c r="AN12" s="77"/>
-      <c r="AO12" s="77"/>
-      <c r="AP12" s="77"/>
-      <c r="AQ12" s="77"/>
-      <c r="AR12" s="77"/>
-      <c r="AS12" s="77"/>
-      <c r="AT12" s="77"/>
-      <c r="AU12" s="77"/>
-      <c r="AV12" s="77"/>
-      <c r="AW12" s="77"/>
-      <c r="AX12" s="77"/>
-      <c r="AY12" s="77"/>
-      <c r="AZ12" s="77"/>
-      <c r="BA12" s="77"/>
-      <c r="BB12" s="77"/>
-      <c r="BC12" s="77"/>
-      <c r="BD12" s="77"/>
-      <c r="BE12" s="77"/>
-      <c r="BF12" s="77"/>
-      <c r="BG12" s="77"/>
-      <c r="BH12" s="77"/>
-      <c r="BI12" s="77"/>
-      <c r="BJ12" s="77"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="72"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="72"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="72"/>
+      <c r="W12" s="72"/>
+      <c r="X12" s="72"/>
+      <c r="Y12" s="72"/>
+      <c r="Z12" s="72"/>
+      <c r="AA12" s="72"/>
+      <c r="AB12" s="72"/>
+      <c r="AC12" s="72"/>
+      <c r="AD12" s="72"/>
+      <c r="AE12" s="72"/>
+      <c r="AF12" s="72"/>
+      <c r="AG12" s="72"/>
+      <c r="AH12" s="72"/>
+      <c r="AI12" s="72"/>
+      <c r="AJ12" s="72"/>
+      <c r="AK12" s="72"/>
+      <c r="AL12" s="73"/>
+      <c r="AM12" s="73"/>
+      <c r="AN12" s="73"/>
+      <c r="AO12" s="73"/>
+      <c r="AP12" s="73"/>
+      <c r="AQ12" s="73"/>
+      <c r="AR12" s="73"/>
+      <c r="AS12" s="73"/>
+      <c r="AT12" s="73"/>
+      <c r="AU12" s="73"/>
+      <c r="AV12" s="73"/>
+      <c r="AW12" s="73"/>
+      <c r="AX12" s="73"/>
+      <c r="AY12" s="73"/>
+      <c r="AZ12" s="73"/>
+      <c r="BA12" s="73"/>
+      <c r="BB12" s="73"/>
+      <c r="BC12" s="73"/>
+      <c r="BD12" s="73"/>
+      <c r="BE12" s="73"/>
+      <c r="BF12" s="73"/>
+      <c r="BG12" s="73"/>
+      <c r="BH12" s="73"/>
+      <c r="BI12" s="73"/>
+      <c r="BJ12" s="73"/>
       <c r="BK12" s="2"/>
       <c r="BL12" s="16"/>
     </row>
     <row r="13" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="16"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="79" t="s">
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="72" t="s">
         <v>172</v>
       </c>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="79"/>
-      <c r="P13" s="79"/>
-      <c r="Q13" s="79"/>
-      <c r="R13" s="79"/>
-      <c r="S13" s="79"/>
-      <c r="T13" s="79"/>
-      <c r="U13" s="79"/>
-      <c r="V13" s="79"/>
-      <c r="W13" s="79"/>
-      <c r="X13" s="79"/>
-      <c r="Y13" s="79"/>
-      <c r="Z13" s="79"/>
-      <c r="AA13" s="79"/>
-      <c r="AB13" s="79"/>
-      <c r="AC13" s="79"/>
-      <c r="AD13" s="79"/>
-      <c r="AE13" s="79"/>
-      <c r="AF13" s="79"/>
-      <c r="AG13" s="79"/>
-      <c r="AH13" s="79"/>
-      <c r="AI13" s="79"/>
-      <c r="AJ13" s="79"/>
-      <c r="AK13" s="79"/>
-      <c r="AL13" s="77"/>
-      <c r="AM13" s="77"/>
-      <c r="AN13" s="77"/>
-      <c r="AO13" s="77"/>
-      <c r="AP13" s="77"/>
-      <c r="AQ13" s="77"/>
-      <c r="AR13" s="77"/>
-      <c r="AS13" s="77"/>
-      <c r="AT13" s="77"/>
-      <c r="AU13" s="77"/>
-      <c r="AV13" s="77"/>
-      <c r="AW13" s="77"/>
-      <c r="AX13" s="77"/>
-      <c r="AY13" s="77"/>
-      <c r="AZ13" s="77"/>
-      <c r="BA13" s="77"/>
-      <c r="BB13" s="77"/>
-      <c r="BC13" s="77"/>
-      <c r="BD13" s="77"/>
-      <c r="BE13" s="77"/>
-      <c r="BF13" s="77"/>
-      <c r="BG13" s="77"/>
-      <c r="BH13" s="77"/>
-      <c r="BI13" s="77"/>
-      <c r="BJ13" s="77"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="72"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="72"/>
+      <c r="U13" s="72"/>
+      <c r="V13" s="72"/>
+      <c r="W13" s="72"/>
+      <c r="X13" s="72"/>
+      <c r="Y13" s="72"/>
+      <c r="Z13" s="72"/>
+      <c r="AA13" s="72"/>
+      <c r="AB13" s="72"/>
+      <c r="AC13" s="72"/>
+      <c r="AD13" s="72"/>
+      <c r="AE13" s="72"/>
+      <c r="AF13" s="72"/>
+      <c r="AG13" s="72"/>
+      <c r="AH13" s="72"/>
+      <c r="AI13" s="72"/>
+      <c r="AJ13" s="72"/>
+      <c r="AK13" s="72"/>
+      <c r="AL13" s="73"/>
+      <c r="AM13" s="73"/>
+      <c r="AN13" s="73"/>
+      <c r="AO13" s="73"/>
+      <c r="AP13" s="73"/>
+      <c r="AQ13" s="73"/>
+      <c r="AR13" s="73"/>
+      <c r="AS13" s="73"/>
+      <c r="AT13" s="73"/>
+      <c r="AU13" s="73"/>
+      <c r="AV13" s="73"/>
+      <c r="AW13" s="73"/>
+      <c r="AX13" s="73"/>
+      <c r="AY13" s="73"/>
+      <c r="AZ13" s="73"/>
+      <c r="BA13" s="73"/>
+      <c r="BB13" s="73"/>
+      <c r="BC13" s="73"/>
+      <c r="BD13" s="73"/>
+      <c r="BE13" s="73"/>
+      <c r="BF13" s="73"/>
+      <c r="BG13" s="73"/>
+      <c r="BH13" s="73"/>
+      <c r="BI13" s="73"/>
+      <c r="BJ13" s="73"/>
       <c r="BK13" s="2"/>
       <c r="BL13" s="16"/>
     </row>
     <row r="14" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="16"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="79" t="s">
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="79"/>
-      <c r="O14" s="79"/>
-      <c r="P14" s="79"/>
-      <c r="Q14" s="79"/>
-      <c r="R14" s="79"/>
-      <c r="S14" s="79"/>
-      <c r="T14" s="79"/>
-      <c r="U14" s="79"/>
-      <c r="V14" s="79"/>
-      <c r="W14" s="79"/>
-      <c r="X14" s="79"/>
-      <c r="Y14" s="79"/>
-      <c r="Z14" s="79"/>
-      <c r="AA14" s="79"/>
-      <c r="AB14" s="79"/>
-      <c r="AC14" s="79"/>
-      <c r="AD14" s="79"/>
-      <c r="AE14" s="79"/>
-      <c r="AF14" s="79"/>
-      <c r="AG14" s="79"/>
-      <c r="AH14" s="79"/>
-      <c r="AI14" s="79"/>
-      <c r="AJ14" s="79"/>
-      <c r="AK14" s="79"/>
-      <c r="AL14" s="77"/>
-      <c r="AM14" s="77"/>
-      <c r="AN14" s="77"/>
-      <c r="AO14" s="77"/>
-      <c r="AP14" s="77"/>
-      <c r="AQ14" s="77"/>
-      <c r="AR14" s="77"/>
-      <c r="AS14" s="77"/>
-      <c r="AT14" s="77"/>
-      <c r="AU14" s="77"/>
-      <c r="AV14" s="77"/>
-      <c r="AW14" s="77"/>
-      <c r="AX14" s="77"/>
-      <c r="AY14" s="77"/>
-      <c r="AZ14" s="77"/>
-      <c r="BA14" s="77"/>
-      <c r="BB14" s="77"/>
-      <c r="BC14" s="77"/>
-      <c r="BD14" s="77"/>
-      <c r="BE14" s="77"/>
-      <c r="BF14" s="77"/>
-      <c r="BG14" s="77"/>
-      <c r="BH14" s="77"/>
-      <c r="BI14" s="77"/>
-      <c r="BJ14" s="77"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="72"/>
+      <c r="R14" s="72"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="72"/>
+      <c r="V14" s="72"/>
+      <c r="W14" s="72"/>
+      <c r="X14" s="72"/>
+      <c r="Y14" s="72"/>
+      <c r="Z14" s="72"/>
+      <c r="AA14" s="72"/>
+      <c r="AB14" s="72"/>
+      <c r="AC14" s="72"/>
+      <c r="AD14" s="72"/>
+      <c r="AE14" s="72"/>
+      <c r="AF14" s="72"/>
+      <c r="AG14" s="72"/>
+      <c r="AH14" s="72"/>
+      <c r="AI14" s="72"/>
+      <c r="AJ14" s="72"/>
+      <c r="AK14" s="72"/>
+      <c r="AL14" s="73"/>
+      <c r="AM14" s="73"/>
+      <c r="AN14" s="73"/>
+      <c r="AO14" s="73"/>
+      <c r="AP14" s="73"/>
+      <c r="AQ14" s="73"/>
+      <c r="AR14" s="73"/>
+      <c r="AS14" s="73"/>
+      <c r="AT14" s="73"/>
+      <c r="AU14" s="73"/>
+      <c r="AV14" s="73"/>
+      <c r="AW14" s="73"/>
+      <c r="AX14" s="73"/>
+      <c r="AY14" s="73"/>
+      <c r="AZ14" s="73"/>
+      <c r="BA14" s="73"/>
+      <c r="BB14" s="73"/>
+      <c r="BC14" s="73"/>
+      <c r="BD14" s="73"/>
+      <c r="BE14" s="73"/>
+      <c r="BF14" s="73"/>
+      <c r="BG14" s="73"/>
+      <c r="BH14" s="73"/>
+      <c r="BI14" s="73"/>
+      <c r="BJ14" s="73"/>
       <c r="BK14" s="2"/>
       <c r="BL14" s="16"/>
     </row>
     <row r="15" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="16"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="79" t="s">
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="79"/>
-      <c r="O15" s="79"/>
-      <c r="P15" s="79"/>
-      <c r="Q15" s="79"/>
-      <c r="R15" s="79"/>
-      <c r="S15" s="79"/>
-      <c r="T15" s="79"/>
-      <c r="U15" s="79"/>
-      <c r="V15" s="79"/>
-      <c r="W15" s="79"/>
-      <c r="X15" s="79"/>
-      <c r="Y15" s="79"/>
-      <c r="Z15" s="79"/>
-      <c r="AA15" s="79"/>
-      <c r="AB15" s="79"/>
-      <c r="AC15" s="79"/>
-      <c r="AD15" s="79"/>
-      <c r="AE15" s="79"/>
-      <c r="AF15" s="79"/>
-      <c r="AG15" s="79"/>
-      <c r="AH15" s="79"/>
-      <c r="AI15" s="79"/>
-      <c r="AJ15" s="79"/>
-      <c r="AK15" s="79"/>
-      <c r="AL15" s="77"/>
-      <c r="AM15" s="77"/>
-      <c r="AN15" s="77"/>
-      <c r="AO15" s="77"/>
-      <c r="AP15" s="77"/>
-      <c r="AQ15" s="77"/>
-      <c r="AR15" s="77"/>
-      <c r="AS15" s="77"/>
-      <c r="AT15" s="77"/>
-      <c r="AU15" s="77"/>
-      <c r="AV15" s="77"/>
-      <c r="AW15" s="77"/>
-      <c r="AX15" s="77"/>
-      <c r="AY15" s="77"/>
-      <c r="AZ15" s="77"/>
-      <c r="BA15" s="77"/>
-      <c r="BB15" s="77"/>
-      <c r="BC15" s="77"/>
-      <c r="BD15" s="77"/>
-      <c r="BE15" s="77"/>
-      <c r="BF15" s="77"/>
-      <c r="BG15" s="77"/>
-      <c r="BH15" s="77"/>
-      <c r="BI15" s="77"/>
-      <c r="BJ15" s="77"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="72"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="72"/>
+      <c r="W15" s="72"/>
+      <c r="X15" s="72"/>
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="72"/>
+      <c r="AA15" s="72"/>
+      <c r="AB15" s="72"/>
+      <c r="AC15" s="72"/>
+      <c r="AD15" s="72"/>
+      <c r="AE15" s="72"/>
+      <c r="AF15" s="72"/>
+      <c r="AG15" s="72"/>
+      <c r="AH15" s="72"/>
+      <c r="AI15" s="72"/>
+      <c r="AJ15" s="72"/>
+      <c r="AK15" s="72"/>
+      <c r="AL15" s="73"/>
+      <c r="AM15" s="73"/>
+      <c r="AN15" s="73"/>
+      <c r="AO15" s="73"/>
+      <c r="AP15" s="73"/>
+      <c r="AQ15" s="73"/>
+      <c r="AR15" s="73"/>
+      <c r="AS15" s="73"/>
+      <c r="AT15" s="73"/>
+      <c r="AU15" s="73"/>
+      <c r="AV15" s="73"/>
+      <c r="AW15" s="73"/>
+      <c r="AX15" s="73"/>
+      <c r="AY15" s="73"/>
+      <c r="AZ15" s="73"/>
+      <c r="BA15" s="73"/>
+      <c r="BB15" s="73"/>
+      <c r="BC15" s="73"/>
+      <c r="BD15" s="73"/>
+      <c r="BE15" s="73"/>
+      <c r="BF15" s="73"/>
+      <c r="BG15" s="73"/>
+      <c r="BH15" s="73"/>
+      <c r="BI15" s="73"/>
+      <c r="BJ15" s="73"/>
       <c r="BK15" s="2"/>
       <c r="BL15" s="16"/>
     </row>
     <row r="16" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="16"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="79" t="s">
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="72" t="s">
         <v>176</v>
       </c>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="79"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="79"/>
-      <c r="O16" s="79"/>
-      <c r="P16" s="79"/>
-      <c r="Q16" s="79"/>
-      <c r="R16" s="79"/>
-      <c r="S16" s="79"/>
-      <c r="T16" s="79"/>
-      <c r="U16" s="79"/>
-      <c r="V16" s="79"/>
-      <c r="W16" s="79"/>
-      <c r="X16" s="79"/>
-      <c r="Y16" s="79"/>
-      <c r="Z16" s="79"/>
-      <c r="AA16" s="79"/>
-      <c r="AB16" s="79"/>
-      <c r="AC16" s="79"/>
-      <c r="AD16" s="79"/>
-      <c r="AE16" s="79"/>
-      <c r="AF16" s="79"/>
-      <c r="AG16" s="79"/>
-      <c r="AH16" s="79"/>
-      <c r="AI16" s="79"/>
-      <c r="AJ16" s="79"/>
-      <c r="AK16" s="79"/>
-      <c r="AL16" s="77"/>
-      <c r="AM16" s="77"/>
-      <c r="AN16" s="77"/>
-      <c r="AO16" s="77"/>
-      <c r="AP16" s="77"/>
-      <c r="AQ16" s="77"/>
-      <c r="AR16" s="77"/>
-      <c r="AS16" s="77"/>
-      <c r="AT16" s="77"/>
-      <c r="AU16" s="77"/>
-      <c r="AV16" s="77"/>
-      <c r="AW16" s="77"/>
-      <c r="AX16" s="77"/>
-      <c r="AY16" s="77"/>
-      <c r="AZ16" s="77"/>
-      <c r="BA16" s="77"/>
-      <c r="BB16" s="77"/>
-      <c r="BC16" s="77"/>
-      <c r="BD16" s="77"/>
-      <c r="BE16" s="77"/>
-      <c r="BF16" s="77"/>
-      <c r="BG16" s="77"/>
-      <c r="BH16" s="77"/>
-      <c r="BI16" s="77"/>
-      <c r="BJ16" s="77"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="72"/>
+      <c r="AB16" s="72"/>
+      <c r="AC16" s="72"/>
+      <c r="AD16" s="72"/>
+      <c r="AE16" s="72"/>
+      <c r="AF16" s="72"/>
+      <c r="AG16" s="72"/>
+      <c r="AH16" s="72"/>
+      <c r="AI16" s="72"/>
+      <c r="AJ16" s="72"/>
+      <c r="AK16" s="72"/>
+      <c r="AL16" s="73"/>
+      <c r="AM16" s="73"/>
+      <c r="AN16" s="73"/>
+      <c r="AO16" s="73"/>
+      <c r="AP16" s="73"/>
+      <c r="AQ16" s="73"/>
+      <c r="AR16" s="73"/>
+      <c r="AS16" s="73"/>
+      <c r="AT16" s="73"/>
+      <c r="AU16" s="73"/>
+      <c r="AV16" s="73"/>
+      <c r="AW16" s="73"/>
+      <c r="AX16" s="73"/>
+      <c r="AY16" s="73"/>
+      <c r="AZ16" s="73"/>
+      <c r="BA16" s="73"/>
+      <c r="BB16" s="73"/>
+      <c r="BC16" s="73"/>
+      <c r="BD16" s="73"/>
+      <c r="BE16" s="73"/>
+      <c r="BF16" s="73"/>
+      <c r="BG16" s="73"/>
+      <c r="BH16" s="73"/>
+      <c r="BI16" s="73"/>
+      <c r="BJ16" s="73"/>
       <c r="BK16" s="2"/>
       <c r="BL16" s="16"/>
     </row>
     <row r="17" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="16"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="79" t="s">
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="79"/>
-      <c r="O17" s="79"/>
-      <c r="P17" s="79"/>
-      <c r="Q17" s="79"/>
-      <c r="R17" s="79"/>
-      <c r="S17" s="79"/>
-      <c r="T17" s="79"/>
-      <c r="U17" s="79"/>
-      <c r="V17" s="79"/>
-      <c r="W17" s="79"/>
-      <c r="X17" s="79"/>
-      <c r="Y17" s="79"/>
-      <c r="Z17" s="79"/>
-      <c r="AA17" s="79"/>
-      <c r="AB17" s="79"/>
-      <c r="AC17" s="79"/>
-      <c r="AD17" s="79"/>
-      <c r="AE17" s="79"/>
-      <c r="AF17" s="79"/>
-      <c r="AG17" s="79"/>
-      <c r="AH17" s="79"/>
-      <c r="AI17" s="79"/>
-      <c r="AJ17" s="79"/>
-      <c r="AK17" s="79"/>
-      <c r="AL17" s="77"/>
-      <c r="AM17" s="77"/>
-      <c r="AN17" s="77"/>
-      <c r="AO17" s="77"/>
-      <c r="AP17" s="77"/>
-      <c r="AQ17" s="77"/>
-      <c r="AR17" s="77"/>
-      <c r="AS17" s="77"/>
-      <c r="AT17" s="77"/>
-      <c r="AU17" s="77"/>
-      <c r="AV17" s="77"/>
-      <c r="AW17" s="77"/>
-      <c r="AX17" s="77"/>
-      <c r="AY17" s="77"/>
-      <c r="AZ17" s="77"/>
-      <c r="BA17" s="77"/>
-      <c r="BB17" s="77"/>
-      <c r="BC17" s="77"/>
-      <c r="BD17" s="77"/>
-      <c r="BE17" s="77"/>
-      <c r="BF17" s="77"/>
-      <c r="BG17" s="77"/>
-      <c r="BH17" s="77"/>
-      <c r="BI17" s="77"/>
-      <c r="BJ17" s="77"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="72"/>
+      <c r="R17" s="72"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="72"/>
+      <c r="U17" s="72"/>
+      <c r="V17" s="72"/>
+      <c r="W17" s="72"/>
+      <c r="X17" s="72"/>
+      <c r="Y17" s="72"/>
+      <c r="Z17" s="72"/>
+      <c r="AA17" s="72"/>
+      <c r="AB17" s="72"/>
+      <c r="AC17" s="72"/>
+      <c r="AD17" s="72"/>
+      <c r="AE17" s="72"/>
+      <c r="AF17" s="72"/>
+      <c r="AG17" s="72"/>
+      <c r="AH17" s="72"/>
+      <c r="AI17" s="72"/>
+      <c r="AJ17" s="72"/>
+      <c r="AK17" s="72"/>
+      <c r="AL17" s="73"/>
+      <c r="AM17" s="73"/>
+      <c r="AN17" s="73"/>
+      <c r="AO17" s="73"/>
+      <c r="AP17" s="73"/>
+      <c r="AQ17" s="73"/>
+      <c r="AR17" s="73"/>
+      <c r="AS17" s="73"/>
+      <c r="AT17" s="73"/>
+      <c r="AU17" s="73"/>
+      <c r="AV17" s="73"/>
+      <c r="AW17" s="73"/>
+      <c r="AX17" s="73"/>
+      <c r="AY17" s="73"/>
+      <c r="AZ17" s="73"/>
+      <c r="BA17" s="73"/>
+      <c r="BB17" s="73"/>
+      <c r="BC17" s="73"/>
+      <c r="BD17" s="73"/>
+      <c r="BE17" s="73"/>
+      <c r="BF17" s="73"/>
+      <c r="BG17" s="73"/>
+      <c r="BH17" s="73"/>
+      <c r="BI17" s="73"/>
+      <c r="BJ17" s="73"/>
       <c r="BK17" s="2"/>
       <c r="BL17" s="16"/>
     </row>
     <row r="18" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="16"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="79" t="s">
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="79"/>
-      <c r="R18" s="79"/>
-      <c r="S18" s="79"/>
-      <c r="T18" s="79"/>
-      <c r="U18" s="79"/>
-      <c r="V18" s="79"/>
-      <c r="W18" s="79"/>
-      <c r="X18" s="79"/>
-      <c r="Y18" s="79"/>
-      <c r="Z18" s="79"/>
-      <c r="AA18" s="79"/>
-      <c r="AB18" s="79"/>
-      <c r="AC18" s="79"/>
-      <c r="AD18" s="79"/>
-      <c r="AE18" s="79"/>
-      <c r="AF18" s="79"/>
-      <c r="AG18" s="79"/>
-      <c r="AH18" s="79"/>
-      <c r="AI18" s="79"/>
-      <c r="AJ18" s="79"/>
-      <c r="AK18" s="79"/>
-      <c r="AL18" s="77" t="s">
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="72"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="72"/>
+      <c r="U18" s="72"/>
+      <c r="V18" s="72"/>
+      <c r="W18" s="72"/>
+      <c r="X18" s="72"/>
+      <c r="Y18" s="72"/>
+      <c r="Z18" s="72"/>
+      <c r="AA18" s="72"/>
+      <c r="AB18" s="72"/>
+      <c r="AC18" s="72"/>
+      <c r="AD18" s="72"/>
+      <c r="AE18" s="72"/>
+      <c r="AF18" s="72"/>
+      <c r="AG18" s="72"/>
+      <c r="AH18" s="72"/>
+      <c r="AI18" s="72"/>
+      <c r="AJ18" s="72"/>
+      <c r="AK18" s="72"/>
+      <c r="AL18" s="73" t="s">
         <v>216</v>
       </c>
-      <c r="AM18" s="77"/>
-      <c r="AN18" s="77"/>
-      <c r="AO18" s="77"/>
-      <c r="AP18" s="77"/>
-      <c r="AQ18" s="77"/>
-      <c r="AR18" s="77"/>
-      <c r="AS18" s="77"/>
-      <c r="AT18" s="77"/>
-      <c r="AU18" s="77"/>
-      <c r="AV18" s="77"/>
-      <c r="AW18" s="77"/>
-      <c r="AX18" s="77"/>
-      <c r="AY18" s="77"/>
-      <c r="AZ18" s="77"/>
-      <c r="BA18" s="77"/>
-      <c r="BB18" s="77"/>
-      <c r="BC18" s="77"/>
-      <c r="BD18" s="77"/>
-      <c r="BE18" s="77"/>
-      <c r="BF18" s="77"/>
-      <c r="BG18" s="77"/>
-      <c r="BH18" s="77"/>
-      <c r="BI18" s="77"/>
-      <c r="BJ18" s="77"/>
+      <c r="AM18" s="73"/>
+      <c r="AN18" s="73"/>
+      <c r="AO18" s="73"/>
+      <c r="AP18" s="73"/>
+      <c r="AQ18" s="73"/>
+      <c r="AR18" s="73"/>
+      <c r="AS18" s="73"/>
+      <c r="AT18" s="73"/>
+      <c r="AU18" s="73"/>
+      <c r="AV18" s="73"/>
+      <c r="AW18" s="73"/>
+      <c r="AX18" s="73"/>
+      <c r="AY18" s="73"/>
+      <c r="AZ18" s="73"/>
+      <c r="BA18" s="73"/>
+      <c r="BB18" s="73"/>
+      <c r="BC18" s="73"/>
+      <c r="BD18" s="73"/>
+      <c r="BE18" s="73"/>
+      <c r="BF18" s="73"/>
+      <c r="BG18" s="73"/>
+      <c r="BH18" s="73"/>
+      <c r="BI18" s="73"/>
+      <c r="BJ18" s="73"/>
       <c r="BK18" s="2"/>
       <c r="BL18" s="16"/>
     </row>
     <row r="19" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="16"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="80" t="s">
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="81"/>
-      <c r="S19" s="81"/>
-      <c r="T19" s="81"/>
-      <c r="U19" s="81"/>
-      <c r="V19" s="81"/>
-      <c r="W19" s="81"/>
-      <c r="X19" s="81"/>
-      <c r="Y19" s="81"/>
-      <c r="Z19" s="81"/>
-      <c r="AA19" s="81"/>
-      <c r="AB19" s="81"/>
-      <c r="AC19" s="81"/>
-      <c r="AD19" s="81"/>
-      <c r="AE19" s="81"/>
-      <c r="AF19" s="81"/>
-      <c r="AG19" s="81"/>
-      <c r="AH19" s="81"/>
-      <c r="AI19" s="81"/>
-      <c r="AJ19" s="81"/>
-      <c r="AK19" s="82"/>
-      <c r="AL19" s="77" t="s">
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="78"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="78"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="78"/>
+      <c r="S19" s="78"/>
+      <c r="T19" s="78"/>
+      <c r="U19" s="78"/>
+      <c r="V19" s="78"/>
+      <c r="W19" s="78"/>
+      <c r="X19" s="78"/>
+      <c r="Y19" s="78"/>
+      <c r="Z19" s="78"/>
+      <c r="AA19" s="78"/>
+      <c r="AB19" s="78"/>
+      <c r="AC19" s="78"/>
+      <c r="AD19" s="78"/>
+      <c r="AE19" s="78"/>
+      <c r="AF19" s="78"/>
+      <c r="AG19" s="78"/>
+      <c r="AH19" s="78"/>
+      <c r="AI19" s="78"/>
+      <c r="AJ19" s="78"/>
+      <c r="AK19" s="79"/>
+      <c r="AL19" s="73" t="s">
         <v>217</v>
       </c>
-      <c r="AM19" s="77"/>
-      <c r="AN19" s="77"/>
-      <c r="AO19" s="77"/>
-      <c r="AP19" s="77"/>
-      <c r="AQ19" s="77"/>
-      <c r="AR19" s="77"/>
-      <c r="AS19" s="77"/>
-      <c r="AT19" s="77"/>
-      <c r="AU19" s="77"/>
-      <c r="AV19" s="77"/>
-      <c r="AW19" s="77"/>
-      <c r="AX19" s="77"/>
-      <c r="AY19" s="77"/>
-      <c r="AZ19" s="77"/>
-      <c r="BA19" s="77"/>
-      <c r="BB19" s="77"/>
-      <c r="BC19" s="77"/>
-      <c r="BD19" s="77"/>
-      <c r="BE19" s="77"/>
-      <c r="BF19" s="77"/>
-      <c r="BG19" s="77"/>
-      <c r="BH19" s="77"/>
-      <c r="BI19" s="77"/>
-      <c r="BJ19" s="77"/>
+      <c r="AM19" s="73"/>
+      <c r="AN19" s="73"/>
+      <c r="AO19" s="73"/>
+      <c r="AP19" s="73"/>
+      <c r="AQ19" s="73"/>
+      <c r="AR19" s="73"/>
+      <c r="AS19" s="73"/>
+      <c r="AT19" s="73"/>
+      <c r="AU19" s="73"/>
+      <c r="AV19" s="73"/>
+      <c r="AW19" s="73"/>
+      <c r="AX19" s="73"/>
+      <c r="AY19" s="73"/>
+      <c r="AZ19" s="73"/>
+      <c r="BA19" s="73"/>
+      <c r="BB19" s="73"/>
+      <c r="BC19" s="73"/>
+      <c r="BD19" s="73"/>
+      <c r="BE19" s="73"/>
+      <c r="BF19" s="73"/>
+      <c r="BG19" s="73"/>
+      <c r="BH19" s="73"/>
+      <c r="BI19" s="73"/>
+      <c r="BJ19" s="73"/>
       <c r="BK19" s="2"/>
       <c r="BL19" s="16"/>
     </row>
     <row r="20" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="16"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="83" t="s">
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="84"/>
-      <c r="P20" s="84"/>
-      <c r="Q20" s="84"/>
-      <c r="R20" s="84"/>
-      <c r="S20" s="84"/>
-      <c r="T20" s="84"/>
-      <c r="U20" s="84"/>
-      <c r="V20" s="84"/>
-      <c r="W20" s="84"/>
-      <c r="X20" s="84"/>
-      <c r="Y20" s="84"/>
-      <c r="Z20" s="84"/>
-      <c r="AA20" s="84"/>
-      <c r="AB20" s="84"/>
-      <c r="AC20" s="84"/>
-      <c r="AD20" s="84"/>
-      <c r="AE20" s="84"/>
-      <c r="AF20" s="84"/>
-      <c r="AG20" s="84"/>
-      <c r="AH20" s="84"/>
-      <c r="AI20" s="84"/>
-      <c r="AJ20" s="84"/>
-      <c r="AK20" s="85"/>
-      <c r="AL20" s="77" t="s">
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="75"/>
+      <c r="S20" s="75"/>
+      <c r="T20" s="75"/>
+      <c r="U20" s="75"/>
+      <c r="V20" s="75"/>
+      <c r="W20" s="75"/>
+      <c r="X20" s="75"/>
+      <c r="Y20" s="75"/>
+      <c r="Z20" s="75"/>
+      <c r="AA20" s="75"/>
+      <c r="AB20" s="75"/>
+      <c r="AC20" s="75"/>
+      <c r="AD20" s="75"/>
+      <c r="AE20" s="75"/>
+      <c r="AF20" s="75"/>
+      <c r="AG20" s="75"/>
+      <c r="AH20" s="75"/>
+      <c r="AI20" s="75"/>
+      <c r="AJ20" s="75"/>
+      <c r="AK20" s="76"/>
+      <c r="AL20" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="AM20" s="77"/>
-      <c r="AN20" s="77"/>
-      <c r="AO20" s="77"/>
-      <c r="AP20" s="77"/>
-      <c r="AQ20" s="77"/>
-      <c r="AR20" s="77"/>
-      <c r="AS20" s="77"/>
-      <c r="AT20" s="77"/>
-      <c r="AU20" s="77"/>
-      <c r="AV20" s="77"/>
-      <c r="AW20" s="77"/>
-      <c r="AX20" s="77"/>
-      <c r="AY20" s="77"/>
-      <c r="AZ20" s="77"/>
-      <c r="BA20" s="77"/>
-      <c r="BB20" s="77"/>
-      <c r="BC20" s="77"/>
-      <c r="BD20" s="77"/>
-      <c r="BE20" s="77"/>
-      <c r="BF20" s="77"/>
-      <c r="BG20" s="77"/>
-      <c r="BH20" s="77"/>
-      <c r="BI20" s="77"/>
-      <c r="BJ20" s="77"/>
+      <c r="AM20" s="73"/>
+      <c r="AN20" s="73"/>
+      <c r="AO20" s="73"/>
+      <c r="AP20" s="73"/>
+      <c r="AQ20" s="73"/>
+      <c r="AR20" s="73"/>
+      <c r="AS20" s="73"/>
+      <c r="AT20" s="73"/>
+      <c r="AU20" s="73"/>
+      <c r="AV20" s="73"/>
+      <c r="AW20" s="73"/>
+      <c r="AX20" s="73"/>
+      <c r="AY20" s="73"/>
+      <c r="AZ20" s="73"/>
+      <c r="BA20" s="73"/>
+      <c r="BB20" s="73"/>
+      <c r="BC20" s="73"/>
+      <c r="BD20" s="73"/>
+      <c r="BE20" s="73"/>
+      <c r="BF20" s="73"/>
+      <c r="BG20" s="73"/>
+      <c r="BH20" s="73"/>
+      <c r="BI20" s="73"/>
+      <c r="BJ20" s="73"/>
       <c r="BK20" s="2"/>
       <c r="BL20" s="16"/>
     </row>
     <row r="21" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="16"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="73" t="s">
+      <c r="C21" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="83" t="s">
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="84"/>
-      <c r="S21" s="84"/>
-      <c r="T21" s="84"/>
-      <c r="U21" s="84"/>
-      <c r="V21" s="84"/>
-      <c r="W21" s="84"/>
-      <c r="X21" s="84"/>
-      <c r="Y21" s="84"/>
-      <c r="Z21" s="84"/>
-      <c r="AA21" s="84"/>
-      <c r="AB21" s="84"/>
-      <c r="AC21" s="84"/>
-      <c r="AD21" s="84"/>
-      <c r="AE21" s="84"/>
-      <c r="AF21" s="84"/>
-      <c r="AG21" s="84"/>
-      <c r="AH21" s="84"/>
-      <c r="AI21" s="84"/>
-      <c r="AJ21" s="84"/>
-      <c r="AK21" s="85"/>
-      <c r="AL21" s="77"/>
-      <c r="AM21" s="77"/>
-      <c r="AN21" s="77"/>
-      <c r="AO21" s="77"/>
-      <c r="AP21" s="77"/>
-      <c r="AQ21" s="77"/>
-      <c r="AR21" s="77"/>
-      <c r="AS21" s="77"/>
-      <c r="AT21" s="77"/>
-      <c r="AU21" s="77"/>
-      <c r="AV21" s="77"/>
-      <c r="AW21" s="77"/>
-      <c r="AX21" s="77"/>
-      <c r="AY21" s="77"/>
-      <c r="AZ21" s="77"/>
-      <c r="BA21" s="77"/>
-      <c r="BB21" s="77"/>
-      <c r="BC21" s="77"/>
-      <c r="BD21" s="77"/>
-      <c r="BE21" s="77"/>
-      <c r="BF21" s="77"/>
-      <c r="BG21" s="77"/>
-      <c r="BH21" s="77"/>
-      <c r="BI21" s="77"/>
-      <c r="BJ21" s="77"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="75"/>
+      <c r="R21" s="75"/>
+      <c r="S21" s="75"/>
+      <c r="T21" s="75"/>
+      <c r="U21" s="75"/>
+      <c r="V21" s="75"/>
+      <c r="W21" s="75"/>
+      <c r="X21" s="75"/>
+      <c r="Y21" s="75"/>
+      <c r="Z21" s="75"/>
+      <c r="AA21" s="75"/>
+      <c r="AB21" s="75"/>
+      <c r="AC21" s="75"/>
+      <c r="AD21" s="75"/>
+      <c r="AE21" s="75"/>
+      <c r="AF21" s="75"/>
+      <c r="AG21" s="75"/>
+      <c r="AH21" s="75"/>
+      <c r="AI21" s="75"/>
+      <c r="AJ21" s="75"/>
+      <c r="AK21" s="76"/>
+      <c r="AL21" s="73"/>
+      <c r="AM21" s="73"/>
+      <c r="AN21" s="73"/>
+      <c r="AO21" s="73"/>
+      <c r="AP21" s="73"/>
+      <c r="AQ21" s="73"/>
+      <c r="AR21" s="73"/>
+      <c r="AS21" s="73"/>
+      <c r="AT21" s="73"/>
+      <c r="AU21" s="73"/>
+      <c r="AV21" s="73"/>
+      <c r="AW21" s="73"/>
+      <c r="AX21" s="73"/>
+      <c r="AY21" s="73"/>
+      <c r="AZ21" s="73"/>
+      <c r="BA21" s="73"/>
+      <c r="BB21" s="73"/>
+      <c r="BC21" s="73"/>
+      <c r="BD21" s="73"/>
+      <c r="BE21" s="73"/>
+      <c r="BF21" s="73"/>
+      <c r="BG21" s="73"/>
+      <c r="BH21" s="73"/>
+      <c r="BI21" s="73"/>
+      <c r="BJ21" s="73"/>
       <c r="BK21" s="2"/>
       <c r="BL21" s="16"/>
     </row>
     <row r="22" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="16"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="83" t="s">
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="84"/>
-      <c r="S22" s="84"/>
-      <c r="T22" s="84"/>
-      <c r="U22" s="84"/>
-      <c r="V22" s="84"/>
-      <c r="W22" s="84"/>
-      <c r="X22" s="84"/>
-      <c r="Y22" s="84"/>
-      <c r="Z22" s="84"/>
-      <c r="AA22" s="84"/>
-      <c r="AB22" s="84"/>
-      <c r="AC22" s="84"/>
-      <c r="AD22" s="84"/>
-      <c r="AE22" s="84"/>
-      <c r="AF22" s="84"/>
-      <c r="AG22" s="84"/>
-      <c r="AH22" s="84"/>
-      <c r="AI22" s="84"/>
-      <c r="AJ22" s="84"/>
-      <c r="AK22" s="85"/>
-      <c r="AL22" s="77"/>
-      <c r="AM22" s="77"/>
-      <c r="AN22" s="77"/>
-      <c r="AO22" s="77"/>
-      <c r="AP22" s="77"/>
-      <c r="AQ22" s="77"/>
-      <c r="AR22" s="77"/>
-      <c r="AS22" s="77"/>
-      <c r="AT22" s="77"/>
-      <c r="AU22" s="77"/>
-      <c r="AV22" s="77"/>
-      <c r="AW22" s="77"/>
-      <c r="AX22" s="77"/>
-      <c r="AY22" s="77"/>
-      <c r="AZ22" s="77"/>
-      <c r="BA22" s="77"/>
-      <c r="BB22" s="77"/>
-      <c r="BC22" s="77"/>
-      <c r="BD22" s="77"/>
-      <c r="BE22" s="77"/>
-      <c r="BF22" s="77"/>
-      <c r="BG22" s="77"/>
-      <c r="BH22" s="77"/>
-      <c r="BI22" s="77"/>
-      <c r="BJ22" s="77"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="75"/>
+      <c r="S22" s="75"/>
+      <c r="T22" s="75"/>
+      <c r="U22" s="75"/>
+      <c r="V22" s="75"/>
+      <c r="W22" s="75"/>
+      <c r="X22" s="75"/>
+      <c r="Y22" s="75"/>
+      <c r="Z22" s="75"/>
+      <c r="AA22" s="75"/>
+      <c r="AB22" s="75"/>
+      <c r="AC22" s="75"/>
+      <c r="AD22" s="75"/>
+      <c r="AE22" s="75"/>
+      <c r="AF22" s="75"/>
+      <c r="AG22" s="75"/>
+      <c r="AH22" s="75"/>
+      <c r="AI22" s="75"/>
+      <c r="AJ22" s="75"/>
+      <c r="AK22" s="76"/>
+      <c r="AL22" s="73"/>
+      <c r="AM22" s="73"/>
+      <c r="AN22" s="73"/>
+      <c r="AO22" s="73"/>
+      <c r="AP22" s="73"/>
+      <c r="AQ22" s="73"/>
+      <c r="AR22" s="73"/>
+      <c r="AS22" s="73"/>
+      <c r="AT22" s="73"/>
+      <c r="AU22" s="73"/>
+      <c r="AV22" s="73"/>
+      <c r="AW22" s="73"/>
+      <c r="AX22" s="73"/>
+      <c r="AY22" s="73"/>
+      <c r="AZ22" s="73"/>
+      <c r="BA22" s="73"/>
+      <c r="BB22" s="73"/>
+      <c r="BC22" s="73"/>
+      <c r="BD22" s="73"/>
+      <c r="BE22" s="73"/>
+      <c r="BF22" s="73"/>
+      <c r="BG22" s="73"/>
+      <c r="BH22" s="73"/>
+      <c r="BI22" s="73"/>
+      <c r="BJ22" s="73"/>
       <c r="BK22" s="2"/>
       <c r="BL22" s="16"/>
     </row>
     <row r="23" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="16"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="73" t="s">
+      <c r="C23" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="79" t="s">
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="72" t="s">
         <v>182</v>
       </c>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="79"/>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="79"/>
-      <c r="R23" s="79"/>
-      <c r="S23" s="79"/>
-      <c r="T23" s="79"/>
-      <c r="U23" s="79"/>
-      <c r="V23" s="79"/>
-      <c r="W23" s="79"/>
-      <c r="X23" s="79"/>
-      <c r="Y23" s="79"/>
-      <c r="Z23" s="79"/>
-      <c r="AA23" s="79"/>
-      <c r="AB23" s="79"/>
-      <c r="AC23" s="79"/>
-      <c r="AD23" s="79"/>
-      <c r="AE23" s="79"/>
-      <c r="AF23" s="79"/>
-      <c r="AG23" s="79"/>
-      <c r="AH23" s="79"/>
-      <c r="AI23" s="79"/>
-      <c r="AJ23" s="79"/>
-      <c r="AK23" s="79"/>
-      <c r="AL23" s="77"/>
-      <c r="AM23" s="77"/>
-      <c r="AN23" s="77"/>
-      <c r="AO23" s="77"/>
-      <c r="AP23" s="77"/>
-      <c r="AQ23" s="77"/>
-      <c r="AR23" s="77"/>
-      <c r="AS23" s="77"/>
-      <c r="AT23" s="77"/>
-      <c r="AU23" s="77"/>
-      <c r="AV23" s="77"/>
-      <c r="AW23" s="77"/>
-      <c r="AX23" s="77"/>
-      <c r="AY23" s="77"/>
-      <c r="AZ23" s="77"/>
-      <c r="BA23" s="77"/>
-      <c r="BB23" s="77"/>
-      <c r="BC23" s="77"/>
-      <c r="BD23" s="77"/>
-      <c r="BE23" s="77"/>
-      <c r="BF23" s="77"/>
-      <c r="BG23" s="77"/>
-      <c r="BH23" s="77"/>
-      <c r="BI23" s="77"/>
-      <c r="BJ23" s="77"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="72"/>
+      <c r="P23" s="72"/>
+      <c r="Q23" s="72"/>
+      <c r="R23" s="72"/>
+      <c r="S23" s="72"/>
+      <c r="T23" s="72"/>
+      <c r="U23" s="72"/>
+      <c r="V23" s="72"/>
+      <c r="W23" s="72"/>
+      <c r="X23" s="72"/>
+      <c r="Y23" s="72"/>
+      <c r="Z23" s="72"/>
+      <c r="AA23" s="72"/>
+      <c r="AB23" s="72"/>
+      <c r="AC23" s="72"/>
+      <c r="AD23" s="72"/>
+      <c r="AE23" s="72"/>
+      <c r="AF23" s="72"/>
+      <c r="AG23" s="72"/>
+      <c r="AH23" s="72"/>
+      <c r="AI23" s="72"/>
+      <c r="AJ23" s="72"/>
+      <c r="AK23" s="72"/>
+      <c r="AL23" s="73"/>
+      <c r="AM23" s="73"/>
+      <c r="AN23" s="73"/>
+      <c r="AO23" s="73"/>
+      <c r="AP23" s="73"/>
+      <c r="AQ23" s="73"/>
+      <c r="AR23" s="73"/>
+      <c r="AS23" s="73"/>
+      <c r="AT23" s="73"/>
+      <c r="AU23" s="73"/>
+      <c r="AV23" s="73"/>
+      <c r="AW23" s="73"/>
+      <c r="AX23" s="73"/>
+      <c r="AY23" s="73"/>
+      <c r="AZ23" s="73"/>
+      <c r="BA23" s="73"/>
+      <c r="BB23" s="73"/>
+      <c r="BC23" s="73"/>
+      <c r="BD23" s="73"/>
+      <c r="BE23" s="73"/>
+      <c r="BF23" s="73"/>
+      <c r="BG23" s="73"/>
+      <c r="BH23" s="73"/>
+      <c r="BI23" s="73"/>
+      <c r="BJ23" s="73"/>
       <c r="BK23" s="2"/>
       <c r="BL23" s="16"/>
     </row>
     <row r="24" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="73" t="s">
+      <c r="C24" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="79" t="s">
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="79"/>
-      <c r="P24" s="79"/>
-      <c r="Q24" s="79"/>
-      <c r="R24" s="79"/>
-      <c r="S24" s="79"/>
-      <c r="T24" s="79"/>
-      <c r="U24" s="79"/>
-      <c r="V24" s="79"/>
-      <c r="W24" s="79"/>
-      <c r="X24" s="79"/>
-      <c r="Y24" s="79"/>
-      <c r="Z24" s="79"/>
-      <c r="AA24" s="79"/>
-      <c r="AB24" s="79"/>
-      <c r="AC24" s="79"/>
-      <c r="AD24" s="79"/>
-      <c r="AE24" s="79"/>
-      <c r="AF24" s="79"/>
-      <c r="AG24" s="79"/>
-      <c r="AH24" s="79"/>
-      <c r="AI24" s="79"/>
-      <c r="AJ24" s="79"/>
-      <c r="AK24" s="79"/>
-      <c r="AL24" s="77"/>
-      <c r="AM24" s="77"/>
-      <c r="AN24" s="77"/>
-      <c r="AO24" s="77"/>
-      <c r="AP24" s="77"/>
-      <c r="AQ24" s="77"/>
-      <c r="AR24" s="77"/>
-      <c r="AS24" s="77"/>
-      <c r="AT24" s="77"/>
-      <c r="AU24" s="77"/>
-      <c r="AV24" s="77"/>
-      <c r="AW24" s="77"/>
-      <c r="AX24" s="77"/>
-      <c r="AY24" s="77"/>
-      <c r="AZ24" s="77"/>
-      <c r="BA24" s="77"/>
-      <c r="BB24" s="77"/>
-      <c r="BC24" s="77"/>
-      <c r="BD24" s="77"/>
-      <c r="BE24" s="77"/>
-      <c r="BF24" s="77"/>
-      <c r="BG24" s="77"/>
-      <c r="BH24" s="77"/>
-      <c r="BI24" s="77"/>
-      <c r="BJ24" s="77"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="72"/>
+      <c r="R24" s="72"/>
+      <c r="S24" s="72"/>
+      <c r="T24" s="72"/>
+      <c r="U24" s="72"/>
+      <c r="V24" s="72"/>
+      <c r="W24" s="72"/>
+      <c r="X24" s="72"/>
+      <c r="Y24" s="72"/>
+      <c r="Z24" s="72"/>
+      <c r="AA24" s="72"/>
+      <c r="AB24" s="72"/>
+      <c r="AC24" s="72"/>
+      <c r="AD24" s="72"/>
+      <c r="AE24" s="72"/>
+      <c r="AF24" s="72"/>
+      <c r="AG24" s="72"/>
+      <c r="AH24" s="72"/>
+      <c r="AI24" s="72"/>
+      <c r="AJ24" s="72"/>
+      <c r="AK24" s="72"/>
+      <c r="AL24" s="73"/>
+      <c r="AM24" s="73"/>
+      <c r="AN24" s="73"/>
+      <c r="AO24" s="73"/>
+      <c r="AP24" s="73"/>
+      <c r="AQ24" s="73"/>
+      <c r="AR24" s="73"/>
+      <c r="AS24" s="73"/>
+      <c r="AT24" s="73"/>
+      <c r="AU24" s="73"/>
+      <c r="AV24" s="73"/>
+      <c r="AW24" s="73"/>
+      <c r="AX24" s="73"/>
+      <c r="AY24" s="73"/>
+      <c r="AZ24" s="73"/>
+      <c r="BA24" s="73"/>
+      <c r="BB24" s="73"/>
+      <c r="BC24" s="73"/>
+      <c r="BD24" s="73"/>
+      <c r="BE24" s="73"/>
+      <c r="BF24" s="73"/>
+      <c r="BG24" s="73"/>
+      <c r="BH24" s="73"/>
+      <c r="BI24" s="73"/>
+      <c r="BJ24" s="73"/>
       <c r="BK24" s="2"/>
       <c r="BL24" s="16"/>
     </row>
     <row r="25" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="16"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="73" t="s">
+      <c r="C25" s="71" t="s">
         <v>173</v>
       </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="79" t="s">
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="72" t="s">
         <v>181</v>
       </c>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="79"/>
-      <c r="O25" s="79"/>
-      <c r="P25" s="79"/>
-      <c r="Q25" s="79"/>
-      <c r="R25" s="79"/>
-      <c r="S25" s="79"/>
-      <c r="T25" s="79"/>
-      <c r="U25" s="79"/>
-      <c r="V25" s="79"/>
-      <c r="W25" s="79"/>
-      <c r="X25" s="79"/>
-      <c r="Y25" s="79"/>
-      <c r="Z25" s="79"/>
-      <c r="AA25" s="79"/>
-      <c r="AB25" s="79"/>
-      <c r="AC25" s="79"/>
-      <c r="AD25" s="79"/>
-      <c r="AE25" s="79"/>
-      <c r="AF25" s="79"/>
-      <c r="AG25" s="79"/>
-      <c r="AH25" s="79"/>
-      <c r="AI25" s="79"/>
-      <c r="AJ25" s="79"/>
-      <c r="AK25" s="79"/>
-      <c r="AL25" s="77"/>
-      <c r="AM25" s="77"/>
-      <c r="AN25" s="77"/>
-      <c r="AO25" s="77"/>
-      <c r="AP25" s="77"/>
-      <c r="AQ25" s="77"/>
-      <c r="AR25" s="77"/>
-      <c r="AS25" s="77"/>
-      <c r="AT25" s="77"/>
-      <c r="AU25" s="77"/>
-      <c r="AV25" s="77"/>
-      <c r="AW25" s="77"/>
-      <c r="AX25" s="77"/>
-      <c r="AY25" s="77"/>
-      <c r="AZ25" s="77"/>
-      <c r="BA25" s="77"/>
-      <c r="BB25" s="77"/>
-      <c r="BC25" s="77"/>
-      <c r="BD25" s="77"/>
-      <c r="BE25" s="77"/>
-      <c r="BF25" s="77"/>
-      <c r="BG25" s="77"/>
-      <c r="BH25" s="77"/>
-      <c r="BI25" s="77"/>
-      <c r="BJ25" s="77"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="72"/>
+      <c r="Q25" s="72"/>
+      <c r="R25" s="72"/>
+      <c r="S25" s="72"/>
+      <c r="T25" s="72"/>
+      <c r="U25" s="72"/>
+      <c r="V25" s="72"/>
+      <c r="W25" s="72"/>
+      <c r="X25" s="72"/>
+      <c r="Y25" s="72"/>
+      <c r="Z25" s="72"/>
+      <c r="AA25" s="72"/>
+      <c r="AB25" s="72"/>
+      <c r="AC25" s="72"/>
+      <c r="AD25" s="72"/>
+      <c r="AE25" s="72"/>
+      <c r="AF25" s="72"/>
+      <c r="AG25" s="72"/>
+      <c r="AH25" s="72"/>
+      <c r="AI25" s="72"/>
+      <c r="AJ25" s="72"/>
+      <c r="AK25" s="72"/>
+      <c r="AL25" s="73"/>
+      <c r="AM25" s="73"/>
+      <c r="AN25" s="73"/>
+      <c r="AO25" s="73"/>
+      <c r="AP25" s="73"/>
+      <c r="AQ25" s="73"/>
+      <c r="AR25" s="73"/>
+      <c r="AS25" s="73"/>
+      <c r="AT25" s="73"/>
+      <c r="AU25" s="73"/>
+      <c r="AV25" s="73"/>
+      <c r="AW25" s="73"/>
+      <c r="AX25" s="73"/>
+      <c r="AY25" s="73"/>
+      <c r="AZ25" s="73"/>
+      <c r="BA25" s="73"/>
+      <c r="BB25" s="73"/>
+      <c r="BC25" s="73"/>
+      <c r="BD25" s="73"/>
+      <c r="BE25" s="73"/>
+      <c r="BF25" s="73"/>
+      <c r="BG25" s="73"/>
+      <c r="BH25" s="73"/>
+      <c r="BI25" s="73"/>
+      <c r="BJ25" s="73"/>
       <c r="BK25" s="2"/>
       <c r="BL25" s="16"/>
     </row>
     <row r="26" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="73" t="s">
+      <c r="C26" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="79" t="s">
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="79"/>
-      <c r="P26" s="79"/>
-      <c r="Q26" s="79"/>
-      <c r="R26" s="79"/>
-      <c r="S26" s="79"/>
-      <c r="T26" s="79"/>
-      <c r="U26" s="79"/>
-      <c r="V26" s="79"/>
-      <c r="W26" s="79"/>
-      <c r="X26" s="79"/>
-      <c r="Y26" s="79"/>
-      <c r="Z26" s="79"/>
-      <c r="AA26" s="79"/>
-      <c r="AB26" s="79"/>
-      <c r="AC26" s="79"/>
-      <c r="AD26" s="79"/>
-      <c r="AE26" s="79"/>
-      <c r="AF26" s="79"/>
-      <c r="AG26" s="79"/>
-      <c r="AH26" s="79"/>
-      <c r="AI26" s="79"/>
-      <c r="AJ26" s="79"/>
-      <c r="AK26" s="79"/>
-      <c r="AL26" s="77"/>
-      <c r="AM26" s="77"/>
-      <c r="AN26" s="77"/>
-      <c r="AO26" s="77"/>
-      <c r="AP26" s="77"/>
-      <c r="AQ26" s="77"/>
-      <c r="AR26" s="77"/>
-      <c r="AS26" s="77"/>
-      <c r="AT26" s="77"/>
-      <c r="AU26" s="77"/>
-      <c r="AV26" s="77"/>
-      <c r="AW26" s="77"/>
-      <c r="AX26" s="77"/>
-      <c r="AY26" s="77"/>
-      <c r="AZ26" s="77"/>
-      <c r="BA26" s="77"/>
-      <c r="BB26" s="77"/>
-      <c r="BC26" s="77"/>
-      <c r="BD26" s="77"/>
-      <c r="BE26" s="77"/>
-      <c r="BF26" s="77"/>
-      <c r="BG26" s="77"/>
-      <c r="BH26" s="77"/>
-      <c r="BI26" s="77"/>
-      <c r="BJ26" s="77"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="72"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="72"/>
+      <c r="S26" s="72"/>
+      <c r="T26" s="72"/>
+      <c r="U26" s="72"/>
+      <c r="V26" s="72"/>
+      <c r="W26" s="72"/>
+      <c r="X26" s="72"/>
+      <c r="Y26" s="72"/>
+      <c r="Z26" s="72"/>
+      <c r="AA26" s="72"/>
+      <c r="AB26" s="72"/>
+      <c r="AC26" s="72"/>
+      <c r="AD26" s="72"/>
+      <c r="AE26" s="72"/>
+      <c r="AF26" s="72"/>
+      <c r="AG26" s="72"/>
+      <c r="AH26" s="72"/>
+      <c r="AI26" s="72"/>
+      <c r="AJ26" s="72"/>
+      <c r="AK26" s="72"/>
+      <c r="AL26" s="73"/>
+      <c r="AM26" s="73"/>
+      <c r="AN26" s="73"/>
+      <c r="AO26" s="73"/>
+      <c r="AP26" s="73"/>
+      <c r="AQ26" s="73"/>
+      <c r="AR26" s="73"/>
+      <c r="AS26" s="73"/>
+      <c r="AT26" s="73"/>
+      <c r="AU26" s="73"/>
+      <c r="AV26" s="73"/>
+      <c r="AW26" s="73"/>
+      <c r="AX26" s="73"/>
+      <c r="AY26" s="73"/>
+      <c r="AZ26" s="73"/>
+      <c r="BA26" s="73"/>
+      <c r="BB26" s="73"/>
+      <c r="BC26" s="73"/>
+      <c r="BD26" s="73"/>
+      <c r="BE26" s="73"/>
+      <c r="BF26" s="73"/>
+      <c r="BG26" s="73"/>
+      <c r="BH26" s="73"/>
+      <c r="BI26" s="73"/>
+      <c r="BJ26" s="73"/>
       <c r="BK26" s="2"/>
       <c r="BL26" s="16"/>
     </row>
     <row r="27" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="16"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="73" t="s">
+      <c r="C27" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="79" t="s">
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="72" t="s">
         <v>180</v>
       </c>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="79"/>
-      <c r="P27" s="79"/>
-      <c r="Q27" s="79"/>
-      <c r="R27" s="79"/>
-      <c r="S27" s="79"/>
-      <c r="T27" s="79"/>
-      <c r="U27" s="79"/>
-      <c r="V27" s="79"/>
-      <c r="W27" s="79"/>
-      <c r="X27" s="79"/>
-      <c r="Y27" s="79"/>
-      <c r="Z27" s="79"/>
-      <c r="AA27" s="79"/>
-      <c r="AB27" s="79"/>
-      <c r="AC27" s="79"/>
-      <c r="AD27" s="79"/>
-      <c r="AE27" s="79"/>
-      <c r="AF27" s="79"/>
-      <c r="AG27" s="79"/>
-      <c r="AH27" s="79"/>
-      <c r="AI27" s="79"/>
-      <c r="AJ27" s="79"/>
-      <c r="AK27" s="79"/>
-      <c r="AL27" s="77"/>
-      <c r="AM27" s="77"/>
-      <c r="AN27" s="77"/>
-      <c r="AO27" s="77"/>
-      <c r="AP27" s="77"/>
-      <c r="AQ27" s="77"/>
-      <c r="AR27" s="77"/>
-      <c r="AS27" s="77"/>
-      <c r="AT27" s="77"/>
-      <c r="AU27" s="77"/>
-      <c r="AV27" s="77"/>
-      <c r="AW27" s="77"/>
-      <c r="AX27" s="77"/>
-      <c r="AY27" s="77"/>
-      <c r="AZ27" s="77"/>
-      <c r="BA27" s="77"/>
-      <c r="BB27" s="77"/>
-      <c r="BC27" s="77"/>
-      <c r="BD27" s="77"/>
-      <c r="BE27" s="77"/>
-      <c r="BF27" s="77"/>
-      <c r="BG27" s="77"/>
-      <c r="BH27" s="77"/>
-      <c r="BI27" s="77"/>
-      <c r="BJ27" s="77"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="72"/>
+      <c r="Q27" s="72"/>
+      <c r="R27" s="72"/>
+      <c r="S27" s="72"/>
+      <c r="T27" s="72"/>
+      <c r="U27" s="72"/>
+      <c r="V27" s="72"/>
+      <c r="W27" s="72"/>
+      <c r="X27" s="72"/>
+      <c r="Y27" s="72"/>
+      <c r="Z27" s="72"/>
+      <c r="AA27" s="72"/>
+      <c r="AB27" s="72"/>
+      <c r="AC27" s="72"/>
+      <c r="AD27" s="72"/>
+      <c r="AE27" s="72"/>
+      <c r="AF27" s="72"/>
+      <c r="AG27" s="72"/>
+      <c r="AH27" s="72"/>
+      <c r="AI27" s="72"/>
+      <c r="AJ27" s="72"/>
+      <c r="AK27" s="72"/>
+      <c r="AL27" s="73"/>
+      <c r="AM27" s="73"/>
+      <c r="AN27" s="73"/>
+      <c r="AO27" s="73"/>
+      <c r="AP27" s="73"/>
+      <c r="AQ27" s="73"/>
+      <c r="AR27" s="73"/>
+      <c r="AS27" s="73"/>
+      <c r="AT27" s="73"/>
+      <c r="AU27" s="73"/>
+      <c r="AV27" s="73"/>
+      <c r="AW27" s="73"/>
+      <c r="AX27" s="73"/>
+      <c r="AY27" s="73"/>
+      <c r="AZ27" s="73"/>
+      <c r="BA27" s="73"/>
+      <c r="BB27" s="73"/>
+      <c r="BC27" s="73"/>
+      <c r="BD27" s="73"/>
+      <c r="BE27" s="73"/>
+      <c r="BF27" s="73"/>
+      <c r="BG27" s="73"/>
+      <c r="BH27" s="73"/>
+      <c r="BI27" s="73"/>
+      <c r="BJ27" s="73"/>
       <c r="BK27" s="2"/>
       <c r="BL27" s="16"/>
     </row>
     <row r="28" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="16"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="73" t="s">
+      <c r="C28" s="71" t="s">
         <v>183</v>
       </c>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="79" t="s">
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="79"/>
-      <c r="O28" s="79"/>
-      <c r="P28" s="79"/>
-      <c r="Q28" s="79"/>
-      <c r="R28" s="79"/>
-      <c r="S28" s="79"/>
-      <c r="T28" s="79"/>
-      <c r="U28" s="79"/>
-      <c r="V28" s="79"/>
-      <c r="W28" s="79"/>
-      <c r="X28" s="79"/>
-      <c r="Y28" s="79"/>
-      <c r="Z28" s="79"/>
-      <c r="AA28" s="79"/>
-      <c r="AB28" s="79"/>
-      <c r="AC28" s="79"/>
-      <c r="AD28" s="79"/>
-      <c r="AE28" s="79"/>
-      <c r="AF28" s="79"/>
-      <c r="AG28" s="79"/>
-      <c r="AH28" s="79"/>
-      <c r="AI28" s="79"/>
-      <c r="AJ28" s="79"/>
-      <c r="AK28" s="79"/>
-      <c r="AL28" s="77"/>
-      <c r="AM28" s="77"/>
-      <c r="AN28" s="77"/>
-      <c r="AO28" s="77"/>
-      <c r="AP28" s="77"/>
-      <c r="AQ28" s="77"/>
-      <c r="AR28" s="77"/>
-      <c r="AS28" s="77"/>
-      <c r="AT28" s="77"/>
-      <c r="AU28" s="77"/>
-      <c r="AV28" s="77"/>
-      <c r="AW28" s="77"/>
-      <c r="AX28" s="77"/>
-      <c r="AY28" s="77"/>
-      <c r="AZ28" s="77"/>
-      <c r="BA28" s="77"/>
-      <c r="BB28" s="77"/>
-      <c r="BC28" s="77"/>
-      <c r="BD28" s="77"/>
-      <c r="BE28" s="77"/>
-      <c r="BF28" s="77"/>
-      <c r="BG28" s="77"/>
-      <c r="BH28" s="77"/>
-      <c r="BI28" s="77"/>
-      <c r="BJ28" s="77"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="72"/>
+      <c r="Q28" s="72"/>
+      <c r="R28" s="72"/>
+      <c r="S28" s="72"/>
+      <c r="T28" s="72"/>
+      <c r="U28" s="72"/>
+      <c r="V28" s="72"/>
+      <c r="W28" s="72"/>
+      <c r="X28" s="72"/>
+      <c r="Y28" s="72"/>
+      <c r="Z28" s="72"/>
+      <c r="AA28" s="72"/>
+      <c r="AB28" s="72"/>
+      <c r="AC28" s="72"/>
+      <c r="AD28" s="72"/>
+      <c r="AE28" s="72"/>
+      <c r="AF28" s="72"/>
+      <c r="AG28" s="72"/>
+      <c r="AH28" s="72"/>
+      <c r="AI28" s="72"/>
+      <c r="AJ28" s="72"/>
+      <c r="AK28" s="72"/>
+      <c r="AL28" s="73"/>
+      <c r="AM28" s="73"/>
+      <c r="AN28" s="73"/>
+      <c r="AO28" s="73"/>
+      <c r="AP28" s="73"/>
+      <c r="AQ28" s="73"/>
+      <c r="AR28" s="73"/>
+      <c r="AS28" s="73"/>
+      <c r="AT28" s="73"/>
+      <c r="AU28" s="73"/>
+      <c r="AV28" s="73"/>
+      <c r="AW28" s="73"/>
+      <c r="AX28" s="73"/>
+      <c r="AY28" s="73"/>
+      <c r="AZ28" s="73"/>
+      <c r="BA28" s="73"/>
+      <c r="BB28" s="73"/>
+      <c r="BC28" s="73"/>
+      <c r="BD28" s="73"/>
+      <c r="BE28" s="73"/>
+      <c r="BF28" s="73"/>
+      <c r="BG28" s="73"/>
+      <c r="BH28" s="73"/>
+      <c r="BI28" s="73"/>
+      <c r="BJ28" s="73"/>
       <c r="BK28" s="2"/>
       <c r="BL28" s="16"/>
     </row>
     <row r="29" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="16"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="73" t="s">
+      <c r="C29" s="71" t="s">
         <v>185</v>
       </c>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="79" t="s">
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="79"/>
-      <c r="L29" s="79"/>
-      <c r="M29" s="79"/>
-      <c r="N29" s="79"/>
-      <c r="O29" s="79"/>
-      <c r="P29" s="79"/>
-      <c r="Q29" s="79"/>
-      <c r="R29" s="79"/>
-      <c r="S29" s="79"/>
-      <c r="T29" s="79"/>
-      <c r="U29" s="79"/>
-      <c r="V29" s="79"/>
-      <c r="W29" s="79"/>
-      <c r="X29" s="79"/>
-      <c r="Y29" s="79"/>
-      <c r="Z29" s="79"/>
-      <c r="AA29" s="79"/>
-      <c r="AB29" s="79"/>
-      <c r="AC29" s="79"/>
-      <c r="AD29" s="79"/>
-      <c r="AE29" s="79"/>
-      <c r="AF29" s="79"/>
-      <c r="AG29" s="79"/>
-      <c r="AH29" s="79"/>
-      <c r="AI29" s="79"/>
-      <c r="AJ29" s="79"/>
-      <c r="AK29" s="79"/>
-      <c r="AL29" s="77"/>
-      <c r="AM29" s="77"/>
-      <c r="AN29" s="77"/>
-      <c r="AO29" s="77"/>
-      <c r="AP29" s="77"/>
-      <c r="AQ29" s="77"/>
-      <c r="AR29" s="77"/>
-      <c r="AS29" s="77"/>
-      <c r="AT29" s="77"/>
-      <c r="AU29" s="77"/>
-      <c r="AV29" s="77"/>
-      <c r="AW29" s="77"/>
-      <c r="AX29" s="77"/>
-      <c r="AY29" s="77"/>
-      <c r="AZ29" s="77"/>
-      <c r="BA29" s="77"/>
-      <c r="BB29" s="77"/>
-      <c r="BC29" s="77"/>
-      <c r="BD29" s="77"/>
-      <c r="BE29" s="77"/>
-      <c r="BF29" s="77"/>
-      <c r="BG29" s="77"/>
-      <c r="BH29" s="77"/>
-      <c r="BI29" s="77"/>
-      <c r="BJ29" s="77"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="72"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="72"/>
+      <c r="V29" s="72"/>
+      <c r="W29" s="72"/>
+      <c r="X29" s="72"/>
+      <c r="Y29" s="72"/>
+      <c r="Z29" s="72"/>
+      <c r="AA29" s="72"/>
+      <c r="AB29" s="72"/>
+      <c r="AC29" s="72"/>
+      <c r="AD29" s="72"/>
+      <c r="AE29" s="72"/>
+      <c r="AF29" s="72"/>
+      <c r="AG29" s="72"/>
+      <c r="AH29" s="72"/>
+      <c r="AI29" s="72"/>
+      <c r="AJ29" s="72"/>
+      <c r="AK29" s="72"/>
+      <c r="AL29" s="73"/>
+      <c r="AM29" s="73"/>
+      <c r="AN29" s="73"/>
+      <c r="AO29" s="73"/>
+      <c r="AP29" s="73"/>
+      <c r="AQ29" s="73"/>
+      <c r="AR29" s="73"/>
+      <c r="AS29" s="73"/>
+      <c r="AT29" s="73"/>
+      <c r="AU29" s="73"/>
+      <c r="AV29" s="73"/>
+      <c r="AW29" s="73"/>
+      <c r="AX29" s="73"/>
+      <c r="AY29" s="73"/>
+      <c r="AZ29" s="73"/>
+      <c r="BA29" s="73"/>
+      <c r="BB29" s="73"/>
+      <c r="BC29" s="73"/>
+      <c r="BD29" s="73"/>
+      <c r="BE29" s="73"/>
+      <c r="BF29" s="73"/>
+      <c r="BG29" s="73"/>
+      <c r="BH29" s="73"/>
+      <c r="BI29" s="73"/>
+      <c r="BJ29" s="73"/>
       <c r="BK29" s="2"/>
       <c r="BL29" s="16"/>
     </row>
     <row r="30" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="16"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="73" t="s">
+      <c r="C30" s="71" t="s">
         <v>186</v>
       </c>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="79" t="s">
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="72" t="s">
         <v>195</v>
       </c>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="79"/>
-      <c r="K30" s="79"/>
-      <c r="L30" s="79"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="79"/>
-      <c r="O30" s="79"/>
-      <c r="P30" s="79"/>
-      <c r="Q30" s="79"/>
-      <c r="R30" s="79"/>
-      <c r="S30" s="79"/>
-      <c r="T30" s="79"/>
-      <c r="U30" s="79"/>
-      <c r="V30" s="79"/>
-      <c r="W30" s="79"/>
-      <c r="X30" s="79"/>
-      <c r="Y30" s="79"/>
-      <c r="Z30" s="79"/>
-      <c r="AA30" s="79"/>
-      <c r="AB30" s="79"/>
-      <c r="AC30" s="79"/>
-      <c r="AD30" s="79"/>
-      <c r="AE30" s="79"/>
-      <c r="AF30" s="79"/>
-      <c r="AG30" s="79"/>
-      <c r="AH30" s="79"/>
-      <c r="AI30" s="79"/>
-      <c r="AJ30" s="79"/>
-      <c r="AK30" s="79"/>
-      <c r="AL30" s="77"/>
-      <c r="AM30" s="77"/>
-      <c r="AN30" s="77"/>
-      <c r="AO30" s="77"/>
-      <c r="AP30" s="77"/>
-      <c r="AQ30" s="77"/>
-      <c r="AR30" s="77"/>
-      <c r="AS30" s="77"/>
-      <c r="AT30" s="77"/>
-      <c r="AU30" s="77"/>
-      <c r="AV30" s="77"/>
-      <c r="AW30" s="77"/>
-      <c r="AX30" s="77"/>
-      <c r="AY30" s="77"/>
-      <c r="AZ30" s="77"/>
-      <c r="BA30" s="77"/>
-      <c r="BB30" s="77"/>
-      <c r="BC30" s="77"/>
-      <c r="BD30" s="77"/>
-      <c r="BE30" s="77"/>
-      <c r="BF30" s="77"/>
-      <c r="BG30" s="77"/>
-      <c r="BH30" s="77"/>
-      <c r="BI30" s="77"/>
-      <c r="BJ30" s="77"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
+      <c r="P30" s="72"/>
+      <c r="Q30" s="72"/>
+      <c r="R30" s="72"/>
+      <c r="S30" s="72"/>
+      <c r="T30" s="72"/>
+      <c r="U30" s="72"/>
+      <c r="V30" s="72"/>
+      <c r="W30" s="72"/>
+      <c r="X30" s="72"/>
+      <c r="Y30" s="72"/>
+      <c r="Z30" s="72"/>
+      <c r="AA30" s="72"/>
+      <c r="AB30" s="72"/>
+      <c r="AC30" s="72"/>
+      <c r="AD30" s="72"/>
+      <c r="AE30" s="72"/>
+      <c r="AF30" s="72"/>
+      <c r="AG30" s="72"/>
+      <c r="AH30" s="72"/>
+      <c r="AI30" s="72"/>
+      <c r="AJ30" s="72"/>
+      <c r="AK30" s="72"/>
+      <c r="AL30" s="73"/>
+      <c r="AM30" s="73"/>
+      <c r="AN30" s="73"/>
+      <c r="AO30" s="73"/>
+      <c r="AP30" s="73"/>
+      <c r="AQ30" s="73"/>
+      <c r="AR30" s="73"/>
+      <c r="AS30" s="73"/>
+      <c r="AT30" s="73"/>
+      <c r="AU30" s="73"/>
+      <c r="AV30" s="73"/>
+      <c r="AW30" s="73"/>
+      <c r="AX30" s="73"/>
+      <c r="AY30" s="73"/>
+      <c r="AZ30" s="73"/>
+      <c r="BA30" s="73"/>
+      <c r="BB30" s="73"/>
+      <c r="BC30" s="73"/>
+      <c r="BD30" s="73"/>
+      <c r="BE30" s="73"/>
+      <c r="BF30" s="73"/>
+      <c r="BG30" s="73"/>
+      <c r="BH30" s="73"/>
+      <c r="BI30" s="73"/>
+      <c r="BJ30" s="73"/>
       <c r="BK30" s="2"/>
       <c r="BL30" s="16"/>
     </row>
     <row r="31" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="16"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="73" t="s">
+      <c r="C31" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="79" t="s">
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="72" t="s">
         <v>193</v>
       </c>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="79"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="79"/>
-      <c r="M31" s="79"/>
-      <c r="N31" s="79"/>
-      <c r="O31" s="79"/>
-      <c r="P31" s="79"/>
-      <c r="Q31" s="79"/>
-      <c r="R31" s="79"/>
-      <c r="S31" s="79"/>
-      <c r="T31" s="79"/>
-      <c r="U31" s="79"/>
-      <c r="V31" s="79"/>
-      <c r="W31" s="79"/>
-      <c r="X31" s="79"/>
-      <c r="Y31" s="79"/>
-      <c r="Z31" s="79"/>
-      <c r="AA31" s="79"/>
-      <c r="AB31" s="79"/>
-      <c r="AC31" s="79"/>
-      <c r="AD31" s="79"/>
-      <c r="AE31" s="79"/>
-      <c r="AF31" s="79"/>
-      <c r="AG31" s="79"/>
-      <c r="AH31" s="79"/>
-      <c r="AI31" s="79"/>
-      <c r="AJ31" s="79"/>
-      <c r="AK31" s="79"/>
-      <c r="AL31" s="77"/>
-      <c r="AM31" s="77"/>
-      <c r="AN31" s="77"/>
-      <c r="AO31" s="77"/>
-      <c r="AP31" s="77"/>
-      <c r="AQ31" s="77"/>
-      <c r="AR31" s="77"/>
-      <c r="AS31" s="77"/>
-      <c r="AT31" s="77"/>
-      <c r="AU31" s="77"/>
-      <c r="AV31" s="77"/>
-      <c r="AW31" s="77"/>
-      <c r="AX31" s="77"/>
-      <c r="AY31" s="77"/>
-      <c r="AZ31" s="77"/>
-      <c r="BA31" s="77"/>
-      <c r="BB31" s="77"/>
-      <c r="BC31" s="77"/>
-      <c r="BD31" s="77"/>
-      <c r="BE31" s="77"/>
-      <c r="BF31" s="77"/>
-      <c r="BG31" s="77"/>
-      <c r="BH31" s="77"/>
-      <c r="BI31" s="77"/>
-      <c r="BJ31" s="77"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="72"/>
+      <c r="P31" s="72"/>
+      <c r="Q31" s="72"/>
+      <c r="R31" s="72"/>
+      <c r="S31" s="72"/>
+      <c r="T31" s="72"/>
+      <c r="U31" s="72"/>
+      <c r="V31" s="72"/>
+      <c r="W31" s="72"/>
+      <c r="X31" s="72"/>
+      <c r="Y31" s="72"/>
+      <c r="Z31" s="72"/>
+      <c r="AA31" s="72"/>
+      <c r="AB31" s="72"/>
+      <c r="AC31" s="72"/>
+      <c r="AD31" s="72"/>
+      <c r="AE31" s="72"/>
+      <c r="AF31" s="72"/>
+      <c r="AG31" s="72"/>
+      <c r="AH31" s="72"/>
+      <c r="AI31" s="72"/>
+      <c r="AJ31" s="72"/>
+      <c r="AK31" s="72"/>
+      <c r="AL31" s="73"/>
+      <c r="AM31" s="73"/>
+      <c r="AN31" s="73"/>
+      <c r="AO31" s="73"/>
+      <c r="AP31" s="73"/>
+      <c r="AQ31" s="73"/>
+      <c r="AR31" s="73"/>
+      <c r="AS31" s="73"/>
+      <c r="AT31" s="73"/>
+      <c r="AU31" s="73"/>
+      <c r="AV31" s="73"/>
+      <c r="AW31" s="73"/>
+      <c r="AX31" s="73"/>
+      <c r="AY31" s="73"/>
+      <c r="AZ31" s="73"/>
+      <c r="BA31" s="73"/>
+      <c r="BB31" s="73"/>
+      <c r="BC31" s="73"/>
+      <c r="BD31" s="73"/>
+      <c r="BE31" s="73"/>
+      <c r="BF31" s="73"/>
+      <c r="BG31" s="73"/>
+      <c r="BH31" s="73"/>
+      <c r="BI31" s="73"/>
+      <c r="BJ31" s="73"/>
       <c r="BK31" s="2"/>
       <c r="BL31" s="16"/>
     </row>
     <row r="32" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="16"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="73" t="s">
+      <c r="C32" s="71" t="s">
         <v>188</v>
       </c>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="79" t="s">
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="72" t="s">
         <v>196</v>
       </c>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
-      <c r="I32" s="79"/>
-      <c r="J32" s="79"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="79"/>
-      <c r="M32" s="79"/>
-      <c r="N32" s="79"/>
-      <c r="O32" s="79"/>
-      <c r="P32" s="79"/>
-      <c r="Q32" s="79"/>
-      <c r="R32" s="79"/>
-      <c r="S32" s="79"/>
-      <c r="T32" s="79"/>
-      <c r="U32" s="79"/>
-      <c r="V32" s="79"/>
-      <c r="W32" s="79"/>
-      <c r="X32" s="79"/>
-      <c r="Y32" s="79"/>
-      <c r="Z32" s="79"/>
-      <c r="AA32" s="79"/>
-      <c r="AB32" s="79"/>
-      <c r="AC32" s="79"/>
-      <c r="AD32" s="79"/>
-      <c r="AE32" s="79"/>
-      <c r="AF32" s="79"/>
-      <c r="AG32" s="79"/>
-      <c r="AH32" s="79"/>
-      <c r="AI32" s="79"/>
-      <c r="AJ32" s="79"/>
-      <c r="AK32" s="79"/>
-      <c r="AL32" s="77"/>
-      <c r="AM32" s="77"/>
-      <c r="AN32" s="77"/>
-      <c r="AO32" s="77"/>
-      <c r="AP32" s="77"/>
-      <c r="AQ32" s="77"/>
-      <c r="AR32" s="77"/>
-      <c r="AS32" s="77"/>
-      <c r="AT32" s="77"/>
-      <c r="AU32" s="77"/>
-      <c r="AV32" s="77"/>
-      <c r="AW32" s="77"/>
-      <c r="AX32" s="77"/>
-      <c r="AY32" s="77"/>
-      <c r="AZ32" s="77"/>
-      <c r="BA32" s="77"/>
-      <c r="BB32" s="77"/>
-      <c r="BC32" s="77"/>
-      <c r="BD32" s="77"/>
-      <c r="BE32" s="77"/>
-      <c r="BF32" s="77"/>
-      <c r="BG32" s="77"/>
-      <c r="BH32" s="77"/>
-      <c r="BI32" s="77"/>
-      <c r="BJ32" s="77"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="72"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="72"/>
+      <c r="Q32" s="72"/>
+      <c r="R32" s="72"/>
+      <c r="S32" s="72"/>
+      <c r="T32" s="72"/>
+      <c r="U32" s="72"/>
+      <c r="V32" s="72"/>
+      <c r="W32" s="72"/>
+      <c r="X32" s="72"/>
+      <c r="Y32" s="72"/>
+      <c r="Z32" s="72"/>
+      <c r="AA32" s="72"/>
+      <c r="AB32" s="72"/>
+      <c r="AC32" s="72"/>
+      <c r="AD32" s="72"/>
+      <c r="AE32" s="72"/>
+      <c r="AF32" s="72"/>
+      <c r="AG32" s="72"/>
+      <c r="AH32" s="72"/>
+      <c r="AI32" s="72"/>
+      <c r="AJ32" s="72"/>
+      <c r="AK32" s="72"/>
+      <c r="AL32" s="73"/>
+      <c r="AM32" s="73"/>
+      <c r="AN32" s="73"/>
+      <c r="AO32" s="73"/>
+      <c r="AP32" s="73"/>
+      <c r="AQ32" s="73"/>
+      <c r="AR32" s="73"/>
+      <c r="AS32" s="73"/>
+      <c r="AT32" s="73"/>
+      <c r="AU32" s="73"/>
+      <c r="AV32" s="73"/>
+      <c r="AW32" s="73"/>
+      <c r="AX32" s="73"/>
+      <c r="AY32" s="73"/>
+      <c r="AZ32" s="73"/>
+      <c r="BA32" s="73"/>
+      <c r="BB32" s="73"/>
+      <c r="BC32" s="73"/>
+      <c r="BD32" s="73"/>
+      <c r="BE32" s="73"/>
+      <c r="BF32" s="73"/>
+      <c r="BG32" s="73"/>
+      <c r="BH32" s="73"/>
+      <c r="BI32" s="73"/>
+      <c r="BJ32" s="73"/>
       <c r="BK32" s="2"/>
       <c r="BL32" s="16"/>
     </row>
     <row r="33" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="16"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="73" t="s">
+      <c r="C33" s="71" t="s">
         <v>189</v>
       </c>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="79" t="s">
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="72" t="s">
         <v>197</v>
       </c>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="79"/>
-      <c r="P33" s="79"/>
-      <c r="Q33" s="79"/>
-      <c r="R33" s="79"/>
-      <c r="S33" s="79"/>
-      <c r="T33" s="79"/>
-      <c r="U33" s="79"/>
-      <c r="V33" s="79"/>
-      <c r="W33" s="79"/>
-      <c r="X33" s="79"/>
-      <c r="Y33" s="79"/>
-      <c r="Z33" s="79"/>
-      <c r="AA33" s="79"/>
-      <c r="AB33" s="79"/>
-      <c r="AC33" s="79"/>
-      <c r="AD33" s="79"/>
-      <c r="AE33" s="79"/>
-      <c r="AF33" s="79"/>
-      <c r="AG33" s="79"/>
-      <c r="AH33" s="79"/>
-      <c r="AI33" s="79"/>
-      <c r="AJ33" s="79"/>
-      <c r="AK33" s="79"/>
-      <c r="AL33" s="77"/>
-      <c r="AM33" s="77"/>
-      <c r="AN33" s="77"/>
-      <c r="AO33" s="77"/>
-      <c r="AP33" s="77"/>
-      <c r="AQ33" s="77"/>
-      <c r="AR33" s="77"/>
-      <c r="AS33" s="77"/>
-      <c r="AT33" s="77"/>
-      <c r="AU33" s="77"/>
-      <c r="AV33" s="77"/>
-      <c r="AW33" s="77"/>
-      <c r="AX33" s="77"/>
-      <c r="AY33" s="77"/>
-      <c r="AZ33" s="77"/>
-      <c r="BA33" s="77"/>
-      <c r="BB33" s="77"/>
-      <c r="BC33" s="77"/>
-      <c r="BD33" s="77"/>
-      <c r="BE33" s="77"/>
-      <c r="BF33" s="77"/>
-      <c r="BG33" s="77"/>
-      <c r="BH33" s="77"/>
-      <c r="BI33" s="77"/>
-      <c r="BJ33" s="77"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="72"/>
+      <c r="P33" s="72"/>
+      <c r="Q33" s="72"/>
+      <c r="R33" s="72"/>
+      <c r="S33" s="72"/>
+      <c r="T33" s="72"/>
+      <c r="U33" s="72"/>
+      <c r="V33" s="72"/>
+      <c r="W33" s="72"/>
+      <c r="X33" s="72"/>
+      <c r="Y33" s="72"/>
+      <c r="Z33" s="72"/>
+      <c r="AA33" s="72"/>
+      <c r="AB33" s="72"/>
+      <c r="AC33" s="72"/>
+      <c r="AD33" s="72"/>
+      <c r="AE33" s="72"/>
+      <c r="AF33" s="72"/>
+      <c r="AG33" s="72"/>
+      <c r="AH33" s="72"/>
+      <c r="AI33" s="72"/>
+      <c r="AJ33" s="72"/>
+      <c r="AK33" s="72"/>
+      <c r="AL33" s="73"/>
+      <c r="AM33" s="73"/>
+      <c r="AN33" s="73"/>
+      <c r="AO33" s="73"/>
+      <c r="AP33" s="73"/>
+      <c r="AQ33" s="73"/>
+      <c r="AR33" s="73"/>
+      <c r="AS33" s="73"/>
+      <c r="AT33" s="73"/>
+      <c r="AU33" s="73"/>
+      <c r="AV33" s="73"/>
+      <c r="AW33" s="73"/>
+      <c r="AX33" s="73"/>
+      <c r="AY33" s="73"/>
+      <c r="AZ33" s="73"/>
+      <c r="BA33" s="73"/>
+      <c r="BB33" s="73"/>
+      <c r="BC33" s="73"/>
+      <c r="BD33" s="73"/>
+      <c r="BE33" s="73"/>
+      <c r="BF33" s="73"/>
+      <c r="BG33" s="73"/>
+      <c r="BH33" s="73"/>
+      <c r="BI33" s="73"/>
+      <c r="BJ33" s="73"/>
       <c r="BK33" s="2"/>
       <c r="BL33" s="16"/>
     </row>
     <row r="34" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="16"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="73" t="s">
+      <c r="C34" s="71" t="s">
         <v>190</v>
       </c>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="79" t="s">
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="79"/>
-      <c r="J34" s="79"/>
-      <c r="K34" s="79"/>
-      <c r="L34" s="79"/>
-      <c r="M34" s="79"/>
-      <c r="N34" s="79"/>
-      <c r="O34" s="79"/>
-      <c r="P34" s="79"/>
-      <c r="Q34" s="79"/>
-      <c r="R34" s="79"/>
-      <c r="S34" s="79"/>
-      <c r="T34" s="79"/>
-      <c r="U34" s="79"/>
-      <c r="V34" s="79"/>
-      <c r="W34" s="79"/>
-      <c r="X34" s="79"/>
-      <c r="Y34" s="79"/>
-      <c r="Z34" s="79"/>
-      <c r="AA34" s="79"/>
-      <c r="AB34" s="79"/>
-      <c r="AC34" s="79"/>
-      <c r="AD34" s="79"/>
-      <c r="AE34" s="79"/>
-      <c r="AF34" s="79"/>
-      <c r="AG34" s="79"/>
-      <c r="AH34" s="79"/>
-      <c r="AI34" s="79"/>
-      <c r="AJ34" s="79"/>
-      <c r="AK34" s="79"/>
-      <c r="AL34" s="77"/>
-      <c r="AM34" s="77"/>
-      <c r="AN34" s="77"/>
-      <c r="AO34" s="77"/>
-      <c r="AP34" s="77"/>
-      <c r="AQ34" s="77"/>
-      <c r="AR34" s="77"/>
-      <c r="AS34" s="77"/>
-      <c r="AT34" s="77"/>
-      <c r="AU34" s="77"/>
-      <c r="AV34" s="77"/>
-      <c r="AW34" s="77"/>
-      <c r="AX34" s="77"/>
-      <c r="AY34" s="77"/>
-      <c r="AZ34" s="77"/>
-      <c r="BA34" s="77"/>
-      <c r="BB34" s="77"/>
-      <c r="BC34" s="77"/>
-      <c r="BD34" s="77"/>
-      <c r="BE34" s="77"/>
-      <c r="BF34" s="77"/>
-      <c r="BG34" s="77"/>
-      <c r="BH34" s="77"/>
-      <c r="BI34" s="77"/>
-      <c r="BJ34" s="77"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="72"/>
+      <c r="Q34" s="72"/>
+      <c r="R34" s="72"/>
+      <c r="S34" s="72"/>
+      <c r="T34" s="72"/>
+      <c r="U34" s="72"/>
+      <c r="V34" s="72"/>
+      <c r="W34" s="72"/>
+      <c r="X34" s="72"/>
+      <c r="Y34" s="72"/>
+      <c r="Z34" s="72"/>
+      <c r="AA34" s="72"/>
+      <c r="AB34" s="72"/>
+      <c r="AC34" s="72"/>
+      <c r="AD34" s="72"/>
+      <c r="AE34" s="72"/>
+      <c r="AF34" s="72"/>
+      <c r="AG34" s="72"/>
+      <c r="AH34" s="72"/>
+      <c r="AI34" s="72"/>
+      <c r="AJ34" s="72"/>
+      <c r="AK34" s="72"/>
+      <c r="AL34" s="73"/>
+      <c r="AM34" s="73"/>
+      <c r="AN34" s="73"/>
+      <c r="AO34" s="73"/>
+      <c r="AP34" s="73"/>
+      <c r="AQ34" s="73"/>
+      <c r="AR34" s="73"/>
+      <c r="AS34" s="73"/>
+      <c r="AT34" s="73"/>
+      <c r="AU34" s="73"/>
+      <c r="AV34" s="73"/>
+      <c r="AW34" s="73"/>
+      <c r="AX34" s="73"/>
+      <c r="AY34" s="73"/>
+      <c r="AZ34" s="73"/>
+      <c r="BA34" s="73"/>
+      <c r="BB34" s="73"/>
+      <c r="BC34" s="73"/>
+      <c r="BD34" s="73"/>
+      <c r="BE34" s="73"/>
+      <c r="BF34" s="73"/>
+      <c r="BG34" s="73"/>
+      <c r="BH34" s="73"/>
+      <c r="BI34" s="73"/>
+      <c r="BJ34" s="73"/>
       <c r="BK34" s="2"/>
       <c r="BL34" s="16"/>
     </row>
     <row r="35" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="16"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="73" t="s">
+      <c r="C35" s="71" t="s">
         <v>191</v>
       </c>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="79" t="s">
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="G35" s="79"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="79"/>
-      <c r="J35" s="79"/>
-      <c r="K35" s="79"/>
-      <c r="L35" s="79"/>
-      <c r="M35" s="79"/>
-      <c r="N35" s="79"/>
-      <c r="O35" s="79"/>
-      <c r="P35" s="79"/>
-      <c r="Q35" s="79"/>
-      <c r="R35" s="79"/>
-      <c r="S35" s="79"/>
-      <c r="T35" s="79"/>
-      <c r="U35" s="79"/>
-      <c r="V35" s="79"/>
-      <c r="W35" s="79"/>
-      <c r="X35" s="79"/>
-      <c r="Y35" s="79"/>
-      <c r="Z35" s="79"/>
-      <c r="AA35" s="79"/>
-      <c r="AB35" s="79"/>
-      <c r="AC35" s="79"/>
-      <c r="AD35" s="79"/>
-      <c r="AE35" s="79"/>
-      <c r="AF35" s="79"/>
-      <c r="AG35" s="79"/>
-      <c r="AH35" s="79"/>
-      <c r="AI35" s="79"/>
-      <c r="AJ35" s="79"/>
-      <c r="AK35" s="79"/>
-      <c r="AL35" s="77"/>
-      <c r="AM35" s="77"/>
-      <c r="AN35" s="77"/>
-      <c r="AO35" s="77"/>
-      <c r="AP35" s="77"/>
-      <c r="AQ35" s="77"/>
-      <c r="AR35" s="77"/>
-      <c r="AS35" s="77"/>
-      <c r="AT35" s="77"/>
-      <c r="AU35" s="77"/>
-      <c r="AV35" s="77"/>
-      <c r="AW35" s="77"/>
-      <c r="AX35" s="77"/>
-      <c r="AY35" s="77"/>
-      <c r="AZ35" s="77"/>
-      <c r="BA35" s="77"/>
-      <c r="BB35" s="77"/>
-      <c r="BC35" s="77"/>
-      <c r="BD35" s="77"/>
-      <c r="BE35" s="77"/>
-      <c r="BF35" s="77"/>
-      <c r="BG35" s="77"/>
-      <c r="BH35" s="77"/>
-      <c r="BI35" s="77"/>
-      <c r="BJ35" s="77"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="72"/>
+      <c r="N35" s="72"/>
+      <c r="O35" s="72"/>
+      <c r="P35" s="72"/>
+      <c r="Q35" s="72"/>
+      <c r="R35" s="72"/>
+      <c r="S35" s="72"/>
+      <c r="T35" s="72"/>
+      <c r="U35" s="72"/>
+      <c r="V35" s="72"/>
+      <c r="W35" s="72"/>
+      <c r="X35" s="72"/>
+      <c r="Y35" s="72"/>
+      <c r="Z35" s="72"/>
+      <c r="AA35" s="72"/>
+      <c r="AB35" s="72"/>
+      <c r="AC35" s="72"/>
+      <c r="AD35" s="72"/>
+      <c r="AE35" s="72"/>
+      <c r="AF35" s="72"/>
+      <c r="AG35" s="72"/>
+      <c r="AH35" s="72"/>
+      <c r="AI35" s="72"/>
+      <c r="AJ35" s="72"/>
+      <c r="AK35" s="72"/>
+      <c r="AL35" s="73"/>
+      <c r="AM35" s="73"/>
+      <c r="AN35" s="73"/>
+      <c r="AO35" s="73"/>
+      <c r="AP35" s="73"/>
+      <c r="AQ35" s="73"/>
+      <c r="AR35" s="73"/>
+      <c r="AS35" s="73"/>
+      <c r="AT35" s="73"/>
+      <c r="AU35" s="73"/>
+      <c r="AV35" s="73"/>
+      <c r="AW35" s="73"/>
+      <c r="AX35" s="73"/>
+      <c r="AY35" s="73"/>
+      <c r="AZ35" s="73"/>
+      <c r="BA35" s="73"/>
+      <c r="BB35" s="73"/>
+      <c r="BC35" s="73"/>
+      <c r="BD35" s="73"/>
+      <c r="BE35" s="73"/>
+      <c r="BF35" s="73"/>
+      <c r="BG35" s="73"/>
+      <c r="BH35" s="73"/>
+      <c r="BI35" s="73"/>
+      <c r="BJ35" s="73"/>
       <c r="BK35" s="2"/>
       <c r="BL35" s="16"/>
     </row>
     <row r="36" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="16"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="73" t="s">
+      <c r="C36" s="71" t="s">
         <v>192</v>
       </c>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="79" t="s">
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="72" t="s">
         <v>200</v>
       </c>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="79"/>
-      <c r="J36" s="79"/>
-      <c r="K36" s="79"/>
-      <c r="L36" s="79"/>
-      <c r="M36" s="79"/>
-      <c r="N36" s="79"/>
-      <c r="O36" s="79"/>
-      <c r="P36" s="79"/>
-      <c r="Q36" s="79"/>
-      <c r="R36" s="79"/>
-      <c r="S36" s="79"/>
-      <c r="T36" s="79"/>
-      <c r="U36" s="79"/>
-      <c r="V36" s="79"/>
-      <c r="W36" s="79"/>
-      <c r="X36" s="79"/>
-      <c r="Y36" s="79"/>
-      <c r="Z36" s="79"/>
-      <c r="AA36" s="79"/>
-      <c r="AB36" s="79"/>
-      <c r="AC36" s="79"/>
-      <c r="AD36" s="79"/>
-      <c r="AE36" s="79"/>
-      <c r="AF36" s="79"/>
-      <c r="AG36" s="79"/>
-      <c r="AH36" s="79"/>
-      <c r="AI36" s="79"/>
-      <c r="AJ36" s="79"/>
-      <c r="AK36" s="79"/>
-      <c r="AL36" s="77"/>
-      <c r="AM36" s="77"/>
-      <c r="AN36" s="77"/>
-      <c r="AO36" s="77"/>
-      <c r="AP36" s="77"/>
-      <c r="AQ36" s="77"/>
-      <c r="AR36" s="77"/>
-      <c r="AS36" s="77"/>
-      <c r="AT36" s="77"/>
-      <c r="AU36" s="77"/>
-      <c r="AV36" s="77"/>
-      <c r="AW36" s="77"/>
-      <c r="AX36" s="77"/>
-      <c r="AY36" s="77"/>
-      <c r="AZ36" s="77"/>
-      <c r="BA36" s="77"/>
-      <c r="BB36" s="77"/>
-      <c r="BC36" s="77"/>
-      <c r="BD36" s="77"/>
-      <c r="BE36" s="77"/>
-      <c r="BF36" s="77"/>
-      <c r="BG36" s="77"/>
-      <c r="BH36" s="77"/>
-      <c r="BI36" s="77"/>
-      <c r="BJ36" s="77"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="72"/>
+      <c r="O36" s="72"/>
+      <c r="P36" s="72"/>
+      <c r="Q36" s="72"/>
+      <c r="R36" s="72"/>
+      <c r="S36" s="72"/>
+      <c r="T36" s="72"/>
+      <c r="U36" s="72"/>
+      <c r="V36" s="72"/>
+      <c r="W36" s="72"/>
+      <c r="X36" s="72"/>
+      <c r="Y36" s="72"/>
+      <c r="Z36" s="72"/>
+      <c r="AA36" s="72"/>
+      <c r="AB36" s="72"/>
+      <c r="AC36" s="72"/>
+      <c r="AD36" s="72"/>
+      <c r="AE36" s="72"/>
+      <c r="AF36" s="72"/>
+      <c r="AG36" s="72"/>
+      <c r="AH36" s="72"/>
+      <c r="AI36" s="72"/>
+      <c r="AJ36" s="72"/>
+      <c r="AK36" s="72"/>
+      <c r="AL36" s="73"/>
+      <c r="AM36" s="73"/>
+      <c r="AN36" s="73"/>
+      <c r="AO36" s="73"/>
+      <c r="AP36" s="73"/>
+      <c r="AQ36" s="73"/>
+      <c r="AR36" s="73"/>
+      <c r="AS36" s="73"/>
+      <c r="AT36" s="73"/>
+      <c r="AU36" s="73"/>
+      <c r="AV36" s="73"/>
+      <c r="AW36" s="73"/>
+      <c r="AX36" s="73"/>
+      <c r="AY36" s="73"/>
+      <c r="AZ36" s="73"/>
+      <c r="BA36" s="73"/>
+      <c r="BB36" s="73"/>
+      <c r="BC36" s="73"/>
+      <c r="BD36" s="73"/>
+      <c r="BE36" s="73"/>
+      <c r="BF36" s="73"/>
+      <c r="BG36" s="73"/>
+      <c r="BH36" s="73"/>
+      <c r="BI36" s="73"/>
+      <c r="BJ36" s="73"/>
       <c r="BK36" s="2"/>
       <c r="BL36" s="16"/>
     </row>
     <row r="37" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="16"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="73" t="s">
+      <c r="C37" s="71" t="s">
         <v>203</v>
       </c>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="79" t="s">
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="72" t="s">
         <v>204</v>
       </c>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="79"/>
-      <c r="J37" s="79"/>
-      <c r="K37" s="79"/>
-      <c r="L37" s="79"/>
-      <c r="M37" s="79"/>
-      <c r="N37" s="79"/>
-      <c r="O37" s="79"/>
-      <c r="P37" s="79"/>
-      <c r="Q37" s="79"/>
-      <c r="R37" s="79"/>
-      <c r="S37" s="79"/>
-      <c r="T37" s="79"/>
-      <c r="U37" s="79"/>
-      <c r="V37" s="79"/>
-      <c r="W37" s="79"/>
-      <c r="X37" s="79"/>
-      <c r="Y37" s="79"/>
-      <c r="Z37" s="79"/>
-      <c r="AA37" s="79"/>
-      <c r="AB37" s="79"/>
-      <c r="AC37" s="79"/>
-      <c r="AD37" s="79"/>
-      <c r="AE37" s="79"/>
-      <c r="AF37" s="79"/>
-      <c r="AG37" s="79"/>
-      <c r="AH37" s="79"/>
-      <c r="AI37" s="79"/>
-      <c r="AJ37" s="79"/>
-      <c r="AK37" s="79"/>
-      <c r="AL37" s="77"/>
-      <c r="AM37" s="77"/>
-      <c r="AN37" s="77"/>
-      <c r="AO37" s="77"/>
-      <c r="AP37" s="77"/>
-      <c r="AQ37" s="77"/>
-      <c r="AR37" s="77"/>
-      <c r="AS37" s="77"/>
-      <c r="AT37" s="77"/>
-      <c r="AU37" s="77"/>
-      <c r="AV37" s="77"/>
-      <c r="AW37" s="77"/>
-      <c r="AX37" s="77"/>
-      <c r="AY37" s="77"/>
-      <c r="AZ37" s="77"/>
-      <c r="BA37" s="77"/>
-      <c r="BB37" s="77"/>
-      <c r="BC37" s="77"/>
-      <c r="BD37" s="77"/>
-      <c r="BE37" s="77"/>
-      <c r="BF37" s="77"/>
-      <c r="BG37" s="77"/>
-      <c r="BH37" s="77"/>
-      <c r="BI37" s="77"/>
-      <c r="BJ37" s="77"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="72"/>
+      <c r="O37" s="72"/>
+      <c r="P37" s="72"/>
+      <c r="Q37" s="72"/>
+      <c r="R37" s="72"/>
+      <c r="S37" s="72"/>
+      <c r="T37" s="72"/>
+      <c r="U37" s="72"/>
+      <c r="V37" s="72"/>
+      <c r="W37" s="72"/>
+      <c r="X37" s="72"/>
+      <c r="Y37" s="72"/>
+      <c r="Z37" s="72"/>
+      <c r="AA37" s="72"/>
+      <c r="AB37" s="72"/>
+      <c r="AC37" s="72"/>
+      <c r="AD37" s="72"/>
+      <c r="AE37" s="72"/>
+      <c r="AF37" s="72"/>
+      <c r="AG37" s="72"/>
+      <c r="AH37" s="72"/>
+      <c r="AI37" s="72"/>
+      <c r="AJ37" s="72"/>
+      <c r="AK37" s="72"/>
+      <c r="AL37" s="73"/>
+      <c r="AM37" s="73"/>
+      <c r="AN37" s="73"/>
+      <c r="AO37" s="73"/>
+      <c r="AP37" s="73"/>
+      <c r="AQ37" s="73"/>
+      <c r="AR37" s="73"/>
+      <c r="AS37" s="73"/>
+      <c r="AT37" s="73"/>
+      <c r="AU37" s="73"/>
+      <c r="AV37" s="73"/>
+      <c r="AW37" s="73"/>
+      <c r="AX37" s="73"/>
+      <c r="AY37" s="73"/>
+      <c r="AZ37" s="73"/>
+      <c r="BA37" s="73"/>
+      <c r="BB37" s="73"/>
+      <c r="BC37" s="73"/>
+      <c r="BD37" s="73"/>
+      <c r="BE37" s="73"/>
+      <c r="BF37" s="73"/>
+      <c r="BG37" s="73"/>
+      <c r="BH37" s="73"/>
+      <c r="BI37" s="73"/>
+      <c r="BJ37" s="73"/>
       <c r="BK37" s="2"/>
       <c r="BL37" s="16"/>
     </row>
     <row r="38" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="16"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="73" t="s">
+      <c r="C38" s="71" t="s">
         <v>205</v>
       </c>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="79" t="s">
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="72" t="s">
         <v>206</v>
       </c>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="79"/>
-      <c r="J38" s="79"/>
-      <c r="K38" s="79"/>
-      <c r="L38" s="79"/>
-      <c r="M38" s="79"/>
-      <c r="N38" s="79"/>
-      <c r="O38" s="79"/>
-      <c r="P38" s="79"/>
-      <c r="Q38" s="79"/>
-      <c r="R38" s="79"/>
-      <c r="S38" s="79"/>
-      <c r="T38" s="79"/>
-      <c r="U38" s="79"/>
-      <c r="V38" s="79"/>
-      <c r="W38" s="79"/>
-      <c r="X38" s="79"/>
-      <c r="Y38" s="79"/>
-      <c r="Z38" s="79"/>
-      <c r="AA38" s="79"/>
-      <c r="AB38" s="79"/>
-      <c r="AC38" s="79"/>
-      <c r="AD38" s="79"/>
-      <c r="AE38" s="79"/>
-      <c r="AF38" s="79"/>
-      <c r="AG38" s="79"/>
-      <c r="AH38" s="79"/>
-      <c r="AI38" s="79"/>
-      <c r="AJ38" s="79"/>
-      <c r="AK38" s="79"/>
-      <c r="AL38" s="77"/>
-      <c r="AM38" s="77"/>
-      <c r="AN38" s="77"/>
-      <c r="AO38" s="77"/>
-      <c r="AP38" s="77"/>
-      <c r="AQ38" s="77"/>
-      <c r="AR38" s="77"/>
-      <c r="AS38" s="77"/>
-      <c r="AT38" s="77"/>
-      <c r="AU38" s="77"/>
-      <c r="AV38" s="77"/>
-      <c r="AW38" s="77"/>
-      <c r="AX38" s="77"/>
-      <c r="AY38" s="77"/>
-      <c r="AZ38" s="77"/>
-      <c r="BA38" s="77"/>
-      <c r="BB38" s="77"/>
-      <c r="BC38" s="77"/>
-      <c r="BD38" s="77"/>
-      <c r="BE38" s="77"/>
-      <c r="BF38" s="77"/>
-      <c r="BG38" s="77"/>
-      <c r="BH38" s="77"/>
-      <c r="BI38" s="77"/>
-      <c r="BJ38" s="77"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="72"/>
+      <c r="N38" s="72"/>
+      <c r="O38" s="72"/>
+      <c r="P38" s="72"/>
+      <c r="Q38" s="72"/>
+      <c r="R38" s="72"/>
+      <c r="S38" s="72"/>
+      <c r="T38" s="72"/>
+      <c r="U38" s="72"/>
+      <c r="V38" s="72"/>
+      <c r="W38" s="72"/>
+      <c r="X38" s="72"/>
+      <c r="Y38" s="72"/>
+      <c r="Z38" s="72"/>
+      <c r="AA38" s="72"/>
+      <c r="AB38" s="72"/>
+      <c r="AC38" s="72"/>
+      <c r="AD38" s="72"/>
+      <c r="AE38" s="72"/>
+      <c r="AF38" s="72"/>
+      <c r="AG38" s="72"/>
+      <c r="AH38" s="72"/>
+      <c r="AI38" s="72"/>
+      <c r="AJ38" s="72"/>
+      <c r="AK38" s="72"/>
+      <c r="AL38" s="73"/>
+      <c r="AM38" s="73"/>
+      <c r="AN38" s="73"/>
+      <c r="AO38" s="73"/>
+      <c r="AP38" s="73"/>
+      <c r="AQ38" s="73"/>
+      <c r="AR38" s="73"/>
+      <c r="AS38" s="73"/>
+      <c r="AT38" s="73"/>
+      <c r="AU38" s="73"/>
+      <c r="AV38" s="73"/>
+      <c r="AW38" s="73"/>
+      <c r="AX38" s="73"/>
+      <c r="AY38" s="73"/>
+      <c r="AZ38" s="73"/>
+      <c r="BA38" s="73"/>
+      <c r="BB38" s="73"/>
+      <c r="BC38" s="73"/>
+      <c r="BD38" s="73"/>
+      <c r="BE38" s="73"/>
+      <c r="BF38" s="73"/>
+      <c r="BG38" s="73"/>
+      <c r="BH38" s="73"/>
+      <c r="BI38" s="73"/>
+      <c r="BJ38" s="73"/>
       <c r="BK38" s="2"/>
       <c r="BL38" s="16"/>
     </row>
     <row r="39" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="73" t="s">
+      <c r="C39" s="71" t="s">
         <v>207</v>
       </c>
-      <c r="D39" s="73"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="79" t="s">
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="72" t="s">
         <v>208</v>
       </c>
-      <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="79"/>
-      <c r="J39" s="79"/>
-      <c r="K39" s="79"/>
-      <c r="L39" s="79"/>
-      <c r="M39" s="79"/>
-      <c r="N39" s="79"/>
-      <c r="O39" s="79"/>
-      <c r="P39" s="79"/>
-      <c r="Q39" s="79"/>
-      <c r="R39" s="79"/>
-      <c r="S39" s="79"/>
-      <c r="T39" s="79"/>
-      <c r="U39" s="79"/>
-      <c r="V39" s="79"/>
-      <c r="W39" s="79"/>
-      <c r="X39" s="79"/>
-      <c r="Y39" s="79"/>
-      <c r="Z39" s="79"/>
-      <c r="AA39" s="79"/>
-      <c r="AB39" s="79"/>
-      <c r="AC39" s="79"/>
-      <c r="AD39" s="79"/>
-      <c r="AE39" s="79"/>
-      <c r="AF39" s="79"/>
-      <c r="AG39" s="79"/>
-      <c r="AH39" s="79"/>
-      <c r="AI39" s="79"/>
-      <c r="AJ39" s="79"/>
-      <c r="AK39" s="79"/>
-      <c r="AL39" s="77"/>
-      <c r="AM39" s="77"/>
-      <c r="AN39" s="77"/>
-      <c r="AO39" s="77"/>
-      <c r="AP39" s="77"/>
-      <c r="AQ39" s="77"/>
-      <c r="AR39" s="77"/>
-      <c r="AS39" s="77"/>
-      <c r="AT39" s="77"/>
-      <c r="AU39" s="77"/>
-      <c r="AV39" s="77"/>
-      <c r="AW39" s="77"/>
-      <c r="AX39" s="77"/>
-      <c r="AY39" s="77"/>
-      <c r="AZ39" s="77"/>
-      <c r="BA39" s="77"/>
-      <c r="BB39" s="77"/>
-      <c r="BC39" s="77"/>
-      <c r="BD39" s="77"/>
-      <c r="BE39" s="77"/>
-      <c r="BF39" s="77"/>
-      <c r="BG39" s="77"/>
-      <c r="BH39" s="77"/>
-      <c r="BI39" s="77"/>
-      <c r="BJ39" s="77"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="72"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="72"/>
+      <c r="P39" s="72"/>
+      <c r="Q39" s="72"/>
+      <c r="R39" s="72"/>
+      <c r="S39" s="72"/>
+      <c r="T39" s="72"/>
+      <c r="U39" s="72"/>
+      <c r="V39" s="72"/>
+      <c r="W39" s="72"/>
+      <c r="X39" s="72"/>
+      <c r="Y39" s="72"/>
+      <c r="Z39" s="72"/>
+      <c r="AA39" s="72"/>
+      <c r="AB39" s="72"/>
+      <c r="AC39" s="72"/>
+      <c r="AD39" s="72"/>
+      <c r="AE39" s="72"/>
+      <c r="AF39" s="72"/>
+      <c r="AG39" s="72"/>
+      <c r="AH39" s="72"/>
+      <c r="AI39" s="72"/>
+      <c r="AJ39" s="72"/>
+      <c r="AK39" s="72"/>
+      <c r="AL39" s="73"/>
+      <c r="AM39" s="73"/>
+      <c r="AN39" s="73"/>
+      <c r="AO39" s="73"/>
+      <c r="AP39" s="73"/>
+      <c r="AQ39" s="73"/>
+      <c r="AR39" s="73"/>
+      <c r="AS39" s="73"/>
+      <c r="AT39" s="73"/>
+      <c r="AU39" s="73"/>
+      <c r="AV39" s="73"/>
+      <c r="AW39" s="73"/>
+      <c r="AX39" s="73"/>
+      <c r="AY39" s="73"/>
+      <c r="AZ39" s="73"/>
+      <c r="BA39" s="73"/>
+      <c r="BB39" s="73"/>
+      <c r="BC39" s="73"/>
+      <c r="BD39" s="73"/>
+      <c r="BE39" s="73"/>
+      <c r="BF39" s="73"/>
+      <c r="BG39" s="73"/>
+      <c r="BH39" s="73"/>
+      <c r="BI39" s="73"/>
+      <c r="BJ39" s="73"/>
       <c r="BK39" s="2"/>
       <c r="BL39" s="16"/>
     </row>
     <row r="40" spans="1:64" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="16"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="73" t="s">
+      <c r="C40" s="71" t="s">
         <v>209</v>
       </c>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="79" t="s">
+      <c r="D40" s="71"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79"/>
-      <c r="I40" s="79"/>
-      <c r="J40" s="79"/>
-      <c r="K40" s="79"/>
-      <c r="L40" s="79"/>
-      <c r="M40" s="79"/>
-      <c r="N40" s="79"/>
-      <c r="O40" s="79"/>
-      <c r="P40" s="79"/>
-      <c r="Q40" s="79"/>
-      <c r="R40" s="79"/>
-      <c r="S40" s="79"/>
-      <c r="T40" s="79"/>
-      <c r="U40" s="79"/>
-      <c r="V40" s="79"/>
-      <c r="W40" s="79"/>
-      <c r="X40" s="79"/>
-      <c r="Y40" s="79"/>
-      <c r="Z40" s="79"/>
-      <c r="AA40" s="79"/>
-      <c r="AB40" s="79"/>
-      <c r="AC40" s="79"/>
-      <c r="AD40" s="79"/>
-      <c r="AE40" s="79"/>
-      <c r="AF40" s="79"/>
-      <c r="AG40" s="79"/>
-      <c r="AH40" s="79"/>
-      <c r="AI40" s="79"/>
-      <c r="AJ40" s="79"/>
-      <c r="AK40" s="79"/>
-      <c r="AL40" s="77"/>
-      <c r="AM40" s="77"/>
-      <c r="AN40" s="77"/>
-      <c r="AO40" s="77"/>
-      <c r="AP40" s="77"/>
-      <c r="AQ40" s="77"/>
-      <c r="AR40" s="77"/>
-      <c r="AS40" s="77"/>
-      <c r="AT40" s="77"/>
-      <c r="AU40" s="77"/>
-      <c r="AV40" s="77"/>
-      <c r="AW40" s="77"/>
-      <c r="AX40" s="77"/>
-      <c r="AY40" s="77"/>
-      <c r="AZ40" s="77"/>
-      <c r="BA40" s="77"/>
-      <c r="BB40" s="77"/>
-      <c r="BC40" s="77"/>
-      <c r="BD40" s="77"/>
-      <c r="BE40" s="77"/>
-      <c r="BF40" s="77"/>
-      <c r="BG40" s="77"/>
-      <c r="BH40" s="77"/>
-      <c r="BI40" s="77"/>
-      <c r="BJ40" s="77"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="72"/>
+      <c r="N40" s="72"/>
+      <c r="O40" s="72"/>
+      <c r="P40" s="72"/>
+      <c r="Q40" s="72"/>
+      <c r="R40" s="72"/>
+      <c r="S40" s="72"/>
+      <c r="T40" s="72"/>
+      <c r="U40" s="72"/>
+      <c r="V40" s="72"/>
+      <c r="W40" s="72"/>
+      <c r="X40" s="72"/>
+      <c r="Y40" s="72"/>
+      <c r="Z40" s="72"/>
+      <c r="AA40" s="72"/>
+      <c r="AB40" s="72"/>
+      <c r="AC40" s="72"/>
+      <c r="AD40" s="72"/>
+      <c r="AE40" s="72"/>
+      <c r="AF40" s="72"/>
+      <c r="AG40" s="72"/>
+      <c r="AH40" s="72"/>
+      <c r="AI40" s="72"/>
+      <c r="AJ40" s="72"/>
+      <c r="AK40" s="72"/>
+      <c r="AL40" s="73"/>
+      <c r="AM40" s="73"/>
+      <c r="AN40" s="73"/>
+      <c r="AO40" s="73"/>
+      <c r="AP40" s="73"/>
+      <c r="AQ40" s="73"/>
+      <c r="AR40" s="73"/>
+      <c r="AS40" s="73"/>
+      <c r="AT40" s="73"/>
+      <c r="AU40" s="73"/>
+      <c r="AV40" s="73"/>
+      <c r="AW40" s="73"/>
+      <c r="AX40" s="73"/>
+      <c r="AY40" s="73"/>
+      <c r="AZ40" s="73"/>
+      <c r="BA40" s="73"/>
+      <c r="BB40" s="73"/>
+      <c r="BC40" s="73"/>
+      <c r="BD40" s="73"/>
+      <c r="BE40" s="73"/>
+      <c r="BF40" s="73"/>
+      <c r="BG40" s="73"/>
+      <c r="BH40" s="73"/>
+      <c r="BI40" s="73"/>
+      <c r="BJ40" s="73"/>
       <c r="BK40" s="2"/>
       <c r="BL40" s="16"/>
     </row>
@@ -10580,6 +10580,111 @@
     </row>
   </sheetData>
   <mergeCells count="117">
+    <mergeCell ref="B2:BK2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="Q3:AM3"/>
+    <mergeCell ref="AN3:AS3"/>
+    <mergeCell ref="AT3:AY3"/>
+    <mergeCell ref="AZ3:BE3"/>
+    <mergeCell ref="BF3:BK3"/>
+    <mergeCell ref="BF4:BK5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:AK7"/>
+    <mergeCell ref="AL7:BJ7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:AK8"/>
+    <mergeCell ref="AL8:BJ8"/>
+    <mergeCell ref="B4:K5"/>
+    <mergeCell ref="L4:P5"/>
+    <mergeCell ref="Q4:AM5"/>
+    <mergeCell ref="AN4:AS5"/>
+    <mergeCell ref="AT4:AY5"/>
+    <mergeCell ref="AZ4:BE5"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:AK11"/>
+    <mergeCell ref="AL11:BJ11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:AK12"/>
+    <mergeCell ref="AL12:BJ12"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:AK9"/>
+    <mergeCell ref="AL9:BJ9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:AK10"/>
+    <mergeCell ref="AL10:BJ10"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:AK15"/>
+    <mergeCell ref="AL15:BJ15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:AK16"/>
+    <mergeCell ref="AL16:BJ16"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:AK13"/>
+    <mergeCell ref="AL13:BJ13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:AK14"/>
+    <mergeCell ref="AL14:BJ14"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:AK19"/>
+    <mergeCell ref="AL19:BJ19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:AK20"/>
+    <mergeCell ref="AL20:BJ20"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:AK17"/>
+    <mergeCell ref="AL17:BJ17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:AK18"/>
+    <mergeCell ref="AL18:BJ18"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:AK23"/>
+    <mergeCell ref="AL23:BJ23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:AK24"/>
+    <mergeCell ref="AL24:BJ24"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:AK21"/>
+    <mergeCell ref="AL21:BJ21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:AK22"/>
+    <mergeCell ref="AL22:BJ22"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:AK27"/>
+    <mergeCell ref="AL27:BJ27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:AK28"/>
+    <mergeCell ref="AL28:BJ28"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:AK25"/>
+    <mergeCell ref="AL25:BJ25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:AK26"/>
+    <mergeCell ref="AL26:BJ26"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:AK31"/>
+    <mergeCell ref="AL31:BJ31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:AK32"/>
+    <mergeCell ref="AL32:BJ32"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:AK29"/>
+    <mergeCell ref="AL29:BJ29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:AK30"/>
+    <mergeCell ref="AL30:BJ30"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:AK35"/>
+    <mergeCell ref="AL35:BJ35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:AK36"/>
+    <mergeCell ref="AL36:BJ36"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:AK33"/>
+    <mergeCell ref="AL33:BJ33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:AK34"/>
+    <mergeCell ref="AL34:BJ34"/>
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="F39:AK39"/>
     <mergeCell ref="AL39:BJ39"/>
@@ -10592,111 +10697,6 @@
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="F38:AK38"/>
     <mergeCell ref="AL38:BJ38"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:AK35"/>
-    <mergeCell ref="AL35:BJ35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:AK36"/>
-    <mergeCell ref="AL36:BJ36"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:AK33"/>
-    <mergeCell ref="AL33:BJ33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:AK34"/>
-    <mergeCell ref="AL34:BJ34"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:AK31"/>
-    <mergeCell ref="AL31:BJ31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:AK32"/>
-    <mergeCell ref="AL32:BJ32"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:AK29"/>
-    <mergeCell ref="AL29:BJ29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:AK30"/>
-    <mergeCell ref="AL30:BJ30"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:AK27"/>
-    <mergeCell ref="AL27:BJ27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:AK28"/>
-    <mergeCell ref="AL28:BJ28"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:AK25"/>
-    <mergeCell ref="AL25:BJ25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:AK26"/>
-    <mergeCell ref="AL26:BJ26"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:AK23"/>
-    <mergeCell ref="AL23:BJ23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:AK24"/>
-    <mergeCell ref="AL24:BJ24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:AK21"/>
-    <mergeCell ref="AL21:BJ21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:AK22"/>
-    <mergeCell ref="AL22:BJ22"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:AK19"/>
-    <mergeCell ref="AL19:BJ19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:AK20"/>
-    <mergeCell ref="AL20:BJ20"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:AK17"/>
-    <mergeCell ref="AL17:BJ17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:AK18"/>
-    <mergeCell ref="AL18:BJ18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:AK15"/>
-    <mergeCell ref="AL15:BJ15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:AK16"/>
-    <mergeCell ref="AL16:BJ16"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:AK13"/>
-    <mergeCell ref="AL13:BJ13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:AK14"/>
-    <mergeCell ref="AL14:BJ14"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:AK11"/>
-    <mergeCell ref="AL11:BJ11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:AK12"/>
-    <mergeCell ref="AL12:BJ12"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:AK9"/>
-    <mergeCell ref="AL9:BJ9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:AK10"/>
-    <mergeCell ref="AL10:BJ10"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:AK7"/>
-    <mergeCell ref="AL7:BJ7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:AK8"/>
-    <mergeCell ref="AL8:BJ8"/>
-    <mergeCell ref="B4:K5"/>
-    <mergeCell ref="L4:P5"/>
-    <mergeCell ref="Q4:AM5"/>
-    <mergeCell ref="AN4:AS5"/>
-    <mergeCell ref="AT4:AY5"/>
-    <mergeCell ref="AZ4:BE5"/>
-    <mergeCell ref="B2:BK2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="Q3:AM3"/>
-    <mergeCell ref="AN3:AS3"/>
-    <mergeCell ref="AT3:AY3"/>
-    <mergeCell ref="AZ3:BE3"/>
-    <mergeCell ref="BF3:BK3"/>
-    <mergeCell ref="BF4:BK5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
